--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C589AD-6BCF-4440-8E64-E16E67F94A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8784B-8B89-2746-8601-E3ACA3249DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="240">
   <si>
     <t>Temps joué</t>
   </si>
@@ -738,6 +738,24 @@
   </si>
   <si>
     <t>01:55:38</t>
+  </si>
+  <si>
+    <t>01:26:21</t>
+  </si>
+  <si>
+    <t>01:28:09</t>
+  </si>
+  <si>
+    <t>01:26:10</t>
+  </si>
+  <si>
+    <t>01:28:36</t>
+  </si>
+  <si>
+    <t>01:27:50</t>
+  </si>
+  <si>
+    <t>01:20:18</t>
   </si>
 </sst>
 </file>
@@ -818,9 +836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -858,7 +876,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -964,7 +982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1114,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V222"/>
+  <dimension ref="A1:V230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15561,6 +15579,526 @@
         <v>2</v>
       </c>
     </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223" t="s">
+        <v>29</v>
+      </c>
+      <c r="G223" t="s">
+        <v>234</v>
+      </c>
+      <c r="H223">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>2.36</v>
+      </c>
+      <c r="Q223">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>43</v>
+      </c>
+      <c r="F224" t="s">
+        <v>34</v>
+      </c>
+      <c r="G224" t="s">
+        <v>235</v>
+      </c>
+      <c r="H224">
+        <v>7.15</v>
+      </c>
+      <c r="I224">
+        <v>1.66</v>
+      </c>
+      <c r="J224">
+        <v>5.47</v>
+      </c>
+      <c r="K224">
+        <v>0.77</v>
+      </c>
+      <c r="L224">
+        <v>0.9</v>
+      </c>
+      <c r="M224">
+        <v>0.01</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
+        <v>4.8</v>
+      </c>
+      <c r="Q224">
+        <v>26.86</v>
+      </c>
+      <c r="R224">
+        <v>4.46</v>
+      </c>
+      <c r="S224">
+        <v>45</v>
+      </c>
+      <c r="T224">
+        <v>6</v>
+      </c>
+      <c r="U224">
+        <v>21</v>
+      </c>
+      <c r="V224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>35</v>
+      </c>
+      <c r="F225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" t="s">
+        <v>236</v>
+      </c>
+      <c r="H225">
+        <v>7.73</v>
+      </c>
+      <c r="I225">
+        <v>1.6</v>
+      </c>
+      <c r="J225">
+        <v>6.12</v>
+      </c>
+      <c r="K225">
+        <v>1.27</v>
+      </c>
+      <c r="L225">
+        <v>0.33</v>
+      </c>
+      <c r="M225">
+        <v>0.01</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>1</v>
+      </c>
+      <c r="P225">
+        <v>5.33</v>
+      </c>
+      <c r="Q225">
+        <v>27.04</v>
+      </c>
+      <c r="R225">
+        <v>5.14</v>
+      </c>
+      <c r="S225">
+        <v>61</v>
+      </c>
+      <c r="T225">
+        <v>12</v>
+      </c>
+      <c r="U225">
+        <v>21</v>
+      </c>
+      <c r="V225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" t="s">
+        <v>52</v>
+      </c>
+      <c r="F226" t="s">
+        <v>33</v>
+      </c>
+      <c r="G226" t="s">
+        <v>237</v>
+      </c>
+      <c r="H226">
+        <v>7.05</v>
+      </c>
+      <c r="I226">
+        <v>1.35</v>
+      </c>
+      <c r="J226">
+        <v>5.69</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>0.35</v>
+      </c>
+      <c r="M226">
+        <v>0.01</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="P226">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="Q226">
+        <v>26.54</v>
+      </c>
+      <c r="R226">
+        <v>4.57</v>
+      </c>
+      <c r="S226">
+        <v>38</v>
+      </c>
+      <c r="T226">
+        <v>2</v>
+      </c>
+      <c r="U226">
+        <v>17</v>
+      </c>
+      <c r="V226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>53</v>
+      </c>
+      <c r="F227" t="s">
+        <v>32</v>
+      </c>
+      <c r="G227" t="s">
+        <v>238</v>
+      </c>
+      <c r="H227">
+        <v>7.59</v>
+      </c>
+      <c r="I227">
+        <v>1.39</v>
+      </c>
+      <c r="J227">
+        <v>6.2</v>
+      </c>
+      <c r="K227">
+        <v>1.22</v>
+      </c>
+      <c r="L227">
+        <v>0.17</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>5.13</v>
+      </c>
+      <c r="Q227">
+        <v>24.1</v>
+      </c>
+      <c r="R227">
+        <v>4.26</v>
+      </c>
+      <c r="S227">
+        <v>30</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>12</v>
+      </c>
+      <c r="V227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>40</v>
+      </c>
+      <c r="F228" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" t="s">
+        <v>239</v>
+      </c>
+      <c r="H228">
+        <v>5.97</v>
+      </c>
+      <c r="I228">
+        <v>1.03</v>
+      </c>
+      <c r="J228">
+        <v>4.93</v>
+      </c>
+      <c r="K228">
+        <v>0.89</v>
+      </c>
+      <c r="L228">
+        <v>0.12</v>
+      </c>
+      <c r="M228">
+        <v>0.03</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q228">
+        <v>27.76</v>
+      </c>
+      <c r="R228">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S228">
+        <v>24</v>
+      </c>
+      <c r="T228">
+        <v>10</v>
+      </c>
+      <c r="U228">
+        <v>23</v>
+      </c>
+      <c r="V228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C229" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" t="s">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>148</v>
+      </c>
+      <c r="H229">
+        <v>7.13</v>
+      </c>
+      <c r="I229">
+        <v>1.44</v>
+      </c>
+      <c r="J229">
+        <v>5.69</v>
+      </c>
+      <c r="K229">
+        <v>1.24</v>
+      </c>
+      <c r="L229">
+        <v>0.2</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>4.88</v>
+      </c>
+      <c r="Q229">
+        <v>21.56</v>
+      </c>
+      <c r="R229">
+        <v>4.21</v>
+      </c>
+      <c r="S229">
+        <v>32</v>
+      </c>
+      <c r="T229">
+        <v>3</v>
+      </c>
+      <c r="U229">
+        <v>9</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" t="s">
+        <v>164</v>
+      </c>
+      <c r="F230" t="s">
+        <v>32</v>
+      </c>
+      <c r="G230" t="s">
+        <v>235</v>
+      </c>
+      <c r="H230">
+        <v>6.85</v>
+      </c>
+      <c r="I230">
+        <v>1.44</v>
+      </c>
+      <c r="J230">
+        <v>5.4</v>
+      </c>
+      <c r="K230">
+        <v>1.28</v>
+      </c>
+      <c r="L230">
+        <v>0.17</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>4.45</v>
+      </c>
+      <c r="Q230">
+        <v>22.57</v>
+      </c>
+      <c r="R230">
+        <v>4.24</v>
+      </c>
+      <c r="S230">
+        <v>25</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>18</v>
+      </c>
+      <c r="V230">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8784B-8B89-2746-8601-E3ACA3249DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B0271-4893-614B-8DDC-452DF4AFF644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="239">
   <si>
     <t>Temps joué</t>
   </si>
@@ -738,9 +738,6 @@
   </si>
   <si>
     <t>01:55:38</t>
-  </si>
-  <si>
-    <t>01:26:21</t>
   </si>
   <si>
     <t>01:28:09</t>
@@ -1132,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V230"/>
+  <dimension ref="A1:V229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+      <selection activeCell="A223" sqref="A223:XFD223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15590,58 +15587,58 @@
         <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
         <v>234</v>
       </c>
       <c r="H223">
-        <v>4.0599999999999996</v>
+        <v>7.15</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="J223">
-        <v>4.0599999999999996</v>
+        <v>5.47</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="L223">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M223">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N223">
         <v>0</v>
       </c>
       <c r="O223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P223">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="Q223">
-        <v>8.8800000000000008</v>
+        <v>26.86</v>
       </c>
       <c r="R223">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="S223">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T223">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U223">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V223">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.2">
@@ -15655,7 +15652,7 @@
         <v>20</v>
       </c>
       <c r="E224" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
         <v>34</v>
@@ -15664,19 +15661,19 @@
         <v>235</v>
       </c>
       <c r="H224">
-        <v>7.15</v>
+        <v>7.73</v>
       </c>
       <c r="I224">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="J224">
-        <v>5.47</v>
+        <v>6.12</v>
       </c>
       <c r="K224">
-        <v>0.77</v>
+        <v>1.27</v>
       </c>
       <c r="L224">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="M224">
         <v>0.01</v>
@@ -15688,25 +15685,25 @@
         <v>1</v>
       </c>
       <c r="P224">
-        <v>4.8</v>
+        <v>5.33</v>
       </c>
       <c r="Q224">
-        <v>26.86</v>
+        <v>27.04</v>
       </c>
       <c r="R224">
-        <v>4.46</v>
+        <v>5.14</v>
       </c>
       <c r="S224">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="T224">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U224">
         <v>21</v>
       </c>
       <c r="V224">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.2">
@@ -15720,28 +15717,28 @@
         <v>20</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
         <v>236</v>
       </c>
       <c r="H225">
-        <v>7.73</v>
+        <v>7.05</v>
       </c>
       <c r="I225">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="J225">
-        <v>6.12</v>
+        <v>5.69</v>
       </c>
       <c r="K225">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="L225">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="M225">
         <v>0.01</v>
@@ -15753,25 +15750,25 @@
         <v>1</v>
       </c>
       <c r="P225">
-        <v>5.33</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Q225">
-        <v>27.04</v>
+        <v>26.54</v>
       </c>
       <c r="R225">
-        <v>5.14</v>
+        <v>4.57</v>
       </c>
       <c r="S225">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="T225">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U225">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V225">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.2">
@@ -15785,58 +15782,58 @@
         <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
         <v>237</v>
       </c>
       <c r="H226">
-        <v>7.05</v>
+        <v>7.59</v>
       </c>
       <c r="I226">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="J226">
-        <v>5.69</v>
+        <v>6.2</v>
       </c>
       <c r="K226">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="L226">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="M226">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <v>0</v>
       </c>
       <c r="O226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P226">
-        <v>4.7300000000000004</v>
+        <v>5.13</v>
       </c>
       <c r="Q226">
-        <v>26.54</v>
+        <v>24.1</v>
       </c>
       <c r="R226">
-        <v>4.57</v>
+        <v>4.26</v>
       </c>
       <c r="S226">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
+        <v>12</v>
+      </c>
+      <c r="V226">
         <v>2</v>
-      </c>
-      <c r="U226">
-        <v>17</v>
-      </c>
-      <c r="V226">
-        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.2">
@@ -15850,58 +15847,58 @@
         <v>20</v>
       </c>
       <c r="E227" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
         <v>238</v>
       </c>
       <c r="H227">
-        <v>7.59</v>
+        <v>5.97</v>
       </c>
       <c r="I227">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="J227">
-        <v>6.2</v>
+        <v>4.93</v>
       </c>
       <c r="K227">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="L227">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="M227">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N227">
         <v>0</v>
       </c>
       <c r="O227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P227">
-        <v>5.13</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="Q227">
-        <v>24.1</v>
+        <v>27.76</v>
       </c>
       <c r="R227">
-        <v>4.26</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S227">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U227">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.2">
@@ -15915,58 +15912,58 @@
         <v>20</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="H228">
-        <v>5.97</v>
+        <v>7.13</v>
       </c>
       <c r="I228">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="J228">
-        <v>4.93</v>
+        <v>5.69</v>
       </c>
       <c r="K228">
-        <v>0.89</v>
+        <v>1.24</v>
       </c>
       <c r="L228">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="M228">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N228">
         <v>0</v>
       </c>
       <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>4.88</v>
+      </c>
+      <c r="Q228">
+        <v>21.56</v>
+      </c>
+      <c r="R228">
+        <v>4.21</v>
+      </c>
+      <c r="S228">
+        <v>32</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="P228">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="Q228">
-        <v>27.76</v>
-      </c>
-      <c r="R228">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="S228">
-        <v>24</v>
-      </c>
-      <c r="T228">
-        <v>10</v>
-      </c>
       <c r="U228">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="V228">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.2">
@@ -15980,28 +15977,28 @@
         <v>20</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="H229">
-        <v>7.13</v>
+        <v>6.85</v>
       </c>
       <c r="I229">
         <v>1.44</v>
       </c>
       <c r="J229">
-        <v>5.69</v>
+        <v>5.4</v>
       </c>
       <c r="K229">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="L229">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M229">
         <v>0</v>
@@ -16013,89 +16010,24 @@
         <v>0</v>
       </c>
       <c r="P229">
-        <v>4.88</v>
+        <v>4.45</v>
       </c>
       <c r="Q229">
-        <v>21.56</v>
+        <v>22.57</v>
       </c>
       <c r="R229">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="S229">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U229">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="V229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" s="1">
-        <v>45874</v>
-      </c>
-      <c r="C230" t="s">
-        <v>20</v>
-      </c>
-      <c r="E230" t="s">
-        <v>164</v>
-      </c>
-      <c r="F230" t="s">
-        <v>32</v>
-      </c>
-      <c r="G230" t="s">
-        <v>235</v>
-      </c>
-      <c r="H230">
-        <v>6.85</v>
-      </c>
-      <c r="I230">
-        <v>1.44</v>
-      </c>
-      <c r="J230">
-        <v>5.4</v>
-      </c>
-      <c r="K230">
-        <v>1.28</v>
-      </c>
-      <c r="L230">
-        <v>0.17</v>
-      </c>
-      <c r="M230">
-        <v>0</v>
-      </c>
-      <c r="N230">
-        <v>0</v>
-      </c>
-      <c r="O230">
-        <v>0</v>
-      </c>
-      <c r="P230">
-        <v>4.45</v>
-      </c>
-      <c r="Q230">
-        <v>22.57</v>
-      </c>
-      <c r="R230">
-        <v>4.24</v>
-      </c>
-      <c r="S230">
-        <v>25</v>
-      </c>
-      <c r="T230">
-        <v>1</v>
-      </c>
-      <c r="U230">
-        <v>18</v>
-      </c>
-      <c r="V230">
         <v>5</v>
       </c>
     </row>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B0271-4893-614B-8DDC-452DF4AFF644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8A0FC-0835-8445-B634-3629427B4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="258">
   <si>
     <t>Temps joué</t>
   </si>
@@ -753,13 +753,70 @@
   </si>
   <si>
     <t>01:20:18</t>
+  </si>
+  <si>
+    <t>00:46:11</t>
+  </si>
+  <si>
+    <t>00:45:58</t>
+  </si>
+  <si>
+    <t>01:02:09</t>
+  </si>
+  <si>
+    <t>00:46:41</t>
+  </si>
+  <si>
+    <t>00:45:50</t>
+  </si>
+  <si>
+    <t>00:47:24</t>
+  </si>
+  <si>
+    <t>Rayane Chayebi</t>
+  </si>
+  <si>
+    <t>00:45:43</t>
+  </si>
+  <si>
+    <t>00:47:31</t>
+  </si>
+  <si>
+    <t>00:46:48</t>
+  </si>
+  <si>
+    <t>00:46:40</t>
+  </si>
+  <si>
+    <t>Brahim Boudilbi</t>
+  </si>
+  <si>
+    <t>Kamal Bafounta</t>
+  </si>
+  <si>
+    <t>00:58:50</t>
+  </si>
+  <si>
+    <t>00:58:20</t>
+  </si>
+  <si>
+    <t>00:59:48</t>
+  </si>
+  <si>
+    <t>00:58:59</t>
+  </si>
+  <si>
+    <t>00:59:38</t>
+  </si>
+  <si>
+    <t>01:00:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,6 +840,12 @@
       <color theme="1"/>
       <name val="Calibri (Corps)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -804,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -815,6 +878,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V229"/>
+  <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:XFD223"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16031,6 +16095,1696 @@
         <v>5</v>
       </c>
     </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>163</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>32</v>
+      </c>
+      <c r="G230" t="s">
+        <v>239</v>
+      </c>
+      <c r="H230">
+        <v>5.39</v>
+      </c>
+      <c r="I230">
+        <v>0.8</v>
+      </c>
+      <c r="J230">
+        <v>4.57</v>
+      </c>
+      <c r="K230">
+        <v>0.64</v>
+      </c>
+      <c r="L230">
+        <v>0.16</v>
+      </c>
+      <c r="M230">
+        <v>0.02</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>1</v>
+      </c>
+      <c r="P230">
+        <v>7</v>
+      </c>
+      <c r="Q230">
+        <v>26.48</v>
+      </c>
+      <c r="R230">
+        <v>4.46</v>
+      </c>
+      <c r="S230">
+        <v>15</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>13</v>
+      </c>
+      <c r="V230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>163</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>93</v>
+      </c>
+      <c r="F231" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" t="s">
+        <v>240</v>
+      </c>
+      <c r="H231">
+        <v>4.38</v>
+      </c>
+      <c r="I231">
+        <v>0.7</v>
+      </c>
+      <c r="J231">
+        <v>3.67</v>
+      </c>
+      <c r="K231">
+        <v>0.4</v>
+      </c>
+      <c r="L231">
+        <v>0.22</v>
+      </c>
+      <c r="M231">
+        <v>0.08</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>8</v>
+      </c>
+      <c r="P231">
+        <v>5.85</v>
+      </c>
+      <c r="Q231">
+        <v>29.21</v>
+      </c>
+      <c r="R231">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S231">
+        <v>10</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>9</v>
+      </c>
+      <c r="V231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>163</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>53</v>
+      </c>
+      <c r="F232" t="s">
+        <v>32</v>
+      </c>
+      <c r="G232" t="s">
+        <v>241</v>
+      </c>
+      <c r="H232">
+        <v>8.35</v>
+      </c>
+      <c r="I232">
+        <v>1.78</v>
+      </c>
+      <c r="J232">
+        <v>6.55</v>
+      </c>
+      <c r="K232">
+        <v>1.57</v>
+      </c>
+      <c r="L232">
+        <v>0.22</v>
+      </c>
+      <c r="M232">
+        <v>0.01</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>2</v>
+      </c>
+      <c r="P232">
+        <v>8.01</v>
+      </c>
+      <c r="Q232">
+        <v>25.78</v>
+      </c>
+      <c r="R232">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S232">
+        <v>32</v>
+      </c>
+      <c r="T232">
+        <v>8</v>
+      </c>
+      <c r="U232">
+        <v>17</v>
+      </c>
+      <c r="V232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>163</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" t="s">
+        <v>50</v>
+      </c>
+      <c r="F233" t="s">
+        <v>33</v>
+      </c>
+      <c r="G233" t="s">
+        <v>242</v>
+      </c>
+      <c r="H233">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I233">
+        <v>0.68</v>
+      </c>
+      <c r="J233">
+        <v>4.29</v>
+      </c>
+      <c r="K233">
+        <v>0.41</v>
+      </c>
+      <c r="L233">
+        <v>0.21</v>
+      </c>
+      <c r="M233">
+        <v>0.08</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>6</v>
+      </c>
+      <c r="P233">
+        <v>6.34</v>
+      </c>
+      <c r="Q233">
+        <v>28.1</v>
+      </c>
+      <c r="R233">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S233">
+        <v>22</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>17</v>
+      </c>
+      <c r="V233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>163</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" t="s">
+        <v>35</v>
+      </c>
+      <c r="F234" t="s">
+        <v>34</v>
+      </c>
+      <c r="G234" t="s">
+        <v>243</v>
+      </c>
+      <c r="H234">
+        <v>5.68</v>
+      </c>
+      <c r="I234">
+        <v>1.32</v>
+      </c>
+      <c r="J234">
+        <v>4.34</v>
+      </c>
+      <c r="K234">
+        <v>0.85</v>
+      </c>
+      <c r="L234">
+        <v>0.36</v>
+      </c>
+      <c r="M234">
+        <v>0.13</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>9</v>
+      </c>
+      <c r="P234">
+        <v>7.41</v>
+      </c>
+      <c r="Q234">
+        <v>29.72</v>
+      </c>
+      <c r="R234">
+        <v>4.87</v>
+      </c>
+      <c r="S234">
+        <v>37</v>
+      </c>
+      <c r="T234">
+        <v>7</v>
+      </c>
+      <c r="U234">
+        <v>16</v>
+      </c>
+      <c r="V234">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>163</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" t="s">
+        <v>55</v>
+      </c>
+      <c r="F235" t="s">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>240</v>
+      </c>
+      <c r="H235">
+        <v>5.67</v>
+      </c>
+      <c r="I235">
+        <v>1.27</v>
+      </c>
+      <c r="J235">
+        <v>4.38</v>
+      </c>
+      <c r="K235">
+        <v>0.81</v>
+      </c>
+      <c r="L235">
+        <v>0.38</v>
+      </c>
+      <c r="M235">
+        <v>0.09</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>9</v>
+      </c>
+      <c r="P235">
+        <v>7.35</v>
+      </c>
+      <c r="Q235">
+        <v>27.62</v>
+      </c>
+      <c r="R235">
+        <v>5.23</v>
+      </c>
+      <c r="S235">
+        <v>29</v>
+      </c>
+      <c r="T235">
+        <v>2</v>
+      </c>
+      <c r="U235">
+        <v>22</v>
+      </c>
+      <c r="V235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>163</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" t="s">
+        <v>36</v>
+      </c>
+      <c r="F236" t="s">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>240</v>
+      </c>
+      <c r="H236">
+        <v>5.74</v>
+      </c>
+      <c r="I236">
+        <v>1.34</v>
+      </c>
+      <c r="J236">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K236">
+        <v>0.85</v>
+      </c>
+      <c r="L236">
+        <v>0.45</v>
+      </c>
+      <c r="M236">
+        <v>0.05</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>5</v>
+      </c>
+      <c r="P236">
+        <v>7.51</v>
+      </c>
+      <c r="Q236">
+        <v>27.1</v>
+      </c>
+      <c r="R236">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S236">
+        <v>21</v>
+      </c>
+      <c r="T236">
+        <v>6</v>
+      </c>
+      <c r="U236">
+        <v>24</v>
+      </c>
+      <c r="V236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>163</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" t="s">
+        <v>52</v>
+      </c>
+      <c r="F237" t="s">
+        <v>33</v>
+      </c>
+      <c r="G237" t="s">
+        <v>240</v>
+      </c>
+      <c r="H237">
+        <v>5.48</v>
+      </c>
+      <c r="I237">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J237">
+        <v>4.33</v>
+      </c>
+      <c r="K237">
+        <v>0.68</v>
+      </c>
+      <c r="L237">
+        <v>0.36</v>
+      </c>
+      <c r="M237">
+        <v>0.09</v>
+      </c>
+      <c r="N237">
+        <v>0.01</v>
+      </c>
+      <c r="O237">
+        <v>8</v>
+      </c>
+      <c r="P237">
+        <v>7.1</v>
+      </c>
+      <c r="Q237">
+        <v>30.59</v>
+      </c>
+      <c r="R237">
+        <v>4.32</v>
+      </c>
+      <c r="S237">
+        <v>17</v>
+      </c>
+      <c r="T237">
+        <v>5</v>
+      </c>
+      <c r="U237">
+        <v>21</v>
+      </c>
+      <c r="V237">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>163</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" t="s">
+        <v>48</v>
+      </c>
+      <c r="F238" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>243</v>
+      </c>
+      <c r="H238">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I238">
+        <v>0.7</v>
+      </c>
+      <c r="J238">
+        <v>3.98</v>
+      </c>
+      <c r="K238">
+        <v>0.39</v>
+      </c>
+      <c r="L238">
+        <v>0.23</v>
+      </c>
+      <c r="M238">
+        <v>0.08</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>5</v>
+      </c>
+      <c r="P238">
+        <v>6.16</v>
+      </c>
+      <c r="Q238">
+        <v>30.41</v>
+      </c>
+      <c r="R238">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S238">
+        <v>15</v>
+      </c>
+      <c r="T238">
+        <v>1</v>
+      </c>
+      <c r="U238">
+        <v>13</v>
+      </c>
+      <c r="V238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>163</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239" t="s">
+        <v>34</v>
+      </c>
+      <c r="G239" t="s">
+        <v>244</v>
+      </c>
+      <c r="H239">
+        <v>5.73</v>
+      </c>
+      <c r="I239">
+        <v>1.4</v>
+      </c>
+      <c r="J239">
+        <v>4.32</v>
+      </c>
+      <c r="K239">
+        <v>0.91</v>
+      </c>
+      <c r="L239">
+        <v>0.43</v>
+      </c>
+      <c r="M239">
+        <v>0.08</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>8</v>
+      </c>
+      <c r="P239">
+        <v>7.23</v>
+      </c>
+      <c r="Q239">
+        <v>27.93</v>
+      </c>
+      <c r="R239">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S239">
+        <v>25</v>
+      </c>
+      <c r="T239">
+        <v>5</v>
+      </c>
+      <c r="U239">
+        <v>25</v>
+      </c>
+      <c r="V239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>163</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>245</v>
+      </c>
+      <c r="F240" t="s">
+        <v>32</v>
+      </c>
+      <c r="G240" t="s">
+        <v>246</v>
+      </c>
+      <c r="H240">
+        <v>5.04</v>
+      </c>
+      <c r="I240">
+        <v>0.64</v>
+      </c>
+      <c r="J240">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K240">
+        <v>0.45</v>
+      </c>
+      <c r="L240">
+        <v>0.17</v>
+      </c>
+      <c r="M240">
+        <v>0.03</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>4</v>
+      </c>
+      <c r="P240">
+        <v>6.61</v>
+      </c>
+      <c r="Q240">
+        <v>27.59</v>
+      </c>
+      <c r="R240">
+        <v>4.53</v>
+      </c>
+      <c r="S240">
+        <v>16</v>
+      </c>
+      <c r="T240">
+        <v>6</v>
+      </c>
+      <c r="U240">
+        <v>19</v>
+      </c>
+      <c r="V240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>163</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>39</v>
+      </c>
+      <c r="F241" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" t="s">
+        <v>247</v>
+      </c>
+      <c r="H241">
+        <v>5.37</v>
+      </c>
+      <c r="I241">
+        <v>0.76</v>
+      </c>
+      <c r="J241">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K241">
+        <v>0.52</v>
+      </c>
+      <c r="L241">
+        <v>0.19</v>
+      </c>
+      <c r="M241">
+        <v>0.05</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>6.73</v>
+      </c>
+      <c r="Q241">
+        <v>28.85</v>
+      </c>
+      <c r="R241">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S241">
+        <v>21</v>
+      </c>
+      <c r="T241">
+        <v>1</v>
+      </c>
+      <c r="U241">
+        <v>22</v>
+      </c>
+      <c r="V241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>163</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>40</v>
+      </c>
+      <c r="F242" t="s">
+        <v>31</v>
+      </c>
+      <c r="G242" t="s">
+        <v>246</v>
+      </c>
+      <c r="H242">
+        <v>5.43</v>
+      </c>
+      <c r="I242">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J242">
+        <v>4.26</v>
+      </c>
+      <c r="K242">
+        <v>0.69</v>
+      </c>
+      <c r="L242">
+        <v>0.39</v>
+      </c>
+      <c r="M242">
+        <v>0.09</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>8</v>
+      </c>
+      <c r="P242">
+        <v>7.08</v>
+      </c>
+      <c r="Q242">
+        <v>29.6</v>
+      </c>
+      <c r="R242">
+        <v>4.93</v>
+      </c>
+      <c r="S242">
+        <v>28</v>
+      </c>
+      <c r="T242">
+        <v>8</v>
+      </c>
+      <c r="U242">
+        <v>30</v>
+      </c>
+      <c r="V242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>163</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243" t="s">
+        <v>29</v>
+      </c>
+      <c r="G243" t="s">
+        <v>243</v>
+      </c>
+      <c r="H243">
+        <v>5.5</v>
+      </c>
+      <c r="I243">
+        <v>0.99</v>
+      </c>
+      <c r="J243">
+        <v>4.51</v>
+      </c>
+      <c r="K243">
+        <v>0.65</v>
+      </c>
+      <c r="L243">
+        <v>0.25</v>
+      </c>
+      <c r="M243">
+        <v>0.1</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>7</v>
+      </c>
+      <c r="P243">
+        <v>7.24</v>
+      </c>
+      <c r="Q243">
+        <v>27.69</v>
+      </c>
+      <c r="R243">
+        <v>4.12</v>
+      </c>
+      <c r="S243">
+        <v>19</v>
+      </c>
+      <c r="T243">
+        <v>1</v>
+      </c>
+      <c r="U243">
+        <v>15</v>
+      </c>
+      <c r="V243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>163</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F244" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" t="s">
+        <v>248</v>
+      </c>
+      <c r="H244">
+        <v>6.09</v>
+      </c>
+      <c r="I244">
+        <v>1.54</v>
+      </c>
+      <c r="J244">
+        <v>4.53</v>
+      </c>
+      <c r="K244">
+        <v>0.94</v>
+      </c>
+      <c r="L244">
+        <v>0.48</v>
+      </c>
+      <c r="M244">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>14</v>
+      </c>
+      <c r="P244">
+        <v>7.78</v>
+      </c>
+      <c r="Q244">
+        <v>29.67</v>
+      </c>
+      <c r="R244">
+        <v>4.78</v>
+      </c>
+      <c r="S244">
+        <v>26</v>
+      </c>
+      <c r="T244">
+        <v>7</v>
+      </c>
+      <c r="U244">
+        <v>31</v>
+      </c>
+      <c r="V244">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>163</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>159</v>
+      </c>
+      <c r="H245">
+        <v>4.95</v>
+      </c>
+      <c r="I245">
+        <v>0.88</v>
+      </c>
+      <c r="J245">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K245">
+        <v>0.53</v>
+      </c>
+      <c r="L245">
+        <v>0.32</v>
+      </c>
+      <c r="M245">
+        <v>0.04</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>4</v>
+      </c>
+      <c r="P245">
+        <v>6.18</v>
+      </c>
+      <c r="Q245">
+        <v>28.54</v>
+      </c>
+      <c r="R245">
+        <v>4.55</v>
+      </c>
+      <c r="S245">
+        <v>15</v>
+      </c>
+      <c r="T245">
+        <v>7</v>
+      </c>
+      <c r="U245">
+        <v>17</v>
+      </c>
+      <c r="V245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>163</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C246" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G246" t="s">
+        <v>249</v>
+      </c>
+      <c r="H246">
+        <v>5.71</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K246">
+        <v>0.69</v>
+      </c>
+      <c r="L246">
+        <v>0.26</v>
+      </c>
+      <c r="M246">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>7</v>
+      </c>
+      <c r="P246">
+        <v>7.31</v>
+      </c>
+      <c r="Q246">
+        <v>27.95</v>
+      </c>
+      <c r="R246">
+        <v>4.76</v>
+      </c>
+      <c r="S246">
+        <v>14</v>
+      </c>
+      <c r="T246">
+        <v>4</v>
+      </c>
+      <c r="U246">
+        <v>20</v>
+      </c>
+      <c r="V246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>163</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G247" t="s">
+        <v>247</v>
+      </c>
+      <c r="H247">
+        <v>5.61</v>
+      </c>
+      <c r="I247">
+        <v>1.27</v>
+      </c>
+      <c r="J247">
+        <v>4.32</v>
+      </c>
+      <c r="K247">
+        <v>0.84</v>
+      </c>
+      <c r="L247">
+        <v>0.35</v>
+      </c>
+      <c r="M247">
+        <v>0.09</v>
+      </c>
+      <c r="N247">
+        <v>0.01</v>
+      </c>
+      <c r="O247">
+        <v>7</v>
+      </c>
+      <c r="P247">
+        <v>7.03</v>
+      </c>
+      <c r="Q247">
+        <v>31.5</v>
+      </c>
+      <c r="R247">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S247">
+        <v>30</v>
+      </c>
+      <c r="T247">
+        <v>5</v>
+      </c>
+      <c r="U247">
+        <v>35</v>
+      </c>
+      <c r="V247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>163</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F248" t="s">
+        <v>29</v>
+      </c>
+      <c r="G248" t="s">
+        <v>244</v>
+      </c>
+      <c r="H248">
+        <v>5.09</v>
+      </c>
+      <c r="I248">
+        <v>0.8</v>
+      </c>
+      <c r="J248">
+        <v>4.28</v>
+      </c>
+      <c r="K248">
+        <v>0.5</v>
+      </c>
+      <c r="L248">
+        <v>0.24</v>
+      </c>
+      <c r="M248">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>6</v>
+      </c>
+      <c r="P248">
+        <v>6.43</v>
+      </c>
+      <c r="Q248">
+        <v>27.54</v>
+      </c>
+      <c r="R248">
+        <v>4.28</v>
+      </c>
+      <c r="S248">
+        <v>18</v>
+      </c>
+      <c r="T248">
+        <v>2</v>
+      </c>
+      <c r="U248">
+        <v>19</v>
+      </c>
+      <c r="V248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C249" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" t="s">
+        <v>33</v>
+      </c>
+      <c r="G249" t="s">
+        <v>252</v>
+      </c>
+      <c r="H249">
+        <v>3.08</v>
+      </c>
+      <c r="I249">
+        <v>0.18</v>
+      </c>
+      <c r="J249">
+        <v>2.9</v>
+      </c>
+      <c r="K249">
+        <v>0.09</v>
+      </c>
+      <c r="L249">
+        <v>0.09</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>3.01</v>
+      </c>
+      <c r="Q249">
+        <v>23.81</v>
+      </c>
+      <c r="R249">
+        <v>4.32</v>
+      </c>
+      <c r="S249">
+        <v>10</v>
+      </c>
+      <c r="T249">
+        <v>5</v>
+      </c>
+      <c r="U249">
+        <v>6</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>52</v>
+      </c>
+      <c r="F250" t="s">
+        <v>33</v>
+      </c>
+      <c r="G250" t="s">
+        <v>253</v>
+      </c>
+      <c r="H250">
+        <v>3.52</v>
+      </c>
+      <c r="I250">
+        <v>0.22</v>
+      </c>
+      <c r="J250">
+        <v>3.3</v>
+      </c>
+      <c r="K250">
+        <v>0.09</v>
+      </c>
+      <c r="L250">
+        <v>0.13</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>3.5</v>
+      </c>
+      <c r="Q250">
+        <v>23.85</v>
+      </c>
+      <c r="R250">
+        <v>4.09</v>
+      </c>
+      <c r="S250">
+        <v>10</v>
+      </c>
+      <c r="T250">
+        <v>2</v>
+      </c>
+      <c r="U250">
+        <v>1</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>43</v>
+      </c>
+      <c r="F251" t="s">
+        <v>34</v>
+      </c>
+      <c r="G251" t="s">
+        <v>254</v>
+      </c>
+      <c r="H251">
+        <v>3.05</v>
+      </c>
+      <c r="I251">
+        <v>0.12</v>
+      </c>
+      <c r="J251">
+        <v>2.92</v>
+      </c>
+      <c r="K251">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L251">
+        <v>0.05</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251">
+        <v>2.93</v>
+      </c>
+      <c r="Q251">
+        <v>25.61</v>
+      </c>
+      <c r="R251">
+        <v>4.92</v>
+      </c>
+      <c r="S251">
+        <v>5</v>
+      </c>
+      <c r="T251">
+        <v>5</v>
+      </c>
+      <c r="U251">
+        <v>6</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" t="s">
+        <v>16</v>
+      </c>
+      <c r="F252" t="s">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>255</v>
+      </c>
+      <c r="H252">
+        <v>2.85</v>
+      </c>
+      <c r="I252">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J252">
+        <v>2.71</v>
+      </c>
+      <c r="K252">
+        <v>0.06</v>
+      </c>
+      <c r="L252">
+        <v>0.08</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>2.72</v>
+      </c>
+      <c r="Q252">
+        <v>24.92</v>
+      </c>
+      <c r="R252">
+        <v>4.67</v>
+      </c>
+      <c r="S252">
+        <v>3</v>
+      </c>
+      <c r="T252">
+        <v>9</v>
+      </c>
+      <c r="U252">
+        <v>7</v>
+      </c>
+      <c r="V252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" t="s">
+        <v>164</v>
+      </c>
+      <c r="F253" t="s">
+        <v>32</v>
+      </c>
+      <c r="G253" t="s">
+        <v>256</v>
+      </c>
+      <c r="H253">
+        <v>3.42</v>
+      </c>
+      <c r="I253">
+        <v>0.16</v>
+      </c>
+      <c r="J253">
+        <v>3.26</v>
+      </c>
+      <c r="K253">
+        <v>0.12</v>
+      </c>
+      <c r="L253">
+        <v>0.04</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>3.34</v>
+      </c>
+      <c r="Q253">
+        <v>23.77</v>
+      </c>
+      <c r="R253">
+        <v>4.08</v>
+      </c>
+      <c r="S253">
+        <v>10</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" t="s">
+        <v>39</v>
+      </c>
+      <c r="F254" t="s">
+        <v>29</v>
+      </c>
+      <c r="G254" t="s">
+        <v>257</v>
+      </c>
+      <c r="H254">
+        <v>3.64</v>
+      </c>
+      <c r="I254">
+        <v>0.17</v>
+      </c>
+      <c r="J254">
+        <v>3.46</v>
+      </c>
+      <c r="K254">
+        <v>0.16</v>
+      </c>
+      <c r="L254">
+        <v>0.02</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>3.53</v>
+      </c>
+      <c r="Q254">
+        <v>21.98</v>
+      </c>
+      <c r="R254">
+        <v>3.87</v>
+      </c>
+      <c r="S254">
+        <v>12</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>5</v>
+      </c>
+      <c r="V254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" t="s">
+        <v>53</v>
+      </c>
+      <c r="F255" t="s">
+        <v>32</v>
+      </c>
+      <c r="G255" t="s">
+        <v>257</v>
+      </c>
+      <c r="H255">
+        <v>3.7</v>
+      </c>
+      <c r="I255">
+        <v>0.12</v>
+      </c>
+      <c r="J255">
+        <v>3.57</v>
+      </c>
+      <c r="K255">
+        <v>0.11</v>
+      </c>
+      <c r="L255">
+        <v>0.02</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>3.53</v>
+      </c>
+      <c r="Q255">
+        <v>22.11</v>
+      </c>
+      <c r="R255">
+        <v>5.37</v>
+      </c>
+      <c r="S255">
+        <v>15</v>
+      </c>
+      <c r="T255">
+        <v>3</v>
+      </c>
+      <c r="U255">
+        <v>11</v>
+      </c>
+      <c r="V255">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8A0FC-0835-8445-B634-3629427B4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D0B7E-A3EC-A745-B9F4-427FE91EE661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="267">
   <si>
     <t>Temps joué</t>
   </si>
@@ -810,6 +810,33 @@
   </si>
   <si>
     <t>01:00:07</t>
+  </si>
+  <si>
+    <t>01:18:46</t>
+  </si>
+  <si>
+    <t>01:28:54</t>
+  </si>
+  <si>
+    <t>01:24:37</t>
+  </si>
+  <si>
+    <t>01:31:45</t>
+  </si>
+  <si>
+    <t>01:29:13</t>
+  </si>
+  <si>
+    <t>01:22:34</t>
+  </si>
+  <si>
+    <t>01:25:26</t>
+  </si>
+  <si>
+    <t>01:24:47</t>
+  </si>
+  <si>
+    <t>01:20:59</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V255"/>
+  <dimension ref="A1:V265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17785,6 +17812,656 @@
         <v>4</v>
       </c>
     </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" t="s">
+        <v>258</v>
+      </c>
+      <c r="H256">
+        <v>4.99</v>
+      </c>
+      <c r="I256">
+        <v>0.18</v>
+      </c>
+      <c r="J256">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K256">
+        <v>0.18</v>
+      </c>
+      <c r="L256">
+        <v>0.01</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>3.76</v>
+      </c>
+      <c r="Q256">
+        <v>23.71</v>
+      </c>
+      <c r="R256">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S256">
+        <v>24</v>
+      </c>
+      <c r="T256">
+        <v>4</v>
+      </c>
+      <c r="U256">
+        <v>26</v>
+      </c>
+      <c r="V256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257" t="s">
+        <v>50</v>
+      </c>
+      <c r="F257" t="s">
+        <v>33</v>
+      </c>
+      <c r="G257" t="s">
+        <v>259</v>
+      </c>
+      <c r="H257">
+        <v>5.21</v>
+      </c>
+      <c r="I257">
+        <v>0.2</v>
+      </c>
+      <c r="J257">
+        <v>4.99</v>
+      </c>
+      <c r="K257">
+        <v>0.2</v>
+      </c>
+      <c r="L257">
+        <v>0.01</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>3.39</v>
+      </c>
+      <c r="Q257">
+        <v>21.67</v>
+      </c>
+      <c r="R257">
+        <v>5.19</v>
+      </c>
+      <c r="S257">
+        <v>27</v>
+      </c>
+      <c r="T257">
+        <v>9</v>
+      </c>
+      <c r="U257">
+        <v>25</v>
+      </c>
+      <c r="V257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" t="s">
+        <v>29</v>
+      </c>
+      <c r="G258" t="s">
+        <v>260</v>
+      </c>
+      <c r="H258">
+        <v>5.2</v>
+      </c>
+      <c r="I258">
+        <v>0.18</v>
+      </c>
+      <c r="J258">
+        <v>5.01</v>
+      </c>
+      <c r="K258">
+        <v>0.17</v>
+      </c>
+      <c r="L258">
+        <v>0.02</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>3.58</v>
+      </c>
+      <c r="Q258">
+        <v>22.04</v>
+      </c>
+      <c r="R258">
+        <v>5.45</v>
+      </c>
+      <c r="S258">
+        <v>26</v>
+      </c>
+      <c r="T258">
+        <v>9</v>
+      </c>
+      <c r="U258">
+        <v>18</v>
+      </c>
+      <c r="V258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>35</v>
+      </c>
+      <c r="F259" t="s">
+        <v>34</v>
+      </c>
+      <c r="G259" t="s">
+        <v>261</v>
+      </c>
+      <c r="H259">
+        <v>5.79</v>
+      </c>
+      <c r="I259">
+        <v>0.31</v>
+      </c>
+      <c r="J259">
+        <v>5.47</v>
+      </c>
+      <c r="K259">
+        <v>0.27</v>
+      </c>
+      <c r="L259">
+        <v>0.05</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>3.68</v>
+      </c>
+      <c r="Q259">
+        <v>24.94</v>
+      </c>
+      <c r="R259">
+        <v>4.99</v>
+      </c>
+      <c r="S259">
+        <v>45</v>
+      </c>
+      <c r="T259">
+        <v>7</v>
+      </c>
+      <c r="U259">
+        <v>24</v>
+      </c>
+      <c r="V259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>53</v>
+      </c>
+      <c r="F260" t="s">
+        <v>32</v>
+      </c>
+      <c r="G260" t="s">
+        <v>262</v>
+      </c>
+      <c r="H260">
+        <v>6.48</v>
+      </c>
+      <c r="I260">
+        <v>0.26</v>
+      </c>
+      <c r="J260">
+        <v>6.22</v>
+      </c>
+      <c r="K260">
+        <v>0.19</v>
+      </c>
+      <c r="L260">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>1</v>
+      </c>
+      <c r="P260">
+        <v>4.24</v>
+      </c>
+      <c r="Q260">
+        <v>25.14</v>
+      </c>
+      <c r="R260">
+        <v>5.28</v>
+      </c>
+      <c r="S260">
+        <v>30</v>
+      </c>
+      <c r="T260">
+        <v>8</v>
+      </c>
+      <c r="U260">
+        <v>22</v>
+      </c>
+      <c r="V260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>52</v>
+      </c>
+      <c r="F261" t="s">
+        <v>33</v>
+      </c>
+      <c r="G261" t="s">
+        <v>263</v>
+      </c>
+      <c r="H261">
+        <v>5.38</v>
+      </c>
+      <c r="I261">
+        <v>0.2</v>
+      </c>
+      <c r="J261">
+        <v>5.18</v>
+      </c>
+      <c r="K261">
+        <v>0.19</v>
+      </c>
+      <c r="L261">
+        <v>0.02</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>3.84</v>
+      </c>
+      <c r="Q261">
+        <v>22.25</v>
+      </c>
+      <c r="R261">
+        <v>4.97</v>
+      </c>
+      <c r="S261">
+        <v>28</v>
+      </c>
+      <c r="T261">
+        <v>8</v>
+      </c>
+      <c r="U261">
+        <v>24</v>
+      </c>
+      <c r="V261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>40</v>
+      </c>
+      <c r="F262" t="s">
+        <v>31</v>
+      </c>
+      <c r="G262" t="s">
+        <v>262</v>
+      </c>
+      <c r="H262">
+        <v>5.49</v>
+      </c>
+      <c r="I262">
+        <v>0.27</v>
+      </c>
+      <c r="J262">
+        <v>5.21</v>
+      </c>
+      <c r="K262">
+        <v>0.24</v>
+      </c>
+      <c r="L262">
+        <v>0.04</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>3.45</v>
+      </c>
+      <c r="Q262">
+        <v>22.19</v>
+      </c>
+      <c r="R262">
+        <v>5.27</v>
+      </c>
+      <c r="S262">
+        <v>32</v>
+      </c>
+      <c r="T262">
+        <v>5</v>
+      </c>
+      <c r="U262">
+        <v>24</v>
+      </c>
+      <c r="V262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>164</v>
+      </c>
+      <c r="F263" t="s">
+        <v>32</v>
+      </c>
+      <c r="G263" t="s">
+        <v>264</v>
+      </c>
+      <c r="H263">
+        <v>5.52</v>
+      </c>
+      <c r="I263">
+        <v>0.23</v>
+      </c>
+      <c r="J263">
+        <v>5.29</v>
+      </c>
+      <c r="K263">
+        <v>0.16</v>
+      </c>
+      <c r="L263">
+        <v>0.06</v>
+      </c>
+      <c r="M263">
+        <v>0.02</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>1</v>
+      </c>
+      <c r="P263">
+        <v>3.71</v>
+      </c>
+      <c r="Q263">
+        <v>25.71</v>
+      </c>
+      <c r="R263">
+        <v>5.04</v>
+      </c>
+      <c r="S263">
+        <v>17</v>
+      </c>
+      <c r="T263">
+        <v>6</v>
+      </c>
+      <c r="U263">
+        <v>19</v>
+      </c>
+      <c r="V263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" t="s">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>265</v>
+      </c>
+      <c r="H264">
+        <v>4.57</v>
+      </c>
+      <c r="I264">
+        <v>0.15</v>
+      </c>
+      <c r="J264">
+        <v>4.41</v>
+      </c>
+      <c r="K264">
+        <v>0.15</v>
+      </c>
+      <c r="L264">
+        <v>0.01</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>3.14</v>
+      </c>
+      <c r="Q264">
+        <v>20.86</v>
+      </c>
+      <c r="R264">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S264">
+        <v>37</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>26</v>
+      </c>
+      <c r="V264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C265" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" t="s">
+        <v>43</v>
+      </c>
+      <c r="F265" t="s">
+        <v>34</v>
+      </c>
+      <c r="G265" t="s">
+        <v>266</v>
+      </c>
+      <c r="H265">
+        <v>5.68</v>
+      </c>
+      <c r="I265">
+        <v>0.22</v>
+      </c>
+      <c r="J265">
+        <v>5.46</v>
+      </c>
+      <c r="K265">
+        <v>0.18</v>
+      </c>
+      <c r="L265">
+        <v>0.05</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q265">
+        <v>23.05</v>
+      </c>
+      <c r="R265">
+        <v>5.62</v>
+      </c>
+      <c r="S265">
+        <v>24</v>
+      </c>
+      <c r="T265">
+        <v>4</v>
+      </c>
+      <c r="U265">
+        <v>18</v>
+      </c>
+      <c r="V265">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D0B7E-A3EC-A745-B9F4-427FE91EE661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAE7476-3FA9-D74E-ADA9-613A6244BACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="278">
   <si>
     <t>Temps joué</t>
   </si>
@@ -837,6 +837,39 @@
   </si>
   <si>
     <t>01:20:59</t>
+  </si>
+  <si>
+    <t>01:12:18</t>
+  </si>
+  <si>
+    <t>00:22:12</t>
+  </si>
+  <si>
+    <t>00:20:01</t>
+  </si>
+  <si>
+    <t>01:12:10</t>
+  </si>
+  <si>
+    <t>00:38:05</t>
+  </si>
+  <si>
+    <t>00:41:23</t>
+  </si>
+  <si>
+    <t>00:52:59</t>
+  </si>
+  <si>
+    <t>01:12:02</t>
+  </si>
+  <si>
+    <t>01:12:51</t>
+  </si>
+  <si>
+    <t>00:22:54</t>
+  </si>
+  <si>
+    <t>00:33:32</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V265"/>
+  <dimension ref="A1:V283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18462,6 +18495,1176 @@
         <v>6</v>
       </c>
     </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>163</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C266" t="s">
+        <v>20</v>
+      </c>
+      <c r="E266" t="s">
+        <v>55</v>
+      </c>
+      <c r="F266" t="s">
+        <v>32</v>
+      </c>
+      <c r="G266" t="s">
+        <v>267</v>
+      </c>
+      <c r="H266">
+        <v>7.09</v>
+      </c>
+      <c r="I266">
+        <v>1.18</v>
+      </c>
+      <c r="J266">
+        <v>5.89</v>
+      </c>
+      <c r="K266">
+        <v>0.94</v>
+      </c>
+      <c r="L266">
+        <v>0.22</v>
+      </c>
+      <c r="M266">
+        <v>0.04</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>5.79</v>
+      </c>
+      <c r="Q266">
+        <v>27.93</v>
+      </c>
+      <c r="R266">
+        <v>4.46</v>
+      </c>
+      <c r="S266">
+        <v>28</v>
+      </c>
+      <c r="T266">
+        <v>4</v>
+      </c>
+      <c r="U266">
+        <v>18</v>
+      </c>
+      <c r="V266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>163</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C267" t="s">
+        <v>20</v>
+      </c>
+      <c r="E267" t="s">
+        <v>58</v>
+      </c>
+      <c r="F267" t="s">
+        <v>29</v>
+      </c>
+      <c r="G267" t="s">
+        <v>268</v>
+      </c>
+      <c r="H267">
+        <v>2.11</v>
+      </c>
+      <c r="I267">
+        <v>0.33</v>
+      </c>
+      <c r="J267">
+        <v>1.78</v>
+      </c>
+      <c r="K267">
+        <v>0.25</v>
+      </c>
+      <c r="L267">
+        <v>0.08</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>5.66</v>
+      </c>
+      <c r="Q267">
+        <v>23.61</v>
+      </c>
+      <c r="R267">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S267">
+        <v>7</v>
+      </c>
+      <c r="T267">
+        <v>1</v>
+      </c>
+      <c r="U267">
+        <v>4</v>
+      </c>
+      <c r="V267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>163</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268" t="s">
+        <v>38</v>
+      </c>
+      <c r="F268" t="s">
+        <v>34</v>
+      </c>
+      <c r="G268" t="s">
+        <v>269</v>
+      </c>
+      <c r="H268">
+        <v>1.83</v>
+      </c>
+      <c r="I268">
+        <v>0.34</v>
+      </c>
+      <c r="J268">
+        <v>1.48</v>
+      </c>
+      <c r="K268">
+        <v>0.23</v>
+      </c>
+      <c r="L268">
+        <v>0.1</v>
+      </c>
+      <c r="M268">
+        <v>0.02</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>2</v>
+      </c>
+      <c r="P268">
+        <v>5.35</v>
+      </c>
+      <c r="Q268">
+        <v>27.82</v>
+      </c>
+      <c r="R268">
+        <v>3.17</v>
+      </c>
+      <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>2</v>
+      </c>
+      <c r="V268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C269" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" t="s">
+        <v>32</v>
+      </c>
+      <c r="G269" t="s">
+        <v>270</v>
+      </c>
+      <c r="H269">
+        <v>7.09</v>
+      </c>
+      <c r="I269">
+        <v>1.02</v>
+      </c>
+      <c r="J269">
+        <v>6.06</v>
+      </c>
+      <c r="K269">
+        <v>0.83</v>
+      </c>
+      <c r="L269">
+        <v>0.18</v>
+      </c>
+      <c r="M269">
+        <v>0.01</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>2</v>
+      </c>
+      <c r="P269">
+        <v>5.89</v>
+      </c>
+      <c r="Q269">
+        <v>28</v>
+      </c>
+      <c r="R269">
+        <v>4.34</v>
+      </c>
+      <c r="S269">
+        <v>18</v>
+      </c>
+      <c r="T269">
+        <v>2</v>
+      </c>
+      <c r="U269">
+        <v>16</v>
+      </c>
+      <c r="V269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>163</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>39</v>
+      </c>
+      <c r="F270" t="s">
+        <v>29</v>
+      </c>
+      <c r="G270" t="s">
+        <v>271</v>
+      </c>
+      <c r="H270">
+        <v>3.99</v>
+      </c>
+      <c r="I270">
+        <v>0.66</v>
+      </c>
+      <c r="J270">
+        <v>3.33</v>
+      </c>
+      <c r="K270">
+        <v>0.45</v>
+      </c>
+      <c r="L270">
+        <v>0.16</v>
+      </c>
+      <c r="M270">
+        <v>0.06</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>3</v>
+      </c>
+      <c r="P270">
+        <v>6.25</v>
+      </c>
+      <c r="Q270">
+        <v>30.02</v>
+      </c>
+      <c r="R270">
+        <v>5.14</v>
+      </c>
+      <c r="S270">
+        <v>15</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>14</v>
+      </c>
+      <c r="V270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>163</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" t="s">
+        <v>53</v>
+      </c>
+      <c r="F271" t="s">
+        <v>32</v>
+      </c>
+      <c r="G271" t="s">
+        <v>272</v>
+      </c>
+      <c r="H271">
+        <v>4.54</v>
+      </c>
+      <c r="I271">
+        <v>0.77</v>
+      </c>
+      <c r="J271">
+        <v>3.76</v>
+      </c>
+      <c r="K271">
+        <v>0.61</v>
+      </c>
+      <c r="L271">
+        <v>0.13</v>
+      </c>
+      <c r="M271">
+        <v>0.04</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>6.56</v>
+      </c>
+      <c r="Q271">
+        <v>26.97</v>
+      </c>
+      <c r="R271">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S271">
+        <v>13</v>
+      </c>
+      <c r="T271">
+        <v>3</v>
+      </c>
+      <c r="U271">
+        <v>18</v>
+      </c>
+      <c r="V271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>163</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C272" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" t="s">
+        <v>36</v>
+      </c>
+      <c r="F272" t="s">
+        <v>30</v>
+      </c>
+      <c r="G272" t="s">
+        <v>273</v>
+      </c>
+      <c r="H272">
+        <v>5.5</v>
+      </c>
+      <c r="I272">
+        <v>0.82</v>
+      </c>
+      <c r="J272">
+        <v>4.66</v>
+      </c>
+      <c r="K272">
+        <v>0.64</v>
+      </c>
+      <c r="L272">
+        <v>0.2</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>6.21</v>
+      </c>
+      <c r="Q272">
+        <v>23.94</v>
+      </c>
+      <c r="R272">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S272">
+        <v>23</v>
+      </c>
+      <c r="T272">
+        <v>4</v>
+      </c>
+      <c r="U272">
+        <v>26</v>
+      </c>
+      <c r="V272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>163</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" t="s">
+        <v>274</v>
+      </c>
+      <c r="H273">
+        <v>7.18</v>
+      </c>
+      <c r="I273">
+        <v>0.91</v>
+      </c>
+      <c r="J273">
+        <v>6.26</v>
+      </c>
+      <c r="K273">
+        <v>0.7</v>
+      </c>
+      <c r="L273">
+        <v>0.17</v>
+      </c>
+      <c r="M273">
+        <v>0.05</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>2</v>
+      </c>
+      <c r="P273">
+        <v>5.99</v>
+      </c>
+      <c r="Q273">
+        <v>27.63</v>
+      </c>
+      <c r="R273">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S273">
+        <v>24</v>
+      </c>
+      <c r="T273">
+        <v>6</v>
+      </c>
+      <c r="U273">
+        <v>25</v>
+      </c>
+      <c r="V273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>163</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" t="s">
+        <v>40</v>
+      </c>
+      <c r="F274" t="s">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>275</v>
+      </c>
+      <c r="H274">
+        <v>7.19</v>
+      </c>
+      <c r="I274">
+        <v>1.34</v>
+      </c>
+      <c r="J274">
+        <v>5.83</v>
+      </c>
+      <c r="K274">
+        <v>0.8</v>
+      </c>
+      <c r="L274">
+        <v>0.38</v>
+      </c>
+      <c r="M274">
+        <v>0.18</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>17</v>
+      </c>
+      <c r="P274">
+        <v>5.85</v>
+      </c>
+      <c r="Q274">
+        <v>30.12</v>
+      </c>
+      <c r="R274">
+        <v>4.8</v>
+      </c>
+      <c r="S274">
+        <v>34</v>
+      </c>
+      <c r="T274">
+        <v>4</v>
+      </c>
+      <c r="U274">
+        <v>20</v>
+      </c>
+      <c r="V274">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>163</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" t="s">
+        <v>245</v>
+      </c>
+      <c r="F275" t="s">
+        <v>32</v>
+      </c>
+      <c r="G275" t="s">
+        <v>273</v>
+      </c>
+      <c r="H275">
+        <v>4.91</v>
+      </c>
+      <c r="I275">
+        <v>0.53</v>
+      </c>
+      <c r="J275">
+        <v>4.38</v>
+      </c>
+      <c r="K275">
+        <v>0.41</v>
+      </c>
+      <c r="L275">
+        <v>0.11</v>
+      </c>
+      <c r="M275">
+        <v>0.01</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>3</v>
+      </c>
+      <c r="P275">
+        <v>5.54</v>
+      </c>
+      <c r="Q275">
+        <v>26.43</v>
+      </c>
+      <c r="R275">
+        <v>4.57</v>
+      </c>
+      <c r="S275">
+        <v>13</v>
+      </c>
+      <c r="T275">
+        <v>4</v>
+      </c>
+      <c r="U275">
+        <v>15</v>
+      </c>
+      <c r="V275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>163</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C276" t="s">
+        <v>20</v>
+      </c>
+      <c r="E276" t="s">
+        <v>154</v>
+      </c>
+      <c r="F276" t="s">
+        <v>32</v>
+      </c>
+      <c r="G276" t="s">
+        <v>276</v>
+      </c>
+      <c r="H276">
+        <v>2.57</v>
+      </c>
+      <c r="I276">
+        <v>0.59</v>
+      </c>
+      <c r="J276">
+        <v>1.97</v>
+      </c>
+      <c r="K276">
+        <v>0.34</v>
+      </c>
+      <c r="L276">
+        <v>0.22</v>
+      </c>
+      <c r="M276">
+        <v>0.03</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>2</v>
+      </c>
+      <c r="P276">
+        <v>6.72</v>
+      </c>
+      <c r="Q276">
+        <v>28.17</v>
+      </c>
+      <c r="R276">
+        <v>4.32</v>
+      </c>
+      <c r="S276">
+        <v>14</v>
+      </c>
+      <c r="T276">
+        <v>1</v>
+      </c>
+      <c r="U276">
+        <v>12</v>
+      </c>
+      <c r="V276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>163</v>
+      </c>
+      <c r="B277" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C277" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" t="s">
+        <v>52</v>
+      </c>
+      <c r="F277" t="s">
+        <v>33</v>
+      </c>
+      <c r="G277" t="s">
+        <v>42</v>
+      </c>
+      <c r="H277">
+        <v>6.87</v>
+      </c>
+      <c r="I277">
+        <v>0.89</v>
+      </c>
+      <c r="J277">
+        <v>5.97</v>
+      </c>
+      <c r="K277">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L277">
+        <v>0.24</v>
+      </c>
+      <c r="M277">
+        <v>0.11</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>8</v>
+      </c>
+      <c r="P277">
+        <v>5.59</v>
+      </c>
+      <c r="Q277">
+        <v>28.18</v>
+      </c>
+      <c r="R277">
+        <v>4.34</v>
+      </c>
+      <c r="S277">
+        <v>17</v>
+      </c>
+      <c r="T277">
+        <v>1</v>
+      </c>
+      <c r="U277">
+        <v>19</v>
+      </c>
+      <c r="V277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>163</v>
+      </c>
+      <c r="B278" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F278" t="s">
+        <v>34</v>
+      </c>
+      <c r="G278" t="s">
+        <v>268</v>
+      </c>
+      <c r="H278">
+        <v>2.29</v>
+      </c>
+      <c r="I278">
+        <v>0.27</v>
+      </c>
+      <c r="J278">
+        <v>2.02</v>
+      </c>
+      <c r="K278">
+        <v>0.19</v>
+      </c>
+      <c r="L278">
+        <v>0.06</v>
+      </c>
+      <c r="M278">
+        <v>0.02</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <v>2</v>
+      </c>
+      <c r="P278">
+        <v>5.72</v>
+      </c>
+      <c r="Q278">
+        <v>27.67</v>
+      </c>
+      <c r="R278">
+        <v>3.99</v>
+      </c>
+      <c r="S278">
+        <v>9</v>
+      </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
+      <c r="U278">
+        <v>9</v>
+      </c>
+      <c r="V278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>163</v>
+      </c>
+      <c r="B279" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C279" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F279" t="s">
+        <v>29</v>
+      </c>
+      <c r="G279" t="s">
+        <v>268</v>
+      </c>
+      <c r="H279">
+        <v>2.59</v>
+      </c>
+      <c r="I279">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J279">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K279">
+        <v>0.47</v>
+      </c>
+      <c r="L279">
+        <v>0.09</v>
+      </c>
+      <c r="M279">
+        <v>0.02</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>2</v>
+      </c>
+      <c r="P279">
+        <v>7</v>
+      </c>
+      <c r="Q279">
+        <v>28</v>
+      </c>
+      <c r="R279">
+        <v>3.54</v>
+      </c>
+      <c r="S279">
+        <v>6</v>
+      </c>
+      <c r="T279">
+        <v>0</v>
+      </c>
+      <c r="U279">
+        <v>12</v>
+      </c>
+      <c r="V279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>163</v>
+      </c>
+      <c r="B280" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C280" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F280" t="s">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>277</v>
+      </c>
+      <c r="H280">
+        <v>3.65</v>
+      </c>
+      <c r="I280">
+        <v>0.76</v>
+      </c>
+      <c r="J280">
+        <v>2.88</v>
+      </c>
+      <c r="K280">
+        <v>0.46</v>
+      </c>
+      <c r="L280">
+        <v>0.25</v>
+      </c>
+      <c r="M280">
+        <v>0.06</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>5</v>
+      </c>
+      <c r="P280">
+        <v>6.36</v>
+      </c>
+      <c r="Q280">
+        <v>28.49</v>
+      </c>
+      <c r="R280">
+        <v>4.34</v>
+      </c>
+      <c r="S280">
+        <v>12</v>
+      </c>
+      <c r="T280">
+        <v>2</v>
+      </c>
+      <c r="U280">
+        <v>11</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>163</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C281" t="s">
+        <v>20</v>
+      </c>
+      <c r="E281" t="s">
+        <v>43</v>
+      </c>
+      <c r="F281" t="s">
+        <v>34</v>
+      </c>
+      <c r="G281" t="s">
+        <v>273</v>
+      </c>
+      <c r="H281">
+        <v>5.7</v>
+      </c>
+      <c r="I281">
+        <v>0.88</v>
+      </c>
+      <c r="J281">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K281">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L281">
+        <v>0.25</v>
+      </c>
+      <c r="M281">
+        <v>0.06</v>
+      </c>
+      <c r="N281">
+        <v>0.01</v>
+      </c>
+      <c r="O281">
+        <v>6</v>
+      </c>
+      <c r="P281">
+        <v>6.2</v>
+      </c>
+      <c r="Q281">
+        <v>30.83</v>
+      </c>
+      <c r="R281">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S281">
+        <v>28</v>
+      </c>
+      <c r="T281">
+        <v>6</v>
+      </c>
+      <c r="U281">
+        <v>18</v>
+      </c>
+      <c r="V281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>163</v>
+      </c>
+      <c r="B282" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C282" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" t="s">
+        <v>48</v>
+      </c>
+      <c r="F282" t="s">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>273</v>
+      </c>
+      <c r="H282">
+        <v>4.84</v>
+      </c>
+      <c r="I282">
+        <v>0.64</v>
+      </c>
+      <c r="J282">
+        <v>4.2</v>
+      </c>
+      <c r="K282">
+        <v>0.46</v>
+      </c>
+      <c r="L282">
+        <v>0.17</v>
+      </c>
+      <c r="M282">
+        <v>0.02</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>1</v>
+      </c>
+      <c r="P282">
+        <v>5.48</v>
+      </c>
+      <c r="Q282">
+        <v>27.44</v>
+      </c>
+      <c r="R282">
+        <v>4.57</v>
+      </c>
+      <c r="S282">
+        <v>16</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="U282">
+        <v>9</v>
+      </c>
+      <c r="V282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>163</v>
+      </c>
+      <c r="B283" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" t="s">
+        <v>93</v>
+      </c>
+      <c r="F283" t="s">
+        <v>31</v>
+      </c>
+      <c r="G283" t="s">
+        <v>273</v>
+      </c>
+      <c r="H283">
+        <v>4.45</v>
+      </c>
+      <c r="I283">
+        <v>0.68</v>
+      </c>
+      <c r="J283">
+        <v>3.76</v>
+      </c>
+      <c r="K283">
+        <v>0.39</v>
+      </c>
+      <c r="L283">
+        <v>0.16</v>
+      </c>
+      <c r="M283">
+        <v>0.1</v>
+      </c>
+      <c r="N283">
+        <v>0.04</v>
+      </c>
+      <c r="O283">
+        <v>7</v>
+      </c>
+      <c r="P283">
+        <v>5.04</v>
+      </c>
+      <c r="Q283">
+        <v>33.25</v>
+      </c>
+      <c r="R283">
+        <v>5.09</v>
+      </c>
+      <c r="S283">
+        <v>18</v>
+      </c>
+      <c r="T283">
+        <v>6</v>
+      </c>
+      <c r="U283">
+        <v>10</v>
+      </c>
+      <c r="V283">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAE7476-3FA9-D74E-ADA9-613A6244BACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E327FFB-9158-B844-A5D9-33286AC18F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="288">
   <si>
     <t>Temps joué</t>
   </si>
@@ -870,6 +870,36 @@
   </si>
   <si>
     <t>00:33:32</t>
+  </si>
+  <si>
+    <t>00:52:10</t>
+  </si>
+  <si>
+    <t>00:48:29</t>
+  </si>
+  <si>
+    <t>00:50:12</t>
+  </si>
+  <si>
+    <t>01:12:07</t>
+  </si>
+  <si>
+    <t>01:20:13</t>
+  </si>
+  <si>
+    <t>01:14:46</t>
+  </si>
+  <si>
+    <t>01:12:39</t>
+  </si>
+  <si>
+    <t>00:25:14</t>
+  </si>
+  <si>
+    <t>00:25:54</t>
+  </si>
+  <si>
+    <t>01:12:22</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V283"/>
+  <dimension ref="A1:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19665,6 +19695,1046 @@
         <v>6</v>
       </c>
     </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" s="1">
+        <v>45880</v>
+      </c>
+      <c r="C284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="s">
+        <v>50</v>
+      </c>
+      <c r="F284" t="s">
+        <v>33</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H284" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="I284" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J284" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K284" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L284" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M284" s="2">
+        <v>0</v>
+      </c>
+      <c r="N284" s="2">
+        <v>0</v>
+      </c>
+      <c r="O284" s="2">
+        <v>0</v>
+      </c>
+      <c r="P284" s="2">
+        <v>5.26</v>
+      </c>
+      <c r="Q284" s="2">
+        <v>24.79</v>
+      </c>
+      <c r="R284" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S284" s="2">
+        <v>12</v>
+      </c>
+      <c r="T284" s="2">
+        <v>1</v>
+      </c>
+      <c r="U284" s="2">
+        <v>13</v>
+      </c>
+      <c r="V284" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" t="s">
+        <v>36</v>
+      </c>
+      <c r="F285" t="s">
+        <v>30</v>
+      </c>
+      <c r="G285" t="s">
+        <v>279</v>
+      </c>
+      <c r="H285">
+        <v>5.83</v>
+      </c>
+      <c r="I285">
+        <v>1.2</v>
+      </c>
+      <c r="J285">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="K285">
+        <v>0.84</v>
+      </c>
+      <c r="L285">
+        <v>0.33</v>
+      </c>
+      <c r="M285">
+        <v>0.04</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>4</v>
+      </c>
+      <c r="P285">
+        <v>7.22</v>
+      </c>
+      <c r="Q285">
+        <v>27.04</v>
+      </c>
+      <c r="R285">
+        <v>4.51</v>
+      </c>
+      <c r="S285">
+        <v>20</v>
+      </c>
+      <c r="T285">
+        <v>3</v>
+      </c>
+      <c r="U285">
+        <v>11</v>
+      </c>
+      <c r="V285">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C286" t="s">
+        <v>20</v>
+      </c>
+      <c r="E286" t="s">
+        <v>16</v>
+      </c>
+      <c r="F286" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" t="s">
+        <v>280</v>
+      </c>
+      <c r="H286">
+        <v>5.14</v>
+      </c>
+      <c r="I286">
+        <v>0.85</v>
+      </c>
+      <c r="J286">
+        <v>4.28</v>
+      </c>
+      <c r="K286">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L286">
+        <v>0.21</v>
+      </c>
+      <c r="M286">
+        <v>0.08</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>4</v>
+      </c>
+      <c r="P286">
+        <v>6.13</v>
+      </c>
+      <c r="Q286">
+        <v>29.96</v>
+      </c>
+      <c r="R286">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S286">
+        <v>20</v>
+      </c>
+      <c r="T286">
+        <v>5</v>
+      </c>
+      <c r="U286">
+        <v>23</v>
+      </c>
+      <c r="V286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C287" t="s">
+        <v>20</v>
+      </c>
+      <c r="E287" t="s">
+        <v>53</v>
+      </c>
+      <c r="F287" t="s">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>279</v>
+      </c>
+      <c r="H287">
+        <v>5.75</v>
+      </c>
+      <c r="I287">
+        <v>1.04</v>
+      </c>
+      <c r="J287">
+        <v>4.7</v>
+      </c>
+      <c r="K287">
+        <v>0.9</v>
+      </c>
+      <c r="L287">
+        <v>0.15</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>7.1</v>
+      </c>
+      <c r="Q287">
+        <v>24.73</v>
+      </c>
+      <c r="R287">
+        <v>4.51</v>
+      </c>
+      <c r="S287">
+        <v>21</v>
+      </c>
+      <c r="T287">
+        <v>7</v>
+      </c>
+      <c r="U287">
+        <v>21</v>
+      </c>
+      <c r="V287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C288" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" t="s">
+        <v>93</v>
+      </c>
+      <c r="F288" t="s">
+        <v>31</v>
+      </c>
+      <c r="G288" t="s">
+        <v>281</v>
+      </c>
+      <c r="H288">
+        <v>6.81</v>
+      </c>
+      <c r="I288">
+        <v>1.26</v>
+      </c>
+      <c r="J288">
+        <v>5.53</v>
+      </c>
+      <c r="K288">
+        <v>0.78</v>
+      </c>
+      <c r="L288">
+        <v>0.36</v>
+      </c>
+      <c r="M288">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>9</v>
+      </c>
+      <c r="P288">
+        <v>5.64</v>
+      </c>
+      <c r="Q288">
+        <v>29.8</v>
+      </c>
+      <c r="R288">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S288">
+        <v>35</v>
+      </c>
+      <c r="T288">
+        <v>7</v>
+      </c>
+      <c r="U288">
+        <v>24</v>
+      </c>
+      <c r="V288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>23</v>
+      </c>
+      <c r="B289" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" t="s">
+        <v>55</v>
+      </c>
+      <c r="F289" t="s">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>282</v>
+      </c>
+      <c r="H289">
+        <v>8.25</v>
+      </c>
+      <c r="I289">
+        <v>1.58</v>
+      </c>
+      <c r="J289">
+        <v>6.65</v>
+      </c>
+      <c r="K289">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L289">
+        <v>0.38</v>
+      </c>
+      <c r="M289">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>7</v>
+      </c>
+      <c r="P289">
+        <v>6.14</v>
+      </c>
+      <c r="Q289">
+        <v>29.94</v>
+      </c>
+      <c r="R289">
+        <v>4.75</v>
+      </c>
+      <c r="S289">
+        <v>37</v>
+      </c>
+      <c r="T289">
+        <v>6</v>
+      </c>
+      <c r="U289">
+        <v>32</v>
+      </c>
+      <c r="V289">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" t="s">
+        <v>32</v>
+      </c>
+      <c r="G290" t="s">
+        <v>283</v>
+      </c>
+      <c r="H290">
+        <v>8.09</v>
+      </c>
+      <c r="I290">
+        <v>1.37</v>
+      </c>
+      <c r="J290">
+        <v>6.71</v>
+      </c>
+      <c r="K290">
+        <v>1.06</v>
+      </c>
+      <c r="L290">
+        <v>0.26</v>
+      </c>
+      <c r="M290">
+        <v>0.06</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>6</v>
+      </c>
+      <c r="P290">
+        <v>6.55</v>
+      </c>
+      <c r="Q290">
+        <v>29.09</v>
+      </c>
+      <c r="R290">
+        <v>4.37</v>
+      </c>
+      <c r="S290">
+        <v>20</v>
+      </c>
+      <c r="T290">
+        <v>4</v>
+      </c>
+      <c r="U290">
+        <v>17</v>
+      </c>
+      <c r="V290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C291" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" t="s">
+        <v>39</v>
+      </c>
+      <c r="F291" t="s">
+        <v>29</v>
+      </c>
+      <c r="G291" t="s">
+        <v>280</v>
+      </c>
+      <c r="H291">
+        <v>5.55</v>
+      </c>
+      <c r="I291">
+        <v>0.94</v>
+      </c>
+      <c r="J291">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K291">
+        <v>0.64</v>
+      </c>
+      <c r="L291">
+        <v>0.22</v>
+      </c>
+      <c r="M291">
+        <v>0.08</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291">
+        <v>8</v>
+      </c>
+      <c r="P291">
+        <v>6.6</v>
+      </c>
+      <c r="Q291">
+        <v>28.9</v>
+      </c>
+      <c r="R291">
+        <v>4.22</v>
+      </c>
+      <c r="S291">
+        <v>13</v>
+      </c>
+      <c r="T291">
+        <v>3</v>
+      </c>
+      <c r="U291">
+        <v>22</v>
+      </c>
+      <c r="V291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="s">
+        <v>58</v>
+      </c>
+      <c r="F292" t="s">
+        <v>29</v>
+      </c>
+      <c r="G292" t="s">
+        <v>281</v>
+      </c>
+      <c r="H292">
+        <v>7.15</v>
+      </c>
+      <c r="I292">
+        <v>1.01</v>
+      </c>
+      <c r="J292">
+        <v>6.13</v>
+      </c>
+      <c r="K292">
+        <v>0.76</v>
+      </c>
+      <c r="L292">
+        <v>0.2</v>
+      </c>
+      <c r="M292">
+        <v>0.06</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>6</v>
+      </c>
+      <c r="P292">
+        <v>5.92</v>
+      </c>
+      <c r="Q292">
+        <v>28.67</v>
+      </c>
+      <c r="R292">
+        <v>4.33</v>
+      </c>
+      <c r="S292">
+        <v>23</v>
+      </c>
+      <c r="T292">
+        <v>2</v>
+      </c>
+      <c r="U292">
+        <v>15</v>
+      </c>
+      <c r="V292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C293" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" t="s">
+        <v>40</v>
+      </c>
+      <c r="F293" t="s">
+        <v>31</v>
+      </c>
+      <c r="G293" t="s">
+        <v>284</v>
+      </c>
+      <c r="H293">
+        <v>8.11</v>
+      </c>
+      <c r="I293">
+        <v>1.56</v>
+      </c>
+      <c r="J293">
+        <v>6.52</v>
+      </c>
+      <c r="K293">
+        <v>1.04</v>
+      </c>
+      <c r="L293">
+        <v>0.46</v>
+      </c>
+      <c r="M293">
+        <v>0.08</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>8</v>
+      </c>
+      <c r="P293">
+        <v>6.67</v>
+      </c>
+      <c r="Q293">
+        <v>29.28</v>
+      </c>
+      <c r="R293">
+        <v>4.76</v>
+      </c>
+      <c r="S293">
+        <v>50</v>
+      </c>
+      <c r="T293">
+        <v>8</v>
+      </c>
+      <c r="U293">
+        <v>48</v>
+      </c>
+      <c r="V293">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" t="s">
+        <v>279</v>
+      </c>
+      <c r="H294">
+        <v>5.25</v>
+      </c>
+      <c r="I294">
+        <v>0.85</v>
+      </c>
+      <c r="J294">
+        <v>4.38</v>
+      </c>
+      <c r="K294">
+        <v>0.54</v>
+      </c>
+      <c r="L294">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M294">
+        <v>0.04</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294">
+        <v>7</v>
+      </c>
+      <c r="P294">
+        <v>6.53</v>
+      </c>
+      <c r="Q294">
+        <v>27.25</v>
+      </c>
+      <c r="R294">
+        <v>4.45</v>
+      </c>
+      <c r="S294">
+        <v>21</v>
+      </c>
+      <c r="T294">
+        <v>3</v>
+      </c>
+      <c r="U294">
+        <v>14</v>
+      </c>
+      <c r="V294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="s">
+        <v>52</v>
+      </c>
+      <c r="F295" t="s">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>281</v>
+      </c>
+      <c r="H295">
+        <v>8</v>
+      </c>
+      <c r="I295">
+        <v>1.34</v>
+      </c>
+      <c r="J295">
+        <v>6.64</v>
+      </c>
+      <c r="K295">
+        <v>0.85</v>
+      </c>
+      <c r="L295">
+        <v>0.38</v>
+      </c>
+      <c r="M295">
+        <v>0.13</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>10</v>
+      </c>
+      <c r="P295">
+        <v>6.63</v>
+      </c>
+      <c r="Q295">
+        <v>30.17</v>
+      </c>
+      <c r="R295">
+        <v>4.76</v>
+      </c>
+      <c r="S295">
+        <v>17</v>
+      </c>
+      <c r="T295">
+        <v>10</v>
+      </c>
+      <c r="U295">
+        <v>16</v>
+      </c>
+      <c r="V295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F296" t="s">
+        <v>34</v>
+      </c>
+      <c r="G296" t="s">
+        <v>285</v>
+      </c>
+      <c r="H296">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I296">
+        <v>0.44</v>
+      </c>
+      <c r="J296">
+        <v>2.09</v>
+      </c>
+      <c r="K296">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L296">
+        <v>0.12</v>
+      </c>
+      <c r="M296">
+        <v>0.04</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+      <c r="O296">
+        <v>3</v>
+      </c>
+      <c r="P296">
+        <v>6.01</v>
+      </c>
+      <c r="Q296">
+        <v>30.36</v>
+      </c>
+      <c r="R296">
+        <v>4.37</v>
+      </c>
+      <c r="S296">
+        <v>11</v>
+      </c>
+      <c r="T296">
+        <v>1</v>
+      </c>
+      <c r="U296">
+        <v>9</v>
+      </c>
+      <c r="V296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F297" t="s">
+        <v>32</v>
+      </c>
+      <c r="G297" t="s">
+        <v>286</v>
+      </c>
+      <c r="H297">
+        <v>2.84</v>
+      </c>
+      <c r="I297">
+        <v>0.67</v>
+      </c>
+      <c r="J297">
+        <v>2.16</v>
+      </c>
+      <c r="K297">
+        <v>0.47</v>
+      </c>
+      <c r="L297">
+        <v>0.21</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>1</v>
+      </c>
+      <c r="P297">
+        <v>6.55</v>
+      </c>
+      <c r="Q297">
+        <v>25.09</v>
+      </c>
+      <c r="R297">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S297">
+        <v>10</v>
+      </c>
+      <c r="T297">
+        <v>3</v>
+      </c>
+      <c r="U297">
+        <v>9</v>
+      </c>
+      <c r="V297">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="s">
+        <v>43</v>
+      </c>
+      <c r="F298" t="s">
+        <v>34</v>
+      </c>
+      <c r="G298" t="s">
+        <v>280</v>
+      </c>
+      <c r="H298">
+        <v>5.57</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>4.55</v>
+      </c>
+      <c r="K298">
+        <v>0.65</v>
+      </c>
+      <c r="L298">
+        <v>0.32</v>
+      </c>
+      <c r="M298">
+        <v>0.05</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>6</v>
+      </c>
+      <c r="P298">
+        <v>6.63</v>
+      </c>
+      <c r="Q298">
+        <v>28.6</v>
+      </c>
+      <c r="R298">
+        <v>4.57</v>
+      </c>
+      <c r="S298">
+        <v>17</v>
+      </c>
+      <c r="T298">
+        <v>3</v>
+      </c>
+      <c r="U298">
+        <v>19</v>
+      </c>
+      <c r="V298">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="E299" t="s">
+        <v>245</v>
+      </c>
+      <c r="F299" t="s">
+        <v>32</v>
+      </c>
+      <c r="G299" t="s">
+        <v>287</v>
+      </c>
+      <c r="H299">
+        <v>7.41</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>6.4</v>
+      </c>
+      <c r="K299">
+        <v>0.84</v>
+      </c>
+      <c r="L299">
+        <v>0.15</v>
+      </c>
+      <c r="M299">
+        <v>0.03</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>4</v>
+      </c>
+      <c r="P299">
+        <v>6.12</v>
+      </c>
+      <c r="Q299">
+        <v>26.96</v>
+      </c>
+      <c r="R299">
+        <v>5.01</v>
+      </c>
+      <c r="S299">
+        <v>21</v>
+      </c>
+      <c r="T299">
+        <v>9</v>
+      </c>
+      <c r="U299">
+        <v>28</v>
+      </c>
+      <c r="V299">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E327FFB-9158-B844-A5D9-33286AC18F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440025C-9B57-7447-AEE8-DA03C08EC444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="294">
   <si>
     <t>Temps joué</t>
   </si>
@@ -900,6 +900,24 @@
   </si>
   <si>
     <t>01:12:22</t>
+  </si>
+  <si>
+    <t>01:20:42</t>
+  </si>
+  <si>
+    <t>01:20:09</t>
+  </si>
+  <si>
+    <t>01:21:26</t>
+  </si>
+  <si>
+    <t>01:21:08</t>
+  </si>
+  <si>
+    <t>01:17:01</t>
+  </si>
+  <si>
+    <t>01:20:17</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,6 +987,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V299"/>
+  <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19711,52 +19732,52 @@
       <c r="F284" t="s">
         <v>33</v>
       </c>
-      <c r="G284" s="2" t="s">
+      <c r="G284" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H284" s="2">
+      <c r="H284" s="7">
         <v>4.62</v>
       </c>
-      <c r="I284" s="2">
+      <c r="I284" s="7">
         <v>0.1</v>
       </c>
-      <c r="J284" s="2">
+      <c r="J284" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="K284" s="2">
+      <c r="K284" s="7">
         <v>0.09</v>
       </c>
-      <c r="L284" s="2">
+      <c r="L284" s="7">
         <v>0.02</v>
       </c>
-      <c r="M284" s="2">
-        <v>0</v>
-      </c>
-      <c r="N284" s="2">
-        <v>0</v>
-      </c>
-      <c r="O284" s="2">
-        <v>0</v>
-      </c>
-      <c r="P284" s="2">
+      <c r="M284" s="7">
+        <v>0</v>
+      </c>
+      <c r="N284" s="7">
+        <v>0</v>
+      </c>
+      <c r="O284" s="7">
+        <v>0</v>
+      </c>
+      <c r="P284" s="7">
         <v>5.26</v>
       </c>
-      <c r="Q284" s="2">
+      <c r="Q284" s="7">
         <v>24.79</v>
       </c>
-      <c r="R284" s="2">
+      <c r="R284" s="7">
         <v>4.8099999999999996</v>
       </c>
-      <c r="S284" s="2">
+      <c r="S284" s="7">
         <v>12</v>
       </c>
-      <c r="T284" s="2">
+      <c r="T284" s="7">
         <v>1</v>
       </c>
-      <c r="U284" s="2">
+      <c r="U284" s="7">
         <v>13</v>
       </c>
-      <c r="V284" s="2">
+      <c r="V284" s="7">
         <v>3</v>
       </c>
     </row>
@@ -20733,6 +20754,461 @@
       </c>
       <c r="V299">
         <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C300" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" t="s">
+        <v>43</v>
+      </c>
+      <c r="F300" t="s">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>288</v>
+      </c>
+      <c r="H300">
+        <v>4.68</v>
+      </c>
+      <c r="I300">
+        <v>0.3</v>
+      </c>
+      <c r="J300">
+        <v>4.37</v>
+      </c>
+      <c r="K300">
+        <v>0.24</v>
+      </c>
+      <c r="L300">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>3.39</v>
+      </c>
+      <c r="Q300">
+        <v>24.91</v>
+      </c>
+      <c r="R300">
+        <v>4.66</v>
+      </c>
+      <c r="S300">
+        <v>24</v>
+      </c>
+      <c r="T300">
+        <v>8</v>
+      </c>
+      <c r="U300">
+        <v>20</v>
+      </c>
+      <c r="V300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C301" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301" t="s">
+        <v>48</v>
+      </c>
+      <c r="F301" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" t="s">
+        <v>289</v>
+      </c>
+      <c r="H301">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I301">
+        <v>0.19</v>
+      </c>
+      <c r="J301">
+        <v>3.94</v>
+      </c>
+      <c r="K301">
+        <v>0.17</v>
+      </c>
+      <c r="L301">
+        <v>0.03</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>2.91</v>
+      </c>
+      <c r="Q301">
+        <v>24.22</v>
+      </c>
+      <c r="R301">
+        <v>4.32</v>
+      </c>
+      <c r="S301">
+        <v>24</v>
+      </c>
+      <c r="T301">
+        <v>2</v>
+      </c>
+      <c r="U301">
+        <v>19</v>
+      </c>
+      <c r="V301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="s">
+        <v>25</v>
+      </c>
+      <c r="F302" t="s">
+        <v>29</v>
+      </c>
+      <c r="G302" t="s">
+        <v>135</v>
+      </c>
+      <c r="H302">
+        <v>5.05</v>
+      </c>
+      <c r="I302">
+        <v>0.09</v>
+      </c>
+      <c r="J302">
+        <v>4.95</v>
+      </c>
+      <c r="K302">
+        <v>0.09</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>3.66</v>
+      </c>
+      <c r="Q302">
+        <v>21.27</v>
+      </c>
+      <c r="R302">
+        <v>4.29</v>
+      </c>
+      <c r="S302">
+        <v>9</v>
+      </c>
+      <c r="T302">
+        <v>3</v>
+      </c>
+      <c r="U302">
+        <v>11</v>
+      </c>
+      <c r="V302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C303" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" t="s">
+        <v>52</v>
+      </c>
+      <c r="F303" t="s">
+        <v>33</v>
+      </c>
+      <c r="G303" t="s">
+        <v>290</v>
+      </c>
+      <c r="H303">
+        <v>5.49</v>
+      </c>
+      <c r="I303">
+        <v>0.35</v>
+      </c>
+      <c r="J303">
+        <v>5.14</v>
+      </c>
+      <c r="K303">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L303">
+        <v>0.05</v>
+      </c>
+      <c r="M303">
+        <v>0.01</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>1</v>
+      </c>
+      <c r="P303">
+        <v>3.99</v>
+      </c>
+      <c r="Q303">
+        <v>26.64</v>
+      </c>
+      <c r="R303">
+        <v>4.58</v>
+      </c>
+      <c r="S303">
+        <v>18</v>
+      </c>
+      <c r="T303">
+        <v>6</v>
+      </c>
+      <c r="U303">
+        <v>19</v>
+      </c>
+      <c r="V303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C304" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" t="s">
+        <v>53</v>
+      </c>
+      <c r="F304" t="s">
+        <v>32</v>
+      </c>
+      <c r="G304" t="s">
+        <v>291</v>
+      </c>
+      <c r="H304">
+        <v>6.4</v>
+      </c>
+      <c r="I304">
+        <v>0.47</v>
+      </c>
+      <c r="J304">
+        <v>5.93</v>
+      </c>
+      <c r="K304">
+        <v>0.4</v>
+      </c>
+      <c r="L304">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>4.66</v>
+      </c>
+      <c r="Q304">
+        <v>23.98</v>
+      </c>
+      <c r="R304">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S304">
+        <v>31</v>
+      </c>
+      <c r="T304">
+        <v>4</v>
+      </c>
+      <c r="U304">
+        <v>24</v>
+      </c>
+      <c r="V304">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C305" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" t="s">
+        <v>40</v>
+      </c>
+      <c r="F305" t="s">
+        <v>31</v>
+      </c>
+      <c r="G305" t="s">
+        <v>292</v>
+      </c>
+      <c r="H305">
+        <v>4.7</v>
+      </c>
+      <c r="I305">
+        <v>0.4</v>
+      </c>
+      <c r="J305">
+        <v>4.28</v>
+      </c>
+      <c r="K305">
+        <v>0.24</v>
+      </c>
+      <c r="L305">
+        <v>0.12</v>
+      </c>
+      <c r="M305">
+        <v>0.06</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>6</v>
+      </c>
+      <c r="P305">
+        <v>3.58</v>
+      </c>
+      <c r="Q305">
+        <v>26.95</v>
+      </c>
+      <c r="R305">
+        <v>5.44</v>
+      </c>
+      <c r="S305">
+        <v>23</v>
+      </c>
+      <c r="T305">
+        <v>7</v>
+      </c>
+      <c r="U305">
+        <v>21</v>
+      </c>
+      <c r="V305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="E306" t="s">
+        <v>39</v>
+      </c>
+      <c r="F306" t="s">
+        <v>29</v>
+      </c>
+      <c r="G306" t="s">
+        <v>293</v>
+      </c>
+      <c r="H306">
+        <v>4.78</v>
+      </c>
+      <c r="I306">
+        <v>0.19</v>
+      </c>
+      <c r="J306">
+        <v>4.59</v>
+      </c>
+      <c r="K306">
+        <v>0.16</v>
+      </c>
+      <c r="L306">
+        <v>0.03</v>
+      </c>
+      <c r="M306">
+        <v>0.01</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>3.49</v>
+      </c>
+      <c r="Q306">
+        <v>26.48</v>
+      </c>
+      <c r="R306">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S306">
+        <v>21</v>
+      </c>
+      <c r="T306">
+        <v>2</v>
+      </c>
+      <c r="U306">
+        <v>19</v>
+      </c>
+      <c r="V306">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440025C-9B57-7447-AEE8-DA03C08EC444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34058D6-FA3D-274E-A9B0-C8932D24A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="307">
   <si>
     <t>Temps joué</t>
   </si>
@@ -918,6 +918,45 @@
   </si>
   <si>
     <t>01:20:17</t>
+  </si>
+  <si>
+    <t>00:26:03</t>
+  </si>
+  <si>
+    <t>01:22:33</t>
+  </si>
+  <si>
+    <t>01:08:35</t>
+  </si>
+  <si>
+    <t>00:48:36</t>
+  </si>
+  <si>
+    <t>00:26:11</t>
+  </si>
+  <si>
+    <t>00:26:19</t>
+  </si>
+  <si>
+    <t>00:20:24</t>
+  </si>
+  <si>
+    <t>01:07:15</t>
+  </si>
+  <si>
+    <t>01:10:52</t>
+  </si>
+  <si>
+    <t>01:39:44</t>
+  </si>
+  <si>
+    <t>01:12:05</t>
+  </si>
+  <si>
+    <t>00:33:09</t>
+  </si>
+  <si>
+    <t>00:34:54</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V306"/>
+  <dimension ref="A1:V320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21211,6 +21250,916 @@
         <v>4</v>
       </c>
     </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>163</v>
+      </c>
+      <c r="B307" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C307" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" t="s">
+        <v>43</v>
+      </c>
+      <c r="F307" t="s">
+        <v>34</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H307" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="I307" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J307" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="K307" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="L307" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="M307" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N307" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O307" s="2">
+        <v>5</v>
+      </c>
+      <c r="P307" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="Q307" s="2">
+        <v>32.11</v>
+      </c>
+      <c r="R307" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="S307" s="2">
+        <v>20</v>
+      </c>
+      <c r="T307" s="2">
+        <v>4</v>
+      </c>
+      <c r="U307" s="2">
+        <v>15</v>
+      </c>
+      <c r="V307" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>163</v>
+      </c>
+      <c r="B308" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C308" t="s">
+        <v>20</v>
+      </c>
+      <c r="E308" t="s">
+        <v>24</v>
+      </c>
+      <c r="F308" t="s">
+        <v>32</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H308" s="2">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I308" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J308" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="K308" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="L308" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="M308" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N308" s="2">
+        <v>0</v>
+      </c>
+      <c r="O308" s="2">
+        <v>3</v>
+      </c>
+      <c r="P308" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="Q308" s="2">
+        <v>27.59</v>
+      </c>
+      <c r="R308" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S308" s="2">
+        <v>23</v>
+      </c>
+      <c r="T308" s="2">
+        <v>3</v>
+      </c>
+      <c r="U308" s="2">
+        <v>16</v>
+      </c>
+      <c r="V308" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>163</v>
+      </c>
+      <c r="B309" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C309" t="s">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>93</v>
+      </c>
+      <c r="F309" t="s">
+        <v>31</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H309" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="I309" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J309" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="K309" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="L309" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M309" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N309" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O309" s="2">
+        <v>10</v>
+      </c>
+      <c r="P309" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q309" s="2">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="R309" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="S309" s="2">
+        <v>15</v>
+      </c>
+      <c r="T309" s="2">
+        <v>4</v>
+      </c>
+      <c r="U309" s="2">
+        <v>15</v>
+      </c>
+      <c r="V309" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>163</v>
+      </c>
+      <c r="B310" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C310" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" t="s">
+        <v>17</v>
+      </c>
+      <c r="F310" t="s">
+        <v>34</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H310" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="I310" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="J310" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K310" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="L310" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="M310" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N310" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="O310" s="2">
+        <v>12</v>
+      </c>
+      <c r="P310" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>32.06</v>
+      </c>
+      <c r="R310" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="S310" s="2">
+        <v>23</v>
+      </c>
+      <c r="T310" s="2">
+        <v>4</v>
+      </c>
+      <c r="U310" s="2">
+        <v>18</v>
+      </c>
+      <c r="V310" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>163</v>
+      </c>
+      <c r="B311" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C311" t="s">
+        <v>20</v>
+      </c>
+      <c r="E311" t="s">
+        <v>50</v>
+      </c>
+      <c r="F311" t="s">
+        <v>33</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H311" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="I311" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J311" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="K311" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="L311" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M311" s="2">
+        <v>0</v>
+      </c>
+      <c r="N311" s="2">
+        <v>0</v>
+      </c>
+      <c r="O311" s="2">
+        <v>0</v>
+      </c>
+      <c r="P311" s="2">
+        <v>6.48</v>
+      </c>
+      <c r="Q311" s="2">
+        <v>24.87</v>
+      </c>
+      <c r="R311" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="S311" s="2">
+        <v>11</v>
+      </c>
+      <c r="T311" s="2">
+        <v>4</v>
+      </c>
+      <c r="U311" s="2">
+        <v>4</v>
+      </c>
+      <c r="V311" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>163</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C312" t="s">
+        <v>20</v>
+      </c>
+      <c r="E312" t="s">
+        <v>53</v>
+      </c>
+      <c r="F312" t="s">
+        <v>32</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H312" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="I312" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="J312" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="K312" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="L312" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M312" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="N312" s="2">
+        <v>0</v>
+      </c>
+      <c r="O312" s="2">
+        <v>4</v>
+      </c>
+      <c r="P312" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>27.66</v>
+      </c>
+      <c r="R312" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="S312" s="2">
+        <v>9</v>
+      </c>
+      <c r="T312" s="2">
+        <v>2</v>
+      </c>
+      <c r="U312" s="2">
+        <v>8</v>
+      </c>
+      <c r="V312" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>163</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C313" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313" t="s">
+        <v>54</v>
+      </c>
+      <c r="F313" t="s">
+        <v>28</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H313" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I313" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J313" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K313" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L313" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="M313" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N313" s="2">
+        <v>0</v>
+      </c>
+      <c r="O313" s="2">
+        <v>3</v>
+      </c>
+      <c r="P313" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="Q313" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="R313" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="S313" s="2">
+        <v>6</v>
+      </c>
+      <c r="T313" s="2">
+        <v>0</v>
+      </c>
+      <c r="U313" s="2">
+        <v>7</v>
+      </c>
+      <c r="V313" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>163</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C314" t="s">
+        <v>20</v>
+      </c>
+      <c r="E314" t="s">
+        <v>25</v>
+      </c>
+      <c r="F314" t="s">
+        <v>29</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H314" s="2">
+        <v>7.03</v>
+      </c>
+      <c r="I314" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J314" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="K314" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="L314" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="M314" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N314" s="2">
+        <v>0</v>
+      </c>
+      <c r="O314" s="2">
+        <v>8</v>
+      </c>
+      <c r="P314" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>29.47</v>
+      </c>
+      <c r="R314" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S314" s="2">
+        <v>35</v>
+      </c>
+      <c r="T314" s="2">
+        <v>1</v>
+      </c>
+      <c r="U314" s="2">
+        <v>26</v>
+      </c>
+      <c r="V314" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>163</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C315" t="s">
+        <v>20</v>
+      </c>
+      <c r="E315" t="s">
+        <v>58</v>
+      </c>
+      <c r="F315" t="s">
+        <v>29</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H315" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="I315" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="J315" s="2">
+        <v>5.86</v>
+      </c>
+      <c r="K315" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="L315" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M315" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N315" s="2">
+        <v>0</v>
+      </c>
+      <c r="O315" s="2">
+        <v>5</v>
+      </c>
+      <c r="P315" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="Q315" s="2">
+        <v>30.42</v>
+      </c>
+      <c r="R315" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="S315" s="2">
+        <v>10</v>
+      </c>
+      <c r="T315" s="2">
+        <v>3</v>
+      </c>
+      <c r="U315" s="2">
+        <v>13</v>
+      </c>
+      <c r="V315" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>163</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C316" t="s">
+        <v>20</v>
+      </c>
+      <c r="E316" t="s">
+        <v>55</v>
+      </c>
+      <c r="F316" t="s">
+        <v>32</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H316" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="I316" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="J316" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="K316" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="L316" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="M316" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N316" s="2">
+        <v>0</v>
+      </c>
+      <c r="O316" s="2">
+        <v>5</v>
+      </c>
+      <c r="P316" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>29.08</v>
+      </c>
+      <c r="R316" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S316" s="2">
+        <v>58</v>
+      </c>
+      <c r="T316" s="2">
+        <v>7</v>
+      </c>
+      <c r="U316" s="2">
+        <v>29</v>
+      </c>
+      <c r="V316" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>163</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C317" t="s">
+        <v>20</v>
+      </c>
+      <c r="E317" t="s">
+        <v>36</v>
+      </c>
+      <c r="F317" t="s">
+        <v>30</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H317" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I317" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="J317" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K317" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L317" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M317" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N317" s="2">
+        <v>0</v>
+      </c>
+      <c r="O317" s="2">
+        <v>10</v>
+      </c>
+      <c r="P317" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="Q317" s="2">
+        <v>27.55</v>
+      </c>
+      <c r="R317" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="S317" s="2">
+        <v>35</v>
+      </c>
+      <c r="T317" s="2">
+        <v>3</v>
+      </c>
+      <c r="U317" s="2">
+        <v>26</v>
+      </c>
+      <c r="V317" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>163</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C318" t="s">
+        <v>20</v>
+      </c>
+      <c r="E318" t="s">
+        <v>39</v>
+      </c>
+      <c r="F318" t="s">
+        <v>29</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H318" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="I318" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="J318" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="K318" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L318" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M318" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N318" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O318" s="2">
+        <v>5</v>
+      </c>
+      <c r="P318" s="2">
+        <v>6.07</v>
+      </c>
+      <c r="Q318" s="2">
+        <v>30.51</v>
+      </c>
+      <c r="R318" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S318" s="2">
+        <v>12</v>
+      </c>
+      <c r="T318" s="2">
+        <v>3</v>
+      </c>
+      <c r="U318" s="2">
+        <v>10</v>
+      </c>
+      <c r="V318" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>163</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C319" t="s">
+        <v>20</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F319" t="s">
+        <v>32</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H319" s="2">
+        <v>3.46</v>
+      </c>
+      <c r="I319" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="J319" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="K319" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="L319" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="M319" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N319" s="2">
+        <v>0</v>
+      </c>
+      <c r="O319" s="2">
+        <v>5</v>
+      </c>
+      <c r="P319" s="2">
+        <v>5.87</v>
+      </c>
+      <c r="Q319" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="R319" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="S319" s="2">
+        <v>9</v>
+      </c>
+      <c r="T319" s="2">
+        <v>1</v>
+      </c>
+      <c r="U319" s="2">
+        <v>12</v>
+      </c>
+      <c r="V319" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>163</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="E320" t="s">
+        <v>245</v>
+      </c>
+      <c r="F320" t="s">
+        <v>32</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H320" s="2">
+        <v>6.68</v>
+      </c>
+      <c r="I320" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J320" s="2">
+        <v>5.79</v>
+      </c>
+      <c r="K320" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L320" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M320" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N320" s="2">
+        <v>0</v>
+      </c>
+      <c r="O320" s="2">
+        <v>2</v>
+      </c>
+      <c r="P320" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="Q320" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="R320" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="S320" s="2">
+        <v>35</v>
+      </c>
+      <c r="T320" s="2">
+        <v>7</v>
+      </c>
+      <c r="U320" s="2">
+        <v>32</v>
+      </c>
+      <c r="V320" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34058D6-FA3D-274E-A9B0-C8932D24A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98137544-8B81-B74D-8D2D-4FB2789C6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="313">
   <si>
     <t>Temps joué</t>
   </si>
@@ -957,6 +957,24 @@
   </si>
   <si>
     <t>00:34:54</t>
+  </si>
+  <si>
+    <t>01:21:22</t>
+  </si>
+  <si>
+    <t>01:19:17</t>
+  </si>
+  <si>
+    <t>01:19:48</t>
+  </si>
+  <si>
+    <t>01:21:38</t>
+  </si>
+  <si>
+    <t>01:20:20</t>
+  </si>
+  <si>
+    <t>J-1</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1028,6 +1046,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V320"/>
+  <dimension ref="A1:V326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21266,52 +21290,52 @@
       <c r="F307" t="s">
         <v>34</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G307" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H307" s="2">
+      <c r="H307" s="9">
         <v>3.51</v>
       </c>
-      <c r="I307" s="2">
+      <c r="I307" s="9">
         <v>0.89</v>
       </c>
-      <c r="J307" s="2">
+      <c r="J307" s="9">
         <v>2.62</v>
       </c>
-      <c r="K307" s="2">
+      <c r="K307" s="9">
         <v>0.61</v>
       </c>
-      <c r="L307" s="2">
+      <c r="L307" s="9">
         <v>0.17</v>
       </c>
-      <c r="M307" s="2">
+      <c r="M307" s="9">
         <v>0.09</v>
       </c>
-      <c r="N307" s="2">
+      <c r="N307" s="9">
         <v>0.03</v>
       </c>
-      <c r="O307" s="2">
+      <c r="O307" s="9">
         <v>5</v>
       </c>
-      <c r="P307" s="2">
+      <c r="P307" s="9">
         <v>8.06</v>
       </c>
-      <c r="Q307" s="2">
+      <c r="Q307" s="9">
         <v>32.11</v>
       </c>
-      <c r="R307" s="2">
+      <c r="R307" s="9">
         <v>4.9800000000000004</v>
       </c>
-      <c r="S307" s="2">
-        <v>20</v>
-      </c>
-      <c r="T307" s="2">
+      <c r="S307" s="9">
+        <v>20</v>
+      </c>
+      <c r="T307" s="9">
         <v>4</v>
       </c>
-      <c r="U307" s="2">
+      <c r="U307" s="9">
         <v>15</v>
       </c>
-      <c r="V307" s="2">
+      <c r="V307" s="9">
         <v>5</v>
       </c>
     </row>
@@ -21331,52 +21355,52 @@
       <c r="F308" t="s">
         <v>32</v>
       </c>
-      <c r="G308" s="2" t="s">
+      <c r="G308" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H308" s="2">
+      <c r="H308" s="9">
         <v>8.5500000000000007</v>
       </c>
-      <c r="I308" s="2">
+      <c r="I308" s="9">
         <v>1.35</v>
       </c>
-      <c r="J308" s="2">
+      <c r="J308" s="9">
         <v>7.18</v>
       </c>
-      <c r="K308" s="2">
+      <c r="K308" s="9">
         <v>0.99</v>
       </c>
-      <c r="L308" s="2">
+      <c r="L308" s="9">
         <v>0.33</v>
       </c>
-      <c r="M308" s="2">
+      <c r="M308" s="9">
         <v>0.05</v>
       </c>
-      <c r="N308" s="2">
-        <v>0</v>
-      </c>
-      <c r="O308" s="2">
+      <c r="N308" s="9">
+        <v>0</v>
+      </c>
+      <c r="O308" s="9">
         <v>3</v>
       </c>
-      <c r="P308" s="2">
+      <c r="P308" s="9">
         <v>6.13</v>
       </c>
-      <c r="Q308" s="2">
+      <c r="Q308" s="9">
         <v>27.59</v>
       </c>
-      <c r="R308" s="2">
+      <c r="R308" s="9">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S308" s="2">
-        <v>23</v>
-      </c>
-      <c r="T308" s="2">
+      <c r="S308" s="9">
+        <v>23</v>
+      </c>
+      <c r="T308" s="9">
         <v>3</v>
       </c>
-      <c r="U308" s="2">
+      <c r="U308" s="9">
         <v>16</v>
       </c>
-      <c r="V308" s="2">
+      <c r="V308" s="9">
         <v>8</v>
       </c>
     </row>
@@ -21396,52 +21420,52 @@
       <c r="F309" t="s">
         <v>31</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H309" s="9">
         <v>5.88</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J309" s="2">
+      <c r="J309" s="9">
         <v>4.72</v>
       </c>
-      <c r="K309" s="2">
+      <c r="K309" s="9">
         <v>0.68</v>
       </c>
-      <c r="L309" s="2">
+      <c r="L309" s="9">
         <v>0.25</v>
       </c>
-      <c r="M309" s="2">
+      <c r="M309" s="9">
         <v>0.17</v>
       </c>
-      <c r="N309" s="2">
+      <c r="N309" s="9">
         <v>0.06</v>
       </c>
-      <c r="O309" s="2">
+      <c r="O309" s="9">
         <v>10</v>
       </c>
-      <c r="P309" s="2">
+      <c r="P309" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q309" s="2">
+      <c r="Q309" s="9">
         <v>32.130000000000003</v>
       </c>
-      <c r="R309" s="2">
+      <c r="R309" s="9">
         <v>4.72</v>
       </c>
-      <c r="S309" s="2">
+      <c r="S309" s="9">
         <v>15</v>
       </c>
-      <c r="T309" s="2">
+      <c r="T309" s="9">
         <v>4</v>
       </c>
-      <c r="U309" s="2">
+      <c r="U309" s="9">
         <v>15</v>
       </c>
-      <c r="V309" s="2">
+      <c r="V309" s="9">
         <v>6</v>
       </c>
     </row>
@@ -21461,52 +21485,52 @@
       <c r="F310" t="s">
         <v>34</v>
       </c>
-      <c r="G310" s="2" t="s">
+      <c r="G310" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H310" s="9">
         <v>5.73</v>
       </c>
-      <c r="I310" s="2">
+      <c r="I310" s="9">
         <v>1.44</v>
       </c>
-      <c r="J310" s="2">
+      <c r="J310" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="K310" s="2">
+      <c r="K310" s="9">
         <v>0.88</v>
       </c>
-      <c r="L310" s="2">
+      <c r="L310" s="9">
         <v>0.42</v>
       </c>
-      <c r="M310" s="2">
+      <c r="M310" s="9">
         <v>0.13</v>
       </c>
-      <c r="N310" s="2">
+      <c r="N310" s="9">
         <v>0.02</v>
       </c>
-      <c r="O310" s="2">
+      <c r="O310" s="9">
         <v>12</v>
       </c>
-      <c r="P310" s="2">
+      <c r="P310" s="9">
         <v>7.07</v>
       </c>
-      <c r="Q310" s="2">
+      <c r="Q310" s="9">
         <v>32.06</v>
       </c>
-      <c r="R310" s="2">
+      <c r="R310" s="9">
         <v>4.79</v>
       </c>
-      <c r="S310" s="2">
-        <v>23</v>
-      </c>
-      <c r="T310" s="2">
+      <c r="S310" s="9">
+        <v>23</v>
+      </c>
+      <c r="T310" s="9">
         <v>4</v>
       </c>
-      <c r="U310" s="2">
+      <c r="U310" s="9">
         <v>18</v>
       </c>
-      <c r="V310" s="2">
+      <c r="V310" s="9">
         <v>5</v>
       </c>
     </row>
@@ -21526,52 +21550,52 @@
       <c r="F311" t="s">
         <v>33</v>
       </c>
-      <c r="G311" s="2" t="s">
+      <c r="G311" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H311" s="9">
         <v>2.84</v>
       </c>
-      <c r="I311" s="2">
+      <c r="I311" s="9">
         <v>0.51</v>
       </c>
-      <c r="J311" s="2">
+      <c r="J311" s="9">
         <v>2.33</v>
       </c>
-      <c r="K311" s="2">
+      <c r="K311" s="9">
         <v>0.32</v>
       </c>
-      <c r="L311" s="2">
+      <c r="L311" s="9">
         <v>0.2</v>
       </c>
-      <c r="M311" s="2">
-        <v>0</v>
-      </c>
-      <c r="N311" s="2">
-        <v>0</v>
-      </c>
-      <c r="O311" s="2">
-        <v>0</v>
-      </c>
-      <c r="P311" s="2">
+      <c r="M311" s="9">
+        <v>0</v>
+      </c>
+      <c r="N311" s="9">
+        <v>0</v>
+      </c>
+      <c r="O311" s="9">
+        <v>0</v>
+      </c>
+      <c r="P311" s="9">
         <v>6.48</v>
       </c>
-      <c r="Q311" s="2">
+      <c r="Q311" s="9">
         <v>24.87</v>
       </c>
-      <c r="R311" s="2">
+      <c r="R311" s="9">
         <v>4.96</v>
       </c>
-      <c r="S311" s="2">
+      <c r="S311" s="9">
         <v>11</v>
       </c>
-      <c r="T311" s="2">
+      <c r="T311" s="9">
         <v>4</v>
       </c>
-      <c r="U311" s="2">
+      <c r="U311" s="9">
         <v>4</v>
       </c>
-      <c r="V311" s="2">
+      <c r="V311" s="9">
         <v>6</v>
       </c>
     </row>
@@ -21591,52 +21615,52 @@
       <c r="F312" t="s">
         <v>32</v>
       </c>
-      <c r="G312" s="2" t="s">
+      <c r="G312" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="H312" s="2">
+      <c r="H312" s="9">
         <v>3.39</v>
       </c>
-      <c r="I312" s="2">
+      <c r="I312" s="9">
         <v>0.64</v>
       </c>
-      <c r="J312" s="2">
+      <c r="J312" s="9">
         <v>2.75</v>
       </c>
-      <c r="K312" s="2">
+      <c r="K312" s="9">
         <v>0.54</v>
       </c>
-      <c r="L312" s="2">
+      <c r="L312" s="9">
         <v>0.08</v>
       </c>
-      <c r="M312" s="2">
+      <c r="M312" s="9">
         <v>0.03</v>
       </c>
-      <c r="N312" s="2">
-        <v>0</v>
-      </c>
-      <c r="O312" s="2">
+      <c r="N312" s="9">
+        <v>0</v>
+      </c>
+      <c r="O312" s="9">
         <v>4</v>
       </c>
-      <c r="P312" s="2">
+      <c r="P312" s="9">
         <v>7.72</v>
       </c>
-      <c r="Q312" s="2">
+      <c r="Q312" s="9">
         <v>27.66</v>
       </c>
-      <c r="R312" s="2">
+      <c r="R312" s="9">
         <v>4.08</v>
       </c>
-      <c r="S312" s="2">
+      <c r="S312" s="9">
         <v>9</v>
       </c>
-      <c r="T312" s="2">
+      <c r="T312" s="9">
         <v>2</v>
       </c>
-      <c r="U312" s="2">
+      <c r="U312" s="9">
         <v>8</v>
       </c>
-      <c r="V312" s="2">
+      <c r="V312" s="9">
         <v>3</v>
       </c>
     </row>
@@ -21656,52 +21680,52 @@
       <c r="F313" t="s">
         <v>28</v>
       </c>
-      <c r="G313" s="2" t="s">
+      <c r="G313" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="H313" s="2">
+      <c r="H313" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I313" s="2">
+      <c r="I313" s="9">
         <v>0.4</v>
       </c>
-      <c r="J313" s="2">
+      <c r="J313" s="9">
         <v>1.8</v>
       </c>
-      <c r="K313" s="2">
+      <c r="K313" s="9">
         <v>0.23</v>
       </c>
-      <c r="L313" s="2">
+      <c r="L313" s="9">
         <v>0.13</v>
       </c>
-      <c r="M313" s="2">
+      <c r="M313" s="9">
         <v>0.05</v>
       </c>
-      <c r="N313" s="2">
-        <v>0</v>
-      </c>
-      <c r="O313" s="2">
+      <c r="N313" s="9">
+        <v>0</v>
+      </c>
+      <c r="O313" s="9">
         <v>3</v>
       </c>
-      <c r="P313" s="2">
+      <c r="P313" s="9">
         <v>6.47</v>
       </c>
-      <c r="Q313" s="2">
+      <c r="Q313" s="9">
         <v>29.68</v>
       </c>
-      <c r="R313" s="2">
+      <c r="R313" s="9">
         <v>3.94</v>
       </c>
-      <c r="S313" s="2">
+      <c r="S313" s="9">
         <v>6</v>
       </c>
-      <c r="T313" s="2">
-        <v>0</v>
-      </c>
-      <c r="U313" s="2">
+      <c r="T313" s="9">
+        <v>0</v>
+      </c>
+      <c r="U313" s="9">
         <v>7</v>
       </c>
-      <c r="V313" s="2">
+      <c r="V313" s="9">
         <v>3</v>
       </c>
     </row>
@@ -21721,52 +21745,52 @@
       <c r="F314" t="s">
         <v>29</v>
       </c>
-      <c r="G314" s="2" t="s">
+      <c r="G314" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H314" s="2">
+      <c r="H314" s="9">
         <v>7.03</v>
       </c>
-      <c r="I314" s="2">
+      <c r="I314" s="9">
         <v>1.05</v>
       </c>
-      <c r="J314" s="2">
+      <c r="J314" s="9">
         <v>5.97</v>
       </c>
-      <c r="K314" s="2">
+      <c r="K314" s="9">
         <v>0.74</v>
       </c>
-      <c r="L314" s="2">
+      <c r="L314" s="9">
         <v>0.21</v>
       </c>
-      <c r="M314" s="2">
+      <c r="M314" s="9">
         <v>0.1</v>
       </c>
-      <c r="N314" s="2">
-        <v>0</v>
-      </c>
-      <c r="O314" s="2">
+      <c r="N314" s="9">
+        <v>0</v>
+      </c>
+      <c r="O314" s="9">
         <v>8</v>
       </c>
-      <c r="P314" s="2">
+      <c r="P314" s="9">
         <v>6.27</v>
       </c>
-      <c r="Q314" s="2">
+      <c r="Q314" s="9">
         <v>29.47</v>
       </c>
-      <c r="R314" s="2">
+      <c r="R314" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S314" s="2">
+      <c r="S314" s="9">
         <v>35</v>
       </c>
-      <c r="T314" s="2">
+      <c r="T314" s="9">
         <v>1</v>
       </c>
-      <c r="U314" s="2">
+      <c r="U314" s="9">
         <v>26</v>
       </c>
-      <c r="V314" s="2">
+      <c r="V314" s="9">
         <v>10</v>
       </c>
     </row>
@@ -21786,52 +21810,52 @@
       <c r="F315" t="s">
         <v>29</v>
       </c>
-      <c r="G315" s="2" t="s">
+      <c r="G315" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H315" s="2">
+      <c r="H315" s="9">
         <v>6.89</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315" s="9">
         <v>1.02</v>
       </c>
-      <c r="J315" s="2">
+      <c r="J315" s="9">
         <v>5.86</v>
       </c>
-      <c r="K315" s="2">
+      <c r="K315" s="9">
         <v>0.69</v>
       </c>
-      <c r="L315" s="2">
+      <c r="L315" s="9">
         <v>0.25</v>
       </c>
-      <c r="M315" s="2">
+      <c r="M315" s="9">
         <v>0.09</v>
       </c>
-      <c r="N315" s="2">
-        <v>0</v>
-      </c>
-      <c r="O315" s="2">
+      <c r="N315" s="9">
+        <v>0</v>
+      </c>
+      <c r="O315" s="9">
         <v>5</v>
       </c>
-      <c r="P315" s="2">
+      <c r="P315" s="9">
         <v>5.8</v>
       </c>
-      <c r="Q315" s="2">
+      <c r="Q315" s="9">
         <v>30.42</v>
       </c>
-      <c r="R315" s="2">
+      <c r="R315" s="9">
         <v>4.17</v>
       </c>
-      <c r="S315" s="2">
+      <c r="S315" s="9">
         <v>10</v>
       </c>
-      <c r="T315" s="2">
+      <c r="T315" s="9">
         <v>3</v>
       </c>
-      <c r="U315" s="2">
+      <c r="U315" s="9">
         <v>13</v>
       </c>
-      <c r="V315" s="2">
+      <c r="V315" s="9">
         <v>5</v>
       </c>
     </row>
@@ -21851,52 +21875,52 @@
       <c r="F316" t="s">
         <v>32</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="G316" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="H316" s="2">
+      <c r="H316" s="9">
         <v>10.32</v>
       </c>
-      <c r="I316" s="2">
+      <c r="I316" s="9">
         <v>1.74</v>
       </c>
-      <c r="J316" s="2">
+      <c r="J316" s="9">
         <v>8.56</v>
       </c>
-      <c r="K316" s="2">
+      <c r="K316" s="9">
         <v>1.24</v>
       </c>
-      <c r="L316" s="2">
+      <c r="L316" s="9">
         <v>0.43</v>
       </c>
-      <c r="M316" s="2">
+      <c r="M316" s="9">
         <v>0.09</v>
       </c>
-      <c r="N316" s="2">
-        <v>0</v>
-      </c>
-      <c r="O316" s="2">
+      <c r="N316" s="9">
+        <v>0</v>
+      </c>
+      <c r="O316" s="9">
         <v>5</v>
       </c>
-      <c r="P316" s="2">
+      <c r="P316" s="9">
         <v>6.16</v>
       </c>
-      <c r="Q316" s="2">
+      <c r="Q316" s="9">
         <v>29.08</v>
       </c>
-      <c r="R316" s="2">
+      <c r="R316" s="9">
         <v>4.7300000000000004</v>
       </c>
-      <c r="S316" s="2">
+      <c r="S316" s="9">
         <v>58</v>
       </c>
-      <c r="T316" s="2">
+      <c r="T316" s="9">
         <v>7</v>
       </c>
-      <c r="U316" s="2">
+      <c r="U316" s="9">
         <v>29</v>
       </c>
-      <c r="V316" s="2">
+      <c r="V316" s="9">
         <v>7</v>
       </c>
     </row>
@@ -21916,52 +21940,52 @@
       <c r="F317" t="s">
         <v>30</v>
       </c>
-      <c r="G317" s="2" t="s">
+      <c r="G317" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="H317" s="2">
+      <c r="H317" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="I317" s="2">
+      <c r="I317" s="9">
         <v>1.9</v>
       </c>
-      <c r="J317" s="2">
+      <c r="J317" s="9">
         <v>6.2</v>
       </c>
-      <c r="K317" s="2">
+      <c r="K317" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L317" s="2">
+      <c r="L317" s="9">
         <v>0.7</v>
       </c>
-      <c r="M317" s="2">
+      <c r="M317" s="9">
         <v>0.09</v>
       </c>
-      <c r="N317" s="2">
-        <v>0</v>
-      </c>
-      <c r="O317" s="2">
+      <c r="N317" s="9">
+        <v>0</v>
+      </c>
+      <c r="O317" s="9">
         <v>10</v>
       </c>
-      <c r="P317" s="2">
+      <c r="P317" s="9">
         <v>6.74</v>
       </c>
-      <c r="Q317" s="2">
+      <c r="Q317" s="9">
         <v>27.55</v>
       </c>
-      <c r="R317" s="2">
+      <c r="R317" s="9">
         <v>4.71</v>
       </c>
-      <c r="S317" s="2">
+      <c r="S317" s="9">
         <v>35</v>
       </c>
-      <c r="T317" s="2">
+      <c r="T317" s="9">
         <v>3</v>
       </c>
-      <c r="U317" s="2">
+      <c r="U317" s="9">
         <v>26</v>
       </c>
-      <c r="V317" s="2">
+      <c r="V317" s="9">
         <v>12</v>
       </c>
     </row>
@@ -21981,52 +22005,52 @@
       <c r="F318" t="s">
         <v>29</v>
       </c>
-      <c r="G318" s="2" t="s">
+      <c r="G318" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="H318" s="2">
+      <c r="H318" s="9">
         <v>3.42</v>
       </c>
-      <c r="I318" s="2">
+      <c r="I318" s="9">
         <v>0.44</v>
       </c>
-      <c r="J318" s="2">
+      <c r="J318" s="9">
         <v>2.98</v>
       </c>
-      <c r="K318" s="2">
+      <c r="K318" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L318" s="2">
+      <c r="L318" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M318" s="2">
+      <c r="M318" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N318" s="2">
+      <c r="N318" s="9">
         <v>0.01</v>
       </c>
-      <c r="O318" s="2">
+      <c r="O318" s="9">
         <v>5</v>
       </c>
-      <c r="P318" s="2">
+      <c r="P318" s="9">
         <v>6.07</v>
       </c>
-      <c r="Q318" s="2">
+      <c r="Q318" s="9">
         <v>30.51</v>
       </c>
-      <c r="R318" s="2">
+      <c r="R318" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="S318" s="2">
+      <c r="S318" s="9">
         <v>12</v>
       </c>
-      <c r="T318" s="2">
+      <c r="T318" s="9">
         <v>3</v>
       </c>
-      <c r="U318" s="2">
+      <c r="U318" s="9">
         <v>10</v>
       </c>
-      <c r="V318" s="2">
+      <c r="V318" s="9">
         <v>4</v>
       </c>
     </row>
@@ -22046,52 +22070,52 @@
       <c r="F319" t="s">
         <v>32</v>
       </c>
-      <c r="G319" s="2" t="s">
+      <c r="G319" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="H319" s="2">
+      <c r="H319" s="9">
         <v>3.46</v>
       </c>
-      <c r="I319" s="2">
+      <c r="I319" s="9">
         <v>0.67</v>
       </c>
-      <c r="J319" s="2">
+      <c r="J319" s="9">
         <v>2.78</v>
       </c>
-      <c r="K319" s="2">
+      <c r="K319" s="9">
         <v>0.44</v>
       </c>
-      <c r="L319" s="2">
+      <c r="L319" s="9">
         <v>0.19</v>
       </c>
-      <c r="M319" s="2">
+      <c r="M319" s="9">
         <v>0.05</v>
       </c>
-      <c r="N319" s="2">
-        <v>0</v>
-      </c>
-      <c r="O319" s="2">
+      <c r="N319" s="9">
+        <v>0</v>
+      </c>
+      <c r="O319" s="9">
         <v>5</v>
       </c>
-      <c r="P319" s="2">
+      <c r="P319" s="9">
         <v>5.87</v>
       </c>
-      <c r="Q319" s="2">
+      <c r="Q319" s="9">
         <v>28.2</v>
       </c>
-      <c r="R319" s="2">
+      <c r="R319" s="9">
         <v>4.78</v>
       </c>
-      <c r="S319" s="2">
+      <c r="S319" s="9">
         <v>9</v>
       </c>
-      <c r="T319" s="2">
+      <c r="T319" s="9">
         <v>1</v>
       </c>
-      <c r="U319" s="2">
+      <c r="U319" s="9">
         <v>12</v>
       </c>
-      <c r="V319" s="2">
+      <c r="V319" s="9">
         <v>5</v>
       </c>
     </row>
@@ -22111,53 +22135,461 @@
       <c r="F320" t="s">
         <v>32</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="G320" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H320" s="2">
+      <c r="H320" s="9">
         <v>6.68</v>
       </c>
-      <c r="I320" s="2">
+      <c r="I320" s="9">
         <v>0.88</v>
       </c>
-      <c r="J320" s="2">
+      <c r="J320" s="9">
         <v>5.79</v>
       </c>
-      <c r="K320" s="2">
+      <c r="K320" s="9">
         <v>0.7</v>
       </c>
-      <c r="L320" s="2">
+      <c r="L320" s="9">
         <v>0.18</v>
       </c>
-      <c r="M320" s="2">
+      <c r="M320" s="9">
         <v>0.01</v>
       </c>
-      <c r="N320" s="2">
-        <v>0</v>
-      </c>
-      <c r="O320" s="2">
+      <c r="N320" s="9">
+        <v>0</v>
+      </c>
+      <c r="O320" s="9">
         <v>2</v>
       </c>
-      <c r="P320" s="2">
+      <c r="P320" s="9">
         <v>6.36</v>
       </c>
-      <c r="Q320" s="2">
+      <c r="Q320" s="9">
         <v>25.99</v>
       </c>
-      <c r="R320" s="2">
+      <c r="R320" s="9">
         <v>4.99</v>
       </c>
-      <c r="S320" s="2">
+      <c r="S320" s="9">
         <v>35</v>
       </c>
-      <c r="T320" s="2">
+      <c r="T320" s="9">
         <v>7</v>
       </c>
-      <c r="U320" s="2">
+      <c r="U320" s="9">
         <v>32</v>
       </c>
-      <c r="V320" s="2">
+      <c r="V320" s="9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E321" t="s">
+        <v>25</v>
+      </c>
+      <c r="F321" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" t="s">
+        <v>307</v>
+      </c>
+      <c r="H321">
+        <v>4.63</v>
+      </c>
+      <c r="I321">
+        <v>0.1</v>
+      </c>
+      <c r="J321">
+        <v>4.53</v>
+      </c>
+      <c r="K321">
+        <v>0.1</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <v>3.3</v>
+      </c>
+      <c r="Q321">
+        <v>19.34</v>
+      </c>
+      <c r="R321">
+        <v>4.45</v>
+      </c>
+      <c r="S321">
+        <v>29</v>
+      </c>
+      <c r="T321">
+        <v>3</v>
+      </c>
+      <c r="U321">
+        <v>22</v>
+      </c>
+      <c r="V321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E322" t="s">
+        <v>40</v>
+      </c>
+      <c r="F322" t="s">
+        <v>31</v>
+      </c>
+      <c r="G322" t="s">
+        <v>308</v>
+      </c>
+      <c r="H322">
+        <v>5.66</v>
+      </c>
+      <c r="I322">
+        <v>0.32</v>
+      </c>
+      <c r="J322">
+        <v>5.33</v>
+      </c>
+      <c r="K322">
+        <v>0.25</v>
+      </c>
+      <c r="L322">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M322">
+        <v>0.01</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>2</v>
+      </c>
+      <c r="P322">
+        <v>3.84</v>
+      </c>
+      <c r="Q322">
+        <v>26.45</v>
+      </c>
+      <c r="R322">
+        <v>5.27</v>
+      </c>
+      <c r="S322">
+        <v>39</v>
+      </c>
+      <c r="T322">
+        <v>10</v>
+      </c>
+      <c r="U322">
+        <v>37</v>
+      </c>
+      <c r="V322">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E323" t="s">
+        <v>54</v>
+      </c>
+      <c r="F323" t="s">
+        <v>28</v>
+      </c>
+      <c r="G323" t="s">
+        <v>309</v>
+      </c>
+      <c r="H323">
+        <v>5.01</v>
+      </c>
+      <c r="I323">
+        <v>0.23</v>
+      </c>
+      <c r="J323">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K323">
+        <v>0.22</v>
+      </c>
+      <c r="L323">
+        <v>0.02</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>3.68</v>
+      </c>
+      <c r="Q323">
+        <v>21.14</v>
+      </c>
+      <c r="R323">
+        <v>5.4</v>
+      </c>
+      <c r="S323">
+        <v>29</v>
+      </c>
+      <c r="T323">
+        <v>12</v>
+      </c>
+      <c r="U323">
+        <v>16</v>
+      </c>
+      <c r="V323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C324" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E324" t="s">
+        <v>164</v>
+      </c>
+      <c r="F324" t="s">
+        <v>32</v>
+      </c>
+      <c r="G324" t="s">
+        <v>310</v>
+      </c>
+      <c r="H324">
+        <v>5.48</v>
+      </c>
+      <c r="I324">
+        <v>0.36</v>
+      </c>
+      <c r="J324">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K324">
+        <v>0.3</v>
+      </c>
+      <c r="L324">
+        <v>0.06</v>
+      </c>
+      <c r="M324">
+        <v>0.01</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>3.93</v>
+      </c>
+      <c r="Q324">
+        <v>25.97</v>
+      </c>
+      <c r="R324">
+        <v>4.67</v>
+      </c>
+      <c r="S324">
+        <v>30</v>
+      </c>
+      <c r="T324">
+        <v>6</v>
+      </c>
+      <c r="U324">
+        <v>29</v>
+      </c>
+      <c r="V324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>23</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C325" t="s">
+        <v>20</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E325" t="s">
+        <v>39</v>
+      </c>
+      <c r="F325" t="s">
+        <v>29</v>
+      </c>
+      <c r="G325" t="s">
+        <v>311</v>
+      </c>
+      <c r="H325">
+        <v>5.09</v>
+      </c>
+      <c r="I325">
+        <v>0.21</v>
+      </c>
+      <c r="J325">
+        <v>4.87</v>
+      </c>
+      <c r="K325">
+        <v>0.17</v>
+      </c>
+      <c r="L325">
+        <v>0.04</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>3.69</v>
+      </c>
+      <c r="Q325">
+        <v>24.15</v>
+      </c>
+      <c r="R325">
+        <v>4.53</v>
+      </c>
+      <c r="S325">
+        <v>22</v>
+      </c>
+      <c r="T325">
+        <v>3</v>
+      </c>
+      <c r="U325">
+        <v>21</v>
+      </c>
+      <c r="V325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>23</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C326" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E326" t="s">
+        <v>53</v>
+      </c>
+      <c r="F326" t="s">
+        <v>32</v>
+      </c>
+      <c r="G326" t="s">
+        <v>309</v>
+      </c>
+      <c r="H326">
+        <v>5.64</v>
+      </c>
+      <c r="I326">
+        <v>0.3</v>
+      </c>
+      <c r="J326">
+        <v>5.33</v>
+      </c>
+      <c r="K326">
+        <v>0.21</v>
+      </c>
+      <c r="L326">
+        <v>0.1</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q326">
+        <v>24.55</v>
+      </c>
+      <c r="R326">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S326">
+        <v>30</v>
+      </c>
+      <c r="T326">
+        <v>5</v>
+      </c>
+      <c r="U326">
+        <v>23</v>
+      </c>
+      <c r="V326">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98137544-8B81-B74D-8D2D-4FB2789C6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC484D-0BC0-6345-8ED2-64FFB662A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="325">
   <si>
     <t>Temps joué</t>
   </si>
@@ -975,6 +975,42 @@
   </si>
   <si>
     <t>J-1</t>
+  </si>
+  <si>
+    <t>01:23:52</t>
+  </si>
+  <si>
+    <t>01:31:22</t>
+  </si>
+  <si>
+    <t>01:40:31</t>
+  </si>
+  <si>
+    <t>00:19:30</t>
+  </si>
+  <si>
+    <t>01:20:52</t>
+  </si>
+  <si>
+    <t>01:40:22</t>
+  </si>
+  <si>
+    <t>01:40:30</t>
+  </si>
+  <si>
+    <t>01:04:39</t>
+  </si>
+  <si>
+    <t>00:09:25</t>
+  </si>
+  <si>
+    <t>01:40:39</t>
+  </si>
+  <si>
+    <t>01:40:06</t>
+  </si>
+  <si>
+    <t>N3 J1 VS Montpellier (B)</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V326"/>
+  <dimension ref="A1:V338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E330" sqref="E330"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22592,6 +22628,786 @@
         <v>6</v>
       </c>
     </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>324</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C327" t="s">
+        <v>20</v>
+      </c>
+      <c r="E327" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G327" t="s">
+        <v>313</v>
+      </c>
+      <c r="H327">
+        <v>9.51</v>
+      </c>
+      <c r="I327">
+        <v>1.78</v>
+      </c>
+      <c r="J327">
+        <v>7.71</v>
+      </c>
+      <c r="K327">
+        <v>1.18</v>
+      </c>
+      <c r="L327">
+        <v>0.54</v>
+      </c>
+      <c r="M327">
+        <v>0.08</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>5</v>
+      </c>
+      <c r="P327">
+        <v>6.8</v>
+      </c>
+      <c r="Q327">
+        <v>28.61</v>
+      </c>
+      <c r="R327">
+        <v>4.03</v>
+      </c>
+      <c r="S327">
+        <v>33</v>
+      </c>
+      <c r="T327">
+        <v>1</v>
+      </c>
+      <c r="U327">
+        <v>24</v>
+      </c>
+      <c r="V327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>324</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C328" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328" t="s">
+        <v>38</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G328" t="s">
+        <v>314</v>
+      </c>
+      <c r="H328">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I328">
+        <v>1.61</v>
+      </c>
+      <c r="J328">
+        <v>7.34</v>
+      </c>
+      <c r="K328">
+        <v>0.91</v>
+      </c>
+      <c r="L328">
+        <v>0.52</v>
+      </c>
+      <c r="M328">
+        <v>0.18</v>
+      </c>
+      <c r="N328">
+        <v>0.02</v>
+      </c>
+      <c r="O328">
+        <v>13</v>
+      </c>
+      <c r="P328">
+        <v>5.9</v>
+      </c>
+      <c r="Q328">
+        <v>30.82</v>
+      </c>
+      <c r="R328">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S328">
+        <v>18</v>
+      </c>
+      <c r="T328">
+        <v>5</v>
+      </c>
+      <c r="U328">
+        <v>22</v>
+      </c>
+      <c r="V328">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>324</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C329" t="s">
+        <v>20</v>
+      </c>
+      <c r="E329" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+      <c r="G329" t="s">
+        <v>315</v>
+      </c>
+      <c r="H329">
+        <v>10.1</v>
+      </c>
+      <c r="I329">
+        <v>1.44</v>
+      </c>
+      <c r="J329">
+        <v>8.64</v>
+      </c>
+      <c r="K329">
+        <v>0.99</v>
+      </c>
+      <c r="L329">
+        <v>0.38</v>
+      </c>
+      <c r="M329">
+        <v>0.08</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329">
+        <v>7</v>
+      </c>
+      <c r="P329">
+        <v>6.07</v>
+      </c>
+      <c r="Q329">
+        <v>29.92</v>
+      </c>
+      <c r="R329">
+        <v>5.52</v>
+      </c>
+      <c r="S329">
+        <v>31</v>
+      </c>
+      <c r="T329">
+        <v>8</v>
+      </c>
+      <c r="U329">
+        <v>31</v>
+      </c>
+      <c r="V329">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>324</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C330" t="s">
+        <v>20</v>
+      </c>
+      <c r="E330" t="s">
+        <v>54</v>
+      </c>
+      <c r="F330" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" t="s">
+        <v>316</v>
+      </c>
+      <c r="H330">
+        <v>1.87</v>
+      </c>
+      <c r="I330">
+        <v>0.31</v>
+      </c>
+      <c r="J330">
+        <v>1.56</v>
+      </c>
+      <c r="K330">
+        <v>0.23</v>
+      </c>
+      <c r="L330">
+        <v>0.06</v>
+      </c>
+      <c r="M330">
+        <v>0.02</v>
+      </c>
+      <c r="N330">
+        <v>0.01</v>
+      </c>
+      <c r="O330">
+        <v>2</v>
+      </c>
+      <c r="P330">
+        <v>5.72</v>
+      </c>
+      <c r="Q330">
+        <v>30.73</v>
+      </c>
+      <c r="R330">
+        <v>4.16</v>
+      </c>
+      <c r="S330">
+        <v>6</v>
+      </c>
+      <c r="T330">
+        <v>1</v>
+      </c>
+      <c r="U330">
+        <v>6</v>
+      </c>
+      <c r="V330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>324</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C331" t="s">
+        <v>20</v>
+      </c>
+      <c r="E331" t="s">
+        <v>40</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G331" t="s">
+        <v>317</v>
+      </c>
+      <c r="H331">
+        <v>8.65</v>
+      </c>
+      <c r="I331">
+        <v>1.81</v>
+      </c>
+      <c r="J331">
+        <v>6.82</v>
+      </c>
+      <c r="K331">
+        <v>1.07</v>
+      </c>
+      <c r="L331">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M331">
+        <v>0.17</v>
+      </c>
+      <c r="N331">
+        <v>0.03</v>
+      </c>
+      <c r="O331">
+        <v>13</v>
+      </c>
+      <c r="P331">
+        <v>6.38</v>
+      </c>
+      <c r="Q331">
+        <v>31.19</v>
+      </c>
+      <c r="R331">
+        <v>4.53</v>
+      </c>
+      <c r="S331">
+        <v>37</v>
+      </c>
+      <c r="T331">
+        <v>7</v>
+      </c>
+      <c r="U331">
+        <v>28</v>
+      </c>
+      <c r="V331">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>324</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="E332" t="s">
+        <v>93</v>
+      </c>
+      <c r="F332" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" t="s">
+        <v>318</v>
+      </c>
+      <c r="H332">
+        <v>8.74</v>
+      </c>
+      <c r="I332">
+        <v>1.44</v>
+      </c>
+      <c r="J332">
+        <v>7.29</v>
+      </c>
+      <c r="K332">
+        <v>0.78</v>
+      </c>
+      <c r="L332">
+        <v>0.41</v>
+      </c>
+      <c r="M332">
+        <v>0.16</v>
+      </c>
+      <c r="N332">
+        <v>0.11</v>
+      </c>
+      <c r="O332">
+        <v>9</v>
+      </c>
+      <c r="P332">
+        <v>5.16</v>
+      </c>
+      <c r="Q332">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="R332">
+        <v>4.92</v>
+      </c>
+      <c r="S332">
+        <v>37</v>
+      </c>
+      <c r="T332">
+        <v>13</v>
+      </c>
+      <c r="U332">
+        <v>24</v>
+      </c>
+      <c r="V332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>324</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C333" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" t="s">
+        <v>55</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" t="s">
+        <v>319</v>
+      </c>
+      <c r="H333">
+        <v>10.23</v>
+      </c>
+      <c r="I333">
+        <v>1.54</v>
+      </c>
+      <c r="J333">
+        <v>8.67</v>
+      </c>
+      <c r="K333">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L333">
+        <v>0.34</v>
+      </c>
+      <c r="M333">
+        <v>0.06</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>5</v>
+      </c>
+      <c r="P333">
+        <v>6.07</v>
+      </c>
+      <c r="Q333">
+        <v>27.27</v>
+      </c>
+      <c r="R333">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S333">
+        <v>37</v>
+      </c>
+      <c r="T333">
+        <v>8</v>
+      </c>
+      <c r="U333">
+        <v>42</v>
+      </c>
+      <c r="V333">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>324</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" t="s">
+        <v>52</v>
+      </c>
+      <c r="F334" t="s">
+        <v>33</v>
+      </c>
+      <c r="G334" t="s">
+        <v>320</v>
+      </c>
+      <c r="H334">
+        <v>7.1</v>
+      </c>
+      <c r="I334">
+        <v>0.95</v>
+      </c>
+      <c r="J334">
+        <v>6.14</v>
+      </c>
+      <c r="K334">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L334">
+        <v>0.23</v>
+      </c>
+      <c r="M334">
+        <v>0.15</v>
+      </c>
+      <c r="N334">
+        <v>0.02</v>
+      </c>
+      <c r="O334">
+        <v>11</v>
+      </c>
+      <c r="P334">
+        <v>6.55</v>
+      </c>
+      <c r="Q334">
+        <v>31.89</v>
+      </c>
+      <c r="R334">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S334">
+        <v>17</v>
+      </c>
+      <c r="T334">
+        <v>6</v>
+      </c>
+      <c r="U334">
+        <v>23</v>
+      </c>
+      <c r="V334">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>324</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>164</v>
+      </c>
+      <c r="F335" t="s">
+        <v>32</v>
+      </c>
+      <c r="G335" t="s">
+        <v>321</v>
+      </c>
+      <c r="H335">
+        <v>0.93</v>
+      </c>
+      <c r="I335">
+        <v>0.24</v>
+      </c>
+      <c r="J335">
+        <v>0.68</v>
+      </c>
+      <c r="K335">
+        <v>0.16</v>
+      </c>
+      <c r="L335">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M335">
+        <v>0.01</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+      <c r="O335">
+        <v>1</v>
+      </c>
+      <c r="P335">
+        <v>5.88</v>
+      </c>
+      <c r="Q335">
+        <v>27.05</v>
+      </c>
+      <c r="R335">
+        <v>3.65</v>
+      </c>
+      <c r="S335">
+        <v>3</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+      <c r="U335">
+        <v>2</v>
+      </c>
+      <c r="V335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>324</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C336" t="s">
+        <v>20</v>
+      </c>
+      <c r="E336" t="s">
+        <v>53</v>
+      </c>
+      <c r="F336" t="s">
+        <v>32</v>
+      </c>
+      <c r="G336" t="s">
+        <v>322</v>
+      </c>
+      <c r="H336">
+        <v>11.44</v>
+      </c>
+      <c r="I336">
+        <v>1.82</v>
+      </c>
+      <c r="J336">
+        <v>9.59</v>
+      </c>
+      <c r="K336">
+        <v>1.48</v>
+      </c>
+      <c r="L336">
+        <v>0.33</v>
+      </c>
+      <c r="M336">
+        <v>0.03</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+      <c r="O336">
+        <v>2</v>
+      </c>
+      <c r="P336">
+        <v>6.79</v>
+      </c>
+      <c r="Q336">
+        <v>28.3</v>
+      </c>
+      <c r="R336">
+        <v>4.68</v>
+      </c>
+      <c r="S336">
+        <v>26</v>
+      </c>
+      <c r="T336">
+        <v>8</v>
+      </c>
+      <c r="U336">
+        <v>22</v>
+      </c>
+      <c r="V336">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>324</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C337" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" t="s">
+        <v>48</v>
+      </c>
+      <c r="F337" t="s">
+        <v>29</v>
+      </c>
+      <c r="G337" t="s">
+        <v>323</v>
+      </c>
+      <c r="H337">
+        <v>8.83</v>
+      </c>
+      <c r="I337">
+        <v>0.95</v>
+      </c>
+      <c r="J337">
+        <v>7.87</v>
+      </c>
+      <c r="K337">
+        <v>0.65</v>
+      </c>
+      <c r="L337">
+        <v>0.2</v>
+      </c>
+      <c r="M337">
+        <v>0.1</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>8</v>
+      </c>
+      <c r="P337">
+        <v>5.3</v>
+      </c>
+      <c r="Q337">
+        <v>30.49</v>
+      </c>
+      <c r="R337">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S337">
+        <v>19</v>
+      </c>
+      <c r="T337">
+        <v>1</v>
+      </c>
+      <c r="U337">
+        <v>11</v>
+      </c>
+      <c r="V337">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>324</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" t="s">
+        <v>24</v>
+      </c>
+      <c r="F338" t="s">
+        <v>32</v>
+      </c>
+      <c r="G338" t="s">
+        <v>322</v>
+      </c>
+      <c r="H338">
+        <v>10.11</v>
+      </c>
+      <c r="I338">
+        <v>1.27</v>
+      </c>
+      <c r="J338">
+        <v>8.82</v>
+      </c>
+      <c r="K338">
+        <v>0.94</v>
+      </c>
+      <c r="L338">
+        <v>0.3</v>
+      </c>
+      <c r="M338">
+        <v>0.05</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>5</v>
+      </c>
+      <c r="P338">
+        <v>6.07</v>
+      </c>
+      <c r="Q338">
+        <v>28.8</v>
+      </c>
+      <c r="R338">
+        <v>4.33</v>
+      </c>
+      <c r="S338">
+        <v>21</v>
+      </c>
+      <c r="T338">
+        <v>4</v>
+      </c>
+      <c r="U338">
+        <v>23</v>
+      </c>
+      <c r="V338">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC484D-0BC0-6345-8ED2-64FFB662A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7F9EF-26A7-274A-93FC-6A6A4EC5862F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="344">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1011,6 +1011,63 @@
   </si>
   <si>
     <t>N3 J1 VS Montpellier (B)</t>
+  </si>
+  <si>
+    <t>01:28:11</t>
+  </si>
+  <si>
+    <t>01:26:50</t>
+  </si>
+  <si>
+    <t>01:25:29</t>
+  </si>
+  <si>
+    <t>01:25:56</t>
+  </si>
+  <si>
+    <t>01:27:44</t>
+  </si>
+  <si>
+    <t>01:25:20</t>
+  </si>
+  <si>
+    <t>01:25:02</t>
+  </si>
+  <si>
+    <t>01:28:56</t>
+  </si>
+  <si>
+    <t>00:30:36</t>
+  </si>
+  <si>
+    <t>00:58:05</t>
+  </si>
+  <si>
+    <t>00:59:55</t>
+  </si>
+  <si>
+    <t>01:17:45</t>
+  </si>
+  <si>
+    <t>01:00:16</t>
+  </si>
+  <si>
+    <t>00:58:34</t>
+  </si>
+  <si>
+    <t>01:19:55</t>
+  </si>
+  <si>
+    <t>01:19:12</t>
+  </si>
+  <si>
+    <t>01:16:02</t>
+  </si>
+  <si>
+    <t>01:18:36</t>
+  </si>
+  <si>
+    <t>J+2</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V338"/>
+  <dimension ref="A1:V361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22225,37 +22282,34 @@
         <v>23</v>
       </c>
       <c r="B321" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C321" t="s">
         <v>20</v>
       </c>
-      <c r="D321" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E321" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F321" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G321" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="H321">
-        <v>4.63</v>
+        <v>7.23</v>
       </c>
       <c r="I321">
-        <v>0.1</v>
+        <v>1.25</v>
       </c>
       <c r="J321">
-        <v>4.53</v>
+        <v>5.95</v>
       </c>
       <c r="K321">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="L321">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="M321">
         <v>0</v>
@@ -22267,25 +22321,25 @@
         <v>0</v>
       </c>
       <c r="P321">
-        <v>3.3</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="Q321">
-        <v>19.34</v>
+        <v>24.85</v>
       </c>
       <c r="R321">
-        <v>4.45</v>
+        <v>4.59</v>
       </c>
       <c r="S321">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="T321">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U321">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="V321">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.2">
@@ -22293,67 +22347,64 @@
         <v>23</v>
       </c>
       <c r="B322" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C322" t="s">
         <v>20</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E322" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F322" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G322" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="H322">
-        <v>5.66</v>
+        <v>6.33</v>
       </c>
       <c r="I322">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="J322">
-        <v>5.33</v>
+        <v>5.65</v>
       </c>
       <c r="K322">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="L322">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="M322">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="N322">
         <v>0</v>
       </c>
       <c r="O322">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P322">
-        <v>3.84</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="Q322">
-        <v>26.45</v>
+        <v>26.87</v>
       </c>
       <c r="R322">
-        <v>5.27</v>
+        <v>4.82</v>
       </c>
       <c r="S322">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T322">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U322">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V322">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.2">
@@ -22361,67 +22412,64 @@
         <v>23</v>
       </c>
       <c r="B323" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C323" t="s">
         <v>20</v>
       </c>
-      <c r="D323" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E323" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323" t="s">
+        <v>107</v>
+      </c>
+      <c r="H323">
+        <v>5.44</v>
+      </c>
+      <c r="I323">
+        <v>0.47</v>
+      </c>
+      <c r="J323">
+        <v>4.96</v>
+      </c>
+      <c r="K323">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L323">
+        <v>0.12</v>
+      </c>
+      <c r="M323">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>4</v>
+      </c>
+      <c r="P323">
+        <v>3.64</v>
+      </c>
+      <c r="Q323">
+        <v>29.51</v>
+      </c>
+      <c r="R323">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S323">
         <v>28</v>
       </c>
-      <c r="G323" t="s">
-        <v>309</v>
-      </c>
-      <c r="H323">
-        <v>5.01</v>
-      </c>
-      <c r="I323">
-        <v>0.23</v>
-      </c>
-      <c r="J323">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="K323">
-        <v>0.22</v>
-      </c>
-      <c r="L323">
-        <v>0.02</v>
-      </c>
-      <c r="M323">
-        <v>0</v>
-      </c>
-      <c r="N323">
-        <v>0</v>
-      </c>
-      <c r="O323">
-        <v>0</v>
-      </c>
-      <c r="P323">
-        <v>3.68</v>
-      </c>
-      <c r="Q323">
-        <v>21.14</v>
-      </c>
-      <c r="R323">
-        <v>5.4</v>
-      </c>
-      <c r="S323">
-        <v>29</v>
-      </c>
       <c r="T323">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U323">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V323">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:22" x14ac:dyDescent="0.2">
@@ -22429,67 +22477,64 @@
         <v>23</v>
       </c>
       <c r="B324" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C324" t="s">
         <v>20</v>
       </c>
-      <c r="D324" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E324" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="F324" t="s">
         <v>32</v>
       </c>
       <c r="G324" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H324">
-        <v>5.48</v>
+        <v>6.59</v>
       </c>
       <c r="I324">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="J324">
-        <v>5.1100000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="K324">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L324">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="M324">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="N324">
         <v>0</v>
       </c>
       <c r="O324">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P324">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="Q324">
-        <v>25.97</v>
+        <v>27.62</v>
       </c>
       <c r="R324">
-        <v>4.67</v>
+        <v>5.05</v>
       </c>
       <c r="S324">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="T324">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="U324">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="V324">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.2">
@@ -22497,67 +22542,64 @@
         <v>23</v>
       </c>
       <c r="B325" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C325" t="s">
         <v>20</v>
       </c>
-      <c r="D325" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E325" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="F325" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G325" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H325">
-        <v>5.09</v>
+        <v>6.2</v>
       </c>
       <c r="I325">
-        <v>0.21</v>
+        <v>0.81</v>
       </c>
       <c r="J325">
-        <v>4.87</v>
+        <v>5.38</v>
       </c>
       <c r="K325">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="L325">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M325">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N325">
         <v>0</v>
       </c>
       <c r="O325">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P325">
-        <v>3.69</v>
+        <v>4.21</v>
       </c>
       <c r="Q325">
-        <v>24.15</v>
+        <v>29.72</v>
       </c>
       <c r="R325">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="S325">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T325">
         <v>3</v>
       </c>
       <c r="U325">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V325">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.2">
@@ -22565,619 +22607,622 @@
         <v>23</v>
       </c>
       <c r="B326" s="1">
-        <v>45892</v>
+        <v>45890</v>
       </c>
       <c r="C326" t="s">
         <v>20</v>
       </c>
-      <c r="D326" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E326" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F326" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G326" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="H326">
-        <v>5.64</v>
+        <v>6.2</v>
       </c>
       <c r="I326">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J326">
-        <v>5.33</v>
+        <v>5.63</v>
       </c>
       <c r="K326">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="L326">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M326">
         <v>0.1</v>
       </c>
-      <c r="M326">
-        <v>0</v>
-      </c>
       <c r="N326">
         <v>0</v>
       </c>
       <c r="O326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P326">
-        <v>4.1399999999999997</v>
+        <v>4.26</v>
       </c>
       <c r="Q326">
-        <v>24.55</v>
+        <v>28.91</v>
       </c>
       <c r="R326">
-        <v>4.6399999999999997</v>
+        <v>4.3</v>
       </c>
       <c r="S326">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T326">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U326">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="V326">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B327" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C327" t="s">
         <v>20</v>
       </c>
       <c r="E327" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G327" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="H327">
-        <v>9.51</v>
+        <v>6.92</v>
       </c>
       <c r="I327">
-        <v>1.78</v>
+        <v>0.88</v>
       </c>
       <c r="J327">
-        <v>7.71</v>
+        <v>6.01</v>
       </c>
       <c r="K327">
-        <v>1.18</v>
+        <v>0.64</v>
       </c>
       <c r="L327">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="M327">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N327">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O327">
         <v>5</v>
       </c>
       <c r="P327">
-        <v>6.8</v>
+        <v>4.34</v>
       </c>
       <c r="Q327">
-        <v>28.61</v>
+        <v>32.28</v>
       </c>
       <c r="R327">
-        <v>4.03</v>
+        <v>5.32</v>
       </c>
       <c r="S327">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T327">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="U327">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="V327">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B328" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C328" t="s">
         <v>20</v>
       </c>
       <c r="E328" t="s">
-        <v>38</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F328" t="s">
+        <v>30</v>
       </c>
       <c r="G328" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H328">
-        <v>8.9700000000000006</v>
+        <v>6.93</v>
       </c>
       <c r="I328">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="J328">
-        <v>7.34</v>
+        <v>5.87</v>
       </c>
       <c r="K328">
-        <v>0.91</v>
+        <v>0.69</v>
       </c>
       <c r="L328">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="M328">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N328">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O328">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P328">
-        <v>5.9</v>
+        <v>4.68</v>
       </c>
       <c r="Q328">
-        <v>30.82</v>
+        <v>28.45</v>
       </c>
       <c r="R328">
-        <v>4.2300000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="S328">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="T328">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U328">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V328">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B329" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C329" t="s">
         <v>20</v>
       </c>
       <c r="E329" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G329" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H329">
-        <v>10.1</v>
+        <v>5.75</v>
       </c>
       <c r="I329">
-        <v>1.44</v>
+        <v>0.48</v>
       </c>
       <c r="J329">
-        <v>8.64</v>
+        <v>5.26</v>
       </c>
       <c r="K329">
-        <v>0.99</v>
+        <v>0.3</v>
       </c>
       <c r="L329">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="M329">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="N329">
         <v>0</v>
       </c>
       <c r="O329">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P329">
-        <v>6.07</v>
+        <v>3.84</v>
       </c>
       <c r="Q329">
-        <v>29.92</v>
+        <v>29.57</v>
       </c>
       <c r="R329">
-        <v>5.52</v>
+        <v>4.24</v>
       </c>
       <c r="S329">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T329">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U329">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="V329">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B330" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C330" t="s">
         <v>20</v>
       </c>
       <c r="E330" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F330" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="H330">
-        <v>1.87</v>
+        <v>6.87</v>
       </c>
       <c r="I330">
-        <v>0.31</v>
+        <v>1.02</v>
       </c>
       <c r="J330">
-        <v>1.56</v>
+        <v>5.84</v>
       </c>
       <c r="K330">
-        <v>0.23</v>
+        <v>0.82</v>
       </c>
       <c r="L330">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="M330">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="N330">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P330">
-        <v>5.72</v>
+        <v>4.68</v>
       </c>
       <c r="Q330">
-        <v>30.73</v>
+        <v>27.89</v>
       </c>
       <c r="R330">
-        <v>4.16</v>
+        <v>4.47</v>
       </c>
       <c r="S330">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="T330">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U330">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="V330">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B331" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C331" t="s">
         <v>20</v>
       </c>
       <c r="E331" t="s">
-        <v>40</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F331" t="s">
+        <v>32</v>
       </c>
       <c r="G331" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H331">
-        <v>8.65</v>
+        <v>6.48</v>
       </c>
       <c r="I331">
-        <v>1.81</v>
+        <v>0.85</v>
       </c>
       <c r="J331">
-        <v>6.82</v>
+        <v>5.63</v>
       </c>
       <c r="K331">
-        <v>1.07</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L331">
-        <v>0.56000000000000005</v>
+        <v>0.19</v>
       </c>
       <c r="M331">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="N331">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O331">
+        <v>7</v>
+      </c>
+      <c r="P331">
+        <v>4.5</v>
+      </c>
+      <c r="Q331">
+        <v>29.79</v>
+      </c>
+      <c r="R331">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S331">
+        <v>26</v>
+      </c>
+      <c r="T331">
+        <v>3</v>
+      </c>
+      <c r="U331">
         <v>13</v>
       </c>
-      <c r="P331">
-        <v>6.38</v>
-      </c>
-      <c r="Q331">
-        <v>31.19</v>
-      </c>
-      <c r="R331">
-        <v>4.53</v>
-      </c>
-      <c r="S331">
-        <v>37</v>
-      </c>
-      <c r="T331">
-        <v>7</v>
-      </c>
-      <c r="U331">
-        <v>28</v>
-      </c>
       <c r="V331">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B332" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C332" t="s">
         <v>20</v>
       </c>
       <c r="E332" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F332" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G332" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H332">
-        <v>8.74</v>
+        <v>6.93</v>
       </c>
       <c r="I332">
-        <v>1.44</v>
+        <v>0.82</v>
       </c>
       <c r="J332">
-        <v>7.29</v>
+        <v>6.1</v>
       </c>
       <c r="K332">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="L332">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="M332">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="N332">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="O332">
         <v>9</v>
       </c>
       <c r="P332">
-        <v>5.16</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="Q332">
-        <v>32.450000000000003</v>
+        <v>31.38</v>
       </c>
       <c r="R332">
-        <v>4.92</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="S332">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="T332">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U332">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V332">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B333" s="1">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="C333" t="s">
         <v>20</v>
       </c>
       <c r="E333" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="F333" t="s">
         <v>32</v>
       </c>
       <c r="G333" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H333">
-        <v>10.23</v>
+        <v>1.88</v>
       </c>
       <c r="I333">
-        <v>1.54</v>
+        <v>0.23</v>
       </c>
       <c r="J333">
-        <v>8.67</v>
+        <v>1.66</v>
       </c>
       <c r="K333">
-        <v>1.1599999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="L333">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="M333">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N333">
         <v>0</v>
       </c>
       <c r="O333">
+        <v>3</v>
+      </c>
+      <c r="P333">
+        <v>3.56</v>
+      </c>
+      <c r="Q333">
+        <v>28.6</v>
+      </c>
+      <c r="R333">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S333">
+        <v>4</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
         <v>5</v>
       </c>
-      <c r="P333">
-        <v>6.07</v>
-      </c>
-      <c r="Q333">
-        <v>27.27</v>
-      </c>
-      <c r="R333">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="S333">
-        <v>37</v>
-      </c>
-      <c r="T333">
-        <v>8</v>
-      </c>
-      <c r="U333">
-        <v>42</v>
-      </c>
       <c r="V333">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B334" s="1">
-        <v>45893</v>
+        <v>45892</v>
       </c>
       <c r="C334" t="s">
         <v>20</v>
       </c>
+      <c r="D334" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="E334" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H334">
-        <v>7.1</v>
+        <v>4.63</v>
       </c>
       <c r="I334">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="J334">
-        <v>6.14</v>
+        <v>4.53</v>
       </c>
       <c r="K334">
-        <v>0.56999999999999995</v>
+        <v>0.1</v>
       </c>
       <c r="L334">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M334">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N334">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O334">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P334">
-        <v>6.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q334">
-        <v>31.89</v>
+        <v>19.34</v>
       </c>
       <c r="R334">
-        <v>4.3899999999999997</v>
+        <v>4.45</v>
       </c>
       <c r="S334">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="T334">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U334">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V334">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B335" s="1">
-        <v>45893</v>
+        <v>45892</v>
       </c>
       <c r="C335" t="s">
         <v>20</v>
       </c>
+      <c r="D335" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="E335" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G335" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H335">
-        <v>0.93</v>
+        <v>5.66</v>
       </c>
       <c r="I335">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="J335">
-        <v>0.68</v>
+        <v>5.33</v>
       </c>
       <c r="K335">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="L335">
         <v>7.0000000000000007E-2</v>
@@ -23189,223 +23234,1760 @@
         <v>0</v>
       </c>
       <c r="O335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P335">
-        <v>5.88</v>
+        <v>3.84</v>
       </c>
       <c r="Q335">
-        <v>27.05</v>
+        <v>26.45</v>
       </c>
       <c r="R335">
-        <v>3.65</v>
+        <v>5.27</v>
       </c>
       <c r="S335">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="T335">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="V335">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B336" s="1">
-        <v>45893</v>
+        <v>45892</v>
       </c>
       <c r="C336" t="s">
         <v>20</v>
       </c>
+      <c r="D336" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="E336" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F336" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G336" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H336">
-        <v>11.44</v>
+        <v>5.01</v>
       </c>
       <c r="I336">
-        <v>1.82</v>
+        <v>0.23</v>
       </c>
       <c r="J336">
-        <v>9.59</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="K336">
-        <v>1.48</v>
+        <v>0.22</v>
       </c>
       <c r="L336">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="M336">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N336">
         <v>0</v>
       </c>
       <c r="O336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P336">
-        <v>6.79</v>
+        <v>3.68</v>
       </c>
       <c r="Q336">
-        <v>28.3</v>
+        <v>21.14</v>
       </c>
       <c r="R336">
-        <v>4.68</v>
+        <v>5.4</v>
       </c>
       <c r="S336">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T336">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U336">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V336">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B337" s="1">
-        <v>45893</v>
+        <v>45892</v>
       </c>
       <c r="C337" t="s">
         <v>20</v>
       </c>
+      <c r="D337" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="E337" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="F337" t="s">
+        <v>32</v>
+      </c>
+      <c r="G337" t="s">
+        <v>310</v>
+      </c>
+      <c r="H337">
+        <v>5.48</v>
+      </c>
+      <c r="I337">
+        <v>0.36</v>
+      </c>
+      <c r="J337">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K337">
+        <v>0.3</v>
+      </c>
+      <c r="L337">
+        <v>0.06</v>
+      </c>
+      <c r="M337">
+        <v>0.01</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>1</v>
+      </c>
+      <c r="P337">
+        <v>3.93</v>
+      </c>
+      <c r="Q337">
+        <v>25.97</v>
+      </c>
+      <c r="R337">
+        <v>4.67</v>
+      </c>
+      <c r="S337">
+        <v>30</v>
+      </c>
+      <c r="T337">
+        <v>6</v>
+      </c>
+      <c r="U337">
         <v>29</v>
       </c>
-      <c r="G337" t="s">
-        <v>323</v>
-      </c>
-      <c r="H337">
-        <v>8.83</v>
-      </c>
-      <c r="I337">
-        <v>0.95</v>
-      </c>
-      <c r="J337">
-        <v>7.87</v>
-      </c>
-      <c r="K337">
-        <v>0.65</v>
-      </c>
-      <c r="L337">
-        <v>0.2</v>
-      </c>
-      <c r="M337">
-        <v>0.1</v>
-      </c>
-      <c r="N337">
-        <v>0</v>
-      </c>
-      <c r="O337">
-        <v>8</v>
-      </c>
-      <c r="P337">
-        <v>5.3</v>
-      </c>
-      <c r="Q337">
-        <v>30.49</v>
-      </c>
-      <c r="R337">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="S337">
-        <v>19</v>
-      </c>
-      <c r="T337">
-        <v>1</v>
-      </c>
-      <c r="U337">
-        <v>11</v>
-      </c>
       <c r="V337">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E338" t="s">
+        <v>39</v>
+      </c>
+      <c r="F338" t="s">
+        <v>29</v>
+      </c>
+      <c r="G338" t="s">
+        <v>311</v>
+      </c>
+      <c r="H338">
+        <v>5.09</v>
+      </c>
+      <c r="I338">
+        <v>0.21</v>
+      </c>
+      <c r="J338">
+        <v>4.87</v>
+      </c>
+      <c r="K338">
+        <v>0.17</v>
+      </c>
+      <c r="L338">
+        <v>0.04</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <v>3.69</v>
+      </c>
+      <c r="Q338">
+        <v>24.15</v>
+      </c>
+      <c r="R338">
+        <v>4.53</v>
+      </c>
+      <c r="S338">
+        <v>22</v>
+      </c>
+      <c r="T338">
+        <v>3</v>
+      </c>
+      <c r="U338">
+        <v>21</v>
+      </c>
+      <c r="V338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>23</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C339" t="s">
+        <v>20</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E339" t="s">
+        <v>53</v>
+      </c>
+      <c r="F339" t="s">
+        <v>32</v>
+      </c>
+      <c r="G339" t="s">
+        <v>309</v>
+      </c>
+      <c r="H339">
+        <v>5.64</v>
+      </c>
+      <c r="I339">
+        <v>0.3</v>
+      </c>
+      <c r="J339">
+        <v>5.33</v>
+      </c>
+      <c r="K339">
+        <v>0.21</v>
+      </c>
+      <c r="L339">
+        <v>0.1</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q339">
+        <v>24.55</v>
+      </c>
+      <c r="R339">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S339">
+        <v>30</v>
+      </c>
+      <c r="T339">
+        <v>5</v>
+      </c>
+      <c r="U339">
+        <v>23</v>
+      </c>
+      <c r="V339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>324</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B340" s="1">
         <v>45893</v>
       </c>
-      <c r="C338" t="s">
-        <v>20</v>
-      </c>
-      <c r="E338" t="s">
+      <c r="C340" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" t="s">
+        <v>36</v>
+      </c>
+      <c r="F340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340" t="s">
+        <v>313</v>
+      </c>
+      <c r="H340">
+        <v>9.51</v>
+      </c>
+      <c r="I340">
+        <v>1.78</v>
+      </c>
+      <c r="J340">
+        <v>7.71</v>
+      </c>
+      <c r="K340">
+        <v>1.18</v>
+      </c>
+      <c r="L340">
+        <v>0.54</v>
+      </c>
+      <c r="M340">
+        <v>0.08</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>5</v>
+      </c>
+      <c r="P340">
+        <v>6.8</v>
+      </c>
+      <c r="Q340">
+        <v>28.61</v>
+      </c>
+      <c r="R340">
+        <v>4.03</v>
+      </c>
+      <c r="S340">
+        <v>33</v>
+      </c>
+      <c r="T340">
+        <v>1</v>
+      </c>
+      <c r="U340">
         <v>24</v>
       </c>
-      <c r="F338" t="s">
+      <c r="V340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>324</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C341" t="s">
+        <v>20</v>
+      </c>
+      <c r="E341" t="s">
+        <v>38</v>
+      </c>
+      <c r="F341" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>314</v>
+      </c>
+      <c r="H341">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I341">
+        <v>1.61</v>
+      </c>
+      <c r="J341">
+        <v>7.34</v>
+      </c>
+      <c r="K341">
+        <v>0.91</v>
+      </c>
+      <c r="L341">
+        <v>0.52</v>
+      </c>
+      <c r="M341">
+        <v>0.18</v>
+      </c>
+      <c r="N341">
+        <v>0.02</v>
+      </c>
+      <c r="O341">
+        <v>13</v>
+      </c>
+      <c r="P341">
+        <v>5.9</v>
+      </c>
+      <c r="Q341">
+        <v>30.82</v>
+      </c>
+      <c r="R341">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S341">
+        <v>18</v>
+      </c>
+      <c r="T341">
+        <v>5</v>
+      </c>
+      <c r="U341">
+        <v>22</v>
+      </c>
+      <c r="V341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>324</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C342" t="s">
+        <v>20</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" t="s">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>315</v>
+      </c>
+      <c r="H342">
+        <v>10.1</v>
+      </c>
+      <c r="I342">
+        <v>1.44</v>
+      </c>
+      <c r="J342">
+        <v>8.64</v>
+      </c>
+      <c r="K342">
+        <v>0.99</v>
+      </c>
+      <c r="L342">
+        <v>0.38</v>
+      </c>
+      <c r="M342">
+        <v>0.08</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>7</v>
+      </c>
+      <c r="P342">
+        <v>6.07</v>
+      </c>
+      <c r="Q342">
+        <v>29.92</v>
+      </c>
+      <c r="R342">
+        <v>5.52</v>
+      </c>
+      <c r="S342">
+        <v>31</v>
+      </c>
+      <c r="T342">
+        <v>8</v>
+      </c>
+      <c r="U342">
+        <v>31</v>
+      </c>
+      <c r="V342">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>324</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C343" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" t="s">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>28</v>
+      </c>
+      <c r="G343" t="s">
+        <v>316</v>
+      </c>
+      <c r="H343">
+        <v>1.87</v>
+      </c>
+      <c r="I343">
+        <v>0.31</v>
+      </c>
+      <c r="J343">
+        <v>1.56</v>
+      </c>
+      <c r="K343">
+        <v>0.23</v>
+      </c>
+      <c r="L343">
+        <v>0.06</v>
+      </c>
+      <c r="M343">
+        <v>0.02</v>
+      </c>
+      <c r="N343">
+        <v>0.01</v>
+      </c>
+      <c r="O343">
+        <v>2</v>
+      </c>
+      <c r="P343">
+        <v>5.72</v>
+      </c>
+      <c r="Q343">
+        <v>30.73</v>
+      </c>
+      <c r="R343">
+        <v>4.16</v>
+      </c>
+      <c r="S343">
+        <v>6</v>
+      </c>
+      <c r="T343">
+        <v>1</v>
+      </c>
+      <c r="U343">
+        <v>6</v>
+      </c>
+      <c r="V343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>324</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C344" t="s">
+        <v>20</v>
+      </c>
+      <c r="E344" t="s">
+        <v>40</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G344" t="s">
+        <v>317</v>
+      </c>
+      <c r="H344">
+        <v>8.65</v>
+      </c>
+      <c r="I344">
+        <v>1.81</v>
+      </c>
+      <c r="J344">
+        <v>6.82</v>
+      </c>
+      <c r="K344">
+        <v>1.07</v>
+      </c>
+      <c r="L344">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M344">
+        <v>0.17</v>
+      </c>
+      <c r="N344">
+        <v>0.03</v>
+      </c>
+      <c r="O344">
+        <v>13</v>
+      </c>
+      <c r="P344">
+        <v>6.38</v>
+      </c>
+      <c r="Q344">
+        <v>31.19</v>
+      </c>
+      <c r="R344">
+        <v>4.53</v>
+      </c>
+      <c r="S344">
+        <v>37</v>
+      </c>
+      <c r="T344">
+        <v>7</v>
+      </c>
+      <c r="U344">
+        <v>28</v>
+      </c>
+      <c r="V344">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>324</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="E345" t="s">
+        <v>93</v>
+      </c>
+      <c r="F345" t="s">
+        <v>31</v>
+      </c>
+      <c r="G345" t="s">
+        <v>318</v>
+      </c>
+      <c r="H345">
+        <v>8.74</v>
+      </c>
+      <c r="I345">
+        <v>1.44</v>
+      </c>
+      <c r="J345">
+        <v>7.29</v>
+      </c>
+      <c r="K345">
+        <v>0.78</v>
+      </c>
+      <c r="L345">
+        <v>0.41</v>
+      </c>
+      <c r="M345">
+        <v>0.16</v>
+      </c>
+      <c r="N345">
+        <v>0.11</v>
+      </c>
+      <c r="O345">
+        <v>9</v>
+      </c>
+      <c r="P345">
+        <v>5.16</v>
+      </c>
+      <c r="Q345">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="R345">
+        <v>4.92</v>
+      </c>
+      <c r="S345">
+        <v>37</v>
+      </c>
+      <c r="T345">
+        <v>13</v>
+      </c>
+      <c r="U345">
+        <v>24</v>
+      </c>
+      <c r="V345">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>324</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C346" t="s">
+        <v>20</v>
+      </c>
+      <c r="E346" t="s">
+        <v>55</v>
+      </c>
+      <c r="F346" t="s">
         <v>32</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G346" t="s">
+        <v>319</v>
+      </c>
+      <c r="H346">
+        <v>10.23</v>
+      </c>
+      <c r="I346">
+        <v>1.54</v>
+      </c>
+      <c r="J346">
+        <v>8.67</v>
+      </c>
+      <c r="K346">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L346">
+        <v>0.34</v>
+      </c>
+      <c r="M346">
+        <v>0.06</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>5</v>
+      </c>
+      <c r="P346">
+        <v>6.07</v>
+      </c>
+      <c r="Q346">
+        <v>27.27</v>
+      </c>
+      <c r="R346">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S346">
+        <v>37</v>
+      </c>
+      <c r="T346">
+        <v>8</v>
+      </c>
+      <c r="U346">
+        <v>42</v>
+      </c>
+      <c r="V346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>324</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C347" t="s">
+        <v>20</v>
+      </c>
+      <c r="E347" t="s">
+        <v>52</v>
+      </c>
+      <c r="F347" t="s">
+        <v>33</v>
+      </c>
+      <c r="G347" t="s">
+        <v>320</v>
+      </c>
+      <c r="H347">
+        <v>7.1</v>
+      </c>
+      <c r="I347">
+        <v>0.95</v>
+      </c>
+      <c r="J347">
+        <v>6.14</v>
+      </c>
+      <c r="K347">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L347">
+        <v>0.23</v>
+      </c>
+      <c r="M347">
+        <v>0.15</v>
+      </c>
+      <c r="N347">
+        <v>0.02</v>
+      </c>
+      <c r="O347">
+        <v>11</v>
+      </c>
+      <c r="P347">
+        <v>6.55</v>
+      </c>
+      <c r="Q347">
+        <v>31.89</v>
+      </c>
+      <c r="R347">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S347">
+        <v>17</v>
+      </c>
+      <c r="T347">
+        <v>6</v>
+      </c>
+      <c r="U347">
+        <v>23</v>
+      </c>
+      <c r="V347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>324</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C348" t="s">
+        <v>20</v>
+      </c>
+      <c r="E348" t="s">
+        <v>164</v>
+      </c>
+      <c r="F348" t="s">
+        <v>32</v>
+      </c>
+      <c r="G348" t="s">
+        <v>321</v>
+      </c>
+      <c r="H348">
+        <v>0.93</v>
+      </c>
+      <c r="I348">
+        <v>0.24</v>
+      </c>
+      <c r="J348">
+        <v>0.68</v>
+      </c>
+      <c r="K348">
+        <v>0.16</v>
+      </c>
+      <c r="L348">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M348">
+        <v>0.01</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+      <c r="O348">
+        <v>1</v>
+      </c>
+      <c r="P348">
+        <v>5.88</v>
+      </c>
+      <c r="Q348">
+        <v>27.05</v>
+      </c>
+      <c r="R348">
+        <v>3.65</v>
+      </c>
+      <c r="S348">
+        <v>3</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348">
+        <v>2</v>
+      </c>
+      <c r="V348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>324</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C349" t="s">
+        <v>20</v>
+      </c>
+      <c r="E349" t="s">
+        <v>53</v>
+      </c>
+      <c r="F349" t="s">
+        <v>32</v>
+      </c>
+      <c r="G349" t="s">
         <v>322</v>
       </c>
-      <c r="H338">
+      <c r="H349">
+        <v>11.44</v>
+      </c>
+      <c r="I349">
+        <v>1.82</v>
+      </c>
+      <c r="J349">
+        <v>9.59</v>
+      </c>
+      <c r="K349">
+        <v>1.48</v>
+      </c>
+      <c r="L349">
+        <v>0.33</v>
+      </c>
+      <c r="M349">
+        <v>0.03</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>2</v>
+      </c>
+      <c r="P349">
+        <v>6.79</v>
+      </c>
+      <c r="Q349">
+        <v>28.3</v>
+      </c>
+      <c r="R349">
+        <v>4.68</v>
+      </c>
+      <c r="S349">
+        <v>26</v>
+      </c>
+      <c r="T349">
+        <v>8</v>
+      </c>
+      <c r="U349">
+        <v>22</v>
+      </c>
+      <c r="V349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>324</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C350" t="s">
+        <v>20</v>
+      </c>
+      <c r="E350" t="s">
+        <v>48</v>
+      </c>
+      <c r="F350" t="s">
+        <v>29</v>
+      </c>
+      <c r="G350" t="s">
+        <v>323</v>
+      </c>
+      <c r="H350">
+        <v>8.83</v>
+      </c>
+      <c r="I350">
+        <v>0.95</v>
+      </c>
+      <c r="J350">
+        <v>7.87</v>
+      </c>
+      <c r="K350">
+        <v>0.65</v>
+      </c>
+      <c r="L350">
+        <v>0.2</v>
+      </c>
+      <c r="M350">
+        <v>0.1</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>8</v>
+      </c>
+      <c r="P350">
+        <v>5.3</v>
+      </c>
+      <c r="Q350">
+        <v>30.49</v>
+      </c>
+      <c r="R350">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S350">
+        <v>19</v>
+      </c>
+      <c r="T350">
+        <v>1</v>
+      </c>
+      <c r="U350">
+        <v>11</v>
+      </c>
+      <c r="V350">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>324</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C351" t="s">
+        <v>20</v>
+      </c>
+      <c r="E351" t="s">
+        <v>24</v>
+      </c>
+      <c r="F351" t="s">
+        <v>32</v>
+      </c>
+      <c r="G351" t="s">
+        <v>322</v>
+      </c>
+      <c r="H351">
         <v>10.11</v>
       </c>
-      <c r="I338">
+      <c r="I351">
         <v>1.27</v>
       </c>
-      <c r="J338">
+      <c r="J351">
         <v>8.82</v>
       </c>
-      <c r="K338">
+      <c r="K351">
         <v>0.94</v>
       </c>
-      <c r="L338">
+      <c r="L351">
         <v>0.3</v>
       </c>
-      <c r="M338">
+      <c r="M351">
         <v>0.05</v>
       </c>
-      <c r="N338">
-        <v>0</v>
-      </c>
-      <c r="O338">
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351">
         <v>5</v>
       </c>
-      <c r="P338">
+      <c r="P351">
         <v>6.07</v>
       </c>
-      <c r="Q338">
+      <c r="Q351">
         <v>28.8</v>
       </c>
-      <c r="R338">
+      <c r="R351">
         <v>4.33</v>
       </c>
-      <c r="S338">
+      <c r="S351">
         <v>21</v>
       </c>
-      <c r="T338">
+      <c r="T351">
         <v>4</v>
       </c>
-      <c r="U338">
-        <v>23</v>
-      </c>
-      <c r="V338">
+      <c r="U351">
+        <v>23</v>
+      </c>
+      <c r="V351">
         <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>23</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E352" t="s">
+        <v>38</v>
+      </c>
+      <c r="F352" t="s">
+        <v>34</v>
+      </c>
+      <c r="G352" t="s">
+        <v>334</v>
+      </c>
+      <c r="H352">
+        <v>4.67</v>
+      </c>
+      <c r="I352">
+        <v>0.23</v>
+      </c>
+      <c r="J352">
+        <v>4.43</v>
+      </c>
+      <c r="K352">
+        <v>0.18</v>
+      </c>
+      <c r="L352">
+        <v>0.06</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <v>4.74</v>
+      </c>
+      <c r="Q352">
+        <v>24</v>
+      </c>
+      <c r="R352">
+        <v>3.8</v>
+      </c>
+      <c r="S352">
+        <v>11</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352">
+        <v>11</v>
+      </c>
+      <c r="V352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C353" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E353" t="s">
+        <v>53</v>
+      </c>
+      <c r="F353" t="s">
+        <v>32</v>
+      </c>
+      <c r="G353" t="s">
+        <v>335</v>
+      </c>
+      <c r="H353">
+        <v>5.5</v>
+      </c>
+      <c r="I353">
+        <v>0.19</v>
+      </c>
+      <c r="J353">
+        <v>5.3</v>
+      </c>
+      <c r="K353">
+        <v>0.18</v>
+      </c>
+      <c r="L353">
+        <v>0.02</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>5.42</v>
+      </c>
+      <c r="Q353">
+        <v>22.75</v>
+      </c>
+      <c r="R353">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S353">
+        <v>8</v>
+      </c>
+      <c r="T353">
+        <v>1</v>
+      </c>
+      <c r="U353">
+        <v>3</v>
+      </c>
+      <c r="V353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C354" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E354" t="s">
+        <v>39</v>
+      </c>
+      <c r="F354" t="s">
+        <v>29</v>
+      </c>
+      <c r="G354" t="s">
+        <v>336</v>
+      </c>
+      <c r="H354">
+        <v>6.06</v>
+      </c>
+      <c r="I354">
+        <v>0.18</v>
+      </c>
+      <c r="J354">
+        <v>5.87</v>
+      </c>
+      <c r="K354">
+        <v>0.11</v>
+      </c>
+      <c r="L354">
+        <v>0.06</v>
+      </c>
+      <c r="M354">
+        <v>0.02</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>3</v>
+      </c>
+      <c r="P354">
+        <v>4.57</v>
+      </c>
+      <c r="Q354">
+        <v>27.62</v>
+      </c>
+      <c r="R354">
+        <v>4.3</v>
+      </c>
+      <c r="S354">
+        <v>16</v>
+      </c>
+      <c r="T354">
+        <v>1</v>
+      </c>
+      <c r="U354">
+        <v>11</v>
+      </c>
+      <c r="V354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>23</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C355" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E355" t="s">
+        <v>52</v>
+      </c>
+      <c r="F355" t="s">
+        <v>33</v>
+      </c>
+      <c r="G355" t="s">
+        <v>337</v>
+      </c>
+      <c r="H355">
+        <v>4.91</v>
+      </c>
+      <c r="I355">
+        <v>0.21</v>
+      </c>
+      <c r="J355">
+        <v>4.7</v>
+      </c>
+      <c r="K355">
+        <v>0.11</v>
+      </c>
+      <c r="L355">
+        <v>0.06</v>
+      </c>
+      <c r="M355">
+        <v>0.03</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>2</v>
+      </c>
+      <c r="P355">
+        <v>4.8</v>
+      </c>
+      <c r="Q355">
+        <v>28.72</v>
+      </c>
+      <c r="R355">
+        <v>3.99</v>
+      </c>
+      <c r="S355">
+        <v>9</v>
+      </c>
+      <c r="T355">
+        <v>0</v>
+      </c>
+      <c r="U355">
+        <v>10</v>
+      </c>
+      <c r="V355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C356" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E356" t="s">
+        <v>25</v>
+      </c>
+      <c r="F356" t="s">
+        <v>29</v>
+      </c>
+      <c r="G356" t="s">
+        <v>338</v>
+      </c>
+      <c r="H356">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I356">
+        <v>0.34</v>
+      </c>
+      <c r="J356">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K356">
+        <v>0.19</v>
+      </c>
+      <c r="L356">
+        <v>0.11</v>
+      </c>
+      <c r="M356">
+        <v>0.04</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <v>3</v>
+      </c>
+      <c r="P356">
+        <v>5.18</v>
+      </c>
+      <c r="Q356">
+        <v>27.58</v>
+      </c>
+      <c r="R356">
+        <v>4.66</v>
+      </c>
+      <c r="S356">
+        <v>9</v>
+      </c>
+      <c r="T356">
+        <v>2</v>
+      </c>
+      <c r="U356">
+        <v>12</v>
+      </c>
+      <c r="V356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>23</v>
+      </c>
+      <c r="B357" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C357" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E357" t="s">
+        <v>54</v>
+      </c>
+      <c r="F357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G357" t="s">
+        <v>339</v>
+      </c>
+      <c r="H357">
+        <v>6.83</v>
+      </c>
+      <c r="I357">
+        <v>0.39</v>
+      </c>
+      <c r="J357">
+        <v>6.44</v>
+      </c>
+      <c r="K357">
+        <v>0.36</v>
+      </c>
+      <c r="L357">
+        <v>0.03</v>
+      </c>
+      <c r="M357">
+        <v>0.02</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <v>1</v>
+      </c>
+      <c r="P357">
+        <v>5.05</v>
+      </c>
+      <c r="Q357">
+        <v>28.91</v>
+      </c>
+      <c r="R357">
+        <v>4.29</v>
+      </c>
+      <c r="S357">
+        <v>27</v>
+      </c>
+      <c r="T357">
+        <v>2</v>
+      </c>
+      <c r="U357">
+        <v>17</v>
+      </c>
+      <c r="V357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>23</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C358" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E358" t="s">
+        <v>35</v>
+      </c>
+      <c r="F358" t="s">
+        <v>34</v>
+      </c>
+      <c r="G358" t="s">
+        <v>340</v>
+      </c>
+      <c r="H358">
+        <v>7.27</v>
+      </c>
+      <c r="I358">
+        <v>0.65</v>
+      </c>
+      <c r="J358">
+        <v>6.61</v>
+      </c>
+      <c r="K358">
+        <v>0.54</v>
+      </c>
+      <c r="L358">
+        <v>0.08</v>
+      </c>
+      <c r="M358">
+        <v>0.03</v>
+      </c>
+      <c r="N358">
+        <v>0.01</v>
+      </c>
+      <c r="O358">
+        <v>2</v>
+      </c>
+      <c r="P358">
+        <v>5.44</v>
+      </c>
+      <c r="Q358">
+        <v>30.84</v>
+      </c>
+      <c r="R358">
+        <v>6.08</v>
+      </c>
+      <c r="S358">
+        <v>30</v>
+      </c>
+      <c r="T358">
+        <v>9</v>
+      </c>
+      <c r="U358">
+        <v>15</v>
+      </c>
+      <c r="V358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C359" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E359" t="s">
+        <v>43</v>
+      </c>
+      <c r="F359" t="s">
+        <v>34</v>
+      </c>
+      <c r="G359" t="s">
+        <v>341</v>
+      </c>
+      <c r="H359">
+        <v>5.79</v>
+      </c>
+      <c r="I359">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J359">
+        <v>5.49</v>
+      </c>
+      <c r="K359">
+        <v>0.2</v>
+      </c>
+      <c r="L359">
+        <v>0.08</v>
+      </c>
+      <c r="M359">
+        <v>0.02</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <v>4</v>
+      </c>
+      <c r="P359">
+        <v>4.47</v>
+      </c>
+      <c r="Q359">
+        <v>26.15</v>
+      </c>
+      <c r="R359">
+        <v>4.5</v>
+      </c>
+      <c r="S359">
+        <v>23</v>
+      </c>
+      <c r="T359">
+        <v>6</v>
+      </c>
+      <c r="U359">
+        <v>15</v>
+      </c>
+      <c r="V359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C360" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E360" t="s">
+        <v>16</v>
+      </c>
+      <c r="F360" t="s">
+        <v>30</v>
+      </c>
+      <c r="G360" t="s">
+        <v>342</v>
+      </c>
+      <c r="H360">
+        <v>6.64</v>
+      </c>
+      <c r="I360">
+        <v>0.44</v>
+      </c>
+      <c r="J360">
+        <v>6.19</v>
+      </c>
+      <c r="K360">
+        <v>0.39</v>
+      </c>
+      <c r="L360">
+        <v>0.04</v>
+      </c>
+      <c r="M360">
+        <v>0.01</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+      <c r="P360">
+        <v>5.01</v>
+      </c>
+      <c r="Q360">
+        <v>28.22</v>
+      </c>
+      <c r="R360">
+        <v>4.55</v>
+      </c>
+      <c r="S360">
+        <v>17</v>
+      </c>
+      <c r="T360">
+        <v>3</v>
+      </c>
+      <c r="U360">
+        <v>12</v>
+      </c>
+      <c r="V360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E361" t="s">
+        <v>164</v>
+      </c>
+      <c r="F361" t="s">
+        <v>32</v>
+      </c>
+      <c r="G361" t="s">
+        <v>97</v>
+      </c>
+      <c r="H361">
+        <v>6.24</v>
+      </c>
+      <c r="I361">
+        <v>0.2</v>
+      </c>
+      <c r="J361">
+        <v>6.04</v>
+      </c>
+      <c r="K361">
+        <v>0.18</v>
+      </c>
+      <c r="L361">
+        <v>0.03</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <v>4.59</v>
+      </c>
+      <c r="Q361">
+        <v>23.84</v>
+      </c>
+      <c r="R361">
+        <v>3.75</v>
+      </c>
+      <c r="S361">
+        <v>15</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361">
+        <v>10</v>
+      </c>
+      <c r="V361">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7F9EF-26A7-274A-93FC-6A6A4EC5862F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9186E0-273C-3043-8048-432D6CCD9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="356">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1068,6 +1068,42 @@
   </si>
   <si>
     <t>J+2</t>
+  </si>
+  <si>
+    <t>01:46:05</t>
+  </si>
+  <si>
+    <t>01:46:21</t>
+  </si>
+  <si>
+    <t>01:45:49</t>
+  </si>
+  <si>
+    <t>01:45:00</t>
+  </si>
+  <si>
+    <t>01:45:01</t>
+  </si>
+  <si>
+    <t>01:46:13</t>
+  </si>
+  <si>
+    <t>01:44:05</t>
+  </si>
+  <si>
+    <t>01:45:17</t>
+  </si>
+  <si>
+    <t>01:45:41</t>
+  </si>
+  <si>
+    <t>01:44:52</t>
+  </si>
+  <si>
+    <t>01:44:45</t>
+  </si>
+  <si>
+    <t>J-3</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V361"/>
+  <dimension ref="A1:V374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E365" sqref="E365"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E377" sqref="E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24990,6 +25026,890 @@
         <v>5</v>
       </c>
     </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C362" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E362" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" t="s">
+        <v>29</v>
+      </c>
+      <c r="G362" t="s">
+        <v>344</v>
+      </c>
+      <c r="H362">
+        <v>6.68</v>
+      </c>
+      <c r="I362">
+        <v>0.53</v>
+      </c>
+      <c r="J362">
+        <v>6.14</v>
+      </c>
+      <c r="K362">
+        <v>0.43</v>
+      </c>
+      <c r="L362">
+        <v>0.11</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+      <c r="O362">
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <v>3.69</v>
+      </c>
+      <c r="Q362">
+        <v>24.39</v>
+      </c>
+      <c r="R362">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S362">
+        <v>32</v>
+      </c>
+      <c r="T362">
+        <v>6</v>
+      </c>
+      <c r="U362">
+        <v>14</v>
+      </c>
+      <c r="V362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C363" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E363" t="s">
+        <v>16</v>
+      </c>
+      <c r="F363" t="s">
+        <v>30</v>
+      </c>
+      <c r="G363" t="s">
+        <v>344</v>
+      </c>
+      <c r="H363">
+        <v>6.47</v>
+      </c>
+      <c r="I363">
+        <v>0.48</v>
+      </c>
+      <c r="J363">
+        <v>5.97</v>
+      </c>
+      <c r="K363">
+        <v>0.38</v>
+      </c>
+      <c r="L363">
+        <v>0.09</v>
+      </c>
+      <c r="M363">
+        <v>0.02</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+      <c r="O363">
+        <v>4</v>
+      </c>
+      <c r="P363">
+        <v>3.11</v>
+      </c>
+      <c r="Q363">
+        <v>27.31</v>
+      </c>
+      <c r="R363">
+        <v>5.46</v>
+      </c>
+      <c r="S363">
+        <v>45</v>
+      </c>
+      <c r="T363">
+        <v>18</v>
+      </c>
+      <c r="U363">
+        <v>37</v>
+      </c>
+      <c r="V363">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>23</v>
+      </c>
+      <c r="B364" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E364" t="s">
+        <v>43</v>
+      </c>
+      <c r="F364" t="s">
+        <v>34</v>
+      </c>
+      <c r="G364" t="s">
+        <v>345</v>
+      </c>
+      <c r="H364">
+        <v>6.52</v>
+      </c>
+      <c r="I364">
+        <v>0.62</v>
+      </c>
+      <c r="J364">
+        <v>5.89</v>
+      </c>
+      <c r="K364">
+        <v>0.39</v>
+      </c>
+      <c r="L364">
+        <v>0.18</v>
+      </c>
+      <c r="M364">
+        <v>0.06</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+      <c r="O364">
+        <v>6</v>
+      </c>
+      <c r="P364">
+        <v>3.6</v>
+      </c>
+      <c r="Q364">
+        <v>29.67</v>
+      </c>
+      <c r="R364">
+        <v>4.45</v>
+      </c>
+      <c r="S364">
+        <v>32</v>
+      </c>
+      <c r="T364">
+        <v>5</v>
+      </c>
+      <c r="U364">
+        <v>19</v>
+      </c>
+      <c r="V364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E365" t="s">
+        <v>54</v>
+      </c>
+      <c r="F365" t="s">
+        <v>28</v>
+      </c>
+      <c r="G365" t="s">
+        <v>346</v>
+      </c>
+      <c r="H365">
+        <v>5.97</v>
+      </c>
+      <c r="I365">
+        <v>0.45</v>
+      </c>
+      <c r="J365">
+        <v>5.51</v>
+      </c>
+      <c r="K365">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L365">
+        <v>0.13</v>
+      </c>
+      <c r="M365">
+        <v>0.04</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+      <c r="O365">
+        <v>4</v>
+      </c>
+      <c r="P365">
+        <v>3.31</v>
+      </c>
+      <c r="Q365">
+        <v>27.47</v>
+      </c>
+      <c r="R365">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S365">
+        <v>28</v>
+      </c>
+      <c r="T365">
+        <v>1</v>
+      </c>
+      <c r="U365">
+        <v>12</v>
+      </c>
+      <c r="V365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>23</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C366" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E366" t="s">
+        <v>36</v>
+      </c>
+      <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
+        <v>347</v>
+      </c>
+      <c r="H366">
+        <v>6.59</v>
+      </c>
+      <c r="I366">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J366">
+        <v>6</v>
+      </c>
+      <c r="K366">
+        <v>0.46</v>
+      </c>
+      <c r="L366">
+        <v>0.12</v>
+      </c>
+      <c r="M366">
+        <v>0.01</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+      <c r="O366">
+        <v>1</v>
+      </c>
+      <c r="P366">
+        <v>3.7</v>
+      </c>
+      <c r="Q366">
+        <v>26.38</v>
+      </c>
+      <c r="R366">
+        <v>4.67</v>
+      </c>
+      <c r="S366">
+        <v>29</v>
+      </c>
+      <c r="T366">
+        <v>5</v>
+      </c>
+      <c r="U366">
+        <v>11</v>
+      </c>
+      <c r="V366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C367" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E367" t="s">
+        <v>35</v>
+      </c>
+      <c r="F367" t="s">
+        <v>34</v>
+      </c>
+      <c r="G367" t="s">
+        <v>348</v>
+      </c>
+      <c r="H367">
+        <v>6.68</v>
+      </c>
+      <c r="I367">
+        <v>0.65</v>
+      </c>
+      <c r="J367">
+        <v>6.02</v>
+      </c>
+      <c r="K367">
+        <v>0.47</v>
+      </c>
+      <c r="L367">
+        <v>0.12</v>
+      </c>
+      <c r="M367">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367">
+        <v>5</v>
+      </c>
+      <c r="P367">
+        <v>3.76</v>
+      </c>
+      <c r="Q367">
+        <v>29.38</v>
+      </c>
+      <c r="R367">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S367">
+        <v>43</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>27</v>
+      </c>
+      <c r="V367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C368" t="s">
+        <v>20</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E368" t="s">
+        <v>39</v>
+      </c>
+      <c r="F368" t="s">
+        <v>29</v>
+      </c>
+      <c r="G368" t="s">
+        <v>349</v>
+      </c>
+      <c r="H368">
+        <v>6.12</v>
+      </c>
+      <c r="I368">
+        <v>0.34</v>
+      </c>
+      <c r="J368">
+        <v>5.77</v>
+      </c>
+      <c r="K368">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L368">
+        <v>0.06</v>
+      </c>
+      <c r="M368">
+        <v>0.01</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+      <c r="O368">
+        <v>1</v>
+      </c>
+      <c r="P368">
+        <v>3.39</v>
+      </c>
+      <c r="Q368">
+        <v>26.95</v>
+      </c>
+      <c r="R368">
+        <v>4.46</v>
+      </c>
+      <c r="S368">
+        <v>26</v>
+      </c>
+      <c r="T368">
+        <v>4</v>
+      </c>
+      <c r="U368">
+        <v>13</v>
+      </c>
+      <c r="V368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C369" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E369" t="s">
+        <v>164</v>
+      </c>
+      <c r="F369" t="s">
+        <v>32</v>
+      </c>
+      <c r="G369" t="s">
+        <v>348</v>
+      </c>
+      <c r="H369">
+        <v>7.38</v>
+      </c>
+      <c r="I369">
+        <v>0.81</v>
+      </c>
+      <c r="J369">
+        <v>6.55</v>
+      </c>
+      <c r="K369">
+        <v>0.65</v>
+      </c>
+      <c r="L369">
+        <v>0.15</v>
+      </c>
+      <c r="M369">
+        <v>0.03</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+      <c r="O369">
+        <v>2</v>
+      </c>
+      <c r="P369">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q369">
+        <v>27.53</v>
+      </c>
+      <c r="R369">
+        <v>4.26</v>
+      </c>
+      <c r="S369">
+        <v>41</v>
+      </c>
+      <c r="T369">
+        <v>4</v>
+      </c>
+      <c r="U369">
+        <v>27</v>
+      </c>
+      <c r="V369">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>23</v>
+      </c>
+      <c r="B370" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E370" t="s">
+        <v>58</v>
+      </c>
+      <c r="F370" t="s">
+        <v>29</v>
+      </c>
+      <c r="G370" t="s">
+        <v>350</v>
+      </c>
+      <c r="H370">
+        <v>5.82</v>
+      </c>
+      <c r="I370">
+        <v>0.26</v>
+      </c>
+      <c r="J370">
+        <v>5.55</v>
+      </c>
+      <c r="K370">
+        <v>0.22</v>
+      </c>
+      <c r="L370">
+        <v>0.03</v>
+      </c>
+      <c r="M370">
+        <v>0.01</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+      <c r="O370">
+        <v>1</v>
+      </c>
+      <c r="P370">
+        <v>3.25</v>
+      </c>
+      <c r="Q370">
+        <v>26.48</v>
+      </c>
+      <c r="R370">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S370">
+        <v>26</v>
+      </c>
+      <c r="T370">
+        <v>2</v>
+      </c>
+      <c r="U370">
+        <v>8</v>
+      </c>
+      <c r="V370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C371" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E371" t="s">
+        <v>40</v>
+      </c>
+      <c r="F371" t="s">
+        <v>31</v>
+      </c>
+      <c r="G371" t="s">
+        <v>351</v>
+      </c>
+      <c r="H371">
+        <v>7.2</v>
+      </c>
+      <c r="I371">
+        <v>0.64</v>
+      </c>
+      <c r="J371">
+        <v>6.54</v>
+      </c>
+      <c r="K371">
+        <v>0.47</v>
+      </c>
+      <c r="L371">
+        <v>0.17</v>
+      </c>
+      <c r="M371">
+        <v>0.01</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+      <c r="O371">
+        <v>4</v>
+      </c>
+      <c r="P371">
+        <v>3.69</v>
+      </c>
+      <c r="Q371">
+        <v>26.64</v>
+      </c>
+      <c r="R371">
+        <v>5.21</v>
+      </c>
+      <c r="S371">
+        <v>54</v>
+      </c>
+      <c r="T371">
+        <v>10</v>
+      </c>
+      <c r="U371">
+        <v>33</v>
+      </c>
+      <c r="V371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E372" t="s">
+        <v>52</v>
+      </c>
+      <c r="F372" t="s">
+        <v>33</v>
+      </c>
+      <c r="G372" t="s">
+        <v>352</v>
+      </c>
+      <c r="H372">
+        <v>7.23</v>
+      </c>
+      <c r="I372">
+        <v>0.69</v>
+      </c>
+      <c r="J372">
+        <v>6.53</v>
+      </c>
+      <c r="K372">
+        <v>0.47</v>
+      </c>
+      <c r="L372">
+        <v>0.21</v>
+      </c>
+      <c r="M372">
+        <v>0.02</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="O372">
+        <v>4</v>
+      </c>
+      <c r="P372">
+        <v>4.05</v>
+      </c>
+      <c r="Q372">
+        <v>27.55</v>
+      </c>
+      <c r="R372">
+        <v>4.29</v>
+      </c>
+      <c r="S372">
+        <v>29</v>
+      </c>
+      <c r="T372">
+        <v>5</v>
+      </c>
+      <c r="U372">
+        <v>14</v>
+      </c>
+      <c r="V372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>23</v>
+      </c>
+      <c r="B373" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C373" t="s">
+        <v>20</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E373" t="s">
+        <v>48</v>
+      </c>
+      <c r="F373" t="s">
+        <v>29</v>
+      </c>
+      <c r="G373" t="s">
+        <v>353</v>
+      </c>
+      <c r="H373">
+        <v>5.7</v>
+      </c>
+      <c r="I373">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J373">
+        <v>5.4</v>
+      </c>
+      <c r="K373">
+        <v>0.22</v>
+      </c>
+      <c r="L373">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M373">
+        <v>0.01</v>
+      </c>
+      <c r="N373">
+        <v>0</v>
+      </c>
+      <c r="O373">
+        <v>1</v>
+      </c>
+      <c r="P373">
+        <v>3.09</v>
+      </c>
+      <c r="Q373">
+        <v>27.28</v>
+      </c>
+      <c r="R373">
+        <v>4.58</v>
+      </c>
+      <c r="S373">
+        <v>12</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>9</v>
+      </c>
+      <c r="V373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>23</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C374" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E374" t="s">
+        <v>53</v>
+      </c>
+      <c r="F374" t="s">
+        <v>32</v>
+      </c>
+      <c r="G374" t="s">
+        <v>354</v>
+      </c>
+      <c r="H374">
+        <v>7.52</v>
+      </c>
+      <c r="I374">
+        <v>0.42</v>
+      </c>
+      <c r="J374">
+        <v>7.1</v>
+      </c>
+      <c r="K374">
+        <v>0.39</v>
+      </c>
+      <c r="L374">
+        <v>0.03</v>
+      </c>
+      <c r="M374">
+        <v>0.01</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>4.25</v>
+      </c>
+      <c r="Q374">
+        <v>25.92</v>
+      </c>
+      <c r="R374">
+        <v>5.21</v>
+      </c>
+      <c r="S374">
+        <v>35</v>
+      </c>
+      <c r="T374">
+        <v>5</v>
+      </c>
+      <c r="U374">
+        <v>14</v>
+      </c>
+      <c r="V374">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9186E0-273C-3043-8048-432D6CCD9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A23B4-AA46-E549-8AFC-DB6C0153CA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="368">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1104,6 +1104,42 @@
   </si>
   <si>
     <t>J-3</t>
+  </si>
+  <si>
+    <t>00:57:01</t>
+  </si>
+  <si>
+    <t>00:58:39</t>
+  </si>
+  <si>
+    <t>01:01:13</t>
+  </si>
+  <si>
+    <t>01:00:58</t>
+  </si>
+  <si>
+    <t>00:39:05</t>
+  </si>
+  <si>
+    <t>00:56:40</t>
+  </si>
+  <si>
+    <t>01:00:10</t>
+  </si>
+  <si>
+    <t>00:38:24</t>
+  </si>
+  <si>
+    <t>00:56:48</t>
+  </si>
+  <si>
+    <t>00:58:11</t>
+  </si>
+  <si>
+    <t>01:01:26</t>
+  </si>
+  <si>
+    <t>J-2</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V374"/>
+  <dimension ref="A1:V386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E377" sqref="E377"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25910,6 +25946,822 @@
         <v>2</v>
       </c>
     </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>23</v>
+      </c>
+      <c r="B375" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C375" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E375" t="s">
+        <v>35</v>
+      </c>
+      <c r="F375" t="s">
+        <v>34</v>
+      </c>
+      <c r="G375" t="s">
+        <v>356</v>
+      </c>
+      <c r="H375">
+        <v>3.15</v>
+      </c>
+      <c r="I375">
+        <v>0.3</v>
+      </c>
+      <c r="J375">
+        <v>2.84</v>
+      </c>
+      <c r="K375">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L375">
+        <v>0.1</v>
+      </c>
+      <c r="M375">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+      <c r="O375">
+        <v>4</v>
+      </c>
+      <c r="P375">
+        <v>3.2</v>
+      </c>
+      <c r="Q375">
+        <v>30.04</v>
+      </c>
+      <c r="R375">
+        <v>4.58</v>
+      </c>
+      <c r="S375">
+        <v>15</v>
+      </c>
+      <c r="T375">
+        <v>4</v>
+      </c>
+      <c r="U375">
+        <v>5</v>
+      </c>
+      <c r="V375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C376" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E376" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376" t="s">
+        <v>29</v>
+      </c>
+      <c r="G376" t="s">
+        <v>357</v>
+      </c>
+      <c r="H376">
+        <v>2.75</v>
+      </c>
+      <c r="I376">
+        <v>0.2</v>
+      </c>
+      <c r="J376">
+        <v>2.54</v>
+      </c>
+      <c r="K376">
+        <v>0.1</v>
+      </c>
+      <c r="L376">
+        <v>0.08</v>
+      </c>
+      <c r="M376">
+        <v>0.02</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376">
+        <v>3</v>
+      </c>
+      <c r="P376">
+        <v>2.68</v>
+      </c>
+      <c r="Q376">
+        <v>27.15</v>
+      </c>
+      <c r="R376">
+        <v>3.5</v>
+      </c>
+      <c r="S376">
+        <v>3</v>
+      </c>
+      <c r="T376">
+        <v>0</v>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C377" t="s">
+        <v>20</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E377" t="s">
+        <v>48</v>
+      </c>
+      <c r="F377" t="s">
+        <v>29</v>
+      </c>
+      <c r="G377" t="s">
+        <v>357</v>
+      </c>
+      <c r="H377">
+        <v>2.42</v>
+      </c>
+      <c r="I377">
+        <v>0.21</v>
+      </c>
+      <c r="J377">
+        <v>2.21</v>
+      </c>
+      <c r="K377">
+        <v>0.08</v>
+      </c>
+      <c r="L377">
+        <v>0.09</v>
+      </c>
+      <c r="M377">
+        <v>0.05</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+      <c r="O377">
+        <v>3</v>
+      </c>
+      <c r="P377">
+        <v>2.25</v>
+      </c>
+      <c r="Q377">
+        <v>28.56</v>
+      </c>
+      <c r="R377">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S377">
+        <v>0</v>
+      </c>
+      <c r="T377">
+        <v>1</v>
+      </c>
+      <c r="U377">
+        <v>0</v>
+      </c>
+      <c r="V377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>23</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E378" t="s">
+        <v>164</v>
+      </c>
+      <c r="F378" t="s">
+        <v>32</v>
+      </c>
+      <c r="G378" t="s">
+        <v>358</v>
+      </c>
+      <c r="H378">
+        <v>3.57</v>
+      </c>
+      <c r="I378">
+        <v>0.3</v>
+      </c>
+      <c r="J378">
+        <v>3.26</v>
+      </c>
+      <c r="K378">
+        <v>0.16</v>
+      </c>
+      <c r="L378">
+        <v>0.08</v>
+      </c>
+      <c r="M378">
+        <v>0.06</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+      <c r="O378">
+        <v>5</v>
+      </c>
+      <c r="P378">
+        <v>3.4</v>
+      </c>
+      <c r="Q378">
+        <v>27.27</v>
+      </c>
+      <c r="R378">
+        <v>4.74</v>
+      </c>
+      <c r="S378">
+        <v>18</v>
+      </c>
+      <c r="T378">
+        <v>8</v>
+      </c>
+      <c r="U378">
+        <v>4</v>
+      </c>
+      <c r="V378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C379" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E379" t="s">
+        <v>53</v>
+      </c>
+      <c r="F379" t="s">
+        <v>32</v>
+      </c>
+      <c r="G379" t="s">
+        <v>359</v>
+      </c>
+      <c r="H379">
+        <v>3.26</v>
+      </c>
+      <c r="I379">
+        <v>0.31</v>
+      </c>
+      <c r="J379">
+        <v>2.95</v>
+      </c>
+      <c r="K379">
+        <v>0.18</v>
+      </c>
+      <c r="L379">
+        <v>0.13</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
+      <c r="P379">
+        <v>3.12</v>
+      </c>
+      <c r="Q379">
+        <v>24.75</v>
+      </c>
+      <c r="R379">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S379">
+        <v>14</v>
+      </c>
+      <c r="T379">
+        <v>8</v>
+      </c>
+      <c r="U379">
+        <v>9</v>
+      </c>
+      <c r="V379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C380" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E380" t="s">
+        <v>43</v>
+      </c>
+      <c r="F380" t="s">
+        <v>34</v>
+      </c>
+      <c r="G380" t="s">
+        <v>360</v>
+      </c>
+      <c r="H380">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I380">
+        <v>0.31</v>
+      </c>
+      <c r="J380">
+        <v>2.11</v>
+      </c>
+      <c r="K380">
+        <v>0.15</v>
+      </c>
+      <c r="L380">
+        <v>0.06</v>
+      </c>
+      <c r="M380">
+        <v>0.1</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+      <c r="O380">
+        <v>5</v>
+      </c>
+      <c r="P380">
+        <v>3.61</v>
+      </c>
+      <c r="Q380">
+        <v>29.93</v>
+      </c>
+      <c r="R380">
+        <v>4.84</v>
+      </c>
+      <c r="S380">
+        <v>10</v>
+      </c>
+      <c r="T380">
+        <v>3</v>
+      </c>
+      <c r="U380">
+        <v>4</v>
+      </c>
+      <c r="V380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>23</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C381" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E381" t="s">
+        <v>154</v>
+      </c>
+      <c r="F381" t="s">
+        <v>32</v>
+      </c>
+      <c r="G381" t="s">
+        <v>361</v>
+      </c>
+      <c r="H381">
+        <v>3.2</v>
+      </c>
+      <c r="I381">
+        <v>0.41</v>
+      </c>
+      <c r="J381">
+        <v>2.79</v>
+      </c>
+      <c r="K381">
+        <v>0.22</v>
+      </c>
+      <c r="L381">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M381">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381">
+        <v>4</v>
+      </c>
+      <c r="P381">
+        <v>3.26</v>
+      </c>
+      <c r="Q381">
+        <v>27.43</v>
+      </c>
+      <c r="R381">
+        <v>4.42</v>
+      </c>
+      <c r="S381">
+        <v>19</v>
+      </c>
+      <c r="T381">
+        <v>5</v>
+      </c>
+      <c r="U381">
+        <v>4</v>
+      </c>
+      <c r="V381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C382" t="s">
+        <v>20</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E382" t="s">
+        <v>121</v>
+      </c>
+      <c r="F382" t="s">
+        <v>32</v>
+      </c>
+      <c r="G382" t="s">
+        <v>362</v>
+      </c>
+      <c r="H382">
+        <v>3.22</v>
+      </c>
+      <c r="I382">
+        <v>0.24</v>
+      </c>
+      <c r="J382">
+        <v>2.98</v>
+      </c>
+      <c r="K382">
+        <v>0.13</v>
+      </c>
+      <c r="L382">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M382">
+        <v>0.04</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+      <c r="O382">
+        <v>4</v>
+      </c>
+      <c r="P382">
+        <v>3.12</v>
+      </c>
+      <c r="Q382">
+        <v>27.61</v>
+      </c>
+      <c r="R382">
+        <v>5.07</v>
+      </c>
+      <c r="S382">
+        <v>13</v>
+      </c>
+      <c r="T382">
+        <v>8</v>
+      </c>
+      <c r="U382">
+        <v>7</v>
+      </c>
+      <c r="V382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C383" t="s">
+        <v>20</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E383" t="s">
+        <v>39</v>
+      </c>
+      <c r="F383" t="s">
+        <v>29</v>
+      </c>
+      <c r="G383" t="s">
+        <v>363</v>
+      </c>
+      <c r="H383">
+        <v>2.39</v>
+      </c>
+      <c r="I383">
+        <v>0.18</v>
+      </c>
+      <c r="J383">
+        <v>2.21</v>
+      </c>
+      <c r="K383">
+        <v>0.08</v>
+      </c>
+      <c r="L383">
+        <v>0.08</v>
+      </c>
+      <c r="M383">
+        <v>0.03</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+      <c r="O383">
+        <v>2</v>
+      </c>
+      <c r="P383">
+        <v>3.61</v>
+      </c>
+      <c r="Q383">
+        <v>28.33</v>
+      </c>
+      <c r="R383">
+        <v>3.61</v>
+      </c>
+      <c r="S383">
+        <v>5</v>
+      </c>
+      <c r="T383">
+        <v>0</v>
+      </c>
+      <c r="U383">
+        <v>0</v>
+      </c>
+      <c r="V383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C384" t="s">
+        <v>20</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E384" t="s">
+        <v>38</v>
+      </c>
+      <c r="F384" t="s">
+        <v>34</v>
+      </c>
+      <c r="G384" t="s">
+        <v>364</v>
+      </c>
+      <c r="H384">
+        <v>2.85</v>
+      </c>
+      <c r="I384">
+        <v>0.27</v>
+      </c>
+      <c r="J384">
+        <v>2.57</v>
+      </c>
+      <c r="K384">
+        <v>0.09</v>
+      </c>
+      <c r="L384">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M384">
+        <v>0.11</v>
+      </c>
+      <c r="N384">
+        <v>0.01</v>
+      </c>
+      <c r="O384">
+        <v>6</v>
+      </c>
+      <c r="P384">
+        <v>2.68</v>
+      </c>
+      <c r="Q384">
+        <v>30.63</v>
+      </c>
+      <c r="R384">
+        <v>4.72</v>
+      </c>
+      <c r="S384">
+        <v>6</v>
+      </c>
+      <c r="T384">
+        <v>1</v>
+      </c>
+      <c r="U384">
+        <v>7</v>
+      </c>
+      <c r="V384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C385" t="s">
+        <v>20</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E385" t="s">
+        <v>58</v>
+      </c>
+      <c r="F385" t="s">
+        <v>29</v>
+      </c>
+      <c r="G385" t="s">
+        <v>365</v>
+      </c>
+      <c r="H385">
+        <v>3.25</v>
+      </c>
+      <c r="I385">
+        <v>0.17</v>
+      </c>
+      <c r="J385">
+        <v>3.08</v>
+      </c>
+      <c r="K385">
+        <v>0.05</v>
+      </c>
+      <c r="L385">
+        <v>0.06</v>
+      </c>
+      <c r="M385">
+        <v>0.06</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+      <c r="O385">
+        <v>5</v>
+      </c>
+      <c r="P385">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q385">
+        <v>27.79</v>
+      </c>
+      <c r="R385">
+        <v>3.2</v>
+      </c>
+      <c r="S385">
+        <v>5</v>
+      </c>
+      <c r="T385">
+        <v>0</v>
+      </c>
+      <c r="U385">
+        <v>6</v>
+      </c>
+      <c r="V385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>23</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C386" t="s">
+        <v>20</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E386" t="s">
+        <v>52</v>
+      </c>
+      <c r="F386" t="s">
+        <v>33</v>
+      </c>
+      <c r="G386" t="s">
+        <v>366</v>
+      </c>
+      <c r="H386">
+        <v>3.84</v>
+      </c>
+      <c r="I386">
+        <v>0.46</v>
+      </c>
+      <c r="J386">
+        <v>3.37</v>
+      </c>
+      <c r="K386">
+        <v>0.25</v>
+      </c>
+      <c r="L386">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M386">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+      <c r="O386">
+        <v>4</v>
+      </c>
+      <c r="P386">
+        <v>3.7</v>
+      </c>
+      <c r="Q386">
+        <v>29.27</v>
+      </c>
+      <c r="R386">
+        <v>4.28</v>
+      </c>
+      <c r="S386">
+        <v>26</v>
+      </c>
+      <c r="T386">
+        <v>4</v>
+      </c>
+      <c r="U386">
+        <v>6</v>
+      </c>
+      <c r="V386">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A23B4-AA46-E549-8AFC-DB6C0153CA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B02B21-2EA7-0D45-941F-EAE11FF237D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="377">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1140,6 +1140,33 @@
   </si>
   <si>
     <t>J-2</t>
+  </si>
+  <si>
+    <t>01:17:13</t>
+  </si>
+  <si>
+    <t>01:12:19</t>
+  </si>
+  <si>
+    <t>01:13:01</t>
+  </si>
+  <si>
+    <t>01:13:22</t>
+  </si>
+  <si>
+    <t>01:14:53</t>
+  </si>
+  <si>
+    <t>01:14:25</t>
+  </si>
+  <si>
+    <t>01:15:56</t>
+  </si>
+  <si>
+    <t>01:16:24</t>
+  </si>
+  <si>
+    <t>01:07:52</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V386"/>
+  <dimension ref="A1:V397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D388" sqref="D388"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26762,6 +26789,754 @@
         <v>0</v>
       </c>
     </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>23</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C387" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E387" t="s">
+        <v>24</v>
+      </c>
+      <c r="F387" t="s">
+        <v>32</v>
+      </c>
+      <c r="G387" t="s">
+        <v>368</v>
+      </c>
+      <c r="H387">
+        <v>5.46</v>
+      </c>
+      <c r="I387">
+        <v>0.2</v>
+      </c>
+      <c r="J387">
+        <v>5.25</v>
+      </c>
+      <c r="K387">
+        <v>0.19</v>
+      </c>
+      <c r="L387">
+        <v>0.01</v>
+      </c>
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+      <c r="P387">
+        <v>4.09</v>
+      </c>
+      <c r="Q387">
+        <v>21.15</v>
+      </c>
+      <c r="R387">
+        <v>4.28</v>
+      </c>
+      <c r="S387">
+        <v>10</v>
+      </c>
+      <c r="T387">
+        <v>4</v>
+      </c>
+      <c r="U387">
+        <v>10</v>
+      </c>
+      <c r="V387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>23</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C388" t="s">
+        <v>20</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E388" t="s">
+        <v>43</v>
+      </c>
+      <c r="F388" t="s">
+        <v>34</v>
+      </c>
+      <c r="G388" t="s">
+        <v>369</v>
+      </c>
+      <c r="H388">
+        <v>5.59</v>
+      </c>
+      <c r="I388">
+        <v>0.44</v>
+      </c>
+      <c r="J388">
+        <v>5.15</v>
+      </c>
+      <c r="K388">
+        <v>0.34</v>
+      </c>
+      <c r="L388">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M388">
+        <v>0.03</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388">
+        <v>4</v>
+      </c>
+      <c r="P388">
+        <v>4.47</v>
+      </c>
+      <c r="Q388">
+        <v>27.8</v>
+      </c>
+      <c r="R388">
+        <v>4.7</v>
+      </c>
+      <c r="S388">
+        <v>31</v>
+      </c>
+      <c r="T388">
+        <v>11</v>
+      </c>
+      <c r="U388">
+        <v>23</v>
+      </c>
+      <c r="V388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>23</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C389" t="s">
+        <v>20</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E389" t="s">
+        <v>48</v>
+      </c>
+      <c r="F389" t="s">
+        <v>29</v>
+      </c>
+      <c r="G389" t="s">
+        <v>370</v>
+      </c>
+      <c r="H389">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I389">
+        <v>0.08</v>
+      </c>
+      <c r="J389">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K389">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389">
+        <v>0</v>
+      </c>
+      <c r="P389">
+        <v>3.26</v>
+      </c>
+      <c r="Q389">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="R389">
+        <v>4.25</v>
+      </c>
+      <c r="S389">
+        <v>12</v>
+      </c>
+      <c r="T389">
+        <v>2</v>
+      </c>
+      <c r="U389">
+        <v>6</v>
+      </c>
+      <c r="V389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C390" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E390" t="s">
+        <v>54</v>
+      </c>
+      <c r="F390" t="s">
+        <v>28</v>
+      </c>
+      <c r="G390" t="s">
+        <v>371</v>
+      </c>
+      <c r="H390">
+        <v>4.97</v>
+      </c>
+      <c r="I390">
+        <v>0.37</v>
+      </c>
+      <c r="J390">
+        <v>4.59</v>
+      </c>
+      <c r="K390">
+        <v>0.25</v>
+      </c>
+      <c r="L390">
+        <v>0.12</v>
+      </c>
+      <c r="M390">
+        <v>0.02</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+      <c r="O390">
+        <v>4</v>
+      </c>
+      <c r="P390">
+        <v>4</v>
+      </c>
+      <c r="Q390">
+        <v>26.8</v>
+      </c>
+      <c r="R390">
+        <v>5</v>
+      </c>
+      <c r="S390">
+        <v>31</v>
+      </c>
+      <c r="T390">
+        <v>9</v>
+      </c>
+      <c r="U390">
+        <v>20</v>
+      </c>
+      <c r="V390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>23</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C391" t="s">
+        <v>20</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E391" t="s">
+        <v>25</v>
+      </c>
+      <c r="F391" t="s">
+        <v>29</v>
+      </c>
+      <c r="G391" t="s">
+        <v>372</v>
+      </c>
+      <c r="H391">
+        <v>5.16</v>
+      </c>
+      <c r="I391">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J391">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K391">
+        <v>0.23</v>
+      </c>
+      <c r="L391">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+      <c r="P391">
+        <v>4.08</v>
+      </c>
+      <c r="Q391">
+        <v>23.69</v>
+      </c>
+      <c r="R391">
+        <v>4.53</v>
+      </c>
+      <c r="S391">
+        <v>30</v>
+      </c>
+      <c r="T391">
+        <v>6</v>
+      </c>
+      <c r="U391">
+        <v>27</v>
+      </c>
+      <c r="V391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C392" t="s">
+        <v>20</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E392" t="s">
+        <v>40</v>
+      </c>
+      <c r="F392" t="s">
+        <v>31</v>
+      </c>
+      <c r="G392" t="s">
+        <v>370</v>
+      </c>
+      <c r="H392">
+        <v>5.43</v>
+      </c>
+      <c r="I392">
+        <v>0.35</v>
+      </c>
+      <c r="J392">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="K392">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L392">
+        <v>0.09</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+      <c r="P392">
+        <v>4.16</v>
+      </c>
+      <c r="Q392">
+        <v>24.94</v>
+      </c>
+      <c r="R392">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S392">
+        <v>44</v>
+      </c>
+      <c r="T392">
+        <v>18</v>
+      </c>
+      <c r="U392">
+        <v>52</v>
+      </c>
+      <c r="V392">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>23</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C393" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E393" t="s">
+        <v>35</v>
+      </c>
+      <c r="F393" t="s">
+        <v>34</v>
+      </c>
+      <c r="G393" t="s">
+        <v>373</v>
+      </c>
+      <c r="H393">
+        <v>6.23</v>
+      </c>
+      <c r="I393">
+        <v>0.6</v>
+      </c>
+      <c r="J393">
+        <v>5.62</v>
+      </c>
+      <c r="K393">
+        <v>0.46</v>
+      </c>
+      <c r="L393">
+        <v>0.13</v>
+      </c>
+      <c r="M393">
+        <v>0.02</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
+        <v>2</v>
+      </c>
+      <c r="P393">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q393">
+        <v>27.57</v>
+      </c>
+      <c r="R393">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S393">
+        <v>36</v>
+      </c>
+      <c r="T393">
+        <v>14</v>
+      </c>
+      <c r="U393">
+        <v>29</v>
+      </c>
+      <c r="V393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>23</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C394" t="s">
+        <v>20</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E394" t="s">
+        <v>53</v>
+      </c>
+      <c r="F394" t="s">
+        <v>32</v>
+      </c>
+      <c r="G394" t="s">
+        <v>374</v>
+      </c>
+      <c r="H394">
+        <v>6.49</v>
+      </c>
+      <c r="I394">
+        <v>0.36</v>
+      </c>
+      <c r="J394">
+        <v>6.13</v>
+      </c>
+      <c r="K394">
+        <v>0.27</v>
+      </c>
+      <c r="L394">
+        <v>0.09</v>
+      </c>
+      <c r="M394">
+        <v>0.01</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+      <c r="O394">
+        <v>1</v>
+      </c>
+      <c r="P394">
+        <v>5.05</v>
+      </c>
+      <c r="Q394">
+        <v>26.75</v>
+      </c>
+      <c r="R394">
+        <v>5</v>
+      </c>
+      <c r="S394">
+        <v>23</v>
+      </c>
+      <c r="T394">
+        <v>8</v>
+      </c>
+      <c r="U394">
+        <v>17</v>
+      </c>
+      <c r="V394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C395" t="s">
+        <v>20</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E395" t="s">
+        <v>52</v>
+      </c>
+      <c r="F395" t="s">
+        <v>33</v>
+      </c>
+      <c r="G395" t="s">
+        <v>374</v>
+      </c>
+      <c r="H395">
+        <v>5.83</v>
+      </c>
+      <c r="I395">
+        <v>0.51</v>
+      </c>
+      <c r="J395">
+        <v>5.31</v>
+      </c>
+      <c r="K395">
+        <v>0.37</v>
+      </c>
+      <c r="L395">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M395">
+        <v>0.02</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+      <c r="O395">
+        <v>2</v>
+      </c>
+      <c r="P395">
+        <v>4.57</v>
+      </c>
+      <c r="Q395">
+        <v>26.4</v>
+      </c>
+      <c r="R395">
+        <v>4.87</v>
+      </c>
+      <c r="S395">
+        <v>37</v>
+      </c>
+      <c r="T395">
+        <v>5</v>
+      </c>
+      <c r="U395">
+        <v>27</v>
+      </c>
+      <c r="V395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C396" t="s">
+        <v>20</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E396" t="s">
+        <v>164</v>
+      </c>
+      <c r="F396" t="s">
+        <v>32</v>
+      </c>
+      <c r="G396" t="s">
+        <v>375</v>
+      </c>
+      <c r="H396">
+        <v>5.64</v>
+      </c>
+      <c r="I396">
+        <v>0.36</v>
+      </c>
+      <c r="J396">
+        <v>5.27</v>
+      </c>
+      <c r="K396">
+        <v>0.24</v>
+      </c>
+      <c r="L396">
+        <v>0.11</v>
+      </c>
+      <c r="M396">
+        <v>0.02</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+      <c r="O396">
+        <v>2</v>
+      </c>
+      <c r="P396">
+        <v>4.38</v>
+      </c>
+      <c r="Q396">
+        <v>26.58</v>
+      </c>
+      <c r="R396">
+        <v>5</v>
+      </c>
+      <c r="S396">
+        <v>30</v>
+      </c>
+      <c r="T396">
+        <v>6</v>
+      </c>
+      <c r="U396">
+        <v>20</v>
+      </c>
+      <c r="V396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>23</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C397" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E397" t="s">
+        <v>39</v>
+      </c>
+      <c r="F397" t="s">
+        <v>29</v>
+      </c>
+      <c r="G397" t="s">
+        <v>376</v>
+      </c>
+      <c r="H397">
+        <v>4.53</v>
+      </c>
+      <c r="I397">
+        <v>0.12</v>
+      </c>
+      <c r="J397">
+        <v>4.41</v>
+      </c>
+      <c r="K397">
+        <v>0.09</v>
+      </c>
+      <c r="L397">
+        <v>0.03</v>
+      </c>
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+      <c r="O397">
+        <v>1</v>
+      </c>
+      <c r="P397">
+        <v>3.91</v>
+      </c>
+      <c r="Q397">
+        <v>25.2</v>
+      </c>
+      <c r="R397">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S397">
+        <v>17</v>
+      </c>
+      <c r="T397">
+        <v>3</v>
+      </c>
+      <c r="U397">
+        <v>20</v>
+      </c>
+      <c r="V397">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B02B21-2EA7-0D45-941F-EAE11FF237D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D527A6-74C0-9C42-A360-1C53077F6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="391">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1167,6 +1167,48 @@
   </si>
   <si>
     <t>01:07:52</t>
+  </si>
+  <si>
+    <t>01:42:54</t>
+  </si>
+  <si>
+    <t>01:43:11</t>
+  </si>
+  <si>
+    <t>00:19:20</t>
+  </si>
+  <si>
+    <t>01:24:48</t>
+  </si>
+  <si>
+    <t>01:42:28</t>
+  </si>
+  <si>
+    <t>00:56:56</t>
+  </si>
+  <si>
+    <t>00:19:29</t>
+  </si>
+  <si>
+    <t>00:25:23</t>
+  </si>
+  <si>
+    <t>01:18:04</t>
+  </si>
+  <si>
+    <t>00:33:20</t>
+  </si>
+  <si>
+    <t>01:11:12</t>
+  </si>
+  <si>
+    <t>01:23:50</t>
+  </si>
+  <si>
+    <t>01:43:43</t>
+  </si>
+  <si>
+    <t>N3 J2 VS Alès</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V397"/>
+  <dimension ref="A1:V411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F414" sqref="F414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27537,6 +27579,916 @@
         <v>2</v>
       </c>
     </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>390</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C398" t="s">
+        <v>20</v>
+      </c>
+      <c r="E398" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" t="s">
+        <v>29</v>
+      </c>
+      <c r="G398" t="s">
+        <v>377</v>
+      </c>
+      <c r="H398">
+        <v>11.13</v>
+      </c>
+      <c r="I398">
+        <v>1.7</v>
+      </c>
+      <c r="J398">
+        <v>9.4</v>
+      </c>
+      <c r="K398">
+        <v>1.24</v>
+      </c>
+      <c r="L398">
+        <v>0.42</v>
+      </c>
+      <c r="M398">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+      <c r="O398">
+        <v>4</v>
+      </c>
+      <c r="P398">
+        <v>6.46</v>
+      </c>
+      <c r="Q398">
+        <v>28.56</v>
+      </c>
+      <c r="R398">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S398">
+        <v>51</v>
+      </c>
+      <c r="T398">
+        <v>12</v>
+      </c>
+      <c r="U398">
+        <v>49</v>
+      </c>
+      <c r="V398">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>390</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C399" t="s">
+        <v>20</v>
+      </c>
+      <c r="E399" t="s">
+        <v>48</v>
+      </c>
+      <c r="F399" t="s">
+        <v>29</v>
+      </c>
+      <c r="G399" t="s">
+        <v>378</v>
+      </c>
+      <c r="H399">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="I399">
+        <v>1.17</v>
+      </c>
+      <c r="J399">
+        <v>8.77</v>
+      </c>
+      <c r="K399">
+        <v>0.94</v>
+      </c>
+      <c r="L399">
+        <v>0.21</v>
+      </c>
+      <c r="M399">
+        <v>0.04</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+      <c r="O399">
+        <v>3</v>
+      </c>
+      <c r="P399">
+        <v>5.65</v>
+      </c>
+      <c r="Q399">
+        <v>29.69</v>
+      </c>
+      <c r="R399">
+        <v>4.37</v>
+      </c>
+      <c r="S399">
+        <v>24</v>
+      </c>
+      <c r="T399">
+        <v>4</v>
+      </c>
+      <c r="U399">
+        <v>28</v>
+      </c>
+      <c r="V399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>390</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C400" t="s">
+        <v>20</v>
+      </c>
+      <c r="E400" t="s">
+        <v>55</v>
+      </c>
+      <c r="F400" t="s">
+        <v>32</v>
+      </c>
+      <c r="G400" t="s">
+        <v>377</v>
+      </c>
+      <c r="H400">
+        <v>11.07</v>
+      </c>
+      <c r="I400">
+        <v>1.73</v>
+      </c>
+      <c r="J400">
+        <v>9.33</v>
+      </c>
+      <c r="K400">
+        <v>1.33</v>
+      </c>
+      <c r="L400">
+        <v>0.36</v>
+      </c>
+      <c r="M400">
+        <v>0.05</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400">
+        <v>8</v>
+      </c>
+      <c r="P400">
+        <v>6.34</v>
+      </c>
+      <c r="Q400">
+        <v>26.65</v>
+      </c>
+      <c r="R400">
+        <v>4.92</v>
+      </c>
+      <c r="S400">
+        <v>38</v>
+      </c>
+      <c r="T400">
+        <v>7</v>
+      </c>
+      <c r="U400">
+        <v>35</v>
+      </c>
+      <c r="V400">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>390</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C401" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" t="s">
+        <v>164</v>
+      </c>
+      <c r="F401" t="s">
+        <v>32</v>
+      </c>
+      <c r="G401" t="s">
+        <v>379</v>
+      </c>
+      <c r="H401">
+        <v>2.27</v>
+      </c>
+      <c r="I401">
+        <v>0.51</v>
+      </c>
+      <c r="J401">
+        <v>1.75</v>
+      </c>
+      <c r="K401">
+        <v>0.41</v>
+      </c>
+      <c r="L401">
+        <v>0.08</v>
+      </c>
+      <c r="M401">
+        <v>0.03</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+      <c r="O401">
+        <v>2</v>
+      </c>
+      <c r="P401">
+        <v>7.01</v>
+      </c>
+      <c r="Q401">
+        <v>29.41</v>
+      </c>
+      <c r="R401">
+        <v>4.05</v>
+      </c>
+      <c r="S401">
+        <v>6</v>
+      </c>
+      <c r="T401">
+        <v>1</v>
+      </c>
+      <c r="U401">
+        <v>16</v>
+      </c>
+      <c r="V401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>390</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C402" t="s">
+        <v>20</v>
+      </c>
+      <c r="E402" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402" t="s">
+        <v>30</v>
+      </c>
+      <c r="G402" t="s">
+        <v>380</v>
+      </c>
+      <c r="H402">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I402">
+        <v>1.68</v>
+      </c>
+      <c r="J402">
+        <v>7.24</v>
+      </c>
+      <c r="K402">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L402">
+        <v>0.49</v>
+      </c>
+      <c r="M402">
+        <v>0.11</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+      <c r="O402">
+        <v>11</v>
+      </c>
+      <c r="P402">
+        <v>6.22</v>
+      </c>
+      <c r="Q402">
+        <v>28.37</v>
+      </c>
+      <c r="R402">
+        <v>4.62</v>
+      </c>
+      <c r="S402">
+        <v>44</v>
+      </c>
+      <c r="T402">
+        <v>5</v>
+      </c>
+      <c r="U402">
+        <v>31</v>
+      </c>
+      <c r="V402">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>390</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C403" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403" t="s">
+        <v>93</v>
+      </c>
+      <c r="F403" t="s">
+        <v>31</v>
+      </c>
+      <c r="G403" t="s">
+        <v>381</v>
+      </c>
+      <c r="H403">
+        <v>9.42</v>
+      </c>
+      <c r="I403">
+        <v>1.78</v>
+      </c>
+      <c r="J403">
+        <v>7.62</v>
+      </c>
+      <c r="K403">
+        <v>0.97</v>
+      </c>
+      <c r="L403">
+        <v>0.46</v>
+      </c>
+      <c r="M403">
+        <v>0.22</v>
+      </c>
+      <c r="N403">
+        <v>0.15</v>
+      </c>
+      <c r="O403">
+        <v>14</v>
+      </c>
+      <c r="P403">
+        <v>5.48</v>
+      </c>
+      <c r="Q403">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="R403">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S403">
+        <v>39</v>
+      </c>
+      <c r="T403">
+        <v>11</v>
+      </c>
+      <c r="U403">
+        <v>28</v>
+      </c>
+      <c r="V403">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>390</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" t="s">
+        <v>24</v>
+      </c>
+      <c r="F404" t="s">
+        <v>32</v>
+      </c>
+      <c r="G404" t="s">
+        <v>382</v>
+      </c>
+      <c r="H404">
+        <v>6.76</v>
+      </c>
+      <c r="I404">
+        <v>1.05</v>
+      </c>
+      <c r="J404">
+        <v>5.71</v>
+      </c>
+      <c r="K404">
+        <v>0.73</v>
+      </c>
+      <c r="L404">
+        <v>0.22</v>
+      </c>
+      <c r="M404">
+        <v>0.08</v>
+      </c>
+      <c r="N404">
+        <v>0.02</v>
+      </c>
+      <c r="O404">
+        <v>4</v>
+      </c>
+      <c r="P404">
+        <v>7.03</v>
+      </c>
+      <c r="Q404">
+        <v>31.22</v>
+      </c>
+      <c r="R404">
+        <v>4.08</v>
+      </c>
+      <c r="S404">
+        <v>18</v>
+      </c>
+      <c r="T404">
+        <v>2</v>
+      </c>
+      <c r="U404">
+        <v>15</v>
+      </c>
+      <c r="V404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>390</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C405" t="s">
+        <v>20</v>
+      </c>
+      <c r="E405" t="s">
+        <v>54</v>
+      </c>
+      <c r="F405" t="s">
+        <v>28</v>
+      </c>
+      <c r="G405" t="s">
+        <v>383</v>
+      </c>
+      <c r="H405">
+        <v>1.89</v>
+      </c>
+      <c r="I405">
+        <v>0.3</v>
+      </c>
+      <c r="J405">
+        <v>1.59</v>
+      </c>
+      <c r="K405">
+        <v>0.16</v>
+      </c>
+      <c r="L405">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M405">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N405">
+        <v>0.01</v>
+      </c>
+      <c r="O405">
+        <v>5</v>
+      </c>
+      <c r="P405">
+        <v>5.81</v>
+      </c>
+      <c r="Q405">
+        <v>30.46</v>
+      </c>
+      <c r="R405">
+        <v>4.25</v>
+      </c>
+      <c r="S405">
+        <v>9</v>
+      </c>
+      <c r="T405">
+        <v>1</v>
+      </c>
+      <c r="U405">
+        <v>7</v>
+      </c>
+      <c r="V405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>390</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" t="s">
+        <v>43</v>
+      </c>
+      <c r="F406" t="s">
+        <v>34</v>
+      </c>
+      <c r="G406" t="s">
+        <v>384</v>
+      </c>
+      <c r="H406">
+        <v>2.97</v>
+      </c>
+      <c r="I406">
+        <v>0.65</v>
+      </c>
+      <c r="J406">
+        <v>2.31</v>
+      </c>
+      <c r="K406">
+        <v>0.42</v>
+      </c>
+      <c r="L406">
+        <v>0.22</v>
+      </c>
+      <c r="M406">
+        <v>0.01</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+      <c r="O406">
+        <v>2</v>
+      </c>
+      <c r="P406">
+        <v>6.97</v>
+      </c>
+      <c r="Q406">
+        <v>25.7</v>
+      </c>
+      <c r="R406">
+        <v>4.13</v>
+      </c>
+      <c r="S406">
+        <v>12</v>
+      </c>
+      <c r="T406">
+        <v>1</v>
+      </c>
+      <c r="U406">
+        <v>13</v>
+      </c>
+      <c r="V406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>390</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C407" t="s">
+        <v>20</v>
+      </c>
+      <c r="E407" t="s">
+        <v>40</v>
+      </c>
+      <c r="F407" t="s">
+        <v>28</v>
+      </c>
+      <c r="G407" t="s">
+        <v>385</v>
+      </c>
+      <c r="H407">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I407">
+        <v>1.7</v>
+      </c>
+      <c r="J407">
+        <v>7.06</v>
+      </c>
+      <c r="K407">
+        <v>1.03</v>
+      </c>
+      <c r="L407">
+        <v>0.52</v>
+      </c>
+      <c r="M407">
+        <v>0.17</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+      <c r="O407">
+        <v>15</v>
+      </c>
+      <c r="P407">
+        <v>6.67</v>
+      </c>
+      <c r="Q407">
+        <v>29.26</v>
+      </c>
+      <c r="R407">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S407">
+        <v>33</v>
+      </c>
+      <c r="T407">
+        <v>12</v>
+      </c>
+      <c r="U407">
+        <v>45</v>
+      </c>
+      <c r="V407">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>390</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C408" t="s">
+        <v>20</v>
+      </c>
+      <c r="E408" t="s">
+        <v>53</v>
+      </c>
+      <c r="F408" t="s">
+        <v>32</v>
+      </c>
+      <c r="G408" t="s">
+        <v>386</v>
+      </c>
+      <c r="H408">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I408">
+        <v>0.92</v>
+      </c>
+      <c r="J408">
+        <v>3.08</v>
+      </c>
+      <c r="K408">
+        <v>0.68</v>
+      </c>
+      <c r="L408">
+        <v>0.23</v>
+      </c>
+      <c r="M408">
+        <v>0.02</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <v>6</v>
+      </c>
+      <c r="P408">
+        <v>7.21</v>
+      </c>
+      <c r="Q408">
+        <v>25.76</v>
+      </c>
+      <c r="R408">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S408">
+        <v>17</v>
+      </c>
+      <c r="T408">
+        <v>2</v>
+      </c>
+      <c r="U408">
+        <v>9</v>
+      </c>
+      <c r="V408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>390</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C409" t="s">
+        <v>20</v>
+      </c>
+      <c r="E409" t="s">
+        <v>245</v>
+      </c>
+      <c r="F409" t="s">
+        <v>32</v>
+      </c>
+      <c r="G409" t="s">
+        <v>387</v>
+      </c>
+      <c r="H409">
+        <v>7.27</v>
+      </c>
+      <c r="I409">
+        <v>0.86</v>
+      </c>
+      <c r="J409">
+        <v>6.39</v>
+      </c>
+      <c r="K409">
+        <v>0.64</v>
+      </c>
+      <c r="L409">
+        <v>0.19</v>
+      </c>
+      <c r="M409">
+        <v>0.05</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+      <c r="O409">
+        <v>5</v>
+      </c>
+      <c r="P409">
+        <v>6.02</v>
+      </c>
+      <c r="Q409">
+        <v>29.28</v>
+      </c>
+      <c r="R409">
+        <v>4.51</v>
+      </c>
+      <c r="S409">
+        <v>24</v>
+      </c>
+      <c r="T409">
+        <v>7</v>
+      </c>
+      <c r="U409">
+        <v>23</v>
+      </c>
+      <c r="V409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>390</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410" t="s">
+        <v>38</v>
+      </c>
+      <c r="F410" t="s">
+        <v>34</v>
+      </c>
+      <c r="G410" t="s">
+        <v>388</v>
+      </c>
+      <c r="H410">
+        <v>8.23</v>
+      </c>
+      <c r="I410">
+        <v>1.39</v>
+      </c>
+      <c r="J410">
+        <v>6.81</v>
+      </c>
+      <c r="K410">
+        <v>0.81</v>
+      </c>
+      <c r="L410">
+        <v>0.51</v>
+      </c>
+      <c r="M410">
+        <v>0.09</v>
+      </c>
+      <c r="N410">
+        <v>0.01</v>
+      </c>
+      <c r="O410">
+        <v>7</v>
+      </c>
+      <c r="P410">
+        <v>5.79</v>
+      </c>
+      <c r="Q410">
+        <v>30.62</v>
+      </c>
+      <c r="R410">
+        <v>4.97</v>
+      </c>
+      <c r="S410">
+        <v>26</v>
+      </c>
+      <c r="T410">
+        <v>1</v>
+      </c>
+      <c r="U410">
+        <v>29</v>
+      </c>
+      <c r="V410">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>390</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C411" t="s">
+        <v>20</v>
+      </c>
+      <c r="E411" t="s">
+        <v>52</v>
+      </c>
+      <c r="F411" t="s">
+        <v>33</v>
+      </c>
+      <c r="G411" t="s">
+        <v>389</v>
+      </c>
+      <c r="H411">
+        <v>11.97</v>
+      </c>
+      <c r="I411">
+        <v>1.96</v>
+      </c>
+      <c r="J411">
+        <v>9.99</v>
+      </c>
+      <c r="K411">
+        <v>1.23</v>
+      </c>
+      <c r="L411">
+        <v>0.51</v>
+      </c>
+      <c r="M411">
+        <v>0.21</v>
+      </c>
+      <c r="N411">
+        <v>0.03</v>
+      </c>
+      <c r="O411">
+        <v>12</v>
+      </c>
+      <c r="P411">
+        <v>6.76</v>
+      </c>
+      <c r="Q411">
+        <v>31.91</v>
+      </c>
+      <c r="R411">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S411">
+        <v>32</v>
+      </c>
+      <c r="T411">
+        <v>12</v>
+      </c>
+      <c r="U411">
+        <v>28</v>
+      </c>
+      <c r="V411">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D527A6-74C0-9C42-A360-1C53077F6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59CFE0-0B80-CB49-8797-8F6A6B384BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="397">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1209,6 +1209,24 @@
   </si>
   <si>
     <t>N3 J2 VS Alès</t>
+  </si>
+  <si>
+    <t>01:31:50</t>
+  </si>
+  <si>
+    <t>01:29:24</t>
+  </si>
+  <si>
+    <t>01:31:51</t>
+  </si>
+  <si>
+    <t>01:30:47</t>
+  </si>
+  <si>
+    <t>01:33:14</t>
+  </si>
+  <si>
+    <t>J+3</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V411"/>
+  <dimension ref="A1:V416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F414" sqref="F414"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F419" sqref="F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28489,6 +28507,346 @@
         <v>13</v>
       </c>
     </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C412" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E412" t="s">
+        <v>164</v>
+      </c>
+      <c r="F412" t="s">
+        <v>32</v>
+      </c>
+      <c r="G412" t="s">
+        <v>391</v>
+      </c>
+      <c r="H412">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I412">
+        <v>0.4</v>
+      </c>
+      <c r="J412">
+        <v>7.87</v>
+      </c>
+      <c r="K412">
+        <v>0.41</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412">
+        <v>0</v>
+      </c>
+      <c r="P412">
+        <v>5.32</v>
+      </c>
+      <c r="Q412">
+        <v>20.13</v>
+      </c>
+      <c r="R412">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S412">
+        <v>41</v>
+      </c>
+      <c r="T412">
+        <v>4</v>
+      </c>
+      <c r="U412">
+        <v>43</v>
+      </c>
+      <c r="V412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C413" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E413" t="s">
+        <v>40</v>
+      </c>
+      <c r="F413" t="s">
+        <v>31</v>
+      </c>
+      <c r="G413" t="s">
+        <v>392</v>
+      </c>
+      <c r="H413">
+        <v>6.73</v>
+      </c>
+      <c r="I413">
+        <v>0.32</v>
+      </c>
+      <c r="J413">
+        <v>6.4</v>
+      </c>
+      <c r="K413">
+        <v>0.25</v>
+      </c>
+      <c r="L413">
+        <v>0.08</v>
+      </c>
+      <c r="M413">
+        <v>0.01</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413">
+        <v>3</v>
+      </c>
+      <c r="P413">
+        <v>4.21</v>
+      </c>
+      <c r="Q413">
+        <v>26.13</v>
+      </c>
+      <c r="R413">
+        <v>5.4</v>
+      </c>
+      <c r="S413">
+        <v>76</v>
+      </c>
+      <c r="T413">
+        <v>20</v>
+      </c>
+      <c r="U413">
+        <v>50</v>
+      </c>
+      <c r="V413">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>23</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C414" t="s">
+        <v>20</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E414" t="s">
+        <v>55</v>
+      </c>
+      <c r="F414" t="s">
+        <v>32</v>
+      </c>
+      <c r="G414" t="s">
+        <v>393</v>
+      </c>
+      <c r="H414">
+        <v>7.66</v>
+      </c>
+      <c r="I414">
+        <v>0.37</v>
+      </c>
+      <c r="J414">
+        <v>7.28</v>
+      </c>
+      <c r="K414">
+        <v>0.35</v>
+      </c>
+      <c r="L414">
+        <v>0.03</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="P414">
+        <v>4.93</v>
+      </c>
+      <c r="Q414">
+        <v>21.72</v>
+      </c>
+      <c r="R414">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S414">
+        <v>45</v>
+      </c>
+      <c r="T414">
+        <v>5</v>
+      </c>
+      <c r="U414">
+        <v>36</v>
+      </c>
+      <c r="V414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>23</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C415" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E415" t="s">
+        <v>35</v>
+      </c>
+      <c r="F415" t="s">
+        <v>34</v>
+      </c>
+      <c r="G415" t="s">
+        <v>394</v>
+      </c>
+      <c r="H415">
+        <v>7.81</v>
+      </c>
+      <c r="I415">
+        <v>0.46</v>
+      </c>
+      <c r="J415">
+        <v>7.34</v>
+      </c>
+      <c r="K415">
+        <v>0.44</v>
+      </c>
+      <c r="L415">
+        <v>0.03</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="P415">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q415">
+        <v>21.99</v>
+      </c>
+      <c r="R415">
+        <v>4.63</v>
+      </c>
+      <c r="S415">
+        <v>41</v>
+      </c>
+      <c r="T415">
+        <v>9</v>
+      </c>
+      <c r="U415">
+        <v>40</v>
+      </c>
+      <c r="V415">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>23</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C416" t="s">
+        <v>20</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E416" t="s">
+        <v>52</v>
+      </c>
+      <c r="F416" t="s">
+        <v>33</v>
+      </c>
+      <c r="G416" t="s">
+        <v>395</v>
+      </c>
+      <c r="H416">
+        <v>8.01</v>
+      </c>
+      <c r="I416">
+        <v>0.4</v>
+      </c>
+      <c r="J416">
+        <v>7.6</v>
+      </c>
+      <c r="K416">
+        <v>0.37</v>
+      </c>
+      <c r="L416">
+        <v>0.04</v>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416">
+        <v>5.07</v>
+      </c>
+      <c r="Q416">
+        <v>22.71</v>
+      </c>
+      <c r="R416">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S416">
+        <v>49</v>
+      </c>
+      <c r="T416">
+        <v>6</v>
+      </c>
+      <c r="U416">
+        <v>33</v>
+      </c>
+      <c r="V416">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59CFE0-0B80-CB49-8797-8F6A6B384BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790B3BD-CEB0-204E-87B0-04A62ECB421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="409">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1227,6 +1227,42 @@
   </si>
   <si>
     <t>J+3</t>
+  </si>
+  <si>
+    <t>01:26:49</t>
+  </si>
+  <si>
+    <t>01:26:03</t>
+  </si>
+  <si>
+    <t>01:29:06</t>
+  </si>
+  <si>
+    <t>01:26:26</t>
+  </si>
+  <si>
+    <t>01:27:42</t>
+  </si>
+  <si>
+    <t>01:25:25</t>
+  </si>
+  <si>
+    <t>01:25:09</t>
+  </si>
+  <si>
+    <t>01:28:04</t>
+  </si>
+  <si>
+    <t>01:25:16</t>
+  </si>
+  <si>
+    <t>01:25:24</t>
+  </si>
+  <si>
+    <t>01:26:55</t>
+  </si>
+  <si>
+    <t>01:25:40</t>
   </si>
 </sst>
 </file>
@@ -1619,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V416"/>
+  <dimension ref="A1:V429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F419" sqref="F419"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D432" sqref="D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28847,6 +28883,890 @@
         <v>6</v>
       </c>
     </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>23</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C417" t="s">
+        <v>20</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E417" t="s">
+        <v>52</v>
+      </c>
+      <c r="F417" t="s">
+        <v>33</v>
+      </c>
+      <c r="G417" t="s">
+        <v>397</v>
+      </c>
+      <c r="H417">
+        <v>7.06</v>
+      </c>
+      <c r="I417">
+        <v>0.99</v>
+      </c>
+      <c r="J417">
+        <v>6.05</v>
+      </c>
+      <c r="K417">
+        <v>0.59</v>
+      </c>
+      <c r="L417">
+        <v>0.3</v>
+      </c>
+      <c r="M417">
+        <v>0.12</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417">
+        <v>8</v>
+      </c>
+      <c r="P417">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="Q417">
+        <v>30.08</v>
+      </c>
+      <c r="R417">
+        <v>4.22</v>
+      </c>
+      <c r="S417">
+        <v>31</v>
+      </c>
+      <c r="T417">
+        <v>3</v>
+      </c>
+      <c r="U417">
+        <v>12</v>
+      </c>
+      <c r="V417">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>23</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C418" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E418" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" t="s">
+        <v>29</v>
+      </c>
+      <c r="G418" t="s">
+        <v>398</v>
+      </c>
+      <c r="H418">
+        <v>6.23</v>
+      </c>
+      <c r="I418">
+        <v>0.5</v>
+      </c>
+      <c r="J418">
+        <v>5.72</v>
+      </c>
+      <c r="K418">
+        <v>0.39</v>
+      </c>
+      <c r="L418">
+        <v>0.11</v>
+      </c>
+      <c r="M418">
+        <v>0.01</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418">
+        <v>2</v>
+      </c>
+      <c r="P418">
+        <v>4.22</v>
+      </c>
+      <c r="Q418">
+        <v>25.21</v>
+      </c>
+      <c r="R418">
+        <v>4.05</v>
+      </c>
+      <c r="S418">
+        <v>19</v>
+      </c>
+      <c r="T418">
+        <v>2</v>
+      </c>
+      <c r="U418">
+        <v>14</v>
+      </c>
+      <c r="V418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C419" t="s">
+        <v>20</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E419" t="s">
+        <v>54</v>
+      </c>
+      <c r="F419" t="s">
+        <v>28</v>
+      </c>
+      <c r="G419" t="s">
+        <v>399</v>
+      </c>
+      <c r="H419">
+        <v>6.31</v>
+      </c>
+      <c r="I419">
+        <v>0.8</v>
+      </c>
+      <c r="J419">
+        <v>5.5</v>
+      </c>
+      <c r="K419">
+        <v>0.39</v>
+      </c>
+      <c r="L419">
+        <v>0.34</v>
+      </c>
+      <c r="M419">
+        <v>0.09</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419">
+        <v>10</v>
+      </c>
+      <c r="P419">
+        <v>4.18</v>
+      </c>
+      <c r="Q419">
+        <v>29.46</v>
+      </c>
+      <c r="R419">
+        <v>5.05</v>
+      </c>
+      <c r="S419">
+        <v>25</v>
+      </c>
+      <c r="T419">
+        <v>5</v>
+      </c>
+      <c r="U419">
+        <v>14</v>
+      </c>
+      <c r="V419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>23</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C420" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E420" t="s">
+        <v>35</v>
+      </c>
+      <c r="F420" t="s">
+        <v>34</v>
+      </c>
+      <c r="G420" t="s">
+        <v>400</v>
+      </c>
+      <c r="H420">
+        <v>6.61</v>
+      </c>
+      <c r="I420">
+        <v>0.98</v>
+      </c>
+      <c r="J420">
+        <v>5.62</v>
+      </c>
+      <c r="K420">
+        <v>0.52</v>
+      </c>
+      <c r="L420">
+        <v>0.38</v>
+      </c>
+      <c r="M420">
+        <v>0.1</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+      <c r="O420">
+        <v>8</v>
+      </c>
+      <c r="P420">
+        <v>4.55</v>
+      </c>
+      <c r="Q420">
+        <v>28.66</v>
+      </c>
+      <c r="R420">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S420">
+        <v>30</v>
+      </c>
+      <c r="T420">
+        <v>12</v>
+      </c>
+      <c r="U420">
+        <v>21</v>
+      </c>
+      <c r="V420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>23</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C421" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E421" t="s">
+        <v>164</v>
+      </c>
+      <c r="F421" t="s">
+        <v>32</v>
+      </c>
+      <c r="G421" t="s">
+        <v>401</v>
+      </c>
+      <c r="H421">
+        <v>6.5</v>
+      </c>
+      <c r="I421">
+        <v>0.87</v>
+      </c>
+      <c r="J421">
+        <v>5.62</v>
+      </c>
+      <c r="K421">
+        <v>0.47</v>
+      </c>
+      <c r="L421">
+        <v>0.31</v>
+      </c>
+      <c r="M421">
+        <v>0.09</v>
+      </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+      <c r="O421">
+        <v>9</v>
+      </c>
+      <c r="P421">
+        <v>4.37</v>
+      </c>
+      <c r="Q421">
+        <v>28.95</v>
+      </c>
+      <c r="R421">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S421">
+        <v>23</v>
+      </c>
+      <c r="T421">
+        <v>6</v>
+      </c>
+      <c r="U421">
+        <v>15</v>
+      </c>
+      <c r="V421">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C422" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E422" t="s">
+        <v>40</v>
+      </c>
+      <c r="F422" t="s">
+        <v>31</v>
+      </c>
+      <c r="G422" t="s">
+        <v>331</v>
+      </c>
+      <c r="H422">
+        <v>6.12</v>
+      </c>
+      <c r="I422">
+        <v>0.95</v>
+      </c>
+      <c r="J422">
+        <v>5.15</v>
+      </c>
+      <c r="K422">
+        <v>0.47</v>
+      </c>
+      <c r="L422">
+        <v>0.35</v>
+      </c>
+      <c r="M422">
+        <v>0.15</v>
+      </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+      <c r="O422">
+        <v>13</v>
+      </c>
+      <c r="P422">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Q422">
+        <v>29.22</v>
+      </c>
+      <c r="R422">
+        <v>5.2</v>
+      </c>
+      <c r="S422">
+        <v>28</v>
+      </c>
+      <c r="T422">
+        <v>8</v>
+      </c>
+      <c r="U422">
+        <v>20</v>
+      </c>
+      <c r="V422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C423" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E423" t="s">
+        <v>43</v>
+      </c>
+      <c r="F423" t="s">
+        <v>34</v>
+      </c>
+      <c r="G423" t="s">
+        <v>402</v>
+      </c>
+      <c r="H423">
+        <v>6.95</v>
+      </c>
+      <c r="I423">
+        <v>1.18</v>
+      </c>
+      <c r="J423">
+        <v>5.75</v>
+      </c>
+      <c r="K423">
+        <v>0.65</v>
+      </c>
+      <c r="L423">
+        <v>0.38</v>
+      </c>
+      <c r="M423">
+        <v>0.16</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+      <c r="O423">
+        <v>10</v>
+      </c>
+      <c r="P423">
+        <v>4.8</v>
+      </c>
+      <c r="Q423">
+        <v>28.75</v>
+      </c>
+      <c r="R423">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S423">
+        <v>25</v>
+      </c>
+      <c r="T423">
+        <v>6</v>
+      </c>
+      <c r="U423">
+        <v>17</v>
+      </c>
+      <c r="V423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>23</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C424" t="s">
+        <v>20</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E424" t="s">
+        <v>55</v>
+      </c>
+      <c r="F424" t="s">
+        <v>32</v>
+      </c>
+      <c r="G424" t="s">
+        <v>403</v>
+      </c>
+      <c r="H424">
+        <v>7.77</v>
+      </c>
+      <c r="I424">
+        <v>1.24</v>
+      </c>
+      <c r="J424">
+        <v>6.51</v>
+      </c>
+      <c r="K424">
+        <v>0.83</v>
+      </c>
+      <c r="L424">
+        <v>0.35</v>
+      </c>
+      <c r="M424">
+        <v>0.08</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+      <c r="O424">
+        <v>8</v>
+      </c>
+      <c r="P424">
+        <v>5.42</v>
+      </c>
+      <c r="Q424">
+        <v>29.22</v>
+      </c>
+      <c r="R424">
+        <v>4.51</v>
+      </c>
+      <c r="S424">
+        <v>29</v>
+      </c>
+      <c r="T424">
+        <v>6</v>
+      </c>
+      <c r="U424">
+        <v>17</v>
+      </c>
+      <c r="V424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>23</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C425" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E425" t="s">
+        <v>53</v>
+      </c>
+      <c r="F425" t="s">
+        <v>32</v>
+      </c>
+      <c r="G425" t="s">
+        <v>404</v>
+      </c>
+      <c r="H425">
+        <v>7.43</v>
+      </c>
+      <c r="I425">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J425">
+        <v>6.27</v>
+      </c>
+      <c r="K425">
+        <v>0.76</v>
+      </c>
+      <c r="L425">
+        <v>0.31</v>
+      </c>
+      <c r="M425">
+        <v>0.09</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>9</v>
+      </c>
+      <c r="P425">
+        <v>4.99</v>
+      </c>
+      <c r="Q425">
+        <v>28.52</v>
+      </c>
+      <c r="R425">
+        <v>4.37</v>
+      </c>
+      <c r="S425">
+        <v>29</v>
+      </c>
+      <c r="T425">
+        <v>2</v>
+      </c>
+      <c r="U425">
+        <v>13</v>
+      </c>
+      <c r="V425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>23</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C426" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E426" t="s">
+        <v>48</v>
+      </c>
+      <c r="F426" t="s">
+        <v>29</v>
+      </c>
+      <c r="G426" t="s">
+        <v>405</v>
+      </c>
+      <c r="H426">
+        <v>5.66</v>
+      </c>
+      <c r="I426">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J426">
+        <v>5.07</v>
+      </c>
+      <c r="K426">
+        <v>0.44</v>
+      </c>
+      <c r="L426">
+        <v>0.15</v>
+      </c>
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426">
+        <v>0</v>
+      </c>
+      <c r="O426">
+        <v>0</v>
+      </c>
+      <c r="P426">
+        <v>3.87</v>
+      </c>
+      <c r="Q426">
+        <v>24.8</v>
+      </c>
+      <c r="R426">
+        <v>4.96</v>
+      </c>
+      <c r="S426">
+        <v>19</v>
+      </c>
+      <c r="T426">
+        <v>2</v>
+      </c>
+      <c r="U426">
+        <v>15</v>
+      </c>
+      <c r="V426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>23</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C427" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E427" t="s">
+        <v>50</v>
+      </c>
+      <c r="F427" t="s">
+        <v>33</v>
+      </c>
+      <c r="G427" t="s">
+        <v>406</v>
+      </c>
+      <c r="H427">
+        <v>6.45</v>
+      </c>
+      <c r="I427">
+        <v>0.85</v>
+      </c>
+      <c r="J427">
+        <v>5.59</v>
+      </c>
+      <c r="K427">
+        <v>0.44</v>
+      </c>
+      <c r="L427">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M427">
+        <v>0.13</v>
+      </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
+        <v>11</v>
+      </c>
+      <c r="P427">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q427">
+        <v>27.37</v>
+      </c>
+      <c r="R427">
+        <v>4.53</v>
+      </c>
+      <c r="S427">
+        <v>26</v>
+      </c>
+      <c r="T427">
+        <v>5</v>
+      </c>
+      <c r="U427">
+        <v>21</v>
+      </c>
+      <c r="V427">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>23</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C428" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E428" t="s">
+        <v>38</v>
+      </c>
+      <c r="F428" t="s">
+        <v>34</v>
+      </c>
+      <c r="G428" t="s">
+        <v>407</v>
+      </c>
+      <c r="H428">
+        <v>6.73</v>
+      </c>
+      <c r="I428">
+        <v>1.01</v>
+      </c>
+      <c r="J428">
+        <v>5.7</v>
+      </c>
+      <c r="K428">
+        <v>0.62</v>
+      </c>
+      <c r="L428">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M428">
+        <v>0.11</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428">
+        <v>11</v>
+      </c>
+      <c r="P428">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Q428">
+        <v>27.24</v>
+      </c>
+      <c r="R428">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S428">
+        <v>27</v>
+      </c>
+      <c r="T428">
+        <v>1</v>
+      </c>
+      <c r="U428">
+        <v>17</v>
+      </c>
+      <c r="V428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>23</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C429" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E429" t="s">
+        <v>16</v>
+      </c>
+      <c r="F429" t="s">
+        <v>30</v>
+      </c>
+      <c r="G429" t="s">
+        <v>408</v>
+      </c>
+      <c r="H429">
+        <v>6.98</v>
+      </c>
+      <c r="I429">
+        <v>0.86</v>
+      </c>
+      <c r="J429">
+        <v>6.11</v>
+      </c>
+      <c r="K429">
+        <v>0.6</v>
+      </c>
+      <c r="L429">
+        <v>0.26</v>
+      </c>
+      <c r="M429">
+        <v>0.01</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429">
+        <v>1</v>
+      </c>
+      <c r="P429">
+        <v>4.82</v>
+      </c>
+      <c r="Q429">
+        <v>25.87</v>
+      </c>
+      <c r="R429">
+        <v>4.33</v>
+      </c>
+      <c r="S429">
+        <v>28</v>
+      </c>
+      <c r="T429">
+        <v>2</v>
+      </c>
+      <c r="U429">
+        <v>7</v>
+      </c>
+      <c r="V429">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790B3BD-CEB0-204E-87B0-04A62ECB421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E89968-F84D-054B-9182-EA3F03769F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="414">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1263,6 +1263,21 @@
   </si>
   <si>
     <t>01:25:40</t>
+  </si>
+  <si>
+    <t>01:29:14</t>
+  </si>
+  <si>
+    <t>01:26:29</t>
+  </si>
+  <si>
+    <t>00:57:08</t>
+  </si>
+  <si>
+    <t>00:58:30</t>
+  </si>
+  <si>
+    <t>01:27:53</t>
   </si>
 </sst>
 </file>
@@ -1655,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V429"/>
+  <dimension ref="A1:V434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D432" sqref="D432"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29767,6 +29782,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>23</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C430" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E430" t="s">
+        <v>164</v>
+      </c>
+      <c r="F430" t="s">
+        <v>32</v>
+      </c>
+      <c r="G430" t="s">
+        <v>409</v>
+      </c>
+      <c r="H430">
+        <v>5.3</v>
+      </c>
+      <c r="I430">
+        <v>0.44</v>
+      </c>
+      <c r="J430">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K430">
+        <v>0.27</v>
+      </c>
+      <c r="L430">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M430">
+        <v>0.03</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430">
+        <v>5</v>
+      </c>
+      <c r="P430">
+        <v>3.49</v>
+      </c>
+      <c r="Q430">
+        <v>27.12</v>
+      </c>
+      <c r="R430">
+        <v>4.17</v>
+      </c>
+      <c r="S430">
+        <v>28</v>
+      </c>
+      <c r="T430">
+        <v>3</v>
+      </c>
+      <c r="U430">
+        <v>9</v>
+      </c>
+      <c r="V430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C431" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E431" t="s">
+        <v>40</v>
+      </c>
+      <c r="F431" t="s">
+        <v>31</v>
+      </c>
+      <c r="G431" t="s">
+        <v>410</v>
+      </c>
+      <c r="H431">
+        <v>4.25</v>
+      </c>
+      <c r="I431">
+        <v>0.18</v>
+      </c>
+      <c r="J431">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K431">
+        <v>0.17</v>
+      </c>
+      <c r="L431">
+        <v>0.01</v>
+      </c>
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431">
+        <v>0</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <v>2.63</v>
+      </c>
+      <c r="Q431">
+        <v>21.28</v>
+      </c>
+      <c r="R431">
+        <v>5.25</v>
+      </c>
+      <c r="S431">
+        <v>28</v>
+      </c>
+      <c r="T431">
+        <v>9</v>
+      </c>
+      <c r="U431">
+        <v>29</v>
+      </c>
+      <c r="V431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>23</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C432" t="s">
+        <v>20</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E432" t="s">
+        <v>53</v>
+      </c>
+      <c r="F432" t="s">
+        <v>32</v>
+      </c>
+      <c r="G432" t="s">
+        <v>411</v>
+      </c>
+      <c r="H432">
+        <v>3.23</v>
+      </c>
+      <c r="I432">
+        <v>0.12</v>
+      </c>
+      <c r="J432">
+        <v>3.11</v>
+      </c>
+      <c r="K432">
+        <v>0.12</v>
+      </c>
+      <c r="L432">
+        <v>0.01</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+      <c r="O432">
+        <v>0</v>
+      </c>
+      <c r="P432">
+        <v>3.26</v>
+      </c>
+      <c r="Q432">
+        <v>22.03</v>
+      </c>
+      <c r="R432">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S432">
+        <v>13</v>
+      </c>
+      <c r="T432">
+        <v>1</v>
+      </c>
+      <c r="U432">
+        <v>7</v>
+      </c>
+      <c r="V432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>23</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C433" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E433" t="s">
+        <v>52</v>
+      </c>
+      <c r="F433" t="s">
+        <v>33</v>
+      </c>
+      <c r="G433" t="s">
+        <v>412</v>
+      </c>
+      <c r="H433">
+        <v>3.45</v>
+      </c>
+      <c r="I433">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J433">
+        <v>3.17</v>
+      </c>
+      <c r="K433">
+        <v>0.09</v>
+      </c>
+      <c r="L433">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M433">
+        <v>0.04</v>
+      </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+      <c r="O433">
+        <v>5</v>
+      </c>
+      <c r="P433">
+        <v>3.43</v>
+      </c>
+      <c r="Q433">
+        <v>27.43</v>
+      </c>
+      <c r="R433">
+        <v>4.37</v>
+      </c>
+      <c r="S433">
+        <v>8</v>
+      </c>
+      <c r="T433">
+        <v>4</v>
+      </c>
+      <c r="U433">
+        <v>4</v>
+      </c>
+      <c r="V433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>23</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C434" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E434" t="s">
+        <v>54</v>
+      </c>
+      <c r="F434" t="s">
+        <v>28</v>
+      </c>
+      <c r="G434" t="s">
+        <v>413</v>
+      </c>
+      <c r="H434">
+        <v>4.18</v>
+      </c>
+      <c r="I434">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J434">
+        <v>4.03</v>
+      </c>
+      <c r="K434">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>0</v>
+      </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
+      <c r="P434">
+        <v>2.76</v>
+      </c>
+      <c r="Q434">
+        <v>19.64</v>
+      </c>
+      <c r="R434">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S434">
+        <v>16</v>
+      </c>
+      <c r="T434">
+        <v>8</v>
+      </c>
+      <c r="U434">
+        <v>4</v>
+      </c>
+      <c r="V434">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E89968-F84D-054B-9182-EA3F03769F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8F8FB-564A-5D46-83F0-4892303599AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="420">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1278,6 +1278,24 @@
   </si>
   <si>
     <t>01:27:53</t>
+  </si>
+  <si>
+    <t>01:02:37</t>
+  </si>
+  <si>
+    <t>01:05:23</t>
+  </si>
+  <si>
+    <t>01:04:58</t>
+  </si>
+  <si>
+    <t>01:05:25</t>
+  </si>
+  <si>
+    <t>01:04:26</t>
+  </si>
+  <si>
+    <t>01:04:51</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V434"/>
+  <dimension ref="A1:V440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C437" sqref="C437"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30122,6 +30140,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>23</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C435" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E435" t="s">
+        <v>40</v>
+      </c>
+      <c r="F435" t="s">
+        <v>31</v>
+      </c>
+      <c r="G435" t="s">
+        <v>414</v>
+      </c>
+      <c r="H435">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I435">
+        <v>0.12</v>
+      </c>
+      <c r="J435">
+        <v>3.94</v>
+      </c>
+      <c r="K435">
+        <v>0.11</v>
+      </c>
+      <c r="L435">
+        <v>0.01</v>
+      </c>
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435">
+        <v>3.51</v>
+      </c>
+      <c r="Q435">
+        <v>22.79</v>
+      </c>
+      <c r="R435">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S435">
+        <v>19</v>
+      </c>
+      <c r="T435">
+        <v>2</v>
+      </c>
+      <c r="U435">
+        <v>21</v>
+      </c>
+      <c r="V435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>23</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C436" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E436" t="s">
+        <v>35</v>
+      </c>
+      <c r="F436" t="s">
+        <v>34</v>
+      </c>
+      <c r="G436" t="s">
+        <v>415</v>
+      </c>
+      <c r="H436">
+        <v>5.22</v>
+      </c>
+      <c r="I436">
+        <v>0.33</v>
+      </c>
+      <c r="J436">
+        <v>4.88</v>
+      </c>
+      <c r="K436">
+        <v>0.26</v>
+      </c>
+      <c r="L436">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M436">
+        <v>0.01</v>
+      </c>
+      <c r="N436">
+        <v>0</v>
+      </c>
+      <c r="O436">
+        <v>1</v>
+      </c>
+      <c r="P436">
+        <v>4.74</v>
+      </c>
+      <c r="Q436">
+        <v>25.6</v>
+      </c>
+      <c r="R436">
+        <v>5.19</v>
+      </c>
+      <c r="S436">
+        <v>28</v>
+      </c>
+      <c r="T436">
+        <v>6</v>
+      </c>
+      <c r="U436">
+        <v>26</v>
+      </c>
+      <c r="V436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>23</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C437" t="s">
+        <v>20</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E437" t="s">
+        <v>54</v>
+      </c>
+      <c r="F437" t="s">
+        <v>28</v>
+      </c>
+      <c r="G437" t="s">
+        <v>416</v>
+      </c>
+      <c r="H437">
+        <v>3.75</v>
+      </c>
+      <c r="I437">
+        <v>0.03</v>
+      </c>
+      <c r="J437">
+        <v>3.71</v>
+      </c>
+      <c r="K437">
+        <v>0.03</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
+      <c r="P437">
+        <v>3.4</v>
+      </c>
+      <c r="Q437">
+        <v>18.66</v>
+      </c>
+      <c r="R437">
+        <v>4.26</v>
+      </c>
+      <c r="S437">
+        <v>18</v>
+      </c>
+      <c r="T437">
+        <v>1</v>
+      </c>
+      <c r="U437">
+        <v>5</v>
+      </c>
+      <c r="V437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>23</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C438" t="s">
+        <v>20</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E438" t="s">
+        <v>43</v>
+      </c>
+      <c r="F438" t="s">
+        <v>34</v>
+      </c>
+      <c r="G438" t="s">
+        <v>417</v>
+      </c>
+      <c r="H438">
+        <v>4.87</v>
+      </c>
+      <c r="I438">
+        <v>0.26</v>
+      </c>
+      <c r="J438">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K438">
+        <v>0.22</v>
+      </c>
+      <c r="L438">
+        <v>0.04</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438">
+        <v>1</v>
+      </c>
+      <c r="P438">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q438">
+        <v>25</v>
+      </c>
+      <c r="R438">
+        <v>5.12</v>
+      </c>
+      <c r="S438">
+        <v>36</v>
+      </c>
+      <c r="T438">
+        <v>4</v>
+      </c>
+      <c r="U438">
+        <v>20</v>
+      </c>
+      <c r="V438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>23</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C439" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E439" t="s">
+        <v>164</v>
+      </c>
+      <c r="F439" t="s">
+        <v>32</v>
+      </c>
+      <c r="G439" t="s">
+        <v>418</v>
+      </c>
+      <c r="H439">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I439">
+        <v>0.31</v>
+      </c>
+      <c r="J439">
+        <v>4.29</v>
+      </c>
+      <c r="K439">
+        <v>0.23</v>
+      </c>
+      <c r="L439">
+        <v>0.08</v>
+      </c>
+      <c r="M439">
+        <v>0.01</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439">
+        <v>2</v>
+      </c>
+      <c r="P439">
+        <v>4.16</v>
+      </c>
+      <c r="Q439">
+        <v>25.31</v>
+      </c>
+      <c r="R439">
+        <v>4.92</v>
+      </c>
+      <c r="S439">
+        <v>27</v>
+      </c>
+      <c r="T439">
+        <v>6</v>
+      </c>
+      <c r="U439">
+        <v>23</v>
+      </c>
+      <c r="V439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C440" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E440" t="s">
+        <v>52</v>
+      </c>
+      <c r="F440" t="s">
+        <v>33</v>
+      </c>
+      <c r="G440" t="s">
+        <v>419</v>
+      </c>
+      <c r="H440">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I440">
+        <v>0.24</v>
+      </c>
+      <c r="J440">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K440">
+        <v>0.2</v>
+      </c>
+      <c r="L440">
+        <v>0.05</v>
+      </c>
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440">
+        <v>0</v>
+      </c>
+      <c r="P440">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q440">
+        <v>24.6</v>
+      </c>
+      <c r="R440">
+        <v>4.21</v>
+      </c>
+      <c r="S440">
+        <v>20</v>
+      </c>
+      <c r="T440">
+        <v>3</v>
+      </c>
+      <c r="U440">
+        <v>10</v>
+      </c>
+      <c r="V440">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8F8FB-564A-5D46-83F0-4892303599AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CCEE9-A354-6C41-B573-917238555966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="436">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1296,6 +1296,54 @@
   </si>
   <si>
     <t>01:04:51</t>
+  </si>
+  <si>
+    <t>01:18:38</t>
+  </si>
+  <si>
+    <t>01:40:20</t>
+  </si>
+  <si>
+    <t>01:00:27</t>
+  </si>
+  <si>
+    <t>00:23:13</t>
+  </si>
+  <si>
+    <t>00:23:03</t>
+  </si>
+  <si>
+    <t>01:39:09</t>
+  </si>
+  <si>
+    <t>01:39:39</t>
+  </si>
+  <si>
+    <t>01:39:30</t>
+  </si>
+  <si>
+    <t>01:01:07</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>01:39:19</t>
+  </si>
+  <si>
+    <t>00:38:33</t>
+  </si>
+  <si>
+    <t>00:38:43</t>
+  </si>
+  <si>
+    <t>01:18:47</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N3 J3 VS OM (B)</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V440"/>
+  <dimension ref="A1:V454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E458" sqref="E458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23768,6 +23816,9 @@
       <c r="C340" t="s">
         <v>20</v>
       </c>
+      <c r="D340" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E340" t="s">
         <v>36</v>
       </c>
@@ -23833,6 +23884,9 @@
       <c r="C341" t="s">
         <v>20</v>
       </c>
+      <c r="D341" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E341" t="s">
         <v>38</v>
       </c>
@@ -23898,6 +23952,9 @@
       <c r="C342" t="s">
         <v>20</v>
       </c>
+      <c r="D342" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E342" t="s">
         <v>25</v>
       </c>
@@ -23963,6 +24020,9 @@
       <c r="C343" t="s">
         <v>20</v>
       </c>
+      <c r="D343" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E343" t="s">
         <v>54</v>
       </c>
@@ -24028,6 +24088,9 @@
       <c r="C344" t="s">
         <v>20</v>
       </c>
+      <c r="D344" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E344" t="s">
         <v>40</v>
       </c>
@@ -24093,6 +24156,9 @@
       <c r="C345" t="s">
         <v>20</v>
       </c>
+      <c r="D345" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E345" t="s">
         <v>93</v>
       </c>
@@ -24158,6 +24224,9 @@
       <c r="C346" t="s">
         <v>20</v>
       </c>
+      <c r="D346" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E346" t="s">
         <v>55</v>
       </c>
@@ -24223,6 +24292,9 @@
       <c r="C347" t="s">
         <v>20</v>
       </c>
+      <c r="D347" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E347" t="s">
         <v>52</v>
       </c>
@@ -24288,6 +24360,9 @@
       <c r="C348" t="s">
         <v>20</v>
       </c>
+      <c r="D348" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E348" t="s">
         <v>164</v>
       </c>
@@ -24353,6 +24428,9 @@
       <c r="C349" t="s">
         <v>20</v>
       </c>
+      <c r="D349" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E349" t="s">
         <v>53</v>
       </c>
@@ -24418,6 +24496,9 @@
       <c r="C350" t="s">
         <v>20</v>
       </c>
+      <c r="D350" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E350" t="s">
         <v>48</v>
       </c>
@@ -24483,6 +24564,9 @@
       <c r="C351" t="s">
         <v>20</v>
       </c>
+      <c r="D351" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E351" t="s">
         <v>24</v>
       </c>
@@ -27676,6 +27760,9 @@
       <c r="C398" t="s">
         <v>20</v>
       </c>
+      <c r="D398" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E398" t="s">
         <v>25</v>
       </c>
@@ -27741,6 +27828,9 @@
       <c r="C399" t="s">
         <v>20</v>
       </c>
+      <c r="D399" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E399" t="s">
         <v>48</v>
       </c>
@@ -27806,6 +27896,9 @@
       <c r="C400" t="s">
         <v>20</v>
       </c>
+      <c r="D400" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E400" t="s">
         <v>55</v>
       </c>
@@ -27871,6 +27964,9 @@
       <c r="C401" t="s">
         <v>20</v>
       </c>
+      <c r="D401" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E401" t="s">
         <v>164</v>
       </c>
@@ -27936,6 +28032,9 @@
       <c r="C402" t="s">
         <v>20</v>
       </c>
+      <c r="D402" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E402" t="s">
         <v>16</v>
       </c>
@@ -28001,6 +28100,9 @@
       <c r="C403" t="s">
         <v>20</v>
       </c>
+      <c r="D403" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E403" t="s">
         <v>93</v>
       </c>
@@ -28066,6 +28168,9 @@
       <c r="C404" t="s">
         <v>20</v>
       </c>
+      <c r="D404" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E404" t="s">
         <v>24</v>
       </c>
@@ -28131,6 +28236,9 @@
       <c r="C405" t="s">
         <v>20</v>
       </c>
+      <c r="D405" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E405" t="s">
         <v>54</v>
       </c>
@@ -28196,6 +28304,9 @@
       <c r="C406" t="s">
         <v>20</v>
       </c>
+      <c r="D406" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E406" t="s">
         <v>43</v>
       </c>
@@ -28261,6 +28372,9 @@
       <c r="C407" t="s">
         <v>20</v>
       </c>
+      <c r="D407" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E407" t="s">
         <v>40</v>
       </c>
@@ -28326,6 +28440,9 @@
       <c r="C408" t="s">
         <v>20</v>
       </c>
+      <c r="D408" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E408" t="s">
         <v>53</v>
       </c>
@@ -28391,6 +28508,9 @@
       <c r="C409" t="s">
         <v>20</v>
       </c>
+      <c r="D409" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E409" t="s">
         <v>245</v>
       </c>
@@ -28456,6 +28576,9 @@
       <c r="C410" t="s">
         <v>20</v>
       </c>
+      <c r="D410" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E410" t="s">
         <v>38</v>
       </c>
@@ -28521,6 +28644,9 @@
       <c r="C411" t="s">
         <v>20</v>
       </c>
+      <c r="D411" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E411" t="s">
         <v>52</v>
       </c>
@@ -30546,6 +30672,958 @@
       </c>
       <c r="V440">
         <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>435</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C441" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E441" t="s">
+        <v>53</v>
+      </c>
+      <c r="F441" t="s">
+        <v>32</v>
+      </c>
+      <c r="G441" t="s">
+        <v>420</v>
+      </c>
+      <c r="H441">
+        <v>9.75</v>
+      </c>
+      <c r="I441">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J441">
+        <v>7.43</v>
+      </c>
+      <c r="K441">
+        <v>1.83</v>
+      </c>
+      <c r="L441">
+        <v>0.44</v>
+      </c>
+      <c r="M441">
+        <v>0.05</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+      <c r="O441">
+        <v>6</v>
+      </c>
+      <c r="P441">
+        <v>7.41</v>
+      </c>
+      <c r="Q441">
+        <v>26.86</v>
+      </c>
+      <c r="R441">
+        <v>4.25</v>
+      </c>
+      <c r="S441">
+        <v>38</v>
+      </c>
+      <c r="T441">
+        <v>2</v>
+      </c>
+      <c r="U441">
+        <v>17</v>
+      </c>
+      <c r="V441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>435</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C442" t="s">
+        <v>20</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E442" t="s">
+        <v>93</v>
+      </c>
+      <c r="F442" t="s">
+        <v>31</v>
+      </c>
+      <c r="G442" t="s">
+        <v>421</v>
+      </c>
+      <c r="H442">
+        <v>8.52</v>
+      </c>
+      <c r="I442">
+        <v>1.57</v>
+      </c>
+      <c r="J442">
+        <v>6.94</v>
+      </c>
+      <c r="K442">
+        <v>0.78</v>
+      </c>
+      <c r="L442">
+        <v>0.45</v>
+      </c>
+      <c r="M442">
+        <v>0.35</v>
+      </c>
+      <c r="N442">
+        <v>0.01</v>
+      </c>
+      <c r="O442">
+        <v>20</v>
+      </c>
+      <c r="P442">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Q442">
+        <v>31.39</v>
+      </c>
+      <c r="R442">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S442">
+        <v>39</v>
+      </c>
+      <c r="T442">
+        <v>13</v>
+      </c>
+      <c r="U442">
+        <v>29</v>
+      </c>
+      <c r="V442">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>435</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C443" t="s">
+        <v>20</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E443" t="s">
+        <v>58</v>
+      </c>
+      <c r="F443" t="s">
+        <v>29</v>
+      </c>
+      <c r="G443" t="s">
+        <v>422</v>
+      </c>
+      <c r="H443">
+        <v>5.95</v>
+      </c>
+      <c r="I443">
+        <v>0.95</v>
+      </c>
+      <c r="J443">
+        <v>4.99</v>
+      </c>
+      <c r="K443">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L443">
+        <v>0.3</v>
+      </c>
+      <c r="M443">
+        <v>0.09</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
+      <c r="O443">
+        <v>6</v>
+      </c>
+      <c r="P443">
+        <v>5.88</v>
+      </c>
+      <c r="Q443">
+        <v>28.65</v>
+      </c>
+      <c r="R443">
+        <v>3.74</v>
+      </c>
+      <c r="S443">
+        <v>8</v>
+      </c>
+      <c r="T443">
+        <v>0</v>
+      </c>
+      <c r="U443">
+        <v>15</v>
+      </c>
+      <c r="V443">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>435</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C444" t="s">
+        <v>20</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E444" t="s">
+        <v>164</v>
+      </c>
+      <c r="F444" t="s">
+        <v>32</v>
+      </c>
+      <c r="G444" t="s">
+        <v>423</v>
+      </c>
+      <c r="H444">
+        <v>2.72</v>
+      </c>
+      <c r="I444">
+        <v>0.69</v>
+      </c>
+      <c r="J444">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K444">
+        <v>0.48</v>
+      </c>
+      <c r="L444">
+        <v>0.19</v>
+      </c>
+      <c r="M444">
+        <v>0.03</v>
+      </c>
+      <c r="N444">
+        <v>0</v>
+      </c>
+      <c r="O444">
+        <v>2</v>
+      </c>
+      <c r="P444">
+        <v>6.99</v>
+      </c>
+      <c r="Q444">
+        <v>27.43</v>
+      </c>
+      <c r="R444">
+        <v>3.69</v>
+      </c>
+      <c r="S444">
+        <v>13</v>
+      </c>
+      <c r="T444">
+        <v>0</v>
+      </c>
+      <c r="U444">
+        <v>15</v>
+      </c>
+      <c r="V444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>435</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C445" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E445" t="s">
+        <v>54</v>
+      </c>
+      <c r="F445" t="s">
+        <v>28</v>
+      </c>
+      <c r="G445" t="s">
+        <v>424</v>
+      </c>
+      <c r="H445">
+        <v>2.11</v>
+      </c>
+      <c r="I445">
+        <v>0.37</v>
+      </c>
+      <c r="J445">
+        <v>1.73</v>
+      </c>
+      <c r="K445">
+        <v>0.27</v>
+      </c>
+      <c r="L445">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M445">
+        <v>0.04</v>
+      </c>
+      <c r="N445">
+        <v>0</v>
+      </c>
+      <c r="O445">
+        <v>3</v>
+      </c>
+      <c r="P445">
+        <v>5.47</v>
+      </c>
+      <c r="Q445">
+        <v>28.38</v>
+      </c>
+      <c r="R445">
+        <v>4.75</v>
+      </c>
+      <c r="S445">
+        <v>9</v>
+      </c>
+      <c r="T445">
+        <v>2</v>
+      </c>
+      <c r="U445">
+        <v>12</v>
+      </c>
+      <c r="V445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>435</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C446" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E446" t="s">
+        <v>52</v>
+      </c>
+      <c r="F446" t="s">
+        <v>33</v>
+      </c>
+      <c r="G446" t="s">
+        <v>425</v>
+      </c>
+      <c r="H446">
+        <v>10.32</v>
+      </c>
+      <c r="I446">
+        <v>1.51</v>
+      </c>
+      <c r="J446">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="K446">
+        <v>1</v>
+      </c>
+      <c r="L446">
+        <v>0.41</v>
+      </c>
+      <c r="M446">
+        <v>0.1</v>
+      </c>
+      <c r="N446">
+        <v>0.02</v>
+      </c>
+      <c r="O446">
+        <v>10</v>
+      </c>
+      <c r="P446">
+        <v>6.23</v>
+      </c>
+      <c r="Q446">
+        <v>31.69</v>
+      </c>
+      <c r="R446">
+        <v>4.78</v>
+      </c>
+      <c r="S446">
+        <v>36</v>
+      </c>
+      <c r="T446">
+        <v>6</v>
+      </c>
+      <c r="U446">
+        <v>37</v>
+      </c>
+      <c r="V446">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>435</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C447" t="s">
+        <v>20</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E447" t="s">
+        <v>48</v>
+      </c>
+      <c r="F447" t="s">
+        <v>29</v>
+      </c>
+      <c r="G447" t="s">
+        <v>426</v>
+      </c>
+      <c r="H447">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I447">
+        <v>1.62</v>
+      </c>
+      <c r="J447">
+        <v>7.56</v>
+      </c>
+      <c r="K447">
+        <v>1.07</v>
+      </c>
+      <c r="L447">
+        <v>0.46</v>
+      </c>
+      <c r="M447">
+        <v>0.12</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
+      <c r="O447">
+        <v>9</v>
+      </c>
+      <c r="P447">
+        <v>5.51</v>
+      </c>
+      <c r="Q447">
+        <v>29.95</v>
+      </c>
+      <c r="R447">
+        <v>4.92</v>
+      </c>
+      <c r="S447">
+        <v>31</v>
+      </c>
+      <c r="T447">
+        <v>7</v>
+      </c>
+      <c r="U447">
+        <v>27</v>
+      </c>
+      <c r="V447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>435</v>
+      </c>
+      <c r="B448" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C448" t="s">
+        <v>20</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E448" t="s">
+        <v>55</v>
+      </c>
+      <c r="F448" t="s">
+        <v>32</v>
+      </c>
+      <c r="G448" t="s">
+        <v>427</v>
+      </c>
+      <c r="H448">
+        <v>10.31</v>
+      </c>
+      <c r="I448">
+        <v>1.77</v>
+      </c>
+      <c r="J448">
+        <v>8.51</v>
+      </c>
+      <c r="K448">
+        <v>1.39</v>
+      </c>
+      <c r="L448">
+        <v>0.38</v>
+      </c>
+      <c r="M448">
+        <v>0.02</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+      <c r="O448">
+        <v>3</v>
+      </c>
+      <c r="P448">
+        <v>6.16</v>
+      </c>
+      <c r="Q448">
+        <v>27.12</v>
+      </c>
+      <c r="R448">
+        <v>4.82</v>
+      </c>
+      <c r="S448">
+        <v>52</v>
+      </c>
+      <c r="T448">
+        <v>11</v>
+      </c>
+      <c r="U448">
+        <v>43</v>
+      </c>
+      <c r="V448">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>435</v>
+      </c>
+      <c r="B449" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C449" t="s">
+        <v>20</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E449" t="s">
+        <v>43</v>
+      </c>
+      <c r="F449" t="s">
+        <v>34</v>
+      </c>
+      <c r="G449" t="s">
+        <v>428</v>
+      </c>
+      <c r="H449">
+        <v>7.37</v>
+      </c>
+      <c r="I449">
+        <v>1.7</v>
+      </c>
+      <c r="J449">
+        <v>5.66</v>
+      </c>
+      <c r="K449">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L449">
+        <v>0.47</v>
+      </c>
+      <c r="M449">
+        <v>0.1</v>
+      </c>
+      <c r="N449">
+        <v>0.01</v>
+      </c>
+      <c r="O449">
+        <v>11</v>
+      </c>
+      <c r="P449">
+        <v>7.19</v>
+      </c>
+      <c r="Q449">
+        <v>30.92</v>
+      </c>
+      <c r="R449">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="S449">
+        <v>26</v>
+      </c>
+      <c r="T449">
+        <v>12</v>
+      </c>
+      <c r="U449">
+        <v>22</v>
+      </c>
+      <c r="V449">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>435</v>
+      </c>
+      <c r="B450" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C450" t="s">
+        <v>20</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E450" t="s">
+        <v>245</v>
+      </c>
+      <c r="F450" t="s">
+        <v>32</v>
+      </c>
+      <c r="G450" t="s">
+        <v>429</v>
+      </c>
+      <c r="H450">
+        <v>9.82</v>
+      </c>
+      <c r="I450">
+        <v>1.53</v>
+      </c>
+      <c r="J450">
+        <v>8.27</v>
+      </c>
+      <c r="K450">
+        <v>1.23</v>
+      </c>
+      <c r="L450">
+        <v>0.24</v>
+      </c>
+      <c r="M450">
+        <v>0.08</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+      <c r="O450">
+        <v>6</v>
+      </c>
+      <c r="P450">
+        <v>5.84</v>
+      </c>
+      <c r="Q450">
+        <v>28.95</v>
+      </c>
+      <c r="R450">
+        <v>4.87</v>
+      </c>
+      <c r="S450">
+        <v>33</v>
+      </c>
+      <c r="T450">
+        <v>11</v>
+      </c>
+      <c r="U450">
+        <v>48</v>
+      </c>
+      <c r="V450">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>435</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C451" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E451" t="s">
+        <v>16</v>
+      </c>
+      <c r="F451" t="s">
+        <v>30</v>
+      </c>
+      <c r="G451" t="s">
+        <v>430</v>
+      </c>
+      <c r="H451">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="I451">
+        <v>1.76</v>
+      </c>
+      <c r="J451">
+        <v>7.93</v>
+      </c>
+      <c r="K451">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L451">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M451">
+        <v>0.13</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+      <c r="O451">
+        <v>12</v>
+      </c>
+      <c r="P451">
+        <v>5.83</v>
+      </c>
+      <c r="Q451">
+        <v>29.95</v>
+      </c>
+      <c r="R451">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S451">
+        <v>42</v>
+      </c>
+      <c r="T451">
+        <v>11</v>
+      </c>
+      <c r="U451">
+        <v>53</v>
+      </c>
+      <c r="V451">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>435</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C452" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E452" t="s">
+        <v>35</v>
+      </c>
+      <c r="F452" t="s">
+        <v>34</v>
+      </c>
+      <c r="G452" t="s">
+        <v>431</v>
+      </c>
+      <c r="H452">
+        <v>4.2</v>
+      </c>
+      <c r="I452">
+        <v>1.08</v>
+      </c>
+      <c r="J452">
+        <v>3.11</v>
+      </c>
+      <c r="K452">
+        <v>0.76</v>
+      </c>
+      <c r="L452">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M452">
+        <v>0.04</v>
+      </c>
+      <c r="N452">
+        <v>0</v>
+      </c>
+      <c r="O452">
+        <v>4</v>
+      </c>
+      <c r="P452">
+        <v>6.55</v>
+      </c>
+      <c r="Q452">
+        <v>26.78</v>
+      </c>
+      <c r="R452">
+        <v>4.47</v>
+      </c>
+      <c r="S452">
+        <v>29</v>
+      </c>
+      <c r="T452">
+        <v>2</v>
+      </c>
+      <c r="U452">
+        <v>24</v>
+      </c>
+      <c r="V452">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>435</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C453" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E453" t="s">
+        <v>40</v>
+      </c>
+      <c r="F453" t="s">
+        <v>31</v>
+      </c>
+      <c r="G453" t="s">
+        <v>432</v>
+      </c>
+      <c r="H453">
+        <v>3.83</v>
+      </c>
+      <c r="I453">
+        <v>0.76</v>
+      </c>
+      <c r="J453">
+        <v>3.07</v>
+      </c>
+      <c r="K453">
+        <v>0.4</v>
+      </c>
+      <c r="L453">
+        <v>0.24</v>
+      </c>
+      <c r="M453">
+        <v>0.11</v>
+      </c>
+      <c r="N453">
+        <v>0.02</v>
+      </c>
+      <c r="O453">
+        <v>8</v>
+      </c>
+      <c r="P453">
+        <v>5.91</v>
+      </c>
+      <c r="Q453">
+        <v>31.93</v>
+      </c>
+      <c r="R453">
+        <v>5.18</v>
+      </c>
+      <c r="S453">
+        <v>20</v>
+      </c>
+      <c r="T453">
+        <v>6</v>
+      </c>
+      <c r="U453">
+        <v>16</v>
+      </c>
+      <c r="V453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>435</v>
+      </c>
+      <c r="B454" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C454" t="s">
+        <v>20</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E454" t="s">
+        <v>38</v>
+      </c>
+      <c r="F454" t="s">
+        <v>34</v>
+      </c>
+      <c r="G454" t="s">
+        <v>433</v>
+      </c>
+      <c r="H454">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I454">
+        <v>1.56</v>
+      </c>
+      <c r="J454">
+        <v>6.55</v>
+      </c>
+      <c r="K454">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L454">
+        <v>0.36</v>
+      </c>
+      <c r="M454">
+        <v>0.12</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>10</v>
+      </c>
+      <c r="P454">
+        <v>6.13</v>
+      </c>
+      <c r="Q454">
+        <v>30.02</v>
+      </c>
+      <c r="R454">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S454">
+        <v>24</v>
+      </c>
+      <c r="T454">
+        <v>2</v>
+      </c>
+      <c r="U454">
+        <v>26</v>
+      </c>
+      <c r="V454">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CCEE9-A354-6C41-B573-917238555966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3186E8-E286-704B-AE13-82E9B4F3BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="448">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1344,6 +1344,42 @@
   </si>
   <si>
     <t>N3 J3 VS OM (B)</t>
+  </si>
+  <si>
+    <t>01:04:47</t>
+  </si>
+  <si>
+    <t>01:02:45</t>
+  </si>
+  <si>
+    <t>01:03:35</t>
+  </si>
+  <si>
+    <t>01:04:18</t>
+  </si>
+  <si>
+    <t>01:22:10</t>
+  </si>
+  <si>
+    <t>01:31:13</t>
+  </si>
+  <si>
+    <t>01:31:21</t>
+  </si>
+  <si>
+    <t>01:31:48</t>
+  </si>
+  <si>
+    <t>01:26:15</t>
+  </si>
+  <si>
+    <t>01:31:30</t>
+  </si>
+  <si>
+    <t>01:31:40</t>
+  </si>
+  <si>
+    <t>Malik Boussaid</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V454"/>
+  <dimension ref="A1:V468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E458" sqref="E458"/>
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31626,6 +31662,940 @@
         <v>9</v>
       </c>
     </row>
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>23</v>
+      </c>
+      <c r="B455" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C455" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455" t="s">
+        <v>40</v>
+      </c>
+      <c r="F455" t="s">
+        <v>31</v>
+      </c>
+      <c r="G455" t="s">
+        <v>436</v>
+      </c>
+      <c r="H455">
+        <v>7.73</v>
+      </c>
+      <c r="I455">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J455">
+        <v>7.13</v>
+      </c>
+      <c r="K455">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L455">
+        <v>0.04</v>
+      </c>
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>1</v>
+      </c>
+      <c r="P455">
+        <v>6.85</v>
+      </c>
+      <c r="Q455">
+        <v>25.02</v>
+      </c>
+      <c r="R455">
+        <v>5.27</v>
+      </c>
+      <c r="S455">
+        <v>40</v>
+      </c>
+      <c r="T455">
+        <v>18</v>
+      </c>
+      <c r="U455">
+        <v>19</v>
+      </c>
+      <c r="V455">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>23</v>
+      </c>
+      <c r="B456" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C456" t="s">
+        <v>20</v>
+      </c>
+      <c r="E456" t="s">
+        <v>164</v>
+      </c>
+      <c r="F456" t="s">
+        <v>32</v>
+      </c>
+      <c r="G456" t="s">
+        <v>437</v>
+      </c>
+      <c r="H456">
+        <v>7.74</v>
+      </c>
+      <c r="I456">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J456">
+        <v>7.17</v>
+      </c>
+      <c r="K456">
+        <v>0.53</v>
+      </c>
+      <c r="L456">
+        <v>0.03</v>
+      </c>
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="N456">
+        <v>0</v>
+      </c>
+      <c r="O456">
+        <v>1</v>
+      </c>
+      <c r="P456">
+        <v>7.36</v>
+      </c>
+      <c r="Q456">
+        <v>25.29</v>
+      </c>
+      <c r="R456">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S456">
+        <v>26</v>
+      </c>
+      <c r="T456">
+        <v>4</v>
+      </c>
+      <c r="U456">
+        <v>13</v>
+      </c>
+      <c r="V456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>23</v>
+      </c>
+      <c r="B457" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C457" t="s">
+        <v>20</v>
+      </c>
+      <c r="E457" t="s">
+        <v>54</v>
+      </c>
+      <c r="F457" t="s">
+        <v>28</v>
+      </c>
+      <c r="G457" t="s">
+        <v>438</v>
+      </c>
+      <c r="H457">
+        <v>7.18</v>
+      </c>
+      <c r="I457">
+        <v>0.17</v>
+      </c>
+      <c r="J457">
+        <v>7.01</v>
+      </c>
+      <c r="K457">
+        <v>0.17</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+      <c r="M457">
+        <v>0</v>
+      </c>
+      <c r="N457">
+        <v>0</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457">
+        <v>6.74</v>
+      </c>
+      <c r="Q457">
+        <v>19.29</v>
+      </c>
+      <c r="R457">
+        <v>4.49</v>
+      </c>
+      <c r="S457">
+        <v>24</v>
+      </c>
+      <c r="T457">
+        <v>4</v>
+      </c>
+      <c r="U457">
+        <v>12</v>
+      </c>
+      <c r="V457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>23</v>
+      </c>
+      <c r="B458" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C458" t="s">
+        <v>20</v>
+      </c>
+      <c r="E458" t="s">
+        <v>52</v>
+      </c>
+      <c r="F458" t="s">
+        <v>33</v>
+      </c>
+      <c r="G458" t="s">
+        <v>439</v>
+      </c>
+      <c r="H458">
+        <v>7.42</v>
+      </c>
+      <c r="I458">
+        <v>0.49</v>
+      </c>
+      <c r="J458">
+        <v>6.93</v>
+      </c>
+      <c r="K458">
+        <v>0.49</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458">
+        <v>0</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458">
+        <v>6.89</v>
+      </c>
+      <c r="Q458">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R458">
+        <v>4.2</v>
+      </c>
+      <c r="S458">
+        <v>26</v>
+      </c>
+      <c r="T458">
+        <v>1</v>
+      </c>
+      <c r="U458">
+        <v>14</v>
+      </c>
+      <c r="V458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>23</v>
+      </c>
+      <c r="B459" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C459" t="s">
+        <v>20</v>
+      </c>
+      <c r="E459" t="s">
+        <v>53</v>
+      </c>
+      <c r="F459" t="s">
+        <v>32</v>
+      </c>
+      <c r="G459" t="s">
+        <v>439</v>
+      </c>
+      <c r="H459">
+        <v>8.27</v>
+      </c>
+      <c r="I459">
+        <v>0.39</v>
+      </c>
+      <c r="J459">
+        <v>7.88</v>
+      </c>
+      <c r="K459">
+        <v>0.39</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+      <c r="M459">
+        <v>0</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>0</v>
+      </c>
+      <c r="P459">
+        <v>7.66</v>
+      </c>
+      <c r="Q459">
+        <v>18.71</v>
+      </c>
+      <c r="R459">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S459">
+        <v>20</v>
+      </c>
+      <c r="T459">
+        <v>1</v>
+      </c>
+      <c r="U459">
+        <v>7</v>
+      </c>
+      <c r="V459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>23</v>
+      </c>
+      <c r="B460" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C460" t="s">
+        <v>20</v>
+      </c>
+      <c r="E460" t="s">
+        <v>16</v>
+      </c>
+      <c r="F460" t="s">
+        <v>30</v>
+      </c>
+      <c r="G460" t="s">
+        <v>437</v>
+      </c>
+      <c r="H460">
+        <v>7.11</v>
+      </c>
+      <c r="I460">
+        <v>0.11</v>
+      </c>
+      <c r="J460">
+        <v>6.99</v>
+      </c>
+      <c r="K460">
+        <v>0.11</v>
+      </c>
+      <c r="L460">
+        <v>0.01</v>
+      </c>
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <v>6.02</v>
+      </c>
+      <c r="Q460">
+        <v>21.46</v>
+      </c>
+      <c r="R460">
+        <v>4.41</v>
+      </c>
+      <c r="S460">
+        <v>21</v>
+      </c>
+      <c r="T460">
+        <v>4</v>
+      </c>
+      <c r="U460">
+        <v>17</v>
+      </c>
+      <c r="V460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>23</v>
+      </c>
+      <c r="B461" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C461" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E461" t="s">
+        <v>24</v>
+      </c>
+      <c r="F461" t="s">
+        <v>32</v>
+      </c>
+      <c r="G461" t="s">
+        <v>440</v>
+      </c>
+      <c r="H461">
+        <v>6.04</v>
+      </c>
+      <c r="I461">
+        <v>0.15</v>
+      </c>
+      <c r="J461">
+        <v>5.88</v>
+      </c>
+      <c r="K461">
+        <v>0.13</v>
+      </c>
+      <c r="L461">
+        <v>0.02</v>
+      </c>
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461">
+        <v>4.45</v>
+      </c>
+      <c r="Q461">
+        <v>23.35</v>
+      </c>
+      <c r="R461">
+        <v>3.98</v>
+      </c>
+      <c r="S461">
+        <v>19</v>
+      </c>
+      <c r="T461">
+        <v>0</v>
+      </c>
+      <c r="U461">
+        <v>12</v>
+      </c>
+      <c r="V461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>23</v>
+      </c>
+      <c r="B462" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C462" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E462" t="s">
+        <v>52</v>
+      </c>
+      <c r="F462" t="s">
+        <v>33</v>
+      </c>
+      <c r="G462" t="s">
+        <v>441</v>
+      </c>
+      <c r="H462">
+        <v>6.98</v>
+      </c>
+      <c r="I462">
+        <v>0.32</v>
+      </c>
+      <c r="J462">
+        <v>6.66</v>
+      </c>
+      <c r="K462">
+        <v>0.31</v>
+      </c>
+      <c r="L462">
+        <v>0.02</v>
+      </c>
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462">
+        <v>4.53</v>
+      </c>
+      <c r="Q462">
+        <v>22.28</v>
+      </c>
+      <c r="R462">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S462">
+        <v>48</v>
+      </c>
+      <c r="T462">
+        <v>3</v>
+      </c>
+      <c r="U462">
+        <v>23</v>
+      </c>
+      <c r="V462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>23</v>
+      </c>
+      <c r="B463" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C463" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E463" t="s">
+        <v>54</v>
+      </c>
+      <c r="F463" t="s">
+        <v>28</v>
+      </c>
+      <c r="G463" t="s">
+        <v>442</v>
+      </c>
+      <c r="H463">
+        <v>5.63</v>
+      </c>
+      <c r="I463">
+        <v>0.16</v>
+      </c>
+      <c r="J463">
+        <v>5.46</v>
+      </c>
+      <c r="K463">
+        <v>0.17</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463">
+        <v>0</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463">
+        <v>3.61</v>
+      </c>
+      <c r="Q463">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R463">
+        <v>4.05</v>
+      </c>
+      <c r="S463">
+        <v>27</v>
+      </c>
+      <c r="T463">
+        <v>1</v>
+      </c>
+      <c r="U463">
+        <v>21</v>
+      </c>
+      <c r="V463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>23</v>
+      </c>
+      <c r="B464" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C464" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E464" t="s">
+        <v>53</v>
+      </c>
+      <c r="F464" t="s">
+        <v>32</v>
+      </c>
+      <c r="G464" t="s">
+        <v>443</v>
+      </c>
+      <c r="H464">
+        <v>7.24</v>
+      </c>
+      <c r="I464">
+        <v>0.3</v>
+      </c>
+      <c r="J464">
+        <v>6.94</v>
+      </c>
+      <c r="K464">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L464">
+        <v>0.03</v>
+      </c>
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>0</v>
+      </c>
+      <c r="P464">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q464">
+        <v>21.82</v>
+      </c>
+      <c r="R464">
+        <v>4.33</v>
+      </c>
+      <c r="S464">
+        <v>50</v>
+      </c>
+      <c r="T464">
+        <v>3</v>
+      </c>
+      <c r="U464">
+        <v>22</v>
+      </c>
+      <c r="V464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>23</v>
+      </c>
+      <c r="B465" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C465" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E465" t="s">
+        <v>35</v>
+      </c>
+      <c r="F465" t="s">
+        <v>34</v>
+      </c>
+      <c r="G465" t="s">
+        <v>444</v>
+      </c>
+      <c r="H465">
+        <v>6.68</v>
+      </c>
+      <c r="I465">
+        <v>0.32</v>
+      </c>
+      <c r="J465">
+        <v>6.35</v>
+      </c>
+      <c r="K465">
+        <v>0.31</v>
+      </c>
+      <c r="L465">
+        <v>0.02</v>
+      </c>
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>4.59</v>
+      </c>
+      <c r="Q465">
+        <v>22.54</v>
+      </c>
+      <c r="R465">
+        <v>4.26</v>
+      </c>
+      <c r="S465">
+        <v>42</v>
+      </c>
+      <c r="T465">
+        <v>4</v>
+      </c>
+      <c r="U465">
+        <v>36</v>
+      </c>
+      <c r="V465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>23</v>
+      </c>
+      <c r="B466" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C466" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E466" t="s">
+        <v>164</v>
+      </c>
+      <c r="F466" t="s">
+        <v>32</v>
+      </c>
+      <c r="G466" t="s">
+        <v>445</v>
+      </c>
+      <c r="H466">
+        <v>6.69</v>
+      </c>
+      <c r="I466">
+        <v>0.36</v>
+      </c>
+      <c r="J466">
+        <v>6.32</v>
+      </c>
+      <c r="K466">
+        <v>0.34</v>
+      </c>
+      <c r="L466">
+        <v>0.03</v>
+      </c>
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466">
+        <v>0</v>
+      </c>
+      <c r="O466">
+        <v>0</v>
+      </c>
+      <c r="P466">
+        <v>4.3</v>
+      </c>
+      <c r="Q466">
+        <v>24.03</v>
+      </c>
+      <c r="R466">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S466">
+        <v>43</v>
+      </c>
+      <c r="T466">
+        <v>7</v>
+      </c>
+      <c r="U466">
+        <v>33</v>
+      </c>
+      <c r="V466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C467" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E467" t="s">
+        <v>50</v>
+      </c>
+      <c r="F467" t="s">
+        <v>33</v>
+      </c>
+      <c r="G467" t="s">
+        <v>446</v>
+      </c>
+      <c r="H467">
+        <v>5.96</v>
+      </c>
+      <c r="I467">
+        <v>0.19</v>
+      </c>
+      <c r="J467">
+        <v>5.77</v>
+      </c>
+      <c r="K467">
+        <v>0.18</v>
+      </c>
+      <c r="L467">
+        <v>0.02</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>0</v>
+      </c>
+      <c r="O467">
+        <v>0</v>
+      </c>
+      <c r="P467">
+        <v>3.88</v>
+      </c>
+      <c r="Q467">
+        <v>22.22</v>
+      </c>
+      <c r="R467">
+        <v>4.2</v>
+      </c>
+      <c r="S467">
+        <v>30</v>
+      </c>
+      <c r="T467">
+        <v>2</v>
+      </c>
+      <c r="U467">
+        <v>21</v>
+      </c>
+      <c r="V467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>23</v>
+      </c>
+      <c r="B468" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C468" t="s">
+        <v>20</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F468" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G468" t="s">
+        <v>408</v>
+      </c>
+      <c r="H468">
+        <v>6.65</v>
+      </c>
+      <c r="I468">
+        <v>0.21</v>
+      </c>
+      <c r="J468">
+        <v>6.44</v>
+      </c>
+      <c r="K468">
+        <v>0.21</v>
+      </c>
+      <c r="L468">
+        <v>0.01</v>
+      </c>
+      <c r="M468">
+        <v>0</v>
+      </c>
+      <c r="N468">
+        <v>0</v>
+      </c>
+      <c r="O468">
+        <v>0</v>
+      </c>
+      <c r="P468">
+        <v>4.54</v>
+      </c>
+      <c r="Q468">
+        <v>22.34</v>
+      </c>
+      <c r="R468">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S468">
+        <v>17</v>
+      </c>
+      <c r="T468">
+        <v>2</v>
+      </c>
+      <c r="U468">
+        <v>22</v>
+      </c>
+      <c r="V468">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3186E8-E286-704B-AE13-82E9B4F3BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177849F3-49B6-5D42-8EC9-84C3BA2DF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="456">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1380,6 +1380,30 @@
   </si>
   <si>
     <t>Malik Boussaid</t>
+  </si>
+  <si>
+    <t>Yoann Martelat</t>
+  </si>
+  <si>
+    <t>01:35:04</t>
+  </si>
+  <si>
+    <t>01:34:24</t>
+  </si>
+  <si>
+    <t>01:34:54</t>
+  </si>
+  <si>
+    <t>01:31:34</t>
+  </si>
+  <si>
+    <t>01:34:44</t>
+  </si>
+  <si>
+    <t>01:34:34</t>
+  </si>
+  <si>
+    <t>01:29:26</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V468"/>
+  <dimension ref="A1:V476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D475" sqref="D475"/>
+    <sheetView tabSelected="1" topLeftCell="B447" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461:V468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32596,6 +32620,550 @@
         <v>1</v>
       </c>
     </row>
+    <row r="469" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C469" t="s">
+        <v>20</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F469" t="s">
+        <v>29</v>
+      </c>
+      <c r="G469" t="s">
+        <v>114</v>
+      </c>
+      <c r="H469">
+        <v>6.99</v>
+      </c>
+      <c r="I469">
+        <v>1.28</v>
+      </c>
+      <c r="J469">
+        <v>5.7</v>
+      </c>
+      <c r="K469">
+        <v>1.05</v>
+      </c>
+      <c r="L469">
+        <v>0.24</v>
+      </c>
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469">
+        <v>0</v>
+      </c>
+      <c r="O469">
+        <v>0</v>
+      </c>
+      <c r="P469">
+        <v>4.8</v>
+      </c>
+      <c r="Q469">
+        <v>24.23</v>
+      </c>
+      <c r="R469">
+        <v>4.24</v>
+      </c>
+      <c r="S469">
+        <v>22</v>
+      </c>
+      <c r="T469">
+        <v>3</v>
+      </c>
+      <c r="U469">
+        <v>11</v>
+      </c>
+      <c r="V469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>23</v>
+      </c>
+      <c r="B470" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C470" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E470" t="s">
+        <v>164</v>
+      </c>
+      <c r="F470" t="s">
+        <v>32</v>
+      </c>
+      <c r="G470" t="s">
+        <v>449</v>
+      </c>
+      <c r="H470">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I470">
+        <v>2.94</v>
+      </c>
+      <c r="J470">
+        <v>6.01</v>
+      </c>
+      <c r="K470">
+        <v>1.52</v>
+      </c>
+      <c r="L470">
+        <v>1.41</v>
+      </c>
+      <c r="M470">
+        <v>0.02</v>
+      </c>
+      <c r="N470">
+        <v>0</v>
+      </c>
+      <c r="O470">
+        <v>4</v>
+      </c>
+      <c r="P470">
+        <v>5.57</v>
+      </c>
+      <c r="Q470">
+        <v>26.4</v>
+      </c>
+      <c r="R470">
+        <v>4.55</v>
+      </c>
+      <c r="S470">
+        <v>53</v>
+      </c>
+      <c r="T470">
+        <v>13</v>
+      </c>
+      <c r="U470">
+        <v>30</v>
+      </c>
+      <c r="V470">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B471" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C471" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E471" t="s">
+        <v>40</v>
+      </c>
+      <c r="F471" t="s">
+        <v>31</v>
+      </c>
+      <c r="G471" t="s">
+        <v>450</v>
+      </c>
+      <c r="H471">
+        <v>8.01</v>
+      </c>
+      <c r="I471">
+        <v>2.64</v>
+      </c>
+      <c r="J471">
+        <v>5.35</v>
+      </c>
+      <c r="K471">
+        <v>1.43</v>
+      </c>
+      <c r="L471">
+        <v>1.22</v>
+      </c>
+      <c r="M471">
+        <v>0.01</v>
+      </c>
+      <c r="N471">
+        <v>0</v>
+      </c>
+      <c r="O471">
+        <v>6</v>
+      </c>
+      <c r="P471">
+        <v>4.79</v>
+      </c>
+      <c r="Q471">
+        <v>25.72</v>
+      </c>
+      <c r="R471">
+        <v>5.13</v>
+      </c>
+      <c r="S471">
+        <v>64</v>
+      </c>
+      <c r="T471">
+        <v>22</v>
+      </c>
+      <c r="U471">
+        <v>34</v>
+      </c>
+      <c r="V471">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C472" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E472" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F472" t="s">
+        <v>30</v>
+      </c>
+      <c r="G472" t="s">
+        <v>451</v>
+      </c>
+      <c r="H472">
+        <v>8.56</v>
+      </c>
+      <c r="I472">
+        <v>2.89</v>
+      </c>
+      <c r="J472">
+        <v>5.65</v>
+      </c>
+      <c r="K472">
+        <v>0.94</v>
+      </c>
+      <c r="L472">
+        <v>1.8</v>
+      </c>
+      <c r="M472">
+        <v>0.17</v>
+      </c>
+      <c r="N472">
+        <v>0</v>
+      </c>
+      <c r="O472">
+        <v>8</v>
+      </c>
+      <c r="P472">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Q472">
+        <v>29.82</v>
+      </c>
+      <c r="R472">
+        <v>5.48</v>
+      </c>
+      <c r="S472">
+        <v>59</v>
+      </c>
+      <c r="T472">
+        <v>36</v>
+      </c>
+      <c r="U472">
+        <v>62</v>
+      </c>
+      <c r="V472">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C473" t="s">
+        <v>20</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E473" t="s">
+        <v>52</v>
+      </c>
+      <c r="F473" t="s">
+        <v>33</v>
+      </c>
+      <c r="G473" t="s">
+        <v>452</v>
+      </c>
+      <c r="H473">
+        <v>8.1</v>
+      </c>
+      <c r="I473">
+        <v>2.11</v>
+      </c>
+      <c r="J473">
+        <v>5.98</v>
+      </c>
+      <c r="K473">
+        <v>1.44</v>
+      </c>
+      <c r="L473">
+        <v>0.67</v>
+      </c>
+      <c r="M473">
+        <v>0.01</v>
+      </c>
+      <c r="N473">
+        <v>0</v>
+      </c>
+      <c r="O473">
+        <v>3</v>
+      </c>
+      <c r="P473">
+        <v>5.24</v>
+      </c>
+      <c r="Q473">
+        <v>25.51</v>
+      </c>
+      <c r="R473">
+        <v>4.49</v>
+      </c>
+      <c r="S473">
+        <v>40</v>
+      </c>
+      <c r="T473">
+        <v>2</v>
+      </c>
+      <c r="U473">
+        <v>21</v>
+      </c>
+      <c r="V473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>23</v>
+      </c>
+      <c r="B474" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C474" t="s">
+        <v>20</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E474" t="s">
+        <v>53</v>
+      </c>
+      <c r="F474" t="s">
+        <v>32</v>
+      </c>
+      <c r="G474" t="s">
+        <v>453</v>
+      </c>
+      <c r="H474">
+        <v>9.33</v>
+      </c>
+      <c r="I474">
+        <v>2.66</v>
+      </c>
+      <c r="J474">
+        <v>6.66</v>
+      </c>
+      <c r="K474">
+        <v>1.26</v>
+      </c>
+      <c r="L474">
+        <v>1.4</v>
+      </c>
+      <c r="M474">
+        <v>0.01</v>
+      </c>
+      <c r="N474">
+        <v>0</v>
+      </c>
+      <c r="O474">
+        <v>1</v>
+      </c>
+      <c r="P474">
+        <v>5.81</v>
+      </c>
+      <c r="Q474">
+        <v>26.7</v>
+      </c>
+      <c r="R474">
+        <v>4.78</v>
+      </c>
+      <c r="S474">
+        <v>55</v>
+      </c>
+      <c r="T474">
+        <v>14</v>
+      </c>
+      <c r="U474">
+        <v>14</v>
+      </c>
+      <c r="V474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C475" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E475" t="s">
+        <v>43</v>
+      </c>
+      <c r="F475" t="s">
+        <v>34</v>
+      </c>
+      <c r="G475" t="s">
+        <v>454</v>
+      </c>
+      <c r="H475">
+        <v>8.32</v>
+      </c>
+      <c r="I475">
+        <v>2.87</v>
+      </c>
+      <c r="J475">
+        <v>5.43</v>
+      </c>
+      <c r="K475">
+        <v>1.39</v>
+      </c>
+      <c r="L475">
+        <v>1.47</v>
+      </c>
+      <c r="M475">
+        <v>0.02</v>
+      </c>
+      <c r="N475">
+        <v>0</v>
+      </c>
+      <c r="O475">
+        <v>2</v>
+      </c>
+      <c r="P475">
+        <v>5.17</v>
+      </c>
+      <c r="Q475">
+        <v>27.55</v>
+      </c>
+      <c r="R475">
+        <v>5</v>
+      </c>
+      <c r="S475">
+        <v>47</v>
+      </c>
+      <c r="T475">
+        <v>20</v>
+      </c>
+      <c r="U475">
+        <v>20</v>
+      </c>
+      <c r="V475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C476" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E476" t="s">
+        <v>54</v>
+      </c>
+      <c r="F476" t="s">
+        <v>28</v>
+      </c>
+      <c r="G476" t="s">
+        <v>455</v>
+      </c>
+      <c r="H476">
+        <v>7.11</v>
+      </c>
+      <c r="I476">
+        <v>2.56</v>
+      </c>
+      <c r="J476">
+        <v>4.54</v>
+      </c>
+      <c r="K476">
+        <v>1.9</v>
+      </c>
+      <c r="L476">
+        <v>0.65</v>
+      </c>
+      <c r="M476">
+        <v>0.03</v>
+      </c>
+      <c r="N476">
+        <v>0</v>
+      </c>
+      <c r="O476">
+        <v>3</v>
+      </c>
+      <c r="P476">
+        <v>4.68</v>
+      </c>
+      <c r="Q476">
+        <v>28.04</v>
+      </c>
+      <c r="R476">
+        <v>4.43</v>
+      </c>
+      <c r="S476">
+        <v>43</v>
+      </c>
+      <c r="T476">
+        <v>6</v>
+      </c>
+      <c r="U476">
+        <v>20</v>
+      </c>
+      <c r="V476">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177849F3-49B6-5D42-8EC9-84C3BA2DF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75776380-6F8F-4042-A9EB-C69BCA683AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="461">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1404,6 +1404,21 @@
   </si>
   <si>
     <t>01:29:26</t>
+  </si>
+  <si>
+    <t>01:20:30</t>
+  </si>
+  <si>
+    <t>01:22:04</t>
+  </si>
+  <si>
+    <t>01:22:27</t>
+  </si>
+  <si>
+    <t>01:22:20</t>
+  </si>
+  <si>
+    <t>01:21:40</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V476"/>
+  <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B447" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E461" sqref="E461:V468"/>
+    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F489" sqref="F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33164,6 +33179,346 @@
         <v>4</v>
       </c>
     </row>
+    <row r="477" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C477" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E477" t="s">
+        <v>447</v>
+      </c>
+      <c r="F477" t="s">
+        <v>30</v>
+      </c>
+      <c r="G477" t="s">
+        <v>456</v>
+      </c>
+      <c r="H477">
+        <v>6.08</v>
+      </c>
+      <c r="I477">
+        <v>0.2</v>
+      </c>
+      <c r="J477">
+        <v>5.87</v>
+      </c>
+      <c r="K477">
+        <v>0.18</v>
+      </c>
+      <c r="L477">
+        <v>0.02</v>
+      </c>
+      <c r="M477">
+        <v>0.01</v>
+      </c>
+      <c r="N477">
+        <v>0</v>
+      </c>
+      <c r="O477">
+        <v>1</v>
+      </c>
+      <c r="P477">
+        <v>3.8</v>
+      </c>
+      <c r="Q477">
+        <v>29.59</v>
+      </c>
+      <c r="R477">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S477">
+        <v>26</v>
+      </c>
+      <c r="T477">
+        <v>1</v>
+      </c>
+      <c r="U477">
+        <v>17</v>
+      </c>
+      <c r="V477">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>23</v>
+      </c>
+      <c r="B478" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C478" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E478" t="s">
+        <v>52</v>
+      </c>
+      <c r="F478" t="s">
+        <v>33</v>
+      </c>
+      <c r="G478" t="s">
+        <v>457</v>
+      </c>
+      <c r="H478">
+        <v>6.46</v>
+      </c>
+      <c r="I478">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J478">
+        <v>5.88</v>
+      </c>
+      <c r="K478">
+        <v>0.46</v>
+      </c>
+      <c r="L478">
+        <v>0.13</v>
+      </c>
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478">
+        <v>0</v>
+      </c>
+      <c r="O478">
+        <v>0</v>
+      </c>
+      <c r="P478">
+        <v>4.66</v>
+      </c>
+      <c r="Q478">
+        <v>23.57</v>
+      </c>
+      <c r="R478">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S478">
+        <v>27</v>
+      </c>
+      <c r="T478">
+        <v>8</v>
+      </c>
+      <c r="U478">
+        <v>21</v>
+      </c>
+      <c r="V478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C479" t="s">
+        <v>20</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E479" t="s">
+        <v>53</v>
+      </c>
+      <c r="F479" t="s">
+        <v>32</v>
+      </c>
+      <c r="G479" t="s">
+        <v>458</v>
+      </c>
+      <c r="H479">
+        <v>6.29</v>
+      </c>
+      <c r="I479">
+        <v>0.19</v>
+      </c>
+      <c r="J479">
+        <v>6.09</v>
+      </c>
+      <c r="K479">
+        <v>0.17</v>
+      </c>
+      <c r="L479">
+        <v>0.02</v>
+      </c>
+      <c r="M479">
+        <v>0</v>
+      </c>
+      <c r="N479">
+        <v>0</v>
+      </c>
+      <c r="O479">
+        <v>1</v>
+      </c>
+      <c r="P479">
+        <v>4.49</v>
+      </c>
+      <c r="Q479">
+        <v>25.32</v>
+      </c>
+      <c r="R479">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S479">
+        <v>19</v>
+      </c>
+      <c r="T479">
+        <v>3</v>
+      </c>
+      <c r="U479">
+        <v>15</v>
+      </c>
+      <c r="V479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>23</v>
+      </c>
+      <c r="B480" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C480" t="s">
+        <v>20</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E480" t="s">
+        <v>164</v>
+      </c>
+      <c r="F480" t="s">
+        <v>32</v>
+      </c>
+      <c r="G480" t="s">
+        <v>459</v>
+      </c>
+      <c r="H480">
+        <v>6.38</v>
+      </c>
+      <c r="I480">
+        <v>0.38</v>
+      </c>
+      <c r="J480">
+        <v>5.99</v>
+      </c>
+      <c r="K480">
+        <v>0.31</v>
+      </c>
+      <c r="L480">
+        <v>0.08</v>
+      </c>
+      <c r="M480">
+        <v>0</v>
+      </c>
+      <c r="N480">
+        <v>0</v>
+      </c>
+      <c r="O480">
+        <v>0</v>
+      </c>
+      <c r="P480">
+        <v>4.55</v>
+      </c>
+      <c r="Q480">
+        <v>23.81</v>
+      </c>
+      <c r="R480">
+        <v>4.92</v>
+      </c>
+      <c r="S480">
+        <v>32</v>
+      </c>
+      <c r="T480">
+        <v>8</v>
+      </c>
+      <c r="U480">
+        <v>16</v>
+      </c>
+      <c r="V480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B481" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C481" t="s">
+        <v>20</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E481" t="s">
+        <v>54</v>
+      </c>
+      <c r="F481" t="s">
+        <v>28</v>
+      </c>
+      <c r="G481" t="s">
+        <v>460</v>
+      </c>
+      <c r="H481">
+        <v>5.34</v>
+      </c>
+      <c r="I481">
+        <v>0.39</v>
+      </c>
+      <c r="J481">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K481">
+        <v>0.33</v>
+      </c>
+      <c r="L481">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M481">
+        <v>0</v>
+      </c>
+      <c r="N481">
+        <v>0</v>
+      </c>
+      <c r="O481">
+        <v>0</v>
+      </c>
+      <c r="P481">
+        <v>3.84</v>
+      </c>
+      <c r="Q481">
+        <v>22.63</v>
+      </c>
+      <c r="R481">
+        <v>5.03</v>
+      </c>
+      <c r="S481">
+        <v>18</v>
+      </c>
+      <c r="T481">
+        <v>11</v>
+      </c>
+      <c r="U481">
+        <v>32</v>
+      </c>
+      <c r="V481">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75776380-6F8F-4042-A9EB-C69BCA683AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71228EF7-1F90-E54C-B10C-E1F6E8A8FA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="475">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1419,6 +1419,48 @@
   </si>
   <si>
     <t>01:21:40</t>
+  </si>
+  <si>
+    <t>01:14:17</t>
+  </si>
+  <si>
+    <t>00:19:28</t>
+  </si>
+  <si>
+    <t>00:19:50</t>
+  </si>
+  <si>
+    <t>00:33:45</t>
+  </si>
+  <si>
+    <t>01:21:47</t>
+  </si>
+  <si>
+    <t>01:34:21</t>
+  </si>
+  <si>
+    <t>01:34:15</t>
+  </si>
+  <si>
+    <t>01:02:27</t>
+  </si>
+  <si>
+    <t>01:34:14</t>
+  </si>
+  <si>
+    <t>01:34:29</t>
+  </si>
+  <si>
+    <t>00:12:41</t>
+  </si>
+  <si>
+    <t>01:35:42</t>
+  </si>
+  <si>
+    <t>01:33:45</t>
+  </si>
+  <si>
+    <t>CDF T3 VS Plaine Tonique (R3)</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V481"/>
+  <dimension ref="A1:V495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F489" sqref="F489"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33519,6 +33561,916 @@
         <v>5</v>
       </c>
     </row>
+    <row r="482" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>474</v>
+      </c>
+      <c r="B482" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C482" t="s">
+        <v>20</v>
+      </c>
+      <c r="E482" t="s">
+        <v>164</v>
+      </c>
+      <c r="F482" t="s">
+        <v>32</v>
+      </c>
+      <c r="G482" t="s">
+        <v>283</v>
+      </c>
+      <c r="H482">
+        <v>9.14</v>
+      </c>
+      <c r="I482">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J482">
+        <v>7.1</v>
+      </c>
+      <c r="K482">
+        <v>1.39</v>
+      </c>
+      <c r="L482">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M482">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N482">
+        <v>0</v>
+      </c>
+      <c r="O482">
+        <v>7</v>
+      </c>
+      <c r="P482">
+        <v>7.31</v>
+      </c>
+      <c r="Q482">
+        <v>28.65</v>
+      </c>
+      <c r="R482">
+        <v>4.75</v>
+      </c>
+      <c r="S482">
+        <v>34</v>
+      </c>
+      <c r="T482">
+        <v>6</v>
+      </c>
+      <c r="U482">
+        <v>40</v>
+      </c>
+      <c r="V482">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>474</v>
+      </c>
+      <c r="B483" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C483" t="s">
+        <v>20</v>
+      </c>
+      <c r="E483" t="s">
+        <v>35</v>
+      </c>
+      <c r="F483" t="s">
+        <v>34</v>
+      </c>
+      <c r="G483" t="s">
+        <v>461</v>
+      </c>
+      <c r="H483">
+        <v>8.44</v>
+      </c>
+      <c r="I483">
+        <v>1.84</v>
+      </c>
+      <c r="J483">
+        <v>6.57</v>
+      </c>
+      <c r="K483">
+        <v>0.99</v>
+      </c>
+      <c r="L483">
+        <v>0.62</v>
+      </c>
+      <c r="M483">
+        <v>0.25</v>
+      </c>
+      <c r="N483">
+        <v>0.01</v>
+      </c>
+      <c r="O483">
+        <v>18</v>
+      </c>
+      <c r="P483">
+        <v>6.8</v>
+      </c>
+      <c r="Q483">
+        <v>30.79</v>
+      </c>
+      <c r="R483">
+        <v>4.8</v>
+      </c>
+      <c r="S483">
+        <v>51</v>
+      </c>
+      <c r="T483">
+        <v>13</v>
+      </c>
+      <c r="U483">
+        <v>38</v>
+      </c>
+      <c r="V483">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>474</v>
+      </c>
+      <c r="B484" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C484" t="s">
+        <v>20</v>
+      </c>
+      <c r="E484" t="s">
+        <v>93</v>
+      </c>
+      <c r="F484" t="s">
+        <v>31</v>
+      </c>
+      <c r="G484" t="s">
+        <v>462</v>
+      </c>
+      <c r="H484">
+        <v>1.71</v>
+      </c>
+      <c r="I484">
+        <v>0.48</v>
+      </c>
+      <c r="J484">
+        <v>1.23</v>
+      </c>
+      <c r="K484">
+        <v>0.21</v>
+      </c>
+      <c r="L484">
+        <v>0.12</v>
+      </c>
+      <c r="M484">
+        <v>0.15</v>
+      </c>
+      <c r="N484">
+        <v>0</v>
+      </c>
+      <c r="O484">
+        <v>9</v>
+      </c>
+      <c r="P484">
+        <v>5.18</v>
+      </c>
+      <c r="Q484">
+        <v>29.08</v>
+      </c>
+      <c r="R484">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S484">
+        <v>5</v>
+      </c>
+      <c r="T484">
+        <v>5</v>
+      </c>
+      <c r="U484">
+        <v>4</v>
+      </c>
+      <c r="V484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>474</v>
+      </c>
+      <c r="B485" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C485" t="s">
+        <v>20</v>
+      </c>
+      <c r="E485" t="s">
+        <v>43</v>
+      </c>
+      <c r="F485" t="s">
+        <v>34</v>
+      </c>
+      <c r="G485" t="s">
+        <v>463</v>
+      </c>
+      <c r="H485">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I485">
+        <v>0.5</v>
+      </c>
+      <c r="J485">
+        <v>1.55</v>
+      </c>
+      <c r="K485">
+        <v>0.27</v>
+      </c>
+      <c r="L485">
+        <v>0.12</v>
+      </c>
+      <c r="M485">
+        <v>0.1</v>
+      </c>
+      <c r="N485">
+        <v>0</v>
+      </c>
+      <c r="O485">
+        <v>5</v>
+      </c>
+      <c r="P485">
+        <v>6.17</v>
+      </c>
+      <c r="Q485">
+        <v>30.24</v>
+      </c>
+      <c r="R485">
+        <v>4.92</v>
+      </c>
+      <c r="S485">
+        <v>7</v>
+      </c>
+      <c r="T485">
+        <v>3</v>
+      </c>
+      <c r="U485">
+        <v>6</v>
+      </c>
+      <c r="V485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>474</v>
+      </c>
+      <c r="B486" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C486" t="s">
+        <v>20</v>
+      </c>
+      <c r="E486" t="s">
+        <v>38</v>
+      </c>
+      <c r="F486" t="s">
+        <v>34</v>
+      </c>
+      <c r="G486" t="s">
+        <v>464</v>
+      </c>
+      <c r="H486">
+        <v>2.98</v>
+      </c>
+      <c r="I486">
+        <v>0.65</v>
+      </c>
+      <c r="J486">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K486">
+        <v>0.33</v>
+      </c>
+      <c r="L486">
+        <v>0.25</v>
+      </c>
+      <c r="M486">
+        <v>0.08</v>
+      </c>
+      <c r="N486">
+        <v>0</v>
+      </c>
+      <c r="O486">
+        <v>7</v>
+      </c>
+      <c r="P486">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q486">
+        <v>29.41</v>
+      </c>
+      <c r="R486">
+        <v>4.68</v>
+      </c>
+      <c r="S486">
+        <v>5</v>
+      </c>
+      <c r="T486">
+        <v>2</v>
+      </c>
+      <c r="U486">
+        <v>14</v>
+      </c>
+      <c r="V486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>474</v>
+      </c>
+      <c r="B487" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C487" t="s">
+        <v>20</v>
+      </c>
+      <c r="E487" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F487" t="s">
+        <v>30</v>
+      </c>
+      <c r="G487" t="s">
+        <v>465</v>
+      </c>
+      <c r="H487">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I487">
+        <v>1.65</v>
+      </c>
+      <c r="J487">
+        <v>6.87</v>
+      </c>
+      <c r="K487">
+        <v>0.96</v>
+      </c>
+      <c r="L487">
+        <v>0.48</v>
+      </c>
+      <c r="M487">
+        <v>0.22</v>
+      </c>
+      <c r="N487">
+        <v>0.01</v>
+      </c>
+      <c r="O487">
+        <v>11</v>
+      </c>
+      <c r="P487">
+        <v>6.16</v>
+      </c>
+      <c r="Q487">
+        <v>31.06</v>
+      </c>
+      <c r="R487">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S487">
+        <v>26</v>
+      </c>
+      <c r="T487">
+        <v>2</v>
+      </c>
+      <c r="U487">
+        <v>24</v>
+      </c>
+      <c r="V487">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>474</v>
+      </c>
+      <c r="B488" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C488" t="s">
+        <v>20</v>
+      </c>
+      <c r="E488" t="s">
+        <v>54</v>
+      </c>
+      <c r="F488" t="s">
+        <v>28</v>
+      </c>
+      <c r="G488" t="s">
+        <v>466</v>
+      </c>
+      <c r="H488">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I488">
+        <v>1.43</v>
+      </c>
+      <c r="J488">
+        <v>6.84</v>
+      </c>
+      <c r="K488">
+        <v>0.88</v>
+      </c>
+      <c r="L488">
+        <v>0.39</v>
+      </c>
+      <c r="M488">
+        <v>0.15</v>
+      </c>
+      <c r="N488">
+        <v>0.03</v>
+      </c>
+      <c r="O488">
+        <v>12</v>
+      </c>
+      <c r="P488">
+        <v>5.26</v>
+      </c>
+      <c r="Q488">
+        <v>31.5</v>
+      </c>
+      <c r="R488">
+        <v>4.28</v>
+      </c>
+      <c r="S488">
+        <v>28</v>
+      </c>
+      <c r="T488">
+        <v>1</v>
+      </c>
+      <c r="U488">
+        <v>33</v>
+      </c>
+      <c r="V488">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="489" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>474</v>
+      </c>
+      <c r="B489" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C489" t="s">
+        <v>20</v>
+      </c>
+      <c r="E489" t="s">
+        <v>48</v>
+      </c>
+      <c r="F489" t="s">
+        <v>29</v>
+      </c>
+      <c r="G489" t="s">
+        <v>467</v>
+      </c>
+      <c r="H489">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I489">
+        <v>0.88</v>
+      </c>
+      <c r="J489">
+        <v>7.32</v>
+      </c>
+      <c r="K489">
+        <v>0.62</v>
+      </c>
+      <c r="L489">
+        <v>0.21</v>
+      </c>
+      <c r="M489">
+        <v>0.06</v>
+      </c>
+      <c r="N489">
+        <v>0</v>
+      </c>
+      <c r="O489">
+        <v>3</v>
+      </c>
+      <c r="P489">
+        <v>5.19</v>
+      </c>
+      <c r="Q489">
+        <v>29.78</v>
+      </c>
+      <c r="R489">
+        <v>4.54</v>
+      </c>
+      <c r="S489">
+        <v>30</v>
+      </c>
+      <c r="T489">
+        <v>6</v>
+      </c>
+      <c r="U489">
+        <v>22</v>
+      </c>
+      <c r="V489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>474</v>
+      </c>
+      <c r="B490" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C490" t="s">
+        <v>20</v>
+      </c>
+      <c r="E490" t="s">
+        <v>40</v>
+      </c>
+      <c r="F490" t="s">
+        <v>31</v>
+      </c>
+      <c r="G490" t="s">
+        <v>468</v>
+      </c>
+      <c r="H490">
+        <v>6.68</v>
+      </c>
+      <c r="I490">
+        <v>1.28</v>
+      </c>
+      <c r="J490">
+        <v>5.39</v>
+      </c>
+      <c r="K490">
+        <v>0.8</v>
+      </c>
+      <c r="L490">
+        <v>0.36</v>
+      </c>
+      <c r="M490">
+        <v>0.13</v>
+      </c>
+      <c r="N490">
+        <v>0</v>
+      </c>
+      <c r="O490">
+        <v>11</v>
+      </c>
+      <c r="P490">
+        <v>6.37</v>
+      </c>
+      <c r="Q490">
+        <v>28.53</v>
+      </c>
+      <c r="R490">
+        <v>4.8</v>
+      </c>
+      <c r="S490">
+        <v>45</v>
+      </c>
+      <c r="T490">
+        <v>9</v>
+      </c>
+      <c r="U490">
+        <v>22</v>
+      </c>
+      <c r="V490">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>474</v>
+      </c>
+      <c r="B491" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C491" t="s">
+        <v>20</v>
+      </c>
+      <c r="E491" t="s">
+        <v>16</v>
+      </c>
+      <c r="F491" t="s">
+        <v>30</v>
+      </c>
+      <c r="G491" t="s">
+        <v>469</v>
+      </c>
+      <c r="H491">
+        <v>8.81</v>
+      </c>
+      <c r="I491">
+        <v>1.33</v>
+      </c>
+      <c r="J491">
+        <v>7.46</v>
+      </c>
+      <c r="K491">
+        <v>0.88</v>
+      </c>
+      <c r="L491">
+        <v>0.37</v>
+      </c>
+      <c r="M491">
+        <v>0.11</v>
+      </c>
+      <c r="N491">
+        <v>0</v>
+      </c>
+      <c r="O491">
+        <v>8</v>
+      </c>
+      <c r="P491">
+        <v>5.55</v>
+      </c>
+      <c r="Q491">
+        <v>29.19</v>
+      </c>
+      <c r="R491">
+        <v>4.92</v>
+      </c>
+      <c r="S491">
+        <v>47</v>
+      </c>
+      <c r="T491">
+        <v>19</v>
+      </c>
+      <c r="U491">
+        <v>42</v>
+      </c>
+      <c r="V491">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>474</v>
+      </c>
+      <c r="B492" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C492" t="s">
+        <v>20</v>
+      </c>
+      <c r="E492" t="s">
+        <v>58</v>
+      </c>
+      <c r="F492" t="s">
+        <v>29</v>
+      </c>
+      <c r="G492" t="s">
+        <v>470</v>
+      </c>
+      <c r="H492">
+        <v>8.59</v>
+      </c>
+      <c r="I492">
+        <v>1.02</v>
+      </c>
+      <c r="J492">
+        <v>7.55</v>
+      </c>
+      <c r="K492">
+        <v>0.79</v>
+      </c>
+      <c r="L492">
+        <v>0.2</v>
+      </c>
+      <c r="M492">
+        <v>0.04</v>
+      </c>
+      <c r="N492">
+        <v>0</v>
+      </c>
+      <c r="O492">
+        <v>2</v>
+      </c>
+      <c r="P492">
+        <v>5.39</v>
+      </c>
+      <c r="Q492">
+        <v>29.07</v>
+      </c>
+      <c r="R492">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S492">
+        <v>30</v>
+      </c>
+      <c r="T492">
+        <v>3</v>
+      </c>
+      <c r="U492">
+        <v>29</v>
+      </c>
+      <c r="V492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>474</v>
+      </c>
+      <c r="B493" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C493" t="s">
+        <v>20</v>
+      </c>
+      <c r="E493" t="s">
+        <v>50</v>
+      </c>
+      <c r="F493" t="s">
+        <v>33</v>
+      </c>
+      <c r="G493" t="s">
+        <v>471</v>
+      </c>
+      <c r="H493">
+        <v>1.04</v>
+      </c>
+      <c r="I493">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J493">
+        <v>0.97</v>
+      </c>
+      <c r="K493">
+        <v>0.05</v>
+      </c>
+      <c r="L493">
+        <v>0.02</v>
+      </c>
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493">
+        <v>0</v>
+      </c>
+      <c r="O493">
+        <v>0</v>
+      </c>
+      <c r="P493">
+        <v>4.74</v>
+      </c>
+      <c r="Q493">
+        <v>22.5</v>
+      </c>
+      <c r="R493">
+        <v>3.89</v>
+      </c>
+      <c r="S493">
+        <v>1</v>
+      </c>
+      <c r="T493">
+        <v>0</v>
+      </c>
+      <c r="U493">
+        <v>4</v>
+      </c>
+      <c r="V493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>474</v>
+      </c>
+      <c r="B494" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C494" t="s">
+        <v>20</v>
+      </c>
+      <c r="E494" t="s">
+        <v>55</v>
+      </c>
+      <c r="F494" t="s">
+        <v>32</v>
+      </c>
+      <c r="G494" t="s">
+        <v>472</v>
+      </c>
+      <c r="H494">
+        <v>9.26</v>
+      </c>
+      <c r="I494">
+        <v>1.28</v>
+      </c>
+      <c r="J494">
+        <v>7.96</v>
+      </c>
+      <c r="K494">
+        <v>0.87</v>
+      </c>
+      <c r="L494">
+        <v>0.33</v>
+      </c>
+      <c r="M494">
+        <v>0.09</v>
+      </c>
+      <c r="N494">
+        <v>0</v>
+      </c>
+      <c r="O494">
+        <v>7</v>
+      </c>
+      <c r="P494">
+        <v>5.73</v>
+      </c>
+      <c r="Q494">
+        <v>27.98</v>
+      </c>
+      <c r="R494">
+        <v>4.97</v>
+      </c>
+      <c r="S494">
+        <v>42</v>
+      </c>
+      <c r="T494">
+        <v>8</v>
+      </c>
+      <c r="U494">
+        <v>32</v>
+      </c>
+      <c r="V494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>474</v>
+      </c>
+      <c r="B495" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C495" t="s">
+        <v>20</v>
+      </c>
+      <c r="E495" t="s">
+        <v>53</v>
+      </c>
+      <c r="F495" t="s">
+        <v>32</v>
+      </c>
+      <c r="G495" t="s">
+        <v>473</v>
+      </c>
+      <c r="H495">
+        <v>10.82</v>
+      </c>
+      <c r="I495">
+        <v>1.7</v>
+      </c>
+      <c r="J495">
+        <v>9.1</v>
+      </c>
+      <c r="K495">
+        <v>1.34</v>
+      </c>
+      <c r="L495">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M495">
+        <v>0.1</v>
+      </c>
+      <c r="N495">
+        <v>0</v>
+      </c>
+      <c r="O495">
+        <v>6</v>
+      </c>
+      <c r="P495">
+        <v>6.89</v>
+      </c>
+      <c r="Q495">
+        <v>29.71</v>
+      </c>
+      <c r="R495">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S495">
+        <v>40</v>
+      </c>
+      <c r="T495">
+        <v>10</v>
+      </c>
+      <c r="U495">
+        <v>31</v>
+      </c>
+      <c r="V495">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71228EF7-1F90-E54C-B10C-E1F6E8A8FA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124CAB1-83BF-FF43-8234-F7871C8E7D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="481">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1461,6 +1461,24 @@
   </si>
   <si>
     <t>CDF T3 VS Plaine Tonique (R3)</t>
+  </si>
+  <si>
+    <t>01:48:28</t>
+  </si>
+  <si>
+    <t>01:48:12</t>
+  </si>
+  <si>
+    <t>01:48:03</t>
+  </si>
+  <si>
+    <t>01:47:09</t>
+  </si>
+  <si>
+    <t>01:41:21</t>
+  </si>
+  <si>
+    <t>01:46:27</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V495"/>
+  <dimension ref="A1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A468" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A486" sqref="A486"/>
+      <selection activeCell="D504" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34471,6 +34489,414 @@
         <v>7</v>
       </c>
     </row>
+    <row r="496" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>23</v>
+      </c>
+      <c r="B496" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C496" t="s">
+        <v>20</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E496" t="s">
+        <v>52</v>
+      </c>
+      <c r="F496" t="s">
+        <v>33</v>
+      </c>
+      <c r="G496" t="s">
+        <v>475</v>
+      </c>
+      <c r="H496">
+        <v>8.61</v>
+      </c>
+      <c r="I496">
+        <v>0.3</v>
+      </c>
+      <c r="J496">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K496">
+        <v>0.24</v>
+      </c>
+      <c r="L496">
+        <v>0.06</v>
+      </c>
+      <c r="M496">
+        <v>0.01</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+      <c r="O496">
+        <v>1</v>
+      </c>
+      <c r="P496">
+        <v>4.7</v>
+      </c>
+      <c r="Q496">
+        <v>27.44</v>
+      </c>
+      <c r="R496">
+        <v>4.76</v>
+      </c>
+      <c r="S496">
+        <v>41</v>
+      </c>
+      <c r="T496">
+        <v>9</v>
+      </c>
+      <c r="U496">
+        <v>19</v>
+      </c>
+      <c r="V496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>23</v>
+      </c>
+      <c r="B497" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C497" t="s">
+        <v>20</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E497" t="s">
+        <v>53</v>
+      </c>
+      <c r="F497" t="s">
+        <v>32</v>
+      </c>
+      <c r="G497" t="s">
+        <v>476</v>
+      </c>
+      <c r="H497">
+        <v>9.11</v>
+      </c>
+      <c r="I497">
+        <v>0.22</v>
+      </c>
+      <c r="J497">
+        <v>8.89</v>
+      </c>
+      <c r="K497">
+        <v>0.21</v>
+      </c>
+      <c r="L497">
+        <v>0.01</v>
+      </c>
+      <c r="M497">
+        <v>0</v>
+      </c>
+      <c r="N497">
+        <v>0</v>
+      </c>
+      <c r="O497">
+        <v>0</v>
+      </c>
+      <c r="P497">
+        <v>4.97</v>
+      </c>
+      <c r="Q497">
+        <v>21.99</v>
+      </c>
+      <c r="R497">
+        <v>4.68</v>
+      </c>
+      <c r="S497">
+        <v>30</v>
+      </c>
+      <c r="T497">
+        <v>6</v>
+      </c>
+      <c r="U497">
+        <v>28</v>
+      </c>
+      <c r="V497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>23</v>
+      </c>
+      <c r="B498" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C498" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E498" t="s">
+        <v>164</v>
+      </c>
+      <c r="F498" t="s">
+        <v>32</v>
+      </c>
+      <c r="G498" t="s">
+        <v>477</v>
+      </c>
+      <c r="H498">
+        <v>8.86</v>
+      </c>
+      <c r="I498">
+        <v>0.39</v>
+      </c>
+      <c r="J498">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="K498">
+        <v>0.36</v>
+      </c>
+      <c r="L498">
+        <v>0.04</v>
+      </c>
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498">
+        <v>0</v>
+      </c>
+      <c r="O498">
+        <v>0</v>
+      </c>
+      <c r="P498">
+        <v>4.83</v>
+      </c>
+      <c r="Q498">
+        <v>22.04</v>
+      </c>
+      <c r="R498">
+        <v>4.55</v>
+      </c>
+      <c r="S498">
+        <v>38</v>
+      </c>
+      <c r="T498">
+        <v>3</v>
+      </c>
+      <c r="U498">
+        <v>42</v>
+      </c>
+      <c r="V498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>23</v>
+      </c>
+      <c r="B499" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C499" t="s">
+        <v>20</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E499" t="s">
+        <v>447</v>
+      </c>
+      <c r="F499" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G499" t="s">
+        <v>478</v>
+      </c>
+      <c r="H499">
+        <v>8.69</v>
+      </c>
+      <c r="I499">
+        <v>0.23</v>
+      </c>
+      <c r="J499">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="K499">
+        <v>0.23</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>0</v>
+      </c>
+      <c r="O499">
+        <v>0</v>
+      </c>
+      <c r="P499">
+        <v>4.75</v>
+      </c>
+      <c r="Q499">
+        <v>21.59</v>
+      </c>
+      <c r="R499">
+        <v>4.62</v>
+      </c>
+      <c r="S499">
+        <v>46</v>
+      </c>
+      <c r="T499">
+        <v>2</v>
+      </c>
+      <c r="U499">
+        <v>34</v>
+      </c>
+      <c r="V499">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>23</v>
+      </c>
+      <c r="B500" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C500" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E500" t="s">
+        <v>43</v>
+      </c>
+      <c r="F500" t="s">
+        <v>34</v>
+      </c>
+      <c r="G500" t="s">
+        <v>479</v>
+      </c>
+      <c r="H500">
+        <v>8.92</v>
+      </c>
+      <c r="I500">
+        <v>0.22</v>
+      </c>
+      <c r="J500">
+        <v>8.68</v>
+      </c>
+      <c r="K500">
+        <v>0.23</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0</v>
+      </c>
+      <c r="O500">
+        <v>0</v>
+      </c>
+      <c r="P500">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="Q500">
+        <v>20.41</v>
+      </c>
+      <c r="R500">
+        <v>4.93</v>
+      </c>
+      <c r="S500">
+        <v>85</v>
+      </c>
+      <c r="T500">
+        <v>12</v>
+      </c>
+      <c r="U500">
+        <v>78</v>
+      </c>
+      <c r="V500">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="501" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>23</v>
+      </c>
+      <c r="B501" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C501" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E501" t="s">
+        <v>40</v>
+      </c>
+      <c r="F501" t="s">
+        <v>31</v>
+      </c>
+      <c r="G501" t="s">
+        <v>480</v>
+      </c>
+      <c r="H501">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I501">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J501">
+        <v>7.92</v>
+      </c>
+      <c r="K501">
+        <v>0.25</v>
+      </c>
+      <c r="L501">
+        <v>0.04</v>
+      </c>
+      <c r="M501">
+        <v>0</v>
+      </c>
+      <c r="N501">
+        <v>0</v>
+      </c>
+      <c r="O501">
+        <v>0</v>
+      </c>
+      <c r="P501">
+        <v>4.18</v>
+      </c>
+      <c r="Q501">
+        <v>23.51</v>
+      </c>
+      <c r="R501">
+        <v>5.79</v>
+      </c>
+      <c r="S501">
+        <v>57</v>
+      </c>
+      <c r="T501">
+        <v>11</v>
+      </c>
+      <c r="U501">
+        <v>45</v>
+      </c>
+      <c r="V501">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124CAB1-83BF-FF43-8234-F7871C8E7D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93FA3F-9FB4-AD45-BB91-C7AA759D4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="492">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1479,6 +1479,39 @@
   </si>
   <si>
     <t>01:46:27</t>
+  </si>
+  <si>
+    <t>01:38:44</t>
+  </si>
+  <si>
+    <t>01:35:43</t>
+  </si>
+  <si>
+    <t>01:39:21</t>
+  </si>
+  <si>
+    <t>01:38:54</t>
+  </si>
+  <si>
+    <t>01:34:59</t>
+  </si>
+  <si>
+    <t>01:37:04</t>
+  </si>
+  <si>
+    <t>01:36:38</t>
+  </si>
+  <si>
+    <t>01:36:28</t>
+  </si>
+  <si>
+    <t>01:37:14</t>
+  </si>
+  <si>
+    <t>01:39:47</t>
+  </si>
+  <si>
+    <t>01:36:37</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V501"/>
+  <dimension ref="A1:V514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D520" sqref="D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34897,6 +34930,890 @@
         <v>21</v>
       </c>
     </row>
+    <row r="502" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>23</v>
+      </c>
+      <c r="B502" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C502" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E502" t="s">
+        <v>40</v>
+      </c>
+      <c r="F502" t="s">
+        <v>31</v>
+      </c>
+      <c r="G502" t="s">
+        <v>481</v>
+      </c>
+      <c r="H502">
+        <v>6.47</v>
+      </c>
+      <c r="I502">
+        <v>0.75</v>
+      </c>
+      <c r="J502">
+        <v>5.7</v>
+      </c>
+      <c r="K502">
+        <v>0.43</v>
+      </c>
+      <c r="L502">
+        <v>0.22</v>
+      </c>
+      <c r="M502">
+        <v>0.11</v>
+      </c>
+      <c r="N502">
+        <v>0.01</v>
+      </c>
+      <c r="O502">
+        <v>9</v>
+      </c>
+      <c r="P502">
+        <v>3.59</v>
+      </c>
+      <c r="Q502">
+        <v>31</v>
+      </c>
+      <c r="R502">
+        <v>5.46</v>
+      </c>
+      <c r="S502">
+        <v>60</v>
+      </c>
+      <c r="T502">
+        <v>17</v>
+      </c>
+      <c r="U502">
+        <v>42</v>
+      </c>
+      <c r="V502">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C503" t="s">
+        <v>20</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E503" t="s">
+        <v>16</v>
+      </c>
+      <c r="F503" t="s">
+        <v>30</v>
+      </c>
+      <c r="G503" t="s">
+        <v>181</v>
+      </c>
+      <c r="H503">
+        <v>6.63</v>
+      </c>
+      <c r="I503">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J503">
+        <v>6.04</v>
+      </c>
+      <c r="K503">
+        <v>0.42</v>
+      </c>
+      <c r="L503">
+        <v>0.1</v>
+      </c>
+      <c r="M503">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N503">
+        <v>0</v>
+      </c>
+      <c r="O503">
+        <v>5</v>
+      </c>
+      <c r="P503">
+        <v>3.56</v>
+      </c>
+      <c r="Q503">
+        <v>29.97</v>
+      </c>
+      <c r="R503">
+        <v>5.68</v>
+      </c>
+      <c r="S503">
+        <v>54</v>
+      </c>
+      <c r="T503">
+        <v>11</v>
+      </c>
+      <c r="U503">
+        <v>47</v>
+      </c>
+      <c r="V503">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>23</v>
+      </c>
+      <c r="B504" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C504" t="s">
+        <v>20</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E504" t="s">
+        <v>54</v>
+      </c>
+      <c r="F504" t="s">
+        <v>28</v>
+      </c>
+      <c r="G504" t="s">
+        <v>482</v>
+      </c>
+      <c r="H504">
+        <v>5.33</v>
+      </c>
+      <c r="I504">
+        <v>0.46</v>
+      </c>
+      <c r="J504">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K504">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L504">
+        <v>0.16</v>
+      </c>
+      <c r="M504">
+        <v>0.03</v>
+      </c>
+      <c r="N504">
+        <v>0</v>
+      </c>
+      <c r="O504">
+        <v>3</v>
+      </c>
+      <c r="P504">
+        <v>3.24</v>
+      </c>
+      <c r="Q504">
+        <v>26.83</v>
+      </c>
+      <c r="R504">
+        <v>5.07</v>
+      </c>
+      <c r="S504">
+        <v>18</v>
+      </c>
+      <c r="T504">
+        <v>5</v>
+      </c>
+      <c r="U504">
+        <v>12</v>
+      </c>
+      <c r="V504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>23</v>
+      </c>
+      <c r="B505" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C505" t="s">
+        <v>20</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E505" t="s">
+        <v>164</v>
+      </c>
+      <c r="F505" t="s">
+        <v>32</v>
+      </c>
+      <c r="G505" t="s">
+        <v>483</v>
+      </c>
+      <c r="H505">
+        <v>7.18</v>
+      </c>
+      <c r="I505">
+        <v>0.83</v>
+      </c>
+      <c r="J505">
+        <v>6.34</v>
+      </c>
+      <c r="K505">
+        <v>0.61</v>
+      </c>
+      <c r="L505">
+        <v>0.19</v>
+      </c>
+      <c r="M505">
+        <v>0.04</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+      <c r="O505">
+        <v>3</v>
+      </c>
+      <c r="P505">
+        <v>4</v>
+      </c>
+      <c r="Q505">
+        <v>28.68</v>
+      </c>
+      <c r="R505">
+        <v>4.54</v>
+      </c>
+      <c r="S505">
+        <v>24</v>
+      </c>
+      <c r="T505">
+        <v>7</v>
+      </c>
+      <c r="U505">
+        <v>26</v>
+      </c>
+      <c r="V505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>23</v>
+      </c>
+      <c r="B506" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C506" t="s">
+        <v>20</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E506" t="s">
+        <v>35</v>
+      </c>
+      <c r="F506" t="s">
+        <v>34</v>
+      </c>
+      <c r="G506" t="s">
+        <v>484</v>
+      </c>
+      <c r="H506">
+        <v>6.42</v>
+      </c>
+      <c r="I506">
+        <v>0.85</v>
+      </c>
+      <c r="J506">
+        <v>5.56</v>
+      </c>
+      <c r="K506">
+        <v>0.4</v>
+      </c>
+      <c r="L506">
+        <v>0.31</v>
+      </c>
+      <c r="M506">
+        <v>0.16</v>
+      </c>
+      <c r="N506">
+        <v>0</v>
+      </c>
+      <c r="O506">
+        <v>15</v>
+      </c>
+      <c r="P506">
+        <v>3.85</v>
+      </c>
+      <c r="Q506">
+        <v>29.86</v>
+      </c>
+      <c r="R506">
+        <v>5.41</v>
+      </c>
+      <c r="S506">
+        <v>32</v>
+      </c>
+      <c r="T506">
+        <v>18</v>
+      </c>
+      <c r="U506">
+        <v>19</v>
+      </c>
+      <c r="V506">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>23</v>
+      </c>
+      <c r="B507" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C507" t="s">
+        <v>20</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E507" t="s">
+        <v>53</v>
+      </c>
+      <c r="F507" t="s">
+        <v>32</v>
+      </c>
+      <c r="G507" t="s">
+        <v>485</v>
+      </c>
+      <c r="H507">
+        <v>7.51</v>
+      </c>
+      <c r="I507">
+        <v>0.8</v>
+      </c>
+      <c r="J507">
+        <v>6.7</v>
+      </c>
+      <c r="K507">
+        <v>0.73</v>
+      </c>
+      <c r="L507">
+        <v>0.08</v>
+      </c>
+      <c r="M507">
+        <v>0</v>
+      </c>
+      <c r="N507">
+        <v>0</v>
+      </c>
+      <c r="O507">
+        <v>0</v>
+      </c>
+      <c r="P507">
+        <v>4.66</v>
+      </c>
+      <c r="Q507">
+        <v>24.74</v>
+      </c>
+      <c r="R507">
+        <v>5.15</v>
+      </c>
+      <c r="S507">
+        <v>31</v>
+      </c>
+      <c r="T507">
+        <v>6</v>
+      </c>
+      <c r="U507">
+        <v>23</v>
+      </c>
+      <c r="V507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>23</v>
+      </c>
+      <c r="B508" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C508" t="s">
+        <v>20</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E508" t="s">
+        <v>52</v>
+      </c>
+      <c r="F508" t="s">
+        <v>33</v>
+      </c>
+      <c r="G508" t="s">
+        <v>190</v>
+      </c>
+      <c r="H508">
+        <v>7.74</v>
+      </c>
+      <c r="I508">
+        <v>0.9</v>
+      </c>
+      <c r="J508">
+        <v>6.82</v>
+      </c>
+      <c r="K508">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L508">
+        <v>0.26</v>
+      </c>
+      <c r="M508">
+        <v>0.09</v>
+      </c>
+      <c r="N508">
+        <v>0.01</v>
+      </c>
+      <c r="O508">
+        <v>7</v>
+      </c>
+      <c r="P508">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q508">
+        <v>30.69</v>
+      </c>
+      <c r="R508">
+        <v>4.46</v>
+      </c>
+      <c r="S508">
+        <v>35</v>
+      </c>
+      <c r="T508">
+        <v>7</v>
+      </c>
+      <c r="U508">
+        <v>24</v>
+      </c>
+      <c r="V508">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>23</v>
+      </c>
+      <c r="B509" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C509" t="s">
+        <v>20</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E509" t="s">
+        <v>48</v>
+      </c>
+      <c r="F509" t="s">
+        <v>29</v>
+      </c>
+      <c r="G509" t="s">
+        <v>486</v>
+      </c>
+      <c r="H509">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I509">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J509">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K509">
+        <v>0.24</v>
+      </c>
+      <c r="L509">
+        <v>0.05</v>
+      </c>
+      <c r="M509">
+        <v>0</v>
+      </c>
+      <c r="N509">
+        <v>0</v>
+      </c>
+      <c r="O509">
+        <v>0</v>
+      </c>
+      <c r="P509">
+        <v>2.93</v>
+      </c>
+      <c r="Q509">
+        <v>24.67</v>
+      </c>
+      <c r="R509">
+        <v>4.13</v>
+      </c>
+      <c r="S509">
+        <v>14</v>
+      </c>
+      <c r="T509">
+        <v>2</v>
+      </c>
+      <c r="U509">
+        <v>5</v>
+      </c>
+      <c r="V509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>23</v>
+      </c>
+      <c r="B510" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C510" t="s">
+        <v>20</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E510" t="s">
+        <v>448</v>
+      </c>
+      <c r="F510" t="s">
+        <v>32</v>
+      </c>
+      <c r="G510" t="s">
+        <v>487</v>
+      </c>
+      <c r="H510">
+        <v>6.46</v>
+      </c>
+      <c r="I510">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J510">
+        <v>6.17</v>
+      </c>
+      <c r="K510">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+      <c r="M510">
+        <v>0</v>
+      </c>
+      <c r="N510">
+        <v>0</v>
+      </c>
+      <c r="O510">
+        <v>0</v>
+      </c>
+      <c r="P510">
+        <v>3.95</v>
+      </c>
+      <c r="Q510">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="R510">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S510">
+        <v>11</v>
+      </c>
+      <c r="T510">
+        <v>3</v>
+      </c>
+      <c r="U510">
+        <v>7</v>
+      </c>
+      <c r="V510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>23</v>
+      </c>
+      <c r="B511" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C511" t="s">
+        <v>20</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E511" t="s">
+        <v>43</v>
+      </c>
+      <c r="F511" t="s">
+        <v>34</v>
+      </c>
+      <c r="G511" t="s">
+        <v>488</v>
+      </c>
+      <c r="H511">
+        <v>6.55</v>
+      </c>
+      <c r="I511">
+        <v>0.8</v>
+      </c>
+      <c r="J511">
+        <v>5.73</v>
+      </c>
+      <c r="K511">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L511">
+        <v>0.2</v>
+      </c>
+      <c r="M511">
+        <v>0.06</v>
+      </c>
+      <c r="N511">
+        <v>0.01</v>
+      </c>
+      <c r="O511">
+        <v>5</v>
+      </c>
+      <c r="P511">
+        <v>3.72</v>
+      </c>
+      <c r="Q511">
+        <v>31.62</v>
+      </c>
+      <c r="R511">
+        <v>6.28</v>
+      </c>
+      <c r="S511">
+        <v>71</v>
+      </c>
+      <c r="T511">
+        <v>24</v>
+      </c>
+      <c r="U511">
+        <v>46</v>
+      </c>
+      <c r="V511">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C512" t="s">
+        <v>20</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E512" t="s">
+        <v>50</v>
+      </c>
+      <c r="F512" t="s">
+        <v>33</v>
+      </c>
+      <c r="G512" t="s">
+        <v>489</v>
+      </c>
+      <c r="H512">
+        <v>6.09</v>
+      </c>
+      <c r="I512">
+        <v>0.54</v>
+      </c>
+      <c r="J512">
+        <v>5.54</v>
+      </c>
+      <c r="K512">
+        <v>0.41</v>
+      </c>
+      <c r="L512">
+        <v>0.13</v>
+      </c>
+      <c r="M512">
+        <v>0.01</v>
+      </c>
+      <c r="N512">
+        <v>0</v>
+      </c>
+      <c r="O512">
+        <v>2</v>
+      </c>
+      <c r="P512">
+        <v>3.67</v>
+      </c>
+      <c r="Q512">
+        <v>27.06</v>
+      </c>
+      <c r="R512">
+        <v>5.37</v>
+      </c>
+      <c r="S512">
+        <v>28</v>
+      </c>
+      <c r="T512">
+        <v>15</v>
+      </c>
+      <c r="U512">
+        <v>24</v>
+      </c>
+      <c r="V512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>23</v>
+      </c>
+      <c r="B513" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C513" t="s">
+        <v>20</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E513" t="s">
+        <v>447</v>
+      </c>
+      <c r="F513" t="s">
+        <v>33</v>
+      </c>
+      <c r="G513" t="s">
+        <v>490</v>
+      </c>
+      <c r="H513">
+        <v>6.31</v>
+      </c>
+      <c r="I513">
+        <v>0.68</v>
+      </c>
+      <c r="J513">
+        <v>5.62</v>
+      </c>
+      <c r="K513">
+        <v>0.47</v>
+      </c>
+      <c r="L513">
+        <v>0.15</v>
+      </c>
+      <c r="M513">
+        <v>0.06</v>
+      </c>
+      <c r="N513">
+        <v>0</v>
+      </c>
+      <c r="O513">
+        <v>5</v>
+      </c>
+      <c r="P513">
+        <v>3.67</v>
+      </c>
+      <c r="Q513">
+        <v>28.31</v>
+      </c>
+      <c r="R513">
+        <v>4.68</v>
+      </c>
+      <c r="S513">
+        <v>32</v>
+      </c>
+      <c r="T513">
+        <v>6</v>
+      </c>
+      <c r="U513">
+        <v>19</v>
+      </c>
+      <c r="V513">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>23</v>
+      </c>
+      <c r="B514" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C514" t="s">
+        <v>20</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E514" t="s">
+        <v>38</v>
+      </c>
+      <c r="F514" t="s">
+        <v>34</v>
+      </c>
+      <c r="G514" t="s">
+        <v>491</v>
+      </c>
+      <c r="H514">
+        <v>6.72</v>
+      </c>
+      <c r="I514">
+        <v>0.99</v>
+      </c>
+      <c r="J514">
+        <v>5.72</v>
+      </c>
+      <c r="K514">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L514">
+        <v>0.34</v>
+      </c>
+      <c r="M514">
+        <v>0.1</v>
+      </c>
+      <c r="N514">
+        <v>0</v>
+      </c>
+      <c r="O514">
+        <v>10</v>
+      </c>
+      <c r="P514">
+        <v>3.99</v>
+      </c>
+      <c r="Q514">
+        <v>28</v>
+      </c>
+      <c r="R514">
+        <v>4.5</v>
+      </c>
+      <c r="S514">
+        <v>22</v>
+      </c>
+      <c r="T514">
+        <v>7</v>
+      </c>
+      <c r="U514">
+        <v>21</v>
+      </c>
+      <c r="V514">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93FA3F-9FB4-AD45-BB91-C7AA759D4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210A9B5-E580-2849-AEAF-6274990C9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="498">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1512,6 +1512,24 @@
   </si>
   <si>
     <t>01:36:37</t>
+  </si>
+  <si>
+    <t>00:32:22</t>
+  </si>
+  <si>
+    <t>00:30:10</t>
+  </si>
+  <si>
+    <t>00:43:45</t>
+  </si>
+  <si>
+    <t>00:47:14</t>
+  </si>
+  <si>
+    <t>00:32:38</t>
+  </si>
+  <si>
+    <t>00:45:34</t>
   </si>
 </sst>
 </file>
@@ -1904,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V514"/>
+  <dimension ref="A1:V521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A487" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D520" sqref="D520"/>
+      <selection activeCell="E524" sqref="E524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35814,6 +35832,482 @@
         <v>5</v>
       </c>
     </row>
+    <row r="515" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>23</v>
+      </c>
+      <c r="B515" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C515" t="s">
+        <v>20</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E515" t="s">
+        <v>251</v>
+      </c>
+      <c r="F515" t="s">
+        <v>32</v>
+      </c>
+      <c r="G515" t="s">
+        <v>150</v>
+      </c>
+      <c r="H515">
+        <v>2.73</v>
+      </c>
+      <c r="I515">
+        <v>0.33</v>
+      </c>
+      <c r="J515">
+        <v>2.39</v>
+      </c>
+      <c r="K515">
+        <v>0.13</v>
+      </c>
+      <c r="L515">
+        <v>0.12</v>
+      </c>
+      <c r="M515">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N515">
+        <v>0</v>
+      </c>
+      <c r="O515">
+        <v>5</v>
+      </c>
+      <c r="P515">
+        <v>3.37</v>
+      </c>
+      <c r="Q515">
+        <v>29.42</v>
+      </c>
+      <c r="R515">
+        <v>4.2</v>
+      </c>
+      <c r="S515">
+        <v>20</v>
+      </c>
+      <c r="T515">
+        <v>1</v>
+      </c>
+      <c r="U515">
+        <v>3</v>
+      </c>
+      <c r="V515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>23</v>
+      </c>
+      <c r="B516" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C516" t="s">
+        <v>20</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E516" t="s">
+        <v>58</v>
+      </c>
+      <c r="F516" t="s">
+        <v>29</v>
+      </c>
+      <c r="G516" t="s">
+        <v>492</v>
+      </c>
+      <c r="H516">
+        <v>2.39</v>
+      </c>
+      <c r="I516">
+        <v>0.26</v>
+      </c>
+      <c r="J516">
+        <v>2.13</v>
+      </c>
+      <c r="K516">
+        <v>0.15</v>
+      </c>
+      <c r="L516">
+        <v>0.11</v>
+      </c>
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516">
+        <v>0</v>
+      </c>
+      <c r="O516">
+        <v>1</v>
+      </c>
+      <c r="P516">
+        <v>3.82</v>
+      </c>
+      <c r="Q516">
+        <v>25.69</v>
+      </c>
+      <c r="R516">
+        <v>4.74</v>
+      </c>
+      <c r="S516">
+        <v>17</v>
+      </c>
+      <c r="T516">
+        <v>3</v>
+      </c>
+      <c r="U516">
+        <v>4</v>
+      </c>
+      <c r="V516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>23</v>
+      </c>
+      <c r="B517" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C517" t="s">
+        <v>20</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E517" t="s">
+        <v>24</v>
+      </c>
+      <c r="F517" t="s">
+        <v>32</v>
+      </c>
+      <c r="G517" t="s">
+        <v>493</v>
+      </c>
+      <c r="H517">
+        <v>1.86</v>
+      </c>
+      <c r="I517">
+        <v>0.25</v>
+      </c>
+      <c r="J517">
+        <v>1.6</v>
+      </c>
+      <c r="K517">
+        <v>0.13</v>
+      </c>
+      <c r="L517">
+        <v>0.1</v>
+      </c>
+      <c r="M517">
+        <v>0.03</v>
+      </c>
+      <c r="N517">
+        <v>0</v>
+      </c>
+      <c r="O517">
+        <v>3</v>
+      </c>
+      <c r="P517">
+        <v>3.59</v>
+      </c>
+      <c r="Q517">
+        <v>28.02</v>
+      </c>
+      <c r="R517">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S517">
+        <v>10</v>
+      </c>
+      <c r="T517">
+        <v>1</v>
+      </c>
+      <c r="U517">
+        <v>2</v>
+      </c>
+      <c r="V517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>23</v>
+      </c>
+      <c r="B518" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C518" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E518" t="s">
+        <v>447</v>
+      </c>
+      <c r="F518" t="s">
+        <v>33</v>
+      </c>
+      <c r="G518" t="s">
+        <v>494</v>
+      </c>
+      <c r="H518">
+        <v>3.01</v>
+      </c>
+      <c r="I518">
+        <v>0.49</v>
+      </c>
+      <c r="J518">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K518">
+        <v>0.24</v>
+      </c>
+      <c r="L518">
+        <v>0.16</v>
+      </c>
+      <c r="M518">
+        <v>0.1</v>
+      </c>
+      <c r="N518">
+        <v>0</v>
+      </c>
+      <c r="O518">
+        <v>7</v>
+      </c>
+      <c r="P518">
+        <v>4.03</v>
+      </c>
+      <c r="Q518">
+        <v>29.63</v>
+      </c>
+      <c r="R518">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S518">
+        <v>16</v>
+      </c>
+      <c r="T518">
+        <v>2</v>
+      </c>
+      <c r="U518">
+        <v>10</v>
+      </c>
+      <c r="V518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>23</v>
+      </c>
+      <c r="B519" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C519" t="s">
+        <v>20</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E519" t="s">
+        <v>164</v>
+      </c>
+      <c r="F519" t="s">
+        <v>32</v>
+      </c>
+      <c r="G519" t="s">
+        <v>495</v>
+      </c>
+      <c r="H519">
+        <v>3</v>
+      </c>
+      <c r="I519">
+        <v>0.33</v>
+      </c>
+      <c r="J519">
+        <v>2.67</v>
+      </c>
+      <c r="K519">
+        <v>0.11</v>
+      </c>
+      <c r="L519">
+        <v>0.13</v>
+      </c>
+      <c r="M519">
+        <v>0.09</v>
+      </c>
+      <c r="N519">
+        <v>0</v>
+      </c>
+      <c r="O519">
+        <v>5</v>
+      </c>
+      <c r="P519">
+        <v>3.76</v>
+      </c>
+      <c r="Q519">
+        <v>29.37</v>
+      </c>
+      <c r="R519">
+        <v>3.99</v>
+      </c>
+      <c r="S519">
+        <v>18</v>
+      </c>
+      <c r="T519">
+        <v>0</v>
+      </c>
+      <c r="U519">
+        <v>7</v>
+      </c>
+      <c r="V519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>23</v>
+      </c>
+      <c r="B520" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C520" t="s">
+        <v>20</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E520" t="s">
+        <v>50</v>
+      </c>
+      <c r="F520" t="s">
+        <v>33</v>
+      </c>
+      <c r="G520" t="s">
+        <v>496</v>
+      </c>
+      <c r="H520">
+        <v>2.21</v>
+      </c>
+      <c r="I520">
+        <v>0.3</v>
+      </c>
+      <c r="J520">
+        <v>1.91</v>
+      </c>
+      <c r="K520">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L520">
+        <v>0.09</v>
+      </c>
+      <c r="M520">
+        <v>0.12</v>
+      </c>
+      <c r="N520">
+        <v>0.01</v>
+      </c>
+      <c r="O520">
+        <v>8</v>
+      </c>
+      <c r="P520">
+        <v>3.96</v>
+      </c>
+      <c r="Q520">
+        <v>30.73</v>
+      </c>
+      <c r="R520">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S520">
+        <v>4</v>
+      </c>
+      <c r="T520">
+        <v>1</v>
+      </c>
+      <c r="U520">
+        <v>3</v>
+      </c>
+      <c r="V520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C521" t="s">
+        <v>20</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E521" t="s">
+        <v>52</v>
+      </c>
+      <c r="F521" t="s">
+        <v>33</v>
+      </c>
+      <c r="G521" t="s">
+        <v>497</v>
+      </c>
+      <c r="H521">
+        <v>2.6</v>
+      </c>
+      <c r="I521">
+        <v>0.21</v>
+      </c>
+      <c r="J521">
+        <v>2.38</v>
+      </c>
+      <c r="K521">
+        <v>0.13</v>
+      </c>
+      <c r="L521">
+        <v>0.08</v>
+      </c>
+      <c r="M521">
+        <v>0.01</v>
+      </c>
+      <c r="N521">
+        <v>0</v>
+      </c>
+      <c r="O521">
+        <v>2</v>
+      </c>
+      <c r="P521">
+        <v>3.29</v>
+      </c>
+      <c r="Q521">
+        <v>26.64</v>
+      </c>
+      <c r="R521">
+        <v>4.42</v>
+      </c>
+      <c r="S521">
+        <v>11</v>
+      </c>
+      <c r="T521">
+        <v>2</v>
+      </c>
+      <c r="U521">
+        <v>4</v>
+      </c>
+      <c r="V521">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210A9B5-E580-2849-AEAF-6274990C9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58668F9E-3F1D-9C49-A4E7-576EDBC601BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="504">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1530,6 +1530,24 @@
   </si>
   <si>
     <t>00:45:34</t>
+  </si>
+  <si>
+    <t>01:04:17</t>
+  </si>
+  <si>
+    <t>01:04:24</t>
+  </si>
+  <si>
+    <t>00:55:51</t>
+  </si>
+  <si>
+    <t>01:05:20</t>
+  </si>
+  <si>
+    <t>01:05:14</t>
+  </si>
+  <si>
+    <t>01:04:29</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V521"/>
+  <dimension ref="A1:V527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E524" sqref="E524"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E532" sqref="E532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36308,6 +36326,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="522" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>23</v>
+      </c>
+      <c r="B522" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C522" t="s">
+        <v>20</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E522" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F522" t="s">
+        <v>32</v>
+      </c>
+      <c r="G522" t="s">
+        <v>498</v>
+      </c>
+      <c r="H522">
+        <v>4.84</v>
+      </c>
+      <c r="I522">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J522">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K522">
+        <v>0.25</v>
+      </c>
+      <c r="L522">
+        <v>0.04</v>
+      </c>
+      <c r="M522">
+        <v>0</v>
+      </c>
+      <c r="N522">
+        <v>0</v>
+      </c>
+      <c r="O522">
+        <v>0</v>
+      </c>
+      <c r="P522">
+        <v>4.5</v>
+      </c>
+      <c r="Q522">
+        <v>24.1</v>
+      </c>
+      <c r="R522">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S522">
+        <v>24</v>
+      </c>
+      <c r="T522">
+        <v>3</v>
+      </c>
+      <c r="U522">
+        <v>15</v>
+      </c>
+      <c r="V522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>23</v>
+      </c>
+      <c r="B523" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C523" t="s">
+        <v>20</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F523" t="s">
+        <v>32</v>
+      </c>
+      <c r="G523" t="s">
+        <v>499</v>
+      </c>
+      <c r="H523">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I523">
+        <v>0.22</v>
+      </c>
+      <c r="J523">
+        <v>4.66</v>
+      </c>
+      <c r="K523">
+        <v>0.21</v>
+      </c>
+      <c r="L523">
+        <v>0.02</v>
+      </c>
+      <c r="M523">
+        <v>0</v>
+      </c>
+      <c r="N523">
+        <v>0</v>
+      </c>
+      <c r="O523">
+        <v>0</v>
+      </c>
+      <c r="P523">
+        <v>4.49</v>
+      </c>
+      <c r="Q523">
+        <v>23.19</v>
+      </c>
+      <c r="R523">
+        <v>3.9</v>
+      </c>
+      <c r="S523">
+        <v>21</v>
+      </c>
+      <c r="T523">
+        <v>0</v>
+      </c>
+      <c r="U523">
+        <v>24</v>
+      </c>
+      <c r="V523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>23</v>
+      </c>
+      <c r="B524" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C524" t="s">
+        <v>20</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E524" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F524" t="s">
+        <v>33</v>
+      </c>
+      <c r="G524" t="s">
+        <v>500</v>
+      </c>
+      <c r="H524">
+        <v>4.51</v>
+      </c>
+      <c r="I524">
+        <v>0.26</v>
+      </c>
+      <c r="J524">
+        <v>4.24</v>
+      </c>
+      <c r="K524">
+        <v>0.26</v>
+      </c>
+      <c r="L524">
+        <v>0.01</v>
+      </c>
+      <c r="M524">
+        <v>0</v>
+      </c>
+      <c r="N524">
+        <v>0</v>
+      </c>
+      <c r="O524">
+        <v>0</v>
+      </c>
+      <c r="P524">
+        <v>4.71</v>
+      </c>
+      <c r="Q524">
+        <v>22.59</v>
+      </c>
+      <c r="R524">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S524">
+        <v>19</v>
+      </c>
+      <c r="T524">
+        <v>4</v>
+      </c>
+      <c r="U524">
+        <v>19</v>
+      </c>
+      <c r="V524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>23</v>
+      </c>
+      <c r="B525" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C525" t="s">
+        <v>20</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E525" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F525" t="s">
+        <v>33</v>
+      </c>
+      <c r="G525" t="s">
+        <v>501</v>
+      </c>
+      <c r="H525">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I525">
+        <v>0.22</v>
+      </c>
+      <c r="J525">
+        <v>4.88</v>
+      </c>
+      <c r="K525">
+        <v>0.2</v>
+      </c>
+      <c r="L525">
+        <v>0.03</v>
+      </c>
+      <c r="M525">
+        <v>0</v>
+      </c>
+      <c r="N525">
+        <v>0</v>
+      </c>
+      <c r="O525">
+        <v>0</v>
+      </c>
+      <c r="P525">
+        <v>4.62</v>
+      </c>
+      <c r="Q525">
+        <v>23.45</v>
+      </c>
+      <c r="R525">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S525">
+        <v>16</v>
+      </c>
+      <c r="T525">
+        <v>4</v>
+      </c>
+      <c r="U525">
+        <v>27</v>
+      </c>
+      <c r="V525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>23</v>
+      </c>
+      <c r="B526" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C526" t="s">
+        <v>20</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E526" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F526" t="s">
+        <v>32</v>
+      </c>
+      <c r="G526" t="s">
+        <v>502</v>
+      </c>
+      <c r="H526">
+        <v>5.32</v>
+      </c>
+      <c r="I526">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J526">
+        <v>5.17</v>
+      </c>
+      <c r="K526">
+        <v>0.12</v>
+      </c>
+      <c r="L526">
+        <v>0.02</v>
+      </c>
+      <c r="M526">
+        <v>0</v>
+      </c>
+      <c r="N526">
+        <v>0</v>
+      </c>
+      <c r="O526">
+        <v>1</v>
+      </c>
+      <c r="P526">
+        <v>4.8</v>
+      </c>
+      <c r="Q526">
+        <v>25.71</v>
+      </c>
+      <c r="R526">
+        <v>4.95</v>
+      </c>
+      <c r="S526">
+        <v>18</v>
+      </c>
+      <c r="T526">
+        <v>3</v>
+      </c>
+      <c r="U526">
+        <v>11</v>
+      </c>
+      <c r="V526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>23</v>
+      </c>
+      <c r="B527" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C527" t="s">
+        <v>20</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E527" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F527" t="s">
+        <v>33</v>
+      </c>
+      <c r="G527" t="s">
+        <v>503</v>
+      </c>
+      <c r="H527">
+        <v>5.22</v>
+      </c>
+      <c r="I527">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J527">
+        <v>4.92</v>
+      </c>
+      <c r="K527">
+        <v>0.22</v>
+      </c>
+      <c r="L527">
+        <v>0.08</v>
+      </c>
+      <c r="M527">
+        <v>0</v>
+      </c>
+      <c r="N527">
+        <v>0</v>
+      </c>
+      <c r="O527">
+        <v>1</v>
+      </c>
+      <c r="P527">
+        <v>4.51</v>
+      </c>
+      <c r="Q527">
+        <v>26.95</v>
+      </c>
+      <c r="R527">
+        <v>5.15</v>
+      </c>
+      <c r="S527">
+        <v>47</v>
+      </c>
+      <c r="T527">
+        <v>11</v>
+      </c>
+      <c r="U527">
+        <v>36</v>
+      </c>
+      <c r="V527">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58668F9E-3F1D-9C49-A4E7-576EDBC601BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F99C18-C581-E542-9511-2E87EF373614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="529">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1548,6 +1548,81 @@
   </si>
   <si>
     <t>01:04:29</t>
+  </si>
+  <si>
+    <t>01:41:34</t>
+  </si>
+  <si>
+    <t>01:40:12</t>
+  </si>
+  <si>
+    <t>00:18:53</t>
+  </si>
+  <si>
+    <t>00:11:49</t>
+  </si>
+  <si>
+    <t>01:22:09</t>
+  </si>
+  <si>
+    <t>00:30:08</t>
+  </si>
+  <si>
+    <t>01:29:04</t>
+  </si>
+  <si>
+    <t>01:41:10</t>
+  </si>
+  <si>
+    <t>01:41:18</t>
+  </si>
+  <si>
+    <t>00:19:01</t>
+  </si>
+  <si>
+    <t>00:21:11</t>
+  </si>
+  <si>
+    <t>01:11:58</t>
+  </si>
+  <si>
+    <t>01:21:36</t>
+  </si>
+  <si>
+    <t>01:36:17</t>
+  </si>
+  <si>
+    <t>01:33:29</t>
+  </si>
+  <si>
+    <t>01:25:21</t>
+  </si>
+  <si>
+    <t>01:34:28</t>
+  </si>
+  <si>
+    <t>01:32:55</t>
+  </si>
+  <si>
+    <t>01:29:17</t>
+  </si>
+  <si>
+    <t>N3 J4 VS Bourgoin</t>
+  </si>
+  <si>
+    <t>01:26:06</t>
+  </si>
+  <si>
+    <t>01:24:28</t>
+  </si>
+  <si>
+    <t>01:20:38</t>
+  </si>
+  <si>
+    <t>01:19:53</t>
+  </si>
+  <si>
+    <t>01:23:14</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V527"/>
+  <dimension ref="A1:V552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E532" sqref="E532"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36734,6 +36809,1706 @@
         <v>11</v>
       </c>
     </row>
+    <row r="528" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>523</v>
+      </c>
+      <c r="B528" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C528" t="s">
+        <v>20</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E528" t="s">
+        <v>55</v>
+      </c>
+      <c r="F528" t="s">
+        <v>32</v>
+      </c>
+      <c r="G528" t="s">
+        <v>504</v>
+      </c>
+      <c r="H528">
+        <v>10.19</v>
+      </c>
+      <c r="I528">
+        <v>1.5</v>
+      </c>
+      <c r="J528">
+        <v>8.67</v>
+      </c>
+      <c r="K528">
+        <v>1.08</v>
+      </c>
+      <c r="L528">
+        <v>0.31</v>
+      </c>
+      <c r="M528">
+        <v>0.13</v>
+      </c>
+      <c r="N528">
+        <v>0</v>
+      </c>
+      <c r="O528">
+        <v>10</v>
+      </c>
+      <c r="P528">
+        <v>5.98</v>
+      </c>
+      <c r="Q528">
+        <v>28.78</v>
+      </c>
+      <c r="R528">
+        <v>4.99</v>
+      </c>
+      <c r="S528">
+        <v>32</v>
+      </c>
+      <c r="T528">
+        <v>11</v>
+      </c>
+      <c r="U528">
+        <v>42</v>
+      </c>
+      <c r="V528">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>523</v>
+      </c>
+      <c r="B529" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C529" t="s">
+        <v>20</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E529" t="s">
+        <v>48</v>
+      </c>
+      <c r="F529" t="s">
+        <v>29</v>
+      </c>
+      <c r="G529" t="s">
+        <v>505</v>
+      </c>
+      <c r="H529">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I529">
+        <v>0.96</v>
+      </c>
+      <c r="J529">
+        <v>7.74</v>
+      </c>
+      <c r="K529">
+        <v>0.68</v>
+      </c>
+      <c r="L529">
+        <v>0.2</v>
+      </c>
+      <c r="M529">
+        <v>0.09</v>
+      </c>
+      <c r="N529">
+        <v>0</v>
+      </c>
+      <c r="O529">
+        <v>6</v>
+      </c>
+      <c r="P529">
+        <v>5.19</v>
+      </c>
+      <c r="Q529">
+        <v>29.17</v>
+      </c>
+      <c r="R529">
+        <v>4.41</v>
+      </c>
+      <c r="S529">
+        <v>26</v>
+      </c>
+      <c r="T529">
+        <v>7</v>
+      </c>
+      <c r="U529">
+        <v>26</v>
+      </c>
+      <c r="V529">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>523</v>
+      </c>
+      <c r="B530" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C530" t="s">
+        <v>20</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E530" t="s">
+        <v>93</v>
+      </c>
+      <c r="F530" t="s">
+        <v>31</v>
+      </c>
+      <c r="G530" t="s">
+        <v>506</v>
+      </c>
+      <c r="H530">
+        <v>1.77</v>
+      </c>
+      <c r="I530">
+        <v>0.36</v>
+      </c>
+      <c r="J530">
+        <v>1.4</v>
+      </c>
+      <c r="K530">
+        <v>0.18</v>
+      </c>
+      <c r="L530">
+        <v>0.08</v>
+      </c>
+      <c r="M530">
+        <v>0.09</v>
+      </c>
+      <c r="N530">
+        <v>0.02</v>
+      </c>
+      <c r="O530">
+        <v>4</v>
+      </c>
+      <c r="P530">
+        <v>5.73</v>
+      </c>
+      <c r="Q530">
+        <v>31.99</v>
+      </c>
+      <c r="R530">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S530">
+        <v>8</v>
+      </c>
+      <c r="T530">
+        <v>1</v>
+      </c>
+      <c r="U530">
+        <v>8</v>
+      </c>
+      <c r="V530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>523</v>
+      </c>
+      <c r="B531" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C531" t="s">
+        <v>20</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E531" t="s">
+        <v>43</v>
+      </c>
+      <c r="F531" t="s">
+        <v>34</v>
+      </c>
+      <c r="G531" t="s">
+        <v>507</v>
+      </c>
+      <c r="H531">
+        <v>1.42</v>
+      </c>
+      <c r="I531">
+        <v>0.36</v>
+      </c>
+      <c r="J531">
+        <v>1.06</v>
+      </c>
+      <c r="K531">
+        <v>0.23</v>
+      </c>
+      <c r="L531">
+        <v>0.1</v>
+      </c>
+      <c r="M531">
+        <v>0.04</v>
+      </c>
+      <c r="N531">
+        <v>0</v>
+      </c>
+      <c r="O531">
+        <v>5</v>
+      </c>
+      <c r="P531">
+        <v>7.19</v>
+      </c>
+      <c r="Q531">
+        <v>29.26</v>
+      </c>
+      <c r="R531">
+        <v>3.82</v>
+      </c>
+      <c r="S531">
+        <v>11</v>
+      </c>
+      <c r="T531">
+        <v>0</v>
+      </c>
+      <c r="U531">
+        <v>7</v>
+      </c>
+      <c r="V531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>523</v>
+      </c>
+      <c r="B532" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C532" t="s">
+        <v>20</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E532" t="s">
+        <v>40</v>
+      </c>
+      <c r="F532" t="s">
+        <v>31</v>
+      </c>
+      <c r="G532" t="s">
+        <v>508</v>
+      </c>
+      <c r="H532">
+        <v>8.41</v>
+      </c>
+      <c r="I532">
+        <v>1.57</v>
+      </c>
+      <c r="J532">
+        <v>6.82</v>
+      </c>
+      <c r="K532">
+        <v>0.97</v>
+      </c>
+      <c r="L532">
+        <v>0.49</v>
+      </c>
+      <c r="M532">
+        <v>0.13</v>
+      </c>
+      <c r="N532">
+        <v>0</v>
+      </c>
+      <c r="O532">
+        <v>10</v>
+      </c>
+      <c r="P532">
+        <v>6.1</v>
+      </c>
+      <c r="Q532">
+        <v>28.66</v>
+      </c>
+      <c r="R532">
+        <v>5.07</v>
+      </c>
+      <c r="S532">
+        <v>51</v>
+      </c>
+      <c r="T532">
+        <v>15</v>
+      </c>
+      <c r="U532">
+        <v>43</v>
+      </c>
+      <c r="V532">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>523</v>
+      </c>
+      <c r="B533" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C533" t="s">
+        <v>20</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E533" t="s">
+        <v>447</v>
+      </c>
+      <c r="F533" t="s">
+        <v>33</v>
+      </c>
+      <c r="G533" t="s">
+        <v>509</v>
+      </c>
+      <c r="H533">
+        <v>3.56</v>
+      </c>
+      <c r="I533">
+        <v>0.68</v>
+      </c>
+      <c r="J533">
+        <v>2.87</v>
+      </c>
+      <c r="K533">
+        <v>0.5</v>
+      </c>
+      <c r="L533">
+        <v>0.17</v>
+      </c>
+      <c r="M533">
+        <v>0.02</v>
+      </c>
+      <c r="N533">
+        <v>0</v>
+      </c>
+      <c r="O533">
+        <v>2</v>
+      </c>
+      <c r="P533">
+        <v>7.04</v>
+      </c>
+      <c r="Q533">
+        <v>27.6</v>
+      </c>
+      <c r="R533">
+        <v>3.97</v>
+      </c>
+      <c r="S533">
+        <v>13</v>
+      </c>
+      <c r="T533">
+        <v>0</v>
+      </c>
+      <c r="U533">
+        <v>22</v>
+      </c>
+      <c r="V533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>523</v>
+      </c>
+      <c r="B534" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C534" t="s">
+        <v>20</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E534" t="s">
+        <v>38</v>
+      </c>
+      <c r="F534" t="s">
+        <v>34</v>
+      </c>
+      <c r="G534" t="s">
+        <v>510</v>
+      </c>
+      <c r="H534">
+        <v>8.24</v>
+      </c>
+      <c r="I534">
+        <v>1.32</v>
+      </c>
+      <c r="J534">
+        <v>6.9</v>
+      </c>
+      <c r="K534">
+        <v>0.73</v>
+      </c>
+      <c r="L534">
+        <v>0.43</v>
+      </c>
+      <c r="M534">
+        <v>0.15</v>
+      </c>
+      <c r="N534">
+        <v>0.03</v>
+      </c>
+      <c r="O534">
+        <v>9</v>
+      </c>
+      <c r="P534">
+        <v>5.56</v>
+      </c>
+      <c r="Q534">
+        <v>31.07</v>
+      </c>
+      <c r="R534">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S534">
+        <v>21</v>
+      </c>
+      <c r="T534">
+        <v>9</v>
+      </c>
+      <c r="U534">
+        <v>36</v>
+      </c>
+      <c r="V534">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>523</v>
+      </c>
+      <c r="B535" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C535" t="s">
+        <v>20</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E535" t="s">
+        <v>52</v>
+      </c>
+      <c r="F535" t="s">
+        <v>33</v>
+      </c>
+      <c r="G535" t="s">
+        <v>511</v>
+      </c>
+      <c r="H535">
+        <v>10.51</v>
+      </c>
+      <c r="I535">
+        <v>1.7</v>
+      </c>
+      <c r="J535">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="K535">
+        <v>1.03</v>
+      </c>
+      <c r="L535">
+        <v>0.52</v>
+      </c>
+      <c r="M535">
+        <v>0.15</v>
+      </c>
+      <c r="N535">
+        <v>0.02</v>
+      </c>
+      <c r="O535">
+        <v>12</v>
+      </c>
+      <c r="P535">
+        <v>6.21</v>
+      </c>
+      <c r="Q535">
+        <v>32.19</v>
+      </c>
+      <c r="R535">
+        <v>4.5</v>
+      </c>
+      <c r="S535">
+        <v>24</v>
+      </c>
+      <c r="T535">
+        <v>8</v>
+      </c>
+      <c r="U535">
+        <v>27</v>
+      </c>
+      <c r="V535">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>523</v>
+      </c>
+      <c r="B536" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C536" t="s">
+        <v>20</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E536" t="s">
+        <v>58</v>
+      </c>
+      <c r="F536" t="s">
+        <v>29</v>
+      </c>
+      <c r="G536" t="s">
+        <v>512</v>
+      </c>
+      <c r="H536">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="I536">
+        <v>1.19</v>
+      </c>
+      <c r="J536">
+        <v>8.33</v>
+      </c>
+      <c r="K536">
+        <v>0.73</v>
+      </c>
+      <c r="L536">
+        <v>0.31</v>
+      </c>
+      <c r="M536">
+        <v>0.15</v>
+      </c>
+      <c r="N536">
+        <v>0.01</v>
+      </c>
+      <c r="O536">
+        <v>8</v>
+      </c>
+      <c r="P536">
+        <v>5.62</v>
+      </c>
+      <c r="Q536">
+        <v>30.63</v>
+      </c>
+      <c r="R536">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S536">
+        <v>34</v>
+      </c>
+      <c r="T536">
+        <v>1</v>
+      </c>
+      <c r="U536">
+        <v>27</v>
+      </c>
+      <c r="V536">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>523</v>
+      </c>
+      <c r="B537" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C537" t="s">
+        <v>20</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E537" t="s">
+        <v>251</v>
+      </c>
+      <c r="F537" t="s">
+        <v>32</v>
+      </c>
+      <c r="G537" t="s">
+        <v>512</v>
+      </c>
+      <c r="H537">
+        <v>10</v>
+      </c>
+      <c r="I537">
+        <v>1.31</v>
+      </c>
+      <c r="J537">
+        <v>8.67</v>
+      </c>
+      <c r="K537">
+        <v>0.99</v>
+      </c>
+      <c r="L537">
+        <v>0.22</v>
+      </c>
+      <c r="M537">
+        <v>0.12</v>
+      </c>
+      <c r="N537">
+        <v>0.01</v>
+      </c>
+      <c r="O537">
+        <v>4</v>
+      </c>
+      <c r="P537">
+        <v>6.02</v>
+      </c>
+      <c r="Q537">
+        <v>30.47</v>
+      </c>
+      <c r="R537">
+        <v>4.28</v>
+      </c>
+      <c r="S537">
+        <v>25</v>
+      </c>
+      <c r="T537">
+        <v>1</v>
+      </c>
+      <c r="U537">
+        <v>36</v>
+      </c>
+      <c r="V537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>523</v>
+      </c>
+      <c r="B538" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C538" t="s">
+        <v>20</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E538" t="s">
+        <v>17</v>
+      </c>
+      <c r="F538" t="s">
+        <v>34</v>
+      </c>
+      <c r="G538" t="s">
+        <v>513</v>
+      </c>
+      <c r="H538">
+        <v>2.21</v>
+      </c>
+      <c r="I538">
+        <v>0.51</v>
+      </c>
+      <c r="J538">
+        <v>1.69</v>
+      </c>
+      <c r="K538">
+        <v>0.37</v>
+      </c>
+      <c r="L538">
+        <v>0.15</v>
+      </c>
+      <c r="M538">
+        <v>0</v>
+      </c>
+      <c r="N538">
+        <v>0</v>
+      </c>
+      <c r="O538">
+        <v>0</v>
+      </c>
+      <c r="P538">
+        <v>6.93</v>
+      </c>
+      <c r="Q538">
+        <v>24.88</v>
+      </c>
+      <c r="R538">
+        <v>4.37</v>
+      </c>
+      <c r="S538">
+        <v>14</v>
+      </c>
+      <c r="T538">
+        <v>1</v>
+      </c>
+      <c r="U538">
+        <v>14</v>
+      </c>
+      <c r="V538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>523</v>
+      </c>
+      <c r="B539" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C539" t="s">
+        <v>20</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E539" t="s">
+        <v>164</v>
+      </c>
+      <c r="F539" t="s">
+        <v>32</v>
+      </c>
+      <c r="G539" t="s">
+        <v>514</v>
+      </c>
+      <c r="H539">
+        <v>2.4</v>
+      </c>
+      <c r="I539">
+        <v>0.42</v>
+      </c>
+      <c r="J539">
+        <v>1.97</v>
+      </c>
+      <c r="K539">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L539">
+        <v>0.11</v>
+      </c>
+      <c r="M539">
+        <v>0.03</v>
+      </c>
+      <c r="N539">
+        <v>0</v>
+      </c>
+      <c r="O539">
+        <v>2</v>
+      </c>
+      <c r="P539">
+        <v>6.61</v>
+      </c>
+      <c r="Q539">
+        <v>29.12</v>
+      </c>
+      <c r="R539">
+        <v>4.62</v>
+      </c>
+      <c r="S539">
+        <v>3</v>
+      </c>
+      <c r="T539">
+        <v>2</v>
+      </c>
+      <c r="U539">
+        <v>14</v>
+      </c>
+      <c r="V539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>523</v>
+      </c>
+      <c r="B540" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C540" t="s">
+        <v>20</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E540" t="s">
+        <v>16</v>
+      </c>
+      <c r="F540" t="s">
+        <v>30</v>
+      </c>
+      <c r="G540" t="s">
+        <v>515</v>
+      </c>
+      <c r="H540">
+        <v>7.06</v>
+      </c>
+      <c r="I540">
+        <v>1.25</v>
+      </c>
+      <c r="J540">
+        <v>5.78</v>
+      </c>
+      <c r="K540">
+        <v>0.83</v>
+      </c>
+      <c r="L540">
+        <v>0.37</v>
+      </c>
+      <c r="M540">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N540">
+        <v>0</v>
+      </c>
+      <c r="O540">
+        <v>6</v>
+      </c>
+      <c r="P540">
+        <v>5.84</v>
+      </c>
+      <c r="Q540">
+        <v>28.84</v>
+      </c>
+      <c r="R540">
+        <v>4.42</v>
+      </c>
+      <c r="S540">
+        <v>30</v>
+      </c>
+      <c r="T540">
+        <v>4</v>
+      </c>
+      <c r="U540">
+        <v>39</v>
+      </c>
+      <c r="V540">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>523</v>
+      </c>
+      <c r="B541" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C541" t="s">
+        <v>20</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E541" t="s">
+        <v>53</v>
+      </c>
+      <c r="F541" t="s">
+        <v>32</v>
+      </c>
+      <c r="G541" t="s">
+        <v>516</v>
+      </c>
+      <c r="H541">
+        <v>9.77</v>
+      </c>
+      <c r="I541">
+        <v>1.87</v>
+      </c>
+      <c r="J541">
+        <v>7.87</v>
+      </c>
+      <c r="K541">
+        <v>1.46</v>
+      </c>
+      <c r="L541">
+        <v>0.35</v>
+      </c>
+      <c r="M541">
+        <v>0.08</v>
+      </c>
+      <c r="N541">
+        <v>0</v>
+      </c>
+      <c r="O541">
+        <v>4</v>
+      </c>
+      <c r="P541">
+        <v>7.17</v>
+      </c>
+      <c r="Q541">
+        <v>28.86</v>
+      </c>
+      <c r="R541">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S541">
+        <v>30</v>
+      </c>
+      <c r="T541">
+        <v>5</v>
+      </c>
+      <c r="U541">
+        <v>28</v>
+      </c>
+      <c r="V541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>23</v>
+      </c>
+      <c r="B542" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C542" t="s">
+        <v>20</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E542" t="s">
+        <v>121</v>
+      </c>
+      <c r="F542" t="s">
+        <v>32</v>
+      </c>
+      <c r="G542" t="s">
+        <v>517</v>
+      </c>
+      <c r="H542">
+        <v>7.26</v>
+      </c>
+      <c r="I542">
+        <v>0.02</v>
+      </c>
+      <c r="J542">
+        <v>7.24</v>
+      </c>
+      <c r="K542">
+        <v>0.02</v>
+      </c>
+      <c r="L542">
+        <v>0</v>
+      </c>
+      <c r="M542">
+        <v>0</v>
+      </c>
+      <c r="N542">
+        <v>0</v>
+      </c>
+      <c r="O542">
+        <v>0</v>
+      </c>
+      <c r="P542">
+        <v>4.42</v>
+      </c>
+      <c r="Q542">
+        <v>17.04</v>
+      </c>
+      <c r="R542">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S542">
+        <v>11</v>
+      </c>
+      <c r="T542">
+        <v>1</v>
+      </c>
+      <c r="U542">
+        <v>4</v>
+      </c>
+      <c r="V542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>23</v>
+      </c>
+      <c r="B543" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C543" t="s">
+        <v>20</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E543" t="s">
+        <v>53</v>
+      </c>
+      <c r="F543" t="s">
+        <v>32</v>
+      </c>
+      <c r="G543" t="s">
+        <v>518</v>
+      </c>
+      <c r="H543">
+        <v>8.07</v>
+      </c>
+      <c r="I543">
+        <v>0.03</v>
+      </c>
+      <c r="J543">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="K543">
+        <v>0.03</v>
+      </c>
+      <c r="L543">
+        <v>0</v>
+      </c>
+      <c r="M543">
+        <v>0</v>
+      </c>
+      <c r="N543">
+        <v>0</v>
+      </c>
+      <c r="O543">
+        <v>0</v>
+      </c>
+      <c r="P543">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q543">
+        <v>18.87</v>
+      </c>
+      <c r="R543">
+        <v>4.37</v>
+      </c>
+      <c r="S543">
+        <v>12</v>
+      </c>
+      <c r="T543">
+        <v>1</v>
+      </c>
+      <c r="U543">
+        <v>4</v>
+      </c>
+      <c r="V543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>23</v>
+      </c>
+      <c r="B544" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C544" t="s">
+        <v>20</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E544" t="s">
+        <v>43</v>
+      </c>
+      <c r="F544" t="s">
+        <v>34</v>
+      </c>
+      <c r="G544" t="s">
+        <v>519</v>
+      </c>
+      <c r="H544">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I544">
+        <v>0.08</v>
+      </c>
+      <c r="J544">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K544">
+        <v>0.09</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+      <c r="M544">
+        <v>0</v>
+      </c>
+      <c r="N544">
+        <v>0</v>
+      </c>
+      <c r="O544">
+        <v>0</v>
+      </c>
+      <c r="P544">
+        <v>4.29</v>
+      </c>
+      <c r="Q544">
+        <v>18.04</v>
+      </c>
+      <c r="R544">
+        <v>5.01</v>
+      </c>
+      <c r="S544">
+        <v>30</v>
+      </c>
+      <c r="T544">
+        <v>5</v>
+      </c>
+      <c r="U544">
+        <v>27</v>
+      </c>
+      <c r="V544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>23</v>
+      </c>
+      <c r="B545" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C545" t="s">
+        <v>20</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E545" t="s">
+        <v>50</v>
+      </c>
+      <c r="F545" t="s">
+        <v>33</v>
+      </c>
+      <c r="G545" t="s">
+        <v>520</v>
+      </c>
+      <c r="H545">
+        <v>7.44</v>
+      </c>
+      <c r="I545">
+        <v>0.05</v>
+      </c>
+      <c r="J545">
+        <v>7.39</v>
+      </c>
+      <c r="K545">
+        <v>0.05</v>
+      </c>
+      <c r="L545">
+        <v>0</v>
+      </c>
+      <c r="M545">
+        <v>0</v>
+      </c>
+      <c r="N545">
+        <v>0</v>
+      </c>
+      <c r="O545">
+        <v>0</v>
+      </c>
+      <c r="P545">
+        <v>4.66</v>
+      </c>
+      <c r="Q545">
+        <v>20.39</v>
+      </c>
+      <c r="R545">
+        <v>3.95</v>
+      </c>
+      <c r="S545">
+        <v>20</v>
+      </c>
+      <c r="T545">
+        <v>0</v>
+      </c>
+      <c r="U545">
+        <v>23</v>
+      </c>
+      <c r="V545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>23</v>
+      </c>
+      <c r="B546" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C546" t="s">
+        <v>20</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E546" t="s">
+        <v>52</v>
+      </c>
+      <c r="F546" t="s">
+        <v>33</v>
+      </c>
+      <c r="G546" t="s">
+        <v>521</v>
+      </c>
+      <c r="H546">
+        <v>7.43</v>
+      </c>
+      <c r="I546">
+        <v>0.15</v>
+      </c>
+      <c r="J546">
+        <v>7.28</v>
+      </c>
+      <c r="K546">
+        <v>0.13</v>
+      </c>
+      <c r="L546">
+        <v>0.03</v>
+      </c>
+      <c r="M546">
+        <v>0</v>
+      </c>
+      <c r="N546">
+        <v>0</v>
+      </c>
+      <c r="O546">
+        <v>0</v>
+      </c>
+      <c r="P546">
+        <v>4.7</v>
+      </c>
+      <c r="Q546">
+        <v>22.55</v>
+      </c>
+      <c r="R546">
+        <v>4.8</v>
+      </c>
+      <c r="S546">
+        <v>27</v>
+      </c>
+      <c r="T546">
+        <v>2</v>
+      </c>
+      <c r="U546">
+        <v>13</v>
+      </c>
+      <c r="V546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>23</v>
+      </c>
+      <c r="B547" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C547" t="s">
+        <v>20</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E547" t="s">
+        <v>447</v>
+      </c>
+      <c r="F547" t="s">
+        <v>33</v>
+      </c>
+      <c r="G547" t="s">
+        <v>522</v>
+      </c>
+      <c r="H547">
+        <v>7.87</v>
+      </c>
+      <c r="I547">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J547">
+        <v>7.8</v>
+      </c>
+      <c r="K547">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L547">
+        <v>0.01</v>
+      </c>
+      <c r="M547">
+        <v>0</v>
+      </c>
+      <c r="N547">
+        <v>0</v>
+      </c>
+      <c r="O547">
+        <v>0</v>
+      </c>
+      <c r="P547">
+        <v>4.57</v>
+      </c>
+      <c r="Q547">
+        <v>22.24</v>
+      </c>
+      <c r="R547">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S547">
+        <v>29</v>
+      </c>
+      <c r="T547">
+        <v>3</v>
+      </c>
+      <c r="U547">
+        <v>18</v>
+      </c>
+      <c r="V547">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>23</v>
+      </c>
+      <c r="B548" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C548" t="s">
+        <v>20</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E548" t="s">
+        <v>251</v>
+      </c>
+      <c r="F548" t="s">
+        <v>32</v>
+      </c>
+      <c r="G548" t="s">
+        <v>524</v>
+      </c>
+      <c r="H548">
+        <v>6.17</v>
+      </c>
+      <c r="I548">
+        <v>0.22</v>
+      </c>
+      <c r="J548">
+        <v>5.94</v>
+      </c>
+      <c r="K548">
+        <v>0.21</v>
+      </c>
+      <c r="L548">
+        <v>0.02</v>
+      </c>
+      <c r="M548">
+        <v>0</v>
+      </c>
+      <c r="N548">
+        <v>0</v>
+      </c>
+      <c r="O548">
+        <v>0</v>
+      </c>
+      <c r="P548">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Q548">
+        <v>23.05</v>
+      </c>
+      <c r="R548">
+        <v>4.5</v>
+      </c>
+      <c r="S548">
+        <v>27</v>
+      </c>
+      <c r="T548">
+        <v>3</v>
+      </c>
+      <c r="U548">
+        <v>23</v>
+      </c>
+      <c r="V548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>23</v>
+      </c>
+      <c r="B549" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C549" t="s">
+        <v>20</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E549" t="s">
+        <v>164</v>
+      </c>
+      <c r="F549" t="s">
+        <v>32</v>
+      </c>
+      <c r="G549" t="s">
+        <v>525</v>
+      </c>
+      <c r="H549">
+        <v>6.24</v>
+      </c>
+      <c r="I549">
+        <v>0.19</v>
+      </c>
+      <c r="J549">
+        <v>6.04</v>
+      </c>
+      <c r="K549">
+        <v>0.17</v>
+      </c>
+      <c r="L549">
+        <v>0.02</v>
+      </c>
+      <c r="M549">
+        <v>0</v>
+      </c>
+      <c r="N549">
+        <v>0</v>
+      </c>
+      <c r="O549">
+        <v>0</v>
+      </c>
+      <c r="P549">
+        <v>4.34</v>
+      </c>
+      <c r="Q549">
+        <v>22.51</v>
+      </c>
+      <c r="R549">
+        <v>4.24</v>
+      </c>
+      <c r="S549">
+        <v>31</v>
+      </c>
+      <c r="T549">
+        <v>1</v>
+      </c>
+      <c r="U549">
+        <v>19</v>
+      </c>
+      <c r="V549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>23</v>
+      </c>
+      <c r="B550" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C550" t="s">
+        <v>20</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E550" t="s">
+        <v>447</v>
+      </c>
+      <c r="F550" t="s">
+        <v>33</v>
+      </c>
+      <c r="G550" t="s">
+        <v>526</v>
+      </c>
+      <c r="H550">
+        <v>6.54</v>
+      </c>
+      <c r="I550">
+        <v>0.25</v>
+      </c>
+      <c r="J550">
+        <v>6.28</v>
+      </c>
+      <c r="K550">
+        <v>0.25</v>
+      </c>
+      <c r="L550">
+        <v>0.01</v>
+      </c>
+      <c r="M550">
+        <v>0</v>
+      </c>
+      <c r="N550">
+        <v>0</v>
+      </c>
+      <c r="O550">
+        <v>0</v>
+      </c>
+      <c r="P550">
+        <v>4.28</v>
+      </c>
+      <c r="Q550">
+        <v>21.93</v>
+      </c>
+      <c r="R550">
+        <v>4.13</v>
+      </c>
+      <c r="S550">
+        <v>47</v>
+      </c>
+      <c r="T550">
+        <v>2</v>
+      </c>
+      <c r="U550">
+        <v>32</v>
+      </c>
+      <c r="V550">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>23</v>
+      </c>
+      <c r="B551" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C551" t="s">
+        <v>20</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E551" t="s">
+        <v>43</v>
+      </c>
+      <c r="F551" t="s">
+        <v>34</v>
+      </c>
+      <c r="G551" t="s">
+        <v>527</v>
+      </c>
+      <c r="H551">
+        <v>6.94</v>
+      </c>
+      <c r="I551">
+        <v>0.16</v>
+      </c>
+      <c r="J551">
+        <v>6.77</v>
+      </c>
+      <c r="K551">
+        <v>0.16</v>
+      </c>
+      <c r="L551">
+        <v>0.01</v>
+      </c>
+      <c r="M551">
+        <v>0</v>
+      </c>
+      <c r="N551">
+        <v>0</v>
+      </c>
+      <c r="O551">
+        <v>0</v>
+      </c>
+      <c r="P551">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Q551">
+        <v>21.28</v>
+      </c>
+      <c r="R551">
+        <v>4.66</v>
+      </c>
+      <c r="S551">
+        <v>37</v>
+      </c>
+      <c r="T551">
+        <v>4</v>
+      </c>
+      <c r="U551">
+        <v>37</v>
+      </c>
+      <c r="V551">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>23</v>
+      </c>
+      <c r="B552" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C552" t="s">
+        <v>20</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E552" t="s">
+        <v>50</v>
+      </c>
+      <c r="F552" t="s">
+        <v>33</v>
+      </c>
+      <c r="G552" t="s">
+        <v>528</v>
+      </c>
+      <c r="H552">
+        <v>6.28</v>
+      </c>
+      <c r="I552">
+        <v>0.2</v>
+      </c>
+      <c r="J552">
+        <v>6.07</v>
+      </c>
+      <c r="K552">
+        <v>0.18</v>
+      </c>
+      <c r="L552">
+        <v>0.02</v>
+      </c>
+      <c r="M552">
+        <v>0</v>
+      </c>
+      <c r="N552">
+        <v>0</v>
+      </c>
+      <c r="O552">
+        <v>0</v>
+      </c>
+      <c r="P552">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Q552">
+        <v>23.32</v>
+      </c>
+      <c r="R552">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S552">
+        <v>22</v>
+      </c>
+      <c r="T552">
+        <v>5</v>
+      </c>
+      <c r="U552">
+        <v>16</v>
+      </c>
+      <c r="V552">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F99C18-C581-E542-9511-2E87EF373614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA6D5B-81B4-0E48-890E-86DF5096DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="538">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1623,6 +1623,33 @@
   </si>
   <si>
     <t>01:23:14</t>
+  </si>
+  <si>
+    <t>01:20:46</t>
+  </si>
+  <si>
+    <t>01:21:46</t>
+  </si>
+  <si>
+    <t>01:21:00</t>
+  </si>
+  <si>
+    <t>01:22:14</t>
+  </si>
+  <si>
+    <t>01:22:13</t>
+  </si>
+  <si>
+    <t>01:04:03</t>
+  </si>
+  <si>
+    <t>01:20:26</t>
+  </si>
+  <si>
+    <t>01:19:39</t>
+  </si>
+  <si>
+    <t>01:21:06</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V552"/>
+  <dimension ref="A1:V564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B555" sqref="B555"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D570" sqref="D570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38509,6 +38536,822 @@
         <v>3</v>
       </c>
     </row>
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>23</v>
+      </c>
+      <c r="B553" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C553" t="s">
+        <v>20</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E553" t="s">
+        <v>447</v>
+      </c>
+      <c r="F553" t="s">
+        <v>33</v>
+      </c>
+      <c r="G553" t="s">
+        <v>529</v>
+      </c>
+      <c r="H553">
+        <v>6.03</v>
+      </c>
+      <c r="I553">
+        <v>0.38</v>
+      </c>
+      <c r="J553">
+        <v>5.63</v>
+      </c>
+      <c r="K553">
+        <v>0.35</v>
+      </c>
+      <c r="L553">
+        <v>0.05</v>
+      </c>
+      <c r="M553">
+        <v>0</v>
+      </c>
+      <c r="N553">
+        <v>0</v>
+      </c>
+      <c r="O553">
+        <v>1</v>
+      </c>
+      <c r="P553">
+        <v>4.12</v>
+      </c>
+      <c r="Q553">
+        <v>25.25</v>
+      </c>
+      <c r="R553">
+        <v>4.78</v>
+      </c>
+      <c r="S553">
+        <v>72</v>
+      </c>
+      <c r="T553">
+        <v>14</v>
+      </c>
+      <c r="U553">
+        <v>58</v>
+      </c>
+      <c r="V553">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>23</v>
+      </c>
+      <c r="B554" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C554" t="s">
+        <v>20</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E554" t="s">
+        <v>52</v>
+      </c>
+      <c r="F554" t="s">
+        <v>33</v>
+      </c>
+      <c r="G554" t="s">
+        <v>530</v>
+      </c>
+      <c r="H554">
+        <v>5.96</v>
+      </c>
+      <c r="I554">
+        <v>0.35</v>
+      </c>
+      <c r="J554">
+        <v>5.61</v>
+      </c>
+      <c r="K554">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L554">
+        <v>0.06</v>
+      </c>
+      <c r="M554">
+        <v>0</v>
+      </c>
+      <c r="N554">
+        <v>0</v>
+      </c>
+      <c r="O554">
+        <v>0</v>
+      </c>
+      <c r="P554">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q554">
+        <v>24.65</v>
+      </c>
+      <c r="R554">
+        <v>4.75</v>
+      </c>
+      <c r="S554">
+        <v>44</v>
+      </c>
+      <c r="T554">
+        <v>10</v>
+      </c>
+      <c r="U554">
+        <v>35</v>
+      </c>
+      <c r="V554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>23</v>
+      </c>
+      <c r="B555" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C555" t="s">
+        <v>20</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E555" t="s">
+        <v>251</v>
+      </c>
+      <c r="F555" t="s">
+        <v>32</v>
+      </c>
+      <c r="G555" t="s">
+        <v>531</v>
+      </c>
+      <c r="H555">
+        <v>5.14</v>
+      </c>
+      <c r="I555">
+        <v>0.21</v>
+      </c>
+      <c r="J555">
+        <v>4.92</v>
+      </c>
+      <c r="K555">
+        <v>0.18</v>
+      </c>
+      <c r="L555">
+        <v>0.03</v>
+      </c>
+      <c r="M555">
+        <v>0</v>
+      </c>
+      <c r="N555">
+        <v>0</v>
+      </c>
+      <c r="O555">
+        <v>0</v>
+      </c>
+      <c r="P555">
+        <v>3.75</v>
+      </c>
+      <c r="Q555">
+        <v>22.32</v>
+      </c>
+      <c r="R555">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S555">
+        <v>27</v>
+      </c>
+      <c r="T555">
+        <v>4</v>
+      </c>
+      <c r="U555">
+        <v>16</v>
+      </c>
+      <c r="V555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>23</v>
+      </c>
+      <c r="B556" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C556" t="s">
+        <v>20</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E556" t="s">
+        <v>164</v>
+      </c>
+      <c r="F556" t="s">
+        <v>32</v>
+      </c>
+      <c r="G556" t="s">
+        <v>532</v>
+      </c>
+      <c r="H556">
+        <v>5.88</v>
+      </c>
+      <c r="I556">
+        <v>0.33</v>
+      </c>
+      <c r="J556">
+        <v>5.54</v>
+      </c>
+      <c r="K556">
+        <v>0.24</v>
+      </c>
+      <c r="L556">
+        <v>0.09</v>
+      </c>
+      <c r="M556">
+        <v>0.01</v>
+      </c>
+      <c r="N556">
+        <v>0</v>
+      </c>
+      <c r="O556">
+        <v>2</v>
+      </c>
+      <c r="P556">
+        <v>3.53</v>
+      </c>
+      <c r="Q556">
+        <v>26.69</v>
+      </c>
+      <c r="R556">
+        <v>5.56</v>
+      </c>
+      <c r="S556">
+        <v>38</v>
+      </c>
+      <c r="T556">
+        <v>10</v>
+      </c>
+      <c r="U556">
+        <v>44</v>
+      </c>
+      <c r="V556">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>23</v>
+      </c>
+      <c r="B557" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C557" t="s">
+        <v>20</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E557" t="s">
+        <v>121</v>
+      </c>
+      <c r="F557" t="s">
+        <v>32</v>
+      </c>
+      <c r="G557" t="s">
+        <v>533</v>
+      </c>
+      <c r="H557">
+        <v>5.21</v>
+      </c>
+      <c r="I557">
+        <v>0.32</v>
+      </c>
+      <c r="J557">
+        <v>4.88</v>
+      </c>
+      <c r="K557">
+        <v>0.26</v>
+      </c>
+      <c r="L557">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M557">
+        <v>0</v>
+      </c>
+      <c r="N557">
+        <v>0</v>
+      </c>
+      <c r="O557">
+        <v>0</v>
+      </c>
+      <c r="P557">
+        <v>3.74</v>
+      </c>
+      <c r="Q557">
+        <v>24.23</v>
+      </c>
+      <c r="R557">
+        <v>4.95</v>
+      </c>
+      <c r="S557">
+        <v>32</v>
+      </c>
+      <c r="T557">
+        <v>6</v>
+      </c>
+      <c r="U557">
+        <v>18</v>
+      </c>
+      <c r="V557">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>23</v>
+      </c>
+      <c r="B558" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C558" t="s">
+        <v>20</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E558" t="s">
+        <v>53</v>
+      </c>
+      <c r="F558" t="s">
+        <v>32</v>
+      </c>
+      <c r="G558" t="s">
+        <v>534</v>
+      </c>
+      <c r="H558">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I558">
+        <v>0.22</v>
+      </c>
+      <c r="J558">
+        <v>4.01</v>
+      </c>
+      <c r="K558">
+        <v>0.21</v>
+      </c>
+      <c r="L558">
+        <v>0.02</v>
+      </c>
+      <c r="M558">
+        <v>0</v>
+      </c>
+      <c r="N558">
+        <v>0</v>
+      </c>
+      <c r="O558">
+        <v>0</v>
+      </c>
+      <c r="P558">
+        <v>3.62</v>
+      </c>
+      <c r="Q558">
+        <v>23.03</v>
+      </c>
+      <c r="R558">
+        <v>5.75</v>
+      </c>
+      <c r="S558">
+        <v>67</v>
+      </c>
+      <c r="T558">
+        <v>12</v>
+      </c>
+      <c r="U558">
+        <v>60</v>
+      </c>
+      <c r="V558">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>23</v>
+      </c>
+      <c r="B559" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C559" t="s">
+        <v>20</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E559" t="s">
+        <v>448</v>
+      </c>
+      <c r="F559" t="s">
+        <v>32</v>
+      </c>
+      <c r="G559" t="s">
+        <v>535</v>
+      </c>
+      <c r="H559">
+        <v>5.4</v>
+      </c>
+      <c r="I559">
+        <v>0.21</v>
+      </c>
+      <c r="J559">
+        <v>5.18</v>
+      </c>
+      <c r="K559">
+        <v>0.22</v>
+      </c>
+      <c r="L559">
+        <v>0</v>
+      </c>
+      <c r="M559">
+        <v>0</v>
+      </c>
+      <c r="N559">
+        <v>0</v>
+      </c>
+      <c r="O559">
+        <v>0</v>
+      </c>
+      <c r="P559">
+        <v>3.93</v>
+      </c>
+      <c r="Q559">
+        <v>20.25</v>
+      </c>
+      <c r="R559">
+        <v>4.13</v>
+      </c>
+      <c r="S559">
+        <v>20</v>
+      </c>
+      <c r="T559">
+        <v>2</v>
+      </c>
+      <c r="U559">
+        <v>19</v>
+      </c>
+      <c r="V559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>23</v>
+      </c>
+      <c r="B560" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C560" t="s">
+        <v>20</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E560" t="s">
+        <v>35</v>
+      </c>
+      <c r="F560" t="s">
+        <v>34</v>
+      </c>
+      <c r="G560" t="s">
+        <v>536</v>
+      </c>
+      <c r="H560">
+        <v>5.21</v>
+      </c>
+      <c r="I560">
+        <v>0.34</v>
+      </c>
+      <c r="J560">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K560">
+        <v>0.3</v>
+      </c>
+      <c r="L560">
+        <v>0.05</v>
+      </c>
+      <c r="M560">
+        <v>0</v>
+      </c>
+      <c r="N560">
+        <v>0</v>
+      </c>
+      <c r="O560">
+        <v>1</v>
+      </c>
+      <c r="P560">
+        <v>3.82</v>
+      </c>
+      <c r="Q560">
+        <v>25.6</v>
+      </c>
+      <c r="R560">
+        <v>5.2</v>
+      </c>
+      <c r="S560">
+        <v>38</v>
+      </c>
+      <c r="T560">
+        <v>18</v>
+      </c>
+      <c r="U560">
+        <v>25</v>
+      </c>
+      <c r="V560">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>23</v>
+      </c>
+      <c r="B561" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C561" t="s">
+        <v>20</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E561" t="s">
+        <v>43</v>
+      </c>
+      <c r="F561" t="s">
+        <v>34</v>
+      </c>
+      <c r="G561" t="s">
+        <v>465</v>
+      </c>
+      <c r="H561">
+        <v>5.69</v>
+      </c>
+      <c r="I561">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J561">
+        <v>5.4</v>
+      </c>
+      <c r="K561">
+        <v>0.27</v>
+      </c>
+      <c r="L561">
+        <v>0.02</v>
+      </c>
+      <c r="M561">
+        <v>0</v>
+      </c>
+      <c r="N561">
+        <v>0</v>
+      </c>
+      <c r="O561">
+        <v>0</v>
+      </c>
+      <c r="P561">
+        <v>3.78</v>
+      </c>
+      <c r="Q561">
+        <v>22.91</v>
+      </c>
+      <c r="R561">
+        <v>5.3</v>
+      </c>
+      <c r="S561">
+        <v>70</v>
+      </c>
+      <c r="T561">
+        <v>24</v>
+      </c>
+      <c r="U561">
+        <v>62</v>
+      </c>
+      <c r="V561">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>23</v>
+      </c>
+      <c r="B562" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C562" t="s">
+        <v>20</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E562" t="s">
+        <v>17</v>
+      </c>
+      <c r="F562" t="s">
+        <v>34</v>
+      </c>
+      <c r="G562" t="s">
+        <v>290</v>
+      </c>
+      <c r="H562">
+        <v>5.29</v>
+      </c>
+      <c r="I562">
+        <v>0.27</v>
+      </c>
+      <c r="J562">
+        <v>5.01</v>
+      </c>
+      <c r="K562">
+        <v>0.23</v>
+      </c>
+      <c r="L562">
+        <v>0.05</v>
+      </c>
+      <c r="M562">
+        <v>0</v>
+      </c>
+      <c r="N562">
+        <v>0</v>
+      </c>
+      <c r="O562">
+        <v>0</v>
+      </c>
+      <c r="P562">
+        <v>3.81</v>
+      </c>
+      <c r="Q562">
+        <v>22.54</v>
+      </c>
+      <c r="R562">
+        <v>4.93</v>
+      </c>
+      <c r="S562">
+        <v>29</v>
+      </c>
+      <c r="T562">
+        <v>11</v>
+      </c>
+      <c r="U562">
+        <v>26</v>
+      </c>
+      <c r="V562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>23</v>
+      </c>
+      <c r="B563" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C563" t="s">
+        <v>20</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E563" t="s">
+        <v>50</v>
+      </c>
+      <c r="F563" t="s">
+        <v>33</v>
+      </c>
+      <c r="G563" t="s">
+        <v>290</v>
+      </c>
+      <c r="H563">
+        <v>5</v>
+      </c>
+      <c r="I563">
+        <v>0.25</v>
+      </c>
+      <c r="J563">
+        <v>4.75</v>
+      </c>
+      <c r="K563">
+        <v>0.21</v>
+      </c>
+      <c r="L563">
+        <v>0.04</v>
+      </c>
+      <c r="M563">
+        <v>0</v>
+      </c>
+      <c r="N563">
+        <v>0</v>
+      </c>
+      <c r="O563">
+        <v>0</v>
+      </c>
+      <c r="P563">
+        <v>3.56</v>
+      </c>
+      <c r="Q563">
+        <v>24</v>
+      </c>
+      <c r="R563">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S563">
+        <v>28</v>
+      </c>
+      <c r="T563">
+        <v>5</v>
+      </c>
+      <c r="U563">
+        <v>26</v>
+      </c>
+      <c r="V563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>23</v>
+      </c>
+      <c r="B564" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C564" t="s">
+        <v>20</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E564" t="s">
+        <v>58</v>
+      </c>
+      <c r="F564" t="s">
+        <v>29</v>
+      </c>
+      <c r="G564" t="s">
+        <v>537</v>
+      </c>
+      <c r="H564">
+        <v>5.64</v>
+      </c>
+      <c r="I564">
+        <v>0.17</v>
+      </c>
+      <c r="J564">
+        <v>5.46</v>
+      </c>
+      <c r="K564">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L564">
+        <v>0.03</v>
+      </c>
+      <c r="M564">
+        <v>0</v>
+      </c>
+      <c r="N564">
+        <v>0</v>
+      </c>
+      <c r="O564">
+        <v>0</v>
+      </c>
+      <c r="P564">
+        <v>3.32</v>
+      </c>
+      <c r="Q564">
+        <v>23.37</v>
+      </c>
+      <c r="R564">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S564">
+        <v>27</v>
+      </c>
+      <c r="T564">
+        <v>5</v>
+      </c>
+      <c r="U564">
+        <v>25</v>
+      </c>
+      <c r="V564">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA6D5B-81B4-0E48-890E-86DF5096DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58EB03-0206-1348-96DF-C08C33E40079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="539">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>01:21:06</t>
+  </si>
+  <si>
+    <t>01:28:17</t>
   </si>
 </sst>
 </file>
@@ -2042,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V564"/>
+  <dimension ref="A1:V566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A536" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D570" sqref="D570"/>
+      <selection activeCell="C570" sqref="C570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37798,9 +37801,6 @@
       <c r="C542" t="s">
         <v>20</v>
       </c>
-      <c r="D542" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E542" t="s">
         <v>121</v>
       </c>
@@ -37866,9 +37866,6 @@
       <c r="C543" t="s">
         <v>20</v>
       </c>
-      <c r="D543" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E543" t="s">
         <v>53</v>
       </c>
@@ -37934,9 +37931,6 @@
       <c r="C544" t="s">
         <v>20</v>
       </c>
-      <c r="D544" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E544" t="s">
         <v>43</v>
       </c>
@@ -38002,9 +37996,6 @@
       <c r="C545" t="s">
         <v>20</v>
       </c>
-      <c r="D545" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E545" t="s">
         <v>50</v>
       </c>
@@ -38070,9 +38061,6 @@
       <c r="C546" t="s">
         <v>20</v>
       </c>
-      <c r="D546" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E546" t="s">
         <v>52</v>
       </c>
@@ -38138,9 +38126,6 @@
       <c r="C547" t="s">
         <v>20</v>
       </c>
-      <c r="D547" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E547" t="s">
         <v>447</v>
       </c>
@@ -38206,9 +38191,6 @@
       <c r="C548" t="s">
         <v>20</v>
       </c>
-      <c r="D548" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E548" t="s">
         <v>251</v>
       </c>
@@ -38274,9 +38256,6 @@
       <c r="C549" t="s">
         <v>20</v>
       </c>
-      <c r="D549" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E549" t="s">
         <v>164</v>
       </c>
@@ -38342,9 +38321,6 @@
       <c r="C550" t="s">
         <v>20</v>
       </c>
-      <c r="D550" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E550" t="s">
         <v>447</v>
       </c>
@@ -38410,9 +38386,6 @@
       <c r="C551" t="s">
         <v>20</v>
       </c>
-      <c r="D551" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E551" t="s">
         <v>43</v>
       </c>
@@ -38478,9 +38451,6 @@
       <c r="C552" t="s">
         <v>20</v>
       </c>
-      <c r="D552" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E552" t="s">
         <v>50</v>
       </c>
@@ -38546,9 +38516,6 @@
       <c r="C553" t="s">
         <v>20</v>
       </c>
-      <c r="D553" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E553" t="s">
         <v>447</v>
       </c>
@@ -38614,9 +38581,6 @@
       <c r="C554" t="s">
         <v>20</v>
       </c>
-      <c r="D554" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E554" t="s">
         <v>52</v>
       </c>
@@ -38682,9 +38646,6 @@
       <c r="C555" t="s">
         <v>20</v>
       </c>
-      <c r="D555" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E555" t="s">
         <v>251</v>
       </c>
@@ -38750,9 +38711,6 @@
       <c r="C556" t="s">
         <v>20</v>
       </c>
-      <c r="D556" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E556" t="s">
         <v>164</v>
       </c>
@@ -38818,9 +38776,6 @@
       <c r="C557" t="s">
         <v>20</v>
       </c>
-      <c r="D557" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E557" t="s">
         <v>121</v>
       </c>
@@ -38886,9 +38841,6 @@
       <c r="C558" t="s">
         <v>20</v>
       </c>
-      <c r="D558" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E558" t="s">
         <v>53</v>
       </c>
@@ -38954,9 +38906,6 @@
       <c r="C559" t="s">
         <v>20</v>
       </c>
-      <c r="D559" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E559" t="s">
         <v>448</v>
       </c>
@@ -39022,9 +38971,6 @@
       <c r="C560" t="s">
         <v>20</v>
       </c>
-      <c r="D560" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E560" t="s">
         <v>35</v>
       </c>
@@ -39090,9 +39036,6 @@
       <c r="C561" t="s">
         <v>20</v>
       </c>
-      <c r="D561" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E561" t="s">
         <v>43</v>
       </c>
@@ -39158,9 +39101,6 @@
       <c r="C562" t="s">
         <v>20</v>
       </c>
-      <c r="D562" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E562" t="s">
         <v>17</v>
       </c>
@@ -39226,9 +39166,6 @@
       <c r="C563" t="s">
         <v>20</v>
       </c>
-      <c r="D563" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E563" t="s">
         <v>50</v>
       </c>
@@ -39294,9 +39231,6 @@
       <c r="C564" t="s">
         <v>20</v>
       </c>
-      <c r="D564" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E564" t="s">
         <v>58</v>
       </c>
@@ -39350,6 +39284,142 @@
       </c>
       <c r="V564">
         <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>23</v>
+      </c>
+      <c r="B565" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C565" t="s">
+        <v>20</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E565" t="s">
+        <v>52</v>
+      </c>
+      <c r="F565" t="s">
+        <v>33</v>
+      </c>
+      <c r="G565" t="s">
+        <v>325</v>
+      </c>
+      <c r="H565">
+        <v>6.58</v>
+      </c>
+      <c r="I565">
+        <v>0.52</v>
+      </c>
+      <c r="J565">
+        <v>6.04</v>
+      </c>
+      <c r="K565">
+        <v>0.41</v>
+      </c>
+      <c r="L565">
+        <v>0.13</v>
+      </c>
+      <c r="M565">
+        <v>0</v>
+      </c>
+      <c r="N565">
+        <v>0</v>
+      </c>
+      <c r="O565">
+        <v>0</v>
+      </c>
+      <c r="P565">
+        <v>4.41</v>
+      </c>
+      <c r="Q565">
+        <v>24.14</v>
+      </c>
+      <c r="R565">
+        <v>4.76</v>
+      </c>
+      <c r="S565">
+        <v>46</v>
+      </c>
+      <c r="T565">
+        <v>6</v>
+      </c>
+      <c r="U565">
+        <v>23</v>
+      </c>
+      <c r="V565">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C566" t="s">
+        <v>20</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E566" t="s">
+        <v>447</v>
+      </c>
+      <c r="F566" t="s">
+        <v>33</v>
+      </c>
+      <c r="G566" t="s">
+        <v>538</v>
+      </c>
+      <c r="H566">
+        <v>6.39</v>
+      </c>
+      <c r="I566">
+        <v>0.33</v>
+      </c>
+      <c r="J566">
+        <v>6.05</v>
+      </c>
+      <c r="K566">
+        <v>0.24</v>
+      </c>
+      <c r="L566">
+        <v>0.1</v>
+      </c>
+      <c r="M566">
+        <v>0.01</v>
+      </c>
+      <c r="N566">
+        <v>0</v>
+      </c>
+      <c r="O566">
+        <v>2</v>
+      </c>
+      <c r="P566">
+        <v>3.9</v>
+      </c>
+      <c r="Q566">
+        <v>25.41</v>
+      </c>
+      <c r="R566">
+        <v>4.93</v>
+      </c>
+      <c r="S566">
+        <v>42</v>
+      </c>
+      <c r="T566">
+        <v>11</v>
+      </c>
+      <c r="U566">
+        <v>38</v>
+      </c>
+      <c r="V566">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58EB03-0206-1348-96DF-C08C33E40079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1CFDC0-1626-BD46-9115-94FDD13D834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="550">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1653,6 +1653,39 @@
   </si>
   <si>
     <t>01:28:17</t>
+  </si>
+  <si>
+    <t>01:37:55</t>
+  </si>
+  <si>
+    <t>01:36:57</t>
+  </si>
+  <si>
+    <t>01:38:17</t>
+  </si>
+  <si>
+    <t>01:38:25</t>
+  </si>
+  <si>
+    <t>01:36:56</t>
+  </si>
+  <si>
+    <t>00:47:56</t>
+  </si>
+  <si>
+    <t>00:59:51</t>
+  </si>
+  <si>
+    <t>01:19:04</t>
+  </si>
+  <si>
+    <t>00:18:22</t>
+  </si>
+  <si>
+    <t>00:59:36</t>
+  </si>
+  <si>
+    <t>CDF T4 VS Misérieux Trévoux (R1)</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V566"/>
+  <dimension ref="A1:V577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C570" sqref="C570"/>
+    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D583" sqref="D583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39422,6 +39455,721 @@
         <v>8</v>
       </c>
     </row>
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>549</v>
+      </c>
+      <c r="B567" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C567" t="s">
+        <v>20</v>
+      </c>
+      <c r="E567" t="s">
+        <v>53</v>
+      </c>
+      <c r="F567" t="s">
+        <v>32</v>
+      </c>
+      <c r="G567" t="s">
+        <v>539</v>
+      </c>
+      <c r="H567">
+        <v>11.8</v>
+      </c>
+      <c r="I567">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J567">
+        <v>9.35</v>
+      </c>
+      <c r="K567">
+        <v>1.73</v>
+      </c>
+      <c r="L567">
+        <v>0.59</v>
+      </c>
+      <c r="M567">
+        <v>0.13</v>
+      </c>
+      <c r="N567">
+        <v>0</v>
+      </c>
+      <c r="O567">
+        <v>9</v>
+      </c>
+      <c r="P567">
+        <v>7.15</v>
+      </c>
+      <c r="Q567">
+        <v>29.74</v>
+      </c>
+      <c r="R567">
+        <v>4.58</v>
+      </c>
+      <c r="S567">
+        <v>47</v>
+      </c>
+      <c r="T567">
+        <v>7</v>
+      </c>
+      <c r="U567">
+        <v>23</v>
+      </c>
+      <c r="V567">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>549</v>
+      </c>
+      <c r="B568" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C568" t="s">
+        <v>20</v>
+      </c>
+      <c r="E568" t="s">
+        <v>251</v>
+      </c>
+      <c r="F568" t="s">
+        <v>32</v>
+      </c>
+      <c r="G568" t="s">
+        <v>540</v>
+      </c>
+      <c r="H568">
+        <v>11.12</v>
+      </c>
+      <c r="I568">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J568">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K568">
+        <v>1.71</v>
+      </c>
+      <c r="L568">
+        <v>0.42</v>
+      </c>
+      <c r="M568">
+        <v>0.12</v>
+      </c>
+      <c r="N568">
+        <v>0</v>
+      </c>
+      <c r="O568">
+        <v>5</v>
+      </c>
+      <c r="P568">
+        <v>6.91</v>
+      </c>
+      <c r="Q568">
+        <v>29.54</v>
+      </c>
+      <c r="R568">
+        <v>4.34</v>
+      </c>
+      <c r="S568">
+        <v>30</v>
+      </c>
+      <c r="T568">
+        <v>2</v>
+      </c>
+      <c r="U568">
+        <v>33</v>
+      </c>
+      <c r="V568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>549</v>
+      </c>
+      <c r="B569" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C569" t="s">
+        <v>20</v>
+      </c>
+      <c r="E569" t="s">
+        <v>58</v>
+      </c>
+      <c r="F569" t="s">
+        <v>29</v>
+      </c>
+      <c r="G569" t="s">
+        <v>541</v>
+      </c>
+      <c r="H569">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I569">
+        <v>1.05</v>
+      </c>
+      <c r="J569">
+        <v>8.24</v>
+      </c>
+      <c r="K569">
+        <v>0.66</v>
+      </c>
+      <c r="L569">
+        <v>0.3</v>
+      </c>
+      <c r="M569">
+        <v>0.1</v>
+      </c>
+      <c r="N569">
+        <v>0</v>
+      </c>
+      <c r="O569">
+        <v>5</v>
+      </c>
+      <c r="P569">
+        <v>5.57</v>
+      </c>
+      <c r="Q569">
+        <v>29.79</v>
+      </c>
+      <c r="R569">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S569">
+        <v>23</v>
+      </c>
+      <c r="T569">
+        <v>2</v>
+      </c>
+      <c r="U569">
+        <v>19</v>
+      </c>
+      <c r="V569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>549</v>
+      </c>
+      <c r="B570" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C570" t="s">
+        <v>20</v>
+      </c>
+      <c r="E570" t="s">
+        <v>55</v>
+      </c>
+      <c r="F570" t="s">
+        <v>32</v>
+      </c>
+      <c r="G570" t="s">
+        <v>542</v>
+      </c>
+      <c r="H570">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I570">
+        <v>1.77</v>
+      </c>
+      <c r="J570">
+        <v>7.92</v>
+      </c>
+      <c r="K570">
+        <v>1.05</v>
+      </c>
+      <c r="L570">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M570">
+        <v>0.2</v>
+      </c>
+      <c r="N570">
+        <v>0</v>
+      </c>
+      <c r="O570">
+        <v>16</v>
+      </c>
+      <c r="P570">
+        <v>5.92</v>
+      </c>
+      <c r="Q570">
+        <v>29.94</v>
+      </c>
+      <c r="R570">
+        <v>4.95</v>
+      </c>
+      <c r="S570">
+        <v>32</v>
+      </c>
+      <c r="T570">
+        <v>3</v>
+      </c>
+      <c r="U570">
+        <v>33</v>
+      </c>
+      <c r="V570">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>549</v>
+      </c>
+      <c r="B571" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C571" t="s">
+        <v>20</v>
+      </c>
+      <c r="E571" t="s">
+        <v>93</v>
+      </c>
+      <c r="F571" t="s">
+        <v>31</v>
+      </c>
+      <c r="G571" t="s">
+        <v>543</v>
+      </c>
+      <c r="H571">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I571">
+        <v>1.95</v>
+      </c>
+      <c r="J571">
+        <v>6.81</v>
+      </c>
+      <c r="K571">
+        <v>0.96</v>
+      </c>
+      <c r="L571">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M571">
+        <v>0.32</v>
+      </c>
+      <c r="N571">
+        <v>0.13</v>
+      </c>
+      <c r="O571">
+        <v>20</v>
+      </c>
+      <c r="P571">
+        <v>5.35</v>
+      </c>
+      <c r="Q571">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="R571">
+        <v>4.91</v>
+      </c>
+      <c r="S571">
+        <v>46</v>
+      </c>
+      <c r="T571">
+        <v>12</v>
+      </c>
+      <c r="U571">
+        <v>22</v>
+      </c>
+      <c r="V571">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>549</v>
+      </c>
+      <c r="B572" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C572" t="s">
+        <v>20</v>
+      </c>
+      <c r="E572" t="s">
+        <v>164</v>
+      </c>
+      <c r="F572" t="s">
+        <v>32</v>
+      </c>
+      <c r="G572" t="s">
+        <v>544</v>
+      </c>
+      <c r="H572">
+        <v>6.02</v>
+      </c>
+      <c r="I572">
+        <v>1.43</v>
+      </c>
+      <c r="J572">
+        <v>4.57</v>
+      </c>
+      <c r="K572">
+        <v>0.92</v>
+      </c>
+      <c r="L572">
+        <v>0.36</v>
+      </c>
+      <c r="M572">
+        <v>0.13</v>
+      </c>
+      <c r="N572">
+        <v>0.03</v>
+      </c>
+      <c r="O572">
+        <v>8</v>
+      </c>
+      <c r="P572">
+        <v>7.5</v>
+      </c>
+      <c r="Q572">
+        <v>32.07</v>
+      </c>
+      <c r="R572">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S572">
+        <v>24</v>
+      </c>
+      <c r="T572">
+        <v>5</v>
+      </c>
+      <c r="U572">
+        <v>25</v>
+      </c>
+      <c r="V572">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>549</v>
+      </c>
+      <c r="B573" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C573" t="s">
+        <v>20</v>
+      </c>
+      <c r="E573" t="s">
+        <v>48</v>
+      </c>
+      <c r="F573" t="s">
+        <v>29</v>
+      </c>
+      <c r="G573" t="s">
+        <v>540</v>
+      </c>
+      <c r="H573">
+        <v>8.94</v>
+      </c>
+      <c r="I573">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J573">
+        <v>7.79</v>
+      </c>
+      <c r="K573">
+        <v>0.8</v>
+      </c>
+      <c r="L573">
+        <v>0.22</v>
+      </c>
+      <c r="M573">
+        <v>0.12</v>
+      </c>
+      <c r="N573">
+        <v>0</v>
+      </c>
+      <c r="O573">
+        <v>6</v>
+      </c>
+      <c r="P573">
+        <v>5.49</v>
+      </c>
+      <c r="Q573">
+        <v>29.51</v>
+      </c>
+      <c r="R573">
+        <v>4.66</v>
+      </c>
+      <c r="S573">
+        <v>30</v>
+      </c>
+      <c r="T573">
+        <v>3</v>
+      </c>
+      <c r="U573">
+        <v>24</v>
+      </c>
+      <c r="V573">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>549</v>
+      </c>
+      <c r="B574" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C574" t="s">
+        <v>20</v>
+      </c>
+      <c r="E574" t="s">
+        <v>17</v>
+      </c>
+      <c r="F574" t="s">
+        <v>34</v>
+      </c>
+      <c r="G574" t="s">
+        <v>545</v>
+      </c>
+      <c r="H574">
+        <v>6.68</v>
+      </c>
+      <c r="I574">
+        <v>1.37</v>
+      </c>
+      <c r="J574">
+        <v>5.29</v>
+      </c>
+      <c r="K574">
+        <v>0.85</v>
+      </c>
+      <c r="L574">
+        <v>0.38</v>
+      </c>
+      <c r="M574">
+        <v>0.13</v>
+      </c>
+      <c r="N574">
+        <v>0.02</v>
+      </c>
+      <c r="O574">
+        <v>8</v>
+      </c>
+      <c r="P574">
+        <v>6.66</v>
+      </c>
+      <c r="Q574">
+        <v>32.06</v>
+      </c>
+      <c r="R574">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S574">
+        <v>36</v>
+      </c>
+      <c r="T574">
+        <v>8</v>
+      </c>
+      <c r="U574">
+        <v>21</v>
+      </c>
+      <c r="V574">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>549</v>
+      </c>
+      <c r="B575" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C575" t="s">
+        <v>20</v>
+      </c>
+      <c r="E575" t="s">
+        <v>447</v>
+      </c>
+      <c r="F575" t="s">
+        <v>33</v>
+      </c>
+      <c r="G575" t="s">
+        <v>546</v>
+      </c>
+      <c r="H575">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I575">
+        <v>1.97</v>
+      </c>
+      <c r="J575">
+        <v>7.04</v>
+      </c>
+      <c r="K575">
+        <v>1.22</v>
+      </c>
+      <c r="L575">
+        <v>0.63</v>
+      </c>
+      <c r="M575">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N575">
+        <v>0</v>
+      </c>
+      <c r="O575">
+        <v>11</v>
+      </c>
+      <c r="P575">
+        <v>6.71</v>
+      </c>
+      <c r="Q575">
+        <v>27.72</v>
+      </c>
+      <c r="R575">
+        <v>4.42</v>
+      </c>
+      <c r="S575">
+        <v>31</v>
+      </c>
+      <c r="T575">
+        <v>8</v>
+      </c>
+      <c r="U575">
+        <v>26</v>
+      </c>
+      <c r="V575">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>549</v>
+      </c>
+      <c r="B576" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C576" t="s">
+        <v>20</v>
+      </c>
+      <c r="E576" t="s">
+        <v>50</v>
+      </c>
+      <c r="F576" t="s">
+        <v>33</v>
+      </c>
+      <c r="G576" t="s">
+        <v>547</v>
+      </c>
+      <c r="H576">
+        <v>1.99</v>
+      </c>
+      <c r="I576">
+        <v>0.38</v>
+      </c>
+      <c r="J576">
+        <v>1.61</v>
+      </c>
+      <c r="K576">
+        <v>0.19</v>
+      </c>
+      <c r="L576">
+        <v>0.1</v>
+      </c>
+      <c r="M576">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N576">
+        <v>0.02</v>
+      </c>
+      <c r="O576">
+        <v>3</v>
+      </c>
+      <c r="P576">
+        <v>6.48</v>
+      </c>
+      <c r="Q576">
+        <v>31.39</v>
+      </c>
+      <c r="R576">
+        <v>4.07</v>
+      </c>
+      <c r="S576">
+        <v>8</v>
+      </c>
+      <c r="T576">
+        <v>2</v>
+      </c>
+      <c r="U576">
+        <v>4</v>
+      </c>
+      <c r="V576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>549</v>
+      </c>
+      <c r="B577" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C577" t="s">
+        <v>20</v>
+      </c>
+      <c r="E577" t="s">
+        <v>43</v>
+      </c>
+      <c r="F577" t="s">
+        <v>34</v>
+      </c>
+      <c r="G577" t="s">
+        <v>548</v>
+      </c>
+      <c r="H577">
+        <v>7.2</v>
+      </c>
+      <c r="I577">
+        <v>1.58</v>
+      </c>
+      <c r="J577">
+        <v>5.59</v>
+      </c>
+      <c r="K577">
+        <v>1.03</v>
+      </c>
+      <c r="L577">
+        <v>0.41</v>
+      </c>
+      <c r="M577">
+        <v>0.12</v>
+      </c>
+      <c r="N577">
+        <v>0.04</v>
+      </c>
+      <c r="O577">
+        <v>9</v>
+      </c>
+      <c r="P577">
+        <v>7.22</v>
+      </c>
+      <c r="Q577">
+        <v>32.64</v>
+      </c>
+      <c r="R577">
+        <v>4.88</v>
+      </c>
+      <c r="S577">
+        <v>38</v>
+      </c>
+      <c r="T577">
+        <v>6</v>
+      </c>
+      <c r="U577">
+        <v>23</v>
+      </c>
+      <c r="V577">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1CFDC0-1626-BD46-9115-94FDD13D834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55728507-714C-0941-BAC4-EEC4C2325CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="555">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1686,6 +1686,21 @@
   </si>
   <si>
     <t>CDF T4 VS Misérieux Trévoux (R1)</t>
+  </si>
+  <si>
+    <t>01:33:33</t>
+  </si>
+  <si>
+    <t>01:32:46</t>
+  </si>
+  <si>
+    <t>01:33:05</t>
+  </si>
+  <si>
+    <t>01:33:42</t>
+  </si>
+  <si>
+    <t>01:29:59</t>
   </si>
 </sst>
 </file>
@@ -2078,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V577"/>
+  <dimension ref="A1:V585"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D583" sqref="D583"/>
+      <selection activeCell="A578" sqref="A578:A585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40170,6 +40185,550 @@
         <v>14</v>
       </c>
     </row>
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>23</v>
+      </c>
+      <c r="B578" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C578" t="s">
+        <v>20</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E578" t="s">
+        <v>251</v>
+      </c>
+      <c r="F578" t="s">
+        <v>32</v>
+      </c>
+      <c r="G578" t="s">
+        <v>550</v>
+      </c>
+      <c r="H578">
+        <v>7.06</v>
+      </c>
+      <c r="I578">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J578">
+        <v>6.91</v>
+      </c>
+      <c r="K578">
+        <v>0.15</v>
+      </c>
+      <c r="L578">
+        <v>0</v>
+      </c>
+      <c r="M578">
+        <v>0</v>
+      </c>
+      <c r="N578">
+        <v>0</v>
+      </c>
+      <c r="O578">
+        <v>0</v>
+      </c>
+      <c r="P578">
+        <v>4.45</v>
+      </c>
+      <c r="Q578">
+        <v>20</v>
+      </c>
+      <c r="R578">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S578">
+        <v>31</v>
+      </c>
+      <c r="T578">
+        <v>1</v>
+      </c>
+      <c r="U578">
+        <v>24</v>
+      </c>
+      <c r="V578">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>23</v>
+      </c>
+      <c r="B579" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C579" t="s">
+        <v>20</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E579" t="s">
+        <v>17</v>
+      </c>
+      <c r="F579" t="s">
+        <v>34</v>
+      </c>
+      <c r="G579" t="s">
+        <v>551</v>
+      </c>
+      <c r="H579">
+        <v>7.31</v>
+      </c>
+      <c r="I579">
+        <v>0.24</v>
+      </c>
+      <c r="J579">
+        <v>7.07</v>
+      </c>
+      <c r="K579">
+        <v>0.23</v>
+      </c>
+      <c r="L579">
+        <v>0.01</v>
+      </c>
+      <c r="M579">
+        <v>0</v>
+      </c>
+      <c r="N579">
+        <v>0</v>
+      </c>
+      <c r="O579">
+        <v>0</v>
+      </c>
+      <c r="P579">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q579">
+        <v>22.21</v>
+      </c>
+      <c r="R579">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S579">
+        <v>37</v>
+      </c>
+      <c r="T579">
+        <v>2</v>
+      </c>
+      <c r="U579">
+        <v>29</v>
+      </c>
+      <c r="V579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>23</v>
+      </c>
+      <c r="B580" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C580" t="s">
+        <v>20</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E580" t="s">
+        <v>40</v>
+      </c>
+      <c r="F580" t="s">
+        <v>31</v>
+      </c>
+      <c r="G580" t="s">
+        <v>551</v>
+      </c>
+      <c r="H580">
+        <v>7.37</v>
+      </c>
+      <c r="I580">
+        <v>0.2</v>
+      </c>
+      <c r="J580">
+        <v>7.15</v>
+      </c>
+      <c r="K580">
+        <v>0.19</v>
+      </c>
+      <c r="L580">
+        <v>0.02</v>
+      </c>
+      <c r="M580">
+        <v>0</v>
+      </c>
+      <c r="N580">
+        <v>0</v>
+      </c>
+      <c r="O580">
+        <v>1</v>
+      </c>
+      <c r="P580">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q580">
+        <v>25.53</v>
+      </c>
+      <c r="R580">
+        <v>5.67</v>
+      </c>
+      <c r="S580">
+        <v>80</v>
+      </c>
+      <c r="T580">
+        <v>20</v>
+      </c>
+      <c r="U580">
+        <v>57</v>
+      </c>
+      <c r="V580">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>23</v>
+      </c>
+      <c r="B581" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C581" t="s">
+        <v>20</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E581" t="s">
+        <v>164</v>
+      </c>
+      <c r="F581" t="s">
+        <v>32</v>
+      </c>
+      <c r="G581" t="s">
+        <v>552</v>
+      </c>
+      <c r="H581">
+        <v>7.21</v>
+      </c>
+      <c r="I581">
+        <v>0.25</v>
+      </c>
+      <c r="J581">
+        <v>6.94</v>
+      </c>
+      <c r="K581">
+        <v>0.23</v>
+      </c>
+      <c r="L581">
+        <v>0.03</v>
+      </c>
+      <c r="M581">
+        <v>0</v>
+      </c>
+      <c r="N581">
+        <v>0</v>
+      </c>
+      <c r="O581">
+        <v>1</v>
+      </c>
+      <c r="P581">
+        <v>4.53</v>
+      </c>
+      <c r="Q581">
+        <v>25.62</v>
+      </c>
+      <c r="R581">
+        <v>4.63</v>
+      </c>
+      <c r="S581">
+        <v>43</v>
+      </c>
+      <c r="T581">
+        <v>2</v>
+      </c>
+      <c r="U581">
+        <v>25</v>
+      </c>
+      <c r="V581">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>23</v>
+      </c>
+      <c r="B582" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C582" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E582" t="s">
+        <v>447</v>
+      </c>
+      <c r="F582" t="s">
+        <v>33</v>
+      </c>
+      <c r="G582" t="s">
+        <v>553</v>
+      </c>
+      <c r="H582">
+        <v>7.92</v>
+      </c>
+      <c r="I582">
+        <v>0.24</v>
+      </c>
+      <c r="J582">
+        <v>7.67</v>
+      </c>
+      <c r="K582">
+        <v>0.22</v>
+      </c>
+      <c r="L582">
+        <v>0.03</v>
+      </c>
+      <c r="M582">
+        <v>0</v>
+      </c>
+      <c r="N582">
+        <v>0</v>
+      </c>
+      <c r="O582">
+        <v>0</v>
+      </c>
+      <c r="P582">
+        <v>4.47</v>
+      </c>
+      <c r="Q582">
+        <v>23.99</v>
+      </c>
+      <c r="R582">
+        <v>4.37</v>
+      </c>
+      <c r="S582">
+        <v>39</v>
+      </c>
+      <c r="T582">
+        <v>8</v>
+      </c>
+      <c r="U582">
+        <v>41</v>
+      </c>
+      <c r="V582">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>23</v>
+      </c>
+      <c r="B583" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C583" t="s">
+        <v>20</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E583" t="s">
+        <v>52</v>
+      </c>
+      <c r="F583" t="s">
+        <v>33</v>
+      </c>
+      <c r="G583" t="s">
+        <v>554</v>
+      </c>
+      <c r="H583">
+        <v>7.31</v>
+      </c>
+      <c r="I583">
+        <v>0.32</v>
+      </c>
+      <c r="J583">
+        <v>6.99</v>
+      </c>
+      <c r="K583">
+        <v>0.26</v>
+      </c>
+      <c r="L583">
+        <v>0.06</v>
+      </c>
+      <c r="M583">
+        <v>0</v>
+      </c>
+      <c r="N583">
+        <v>0</v>
+      </c>
+      <c r="O583">
+        <v>0</v>
+      </c>
+      <c r="P583">
+        <v>4.78</v>
+      </c>
+      <c r="Q583">
+        <v>24.38</v>
+      </c>
+      <c r="R583">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S583">
+        <v>44</v>
+      </c>
+      <c r="T583">
+        <v>9</v>
+      </c>
+      <c r="U583">
+        <v>39</v>
+      </c>
+      <c r="V583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C584" t="s">
+        <v>20</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E584" t="s">
+        <v>39</v>
+      </c>
+      <c r="F584" t="s">
+        <v>29</v>
+      </c>
+      <c r="G584" t="s">
+        <v>551</v>
+      </c>
+      <c r="H584">
+        <v>7.39</v>
+      </c>
+      <c r="I584">
+        <v>0.22</v>
+      </c>
+      <c r="J584">
+        <v>7.16</v>
+      </c>
+      <c r="K584">
+        <v>0.17</v>
+      </c>
+      <c r="L584">
+        <v>0.06</v>
+      </c>
+      <c r="M584">
+        <v>0</v>
+      </c>
+      <c r="N584">
+        <v>0</v>
+      </c>
+      <c r="O584">
+        <v>0</v>
+      </c>
+      <c r="P584">
+        <v>4.05</v>
+      </c>
+      <c r="Q584">
+        <v>22.82</v>
+      </c>
+      <c r="R584">
+        <v>6.78</v>
+      </c>
+      <c r="S584">
+        <v>39</v>
+      </c>
+      <c r="T584">
+        <v>8</v>
+      </c>
+      <c r="U584">
+        <v>42</v>
+      </c>
+      <c r="V584">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>23</v>
+      </c>
+      <c r="B585" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C585" t="s">
+        <v>20</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E585" t="s">
+        <v>43</v>
+      </c>
+      <c r="F585" t="s">
+        <v>34</v>
+      </c>
+      <c r="G585" t="s">
+        <v>391</v>
+      </c>
+      <c r="H585">
+        <v>7.51</v>
+      </c>
+      <c r="I585">
+        <v>0.12</v>
+      </c>
+      <c r="J585">
+        <v>7.38</v>
+      </c>
+      <c r="K585">
+        <v>0.12</v>
+      </c>
+      <c r="L585">
+        <v>0.01</v>
+      </c>
+      <c r="M585">
+        <v>0</v>
+      </c>
+      <c r="N585">
+        <v>0</v>
+      </c>
+      <c r="O585">
+        <v>0</v>
+      </c>
+      <c r="P585">
+        <v>4.13</v>
+      </c>
+      <c r="Q585">
+        <v>23.19</v>
+      </c>
+      <c r="R585">
+        <v>4.41</v>
+      </c>
+      <c r="S585">
+        <v>48</v>
+      </c>
+      <c r="T585">
+        <v>6</v>
+      </c>
+      <c r="U585">
+        <v>59</v>
+      </c>
+      <c r="V585">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55728507-714C-0941-BAC4-EEC4C2325CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F4BAE-DDE0-834C-BBC6-8E85103F61F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="566">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1701,6 +1701,39 @@
   </si>
   <si>
     <t>01:29:59</t>
+  </si>
+  <si>
+    <t>01:36:13</t>
+  </si>
+  <si>
+    <t>00:45:48</t>
+  </si>
+  <si>
+    <t>01:40:35</t>
+  </si>
+  <si>
+    <t>01:38:39</t>
+  </si>
+  <si>
+    <t>01:35:57</t>
+  </si>
+  <si>
+    <t>01:37:22</t>
+  </si>
+  <si>
+    <t>01:39:40</t>
+  </si>
+  <si>
+    <t>01:38:46</t>
+  </si>
+  <si>
+    <t>01:37:45</t>
+  </si>
+  <si>
+    <t>01:39:02</t>
+  </si>
+  <si>
+    <t>01:39:17</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V585"/>
+  <dimension ref="A1:V601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A578" sqref="A578:A585"/>
+    <sheetView tabSelected="1" topLeftCell="A567" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B605" sqref="B605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40729,6 +40762,1094 @@
         <v>13</v>
       </c>
     </row>
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>23</v>
+      </c>
+      <c r="B586" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C586" t="s">
+        <v>20</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E586" t="s">
+        <v>55</v>
+      </c>
+      <c r="F586" t="s">
+        <v>32</v>
+      </c>
+      <c r="G586" t="s">
+        <v>484</v>
+      </c>
+      <c r="H586">
+        <v>6.72</v>
+      </c>
+      <c r="I586">
+        <v>0.94</v>
+      </c>
+      <c r="J586">
+        <v>5.77</v>
+      </c>
+      <c r="K586">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L586">
+        <v>0.32</v>
+      </c>
+      <c r="M586">
+        <v>0.08</v>
+      </c>
+      <c r="N586">
+        <v>0</v>
+      </c>
+      <c r="O586">
+        <v>11</v>
+      </c>
+      <c r="P586">
+        <v>3.49</v>
+      </c>
+      <c r="Q586">
+        <v>27.9</v>
+      </c>
+      <c r="R586">
+        <v>5.27</v>
+      </c>
+      <c r="S586">
+        <v>32</v>
+      </c>
+      <c r="T586">
+        <v>3</v>
+      </c>
+      <c r="U586">
+        <v>25</v>
+      </c>
+      <c r="V586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>23</v>
+      </c>
+      <c r="B587" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C587" t="s">
+        <v>20</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E587" t="s">
+        <v>93</v>
+      </c>
+      <c r="F587" t="s">
+        <v>31</v>
+      </c>
+      <c r="G587" t="s">
+        <v>555</v>
+      </c>
+      <c r="H587">
+        <v>6.22</v>
+      </c>
+      <c r="I587">
+        <v>0.99</v>
+      </c>
+      <c r="J587">
+        <v>5.22</v>
+      </c>
+      <c r="K587">
+        <v>0.51</v>
+      </c>
+      <c r="L587">
+        <v>0.31</v>
+      </c>
+      <c r="M587">
+        <v>0.16</v>
+      </c>
+      <c r="N587">
+        <v>0.03</v>
+      </c>
+      <c r="O587">
+        <v>13</v>
+      </c>
+      <c r="P587">
+        <v>3.4</v>
+      </c>
+      <c r="Q587">
+        <v>35.4</v>
+      </c>
+      <c r="R587">
+        <v>5.77</v>
+      </c>
+      <c r="S587">
+        <v>49</v>
+      </c>
+      <c r="T587">
+        <v>15</v>
+      </c>
+      <c r="U587">
+        <v>31</v>
+      </c>
+      <c r="V587">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>23</v>
+      </c>
+      <c r="B588" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C588" t="s">
+        <v>20</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E588" t="s">
+        <v>40</v>
+      </c>
+      <c r="F588" t="s">
+        <v>31</v>
+      </c>
+      <c r="G588" t="s">
+        <v>484</v>
+      </c>
+      <c r="H588">
+        <v>6.62</v>
+      </c>
+      <c r="I588">
+        <v>1.19</v>
+      </c>
+      <c r="J588">
+        <v>5.41</v>
+      </c>
+      <c r="K588">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L588">
+        <v>0.35</v>
+      </c>
+      <c r="M588">
+        <v>0.25</v>
+      </c>
+      <c r="N588">
+        <v>0.05</v>
+      </c>
+      <c r="O588">
+        <v>21</v>
+      </c>
+      <c r="P588">
+        <v>3.65</v>
+      </c>
+      <c r="Q588">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R588">
+        <v>5.62</v>
+      </c>
+      <c r="S588">
+        <v>59</v>
+      </c>
+      <c r="T588">
+        <v>15</v>
+      </c>
+      <c r="U588">
+        <v>44</v>
+      </c>
+      <c r="V588">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>23</v>
+      </c>
+      <c r="B589" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C589" t="s">
+        <v>20</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E589" t="s">
+        <v>154</v>
+      </c>
+      <c r="F589" t="s">
+        <v>32</v>
+      </c>
+      <c r="G589" t="s">
+        <v>556</v>
+      </c>
+      <c r="H589">
+        <v>2.86</v>
+      </c>
+      <c r="I589">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J589">
+        <v>2.57</v>
+      </c>
+      <c r="K589">
+        <v>0.19</v>
+      </c>
+      <c r="L589">
+        <v>0.08</v>
+      </c>
+      <c r="M589">
+        <v>0.01</v>
+      </c>
+      <c r="N589">
+        <v>0</v>
+      </c>
+      <c r="O589">
+        <v>1</v>
+      </c>
+      <c r="P589">
+        <v>3.69</v>
+      </c>
+      <c r="Q589">
+        <v>25.77</v>
+      </c>
+      <c r="R589">
+        <v>3.85</v>
+      </c>
+      <c r="S589">
+        <v>12</v>
+      </c>
+      <c r="T589">
+        <v>0</v>
+      </c>
+      <c r="U589">
+        <v>7</v>
+      </c>
+      <c r="V589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>23</v>
+      </c>
+      <c r="B590" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C590" t="s">
+        <v>20</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E590" t="s">
+        <v>251</v>
+      </c>
+      <c r="F590" t="s">
+        <v>32</v>
+      </c>
+      <c r="G590" t="s">
+        <v>557</v>
+      </c>
+      <c r="H590">
+        <v>7.03</v>
+      </c>
+      <c r="I590">
+        <v>0.83</v>
+      </c>
+      <c r="J590">
+        <v>6.18</v>
+      </c>
+      <c r="K590">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L590">
+        <v>0.2</v>
+      </c>
+      <c r="M590">
+        <v>0.08</v>
+      </c>
+      <c r="N590">
+        <v>0</v>
+      </c>
+      <c r="O590">
+        <v>3</v>
+      </c>
+      <c r="P590">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q590">
+        <v>29.96</v>
+      </c>
+      <c r="R590">
+        <v>4.43</v>
+      </c>
+      <c r="S590">
+        <v>42</v>
+      </c>
+      <c r="T590">
+        <v>6</v>
+      </c>
+      <c r="U590">
+        <v>27</v>
+      </c>
+      <c r="V590">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>23</v>
+      </c>
+      <c r="B591" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C591" t="s">
+        <v>20</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E591" t="s">
+        <v>448</v>
+      </c>
+      <c r="F591" t="s">
+        <v>32</v>
+      </c>
+      <c r="G591" t="s">
+        <v>558</v>
+      </c>
+      <c r="H591">
+        <v>7.33</v>
+      </c>
+      <c r="I591">
+        <v>1.04</v>
+      </c>
+      <c r="J591">
+        <v>6.28</v>
+      </c>
+      <c r="K591">
+        <v>0.68</v>
+      </c>
+      <c r="L591">
+        <v>0.32</v>
+      </c>
+      <c r="M591">
+        <v>0.05</v>
+      </c>
+      <c r="N591">
+        <v>0.01</v>
+      </c>
+      <c r="O591">
+        <v>3</v>
+      </c>
+      <c r="P591">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q591">
+        <v>30.34</v>
+      </c>
+      <c r="R591">
+        <v>3.98</v>
+      </c>
+      <c r="S591">
+        <v>17</v>
+      </c>
+      <c r="T591">
+        <v>0</v>
+      </c>
+      <c r="U591">
+        <v>11</v>
+      </c>
+      <c r="V591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>23</v>
+      </c>
+      <c r="B592" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C592" t="s">
+        <v>20</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E592" t="s">
+        <v>447</v>
+      </c>
+      <c r="F592" t="s">
+        <v>33</v>
+      </c>
+      <c r="G592" t="s">
+        <v>558</v>
+      </c>
+      <c r="H592">
+        <v>7.71</v>
+      </c>
+      <c r="I592">
+        <v>1.37</v>
+      </c>
+      <c r="J592">
+        <v>6.32</v>
+      </c>
+      <c r="K592">
+        <v>0.69</v>
+      </c>
+      <c r="L592">
+        <v>0.37</v>
+      </c>
+      <c r="M592">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N592">
+        <v>0.05</v>
+      </c>
+      <c r="O592">
+        <v>12</v>
+      </c>
+      <c r="P592">
+        <v>4.05</v>
+      </c>
+      <c r="Q592">
+        <v>31.57</v>
+      </c>
+      <c r="R592">
+        <v>4.76</v>
+      </c>
+      <c r="S592">
+        <v>35</v>
+      </c>
+      <c r="T592">
+        <v>6</v>
+      </c>
+      <c r="U592">
+        <v>31</v>
+      </c>
+      <c r="V592">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>23</v>
+      </c>
+      <c r="B593" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C593" t="s">
+        <v>20</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E593" t="s">
+        <v>38</v>
+      </c>
+      <c r="F593" t="s">
+        <v>34</v>
+      </c>
+      <c r="G593" t="s">
+        <v>559</v>
+      </c>
+      <c r="H593">
+        <v>5.72</v>
+      </c>
+      <c r="I593">
+        <v>0.83</v>
+      </c>
+      <c r="J593">
+        <v>4.88</v>
+      </c>
+      <c r="K593">
+        <v>0.41</v>
+      </c>
+      <c r="L593">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M593">
+        <v>0.15</v>
+      </c>
+      <c r="N593">
+        <v>0</v>
+      </c>
+      <c r="O593">
+        <v>11</v>
+      </c>
+      <c r="P593">
+        <v>3.37</v>
+      </c>
+      <c r="Q593">
+        <v>29.44</v>
+      </c>
+      <c r="R593">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S593">
+        <v>9</v>
+      </c>
+      <c r="T593">
+        <v>1</v>
+      </c>
+      <c r="U593">
+        <v>19</v>
+      </c>
+      <c r="V593">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>23</v>
+      </c>
+      <c r="B594" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C594" t="s">
+        <v>20</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E594" t="s">
+        <v>35</v>
+      </c>
+      <c r="F594" t="s">
+        <v>34</v>
+      </c>
+      <c r="G594" t="s">
+        <v>560</v>
+      </c>
+      <c r="H594">
+        <v>6.88</v>
+      </c>
+      <c r="I594">
+        <v>1.48</v>
+      </c>
+      <c r="J594">
+        <v>5.39</v>
+      </c>
+      <c r="K594">
+        <v>0.77</v>
+      </c>
+      <c r="L594">
+        <v>0.44</v>
+      </c>
+      <c r="M594">
+        <v>0.26</v>
+      </c>
+      <c r="N594">
+        <v>0.02</v>
+      </c>
+      <c r="O594">
+        <v>16</v>
+      </c>
+      <c r="P594">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q594">
+        <v>31.54</v>
+      </c>
+      <c r="R594">
+        <v>4.71</v>
+      </c>
+      <c r="S594">
+        <v>34</v>
+      </c>
+      <c r="T594">
+        <v>13</v>
+      </c>
+      <c r="U594">
+        <v>20</v>
+      </c>
+      <c r="V594">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>23</v>
+      </c>
+      <c r="B595" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C595" t="s">
+        <v>20</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E595" t="s">
+        <v>52</v>
+      </c>
+      <c r="F595" t="s">
+        <v>33</v>
+      </c>
+      <c r="G595" t="s">
+        <v>561</v>
+      </c>
+      <c r="H595">
+        <v>7.84</v>
+      </c>
+      <c r="I595">
+        <v>1.23</v>
+      </c>
+      <c r="J595">
+        <v>6.6</v>
+      </c>
+      <c r="K595">
+        <v>0.76</v>
+      </c>
+      <c r="L595">
+        <v>0.27</v>
+      </c>
+      <c r="M595">
+        <v>0.17</v>
+      </c>
+      <c r="N595">
+        <v>0.05</v>
+      </c>
+      <c r="O595">
+        <v>10</v>
+      </c>
+      <c r="P595">
+        <v>4.66</v>
+      </c>
+      <c r="Q595">
+        <v>31.18</v>
+      </c>
+      <c r="R595">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S595">
+        <v>28</v>
+      </c>
+      <c r="T595">
+        <v>7</v>
+      </c>
+      <c r="U595">
+        <v>25</v>
+      </c>
+      <c r="V595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>23</v>
+      </c>
+      <c r="B596" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C596" t="s">
+        <v>20</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E596" t="s">
+        <v>53</v>
+      </c>
+      <c r="F596" t="s">
+        <v>32</v>
+      </c>
+      <c r="G596" t="s">
+        <v>562</v>
+      </c>
+      <c r="H596">
+        <v>7.67</v>
+      </c>
+      <c r="I596">
+        <v>1.22</v>
+      </c>
+      <c r="J596">
+        <v>6.44</v>
+      </c>
+      <c r="K596">
+        <v>0.91</v>
+      </c>
+      <c r="L596">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M596">
+        <v>0.03</v>
+      </c>
+      <c r="N596">
+        <v>0</v>
+      </c>
+      <c r="O596">
+        <v>3</v>
+      </c>
+      <c r="P596">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q596">
+        <v>26.94</v>
+      </c>
+      <c r="R596">
+        <v>5.05</v>
+      </c>
+      <c r="S596">
+        <v>37</v>
+      </c>
+      <c r="T596">
+        <v>5</v>
+      </c>
+      <c r="U596">
+        <v>21</v>
+      </c>
+      <c r="V596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>23</v>
+      </c>
+      <c r="B597" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C597" t="s">
+        <v>20</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E597" t="s">
+        <v>17</v>
+      </c>
+      <c r="F597" t="s">
+        <v>34</v>
+      </c>
+      <c r="G597" t="s">
+        <v>563</v>
+      </c>
+      <c r="H597">
+        <v>7.47</v>
+      </c>
+      <c r="I597">
+        <v>1.19</v>
+      </c>
+      <c r="J597">
+        <v>6.25</v>
+      </c>
+      <c r="K597">
+        <v>0.73</v>
+      </c>
+      <c r="L597">
+        <v>0.31</v>
+      </c>
+      <c r="M597">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N597">
+        <v>0.05</v>
+      </c>
+      <c r="O597">
+        <v>14</v>
+      </c>
+      <c r="P597">
+        <v>4.32</v>
+      </c>
+      <c r="Q597">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="R597">
+        <v>5.75</v>
+      </c>
+      <c r="S597">
+        <v>58</v>
+      </c>
+      <c r="T597">
+        <v>20</v>
+      </c>
+      <c r="U597">
+        <v>47</v>
+      </c>
+      <c r="V597">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="598" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>23</v>
+      </c>
+      <c r="B598" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C598" t="s">
+        <v>20</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E598" t="s">
+        <v>164</v>
+      </c>
+      <c r="F598" t="s">
+        <v>32</v>
+      </c>
+      <c r="G598" t="s">
+        <v>564</v>
+      </c>
+      <c r="H598">
+        <v>7.65</v>
+      </c>
+      <c r="I598">
+        <v>1.04</v>
+      </c>
+      <c r="J598">
+        <v>6.59</v>
+      </c>
+      <c r="K598">
+        <v>0.68</v>
+      </c>
+      <c r="L598">
+        <v>0.26</v>
+      </c>
+      <c r="M598">
+        <v>0.11</v>
+      </c>
+      <c r="N598">
+        <v>0</v>
+      </c>
+      <c r="O598">
+        <v>7</v>
+      </c>
+      <c r="P598">
+        <v>4.54</v>
+      </c>
+      <c r="Q598">
+        <v>27.38</v>
+      </c>
+      <c r="R598">
+        <v>4.5</v>
+      </c>
+      <c r="S598">
+        <v>35</v>
+      </c>
+      <c r="T598">
+        <v>4</v>
+      </c>
+      <c r="U598">
+        <v>27</v>
+      </c>
+      <c r="V598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>23</v>
+      </c>
+      <c r="B599" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C599" t="s">
+        <v>20</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E599" t="s">
+        <v>50</v>
+      </c>
+      <c r="F599" t="s">
+        <v>33</v>
+      </c>
+      <c r="G599" t="s">
+        <v>421</v>
+      </c>
+      <c r="H599">
+        <v>6.15</v>
+      </c>
+      <c r="I599">
+        <v>0.86</v>
+      </c>
+      <c r="J599">
+        <v>5.28</v>
+      </c>
+      <c r="K599">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L599">
+        <v>0.24</v>
+      </c>
+      <c r="M599">
+        <v>0.06</v>
+      </c>
+      <c r="N599">
+        <v>0</v>
+      </c>
+      <c r="O599">
+        <v>9</v>
+      </c>
+      <c r="P599">
+        <v>3.48</v>
+      </c>
+      <c r="Q599">
+        <v>28.02</v>
+      </c>
+      <c r="R599">
+        <v>5.7</v>
+      </c>
+      <c r="S599">
+        <v>47</v>
+      </c>
+      <c r="T599">
+        <v>7</v>
+      </c>
+      <c r="U599">
+        <v>27</v>
+      </c>
+      <c r="V599">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>23</v>
+      </c>
+      <c r="B600" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C600" t="s">
+        <v>20</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E600" t="s">
+        <v>16</v>
+      </c>
+      <c r="F600" t="s">
+        <v>30</v>
+      </c>
+      <c r="G600" t="s">
+        <v>565</v>
+      </c>
+      <c r="H600">
+        <v>6.88</v>
+      </c>
+      <c r="I600">
+        <v>0.84</v>
+      </c>
+      <c r="J600">
+        <v>6.02</v>
+      </c>
+      <c r="K600">
+        <v>0.48</v>
+      </c>
+      <c r="L600">
+        <v>0.3</v>
+      </c>
+      <c r="M600">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N600">
+        <v>0</v>
+      </c>
+      <c r="O600">
+        <v>7</v>
+      </c>
+      <c r="P600">
+        <v>3.77</v>
+      </c>
+      <c r="Q600">
+        <v>29.99</v>
+      </c>
+      <c r="R600">
+        <v>4.5</v>
+      </c>
+      <c r="S600">
+        <v>42</v>
+      </c>
+      <c r="T600">
+        <v>4</v>
+      </c>
+      <c r="U600">
+        <v>33</v>
+      </c>
+      <c r="V600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>23</v>
+      </c>
+      <c r="B601" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C601" t="s">
+        <v>20</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E601" t="s">
+        <v>43</v>
+      </c>
+      <c r="F601" t="s">
+        <v>34</v>
+      </c>
+      <c r="G601" t="s">
+        <v>425</v>
+      </c>
+      <c r="H601">
+        <v>7.46</v>
+      </c>
+      <c r="I601">
+        <v>1.23</v>
+      </c>
+      <c r="J601">
+        <v>6.21</v>
+      </c>
+      <c r="K601">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L601">
+        <v>0.42</v>
+      </c>
+      <c r="M601">
+        <v>0.2</v>
+      </c>
+      <c r="N601">
+        <v>0.06</v>
+      </c>
+      <c r="O601">
+        <v>19</v>
+      </c>
+      <c r="P601">
+        <v>4.04</v>
+      </c>
+      <c r="Q601">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="R601">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S601">
+        <v>43</v>
+      </c>
+      <c r="T601">
+        <v>14</v>
+      </c>
+      <c r="U601">
+        <v>26</v>
+      </c>
+      <c r="V601">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F4BAE-DDE0-834C-BBC6-8E85103F61F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF3A28-C8A8-CC4C-BA5A-40875126C508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="577">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1734,6 +1734,39 @@
   </si>
   <si>
     <t>01:39:17</t>
+  </si>
+  <si>
+    <t>01:20:28</t>
+  </si>
+  <si>
+    <t>01:21:01</t>
+  </si>
+  <si>
+    <t>01:10:56</t>
+  </si>
+  <si>
+    <t>01:17:41</t>
+  </si>
+  <si>
+    <t>01:19:03</t>
+  </si>
+  <si>
+    <t>01:19:49</t>
+  </si>
+  <si>
+    <t>01:17:52</t>
+  </si>
+  <si>
+    <t>01:20:39</t>
+  </si>
+  <si>
+    <t>01:18:45</t>
+  </si>
+  <si>
+    <t>01:17:33</t>
+  </si>
+  <si>
+    <t>01:18:26</t>
   </si>
 </sst>
 </file>
@@ -2126,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V601"/>
+  <dimension ref="A1:V613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B605" sqref="B605"/>
+    <sheetView tabSelected="1" topLeftCell="A584" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E619" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41850,6 +41883,822 @@
         <v>17</v>
       </c>
     </row>
+    <row r="602" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>23</v>
+      </c>
+      <c r="B602" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C602" t="s">
+        <v>20</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E602" t="s">
+        <v>164</v>
+      </c>
+      <c r="F602" t="s">
+        <v>32</v>
+      </c>
+      <c r="G602" t="s">
+        <v>566</v>
+      </c>
+      <c r="H602">
+        <v>5.05</v>
+      </c>
+      <c r="I602">
+        <v>0.18</v>
+      </c>
+      <c r="J602">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K602">
+        <v>0.18</v>
+      </c>
+      <c r="L602">
+        <v>0.01</v>
+      </c>
+      <c r="M602">
+        <v>0</v>
+      </c>
+      <c r="N602">
+        <v>0</v>
+      </c>
+      <c r="O602">
+        <v>0</v>
+      </c>
+      <c r="P602">
+        <v>3.68</v>
+      </c>
+      <c r="Q602">
+        <v>21.93</v>
+      </c>
+      <c r="R602">
+        <v>4.59</v>
+      </c>
+      <c r="S602">
+        <v>16</v>
+      </c>
+      <c r="T602">
+        <v>7</v>
+      </c>
+      <c r="U602">
+        <v>17</v>
+      </c>
+      <c r="V602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>23</v>
+      </c>
+      <c r="B603" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C603" t="s">
+        <v>20</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E603" t="s">
+        <v>52</v>
+      </c>
+      <c r="F603" t="s">
+        <v>33</v>
+      </c>
+      <c r="G603" t="s">
+        <v>567</v>
+      </c>
+      <c r="H603">
+        <v>5.4</v>
+      </c>
+      <c r="I603">
+        <v>0.19</v>
+      </c>
+      <c r="J603">
+        <v>5.21</v>
+      </c>
+      <c r="K603">
+        <v>0.13</v>
+      </c>
+      <c r="L603">
+        <v>0.05</v>
+      </c>
+      <c r="M603">
+        <v>0.01</v>
+      </c>
+      <c r="N603">
+        <v>0</v>
+      </c>
+      <c r="O603">
+        <v>1</v>
+      </c>
+      <c r="P603">
+        <v>3.89</v>
+      </c>
+      <c r="Q603">
+        <v>26.37</v>
+      </c>
+      <c r="R603">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S603">
+        <v>23</v>
+      </c>
+      <c r="T603">
+        <v>2</v>
+      </c>
+      <c r="U603">
+        <v>9</v>
+      </c>
+      <c r="V603">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>23</v>
+      </c>
+      <c r="B604" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C604" t="s">
+        <v>20</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E604" t="s">
+        <v>50</v>
+      </c>
+      <c r="F604" t="s">
+        <v>33</v>
+      </c>
+      <c r="G604" t="s">
+        <v>568</v>
+      </c>
+      <c r="H604">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I604">
+        <v>0.11</v>
+      </c>
+      <c r="J604">
+        <v>4.28</v>
+      </c>
+      <c r="K604">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L604">
+        <v>0.02</v>
+      </c>
+      <c r="M604">
+        <v>0.02</v>
+      </c>
+      <c r="N604">
+        <v>0</v>
+      </c>
+      <c r="O604">
+        <v>2</v>
+      </c>
+      <c r="P604">
+        <v>2.88</v>
+      </c>
+      <c r="Q604">
+        <v>28.76</v>
+      </c>
+      <c r="R604">
+        <v>4.8</v>
+      </c>
+      <c r="S604">
+        <v>17</v>
+      </c>
+      <c r="T604">
+        <v>10</v>
+      </c>
+      <c r="U604">
+        <v>14</v>
+      </c>
+      <c r="V604">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>23</v>
+      </c>
+      <c r="B605" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C605" t="s">
+        <v>20</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E605" t="s">
+        <v>52</v>
+      </c>
+      <c r="F605" t="s">
+        <v>33</v>
+      </c>
+      <c r="G605" t="s">
+        <v>569</v>
+      </c>
+      <c r="H605">
+        <v>6.03</v>
+      </c>
+      <c r="I605">
+        <v>0.45</v>
+      </c>
+      <c r="J605">
+        <v>5.56</v>
+      </c>
+      <c r="K605">
+        <v>0.3</v>
+      </c>
+      <c r="L605">
+        <v>0.15</v>
+      </c>
+      <c r="M605">
+        <v>0.02</v>
+      </c>
+      <c r="N605">
+        <v>0</v>
+      </c>
+      <c r="O605">
+        <v>3</v>
+      </c>
+      <c r="P605">
+        <v>4.59</v>
+      </c>
+      <c r="Q605">
+        <v>28.97</v>
+      </c>
+      <c r="R605">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S605">
+        <v>54</v>
+      </c>
+      <c r="T605">
+        <v>13</v>
+      </c>
+      <c r="U605">
+        <v>34</v>
+      </c>
+      <c r="V605">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>23</v>
+      </c>
+      <c r="B606" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C606" t="s">
+        <v>20</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E606" t="s">
+        <v>38</v>
+      </c>
+      <c r="F606" t="s">
+        <v>34</v>
+      </c>
+      <c r="G606" t="s">
+        <v>529</v>
+      </c>
+      <c r="H606">
+        <v>5.24</v>
+      </c>
+      <c r="I606">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J606">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K606">
+        <v>0.24</v>
+      </c>
+      <c r="L606">
+        <v>0.05</v>
+      </c>
+      <c r="M606">
+        <v>0</v>
+      </c>
+      <c r="N606">
+        <v>0</v>
+      </c>
+      <c r="O606">
+        <v>1</v>
+      </c>
+      <c r="P606">
+        <v>3.76</v>
+      </c>
+      <c r="Q606">
+        <v>25.04</v>
+      </c>
+      <c r="R606">
+        <v>4.32</v>
+      </c>
+      <c r="S606">
+        <v>16</v>
+      </c>
+      <c r="T606">
+        <v>2</v>
+      </c>
+      <c r="U606">
+        <v>19</v>
+      </c>
+      <c r="V606">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>23</v>
+      </c>
+      <c r="B607" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C607" t="s">
+        <v>20</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E607" t="s">
+        <v>251</v>
+      </c>
+      <c r="F607" t="s">
+        <v>32</v>
+      </c>
+      <c r="G607" t="s">
+        <v>570</v>
+      </c>
+      <c r="H607">
+        <v>5.93</v>
+      </c>
+      <c r="I607">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J607">
+        <v>5.64</v>
+      </c>
+      <c r="K607">
+        <v>0.21</v>
+      </c>
+      <c r="L607">
+        <v>0.08</v>
+      </c>
+      <c r="M607">
+        <v>0</v>
+      </c>
+      <c r="N607">
+        <v>0</v>
+      </c>
+      <c r="O607">
+        <v>0</v>
+      </c>
+      <c r="P607">
+        <v>4.46</v>
+      </c>
+      <c r="Q607">
+        <v>23.98</v>
+      </c>
+      <c r="R607">
+        <v>4.59</v>
+      </c>
+      <c r="S607">
+        <v>29</v>
+      </c>
+      <c r="T607">
+        <v>3</v>
+      </c>
+      <c r="U607">
+        <v>16</v>
+      </c>
+      <c r="V607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>23</v>
+      </c>
+      <c r="B608" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C608" t="s">
+        <v>20</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E608" t="s">
+        <v>43</v>
+      </c>
+      <c r="F608" t="s">
+        <v>34</v>
+      </c>
+      <c r="G608" t="s">
+        <v>571</v>
+      </c>
+      <c r="H608">
+        <v>6.19</v>
+      </c>
+      <c r="I608">
+        <v>0.38</v>
+      </c>
+      <c r="J608">
+        <v>5.8</v>
+      </c>
+      <c r="K608">
+        <v>0.22</v>
+      </c>
+      <c r="L608">
+        <v>0.12</v>
+      </c>
+      <c r="M608">
+        <v>0.04</v>
+      </c>
+      <c r="N608">
+        <v>0</v>
+      </c>
+      <c r="O608">
+        <v>7</v>
+      </c>
+      <c r="P608">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Q608">
+        <v>27.93</v>
+      </c>
+      <c r="R608">
+        <v>5.24</v>
+      </c>
+      <c r="S608">
+        <v>46</v>
+      </c>
+      <c r="T608">
+        <v>12</v>
+      </c>
+      <c r="U608">
+        <v>40</v>
+      </c>
+      <c r="V608">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>23</v>
+      </c>
+      <c r="B609" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C609" t="s">
+        <v>20</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E609" t="s">
+        <v>164</v>
+      </c>
+      <c r="F609" t="s">
+        <v>32</v>
+      </c>
+      <c r="G609" t="s">
+        <v>572</v>
+      </c>
+      <c r="H609">
+        <v>5.61</v>
+      </c>
+      <c r="I609">
+        <v>0.37</v>
+      </c>
+      <c r="J609">
+        <v>5.23</v>
+      </c>
+      <c r="K609">
+        <v>0.25</v>
+      </c>
+      <c r="L609">
+        <v>0.13</v>
+      </c>
+      <c r="M609">
+        <v>0</v>
+      </c>
+      <c r="N609">
+        <v>0</v>
+      </c>
+      <c r="O609">
+        <v>1</v>
+      </c>
+      <c r="P609">
+        <v>4.22</v>
+      </c>
+      <c r="Q609">
+        <v>25.19</v>
+      </c>
+      <c r="R609">
+        <v>4.49</v>
+      </c>
+      <c r="S609">
+        <v>25</v>
+      </c>
+      <c r="T609">
+        <v>10</v>
+      </c>
+      <c r="U609">
+        <v>15</v>
+      </c>
+      <c r="V609">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>23</v>
+      </c>
+      <c r="B610" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C610" t="s">
+        <v>20</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E610" t="s">
+        <v>35</v>
+      </c>
+      <c r="F610" t="s">
+        <v>34</v>
+      </c>
+      <c r="G610" t="s">
+        <v>573</v>
+      </c>
+      <c r="H610">
+        <v>6.36</v>
+      </c>
+      <c r="I610">
+        <v>0.42</v>
+      </c>
+      <c r="J610">
+        <v>5.93</v>
+      </c>
+      <c r="K610">
+        <v>0.32</v>
+      </c>
+      <c r="L610">
+        <v>0.09</v>
+      </c>
+      <c r="M610">
+        <v>0.01</v>
+      </c>
+      <c r="N610">
+        <v>0</v>
+      </c>
+      <c r="O610">
+        <v>1</v>
+      </c>
+      <c r="P610">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q610">
+        <v>27.36</v>
+      </c>
+      <c r="R610">
+        <v>5.25</v>
+      </c>
+      <c r="S610">
+        <v>52</v>
+      </c>
+      <c r="T610">
+        <v>10</v>
+      </c>
+      <c r="U610">
+        <v>34</v>
+      </c>
+      <c r="V610">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>23</v>
+      </c>
+      <c r="B611" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C611" t="s">
+        <v>20</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E611" t="s">
+        <v>40</v>
+      </c>
+      <c r="F611" t="s">
+        <v>31</v>
+      </c>
+      <c r="G611" t="s">
+        <v>574</v>
+      </c>
+      <c r="H611">
+        <v>5.65</v>
+      </c>
+      <c r="I611">
+        <v>0.22</v>
+      </c>
+      <c r="J611">
+        <v>5.42</v>
+      </c>
+      <c r="K611">
+        <v>0.2</v>
+      </c>
+      <c r="L611">
+        <v>0.03</v>
+      </c>
+      <c r="M611">
+        <v>0</v>
+      </c>
+      <c r="N611">
+        <v>0</v>
+      </c>
+      <c r="O611">
+        <v>0</v>
+      </c>
+      <c r="P611">
+        <v>3.85</v>
+      </c>
+      <c r="Q611">
+        <v>24.47</v>
+      </c>
+      <c r="R611">
+        <v>5.49</v>
+      </c>
+      <c r="S611">
+        <v>64</v>
+      </c>
+      <c r="T611">
+        <v>18</v>
+      </c>
+      <c r="U611">
+        <v>33</v>
+      </c>
+      <c r="V611">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="612" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>23</v>
+      </c>
+      <c r="B612" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C612" t="s">
+        <v>20</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E612" t="s">
+        <v>16</v>
+      </c>
+      <c r="F612" t="s">
+        <v>30</v>
+      </c>
+      <c r="G612" t="s">
+        <v>575</v>
+      </c>
+      <c r="H612">
+        <v>5.31</v>
+      </c>
+      <c r="I612">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J612">
+        <v>5.01</v>
+      </c>
+      <c r="K612">
+        <v>0.19</v>
+      </c>
+      <c r="L612">
+        <v>0.11</v>
+      </c>
+      <c r="M612">
+        <v>0</v>
+      </c>
+      <c r="N612">
+        <v>0</v>
+      </c>
+      <c r="O612">
+        <v>1</v>
+      </c>
+      <c r="P612">
+        <v>3.97</v>
+      </c>
+      <c r="Q612">
+        <v>25.26</v>
+      </c>
+      <c r="R612">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S612">
+        <v>25</v>
+      </c>
+      <c r="T612">
+        <v>9</v>
+      </c>
+      <c r="U612">
+        <v>24</v>
+      </c>
+      <c r="V612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>23</v>
+      </c>
+      <c r="B613" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C613" t="s">
+        <v>20</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E613" t="s">
+        <v>447</v>
+      </c>
+      <c r="F613" t="s">
+        <v>33</v>
+      </c>
+      <c r="G613" t="s">
+        <v>576</v>
+      </c>
+      <c r="H613">
+        <v>6.44</v>
+      </c>
+      <c r="I613">
+        <v>0.44</v>
+      </c>
+      <c r="J613">
+        <v>5.98</v>
+      </c>
+      <c r="K613">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L613">
+        <v>0.13</v>
+      </c>
+      <c r="M613">
+        <v>0.03</v>
+      </c>
+      <c r="N613">
+        <v>0</v>
+      </c>
+      <c r="O613">
+        <v>4</v>
+      </c>
+      <c r="P613">
+        <v>4.57</v>
+      </c>
+      <c r="Q613">
+        <v>28.58</v>
+      </c>
+      <c r="R613">
+        <v>4.99</v>
+      </c>
+      <c r="S613">
+        <v>60</v>
+      </c>
+      <c r="T613">
+        <v>15</v>
+      </c>
+      <c r="U613">
+        <v>48</v>
+      </c>
+      <c r="V613">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF3A28-C8A8-CC4C-BA5A-40875126C508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E8E74-39EA-324E-A0FD-98B2564A1F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="586">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1767,6 +1767,33 @@
   </si>
   <si>
     <t>01:18:26</t>
+  </si>
+  <si>
+    <t>00:56:04</t>
+  </si>
+  <si>
+    <t>00:13:45</t>
+  </si>
+  <si>
+    <t>01:45:35</t>
+  </si>
+  <si>
+    <t>00:14:25</t>
+  </si>
+  <si>
+    <t>00:49:15</t>
+  </si>
+  <si>
+    <t>01:05:01</t>
+  </si>
+  <si>
+    <t>01:12:53</t>
+  </si>
+  <si>
+    <t>01:45:19</t>
+  </si>
+  <si>
+    <t>00:40:50</t>
   </si>
 </sst>
 </file>
@@ -2159,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V613"/>
+  <dimension ref="A1:V627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E619" sqref="E619"/>
+    <sheetView tabSelected="1" topLeftCell="A596" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C631" sqref="C631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42699,6 +42726,958 @@
         <v>10</v>
       </c>
     </row>
+    <row r="614" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>23</v>
+      </c>
+      <c r="B614" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C614" t="s">
+        <v>20</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E614" t="s">
+        <v>38</v>
+      </c>
+      <c r="F614" t="s">
+        <v>34</v>
+      </c>
+      <c r="G614" t="s">
+        <v>402</v>
+      </c>
+      <c r="H614">
+        <v>9.08</v>
+      </c>
+      <c r="I614">
+        <v>2.17</v>
+      </c>
+      <c r="J614">
+        <v>6.89</v>
+      </c>
+      <c r="K614">
+        <v>1.28</v>
+      </c>
+      <c r="L614">
+        <v>0.75</v>
+      </c>
+      <c r="M614">
+        <v>0.15</v>
+      </c>
+      <c r="N614">
+        <v>0.02</v>
+      </c>
+      <c r="O614">
+        <v>10</v>
+      </c>
+      <c r="P614">
+        <v>6.36</v>
+      </c>
+      <c r="Q614">
+        <v>31.13</v>
+      </c>
+      <c r="R614">
+        <v>4.28</v>
+      </c>
+      <c r="S614">
+        <v>30</v>
+      </c>
+      <c r="T614">
+        <v>6</v>
+      </c>
+      <c r="U614">
+        <v>36</v>
+      </c>
+      <c r="V614">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="615" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>23</v>
+      </c>
+      <c r="B615" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C615" t="s">
+        <v>20</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E615" t="s">
+        <v>40</v>
+      </c>
+      <c r="F615" t="s">
+        <v>31</v>
+      </c>
+      <c r="G615" t="s">
+        <v>577</v>
+      </c>
+      <c r="H615">
+        <v>5.68</v>
+      </c>
+      <c r="I615">
+        <v>1.25</v>
+      </c>
+      <c r="J615">
+        <v>4.42</v>
+      </c>
+      <c r="K615">
+        <v>0.74</v>
+      </c>
+      <c r="L615">
+        <v>0.32</v>
+      </c>
+      <c r="M615">
+        <v>0.16</v>
+      </c>
+      <c r="N615">
+        <v>0.05</v>
+      </c>
+      <c r="O615">
+        <v>12</v>
+      </c>
+      <c r="P615">
+        <v>6.04</v>
+      </c>
+      <c r="Q615">
+        <v>32.33</v>
+      </c>
+      <c r="R615">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S615">
+        <v>37</v>
+      </c>
+      <c r="T615">
+        <v>10</v>
+      </c>
+      <c r="U615">
+        <v>26</v>
+      </c>
+      <c r="V615">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>23</v>
+      </c>
+      <c r="B616" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C616" t="s">
+        <v>20</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E616" t="s">
+        <v>93</v>
+      </c>
+      <c r="F616" t="s">
+        <v>31</v>
+      </c>
+      <c r="G616" t="s">
+        <v>80</v>
+      </c>
+      <c r="H616">
+        <v>8.94</v>
+      </c>
+      <c r="I616">
+        <v>1.93</v>
+      </c>
+      <c r="J616">
+        <v>6.98</v>
+      </c>
+      <c r="K616">
+        <v>1.01</v>
+      </c>
+      <c r="L616">
+        <v>0.61</v>
+      </c>
+      <c r="M616">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N616">
+        <v>0.06</v>
+      </c>
+      <c r="O616">
+        <v>16</v>
+      </c>
+      <c r="P616">
+        <v>6.18</v>
+      </c>
+      <c r="Q616">
+        <v>33.35</v>
+      </c>
+      <c r="R616">
+        <v>4.58</v>
+      </c>
+      <c r="S616">
+        <v>42</v>
+      </c>
+      <c r="T616">
+        <v>11</v>
+      </c>
+      <c r="U616">
+        <v>25</v>
+      </c>
+      <c r="V616">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>23</v>
+      </c>
+      <c r="B617" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C617" t="s">
+        <v>20</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E617" t="s">
+        <v>54</v>
+      </c>
+      <c r="F617" t="s">
+        <v>28</v>
+      </c>
+      <c r="G617" t="s">
+        <v>578</v>
+      </c>
+      <c r="H617">
+        <v>1.39</v>
+      </c>
+      <c r="I617">
+        <v>0.26</v>
+      </c>
+      <c r="J617">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K617">
+        <v>0.15</v>
+      </c>
+      <c r="L617">
+        <v>0.09</v>
+      </c>
+      <c r="M617">
+        <v>0.02</v>
+      </c>
+      <c r="N617">
+        <v>0</v>
+      </c>
+      <c r="O617">
+        <v>4</v>
+      </c>
+      <c r="P617">
+        <v>6.07</v>
+      </c>
+      <c r="Q617">
+        <v>25.61</v>
+      </c>
+      <c r="R617">
+        <v>3.38</v>
+      </c>
+      <c r="S617">
+        <v>5</v>
+      </c>
+      <c r="T617">
+        <v>0</v>
+      </c>
+      <c r="U617">
+        <v>8</v>
+      </c>
+      <c r="V617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>23</v>
+      </c>
+      <c r="B618" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C618" t="s">
+        <v>20</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E618" t="s">
+        <v>52</v>
+      </c>
+      <c r="F618" t="s">
+        <v>33</v>
+      </c>
+      <c r="G618" t="s">
+        <v>579</v>
+      </c>
+      <c r="H618">
+        <v>11.67</v>
+      </c>
+      <c r="I618">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J618">
+        <v>9.34</v>
+      </c>
+      <c r="K618">
+        <v>1.56</v>
+      </c>
+      <c r="L618">
+        <v>0.61</v>
+      </c>
+      <c r="M618">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N618">
+        <v>0.01</v>
+      </c>
+      <c r="O618">
+        <v>12</v>
+      </c>
+      <c r="P618">
+        <v>6.55</v>
+      </c>
+      <c r="Q618">
+        <v>31.06</v>
+      </c>
+      <c r="R618">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S618">
+        <v>57</v>
+      </c>
+      <c r="T618">
+        <v>9</v>
+      </c>
+      <c r="U618">
+        <v>38</v>
+      </c>
+      <c r="V618">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>23</v>
+      </c>
+      <c r="B619" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C619" t="s">
+        <v>20</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E619" t="s">
+        <v>17</v>
+      </c>
+      <c r="F619" t="s">
+        <v>34</v>
+      </c>
+      <c r="G619" t="s">
+        <v>580</v>
+      </c>
+      <c r="H619">
+        <v>1.62</v>
+      </c>
+      <c r="I619">
+        <v>0.3</v>
+      </c>
+      <c r="J619">
+        <v>1.31</v>
+      </c>
+      <c r="K619">
+        <v>0.17</v>
+      </c>
+      <c r="L619">
+        <v>0.1</v>
+      </c>
+      <c r="M619">
+        <v>0.03</v>
+      </c>
+      <c r="N619">
+        <v>0</v>
+      </c>
+      <c r="O619">
+        <v>2</v>
+      </c>
+      <c r="P619">
+        <v>6.69</v>
+      </c>
+      <c r="Q619">
+        <v>26.38</v>
+      </c>
+      <c r="R619">
+        <v>4.34</v>
+      </c>
+      <c r="S619">
+        <v>17</v>
+      </c>
+      <c r="T619">
+        <v>2</v>
+      </c>
+      <c r="U619">
+        <v>9</v>
+      </c>
+      <c r="V619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>23</v>
+      </c>
+      <c r="B620" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C620" t="s">
+        <v>20</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E620" t="s">
+        <v>58</v>
+      </c>
+      <c r="F620" t="s">
+        <v>29</v>
+      </c>
+      <c r="G620" t="s">
+        <v>579</v>
+      </c>
+      <c r="H620">
+        <v>10.58</v>
+      </c>
+      <c r="I620">
+        <v>1.66</v>
+      </c>
+      <c r="J620">
+        <v>8.9</v>
+      </c>
+      <c r="K620">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L620">
+        <v>0.47</v>
+      </c>
+      <c r="M620">
+        <v>0.08</v>
+      </c>
+      <c r="N620">
+        <v>0</v>
+      </c>
+      <c r="O620">
+        <v>7</v>
+      </c>
+      <c r="P620">
+        <v>5.89</v>
+      </c>
+      <c r="Q620">
+        <v>29.6</v>
+      </c>
+      <c r="R620">
+        <v>4.63</v>
+      </c>
+      <c r="S620">
+        <v>47</v>
+      </c>
+      <c r="T620">
+        <v>4</v>
+      </c>
+      <c r="U620">
+        <v>27</v>
+      </c>
+      <c r="V620">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>23</v>
+      </c>
+      <c r="B621" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C621" t="s">
+        <v>20</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E621" t="s">
+        <v>251</v>
+      </c>
+      <c r="F621" t="s">
+        <v>32</v>
+      </c>
+      <c r="G621" t="s">
+        <v>581</v>
+      </c>
+      <c r="H621">
+        <v>6.2</v>
+      </c>
+      <c r="I621">
+        <v>1.27</v>
+      </c>
+      <c r="J621">
+        <v>4.92</v>
+      </c>
+      <c r="K621">
+        <v>0.95</v>
+      </c>
+      <c r="L621">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M621">
+        <v>0.05</v>
+      </c>
+      <c r="N621">
+        <v>0.01</v>
+      </c>
+      <c r="O621">
+        <v>2</v>
+      </c>
+      <c r="P621">
+        <v>7.61</v>
+      </c>
+      <c r="Q621">
+        <v>30.4</v>
+      </c>
+      <c r="R621">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S621">
+        <v>20</v>
+      </c>
+      <c r="T621">
+        <v>3</v>
+      </c>
+      <c r="U621">
+        <v>25</v>
+      </c>
+      <c r="V621">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>23</v>
+      </c>
+      <c r="B622" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C622" t="s">
+        <v>20</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E622" t="s">
+        <v>447</v>
+      </c>
+      <c r="F622" t="s">
+        <v>33</v>
+      </c>
+      <c r="G622" t="s">
+        <v>582</v>
+      </c>
+      <c r="H622">
+        <v>6.73</v>
+      </c>
+      <c r="I622">
+        <v>1.42</v>
+      </c>
+      <c r="J622">
+        <v>5.29</v>
+      </c>
+      <c r="K622">
+        <v>0.96</v>
+      </c>
+      <c r="L622">
+        <v>0.38</v>
+      </c>
+      <c r="M622">
+        <v>0.1</v>
+      </c>
+      <c r="N622">
+        <v>0</v>
+      </c>
+      <c r="O622">
+        <v>7</v>
+      </c>
+      <c r="P622">
+        <v>6.1</v>
+      </c>
+      <c r="Q622">
+        <v>28.08</v>
+      </c>
+      <c r="R622">
+        <v>4.76</v>
+      </c>
+      <c r="S622">
+        <v>24</v>
+      </c>
+      <c r="T622">
+        <v>3</v>
+      </c>
+      <c r="U622">
+        <v>27</v>
+      </c>
+      <c r="V622">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>23</v>
+      </c>
+      <c r="B623" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C623" t="s">
+        <v>20</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E623" t="s">
+        <v>53</v>
+      </c>
+      <c r="F623" t="s">
+        <v>32</v>
+      </c>
+      <c r="G623" t="s">
+        <v>579</v>
+      </c>
+      <c r="H623">
+        <v>12.94</v>
+      </c>
+      <c r="I623">
+        <v>2.76</v>
+      </c>
+      <c r="J623">
+        <v>10.15</v>
+      </c>
+      <c r="K623">
+        <v>2.13</v>
+      </c>
+      <c r="L623">
+        <v>0.5</v>
+      </c>
+      <c r="M623">
+        <v>0.15</v>
+      </c>
+      <c r="N623">
+        <v>0.02</v>
+      </c>
+      <c r="O623">
+        <v>9</v>
+      </c>
+      <c r="P623">
+        <v>7.29</v>
+      </c>
+      <c r="Q623">
+        <v>31.28</v>
+      </c>
+      <c r="R623">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S623">
+        <v>54</v>
+      </c>
+      <c r="T623">
+        <v>15</v>
+      </c>
+      <c r="U623">
+        <v>41</v>
+      </c>
+      <c r="V623">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="624" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>23</v>
+      </c>
+      <c r="B624" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C624" t="s">
+        <v>20</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E624" t="s">
+        <v>43</v>
+      </c>
+      <c r="F624" t="s">
+        <v>34</v>
+      </c>
+      <c r="G624" t="s">
+        <v>583</v>
+      </c>
+      <c r="H624">
+        <v>9.24</v>
+      </c>
+      <c r="I624">
+        <v>2.15</v>
+      </c>
+      <c r="J624">
+        <v>7.06</v>
+      </c>
+      <c r="K624">
+        <v>1.21</v>
+      </c>
+      <c r="L624">
+        <v>0.68</v>
+      </c>
+      <c r="M624">
+        <v>0.23</v>
+      </c>
+      <c r="N624">
+        <v>0.06</v>
+      </c>
+      <c r="O624">
+        <v>19</v>
+      </c>
+      <c r="P624">
+        <v>7.58</v>
+      </c>
+      <c r="Q624">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R624">
+        <v>5.36</v>
+      </c>
+      <c r="S624">
+        <v>46</v>
+      </c>
+      <c r="T624">
+        <v>7</v>
+      </c>
+      <c r="U624">
+        <v>42</v>
+      </c>
+      <c r="V624">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>23</v>
+      </c>
+      <c r="B625" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C625" t="s">
+        <v>20</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E625" t="s">
+        <v>48</v>
+      </c>
+      <c r="F625" t="s">
+        <v>29</v>
+      </c>
+      <c r="G625" t="s">
+        <v>584</v>
+      </c>
+      <c r="H625">
+        <v>9.65</v>
+      </c>
+      <c r="I625">
+        <v>1.2</v>
+      </c>
+      <c r="J625">
+        <v>8.44</v>
+      </c>
+      <c r="K625">
+        <v>0.75</v>
+      </c>
+      <c r="L625">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M625">
+        <v>0.15</v>
+      </c>
+      <c r="N625">
+        <v>0.02</v>
+      </c>
+      <c r="O625">
+        <v>12</v>
+      </c>
+      <c r="P625">
+        <v>5.42</v>
+      </c>
+      <c r="Q625">
+        <v>31.16</v>
+      </c>
+      <c r="R625">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S625">
+        <v>21</v>
+      </c>
+      <c r="T625">
+        <v>4</v>
+      </c>
+      <c r="U625">
+        <v>25</v>
+      </c>
+      <c r="V625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>23</v>
+      </c>
+      <c r="B626" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C626" t="s">
+        <v>20</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E626" t="s">
+        <v>55</v>
+      </c>
+      <c r="F626" t="s">
+        <v>32</v>
+      </c>
+      <c r="G626" t="s">
+        <v>579</v>
+      </c>
+      <c r="H626">
+        <v>10.97</v>
+      </c>
+      <c r="I626">
+        <v>2</v>
+      </c>
+      <c r="J626">
+        <v>8.94</v>
+      </c>
+      <c r="K626">
+        <v>1.55</v>
+      </c>
+      <c r="L626">
+        <v>0.43</v>
+      </c>
+      <c r="M626">
+        <v>0.04</v>
+      </c>
+      <c r="N626">
+        <v>0</v>
+      </c>
+      <c r="O626">
+        <v>4</v>
+      </c>
+      <c r="P626">
+        <v>6.15</v>
+      </c>
+      <c r="Q626">
+        <v>28.51</v>
+      </c>
+      <c r="R626">
+        <v>5.49</v>
+      </c>
+      <c r="S626">
+        <v>45</v>
+      </c>
+      <c r="T626">
+        <v>9</v>
+      </c>
+      <c r="U626">
+        <v>45</v>
+      </c>
+      <c r="V626">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="627" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>23</v>
+      </c>
+      <c r="B627" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C627" t="s">
+        <v>20</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E627" t="s">
+        <v>16</v>
+      </c>
+      <c r="F627" t="s">
+        <v>30</v>
+      </c>
+      <c r="G627" t="s">
+        <v>585</v>
+      </c>
+      <c r="H627">
+        <v>4.26</v>
+      </c>
+      <c r="I627">
+        <v>0.85</v>
+      </c>
+      <c r="J627">
+        <v>3.4</v>
+      </c>
+      <c r="K627">
+        <v>0.38</v>
+      </c>
+      <c r="L627">
+        <v>0.31</v>
+      </c>
+      <c r="M627">
+        <v>0.17</v>
+      </c>
+      <c r="N627">
+        <v>0</v>
+      </c>
+      <c r="O627">
+        <v>11</v>
+      </c>
+      <c r="P627">
+        <v>6.23</v>
+      </c>
+      <c r="Q627">
+        <v>29.74</v>
+      </c>
+      <c r="R627">
+        <v>4.55</v>
+      </c>
+      <c r="S627">
+        <v>21</v>
+      </c>
+      <c r="T627">
+        <v>5</v>
+      </c>
+      <c r="U627">
+        <v>19</v>
+      </c>
+      <c r="V627">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E8E74-39EA-324E-A0FD-98B2564A1F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B46E7A-3379-DF49-BFAD-3D6D170B7D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="593">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1794,6 +1794,27 @@
   </si>
   <si>
     <t>00:40:50</t>
+  </si>
+  <si>
+    <t>01:40:03</t>
+  </si>
+  <si>
+    <t>01:40:13</t>
+  </si>
+  <si>
+    <t>01:39:55</t>
+  </si>
+  <si>
+    <t>01:39:56</t>
+  </si>
+  <si>
+    <t>01:37:32</t>
+  </si>
+  <si>
+    <t>01:39:46</t>
+  </si>
+  <si>
+    <t>01:38:08</t>
   </si>
 </sst>
 </file>
@@ -2186,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V627"/>
+  <dimension ref="A1:V636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C631" sqref="C631"/>
+    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C639" sqref="C639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43678,6 +43699,618 @@
         <v>9</v>
       </c>
     </row>
+    <row r="628" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>23</v>
+      </c>
+      <c r="B628" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C628" t="s">
+        <v>20</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E628" t="s">
+        <v>448</v>
+      </c>
+      <c r="F628" t="s">
+        <v>32</v>
+      </c>
+      <c r="G628" t="s">
+        <v>586</v>
+      </c>
+      <c r="H628">
+        <v>7.58</v>
+      </c>
+      <c r="I628">
+        <v>0.87</v>
+      </c>
+      <c r="J628">
+        <v>6.7</v>
+      </c>
+      <c r="K628">
+        <v>0.84</v>
+      </c>
+      <c r="L628">
+        <v>0.04</v>
+      </c>
+      <c r="M628">
+        <v>0</v>
+      </c>
+      <c r="N628">
+        <v>0</v>
+      </c>
+      <c r="O628">
+        <v>0</v>
+      </c>
+      <c r="P628">
+        <v>4.17</v>
+      </c>
+      <c r="Q628">
+        <v>22.08</v>
+      </c>
+      <c r="R628">
+        <v>3.7</v>
+      </c>
+      <c r="S628">
+        <v>32</v>
+      </c>
+      <c r="T628">
+        <v>0</v>
+      </c>
+      <c r="U628">
+        <v>17</v>
+      </c>
+      <c r="V628">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>23</v>
+      </c>
+      <c r="B629" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C629" t="s">
+        <v>20</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E629" t="s">
+        <v>53</v>
+      </c>
+      <c r="F629" t="s">
+        <v>32</v>
+      </c>
+      <c r="G629" t="s">
+        <v>587</v>
+      </c>
+      <c r="H629">
+        <v>8.61</v>
+      </c>
+      <c r="I629">
+        <v>1.08</v>
+      </c>
+      <c r="J629">
+        <v>7.53</v>
+      </c>
+      <c r="K629">
+        <v>1.06</v>
+      </c>
+      <c r="L629">
+        <v>0.03</v>
+      </c>
+      <c r="M629">
+        <v>0</v>
+      </c>
+      <c r="N629">
+        <v>0</v>
+      </c>
+      <c r="O629">
+        <v>0</v>
+      </c>
+      <c r="P629">
+        <v>5.07</v>
+      </c>
+      <c r="Q629">
+        <v>20.94</v>
+      </c>
+      <c r="R629">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S629">
+        <v>71</v>
+      </c>
+      <c r="T629">
+        <v>7</v>
+      </c>
+      <c r="U629">
+        <v>39</v>
+      </c>
+      <c r="V629">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>23</v>
+      </c>
+      <c r="B630" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C630" t="s">
+        <v>20</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E630" t="s">
+        <v>164</v>
+      </c>
+      <c r="F630" t="s">
+        <v>32</v>
+      </c>
+      <c r="G630" t="s">
+        <v>588</v>
+      </c>
+      <c r="H630">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I630">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J630">
+        <v>7.58</v>
+      </c>
+      <c r="K630">
+        <v>1.07</v>
+      </c>
+      <c r="L630">
+        <v>0.06</v>
+      </c>
+      <c r="M630">
+        <v>0</v>
+      </c>
+      <c r="N630">
+        <v>0</v>
+      </c>
+      <c r="O630">
+        <v>0</v>
+      </c>
+      <c r="P630">
+        <v>5.16</v>
+      </c>
+      <c r="Q630">
+        <v>22.72</v>
+      </c>
+      <c r="R630">
+        <v>4.49</v>
+      </c>
+      <c r="S630">
+        <v>61</v>
+      </c>
+      <c r="T630">
+        <v>8</v>
+      </c>
+      <c r="U630">
+        <v>41</v>
+      </c>
+      <c r="V630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>23</v>
+      </c>
+      <c r="B631" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C631" t="s">
+        <v>20</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E631" t="s">
+        <v>54</v>
+      </c>
+      <c r="F631" t="s">
+        <v>28</v>
+      </c>
+      <c r="G631" t="s">
+        <v>589</v>
+      </c>
+      <c r="H631">
+        <v>7.94</v>
+      </c>
+      <c r="I631">
+        <v>0.83</v>
+      </c>
+      <c r="J631">
+        <v>7.09</v>
+      </c>
+      <c r="K631">
+        <v>0.77</v>
+      </c>
+      <c r="L631">
+        <v>0.08</v>
+      </c>
+      <c r="M631">
+        <v>0</v>
+      </c>
+      <c r="N631">
+        <v>0</v>
+      </c>
+      <c r="O631">
+        <v>0</v>
+      </c>
+      <c r="P631">
+        <v>3.97</v>
+      </c>
+      <c r="Q631">
+        <v>24.16</v>
+      </c>
+      <c r="R631">
+        <v>5.08</v>
+      </c>
+      <c r="S631">
+        <v>39</v>
+      </c>
+      <c r="T631">
+        <v>6</v>
+      </c>
+      <c r="U631">
+        <v>42</v>
+      </c>
+      <c r="V631">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="632" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>23</v>
+      </c>
+      <c r="B632" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C632" t="s">
+        <v>20</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E632" t="s">
+        <v>43</v>
+      </c>
+      <c r="F632" t="s">
+        <v>34</v>
+      </c>
+      <c r="G632" t="s">
+        <v>590</v>
+      </c>
+      <c r="H632">
+        <v>7.65</v>
+      </c>
+      <c r="I632">
+        <v>0.26</v>
+      </c>
+      <c r="J632">
+        <v>7.38</v>
+      </c>
+      <c r="K632">
+        <v>0.27</v>
+      </c>
+      <c r="L632">
+        <v>0.01</v>
+      </c>
+      <c r="M632">
+        <v>0</v>
+      </c>
+      <c r="N632">
+        <v>0</v>
+      </c>
+      <c r="O632">
+        <v>0</v>
+      </c>
+      <c r="P632">
+        <v>3.99</v>
+      </c>
+      <c r="Q632">
+        <v>22.28</v>
+      </c>
+      <c r="R632">
+        <v>5.48</v>
+      </c>
+      <c r="S632">
+        <v>64</v>
+      </c>
+      <c r="T632">
+        <v>8</v>
+      </c>
+      <c r="U632">
+        <v>46</v>
+      </c>
+      <c r="V632">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>23</v>
+      </c>
+      <c r="B633" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C633" t="s">
+        <v>20</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E633" t="s">
+        <v>40</v>
+      </c>
+      <c r="F633" t="s">
+        <v>31</v>
+      </c>
+      <c r="G633" t="s">
+        <v>322</v>
+      </c>
+      <c r="H633">
+        <v>7.55</v>
+      </c>
+      <c r="I633">
+        <v>0.46</v>
+      </c>
+      <c r="J633">
+        <v>7.08</v>
+      </c>
+      <c r="K633">
+        <v>0.39</v>
+      </c>
+      <c r="L633">
+        <v>0.06</v>
+      </c>
+      <c r="M633">
+        <v>0.03</v>
+      </c>
+      <c r="N633">
+        <v>0</v>
+      </c>
+      <c r="O633">
+        <v>3</v>
+      </c>
+      <c r="P633">
+        <v>3.84</v>
+      </c>
+      <c r="Q633">
+        <v>30.03</v>
+      </c>
+      <c r="R633">
+        <v>6.27</v>
+      </c>
+      <c r="S633">
+        <v>43</v>
+      </c>
+      <c r="T633">
+        <v>21</v>
+      </c>
+      <c r="U633">
+        <v>39</v>
+      </c>
+      <c r="V633">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="634" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>23</v>
+      </c>
+      <c r="B634" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C634" t="s">
+        <v>20</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E634" t="s">
+        <v>447</v>
+      </c>
+      <c r="F634" t="s">
+        <v>33</v>
+      </c>
+      <c r="G634" t="s">
+        <v>591</v>
+      </c>
+      <c r="H634">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I634">
+        <v>1.21</v>
+      </c>
+      <c r="J634">
+        <v>7.49</v>
+      </c>
+      <c r="K634">
+        <v>0.74</v>
+      </c>
+      <c r="L634">
+        <v>0.49</v>
+      </c>
+      <c r="M634">
+        <v>0</v>
+      </c>
+      <c r="N634">
+        <v>0</v>
+      </c>
+      <c r="O634">
+        <v>2</v>
+      </c>
+      <c r="P634">
+        <v>4.57</v>
+      </c>
+      <c r="Q634">
+        <v>25.71</v>
+      </c>
+      <c r="R634">
+        <v>5.41</v>
+      </c>
+      <c r="S634">
+        <v>49</v>
+      </c>
+      <c r="T634">
+        <v>17</v>
+      </c>
+      <c r="U634">
+        <v>40</v>
+      </c>
+      <c r="V634">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="635" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>23</v>
+      </c>
+      <c r="B635" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C635" t="s">
+        <v>20</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E635" t="s">
+        <v>52</v>
+      </c>
+      <c r="F635" t="s">
+        <v>33</v>
+      </c>
+      <c r="G635" t="s">
+        <v>592</v>
+      </c>
+      <c r="H635">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I635">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J635">
+        <v>7.47</v>
+      </c>
+      <c r="K635">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L635">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M635">
+        <v>0</v>
+      </c>
+      <c r="N635">
+        <v>0</v>
+      </c>
+      <c r="O635">
+        <v>0</v>
+      </c>
+      <c r="P635">
+        <v>5.21</v>
+      </c>
+      <c r="Q635">
+        <v>24.09</v>
+      </c>
+      <c r="R635">
+        <v>4.7</v>
+      </c>
+      <c r="S635">
+        <v>54</v>
+      </c>
+      <c r="T635">
+        <v>7</v>
+      </c>
+      <c r="U635">
+        <v>21</v>
+      </c>
+      <c r="V635">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>23</v>
+      </c>
+      <c r="B636" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C636" t="s">
+        <v>20</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E636" t="s">
+        <v>251</v>
+      </c>
+      <c r="F636" t="s">
+        <v>32</v>
+      </c>
+      <c r="G636" t="s">
+        <v>587</v>
+      </c>
+      <c r="H636">
+        <v>7.67</v>
+      </c>
+      <c r="I636">
+        <v>1.02</v>
+      </c>
+      <c r="J636">
+        <v>6.63</v>
+      </c>
+      <c r="K636">
+        <v>0.93</v>
+      </c>
+      <c r="L636">
+        <v>0.1</v>
+      </c>
+      <c r="M636">
+        <v>0</v>
+      </c>
+      <c r="N636">
+        <v>0</v>
+      </c>
+      <c r="O636">
+        <v>0</v>
+      </c>
+      <c r="P636">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q636">
+        <v>24.17</v>
+      </c>
+      <c r="R636">
+        <v>4.3</v>
+      </c>
+      <c r="S636">
+        <v>54</v>
+      </c>
+      <c r="T636">
+        <v>3</v>
+      </c>
+      <c r="U636">
+        <v>39</v>
+      </c>
+      <c r="V636">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B46E7A-3379-DF49-BFAD-3D6D170B7D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67FA53-5993-1A40-9918-4CE464E1952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="601">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1815,6 +1815,30 @@
   </si>
   <si>
     <t>01:38:08</t>
+  </si>
+  <si>
+    <t>01:39:59</t>
+  </si>
+  <si>
+    <t>01:39:34</t>
+  </si>
+  <si>
+    <t>01:40:08</t>
+  </si>
+  <si>
+    <t>01:38:01</t>
+  </si>
+  <si>
+    <t>01:30:30</t>
+  </si>
+  <si>
+    <t>01:38:27</t>
+  </si>
+  <si>
+    <t>01:40:16</t>
+  </si>
+  <si>
+    <t>01:38:52</t>
   </si>
 </sst>
 </file>
@@ -2207,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V636"/>
+  <dimension ref="A1:V648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C639" sqref="C639"/>
+    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E653" sqref="E653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44311,6 +44335,822 @@
         <v>7</v>
       </c>
     </row>
+    <row r="637" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>23</v>
+      </c>
+      <c r="B637" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C637" t="s">
+        <v>20</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E637" t="s">
+        <v>25</v>
+      </c>
+      <c r="F637" t="s">
+        <v>29</v>
+      </c>
+      <c r="G637" t="s">
+        <v>593</v>
+      </c>
+      <c r="H637">
+        <v>7.81</v>
+      </c>
+      <c r="I637">
+        <v>0.48</v>
+      </c>
+      <c r="J637">
+        <v>7.32</v>
+      </c>
+      <c r="K637">
+        <v>0.39</v>
+      </c>
+      <c r="L637">
+        <v>0.09</v>
+      </c>
+      <c r="M637">
+        <v>0.01</v>
+      </c>
+      <c r="N637">
+        <v>0</v>
+      </c>
+      <c r="O637">
+        <v>1</v>
+      </c>
+      <c r="P637">
+        <v>4.68</v>
+      </c>
+      <c r="Q637">
+        <v>26.64</v>
+      </c>
+      <c r="R637">
+        <v>4.72</v>
+      </c>
+      <c r="S637">
+        <v>37</v>
+      </c>
+      <c r="T637">
+        <v>7</v>
+      </c>
+      <c r="U637">
+        <v>35</v>
+      </c>
+      <c r="V637">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>23</v>
+      </c>
+      <c r="B638" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C638" t="s">
+        <v>20</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E638" t="s">
+        <v>39</v>
+      </c>
+      <c r="F638" t="s">
+        <v>29</v>
+      </c>
+      <c r="G638" t="s">
+        <v>594</v>
+      </c>
+      <c r="H638">
+        <v>6.95</v>
+      </c>
+      <c r="I638">
+        <v>0.34</v>
+      </c>
+      <c r="J638">
+        <v>6.6</v>
+      </c>
+      <c r="K638">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L638">
+        <v>0.04</v>
+      </c>
+      <c r="M638">
+        <v>0.01</v>
+      </c>
+      <c r="N638">
+        <v>0</v>
+      </c>
+      <c r="O638">
+        <v>1</v>
+      </c>
+      <c r="P638">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q638">
+        <v>27.9</v>
+      </c>
+      <c r="R638">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S638">
+        <v>30</v>
+      </c>
+      <c r="T638">
+        <v>4</v>
+      </c>
+      <c r="U638">
+        <v>17</v>
+      </c>
+      <c r="V638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>23</v>
+      </c>
+      <c r="B639" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C639" t="s">
+        <v>20</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E639" t="s">
+        <v>52</v>
+      </c>
+      <c r="F639" t="s">
+        <v>33</v>
+      </c>
+      <c r="G639" t="s">
+        <v>595</v>
+      </c>
+      <c r="H639">
+        <v>7.83</v>
+      </c>
+      <c r="I639">
+        <v>0.69</v>
+      </c>
+      <c r="J639">
+        <v>7.12</v>
+      </c>
+      <c r="K639">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L639">
+        <v>0.1</v>
+      </c>
+      <c r="M639">
+        <v>0.02</v>
+      </c>
+      <c r="N639">
+        <v>0</v>
+      </c>
+      <c r="O639">
+        <v>2</v>
+      </c>
+      <c r="P639">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q639">
+        <v>29.1</v>
+      </c>
+      <c r="R639">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S639">
+        <v>42</v>
+      </c>
+      <c r="T639">
+        <v>17</v>
+      </c>
+      <c r="U639">
+        <v>23</v>
+      </c>
+      <c r="V639">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="640" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>23</v>
+      </c>
+      <c r="B640" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C640" t="s">
+        <v>20</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E640" t="s">
+        <v>53</v>
+      </c>
+      <c r="F640" t="s">
+        <v>32</v>
+      </c>
+      <c r="G640" t="s">
+        <v>429</v>
+      </c>
+      <c r="H640">
+        <v>8.77</v>
+      </c>
+      <c r="I640">
+        <v>0.71</v>
+      </c>
+      <c r="J640">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="K640">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L640">
+        <v>0.15</v>
+      </c>
+      <c r="M640">
+        <v>0.02</v>
+      </c>
+      <c r="N640">
+        <v>0</v>
+      </c>
+      <c r="O640">
+        <v>3</v>
+      </c>
+      <c r="P640">
+        <v>5.18</v>
+      </c>
+      <c r="Q640">
+        <v>26.53</v>
+      </c>
+      <c r="R640">
+        <v>4.45</v>
+      </c>
+      <c r="S640">
+        <v>55</v>
+      </c>
+      <c r="T640">
+        <v>7</v>
+      </c>
+      <c r="U640">
+        <v>29</v>
+      </c>
+      <c r="V640">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>23</v>
+      </c>
+      <c r="B641" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C641" t="s">
+        <v>20</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E641" t="s">
+        <v>40</v>
+      </c>
+      <c r="F641" t="s">
+        <v>31</v>
+      </c>
+      <c r="G641" t="s">
+        <v>593</v>
+      </c>
+      <c r="H641">
+        <v>7.68</v>
+      </c>
+      <c r="I641">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J641">
+        <v>7.08</v>
+      </c>
+      <c r="K641">
+        <v>0.43</v>
+      </c>
+      <c r="L641">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M641">
+        <v>0.03</v>
+      </c>
+      <c r="N641">
+        <v>0</v>
+      </c>
+      <c r="O641">
+        <v>2</v>
+      </c>
+      <c r="P641">
+        <v>4.07</v>
+      </c>
+      <c r="Q641">
+        <v>28.9</v>
+      </c>
+      <c r="R641">
+        <v>5.04</v>
+      </c>
+      <c r="S641">
+        <v>56</v>
+      </c>
+      <c r="T641">
+        <v>11</v>
+      </c>
+      <c r="U641">
+        <v>44</v>
+      </c>
+      <c r="V641">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>23</v>
+      </c>
+      <c r="B642" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C642" t="s">
+        <v>20</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E642" t="s">
+        <v>164</v>
+      </c>
+      <c r="F642" t="s">
+        <v>32</v>
+      </c>
+      <c r="G642" t="s">
+        <v>565</v>
+      </c>
+      <c r="H642">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="I642">
+        <v>0.69</v>
+      </c>
+      <c r="J642">
+        <v>7.66</v>
+      </c>
+      <c r="K642">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L642">
+        <v>0.16</v>
+      </c>
+      <c r="M642">
+        <v>0</v>
+      </c>
+      <c r="N642">
+        <v>0</v>
+      </c>
+      <c r="O642">
+        <v>1</v>
+      </c>
+      <c r="P642">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q642">
+        <v>25.34</v>
+      </c>
+      <c r="R642">
+        <v>4.24</v>
+      </c>
+      <c r="S642">
+        <v>43</v>
+      </c>
+      <c r="T642">
+        <v>3</v>
+      </c>
+      <c r="U642">
+        <v>34</v>
+      </c>
+      <c r="V642">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>23</v>
+      </c>
+      <c r="B643" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C643" t="s">
+        <v>20</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E643" t="s">
+        <v>54</v>
+      </c>
+      <c r="F643" t="s">
+        <v>28</v>
+      </c>
+      <c r="G643" t="s">
+        <v>596</v>
+      </c>
+      <c r="H643">
+        <v>6.55</v>
+      </c>
+      <c r="I643">
+        <v>0.19</v>
+      </c>
+      <c r="J643">
+        <v>6.35</v>
+      </c>
+      <c r="K643">
+        <v>0.15</v>
+      </c>
+      <c r="L643">
+        <v>0.05</v>
+      </c>
+      <c r="M643">
+        <v>0</v>
+      </c>
+      <c r="N643">
+        <v>0</v>
+      </c>
+      <c r="O643">
+        <v>0</v>
+      </c>
+      <c r="P643">
+        <v>3.17</v>
+      </c>
+      <c r="Q643">
+        <v>24.75</v>
+      </c>
+      <c r="R643">
+        <v>4.03</v>
+      </c>
+      <c r="S643">
+        <v>20</v>
+      </c>
+      <c r="T643">
+        <v>1</v>
+      </c>
+      <c r="U643">
+        <v>21</v>
+      </c>
+      <c r="V643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>23</v>
+      </c>
+      <c r="B644" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C644" t="s">
+        <v>20</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E644" t="s">
+        <v>16</v>
+      </c>
+      <c r="F644" t="s">
+        <v>30</v>
+      </c>
+      <c r="G644" t="s">
+        <v>565</v>
+      </c>
+      <c r="H644">
+        <v>7.53</v>
+      </c>
+      <c r="I644">
+        <v>0.6</v>
+      </c>
+      <c r="J644">
+        <v>6.9</v>
+      </c>
+      <c r="K644">
+        <v>0.45</v>
+      </c>
+      <c r="L644">
+        <v>0.13</v>
+      </c>
+      <c r="M644">
+        <v>0.04</v>
+      </c>
+      <c r="N644">
+        <v>0.01</v>
+      </c>
+      <c r="O644">
+        <v>6</v>
+      </c>
+      <c r="P644">
+        <v>3.97</v>
+      </c>
+      <c r="Q644">
+        <v>30.6</v>
+      </c>
+      <c r="R644">
+        <v>6.48</v>
+      </c>
+      <c r="S644">
+        <v>93</v>
+      </c>
+      <c r="T644">
+        <v>33</v>
+      </c>
+      <c r="U644">
+        <v>63</v>
+      </c>
+      <c r="V644">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>23</v>
+      </c>
+      <c r="B645" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C645" t="s">
+        <v>20</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E645" t="s">
+        <v>43</v>
+      </c>
+      <c r="F645" t="s">
+        <v>34</v>
+      </c>
+      <c r="G645" t="s">
+        <v>597</v>
+      </c>
+      <c r="H645">
+        <v>6.56</v>
+      </c>
+      <c r="I645">
+        <v>0.6</v>
+      </c>
+      <c r="J645">
+        <v>5.94</v>
+      </c>
+      <c r="K645">
+        <v>0.46</v>
+      </c>
+      <c r="L645">
+        <v>0.13</v>
+      </c>
+      <c r="M645">
+        <v>0.03</v>
+      </c>
+      <c r="N645">
+        <v>0</v>
+      </c>
+      <c r="O645">
+        <v>3</v>
+      </c>
+      <c r="P645">
+        <v>3.96</v>
+      </c>
+      <c r="Q645">
+        <v>29.8</v>
+      </c>
+      <c r="R645">
+        <v>5.33</v>
+      </c>
+      <c r="S645">
+        <v>64</v>
+      </c>
+      <c r="T645">
+        <v>18</v>
+      </c>
+      <c r="U645">
+        <v>40</v>
+      </c>
+      <c r="V645">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>23</v>
+      </c>
+      <c r="B646" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C646" t="s">
+        <v>20</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E646" t="s">
+        <v>48</v>
+      </c>
+      <c r="F646" t="s">
+        <v>29</v>
+      </c>
+      <c r="G646" t="s">
+        <v>598</v>
+      </c>
+      <c r="H646">
+        <v>5.79</v>
+      </c>
+      <c r="I646">
+        <v>0.25</v>
+      </c>
+      <c r="J646">
+        <v>5.54</v>
+      </c>
+      <c r="K646">
+        <v>0.22</v>
+      </c>
+      <c r="L646">
+        <v>0.03</v>
+      </c>
+      <c r="M646">
+        <v>0</v>
+      </c>
+      <c r="N646">
+        <v>0</v>
+      </c>
+      <c r="O646">
+        <v>1</v>
+      </c>
+      <c r="P646">
+        <v>3.46</v>
+      </c>
+      <c r="Q646">
+        <v>25.81</v>
+      </c>
+      <c r="R646">
+        <v>4.04</v>
+      </c>
+      <c r="S646">
+        <v>23</v>
+      </c>
+      <c r="T646">
+        <v>1</v>
+      </c>
+      <c r="U646">
+        <v>15</v>
+      </c>
+      <c r="V646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>23</v>
+      </c>
+      <c r="B647" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C647" t="s">
+        <v>20</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E647" t="s">
+        <v>447</v>
+      </c>
+      <c r="F647" t="s">
+        <v>33</v>
+      </c>
+      <c r="G647" t="s">
+        <v>599</v>
+      </c>
+      <c r="H647">
+        <v>8.09</v>
+      </c>
+      <c r="I647">
+        <v>0.52</v>
+      </c>
+      <c r="J647">
+        <v>7.55</v>
+      </c>
+      <c r="K647">
+        <v>0.46</v>
+      </c>
+      <c r="L647">
+        <v>0.08</v>
+      </c>
+      <c r="M647">
+        <v>0</v>
+      </c>
+      <c r="N647">
+        <v>0</v>
+      </c>
+      <c r="O647">
+        <v>1</v>
+      </c>
+      <c r="P647">
+        <v>4.24</v>
+      </c>
+      <c r="Q647">
+        <v>25.58</v>
+      </c>
+      <c r="R647">
+        <v>5.17</v>
+      </c>
+      <c r="S647">
+        <v>49</v>
+      </c>
+      <c r="T647">
+        <v>8</v>
+      </c>
+      <c r="U647">
+        <v>56</v>
+      </c>
+      <c r="V647">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>23</v>
+      </c>
+      <c r="B648" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C648" t="s">
+        <v>20</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E648" t="s">
+        <v>38</v>
+      </c>
+      <c r="F648" t="s">
+        <v>34</v>
+      </c>
+      <c r="G648" t="s">
+        <v>600</v>
+      </c>
+      <c r="H648">
+        <v>6.53</v>
+      </c>
+      <c r="I648">
+        <v>0.49</v>
+      </c>
+      <c r="J648">
+        <v>6.02</v>
+      </c>
+      <c r="K648">
+        <v>0.42</v>
+      </c>
+      <c r="L648">
+        <v>0.08</v>
+      </c>
+      <c r="M648">
+        <v>0</v>
+      </c>
+      <c r="N648">
+        <v>0</v>
+      </c>
+      <c r="O648">
+        <v>1</v>
+      </c>
+      <c r="P648">
+        <v>3.83</v>
+      </c>
+      <c r="Q648">
+        <v>25.21</v>
+      </c>
+      <c r="R648">
+        <v>4.51</v>
+      </c>
+      <c r="S648">
+        <v>22</v>
+      </c>
+      <c r="T648">
+        <v>3</v>
+      </c>
+      <c r="U648">
+        <v>23</v>
+      </c>
+      <c r="V648">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67FA53-5993-1A40-9918-4CE464E1952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C48AAD-FDF7-A64B-9C19-07A03BD163CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="612">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1839,6 +1839,39 @@
   </si>
   <si>
     <t>01:38:52</t>
+  </si>
+  <si>
+    <t>00:39:57</t>
+  </si>
+  <si>
+    <t>01:10:15</t>
+  </si>
+  <si>
+    <t>01:06:43</t>
+  </si>
+  <si>
+    <t>01:10:34</t>
+  </si>
+  <si>
+    <t>01:10:54</t>
+  </si>
+  <si>
+    <t>01:10:35</t>
+  </si>
+  <si>
+    <t>01:09:51</t>
+  </si>
+  <si>
+    <t>01:08:36</t>
+  </si>
+  <si>
+    <t>01:09:20</t>
+  </si>
+  <si>
+    <t>01:08:30</t>
+  </si>
+  <si>
+    <t>01:10:47</t>
   </si>
 </sst>
 </file>
@@ -2231,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V648"/>
+  <dimension ref="A1:V659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E653" sqref="E653"/>
+    <sheetView tabSelected="1" topLeftCell="A629" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D662" sqref="D662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45151,6 +45184,754 @@
         <v>6</v>
       </c>
     </row>
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>23</v>
+      </c>
+      <c r="B649" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C649" t="s">
+        <v>20</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E649" t="s">
+        <v>25</v>
+      </c>
+      <c r="F649" t="s">
+        <v>29</v>
+      </c>
+      <c r="G649" t="s">
+        <v>601</v>
+      </c>
+      <c r="H649">
+        <v>2.29</v>
+      </c>
+      <c r="I649">
+        <v>0.22</v>
+      </c>
+      <c r="J649">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K649">
+        <v>0.13</v>
+      </c>
+      <c r="L649">
+        <v>0.06</v>
+      </c>
+      <c r="M649">
+        <v>0.03</v>
+      </c>
+      <c r="N649">
+        <v>0</v>
+      </c>
+      <c r="O649">
+        <v>2</v>
+      </c>
+      <c r="P649">
+        <v>3.42</v>
+      </c>
+      <c r="Q649">
+        <v>27.56</v>
+      </c>
+      <c r="R649">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S649">
+        <v>10</v>
+      </c>
+      <c r="T649">
+        <v>1</v>
+      </c>
+      <c r="U649">
+        <v>5</v>
+      </c>
+      <c r="V649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>23</v>
+      </c>
+      <c r="B650" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C650" t="s">
+        <v>20</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E650" t="s">
+        <v>54</v>
+      </c>
+      <c r="F650" t="s">
+        <v>28</v>
+      </c>
+      <c r="G650" t="s">
+        <v>602</v>
+      </c>
+      <c r="H650">
+        <v>3.55</v>
+      </c>
+      <c r="I650">
+        <v>0.42</v>
+      </c>
+      <c r="J650">
+        <v>3.13</v>
+      </c>
+      <c r="K650">
+        <v>0.19</v>
+      </c>
+      <c r="L650">
+        <v>0.13</v>
+      </c>
+      <c r="M650">
+        <v>0.08</v>
+      </c>
+      <c r="N650">
+        <v>0.02</v>
+      </c>
+      <c r="O650">
+        <v>9</v>
+      </c>
+      <c r="P650">
+        <v>2.67</v>
+      </c>
+      <c r="Q650">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="R650">
+        <v>5.81</v>
+      </c>
+      <c r="S650">
+        <v>24</v>
+      </c>
+      <c r="T650">
+        <v>15</v>
+      </c>
+      <c r="U650">
+        <v>15</v>
+      </c>
+      <c r="V650">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>23</v>
+      </c>
+      <c r="B651" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C651" t="s">
+        <v>20</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E651" t="s">
+        <v>40</v>
+      </c>
+      <c r="F651" t="s">
+        <v>31</v>
+      </c>
+      <c r="G651" t="s">
+        <v>603</v>
+      </c>
+      <c r="H651">
+        <v>3.19</v>
+      </c>
+      <c r="I651">
+        <v>0.23</v>
+      </c>
+      <c r="J651">
+        <v>2.95</v>
+      </c>
+      <c r="K651">
+        <v>0.11</v>
+      </c>
+      <c r="L651">
+        <v>0.04</v>
+      </c>
+      <c r="M651">
+        <v>0.06</v>
+      </c>
+      <c r="N651">
+        <v>0.02</v>
+      </c>
+      <c r="O651">
+        <v>4</v>
+      </c>
+      <c r="P651">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q651">
+        <v>33.5</v>
+      </c>
+      <c r="R651">
+        <v>4.57</v>
+      </c>
+      <c r="S651">
+        <v>23</v>
+      </c>
+      <c r="T651">
+        <v>4</v>
+      </c>
+      <c r="U651">
+        <v>19</v>
+      </c>
+      <c r="V651">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>23</v>
+      </c>
+      <c r="B652" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C652" t="s">
+        <v>20</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E652" t="s">
+        <v>93</v>
+      </c>
+      <c r="F652" t="s">
+        <v>31</v>
+      </c>
+      <c r="G652" t="s">
+        <v>604</v>
+      </c>
+      <c r="H652">
+        <v>3.81</v>
+      </c>
+      <c r="I652">
+        <v>0.15</v>
+      </c>
+      <c r="J652">
+        <v>3.65</v>
+      </c>
+      <c r="K652">
+        <v>0.15</v>
+      </c>
+      <c r="L652">
+        <v>0.01</v>
+      </c>
+      <c r="M652">
+        <v>0</v>
+      </c>
+      <c r="N652">
+        <v>0</v>
+      </c>
+      <c r="O652">
+        <v>0</v>
+      </c>
+      <c r="P652">
+        <v>2.75</v>
+      </c>
+      <c r="Q652">
+        <v>20.58</v>
+      </c>
+      <c r="R652">
+        <v>4.78</v>
+      </c>
+      <c r="S652">
+        <v>31</v>
+      </c>
+      <c r="T652">
+        <v>7</v>
+      </c>
+      <c r="U652">
+        <v>17</v>
+      </c>
+      <c r="V652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>23</v>
+      </c>
+      <c r="B653" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C653" t="s">
+        <v>20</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E653" t="s">
+        <v>251</v>
+      </c>
+      <c r="F653" t="s">
+        <v>32</v>
+      </c>
+      <c r="G653" t="s">
+        <v>605</v>
+      </c>
+      <c r="H653">
+        <v>3.35</v>
+      </c>
+      <c r="I653">
+        <v>0.2</v>
+      </c>
+      <c r="J653">
+        <v>3.14</v>
+      </c>
+      <c r="K653">
+        <v>0.1</v>
+      </c>
+      <c r="L653">
+        <v>0.06</v>
+      </c>
+      <c r="M653">
+        <v>0.04</v>
+      </c>
+      <c r="N653">
+        <v>0</v>
+      </c>
+      <c r="O653">
+        <v>4</v>
+      </c>
+      <c r="P653">
+        <v>2.7</v>
+      </c>
+      <c r="Q653">
+        <v>27.31</v>
+      </c>
+      <c r="R653">
+        <v>3.81</v>
+      </c>
+      <c r="S653">
+        <v>11</v>
+      </c>
+      <c r="T653">
+        <v>0</v>
+      </c>
+      <c r="U653">
+        <v>4</v>
+      </c>
+      <c r="V653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>23</v>
+      </c>
+      <c r="B654" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C654" t="s">
+        <v>20</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E654" t="s">
+        <v>52</v>
+      </c>
+      <c r="F654" t="s">
+        <v>33</v>
+      </c>
+      <c r="G654" t="s">
+        <v>606</v>
+      </c>
+      <c r="H654">
+        <v>3.86</v>
+      </c>
+      <c r="I654">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J654">
+        <v>3.57</v>
+      </c>
+      <c r="K654">
+        <v>0.1</v>
+      </c>
+      <c r="L654">
+        <v>0.1</v>
+      </c>
+      <c r="M654">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N654">
+        <v>0.01</v>
+      </c>
+      <c r="O654">
+        <v>7</v>
+      </c>
+      <c r="P654">
+        <v>3.19</v>
+      </c>
+      <c r="Q654">
+        <v>31.52</v>
+      </c>
+      <c r="R654">
+        <v>3.95</v>
+      </c>
+      <c r="S654">
+        <v>23</v>
+      </c>
+      <c r="T654">
+        <v>0</v>
+      </c>
+      <c r="U654">
+        <v>1</v>
+      </c>
+      <c r="V654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>23</v>
+      </c>
+      <c r="B655" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C655" t="s">
+        <v>20</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E655" t="s">
+        <v>164</v>
+      </c>
+      <c r="F655" t="s">
+        <v>32</v>
+      </c>
+      <c r="G655" t="s">
+        <v>607</v>
+      </c>
+      <c r="H655">
+        <v>4.28</v>
+      </c>
+      <c r="I655">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J655">
+        <v>3.69</v>
+      </c>
+      <c r="K655">
+        <v>0.3</v>
+      </c>
+      <c r="L655">
+        <v>0.17</v>
+      </c>
+      <c r="M655">
+        <v>0.12</v>
+      </c>
+      <c r="N655">
+        <v>0</v>
+      </c>
+      <c r="O655">
+        <v>8</v>
+      </c>
+      <c r="P655">
+        <v>3.6</v>
+      </c>
+      <c r="Q655">
+        <v>28.52</v>
+      </c>
+      <c r="R655">
+        <v>4.09</v>
+      </c>
+      <c r="S655">
+        <v>30</v>
+      </c>
+      <c r="T655">
+        <v>3</v>
+      </c>
+      <c r="U655">
+        <v>15</v>
+      </c>
+      <c r="V655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>23</v>
+      </c>
+      <c r="B656" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C656" t="s">
+        <v>20</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E656" t="s">
+        <v>448</v>
+      </c>
+      <c r="F656" t="s">
+        <v>32</v>
+      </c>
+      <c r="G656" t="s">
+        <v>608</v>
+      </c>
+      <c r="H656">
+        <v>3.25</v>
+      </c>
+      <c r="I656">
+        <v>0.22</v>
+      </c>
+      <c r="J656">
+        <v>3.03</v>
+      </c>
+      <c r="K656">
+        <v>0.1</v>
+      </c>
+      <c r="L656">
+        <v>0.1</v>
+      </c>
+      <c r="M656">
+        <v>0.03</v>
+      </c>
+      <c r="N656">
+        <v>0</v>
+      </c>
+      <c r="O656">
+        <v>3</v>
+      </c>
+      <c r="P656">
+        <v>2.75</v>
+      </c>
+      <c r="Q656">
+        <v>26.81</v>
+      </c>
+      <c r="R656">
+        <v>4.3</v>
+      </c>
+      <c r="S656">
+        <v>11</v>
+      </c>
+      <c r="T656">
+        <v>1</v>
+      </c>
+      <c r="U656">
+        <v>4</v>
+      </c>
+      <c r="V656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>23</v>
+      </c>
+      <c r="B657" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C657" t="s">
+        <v>20</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E657" t="s">
+        <v>58</v>
+      </c>
+      <c r="F657" t="s">
+        <v>29</v>
+      </c>
+      <c r="G657" t="s">
+        <v>609</v>
+      </c>
+      <c r="H657">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I657">
+        <v>0.18</v>
+      </c>
+      <c r="J657">
+        <v>4.54</v>
+      </c>
+      <c r="K657">
+        <v>0.08</v>
+      </c>
+      <c r="L657">
+        <v>0.04</v>
+      </c>
+      <c r="M657">
+        <v>0.06</v>
+      </c>
+      <c r="N657">
+        <v>0</v>
+      </c>
+      <c r="O657">
+        <v>3</v>
+      </c>
+      <c r="P657">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q657">
+        <v>30.07</v>
+      </c>
+      <c r="R657">
+        <v>4.29</v>
+      </c>
+      <c r="S657">
+        <v>14</v>
+      </c>
+      <c r="T657">
+        <v>1</v>
+      </c>
+      <c r="U657">
+        <v>7</v>
+      </c>
+      <c r="V657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>23</v>
+      </c>
+      <c r="B658" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C658" t="s">
+        <v>20</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E658" t="s">
+        <v>35</v>
+      </c>
+      <c r="F658" t="s">
+        <v>34</v>
+      </c>
+      <c r="G658" t="s">
+        <v>610</v>
+      </c>
+      <c r="H658">
+        <v>3.58</v>
+      </c>
+      <c r="I658">
+        <v>0.45</v>
+      </c>
+      <c r="J658">
+        <v>3.13</v>
+      </c>
+      <c r="K658">
+        <v>0.2</v>
+      </c>
+      <c r="L658">
+        <v>0.15</v>
+      </c>
+      <c r="M658">
+        <v>0.09</v>
+      </c>
+      <c r="N658">
+        <v>0.01</v>
+      </c>
+      <c r="O658">
+        <v>6</v>
+      </c>
+      <c r="P658">
+        <v>3.03</v>
+      </c>
+      <c r="Q658">
+        <v>31</v>
+      </c>
+      <c r="R658">
+        <v>5.53</v>
+      </c>
+      <c r="S658">
+        <v>12</v>
+      </c>
+      <c r="T658">
+        <v>15</v>
+      </c>
+      <c r="U658">
+        <v>2</v>
+      </c>
+      <c r="V658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>23</v>
+      </c>
+      <c r="B659" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C659" t="s">
+        <v>20</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E659" t="s">
+        <v>447</v>
+      </c>
+      <c r="F659" t="s">
+        <v>33</v>
+      </c>
+      <c r="G659" t="s">
+        <v>611</v>
+      </c>
+      <c r="H659">
+        <v>3.53</v>
+      </c>
+      <c r="I659">
+        <v>0.37</v>
+      </c>
+      <c r="J659">
+        <v>3.14</v>
+      </c>
+      <c r="K659">
+        <v>0.17</v>
+      </c>
+      <c r="L659">
+        <v>0.12</v>
+      </c>
+      <c r="M659">
+        <v>0.1</v>
+      </c>
+      <c r="N659">
+        <v>0</v>
+      </c>
+      <c r="O659">
+        <v>8</v>
+      </c>
+      <c r="P659">
+        <v>2.66</v>
+      </c>
+      <c r="Q659">
+        <v>29.08</v>
+      </c>
+      <c r="R659">
+        <v>5.27</v>
+      </c>
+      <c r="S659">
+        <v>22</v>
+      </c>
+      <c r="T659">
+        <v>8</v>
+      </c>
+      <c r="U659">
+        <v>22</v>
+      </c>
+      <c r="V659">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C48AAD-FDF7-A64B-9C19-07A03BD163CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A245CD3-6589-6D44-840B-0018A59A43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="615">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1872,6 +1872,15 @@
   </si>
   <si>
     <t>01:10:47</t>
+  </si>
+  <si>
+    <t>01:19:28</t>
+  </si>
+  <si>
+    <t>01:24:49</t>
+  </si>
+  <si>
+    <t>01:23:11</t>
   </si>
 </sst>
 </file>
@@ -2264,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V659"/>
+  <dimension ref="A1:V664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D662" sqref="D662"/>
+    <sheetView tabSelected="1" topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D670" sqref="D670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45932,6 +45941,346 @@
         <v>9</v>
       </c>
     </row>
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>23</v>
+      </c>
+      <c r="B660" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C660" t="s">
+        <v>20</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E660" t="s">
+        <v>40</v>
+      </c>
+      <c r="F660" t="s">
+        <v>31</v>
+      </c>
+      <c r="G660" t="s">
+        <v>313</v>
+      </c>
+      <c r="H660">
+        <v>5.4</v>
+      </c>
+      <c r="I660">
+        <v>0.26</v>
+      </c>
+      <c r="J660">
+        <v>5.13</v>
+      </c>
+      <c r="K660">
+        <v>0.24</v>
+      </c>
+      <c r="L660">
+        <v>0.02</v>
+      </c>
+      <c r="M660">
+        <v>0.01</v>
+      </c>
+      <c r="N660">
+        <v>0</v>
+      </c>
+      <c r="O660">
+        <v>1</v>
+      </c>
+      <c r="P660">
+        <v>3.51</v>
+      </c>
+      <c r="Q660">
+        <v>27.99</v>
+      </c>
+      <c r="R660">
+        <v>5.38</v>
+      </c>
+      <c r="S660">
+        <v>58</v>
+      </c>
+      <c r="T660">
+        <v>19</v>
+      </c>
+      <c r="U660">
+        <v>36</v>
+      </c>
+      <c r="V660">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>23</v>
+      </c>
+      <c r="B661" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C661" t="s">
+        <v>20</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E661" t="s">
+        <v>16</v>
+      </c>
+      <c r="F661" t="s">
+        <v>30</v>
+      </c>
+      <c r="G661" t="s">
+        <v>612</v>
+      </c>
+      <c r="H661">
+        <v>4.93</v>
+      </c>
+      <c r="I661">
+        <v>0.19</v>
+      </c>
+      <c r="J661">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K661">
+        <v>0.17</v>
+      </c>
+      <c r="L661">
+        <v>0.03</v>
+      </c>
+      <c r="M661">
+        <v>0</v>
+      </c>
+      <c r="N661">
+        <v>0</v>
+      </c>
+      <c r="O661">
+        <v>0</v>
+      </c>
+      <c r="P661">
+        <v>3.08</v>
+      </c>
+      <c r="Q661">
+        <v>22.85</v>
+      </c>
+      <c r="R661">
+        <v>5.3</v>
+      </c>
+      <c r="S661">
+        <v>31</v>
+      </c>
+      <c r="T661">
+        <v>11</v>
+      </c>
+      <c r="U661">
+        <v>28</v>
+      </c>
+      <c r="V661">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>23</v>
+      </c>
+      <c r="B662" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C662" t="s">
+        <v>20</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E662" t="s">
+        <v>52</v>
+      </c>
+      <c r="F662" t="s">
+        <v>33</v>
+      </c>
+      <c r="G662" t="s">
+        <v>613</v>
+      </c>
+      <c r="H662">
+        <v>6.02</v>
+      </c>
+      <c r="I662">
+        <v>0.42</v>
+      </c>
+      <c r="J662">
+        <v>5.58</v>
+      </c>
+      <c r="K662">
+        <v>0.35</v>
+      </c>
+      <c r="L662">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M662">
+        <v>0.01</v>
+      </c>
+      <c r="N662">
+        <v>0</v>
+      </c>
+      <c r="O662">
+        <v>1</v>
+      </c>
+      <c r="P662">
+        <v>4.18</v>
+      </c>
+      <c r="Q662">
+        <v>26.78</v>
+      </c>
+      <c r="R662">
+        <v>5.24</v>
+      </c>
+      <c r="S662">
+        <v>25</v>
+      </c>
+      <c r="T662">
+        <v>9</v>
+      </c>
+      <c r="U662">
+        <v>12</v>
+      </c>
+      <c r="V662">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>23</v>
+      </c>
+      <c r="B663" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C663" t="s">
+        <v>20</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E663" t="s">
+        <v>447</v>
+      </c>
+      <c r="F663" t="s">
+        <v>33</v>
+      </c>
+      <c r="G663" t="s">
+        <v>140</v>
+      </c>
+      <c r="H663">
+        <v>6.14</v>
+      </c>
+      <c r="I663">
+        <v>0.35</v>
+      </c>
+      <c r="J663">
+        <v>5.77</v>
+      </c>
+      <c r="K663">
+        <v>0.31</v>
+      </c>
+      <c r="L663">
+        <v>0.05</v>
+      </c>
+      <c r="M663">
+        <v>0.01</v>
+      </c>
+      <c r="N663">
+        <v>0</v>
+      </c>
+      <c r="O663">
+        <v>1</v>
+      </c>
+      <c r="P663">
+        <v>3.86</v>
+      </c>
+      <c r="Q663">
+        <v>29.2</v>
+      </c>
+      <c r="R663">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S663">
+        <v>29</v>
+      </c>
+      <c r="T663">
+        <v>10</v>
+      </c>
+      <c r="U663">
+        <v>34</v>
+      </c>
+      <c r="V663">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>23</v>
+      </c>
+      <c r="B664" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C664" t="s">
+        <v>20</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E664" t="s">
+        <v>251</v>
+      </c>
+      <c r="F664" t="s">
+        <v>32</v>
+      </c>
+      <c r="G664" t="s">
+        <v>614</v>
+      </c>
+      <c r="H664">
+        <v>6.05</v>
+      </c>
+      <c r="I664">
+        <v>0.31</v>
+      </c>
+      <c r="J664">
+        <v>5.72</v>
+      </c>
+      <c r="K664">
+        <v>0.27</v>
+      </c>
+      <c r="L664">
+        <v>0.05</v>
+      </c>
+      <c r="M664">
+        <v>0</v>
+      </c>
+      <c r="N664">
+        <v>0</v>
+      </c>
+      <c r="O664">
+        <v>0</v>
+      </c>
+      <c r="P664">
+        <v>4.24</v>
+      </c>
+      <c r="Q664">
+        <v>22.59</v>
+      </c>
+      <c r="R664">
+        <v>4.74</v>
+      </c>
+      <c r="S664">
+        <v>23</v>
+      </c>
+      <c r="T664">
+        <v>8</v>
+      </c>
+      <c r="U664">
+        <v>25</v>
+      </c>
+      <c r="V664">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A245CD3-6589-6D44-840B-0018A59A43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AFE3A6-9DA1-884D-93D9-DAB67EC0B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="626">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1881,6 +1881,39 @@
   </si>
   <si>
     <t>01:23:11</t>
+  </si>
+  <si>
+    <t>01:06:46</t>
+  </si>
+  <si>
+    <t>01:31:55</t>
+  </si>
+  <si>
+    <t>00:56:14</t>
+  </si>
+  <si>
+    <t>00:48:27</t>
+  </si>
+  <si>
+    <t>00:50:02</t>
+  </si>
+  <si>
+    <t>01:38:53</t>
+  </si>
+  <si>
+    <t>00:30:33</t>
+  </si>
+  <si>
+    <t>00:07:46</t>
+  </si>
+  <si>
+    <t>01:39:01</t>
+  </si>
+  <si>
+    <t>01:38:45</t>
+  </si>
+  <si>
+    <t>CDF T5 VS Annecy Le Vieux (R2)</t>
   </si>
 </sst>
 </file>
@@ -2273,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V664"/>
+  <dimension ref="A1:V677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D670" sqref="D670"/>
+    <sheetView tabSelected="1" topLeftCell="A650" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D681" sqref="D681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46281,6 +46314,851 @@
         <v>3</v>
       </c>
     </row>
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>625</v>
+      </c>
+      <c r="B665" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C665" t="s">
+        <v>20</v>
+      </c>
+      <c r="E665" t="s">
+        <v>55</v>
+      </c>
+      <c r="F665" t="s">
+        <v>32</v>
+      </c>
+      <c r="G665" t="s">
+        <v>425</v>
+      </c>
+      <c r="H665">
+        <v>9.69</v>
+      </c>
+      <c r="I665">
+        <v>1.31</v>
+      </c>
+      <c r="J665">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="K665">
+        <v>0.98</v>
+      </c>
+      <c r="L665">
+        <v>0.26</v>
+      </c>
+      <c r="M665">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N665">
+        <v>0.01</v>
+      </c>
+      <c r="O665">
+        <v>8</v>
+      </c>
+      <c r="P665">
+        <v>5.8</v>
+      </c>
+      <c r="Q665">
+        <v>30.46</v>
+      </c>
+      <c r="R665">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S665">
+        <v>40</v>
+      </c>
+      <c r="T665">
+        <v>7</v>
+      </c>
+      <c r="U665">
+        <v>28</v>
+      </c>
+      <c r="V665">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>625</v>
+      </c>
+      <c r="B666" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C666" t="s">
+        <v>20</v>
+      </c>
+      <c r="E666" t="s">
+        <v>35</v>
+      </c>
+      <c r="F666" t="s">
+        <v>34</v>
+      </c>
+      <c r="G666" t="s">
+        <v>615</v>
+      </c>
+      <c r="H666">
+        <v>8.31</v>
+      </c>
+      <c r="I666">
+        <v>1.67</v>
+      </c>
+      <c r="J666">
+        <v>6.61</v>
+      </c>
+      <c r="K666">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L666">
+        <v>0.42</v>
+      </c>
+      <c r="M666">
+        <v>0.13</v>
+      </c>
+      <c r="N666">
+        <v>0</v>
+      </c>
+      <c r="O666">
+        <v>7</v>
+      </c>
+      <c r="P666">
+        <v>7.4</v>
+      </c>
+      <c r="Q666">
+        <v>29.19</v>
+      </c>
+      <c r="R666">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S666">
+        <v>61</v>
+      </c>
+      <c r="T666">
+        <v>9</v>
+      </c>
+      <c r="U666">
+        <v>35</v>
+      </c>
+      <c r="V666">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>625</v>
+      </c>
+      <c r="B667" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C667" t="s">
+        <v>20</v>
+      </c>
+      <c r="E667" t="s">
+        <v>25</v>
+      </c>
+      <c r="F667" t="s">
+        <v>29</v>
+      </c>
+      <c r="G667" t="s">
+        <v>616</v>
+      </c>
+      <c r="H667">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I667">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J667">
+        <v>8.48</v>
+      </c>
+      <c r="K667">
+        <v>0.87</v>
+      </c>
+      <c r="L667">
+        <v>0.23</v>
+      </c>
+      <c r="M667">
+        <v>0.05</v>
+      </c>
+      <c r="N667">
+        <v>0</v>
+      </c>
+      <c r="O667">
+        <v>5</v>
+      </c>
+      <c r="P667">
+        <v>6.22</v>
+      </c>
+      <c r="Q667">
+        <v>28.02</v>
+      </c>
+      <c r="R667">
+        <v>4.13</v>
+      </c>
+      <c r="S667">
+        <v>39</v>
+      </c>
+      <c r="T667">
+        <v>3</v>
+      </c>
+      <c r="U667">
+        <v>40</v>
+      </c>
+      <c r="V667">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>625</v>
+      </c>
+      <c r="B668" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C668" t="s">
+        <v>20</v>
+      </c>
+      <c r="E668" t="s">
+        <v>43</v>
+      </c>
+      <c r="F668" t="s">
+        <v>34</v>
+      </c>
+      <c r="G668" t="s">
+        <v>617</v>
+      </c>
+      <c r="H668">
+        <v>6.82</v>
+      </c>
+      <c r="I668">
+        <v>1.46</v>
+      </c>
+      <c r="J668">
+        <v>5.34</v>
+      </c>
+      <c r="K668">
+        <v>0.87</v>
+      </c>
+      <c r="L668">
+        <v>0.44</v>
+      </c>
+      <c r="M668">
+        <v>0.16</v>
+      </c>
+      <c r="N668">
+        <v>0.02</v>
+      </c>
+      <c r="O668">
+        <v>14</v>
+      </c>
+      <c r="P668">
+        <v>7.27</v>
+      </c>
+      <c r="Q668">
+        <v>30.75</v>
+      </c>
+      <c r="R668">
+        <v>4.55</v>
+      </c>
+      <c r="S668">
+        <v>35</v>
+      </c>
+      <c r="T668">
+        <v>4</v>
+      </c>
+      <c r="U668">
+        <v>20</v>
+      </c>
+      <c r="V668">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>625</v>
+      </c>
+      <c r="B669" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C669" t="s">
+        <v>20</v>
+      </c>
+      <c r="E669" t="s">
+        <v>40</v>
+      </c>
+      <c r="F669" t="s">
+        <v>31</v>
+      </c>
+      <c r="G669" t="s">
+        <v>618</v>
+      </c>
+      <c r="H669">
+        <v>5.39</v>
+      </c>
+      <c r="I669">
+        <v>0.96</v>
+      </c>
+      <c r="J669">
+        <v>4.41</v>
+      </c>
+      <c r="K669">
+        <v>0.71</v>
+      </c>
+      <c r="L669">
+        <v>0.22</v>
+      </c>
+      <c r="M669">
+        <v>0.04</v>
+      </c>
+      <c r="N669">
+        <v>0</v>
+      </c>
+      <c r="O669">
+        <v>6</v>
+      </c>
+      <c r="P669">
+        <v>6.64</v>
+      </c>
+      <c r="Q669">
+        <v>28.5</v>
+      </c>
+      <c r="R669">
+        <v>4.24</v>
+      </c>
+      <c r="S669">
+        <v>30</v>
+      </c>
+      <c r="T669">
+        <v>4</v>
+      </c>
+      <c r="U669">
+        <v>28</v>
+      </c>
+      <c r="V669">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>625</v>
+      </c>
+      <c r="B670" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C670" t="s">
+        <v>20</v>
+      </c>
+      <c r="E670" t="s">
+        <v>93</v>
+      </c>
+      <c r="F670" t="s">
+        <v>31</v>
+      </c>
+      <c r="G670" t="s">
+        <v>619</v>
+      </c>
+      <c r="H670">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I670">
+        <v>0.59</v>
+      </c>
+      <c r="J670">
+        <v>3.81</v>
+      </c>
+      <c r="K670">
+        <v>0.35</v>
+      </c>
+      <c r="L670">
+        <v>0.11</v>
+      </c>
+      <c r="M670">
+        <v>0.11</v>
+      </c>
+      <c r="N670">
+        <v>0.03</v>
+      </c>
+      <c r="O670">
+        <v>7</v>
+      </c>
+      <c r="P670">
+        <v>5.26</v>
+      </c>
+      <c r="Q670">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="R670">
+        <v>4.97</v>
+      </c>
+      <c r="S670">
+        <v>16</v>
+      </c>
+      <c r="T670">
+        <v>7</v>
+      </c>
+      <c r="U670">
+        <v>8</v>
+      </c>
+      <c r="V670">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>625</v>
+      </c>
+      <c r="B671" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C671" t="s">
+        <v>20</v>
+      </c>
+      <c r="E671" t="s">
+        <v>58</v>
+      </c>
+      <c r="F671" t="s">
+        <v>29</v>
+      </c>
+      <c r="G671" t="s">
+        <v>187</v>
+      </c>
+      <c r="H671">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="I671">
+        <v>1.08</v>
+      </c>
+      <c r="J671">
+        <v>8.52</v>
+      </c>
+      <c r="K671">
+        <v>0.79</v>
+      </c>
+      <c r="L671">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M671">
+        <v>0.03</v>
+      </c>
+      <c r="N671">
+        <v>0</v>
+      </c>
+      <c r="O671">
+        <v>2</v>
+      </c>
+      <c r="P671">
+        <v>5.81</v>
+      </c>
+      <c r="Q671">
+        <v>29.12</v>
+      </c>
+      <c r="R671">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S671">
+        <v>34</v>
+      </c>
+      <c r="T671">
+        <v>1</v>
+      </c>
+      <c r="U671">
+        <v>19</v>
+      </c>
+      <c r="V671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>625</v>
+      </c>
+      <c r="B672" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C672" t="s">
+        <v>20</v>
+      </c>
+      <c r="E672" t="s">
+        <v>447</v>
+      </c>
+      <c r="F672" t="s">
+        <v>33</v>
+      </c>
+      <c r="G672" t="s">
+        <v>620</v>
+      </c>
+      <c r="H672">
+        <v>11.9</v>
+      </c>
+      <c r="I672">
+        <v>2.11</v>
+      </c>
+      <c r="J672">
+        <v>9.77</v>
+      </c>
+      <c r="K672">
+        <v>1.38</v>
+      </c>
+      <c r="L672">
+        <v>0.59</v>
+      </c>
+      <c r="M672">
+        <v>0.16</v>
+      </c>
+      <c r="N672">
+        <v>0</v>
+      </c>
+      <c r="O672">
+        <v>17</v>
+      </c>
+      <c r="P672">
+        <v>7.13</v>
+      </c>
+      <c r="Q672">
+        <v>30.12</v>
+      </c>
+      <c r="R672">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S672">
+        <v>42</v>
+      </c>
+      <c r="T672">
+        <v>5</v>
+      </c>
+      <c r="U672">
+        <v>39</v>
+      </c>
+      <c r="V672">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>625</v>
+      </c>
+      <c r="B673" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C673" t="s">
+        <v>20</v>
+      </c>
+      <c r="E673" t="s">
+        <v>54</v>
+      </c>
+      <c r="F673" t="s">
+        <v>28</v>
+      </c>
+      <c r="G673" t="s">
+        <v>621</v>
+      </c>
+      <c r="H673">
+        <v>2.95</v>
+      </c>
+      <c r="I673">
+        <v>0.51</v>
+      </c>
+      <c r="J673">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K673">
+        <v>0.24</v>
+      </c>
+      <c r="L673">
+        <v>0.16</v>
+      </c>
+      <c r="M673">
+        <v>0.12</v>
+      </c>
+      <c r="N673">
+        <v>0</v>
+      </c>
+      <c r="O673">
+        <v>9</v>
+      </c>
+      <c r="P673">
+        <v>5.77</v>
+      </c>
+      <c r="Q673">
+        <v>29.17</v>
+      </c>
+      <c r="R673">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S673">
+        <v>16</v>
+      </c>
+      <c r="T673">
+        <v>2</v>
+      </c>
+      <c r="U673">
+        <v>11</v>
+      </c>
+      <c r="V673">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="674" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>625</v>
+      </c>
+      <c r="B674" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C674" t="s">
+        <v>20</v>
+      </c>
+      <c r="E674" t="s">
+        <v>38</v>
+      </c>
+      <c r="F674" t="s">
+        <v>34</v>
+      </c>
+      <c r="G674" t="s">
+        <v>618</v>
+      </c>
+      <c r="H674">
+        <v>5.01</v>
+      </c>
+      <c r="I674">
+        <v>0.83</v>
+      </c>
+      <c r="J674">
+        <v>4.17</v>
+      </c>
+      <c r="K674">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L674">
+        <v>0.26</v>
+      </c>
+      <c r="M674">
+        <v>0.02</v>
+      </c>
+      <c r="N674">
+        <v>0</v>
+      </c>
+      <c r="O674">
+        <v>5</v>
+      </c>
+      <c r="P674">
+        <v>6.08</v>
+      </c>
+      <c r="Q674">
+        <v>26.55</v>
+      </c>
+      <c r="R674">
+        <v>4.05</v>
+      </c>
+      <c r="S674">
+        <v>15</v>
+      </c>
+      <c r="T674">
+        <v>1</v>
+      </c>
+      <c r="U674">
+        <v>17</v>
+      </c>
+      <c r="V674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>625</v>
+      </c>
+      <c r="B675" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C675" t="s">
+        <v>20</v>
+      </c>
+      <c r="E675" t="s">
+        <v>48</v>
+      </c>
+      <c r="F675" t="s">
+        <v>29</v>
+      </c>
+      <c r="G675" t="s">
+        <v>622</v>
+      </c>
+      <c r="H675">
+        <v>0.75</v>
+      </c>
+      <c r="I675">
+        <v>0.06</v>
+      </c>
+      <c r="J675">
+        <v>0.68</v>
+      </c>
+      <c r="K675">
+        <v>0.04</v>
+      </c>
+      <c r="L675">
+        <v>0.03</v>
+      </c>
+      <c r="M675">
+        <v>0</v>
+      </c>
+      <c r="N675">
+        <v>0</v>
+      </c>
+      <c r="O675">
+        <v>0</v>
+      </c>
+      <c r="P675">
+        <v>5.77</v>
+      </c>
+      <c r="Q675">
+        <v>23.07</v>
+      </c>
+      <c r="R675">
+        <v>4.38</v>
+      </c>
+      <c r="S675">
+        <v>2</v>
+      </c>
+      <c r="T675">
+        <v>1</v>
+      </c>
+      <c r="U675">
+        <v>1</v>
+      </c>
+      <c r="V675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>625</v>
+      </c>
+      <c r="B676" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C676" t="s">
+        <v>20</v>
+      </c>
+      <c r="E676" t="s">
+        <v>448</v>
+      </c>
+      <c r="F676" t="s">
+        <v>32</v>
+      </c>
+      <c r="G676" t="s">
+        <v>623</v>
+      </c>
+      <c r="H676">
+        <v>12.4</v>
+      </c>
+      <c r="I676">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J676">
+        <v>10.18</v>
+      </c>
+      <c r="K676">
+        <v>1.95</v>
+      </c>
+      <c r="L676">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M676">
+        <v>0</v>
+      </c>
+      <c r="N676">
+        <v>0</v>
+      </c>
+      <c r="O676">
+        <v>0</v>
+      </c>
+      <c r="P676">
+        <v>7.46</v>
+      </c>
+      <c r="Q676">
+        <v>24.12</v>
+      </c>
+      <c r="R676">
+        <v>4.01</v>
+      </c>
+      <c r="S676">
+        <v>32</v>
+      </c>
+      <c r="T676">
+        <v>1</v>
+      </c>
+      <c r="U676">
+        <v>33</v>
+      </c>
+      <c r="V676">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>625</v>
+      </c>
+      <c r="B677" s="1">
+        <v>45942</v>
+      </c>
+      <c r="C677" t="s">
+        <v>20</v>
+      </c>
+      <c r="E677" t="s">
+        <v>52</v>
+      </c>
+      <c r="F677" t="s">
+        <v>33</v>
+      </c>
+      <c r="G677" t="s">
+        <v>624</v>
+      </c>
+      <c r="H677">
+        <v>11.5</v>
+      </c>
+      <c r="I677">
+        <v>2.19</v>
+      </c>
+      <c r="J677">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="K677">
+        <v>1.44</v>
+      </c>
+      <c r="L677">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M677">
+        <v>0.19</v>
+      </c>
+      <c r="N677">
+        <v>0.02</v>
+      </c>
+      <c r="O677">
+        <v>13</v>
+      </c>
+      <c r="P677">
+        <v>6.93</v>
+      </c>
+      <c r="Q677">
+        <v>31.8</v>
+      </c>
+      <c r="R677">
+        <v>5</v>
+      </c>
+      <c r="S677">
+        <v>37</v>
+      </c>
+      <c r="T677">
+        <v>8</v>
+      </c>
+      <c r="U677">
+        <v>34</v>
+      </c>
+      <c r="V677">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AFE3A6-9DA1-884D-93D9-DAB67EC0B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5AC6D-277F-0F43-91DA-751F7689A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="643">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1914,6 +1914,57 @@
   </si>
   <si>
     <t>CDF T5 VS Annecy Le Vieux (R2)</t>
+  </si>
+  <si>
+    <t>01:18:18</t>
+  </si>
+  <si>
+    <t>01:20:33</t>
+  </si>
+  <si>
+    <t>01:20:19</t>
+  </si>
+  <si>
+    <t>01:17:51</t>
+  </si>
+  <si>
+    <t>01:20:05</t>
+  </si>
+  <si>
+    <t>01:43:19</t>
+  </si>
+  <si>
+    <t>01:45:02</t>
+  </si>
+  <si>
+    <t>01:42:31</t>
+  </si>
+  <si>
+    <t>01:42:41</t>
+  </si>
+  <si>
+    <t>01:43:09</t>
+  </si>
+  <si>
+    <t>01:42:49</t>
+  </si>
+  <si>
+    <t>01:44:34</t>
+  </si>
+  <si>
+    <t>01:38:36</t>
+  </si>
+  <si>
+    <t>00:45:37</t>
+  </si>
+  <si>
+    <t>01:43:47</t>
+  </si>
+  <si>
+    <t>01:43:20</t>
+  </si>
+  <si>
+    <t>01:43:46</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V677"/>
+  <dimension ref="A1:V697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A650" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D681" sqref="D681"/>
+    <sheetView tabSelected="1" topLeftCell="A662" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C700" sqref="C700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47159,6 +47210,1366 @@
         <v>8</v>
       </c>
     </row>
+    <row r="678" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>23</v>
+      </c>
+      <c r="B678" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C678" t="s">
+        <v>20</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E678" t="s">
+        <v>40</v>
+      </c>
+      <c r="F678" t="s">
+        <v>31</v>
+      </c>
+      <c r="G678" t="s">
+        <v>626</v>
+      </c>
+      <c r="H678">
+        <v>5.64</v>
+      </c>
+      <c r="I678">
+        <v>0.15</v>
+      </c>
+      <c r="J678">
+        <v>5.48</v>
+      </c>
+      <c r="K678">
+        <v>0.13</v>
+      </c>
+      <c r="L678">
+        <v>0.03</v>
+      </c>
+      <c r="M678">
+        <v>0.01</v>
+      </c>
+      <c r="N678">
+        <v>0</v>
+      </c>
+      <c r="O678">
+        <v>1</v>
+      </c>
+      <c r="P678">
+        <v>3.93</v>
+      </c>
+      <c r="Q678">
+        <v>26.91</v>
+      </c>
+      <c r="R678">
+        <v>5.49</v>
+      </c>
+      <c r="S678">
+        <v>44</v>
+      </c>
+      <c r="T678">
+        <v>11</v>
+      </c>
+      <c r="U678">
+        <v>36</v>
+      </c>
+      <c r="V678">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="679" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>23</v>
+      </c>
+      <c r="B679" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C679" t="s">
+        <v>20</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E679" t="s">
+        <v>43</v>
+      </c>
+      <c r="F679" t="s">
+        <v>34</v>
+      </c>
+      <c r="G679" t="s">
+        <v>627</v>
+      </c>
+      <c r="H679">
+        <v>6.02</v>
+      </c>
+      <c r="I679">
+        <v>0.09</v>
+      </c>
+      <c r="J679">
+        <v>5.93</v>
+      </c>
+      <c r="K679">
+        <v>0.08</v>
+      </c>
+      <c r="L679">
+        <v>0.01</v>
+      </c>
+      <c r="M679">
+        <v>0</v>
+      </c>
+      <c r="N679">
+        <v>0</v>
+      </c>
+      <c r="O679">
+        <v>0</v>
+      </c>
+      <c r="P679">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q679">
+        <v>24.05</v>
+      </c>
+      <c r="R679">
+        <v>5.13</v>
+      </c>
+      <c r="S679">
+        <v>48</v>
+      </c>
+      <c r="T679">
+        <v>11</v>
+      </c>
+      <c r="U679">
+        <v>17</v>
+      </c>
+      <c r="V679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>23</v>
+      </c>
+      <c r="B680" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C680" t="s">
+        <v>20</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E680" t="s">
+        <v>25</v>
+      </c>
+      <c r="F680" t="s">
+        <v>29</v>
+      </c>
+      <c r="G680" t="s">
+        <v>628</v>
+      </c>
+      <c r="H680">
+        <v>5.79</v>
+      </c>
+      <c r="I680">
+        <v>0.02</v>
+      </c>
+      <c r="J680">
+        <v>5.77</v>
+      </c>
+      <c r="K680">
+        <v>0.02</v>
+      </c>
+      <c r="L680">
+        <v>0</v>
+      </c>
+      <c r="M680">
+        <v>0</v>
+      </c>
+      <c r="N680">
+        <v>0</v>
+      </c>
+      <c r="O680">
+        <v>0</v>
+      </c>
+      <c r="P680">
+        <v>4.3</v>
+      </c>
+      <c r="Q680">
+        <v>16.27</v>
+      </c>
+      <c r="R680">
+        <v>3.53</v>
+      </c>
+      <c r="S680">
+        <v>10</v>
+      </c>
+      <c r="T680">
+        <v>0</v>
+      </c>
+      <c r="U680">
+        <v>4</v>
+      </c>
+      <c r="V680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>23</v>
+      </c>
+      <c r="B681" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C681" t="s">
+        <v>20</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E681" t="s">
+        <v>164</v>
+      </c>
+      <c r="F681" t="s">
+        <v>32</v>
+      </c>
+      <c r="G681" t="s">
+        <v>629</v>
+      </c>
+      <c r="H681">
+        <v>5.65</v>
+      </c>
+      <c r="I681">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J681">
+        <v>5.57</v>
+      </c>
+      <c r="K681">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L681">
+        <v>0</v>
+      </c>
+      <c r="M681">
+        <v>0</v>
+      </c>
+      <c r="N681">
+        <v>0</v>
+      </c>
+      <c r="O681">
+        <v>0</v>
+      </c>
+      <c r="P681">
+        <v>4</v>
+      </c>
+      <c r="Q681">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="R681">
+        <v>3.95</v>
+      </c>
+      <c r="S681">
+        <v>13</v>
+      </c>
+      <c r="T681">
+        <v>0</v>
+      </c>
+      <c r="U681">
+        <v>6</v>
+      </c>
+      <c r="V681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>23</v>
+      </c>
+      <c r="B682" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C682" t="s">
+        <v>20</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E682" t="s">
+        <v>35</v>
+      </c>
+      <c r="F682" t="s">
+        <v>34</v>
+      </c>
+      <c r="G682" t="s">
+        <v>535</v>
+      </c>
+      <c r="H682">
+        <v>6.13</v>
+      </c>
+      <c r="I682">
+        <v>0.21</v>
+      </c>
+      <c r="J682">
+        <v>5.91</v>
+      </c>
+      <c r="K682">
+        <v>0.18</v>
+      </c>
+      <c r="L682">
+        <v>0.04</v>
+      </c>
+      <c r="M682">
+        <v>0</v>
+      </c>
+      <c r="N682">
+        <v>0</v>
+      </c>
+      <c r="O682">
+        <v>0</v>
+      </c>
+      <c r="P682">
+        <v>4.5</v>
+      </c>
+      <c r="Q682">
+        <v>23.2</v>
+      </c>
+      <c r="R682">
+        <v>4.84</v>
+      </c>
+      <c r="S682">
+        <v>46</v>
+      </c>
+      <c r="T682">
+        <v>8</v>
+      </c>
+      <c r="U682">
+        <v>19</v>
+      </c>
+      <c r="V682">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="683" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>23</v>
+      </c>
+      <c r="B683" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C683" t="s">
+        <v>20</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E683" t="s">
+        <v>52</v>
+      </c>
+      <c r="F683" t="s">
+        <v>33</v>
+      </c>
+      <c r="G683" t="s">
+        <v>567</v>
+      </c>
+      <c r="H683">
+        <v>6.76</v>
+      </c>
+      <c r="I683">
+        <v>0.42</v>
+      </c>
+      <c r="J683">
+        <v>6.32</v>
+      </c>
+      <c r="K683">
+        <v>0.35</v>
+      </c>
+      <c r="L683">
+        <v>0.08</v>
+      </c>
+      <c r="M683">
+        <v>0</v>
+      </c>
+      <c r="N683">
+        <v>0</v>
+      </c>
+      <c r="O683">
+        <v>0</v>
+      </c>
+      <c r="P683">
+        <v>4.92</v>
+      </c>
+      <c r="Q683">
+        <v>23.42</v>
+      </c>
+      <c r="R683">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S683">
+        <v>41</v>
+      </c>
+      <c r="T683">
+        <v>6</v>
+      </c>
+      <c r="U683">
+        <v>14</v>
+      </c>
+      <c r="V683">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>23</v>
+      </c>
+      <c r="B684" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C684" t="s">
+        <v>20</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E684" t="s">
+        <v>447</v>
+      </c>
+      <c r="F684" t="s">
+        <v>33</v>
+      </c>
+      <c r="G684" t="s">
+        <v>630</v>
+      </c>
+      <c r="H684">
+        <v>6.76</v>
+      </c>
+      <c r="I684">
+        <v>0.27</v>
+      </c>
+      <c r="J684">
+        <v>6.48</v>
+      </c>
+      <c r="K684">
+        <v>0.27</v>
+      </c>
+      <c r="L684">
+        <v>0.01</v>
+      </c>
+      <c r="M684">
+        <v>0</v>
+      </c>
+      <c r="N684">
+        <v>0</v>
+      </c>
+      <c r="O684">
+        <v>0</v>
+      </c>
+      <c r="P684">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q684">
+        <v>23.43</v>
+      </c>
+      <c r="R684">
+        <v>4.51</v>
+      </c>
+      <c r="S684">
+        <v>40</v>
+      </c>
+      <c r="T684">
+        <v>4</v>
+      </c>
+      <c r="U684">
+        <v>32</v>
+      </c>
+      <c r="V684">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>23</v>
+      </c>
+      <c r="B685" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C685" t="s">
+        <v>20</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E685" t="s">
+        <v>52</v>
+      </c>
+      <c r="F685" t="s">
+        <v>33</v>
+      </c>
+      <c r="G685" t="s">
+        <v>631</v>
+      </c>
+      <c r="H685">
+        <v>8.19</v>
+      </c>
+      <c r="I685">
+        <v>1.18</v>
+      </c>
+      <c r="J685">
+        <v>6.99</v>
+      </c>
+      <c r="K685">
+        <v>0.68</v>
+      </c>
+      <c r="L685">
+        <v>0.4</v>
+      </c>
+      <c r="M685">
+        <v>0.12</v>
+      </c>
+      <c r="N685">
+        <v>0</v>
+      </c>
+      <c r="O685">
+        <v>12</v>
+      </c>
+      <c r="P685">
+        <v>4.7</v>
+      </c>
+      <c r="Q685">
+        <v>27.6</v>
+      </c>
+      <c r="R685">
+        <v>4.7</v>
+      </c>
+      <c r="S685">
+        <v>36</v>
+      </c>
+      <c r="T685">
+        <v>9</v>
+      </c>
+      <c r="U685">
+        <v>27</v>
+      </c>
+      <c r="V685">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>23</v>
+      </c>
+      <c r="B686" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C686" t="s">
+        <v>20</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E686" t="s">
+        <v>448</v>
+      </c>
+      <c r="F686" t="s">
+        <v>32</v>
+      </c>
+      <c r="G686" t="s">
+        <v>632</v>
+      </c>
+      <c r="H686">
+        <v>7.78</v>
+      </c>
+      <c r="I686">
+        <v>0.96</v>
+      </c>
+      <c r="J686">
+        <v>6.81</v>
+      </c>
+      <c r="K686">
+        <v>0.62</v>
+      </c>
+      <c r="L686">
+        <v>0.24</v>
+      </c>
+      <c r="M686">
+        <v>0.1</v>
+      </c>
+      <c r="N686">
+        <v>0</v>
+      </c>
+      <c r="O686">
+        <v>7</v>
+      </c>
+      <c r="P686">
+        <v>4.42</v>
+      </c>
+      <c r="Q686">
+        <v>27.66</v>
+      </c>
+      <c r="R686">
+        <v>4.49</v>
+      </c>
+      <c r="S686">
+        <v>12</v>
+      </c>
+      <c r="T686">
+        <v>4</v>
+      </c>
+      <c r="U686">
+        <v>11</v>
+      </c>
+      <c r="V686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>23</v>
+      </c>
+      <c r="B687" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C687" t="s">
+        <v>20</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E687" t="s">
+        <v>39</v>
+      </c>
+      <c r="F687" t="s">
+        <v>29</v>
+      </c>
+      <c r="G687" t="s">
+        <v>633</v>
+      </c>
+      <c r="H687">
+        <v>7.2</v>
+      </c>
+      <c r="I687">
+        <v>0.97</v>
+      </c>
+      <c r="J687">
+        <v>6.22</v>
+      </c>
+      <c r="K687">
+        <v>0.47</v>
+      </c>
+      <c r="L687">
+        <v>0.38</v>
+      </c>
+      <c r="M687">
+        <v>0.13</v>
+      </c>
+      <c r="N687">
+        <v>0</v>
+      </c>
+      <c r="O687">
+        <v>9</v>
+      </c>
+      <c r="P687">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q687">
+        <v>28.72</v>
+      </c>
+      <c r="R687">
+        <v>4.17</v>
+      </c>
+      <c r="S687">
+        <v>44</v>
+      </c>
+      <c r="T687">
+        <v>1</v>
+      </c>
+      <c r="U687">
+        <v>22</v>
+      </c>
+      <c r="V687">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>23</v>
+      </c>
+      <c r="B688" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C688" t="s">
+        <v>20</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E688" t="s">
+        <v>251</v>
+      </c>
+      <c r="F688" t="s">
+        <v>32</v>
+      </c>
+      <c r="G688" t="s">
+        <v>631</v>
+      </c>
+      <c r="H688">
+        <v>8.07</v>
+      </c>
+      <c r="I688">
+        <v>1.26</v>
+      </c>
+      <c r="J688">
+        <v>6.79</v>
+      </c>
+      <c r="K688">
+        <v>0.91</v>
+      </c>
+      <c r="L688">
+        <v>0.33</v>
+      </c>
+      <c r="M688">
+        <v>0.03</v>
+      </c>
+      <c r="N688">
+        <v>0</v>
+      </c>
+      <c r="O688">
+        <v>6</v>
+      </c>
+      <c r="P688">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q688">
+        <v>26.81</v>
+      </c>
+      <c r="R688">
+        <v>4.28</v>
+      </c>
+      <c r="S688">
+        <v>29</v>
+      </c>
+      <c r="T688">
+        <v>3</v>
+      </c>
+      <c r="U688">
+        <v>20</v>
+      </c>
+      <c r="V688">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>23</v>
+      </c>
+      <c r="B689" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C689" t="s">
+        <v>20</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E689" t="s">
+        <v>25</v>
+      </c>
+      <c r="F689" t="s">
+        <v>29</v>
+      </c>
+      <c r="G689" t="s">
+        <v>634</v>
+      </c>
+      <c r="H689">
+        <v>7.47</v>
+      </c>
+      <c r="I689">
+        <v>0.97</v>
+      </c>
+      <c r="J689">
+        <v>6.49</v>
+      </c>
+      <c r="K689">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L689">
+        <v>0.31</v>
+      </c>
+      <c r="M689">
+        <v>0.09</v>
+      </c>
+      <c r="N689">
+        <v>0</v>
+      </c>
+      <c r="O689">
+        <v>7</v>
+      </c>
+      <c r="P689">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q689">
+        <v>27.4</v>
+      </c>
+      <c r="R689">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S689">
+        <v>33</v>
+      </c>
+      <c r="T689">
+        <v>3</v>
+      </c>
+      <c r="U689">
+        <v>30</v>
+      </c>
+      <c r="V689">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>23</v>
+      </c>
+      <c r="B690" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C690" t="s">
+        <v>20</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E690" t="s">
+        <v>16</v>
+      </c>
+      <c r="F690" t="s">
+        <v>30</v>
+      </c>
+      <c r="G690" t="s">
+        <v>635</v>
+      </c>
+      <c r="H690">
+        <v>6.96</v>
+      </c>
+      <c r="I690">
+        <v>1.21</v>
+      </c>
+      <c r="J690">
+        <v>5.73</v>
+      </c>
+      <c r="K690">
+        <v>0.68</v>
+      </c>
+      <c r="L690">
+        <v>0.36</v>
+      </c>
+      <c r="M690">
+        <v>0.18</v>
+      </c>
+      <c r="N690">
+        <v>0</v>
+      </c>
+      <c r="O690">
+        <v>13</v>
+      </c>
+      <c r="P690">
+        <v>3.99</v>
+      </c>
+      <c r="Q690">
+        <v>30.05</v>
+      </c>
+      <c r="R690">
+        <v>4.62</v>
+      </c>
+      <c r="S690">
+        <v>46</v>
+      </c>
+      <c r="T690">
+        <v>10</v>
+      </c>
+      <c r="U690">
+        <v>30</v>
+      </c>
+      <c r="V690">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="691" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>23</v>
+      </c>
+      <c r="B691" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C691" t="s">
+        <v>20</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E691" t="s">
+        <v>53</v>
+      </c>
+      <c r="F691" t="s">
+        <v>32</v>
+      </c>
+      <c r="G691" t="s">
+        <v>636</v>
+      </c>
+      <c r="H691">
+        <v>8.65</v>
+      </c>
+      <c r="I691">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J691">
+        <v>7.49</v>
+      </c>
+      <c r="K691">
+        <v>0.75</v>
+      </c>
+      <c r="L691">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M691">
+        <v>0.11</v>
+      </c>
+      <c r="N691">
+        <v>0.01</v>
+      </c>
+      <c r="O691">
+        <v>7</v>
+      </c>
+      <c r="P691">
+        <v>4.97</v>
+      </c>
+      <c r="Q691">
+        <v>31.28</v>
+      </c>
+      <c r="R691">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S691">
+        <v>41</v>
+      </c>
+      <c r="T691">
+        <v>15</v>
+      </c>
+      <c r="U691">
+        <v>25</v>
+      </c>
+      <c r="V691">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>23</v>
+      </c>
+      <c r="B692" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C692" t="s">
+        <v>20</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E692" t="s">
+        <v>164</v>
+      </c>
+      <c r="F692" t="s">
+        <v>32</v>
+      </c>
+      <c r="G692" t="s">
+        <v>637</v>
+      </c>
+      <c r="H692">
+        <v>8.35</v>
+      </c>
+      <c r="I692">
+        <v>1.19</v>
+      </c>
+      <c r="J692">
+        <v>7.15</v>
+      </c>
+      <c r="K692">
+        <v>0.71</v>
+      </c>
+      <c r="L692">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M692">
+        <v>0.21</v>
+      </c>
+      <c r="N692">
+        <v>0</v>
+      </c>
+      <c r="O692">
+        <v>12</v>
+      </c>
+      <c r="P692">
+        <v>4.74</v>
+      </c>
+      <c r="Q692">
+        <v>29.25</v>
+      </c>
+      <c r="R692">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S692">
+        <v>38</v>
+      </c>
+      <c r="T692">
+        <v>12</v>
+      </c>
+      <c r="U692">
+        <v>32</v>
+      </c>
+      <c r="V692">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="693" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>23</v>
+      </c>
+      <c r="B693" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C693" t="s">
+        <v>20</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E693" t="s">
+        <v>447</v>
+      </c>
+      <c r="F693" t="s">
+        <v>33</v>
+      </c>
+      <c r="G693" t="s">
+        <v>638</v>
+      </c>
+      <c r="H693">
+        <v>8.34</v>
+      </c>
+      <c r="I693">
+        <v>1.37</v>
+      </c>
+      <c r="J693">
+        <v>6.94</v>
+      </c>
+      <c r="K693">
+        <v>0.84</v>
+      </c>
+      <c r="L693">
+        <v>0.35</v>
+      </c>
+      <c r="M693">
+        <v>0.16</v>
+      </c>
+      <c r="N693">
+        <v>0.05</v>
+      </c>
+      <c r="O693">
+        <v>14</v>
+      </c>
+      <c r="P693">
+        <v>4.71</v>
+      </c>
+      <c r="Q693">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="R693">
+        <v>5.19</v>
+      </c>
+      <c r="S693">
+        <v>87</v>
+      </c>
+      <c r="T693">
+        <v>16</v>
+      </c>
+      <c r="U693">
+        <v>61</v>
+      </c>
+      <c r="V693">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="694" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>23</v>
+      </c>
+      <c r="B694" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C694" t="s">
+        <v>20</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E694" t="s">
+        <v>43</v>
+      </c>
+      <c r="F694" t="s">
+        <v>34</v>
+      </c>
+      <c r="G694" t="s">
+        <v>639</v>
+      </c>
+      <c r="H694">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I694">
+        <v>1</v>
+      </c>
+      <c r="J694">
+        <v>3.87</v>
+      </c>
+      <c r="K694">
+        <v>0.66</v>
+      </c>
+      <c r="L694">
+        <v>0.27</v>
+      </c>
+      <c r="M694">
+        <v>0.09</v>
+      </c>
+      <c r="N694">
+        <v>0</v>
+      </c>
+      <c r="O694">
+        <v>5</v>
+      </c>
+      <c r="P694">
+        <v>5.84</v>
+      </c>
+      <c r="Q694">
+        <v>30.15</v>
+      </c>
+      <c r="R694">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S694">
+        <v>36</v>
+      </c>
+      <c r="T694">
+        <v>14</v>
+      </c>
+      <c r="U694">
+        <v>28</v>
+      </c>
+      <c r="V694">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>23</v>
+      </c>
+      <c r="B695" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C695" t="s">
+        <v>20</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E695" t="s">
+        <v>154</v>
+      </c>
+      <c r="F695" t="s">
+        <v>32</v>
+      </c>
+      <c r="G695" t="s">
+        <v>640</v>
+      </c>
+      <c r="H695">
+        <v>7.12</v>
+      </c>
+      <c r="I695">
+        <v>0.82</v>
+      </c>
+      <c r="J695">
+        <v>6.29</v>
+      </c>
+      <c r="K695">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L695">
+        <v>0.22</v>
+      </c>
+      <c r="M695">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N695">
+        <v>0</v>
+      </c>
+      <c r="O695">
+        <v>4</v>
+      </c>
+      <c r="P695">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q695">
+        <v>28.91</v>
+      </c>
+      <c r="R695">
+        <v>4.03</v>
+      </c>
+      <c r="S695">
+        <v>20</v>
+      </c>
+      <c r="T695">
+        <v>1</v>
+      </c>
+      <c r="U695">
+        <v>15</v>
+      </c>
+      <c r="V695">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>23</v>
+      </c>
+      <c r="B696" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C696" t="s">
+        <v>20</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E696" t="s">
+        <v>40</v>
+      </c>
+      <c r="F696" t="s">
+        <v>31</v>
+      </c>
+      <c r="G696" t="s">
+        <v>641</v>
+      </c>
+      <c r="H696">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I696">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J696">
+        <v>6.94</v>
+      </c>
+      <c r="K696">
+        <v>0.61</v>
+      </c>
+      <c r="L696">
+        <v>0.34</v>
+      </c>
+      <c r="M696">
+        <v>0.15</v>
+      </c>
+      <c r="N696">
+        <v>0.01</v>
+      </c>
+      <c r="O696">
+        <v>14</v>
+      </c>
+      <c r="P696">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q696">
+        <v>31.81</v>
+      </c>
+      <c r="R696">
+        <v>5.8</v>
+      </c>
+      <c r="S696">
+        <v>74</v>
+      </c>
+      <c r="T696">
+        <v>23</v>
+      </c>
+      <c r="U696">
+        <v>52</v>
+      </c>
+      <c r="V696">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="697" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>23</v>
+      </c>
+      <c r="B697" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C697" t="s">
+        <v>20</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E697" t="s">
+        <v>35</v>
+      </c>
+      <c r="F697" t="s">
+        <v>34</v>
+      </c>
+      <c r="G697" t="s">
+        <v>642</v>
+      </c>
+      <c r="H697">
+        <v>8.15</v>
+      </c>
+      <c r="I697">
+        <v>1.44</v>
+      </c>
+      <c r="J697">
+        <v>6.69</v>
+      </c>
+      <c r="K697">
+        <v>0.76</v>
+      </c>
+      <c r="L697">
+        <v>0.42</v>
+      </c>
+      <c r="M697">
+        <v>0.27</v>
+      </c>
+      <c r="N697">
+        <v>0</v>
+      </c>
+      <c r="O697">
+        <v>12</v>
+      </c>
+      <c r="P697">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q697">
+        <v>30.11</v>
+      </c>
+      <c r="R697">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S697">
+        <v>54</v>
+      </c>
+      <c r="T697">
+        <v>23</v>
+      </c>
+      <c r="U697">
+        <v>35</v>
+      </c>
+      <c r="V697">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5AC6D-277F-0F43-91DA-751F7689A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF46F55-2F56-2C49-8936-4B969568D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="644">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1965,6 +1965,9 @@
   </si>
   <si>
     <t>01:43:46</t>
+  </si>
+  <si>
+    <t>N3 J5 VS Seyssinet</t>
   </si>
 </sst>
 </file>
@@ -2359,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
   <dimension ref="A1:V697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A662" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C700" sqref="C700"/>
+    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C621" sqref="C621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42899,7 +42902,7 @@
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B614" s="1">
         <v>45934</v>
@@ -42967,7 +42970,7 @@
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B615" s="1">
         <v>45934</v>
@@ -43035,7 +43038,7 @@
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B616" s="1">
         <v>45934</v>
@@ -43103,7 +43106,7 @@
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B617" s="1">
         <v>45934</v>
@@ -43171,7 +43174,7 @@
     </row>
     <row r="618" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B618" s="1">
         <v>45934</v>
@@ -43239,7 +43242,7 @@
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B619" s="1">
         <v>45934</v>
@@ -43307,7 +43310,7 @@
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B620" s="1">
         <v>45934</v>
@@ -43375,7 +43378,7 @@
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B621" s="1">
         <v>45934</v>
@@ -43443,7 +43446,7 @@
     </row>
     <row r="622" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B622" s="1">
         <v>45934</v>
@@ -43511,7 +43514,7 @@
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B623" s="1">
         <v>45934</v>
@@ -43579,7 +43582,7 @@
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B624" s="1">
         <v>45934</v>
@@ -43647,7 +43650,7 @@
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B625" s="1">
         <v>45934</v>
@@ -43715,7 +43718,7 @@
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B626" s="1">
         <v>45934</v>
@@ -43783,7 +43786,7 @@
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>23</v>
+        <v>643</v>
       </c>
       <c r="B627" s="1">
         <v>45934</v>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF46F55-2F56-2C49-8936-4B969568D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872B271-69DB-A341-A273-F5DD8503D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="660">
   <si>
     <t>Temps joué</t>
   </si>
@@ -1968,6 +1968,54 @@
   </si>
   <si>
     <t>N3 J5 VS Seyssinet</t>
+  </si>
+  <si>
+    <t>01:12:43</t>
+  </si>
+  <si>
+    <t>01:11:52</t>
+  </si>
+  <si>
+    <t>01:12:58</t>
+  </si>
+  <si>
+    <t>01:12:35</t>
+  </si>
+  <si>
+    <t>00:18:07</t>
+  </si>
+  <si>
+    <t>00:19:26</t>
+  </si>
+  <si>
+    <t>00:19:10</t>
+  </si>
+  <si>
+    <t>01:42:25</t>
+  </si>
+  <si>
+    <t>01:41:55</t>
+  </si>
+  <si>
+    <t>01:42:47</t>
+  </si>
+  <si>
+    <t>00:15:51</t>
+  </si>
+  <si>
+    <t>00:07:48</t>
+  </si>
+  <si>
+    <t>01:05:38</t>
+  </si>
+  <si>
+    <t>01:34:37</t>
+  </si>
+  <si>
+    <t>00:35:25</t>
+  </si>
+  <si>
+    <t>N3 J6 VS Riviera</t>
   </si>
 </sst>
 </file>
@@ -2360,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V697"/>
+  <dimension ref="A1:V717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C621" sqref="C621"/>
+    <sheetView tabSelected="1" topLeftCell="A692" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D724" sqref="D724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48573,6 +48621,1366 @@
         <v>12</v>
       </c>
     </row>
+    <row r="698" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>23</v>
+      </c>
+      <c r="B698" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C698" t="s">
+        <v>20</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E698" t="s">
+        <v>52</v>
+      </c>
+      <c r="F698" t="s">
+        <v>33</v>
+      </c>
+      <c r="G698" t="s">
+        <v>644</v>
+      </c>
+      <c r="H698">
+        <v>3.37</v>
+      </c>
+      <c r="I698">
+        <v>0.12</v>
+      </c>
+      <c r="J698">
+        <v>3.25</v>
+      </c>
+      <c r="K698">
+        <v>0.09</v>
+      </c>
+      <c r="L698">
+        <v>0.03</v>
+      </c>
+      <c r="M698">
+        <v>0</v>
+      </c>
+      <c r="N698">
+        <v>0</v>
+      </c>
+      <c r="O698">
+        <v>0</v>
+      </c>
+      <c r="P698">
+        <v>2.69</v>
+      </c>
+      <c r="Q698">
+        <v>23.34</v>
+      </c>
+      <c r="R698">
+        <v>5.2</v>
+      </c>
+      <c r="S698">
+        <v>9</v>
+      </c>
+      <c r="T698">
+        <v>8</v>
+      </c>
+      <c r="U698">
+        <v>3</v>
+      </c>
+      <c r="V698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>23</v>
+      </c>
+      <c r="B699" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C699" t="s">
+        <v>20</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E699" t="s">
+        <v>447</v>
+      </c>
+      <c r="F699" t="s">
+        <v>33</v>
+      </c>
+      <c r="G699" t="s">
+        <v>645</v>
+      </c>
+      <c r="H699">
+        <v>3.28</v>
+      </c>
+      <c r="I699">
+        <v>0.04</v>
+      </c>
+      <c r="J699">
+        <v>3.24</v>
+      </c>
+      <c r="K699">
+        <v>0.04</v>
+      </c>
+      <c r="L699">
+        <v>0</v>
+      </c>
+      <c r="M699">
+        <v>0</v>
+      </c>
+      <c r="N699">
+        <v>0</v>
+      </c>
+      <c r="O699">
+        <v>0</v>
+      </c>
+      <c r="P699">
+        <v>2.15</v>
+      </c>
+      <c r="Q699">
+        <v>20.43</v>
+      </c>
+      <c r="R699">
+        <v>4.54</v>
+      </c>
+      <c r="S699">
+        <v>19</v>
+      </c>
+      <c r="T699">
+        <v>1</v>
+      </c>
+      <c r="U699">
+        <v>19</v>
+      </c>
+      <c r="V699">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>23</v>
+      </c>
+      <c r="B700" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C700" t="s">
+        <v>20</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E700" t="s">
+        <v>43</v>
+      </c>
+      <c r="F700" t="s">
+        <v>34</v>
+      </c>
+      <c r="G700" t="s">
+        <v>646</v>
+      </c>
+      <c r="H700">
+        <v>3.31</v>
+      </c>
+      <c r="I700">
+        <v>0.01</v>
+      </c>
+      <c r="J700">
+        <v>3.3</v>
+      </c>
+      <c r="K700">
+        <v>0.01</v>
+      </c>
+      <c r="L700">
+        <v>0</v>
+      </c>
+      <c r="M700">
+        <v>0</v>
+      </c>
+      <c r="N700">
+        <v>0</v>
+      </c>
+      <c r="O700">
+        <v>0</v>
+      </c>
+      <c r="P700">
+        <v>1.94</v>
+      </c>
+      <c r="Q700">
+        <v>17.11</v>
+      </c>
+      <c r="R700">
+        <v>3.54</v>
+      </c>
+      <c r="S700">
+        <v>5</v>
+      </c>
+      <c r="T700">
+        <v>0</v>
+      </c>
+      <c r="U700">
+        <v>2</v>
+      </c>
+      <c r="V700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>23</v>
+      </c>
+      <c r="B701" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C701" t="s">
+        <v>20</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E701" t="s">
+        <v>40</v>
+      </c>
+      <c r="F701" t="s">
+        <v>31</v>
+      </c>
+      <c r="G701" t="s">
+        <v>647</v>
+      </c>
+      <c r="H701">
+        <v>2.86</v>
+      </c>
+      <c r="I701">
+        <v>0.02</v>
+      </c>
+      <c r="J701">
+        <v>2.84</v>
+      </c>
+      <c r="K701">
+        <v>0.02</v>
+      </c>
+      <c r="L701">
+        <v>0</v>
+      </c>
+      <c r="M701">
+        <v>0</v>
+      </c>
+      <c r="N701">
+        <v>0</v>
+      </c>
+      <c r="O701">
+        <v>0</v>
+      </c>
+      <c r="P701">
+        <v>2</v>
+      </c>
+      <c r="Q701">
+        <v>18.66</v>
+      </c>
+      <c r="R701">
+        <v>4.3</v>
+      </c>
+      <c r="S701">
+        <v>17</v>
+      </c>
+      <c r="T701">
+        <v>1</v>
+      </c>
+      <c r="U701">
+        <v>17</v>
+      </c>
+      <c r="V701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>23</v>
+      </c>
+      <c r="B702" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C702" t="s">
+        <v>20</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E702" t="s">
+        <v>40</v>
+      </c>
+      <c r="F702" t="s">
+        <v>31</v>
+      </c>
+      <c r="G702" t="s">
+        <v>648</v>
+      </c>
+      <c r="H702">
+        <v>1.68</v>
+      </c>
+      <c r="I702">
+        <v>0.13</v>
+      </c>
+      <c r="J702">
+        <v>1.54</v>
+      </c>
+      <c r="K702">
+        <v>0.11</v>
+      </c>
+      <c r="L702">
+        <v>0.01</v>
+      </c>
+      <c r="M702">
+        <v>0.01</v>
+      </c>
+      <c r="N702">
+        <v>0</v>
+      </c>
+      <c r="O702">
+        <v>1</v>
+      </c>
+      <c r="P702">
+        <v>5.32</v>
+      </c>
+      <c r="Q702">
+        <v>30.12</v>
+      </c>
+      <c r="R702">
+        <v>5.13</v>
+      </c>
+      <c r="S702">
+        <v>29</v>
+      </c>
+      <c r="T702">
+        <v>4</v>
+      </c>
+      <c r="U702">
+        <v>18</v>
+      </c>
+      <c r="V702">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>23</v>
+      </c>
+      <c r="B703" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C703" t="s">
+        <v>20</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E703" t="s">
+        <v>447</v>
+      </c>
+      <c r="F703" t="s">
+        <v>33</v>
+      </c>
+      <c r="G703" t="s">
+        <v>649</v>
+      </c>
+      <c r="H703">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I703">
+        <v>0.2</v>
+      </c>
+      <c r="J703">
+        <v>1.86</v>
+      </c>
+      <c r="K703">
+        <v>0.15</v>
+      </c>
+      <c r="L703">
+        <v>0.05</v>
+      </c>
+      <c r="M703">
+        <v>0</v>
+      </c>
+      <c r="N703">
+        <v>0</v>
+      </c>
+      <c r="O703">
+        <v>0</v>
+      </c>
+      <c r="P703">
+        <v>6.05</v>
+      </c>
+      <c r="Q703">
+        <v>24.08</v>
+      </c>
+      <c r="R703">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S703">
+        <v>19</v>
+      </c>
+      <c r="T703">
+        <v>4</v>
+      </c>
+      <c r="U703">
+        <v>22</v>
+      </c>
+      <c r="V703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>23</v>
+      </c>
+      <c r="B704" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C704" t="s">
+        <v>20</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E704" t="s">
+        <v>52</v>
+      </c>
+      <c r="F704" t="s">
+        <v>33</v>
+      </c>
+      <c r="G704" t="s">
+        <v>650</v>
+      </c>
+      <c r="H704">
+        <v>1.89</v>
+      </c>
+      <c r="I704">
+        <v>0.19</v>
+      </c>
+      <c r="J704">
+        <v>1.69</v>
+      </c>
+      <c r="K704">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L704">
+        <v>0.05</v>
+      </c>
+      <c r="M704">
+        <v>0</v>
+      </c>
+      <c r="N704">
+        <v>0</v>
+      </c>
+      <c r="O704">
+        <v>1</v>
+      </c>
+      <c r="P704">
+        <v>5.91</v>
+      </c>
+      <c r="Q704">
+        <v>25.52</v>
+      </c>
+      <c r="R704">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S704">
+        <v>9</v>
+      </c>
+      <c r="T704">
+        <v>2</v>
+      </c>
+      <c r="U704">
+        <v>13</v>
+      </c>
+      <c r="V704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>659</v>
+      </c>
+      <c r="B705" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C705" t="s">
+        <v>20</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E705" t="s">
+        <v>25</v>
+      </c>
+      <c r="F705" t="s">
+        <v>29</v>
+      </c>
+      <c r="G705" t="s">
+        <v>651</v>
+      </c>
+      <c r="H705">
+        <v>10.42</v>
+      </c>
+      <c r="I705">
+        <v>1.27</v>
+      </c>
+      <c r="J705">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K705">
+        <v>0.93</v>
+      </c>
+      <c r="L705">
+        <v>0.31</v>
+      </c>
+      <c r="M705">
+        <v>0.05</v>
+      </c>
+      <c r="N705">
+        <v>0</v>
+      </c>
+      <c r="O705">
+        <v>5</v>
+      </c>
+      <c r="P705">
+        <v>6.05</v>
+      </c>
+      <c r="Q705">
+        <v>27.36</v>
+      </c>
+      <c r="R705">
+        <v>4.3</v>
+      </c>
+      <c r="S705">
+        <v>32</v>
+      </c>
+      <c r="T705">
+        <v>3</v>
+      </c>
+      <c r="U705">
+        <v>28</v>
+      </c>
+      <c r="V705">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>659</v>
+      </c>
+      <c r="B706" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C706" t="s">
+        <v>20</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E706" t="s">
+        <v>448</v>
+      </c>
+      <c r="F706" t="s">
+        <v>32</v>
+      </c>
+      <c r="G706" t="s">
+        <v>652</v>
+      </c>
+      <c r="H706">
+        <v>12.42</v>
+      </c>
+      <c r="I706">
+        <v>2.87</v>
+      </c>
+      <c r="J706">
+        <v>9.51</v>
+      </c>
+      <c r="K706">
+        <v>2.31</v>
+      </c>
+      <c r="L706">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M706">
+        <v>0.04</v>
+      </c>
+      <c r="N706">
+        <v>0</v>
+      </c>
+      <c r="O706">
+        <v>3</v>
+      </c>
+      <c r="P706">
+        <v>7.28</v>
+      </c>
+      <c r="Q706">
+        <v>27.85</v>
+      </c>
+      <c r="R706">
+        <v>5.09</v>
+      </c>
+      <c r="S706">
+        <v>32</v>
+      </c>
+      <c r="T706">
+        <v>2</v>
+      </c>
+      <c r="U706">
+        <v>43</v>
+      </c>
+      <c r="V706">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>659</v>
+      </c>
+      <c r="B707" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C707" t="s">
+        <v>20</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E707" t="s">
+        <v>38</v>
+      </c>
+      <c r="F707" t="s">
+        <v>34</v>
+      </c>
+      <c r="G707" t="s">
+        <v>110</v>
+      </c>
+      <c r="H707">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I707">
+        <v>1.61</v>
+      </c>
+      <c r="J707">
+        <v>7.15</v>
+      </c>
+      <c r="K707">
+        <v>0.93</v>
+      </c>
+      <c r="L707">
+        <v>0.45</v>
+      </c>
+      <c r="M707">
+        <v>0.25</v>
+      </c>
+      <c r="N707">
+        <v>0</v>
+      </c>
+      <c r="O707">
+        <v>19</v>
+      </c>
+      <c r="P707">
+        <v>5.98</v>
+      </c>
+      <c r="Q707">
+        <v>29.81</v>
+      </c>
+      <c r="R707">
+        <v>4.25</v>
+      </c>
+      <c r="S707">
+        <v>32</v>
+      </c>
+      <c r="T707">
+        <v>3</v>
+      </c>
+      <c r="U707">
+        <v>27</v>
+      </c>
+      <c r="V707">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>659</v>
+      </c>
+      <c r="B708" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C708" t="s">
+        <v>20</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E708" t="s">
+        <v>447</v>
+      </c>
+      <c r="F708" t="s">
+        <v>33</v>
+      </c>
+      <c r="G708" t="s">
+        <v>653</v>
+      </c>
+      <c r="H708">
+        <v>12.26</v>
+      </c>
+      <c r="I708">
+        <v>2.48</v>
+      </c>
+      <c r="J708">
+        <v>9.75</v>
+      </c>
+      <c r="K708">
+        <v>1.67</v>
+      </c>
+      <c r="L708">
+        <v>0.72</v>
+      </c>
+      <c r="M708">
+        <v>0.12</v>
+      </c>
+      <c r="N708">
+        <v>0</v>
+      </c>
+      <c r="O708">
+        <v>17</v>
+      </c>
+      <c r="P708">
+        <v>6.97</v>
+      </c>
+      <c r="Q708">
+        <v>27.66</v>
+      </c>
+      <c r="R708">
+        <v>5.69</v>
+      </c>
+      <c r="S708">
+        <v>46</v>
+      </c>
+      <c r="T708">
+        <v>6</v>
+      </c>
+      <c r="U708">
+        <v>32</v>
+      </c>
+      <c r="V708">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>659</v>
+      </c>
+      <c r="B709" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C709" t="s">
+        <v>20</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E709" t="s">
+        <v>52</v>
+      </c>
+      <c r="F709" t="s">
+        <v>33</v>
+      </c>
+      <c r="G709" t="s">
+        <v>653</v>
+      </c>
+      <c r="H709">
+        <v>10.9</v>
+      </c>
+      <c r="I709">
+        <v>1.63</v>
+      </c>
+      <c r="J709">
+        <v>9.25</v>
+      </c>
+      <c r="K709">
+        <v>1.2</v>
+      </c>
+      <c r="L709">
+        <v>0.41</v>
+      </c>
+      <c r="M709">
+        <v>0.04</v>
+      </c>
+      <c r="N709">
+        <v>0</v>
+      </c>
+      <c r="O709">
+        <v>3</v>
+      </c>
+      <c r="P709">
+        <v>6.29</v>
+      </c>
+      <c r="Q709">
+        <v>27.15</v>
+      </c>
+      <c r="R709">
+        <v>4.37</v>
+      </c>
+      <c r="S709">
+        <v>25</v>
+      </c>
+      <c r="T709">
+        <v>2</v>
+      </c>
+      <c r="U709">
+        <v>26</v>
+      </c>
+      <c r="V709">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>659</v>
+      </c>
+      <c r="B710" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C710" t="s">
+        <v>20</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E710" t="s">
+        <v>54</v>
+      </c>
+      <c r="F710" t="s">
+        <v>28</v>
+      </c>
+      <c r="G710" t="s">
+        <v>654</v>
+      </c>
+      <c r="H710">
+        <v>1.75</v>
+      </c>
+      <c r="I710">
+        <v>0.38</v>
+      </c>
+      <c r="J710">
+        <v>1.37</v>
+      </c>
+      <c r="K710">
+        <v>0.26</v>
+      </c>
+      <c r="L710">
+        <v>0.1</v>
+      </c>
+      <c r="M710">
+        <v>0.02</v>
+      </c>
+      <c r="N710">
+        <v>0</v>
+      </c>
+      <c r="O710">
+        <v>2</v>
+      </c>
+      <c r="P710">
+        <v>6.62</v>
+      </c>
+      <c r="Q710">
+        <v>27</v>
+      </c>
+      <c r="R710">
+        <v>3.45</v>
+      </c>
+      <c r="S710">
+        <v>5</v>
+      </c>
+      <c r="T710">
+        <v>0</v>
+      </c>
+      <c r="U710">
+        <v>6</v>
+      </c>
+      <c r="V710">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>659</v>
+      </c>
+      <c r="B711" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C711" t="s">
+        <v>20</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E711" t="s">
+        <v>55</v>
+      </c>
+      <c r="F711" t="s">
+        <v>32</v>
+      </c>
+      <c r="G711" t="s">
+        <v>653</v>
+      </c>
+      <c r="H711">
+        <v>10.75</v>
+      </c>
+      <c r="I711">
+        <v>1.55</v>
+      </c>
+      <c r="J711">
+        <v>9.19</v>
+      </c>
+      <c r="K711">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L711">
+        <v>0.43</v>
+      </c>
+      <c r="M711">
+        <v>0.06</v>
+      </c>
+      <c r="N711">
+        <v>0</v>
+      </c>
+      <c r="O711">
+        <v>9</v>
+      </c>
+      <c r="P711">
+        <v>6.17</v>
+      </c>
+      <c r="Q711">
+        <v>28.51</v>
+      </c>
+      <c r="R711">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S711">
+        <v>47</v>
+      </c>
+      <c r="T711">
+        <v>2</v>
+      </c>
+      <c r="U711">
+        <v>30</v>
+      </c>
+      <c r="V711">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="712" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>659</v>
+      </c>
+      <c r="B712" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C712" t="s">
+        <v>20</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E712" t="s">
+        <v>35</v>
+      </c>
+      <c r="F712" t="s">
+        <v>34</v>
+      </c>
+      <c r="G712" t="s">
+        <v>655</v>
+      </c>
+      <c r="H712">
+        <v>1.08</v>
+      </c>
+      <c r="I712">
+        <v>0.32</v>
+      </c>
+      <c r="J712">
+        <v>0.76</v>
+      </c>
+      <c r="K712">
+        <v>0.24</v>
+      </c>
+      <c r="L712">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M712">
+        <v>0.02</v>
+      </c>
+      <c r="N712">
+        <v>0</v>
+      </c>
+      <c r="O712">
+        <v>1</v>
+      </c>
+      <c r="P712">
+        <v>8.32</v>
+      </c>
+      <c r="Q712">
+        <v>27.71</v>
+      </c>
+      <c r="R712">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S712">
+        <v>11</v>
+      </c>
+      <c r="T712">
+        <v>3</v>
+      </c>
+      <c r="U712">
+        <v>4</v>
+      </c>
+      <c r="V712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>659</v>
+      </c>
+      <c r="B713" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C713" t="s">
+        <v>20</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E713" t="s">
+        <v>58</v>
+      </c>
+      <c r="F713" t="s">
+        <v>29</v>
+      </c>
+      <c r="G713" t="s">
+        <v>653</v>
+      </c>
+      <c r="H713">
+        <v>10.3</v>
+      </c>
+      <c r="I713">
+        <v>1.41</v>
+      </c>
+      <c r="J713">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="K713">
+        <v>0.95</v>
+      </c>
+      <c r="L713">
+        <v>0.37</v>
+      </c>
+      <c r="M713">
+        <v>0.11</v>
+      </c>
+      <c r="N713">
+        <v>0</v>
+      </c>
+      <c r="O713">
+        <v>8</v>
+      </c>
+      <c r="P713">
+        <v>5.92</v>
+      </c>
+      <c r="Q713">
+        <v>28.79</v>
+      </c>
+      <c r="R713">
+        <v>4.92</v>
+      </c>
+      <c r="S713">
+        <v>31</v>
+      </c>
+      <c r="T713">
+        <v>5</v>
+      </c>
+      <c r="U713">
+        <v>34</v>
+      </c>
+      <c r="V713">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>659</v>
+      </c>
+      <c r="B714" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C714" t="s">
+        <v>20</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E714" t="s">
+        <v>40</v>
+      </c>
+      <c r="F714" t="s">
+        <v>31</v>
+      </c>
+      <c r="G714" t="s">
+        <v>656</v>
+      </c>
+      <c r="H714">
+        <v>7.28</v>
+      </c>
+      <c r="I714">
+        <v>1.49</v>
+      </c>
+      <c r="J714">
+        <v>5.76</v>
+      </c>
+      <c r="K714">
+        <v>0.92</v>
+      </c>
+      <c r="L714">
+        <v>0.41</v>
+      </c>
+      <c r="M714">
+        <v>0.15</v>
+      </c>
+      <c r="N714">
+        <v>0.04</v>
+      </c>
+      <c r="O714">
+        <v>13</v>
+      </c>
+      <c r="P714">
+        <v>6.61</v>
+      </c>
+      <c r="Q714">
+        <v>32.75</v>
+      </c>
+      <c r="R714">
+        <v>4.53</v>
+      </c>
+      <c r="S714">
+        <v>41</v>
+      </c>
+      <c r="T714">
+        <v>13</v>
+      </c>
+      <c r="U714">
+        <v>26</v>
+      </c>
+      <c r="V714">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="715" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>659</v>
+      </c>
+      <c r="B715" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C715" t="s">
+        <v>20</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E715" t="s">
+        <v>93</v>
+      </c>
+      <c r="F715" t="s">
+        <v>31</v>
+      </c>
+      <c r="G715" t="s">
+        <v>657</v>
+      </c>
+      <c r="H715">
+        <v>8.5</v>
+      </c>
+      <c r="I715">
+        <v>1.57</v>
+      </c>
+      <c r="J715">
+        <v>6.91</v>
+      </c>
+      <c r="K715">
+        <v>0.95</v>
+      </c>
+      <c r="L715">
+        <v>0.44</v>
+      </c>
+      <c r="M715">
+        <v>0.16</v>
+      </c>
+      <c r="N715">
+        <v>0.04</v>
+      </c>
+      <c r="O715">
+        <v>13</v>
+      </c>
+      <c r="P715">
+        <v>5.33</v>
+      </c>
+      <c r="Q715">
+        <v>33.46</v>
+      </c>
+      <c r="R715">
+        <v>4.91</v>
+      </c>
+      <c r="S715">
+        <v>40</v>
+      </c>
+      <c r="T715">
+        <v>11</v>
+      </c>
+      <c r="U715">
+        <v>35</v>
+      </c>
+      <c r="V715">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>659</v>
+      </c>
+      <c r="B716" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C716" t="s">
+        <v>20</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E716" t="s">
+        <v>53</v>
+      </c>
+      <c r="F716" t="s">
+        <v>32</v>
+      </c>
+      <c r="G716" t="s">
+        <v>652</v>
+      </c>
+      <c r="H716">
+        <v>12.39</v>
+      </c>
+      <c r="I716">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J716">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K716">
+        <v>1.87</v>
+      </c>
+      <c r="L716">
+        <v>0.53</v>
+      </c>
+      <c r="M716">
+        <v>0.11</v>
+      </c>
+      <c r="N716">
+        <v>0</v>
+      </c>
+      <c r="O716">
+        <v>11</v>
+      </c>
+      <c r="P716">
+        <v>7.26</v>
+      </c>
+      <c r="Q716">
+        <v>29.24</v>
+      </c>
+      <c r="R716">
+        <v>4.97</v>
+      </c>
+      <c r="S716">
+        <v>65</v>
+      </c>
+      <c r="T716">
+        <v>16</v>
+      </c>
+      <c r="U716">
+        <v>35</v>
+      </c>
+      <c r="V716">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="717" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>659</v>
+      </c>
+      <c r="B717" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C717" t="s">
+        <v>20</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E717" t="s">
+        <v>43</v>
+      </c>
+      <c r="F717" t="s">
+        <v>34</v>
+      </c>
+      <c r="G717" t="s">
+        <v>658</v>
+      </c>
+      <c r="H717">
+        <v>4.42</v>
+      </c>
+      <c r="I717">
+        <v>1.07</v>
+      </c>
+      <c r="J717">
+        <v>3.34</v>
+      </c>
+      <c r="K717">
+        <v>0.71</v>
+      </c>
+      <c r="L717">
+        <v>0.26</v>
+      </c>
+      <c r="M717">
+        <v>0.1</v>
+      </c>
+      <c r="N717">
+        <v>0.01</v>
+      </c>
+      <c r="O717">
+        <v>7</v>
+      </c>
+      <c r="P717">
+        <v>7.44</v>
+      </c>
+      <c r="Q717">
+        <v>30.62</v>
+      </c>
+      <c r="R717">
+        <v>4.21</v>
+      </c>
+      <c r="S717">
+        <v>26</v>
+      </c>
+      <c r="T717">
+        <v>3</v>
+      </c>
+      <c r="U717">
+        <v>22</v>
+      </c>
+      <c r="V717">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872B271-69DB-A341-A273-F5DD8503D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895405E-CEEB-5942-8140-9ED74C80D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="669">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2016,6 +2016,33 @@
   </si>
   <si>
     <t>N3 J6 VS Riviera</t>
+  </si>
+  <si>
+    <t>00:54:45</t>
+  </si>
+  <si>
+    <t>01:28:58</t>
+  </si>
+  <si>
+    <t>01:05:29</t>
+  </si>
+  <si>
+    <t>01:30:12</t>
+  </si>
+  <si>
+    <t>01:29:23</t>
+  </si>
+  <si>
+    <t>01:09:22</t>
+  </si>
+  <si>
+    <t>01:30:29</t>
+  </si>
+  <si>
+    <t>01:30:05</t>
+  </si>
+  <si>
+    <t>01:26:20</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V717"/>
+  <dimension ref="A1:V728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A692" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D724" sqref="D724"/>
+      <selection activeCell="D731" sqref="D731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49981,6 +50008,754 @@
         <v>5</v>
       </c>
     </row>
+    <row r="718" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>23</v>
+      </c>
+      <c r="B718" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C718" t="s">
+        <v>20</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E718" t="s">
+        <v>39</v>
+      </c>
+      <c r="F718" t="s">
+        <v>29</v>
+      </c>
+      <c r="G718" t="s">
+        <v>660</v>
+      </c>
+      <c r="H718">
+        <v>3.91</v>
+      </c>
+      <c r="I718">
+        <v>0.02</v>
+      </c>
+      <c r="J718">
+        <v>3.88</v>
+      </c>
+      <c r="K718">
+        <v>0.03</v>
+      </c>
+      <c r="L718">
+        <v>0</v>
+      </c>
+      <c r="M718">
+        <v>0</v>
+      </c>
+      <c r="N718">
+        <v>0</v>
+      </c>
+      <c r="O718">
+        <v>0</v>
+      </c>
+      <c r="P718">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q718">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="R718">
+        <v>4.22</v>
+      </c>
+      <c r="S718">
+        <v>8</v>
+      </c>
+      <c r="T718">
+        <v>1</v>
+      </c>
+      <c r="U718">
+        <v>7</v>
+      </c>
+      <c r="V718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>23</v>
+      </c>
+      <c r="B719" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C719" t="s">
+        <v>20</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E719" t="s">
+        <v>36</v>
+      </c>
+      <c r="F719" t="s">
+        <v>30</v>
+      </c>
+      <c r="G719" t="s">
+        <v>661</v>
+      </c>
+      <c r="H719">
+        <v>5.97</v>
+      </c>
+      <c r="I719">
+        <v>0.16</v>
+      </c>
+      <c r="J719">
+        <v>5.8</v>
+      </c>
+      <c r="K719">
+        <v>0.16</v>
+      </c>
+      <c r="L719">
+        <v>0.01</v>
+      </c>
+      <c r="M719">
+        <v>0</v>
+      </c>
+      <c r="N719">
+        <v>0</v>
+      </c>
+      <c r="O719">
+        <v>0</v>
+      </c>
+      <c r="P719">
+        <v>3.92</v>
+      </c>
+      <c r="Q719">
+        <v>21.73</v>
+      </c>
+      <c r="R719">
+        <v>4</v>
+      </c>
+      <c r="S719">
+        <v>21</v>
+      </c>
+      <c r="T719">
+        <v>0</v>
+      </c>
+      <c r="U719">
+        <v>26</v>
+      </c>
+      <c r="V719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>23</v>
+      </c>
+      <c r="B720" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C720" t="s">
+        <v>20</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E720" t="s">
+        <v>40</v>
+      </c>
+      <c r="F720" t="s">
+        <v>31</v>
+      </c>
+      <c r="G720" t="s">
+        <v>662</v>
+      </c>
+      <c r="H720">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I720">
+        <v>0.08</v>
+      </c>
+      <c r="J720">
+        <v>4.07</v>
+      </c>
+      <c r="K720">
+        <v>0.08</v>
+      </c>
+      <c r="L720">
+        <v>0</v>
+      </c>
+      <c r="M720">
+        <v>0</v>
+      </c>
+      <c r="N720">
+        <v>0</v>
+      </c>
+      <c r="O720">
+        <v>0</v>
+      </c>
+      <c r="P720">
+        <v>3.1</v>
+      </c>
+      <c r="Q720">
+        <v>20.51</v>
+      </c>
+      <c r="R720">
+        <v>5.56</v>
+      </c>
+      <c r="S720">
+        <v>19</v>
+      </c>
+      <c r="T720">
+        <v>3</v>
+      </c>
+      <c r="U720">
+        <v>14</v>
+      </c>
+      <c r="V720">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>23</v>
+      </c>
+      <c r="B721" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C721" t="s">
+        <v>20</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E721" t="s">
+        <v>164</v>
+      </c>
+      <c r="F721" t="s">
+        <v>32</v>
+      </c>
+      <c r="G721" t="s">
+        <v>663</v>
+      </c>
+      <c r="H721">
+        <v>6.64</v>
+      </c>
+      <c r="I721">
+        <v>0.24</v>
+      </c>
+      <c r="J721">
+        <v>6.39</v>
+      </c>
+      <c r="K721">
+        <v>0.23</v>
+      </c>
+      <c r="L721">
+        <v>0.02</v>
+      </c>
+      <c r="M721">
+        <v>0</v>
+      </c>
+      <c r="N721">
+        <v>0</v>
+      </c>
+      <c r="O721">
+        <v>0</v>
+      </c>
+      <c r="P721">
+        <v>4.33</v>
+      </c>
+      <c r="Q721">
+        <v>21.76</v>
+      </c>
+      <c r="R721">
+        <v>4.8</v>
+      </c>
+      <c r="S721">
+        <v>29</v>
+      </c>
+      <c r="T721">
+        <v>3</v>
+      </c>
+      <c r="U721">
+        <v>28</v>
+      </c>
+      <c r="V721">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>23</v>
+      </c>
+      <c r="B722" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C722" t="s">
+        <v>20</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E722" t="s">
+        <v>25</v>
+      </c>
+      <c r="F722" t="s">
+        <v>29</v>
+      </c>
+      <c r="G722" t="s">
+        <v>664</v>
+      </c>
+      <c r="H722">
+        <v>5.99</v>
+      </c>
+      <c r="I722">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J722">
+        <v>5.85</v>
+      </c>
+      <c r="K722">
+        <v>0.12</v>
+      </c>
+      <c r="L722">
+        <v>0.03</v>
+      </c>
+      <c r="M722">
+        <v>0</v>
+      </c>
+      <c r="N722">
+        <v>0</v>
+      </c>
+      <c r="O722">
+        <v>0</v>
+      </c>
+      <c r="P722">
+        <v>3.93</v>
+      </c>
+      <c r="Q722">
+        <v>24.08</v>
+      </c>
+      <c r="R722">
+        <v>3.98</v>
+      </c>
+      <c r="S722">
+        <v>30</v>
+      </c>
+      <c r="T722">
+        <v>0</v>
+      </c>
+      <c r="U722">
+        <v>17</v>
+      </c>
+      <c r="V722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>23</v>
+      </c>
+      <c r="B723" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C723" t="s">
+        <v>20</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E723" t="s">
+        <v>43</v>
+      </c>
+      <c r="F723" t="s">
+        <v>34</v>
+      </c>
+      <c r="G723" t="s">
+        <v>400</v>
+      </c>
+      <c r="H723">
+        <v>6.33</v>
+      </c>
+      <c r="I723">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J723">
+        <v>6.26</v>
+      </c>
+      <c r="K723">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L723">
+        <v>0</v>
+      </c>
+      <c r="M723">
+        <v>0</v>
+      </c>
+      <c r="N723">
+        <v>0</v>
+      </c>
+      <c r="O723">
+        <v>0</v>
+      </c>
+      <c r="P723">
+        <v>3.56</v>
+      </c>
+      <c r="Q723">
+        <v>21.33</v>
+      </c>
+      <c r="R723">
+        <v>5.14</v>
+      </c>
+      <c r="S723">
+        <v>27</v>
+      </c>
+      <c r="T723">
+        <v>4</v>
+      </c>
+      <c r="U723">
+        <v>23</v>
+      </c>
+      <c r="V723">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>23</v>
+      </c>
+      <c r="B724" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C724" t="s">
+        <v>20</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E724" t="s">
+        <v>16</v>
+      </c>
+      <c r="F724" t="s">
+        <v>30</v>
+      </c>
+      <c r="G724" t="s">
+        <v>146</v>
+      </c>
+      <c r="H724">
+        <v>6.01</v>
+      </c>
+      <c r="I724">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J724">
+        <v>5.87</v>
+      </c>
+      <c r="K724">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L724">
+        <v>0</v>
+      </c>
+      <c r="M724">
+        <v>0</v>
+      </c>
+      <c r="N724">
+        <v>0</v>
+      </c>
+      <c r="O724">
+        <v>0</v>
+      </c>
+      <c r="P724">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="Q724">
+        <v>22.06</v>
+      </c>
+      <c r="R724">
+        <v>4.71</v>
+      </c>
+      <c r="S724">
+        <v>33</v>
+      </c>
+      <c r="T724">
+        <v>3</v>
+      </c>
+      <c r="U724">
+        <v>24</v>
+      </c>
+      <c r="V724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>23</v>
+      </c>
+      <c r="B725" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C725" t="s">
+        <v>20</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E725" t="s">
+        <v>447</v>
+      </c>
+      <c r="F725" t="s">
+        <v>33</v>
+      </c>
+      <c r="G725" t="s">
+        <v>665</v>
+      </c>
+      <c r="H725">
+        <v>5.38</v>
+      </c>
+      <c r="I725">
+        <v>0.12</v>
+      </c>
+      <c r="J725">
+        <v>5.26</v>
+      </c>
+      <c r="K725">
+        <v>0.12</v>
+      </c>
+      <c r="L725">
+        <v>0.01</v>
+      </c>
+      <c r="M725">
+        <v>0</v>
+      </c>
+      <c r="N725">
+        <v>0</v>
+      </c>
+      <c r="O725">
+        <v>0</v>
+      </c>
+      <c r="P725">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q725">
+        <v>20.83</v>
+      </c>
+      <c r="R725">
+        <v>4.45</v>
+      </c>
+      <c r="S725">
+        <v>27</v>
+      </c>
+      <c r="T725">
+        <v>4</v>
+      </c>
+      <c r="U725">
+        <v>23</v>
+      </c>
+      <c r="V725">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>23</v>
+      </c>
+      <c r="B726" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C726" t="s">
+        <v>20</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E726" t="s">
+        <v>448</v>
+      </c>
+      <c r="F726" t="s">
+        <v>32</v>
+      </c>
+      <c r="G726" t="s">
+        <v>666</v>
+      </c>
+      <c r="H726">
+        <v>6.21</v>
+      </c>
+      <c r="I726">
+        <v>0.09</v>
+      </c>
+      <c r="J726">
+        <v>6.13</v>
+      </c>
+      <c r="K726">
+        <v>0.09</v>
+      </c>
+      <c r="L726">
+        <v>0</v>
+      </c>
+      <c r="M726">
+        <v>0</v>
+      </c>
+      <c r="N726">
+        <v>0</v>
+      </c>
+      <c r="O726">
+        <v>0</v>
+      </c>
+      <c r="P726">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q726">
+        <v>18.91</v>
+      </c>
+      <c r="R726">
+        <v>3.39</v>
+      </c>
+      <c r="S726">
+        <v>4</v>
+      </c>
+      <c r="T726">
+        <v>0</v>
+      </c>
+      <c r="U726">
+        <v>10</v>
+      </c>
+      <c r="V726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>23</v>
+      </c>
+      <c r="B727" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C727" t="s">
+        <v>20</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E727" t="s">
+        <v>52</v>
+      </c>
+      <c r="F727" t="s">
+        <v>33</v>
+      </c>
+      <c r="G727" t="s">
+        <v>667</v>
+      </c>
+      <c r="H727">
+        <v>6.61</v>
+      </c>
+      <c r="I727">
+        <v>0.26</v>
+      </c>
+      <c r="J727">
+        <v>6.34</v>
+      </c>
+      <c r="K727">
+        <v>0.27</v>
+      </c>
+      <c r="L727">
+        <v>0.01</v>
+      </c>
+      <c r="M727">
+        <v>0</v>
+      </c>
+      <c r="N727">
+        <v>0</v>
+      </c>
+      <c r="O727">
+        <v>0</v>
+      </c>
+      <c r="P727">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q727">
+        <v>21.12</v>
+      </c>
+      <c r="R727">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S727">
+        <v>40</v>
+      </c>
+      <c r="T727">
+        <v>1</v>
+      </c>
+      <c r="U727">
+        <v>43</v>
+      </c>
+      <c r="V727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>23</v>
+      </c>
+      <c r="B728" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C728" t="s">
+        <v>20</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E728" t="s">
+        <v>53</v>
+      </c>
+      <c r="F728" t="s">
+        <v>32</v>
+      </c>
+      <c r="G728" t="s">
+        <v>668</v>
+      </c>
+      <c r="H728">
+        <v>6.86</v>
+      </c>
+      <c r="I728">
+        <v>0.17</v>
+      </c>
+      <c r="J728">
+        <v>6.69</v>
+      </c>
+      <c r="K728">
+        <v>0.16</v>
+      </c>
+      <c r="L728">
+        <v>0.01</v>
+      </c>
+      <c r="M728">
+        <v>0</v>
+      </c>
+      <c r="N728">
+        <v>0</v>
+      </c>
+      <c r="O728">
+        <v>0</v>
+      </c>
+      <c r="P728">
+        <v>4.66</v>
+      </c>
+      <c r="Q728">
+        <v>21.18</v>
+      </c>
+      <c r="R728">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S728">
+        <v>21</v>
+      </c>
+      <c r="T728">
+        <v>5</v>
+      </c>
+      <c r="U728">
+        <v>35</v>
+      </c>
+      <c r="V728">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895405E-CEEB-5942-8140-9ED74C80D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980683C-D4F3-F84D-B767-18B47F5CA905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="677">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2043,6 +2043,30 @@
   </si>
   <si>
     <t>01:26:20</t>
+  </si>
+  <si>
+    <t>01:28:40</t>
+  </si>
+  <si>
+    <t>01:29:37</t>
+  </si>
+  <si>
+    <t>01:08:16</t>
+  </si>
+  <si>
+    <t>01:32:03</t>
+  </si>
+  <si>
+    <t>01:30:50</t>
+  </si>
+  <si>
+    <t>01:28:31</t>
+  </si>
+  <si>
+    <t>01:30:57</t>
+  </si>
+  <si>
+    <t>01:30:18</t>
   </si>
 </sst>
 </file>
@@ -2435,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V728"/>
+  <dimension ref="A1:V738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D731" sqref="D731"/>
+    <sheetView tabSelected="1" topLeftCell="A718" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C745" sqref="C745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50756,6 +50780,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="729" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>23</v>
+      </c>
+      <c r="B729" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C729" t="s">
+        <v>20</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E729" t="s">
+        <v>25</v>
+      </c>
+      <c r="F729" t="s">
+        <v>29</v>
+      </c>
+      <c r="G729" t="s">
+        <v>669</v>
+      </c>
+      <c r="H729">
+        <v>5.94</v>
+      </c>
+      <c r="I729">
+        <v>0.17</v>
+      </c>
+      <c r="J729">
+        <v>5.76</v>
+      </c>
+      <c r="K729">
+        <v>0.15</v>
+      </c>
+      <c r="L729">
+        <v>0.03</v>
+      </c>
+      <c r="M729">
+        <v>0</v>
+      </c>
+      <c r="N729">
+        <v>0</v>
+      </c>
+      <c r="O729">
+        <v>0</v>
+      </c>
+      <c r="P729">
+        <v>3.97</v>
+      </c>
+      <c r="Q729">
+        <v>22.56</v>
+      </c>
+      <c r="R729">
+        <v>4.88</v>
+      </c>
+      <c r="S729">
+        <v>22</v>
+      </c>
+      <c r="T729">
+        <v>4</v>
+      </c>
+      <c r="U729">
+        <v>18</v>
+      </c>
+      <c r="V729">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="730" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>23</v>
+      </c>
+      <c r="B730" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C730" t="s">
+        <v>20</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E730" t="s">
+        <v>251</v>
+      </c>
+      <c r="F730" t="s">
+        <v>32</v>
+      </c>
+      <c r="G730" t="s">
+        <v>670</v>
+      </c>
+      <c r="H730">
+        <v>5.96</v>
+      </c>
+      <c r="I730">
+        <v>0.18</v>
+      </c>
+      <c r="J730">
+        <v>5.77</v>
+      </c>
+      <c r="K730">
+        <v>0.16</v>
+      </c>
+      <c r="L730">
+        <v>0.02</v>
+      </c>
+      <c r="M730">
+        <v>0</v>
+      </c>
+      <c r="N730">
+        <v>0</v>
+      </c>
+      <c r="O730">
+        <v>0</v>
+      </c>
+      <c r="P730">
+        <v>3.94</v>
+      </c>
+      <c r="Q730">
+        <v>22.64</v>
+      </c>
+      <c r="R730">
+        <v>3.97</v>
+      </c>
+      <c r="S730">
+        <v>27</v>
+      </c>
+      <c r="T730">
+        <v>0</v>
+      </c>
+      <c r="U730">
+        <v>17</v>
+      </c>
+      <c r="V730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>23</v>
+      </c>
+      <c r="B731" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C731" t="s">
+        <v>20</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E731" t="s">
+        <v>55</v>
+      </c>
+      <c r="F731" t="s">
+        <v>32</v>
+      </c>
+      <c r="G731" t="s">
+        <v>671</v>
+      </c>
+      <c r="H731">
+        <v>4.51</v>
+      </c>
+      <c r="I731">
+        <v>0.36</v>
+      </c>
+      <c r="J731">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K731">
+        <v>0.25</v>
+      </c>
+      <c r="L731">
+        <v>0.1</v>
+      </c>
+      <c r="M731">
+        <v>0.02</v>
+      </c>
+      <c r="N731">
+        <v>0</v>
+      </c>
+      <c r="O731">
+        <v>2</v>
+      </c>
+      <c r="P731">
+        <v>3.56</v>
+      </c>
+      <c r="Q731">
+        <v>28.99</v>
+      </c>
+      <c r="R731">
+        <v>6.25</v>
+      </c>
+      <c r="S731">
+        <v>62</v>
+      </c>
+      <c r="T731">
+        <v>27</v>
+      </c>
+      <c r="U731">
+        <v>49</v>
+      </c>
+      <c r="V731">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="732" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>23</v>
+      </c>
+      <c r="B732" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C732" t="s">
+        <v>20</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E732" t="s">
+        <v>448</v>
+      </c>
+      <c r="F732" t="s">
+        <v>32</v>
+      </c>
+      <c r="G732" t="s">
+        <v>672</v>
+      </c>
+      <c r="H732">
+        <v>6.69</v>
+      </c>
+      <c r="I732">
+        <v>0.23</v>
+      </c>
+      <c r="J732">
+        <v>6.46</v>
+      </c>
+      <c r="K732">
+        <v>0.17</v>
+      </c>
+      <c r="L732">
+        <v>0.05</v>
+      </c>
+      <c r="M732">
+        <v>0.01</v>
+      </c>
+      <c r="N732">
+        <v>0</v>
+      </c>
+      <c r="O732">
+        <v>2</v>
+      </c>
+      <c r="P732">
+        <v>4.29</v>
+      </c>
+      <c r="Q732">
+        <v>25.67</v>
+      </c>
+      <c r="R732">
+        <v>4.33</v>
+      </c>
+      <c r="S732">
+        <v>17</v>
+      </c>
+      <c r="T732">
+        <v>1</v>
+      </c>
+      <c r="U732">
+        <v>14</v>
+      </c>
+      <c r="V732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>23</v>
+      </c>
+      <c r="B733" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C733" t="s">
+        <v>20</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E733" t="s">
+        <v>52</v>
+      </c>
+      <c r="F733" t="s">
+        <v>33</v>
+      </c>
+      <c r="G733" t="s">
+        <v>673</v>
+      </c>
+      <c r="H733">
+        <v>5.86</v>
+      </c>
+      <c r="I733">
+        <v>0.41</v>
+      </c>
+      <c r="J733">
+        <v>5.44</v>
+      </c>
+      <c r="K733">
+        <v>0.36</v>
+      </c>
+      <c r="L733">
+        <v>0.06</v>
+      </c>
+      <c r="M733">
+        <v>0</v>
+      </c>
+      <c r="N733">
+        <v>0</v>
+      </c>
+      <c r="O733">
+        <v>0</v>
+      </c>
+      <c r="P733">
+        <v>3.78</v>
+      </c>
+      <c r="Q733">
+        <v>23.62</v>
+      </c>
+      <c r="R733">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S733">
+        <v>36</v>
+      </c>
+      <c r="T733">
+        <v>6</v>
+      </c>
+      <c r="U733">
+        <v>31</v>
+      </c>
+      <c r="V733">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>23</v>
+      </c>
+      <c r="B734" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C734" t="s">
+        <v>20</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E734" t="s">
+        <v>54</v>
+      </c>
+      <c r="F734" t="s">
+        <v>28</v>
+      </c>
+      <c r="G734" t="s">
+        <v>674</v>
+      </c>
+      <c r="H734">
+        <v>5.72</v>
+      </c>
+      <c r="I734">
+        <v>0.24</v>
+      </c>
+      <c r="J734">
+        <v>5.47</v>
+      </c>
+      <c r="K734">
+        <v>0.18</v>
+      </c>
+      <c r="L734">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M734">
+        <v>0</v>
+      </c>
+      <c r="N734">
+        <v>0</v>
+      </c>
+      <c r="O734">
+        <v>1</v>
+      </c>
+      <c r="P734">
+        <v>3.47</v>
+      </c>
+      <c r="Q734">
+        <v>25.7</v>
+      </c>
+      <c r="R734">
+        <v>5.57</v>
+      </c>
+      <c r="S734">
+        <v>69</v>
+      </c>
+      <c r="T734">
+        <v>23</v>
+      </c>
+      <c r="U734">
+        <v>65</v>
+      </c>
+      <c r="V734">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="735" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>23</v>
+      </c>
+      <c r="B735" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C735" t="s">
+        <v>20</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E735" t="s">
+        <v>164</v>
+      </c>
+      <c r="F735" t="s">
+        <v>32</v>
+      </c>
+      <c r="G735" t="s">
+        <v>675</v>
+      </c>
+      <c r="H735">
+        <v>6.24</v>
+      </c>
+      <c r="I735">
+        <v>0.31</v>
+      </c>
+      <c r="J735">
+        <v>5.91</v>
+      </c>
+      <c r="K735">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L735">
+        <v>0.04</v>
+      </c>
+      <c r="M735">
+        <v>0</v>
+      </c>
+      <c r="N735">
+        <v>0</v>
+      </c>
+      <c r="O735">
+        <v>0</v>
+      </c>
+      <c r="P735">
+        <v>4.03</v>
+      </c>
+      <c r="Q735">
+        <v>23.87</v>
+      </c>
+      <c r="R735">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S735">
+        <v>38</v>
+      </c>
+      <c r="T735">
+        <v>6</v>
+      </c>
+      <c r="U735">
+        <v>29</v>
+      </c>
+      <c r="V735">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>23</v>
+      </c>
+      <c r="B736" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C736" t="s">
+        <v>20</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E736" t="s">
+        <v>447</v>
+      </c>
+      <c r="F736" t="s">
+        <v>33</v>
+      </c>
+      <c r="G736" t="s">
+        <v>445</v>
+      </c>
+      <c r="H736">
+        <v>6.35</v>
+      </c>
+      <c r="I736">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J736">
+        <v>6.06</v>
+      </c>
+      <c r="K736">
+        <v>0.25</v>
+      </c>
+      <c r="L736">
+        <v>0.04</v>
+      </c>
+      <c r="M736">
+        <v>0</v>
+      </c>
+      <c r="N736">
+        <v>0</v>
+      </c>
+      <c r="O736">
+        <v>1</v>
+      </c>
+      <c r="P736">
+        <v>3.54</v>
+      </c>
+      <c r="Q736">
+        <v>26.68</v>
+      </c>
+      <c r="R736">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S736">
+        <v>56</v>
+      </c>
+      <c r="T736">
+        <v>8</v>
+      </c>
+      <c r="U736">
+        <v>52</v>
+      </c>
+      <c r="V736">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="737" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>23</v>
+      </c>
+      <c r="B737" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C737" t="s">
+        <v>20</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E737" t="s">
+        <v>43</v>
+      </c>
+      <c r="F737" t="s">
+        <v>34</v>
+      </c>
+      <c r="G737" t="s">
+        <v>676</v>
+      </c>
+      <c r="H737">
+        <v>7.79</v>
+      </c>
+      <c r="I737">
+        <v>0.34</v>
+      </c>
+      <c r="J737">
+        <v>7.43</v>
+      </c>
+      <c r="K737">
+        <v>0.3</v>
+      </c>
+      <c r="L737">
+        <v>0.05</v>
+      </c>
+      <c r="M737">
+        <v>0</v>
+      </c>
+      <c r="N737">
+        <v>0</v>
+      </c>
+      <c r="O737">
+        <v>0</v>
+      </c>
+      <c r="P737">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q737">
+        <v>24.16</v>
+      </c>
+      <c r="R737">
+        <v>6.32</v>
+      </c>
+      <c r="S737">
+        <v>53</v>
+      </c>
+      <c r="T737">
+        <v>18</v>
+      </c>
+      <c r="U737">
+        <v>47</v>
+      </c>
+      <c r="V737">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>23</v>
+      </c>
+      <c r="B738" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C738" t="s">
+        <v>20</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E738" t="s">
+        <v>40</v>
+      </c>
+      <c r="F738" t="s">
+        <v>31</v>
+      </c>
+      <c r="G738" t="s">
+        <v>670</v>
+      </c>
+      <c r="H738">
+        <v>6.26</v>
+      </c>
+      <c r="I738">
+        <v>0.33</v>
+      </c>
+      <c r="J738">
+        <v>5.91</v>
+      </c>
+      <c r="K738">
+        <v>0.27</v>
+      </c>
+      <c r="L738">
+        <v>0.08</v>
+      </c>
+      <c r="M738">
+        <v>0</v>
+      </c>
+      <c r="N738">
+        <v>0</v>
+      </c>
+      <c r="O738">
+        <v>0</v>
+      </c>
+      <c r="P738">
+        <v>3.78</v>
+      </c>
+      <c r="Q738">
+        <v>24.42</v>
+      </c>
+      <c r="R738">
+        <v>5.47</v>
+      </c>
+      <c r="S738">
+        <v>72</v>
+      </c>
+      <c r="T738">
+        <v>20</v>
+      </c>
+      <c r="U738">
+        <v>63</v>
+      </c>
+      <c r="V738">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980683C-D4F3-F84D-B767-18B47F5CA905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D4937-91F2-A24D-9B87-5243418E1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="680">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2067,6 +2067,15 @@
   </si>
   <si>
     <t>01:30:18</t>
+  </si>
+  <si>
+    <t>01:18:35</t>
+  </si>
+  <si>
+    <t>01:16:15</t>
+  </si>
+  <si>
+    <t>01:16:32</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V738"/>
+  <dimension ref="A1:V743"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A718" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C745" sqref="C745"/>
+      <selection activeCell="D752" sqref="D752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51460,6 +51469,346 @@
         <v>16</v>
       </c>
     </row>
+    <row r="739" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>23</v>
+      </c>
+      <c r="B739" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C739" t="s">
+        <v>20</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E739" t="s">
+        <v>40</v>
+      </c>
+      <c r="F739" t="s">
+        <v>31</v>
+      </c>
+      <c r="G739" t="s">
+        <v>677</v>
+      </c>
+      <c r="H739">
+        <v>5.45</v>
+      </c>
+      <c r="I739">
+        <v>0.33</v>
+      </c>
+      <c r="J739">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K739">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L739">
+        <v>0.06</v>
+      </c>
+      <c r="M739">
+        <v>0.01</v>
+      </c>
+      <c r="N739">
+        <v>0</v>
+      </c>
+      <c r="O739">
+        <v>1</v>
+      </c>
+      <c r="P739">
+        <v>3.89</v>
+      </c>
+      <c r="Q739">
+        <v>27.74</v>
+      </c>
+      <c r="R739">
+        <v>5.8</v>
+      </c>
+      <c r="S739">
+        <v>43</v>
+      </c>
+      <c r="T739">
+        <v>22</v>
+      </c>
+      <c r="U739">
+        <v>34</v>
+      </c>
+      <c r="V739">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="740" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>23</v>
+      </c>
+      <c r="B740" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C740" t="s">
+        <v>20</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E740" t="s">
+        <v>16</v>
+      </c>
+      <c r="F740" t="s">
+        <v>30</v>
+      </c>
+      <c r="G740" t="s">
+        <v>678</v>
+      </c>
+      <c r="H740">
+        <v>5.25</v>
+      </c>
+      <c r="I740">
+        <v>0.32</v>
+      </c>
+      <c r="J740">
+        <v>4.93</v>
+      </c>
+      <c r="K740">
+        <v>0.25</v>
+      </c>
+      <c r="L740">
+        <v>0.08</v>
+      </c>
+      <c r="M740">
+        <v>0</v>
+      </c>
+      <c r="N740">
+        <v>0</v>
+      </c>
+      <c r="O740">
+        <v>0</v>
+      </c>
+      <c r="P740">
+        <v>4.03</v>
+      </c>
+      <c r="Q740">
+        <v>24.96</v>
+      </c>
+      <c r="R740">
+        <v>5.16</v>
+      </c>
+      <c r="S740">
+        <v>31</v>
+      </c>
+      <c r="T740">
+        <v>8</v>
+      </c>
+      <c r="U740">
+        <v>25</v>
+      </c>
+      <c r="V740">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>23</v>
+      </c>
+      <c r="B741" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C741" t="s">
+        <v>20</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E741" t="s">
+        <v>52</v>
+      </c>
+      <c r="F741" t="s">
+        <v>33</v>
+      </c>
+      <c r="G741" t="s">
+        <v>87</v>
+      </c>
+      <c r="H741">
+        <v>5.76</v>
+      </c>
+      <c r="I741">
+        <v>0.5</v>
+      </c>
+      <c r="J741">
+        <v>5.25</v>
+      </c>
+      <c r="K741">
+        <v>0.34</v>
+      </c>
+      <c r="L741">
+        <v>0.13</v>
+      </c>
+      <c r="M741">
+        <v>0.04</v>
+      </c>
+      <c r="N741">
+        <v>0</v>
+      </c>
+      <c r="O741">
+        <v>3</v>
+      </c>
+      <c r="P741">
+        <v>4.59</v>
+      </c>
+      <c r="Q741">
+        <v>29.05</v>
+      </c>
+      <c r="R741">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S741">
+        <v>36</v>
+      </c>
+      <c r="T741">
+        <v>12</v>
+      </c>
+      <c r="U741">
+        <v>21</v>
+      </c>
+      <c r="V741">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>23</v>
+      </c>
+      <c r="B742" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C742" t="s">
+        <v>20</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E742" t="s">
+        <v>43</v>
+      </c>
+      <c r="F742" t="s">
+        <v>34</v>
+      </c>
+      <c r="G742" t="s">
+        <v>677</v>
+      </c>
+      <c r="H742">
+        <v>5.33</v>
+      </c>
+      <c r="I742">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J742">
+        <v>5.04</v>
+      </c>
+      <c r="K742">
+        <v>0.25</v>
+      </c>
+      <c r="L742">
+        <v>0.04</v>
+      </c>
+      <c r="M742">
+        <v>0</v>
+      </c>
+      <c r="N742">
+        <v>0</v>
+      </c>
+      <c r="O742">
+        <v>0</v>
+      </c>
+      <c r="P742">
+        <v>4.01</v>
+      </c>
+      <c r="Q742">
+        <v>23.63</v>
+      </c>
+      <c r="R742">
+        <v>5.44</v>
+      </c>
+      <c r="S742">
+        <v>27</v>
+      </c>
+      <c r="T742">
+        <v>7</v>
+      </c>
+      <c r="U742">
+        <v>14</v>
+      </c>
+      <c r="V742">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>23</v>
+      </c>
+      <c r="B743" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C743" t="s">
+        <v>20</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E743" t="s">
+        <v>447</v>
+      </c>
+      <c r="F743" t="s">
+        <v>33</v>
+      </c>
+      <c r="G743" t="s">
+        <v>679</v>
+      </c>
+      <c r="H743">
+        <v>6.06</v>
+      </c>
+      <c r="I743">
+        <v>0.34</v>
+      </c>
+      <c r="J743">
+        <v>5.7</v>
+      </c>
+      <c r="K743">
+        <v>0.31</v>
+      </c>
+      <c r="L743">
+        <v>0.03</v>
+      </c>
+      <c r="M743">
+        <v>0.01</v>
+      </c>
+      <c r="N743">
+        <v>0.01</v>
+      </c>
+      <c r="O743">
+        <v>2</v>
+      </c>
+      <c r="P743">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q743">
+        <v>31.11</v>
+      </c>
+      <c r="R743">
+        <v>5.27</v>
+      </c>
+      <c r="S743">
+        <v>35</v>
+      </c>
+      <c r="T743">
+        <v>6</v>
+      </c>
+      <c r="U743">
+        <v>31</v>
+      </c>
+      <c r="V743">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D4937-91F2-A24D-9B87-5243418E1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EB759-6D25-1C4E-8135-3C0368EF5924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="692">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2076,6 +2076,42 @@
   </si>
   <si>
     <t>01:16:32</t>
+  </si>
+  <si>
+    <t>01:06:30</t>
+  </si>
+  <si>
+    <t>01:06:06</t>
+  </si>
+  <si>
+    <t>00:26:14</t>
+  </si>
+  <si>
+    <t>00:25:58</t>
+  </si>
+  <si>
+    <t>01:31:56</t>
+  </si>
+  <si>
+    <t>01:32:28</t>
+  </si>
+  <si>
+    <t>00:26:22</t>
+  </si>
+  <si>
+    <t>01:32:44</t>
+  </si>
+  <si>
+    <t>00:46:46</t>
+  </si>
+  <si>
+    <t>00:45:42</t>
+  </si>
+  <si>
+    <t>01:05:42</t>
+  </si>
+  <si>
+    <t>CDF T6 VS Revermontoise (R3)</t>
   </si>
 </sst>
 </file>
@@ -2468,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V743"/>
+  <dimension ref="A1:V757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A718" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D752" sqref="D752"/>
+      <selection activeCell="D746" sqref="D746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51809,6 +51845,916 @@
         <v>10</v>
       </c>
     </row>
+    <row r="744" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>691</v>
+      </c>
+      <c r="B744" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C744" t="s">
+        <v>20</v>
+      </c>
+      <c r="E744" t="s">
+        <v>55</v>
+      </c>
+      <c r="F744" t="s">
+        <v>32</v>
+      </c>
+      <c r="G744" t="s">
+        <v>680</v>
+      </c>
+      <c r="H744">
+        <v>7.72</v>
+      </c>
+      <c r="I744">
+        <v>1.26</v>
+      </c>
+      <c r="J744">
+        <v>6.45</v>
+      </c>
+      <c r="K744">
+        <v>0.85</v>
+      </c>
+      <c r="L744">
+        <v>0.36</v>
+      </c>
+      <c r="M744">
+        <v>0.06</v>
+      </c>
+      <c r="N744">
+        <v>0</v>
+      </c>
+      <c r="O744">
+        <v>7</v>
+      </c>
+      <c r="P744">
+        <v>6.93</v>
+      </c>
+      <c r="Q744">
+        <v>27.79</v>
+      </c>
+      <c r="R744">
+        <v>4.5</v>
+      </c>
+      <c r="S744">
+        <v>32</v>
+      </c>
+      <c r="T744">
+        <v>2</v>
+      </c>
+      <c r="U744">
+        <v>32</v>
+      </c>
+      <c r="V744">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>691</v>
+      </c>
+      <c r="B745" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C745" t="s">
+        <v>20</v>
+      </c>
+      <c r="E745" t="s">
+        <v>447</v>
+      </c>
+      <c r="F745" t="s">
+        <v>33</v>
+      </c>
+      <c r="G745" t="s">
+        <v>681</v>
+      </c>
+      <c r="H745">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="I745">
+        <v>2.08</v>
+      </c>
+      <c r="J745">
+        <v>6.44</v>
+      </c>
+      <c r="K745">
+        <v>1.22</v>
+      </c>
+      <c r="L745">
+        <v>0.65</v>
+      </c>
+      <c r="M745">
+        <v>0.22</v>
+      </c>
+      <c r="N745">
+        <v>0.02</v>
+      </c>
+      <c r="O745">
+        <v>12</v>
+      </c>
+      <c r="P745">
+        <v>7.72</v>
+      </c>
+      <c r="Q745">
+        <v>31.89</v>
+      </c>
+      <c r="R745">
+        <v>4.46</v>
+      </c>
+      <c r="S745">
+        <v>49</v>
+      </c>
+      <c r="T745">
+        <v>5</v>
+      </c>
+      <c r="U745">
+        <v>23</v>
+      </c>
+      <c r="V745">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>691</v>
+      </c>
+      <c r="B746" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C746" t="s">
+        <v>20</v>
+      </c>
+      <c r="E746" t="s">
+        <v>40</v>
+      </c>
+      <c r="F746" t="s">
+        <v>31</v>
+      </c>
+      <c r="G746" t="s">
+        <v>682</v>
+      </c>
+      <c r="H746">
+        <v>3.2</v>
+      </c>
+      <c r="I746">
+        <v>0.73</v>
+      </c>
+      <c r="J746">
+        <v>2.46</v>
+      </c>
+      <c r="K746">
+        <v>0.4</v>
+      </c>
+      <c r="L746">
+        <v>0.22</v>
+      </c>
+      <c r="M746">
+        <v>0.12</v>
+      </c>
+      <c r="N746">
+        <v>0</v>
+      </c>
+      <c r="O746">
+        <v>8</v>
+      </c>
+      <c r="P746">
+        <v>7.3</v>
+      </c>
+      <c r="Q746">
+        <v>29.85</v>
+      </c>
+      <c r="R746">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S746">
+        <v>13</v>
+      </c>
+      <c r="T746">
+        <v>7</v>
+      </c>
+      <c r="U746">
+        <v>10</v>
+      </c>
+      <c r="V746">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>691</v>
+      </c>
+      <c r="B747" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C747" t="s">
+        <v>20</v>
+      </c>
+      <c r="E747" t="s">
+        <v>93</v>
+      </c>
+      <c r="F747" t="s">
+        <v>31</v>
+      </c>
+      <c r="G747" t="s">
+        <v>683</v>
+      </c>
+      <c r="H747">
+        <v>2.61</v>
+      </c>
+      <c r="I747">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J747">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K747">
+        <v>0.35</v>
+      </c>
+      <c r="L747">
+        <v>0.2</v>
+      </c>
+      <c r="M747">
+        <v>0.02</v>
+      </c>
+      <c r="N747">
+        <v>0.01</v>
+      </c>
+      <c r="O747">
+        <v>2</v>
+      </c>
+      <c r="P747">
+        <v>6.04</v>
+      </c>
+      <c r="Q747">
+        <v>31.31</v>
+      </c>
+      <c r="R747">
+        <v>4.99</v>
+      </c>
+      <c r="S747">
+        <v>12</v>
+      </c>
+      <c r="T747">
+        <v>5</v>
+      </c>
+      <c r="U747">
+        <v>4</v>
+      </c>
+      <c r="V747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>691</v>
+      </c>
+      <c r="B748" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C748" t="s">
+        <v>20</v>
+      </c>
+      <c r="E748" t="s">
+        <v>448</v>
+      </c>
+      <c r="F748" t="s">
+        <v>32</v>
+      </c>
+      <c r="G748" t="s">
+        <v>684</v>
+      </c>
+      <c r="H748">
+        <v>11.92</v>
+      </c>
+      <c r="I748">
+        <v>2.16</v>
+      </c>
+      <c r="J748">
+        <v>9.73</v>
+      </c>
+      <c r="K748">
+        <v>1.76</v>
+      </c>
+      <c r="L748">
+        <v>0.39</v>
+      </c>
+      <c r="M748">
+        <v>0.04</v>
+      </c>
+      <c r="N748">
+        <v>0</v>
+      </c>
+      <c r="O748">
+        <v>6</v>
+      </c>
+      <c r="P748">
+        <v>7.76</v>
+      </c>
+      <c r="Q748">
+        <v>26.92</v>
+      </c>
+      <c r="R748">
+        <v>4.13</v>
+      </c>
+      <c r="S748">
+        <v>24</v>
+      </c>
+      <c r="T748">
+        <v>1</v>
+      </c>
+      <c r="U748">
+        <v>27</v>
+      </c>
+      <c r="V748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>691</v>
+      </c>
+      <c r="B749" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C749" t="s">
+        <v>20</v>
+      </c>
+      <c r="E749" t="s">
+        <v>58</v>
+      </c>
+      <c r="F749" t="s">
+        <v>29</v>
+      </c>
+      <c r="G749" t="s">
+        <v>685</v>
+      </c>
+      <c r="H749">
+        <v>9.48</v>
+      </c>
+      <c r="I749">
+        <v>1.27</v>
+      </c>
+      <c r="J749">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K749">
+        <v>0.91</v>
+      </c>
+      <c r="L749">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M749">
+        <v>0.08</v>
+      </c>
+      <c r="N749">
+        <v>0</v>
+      </c>
+      <c r="O749">
+        <v>8</v>
+      </c>
+      <c r="P749">
+        <v>6.14</v>
+      </c>
+      <c r="Q749">
+        <v>29.71</v>
+      </c>
+      <c r="R749">
+        <v>4.49</v>
+      </c>
+      <c r="S749">
+        <v>32</v>
+      </c>
+      <c r="T749">
+        <v>3</v>
+      </c>
+      <c r="U749">
+        <v>22</v>
+      </c>
+      <c r="V749">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>691</v>
+      </c>
+      <c r="B750" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C750" t="s">
+        <v>20</v>
+      </c>
+      <c r="E750" t="s">
+        <v>38</v>
+      </c>
+      <c r="F750" t="s">
+        <v>34</v>
+      </c>
+      <c r="G750" t="s">
+        <v>685</v>
+      </c>
+      <c r="H750">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I750">
+        <v>1.91</v>
+      </c>
+      <c r="J750">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="K750">
+        <v>1.23</v>
+      </c>
+      <c r="L750">
+        <v>0.52</v>
+      </c>
+      <c r="M750">
+        <v>0.19</v>
+      </c>
+      <c r="N750">
+        <v>0</v>
+      </c>
+      <c r="O750">
+        <v>11</v>
+      </c>
+      <c r="P750">
+        <v>6.64</v>
+      </c>
+      <c r="Q750">
+        <v>29.7</v>
+      </c>
+      <c r="R750">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S750">
+        <v>27</v>
+      </c>
+      <c r="T750">
+        <v>1</v>
+      </c>
+      <c r="U750">
+        <v>26</v>
+      </c>
+      <c r="V750">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>691</v>
+      </c>
+      <c r="B751" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C751" t="s">
+        <v>20</v>
+      </c>
+      <c r="E751" t="s">
+        <v>52</v>
+      </c>
+      <c r="F751" t="s">
+        <v>33</v>
+      </c>
+      <c r="G751" t="s">
+        <v>686</v>
+      </c>
+      <c r="H751">
+        <v>3.15</v>
+      </c>
+      <c r="I751">
+        <v>0.85</v>
+      </c>
+      <c r="J751">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K751">
+        <v>0.51</v>
+      </c>
+      <c r="L751">
+        <v>0.26</v>
+      </c>
+      <c r="M751">
+        <v>0.08</v>
+      </c>
+      <c r="N751">
+        <v>0</v>
+      </c>
+      <c r="O751">
+        <v>7</v>
+      </c>
+      <c r="P751">
+        <v>7.14</v>
+      </c>
+      <c r="Q751">
+        <v>28.25</v>
+      </c>
+      <c r="R751">
+        <v>5.61</v>
+      </c>
+      <c r="S751">
+        <v>6</v>
+      </c>
+      <c r="T751">
+        <v>5</v>
+      </c>
+      <c r="U751">
+        <v>9</v>
+      </c>
+      <c r="V751">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="752" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>691</v>
+      </c>
+      <c r="B752" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C752" t="s">
+        <v>20</v>
+      </c>
+      <c r="E752" t="s">
+        <v>25</v>
+      </c>
+      <c r="F752" t="s">
+        <v>29</v>
+      </c>
+      <c r="G752" t="s">
+        <v>687</v>
+      </c>
+      <c r="H752">
+        <v>10.82</v>
+      </c>
+      <c r="I752">
+        <v>1.79</v>
+      </c>
+      <c r="J752">
+        <v>9</v>
+      </c>
+      <c r="K752">
+        <v>1.28</v>
+      </c>
+      <c r="L752">
+        <v>0.43</v>
+      </c>
+      <c r="M752">
+        <v>0.1</v>
+      </c>
+      <c r="N752">
+        <v>0</v>
+      </c>
+      <c r="O752">
+        <v>7</v>
+      </c>
+      <c r="P752">
+        <v>7.01</v>
+      </c>
+      <c r="Q752">
+        <v>27.73</v>
+      </c>
+      <c r="R752">
+        <v>4.62</v>
+      </c>
+      <c r="S752">
+        <v>50</v>
+      </c>
+      <c r="T752">
+        <v>5</v>
+      </c>
+      <c r="U752">
+        <v>41</v>
+      </c>
+      <c r="V752">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>691</v>
+      </c>
+      <c r="B753" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C753" t="s">
+        <v>20</v>
+      </c>
+      <c r="E753" t="s">
+        <v>43</v>
+      </c>
+      <c r="F753" t="s">
+        <v>34</v>
+      </c>
+      <c r="G753" t="s">
+        <v>688</v>
+      </c>
+      <c r="H753">
+        <v>5.86</v>
+      </c>
+      <c r="I753">
+        <v>1.45</v>
+      </c>
+      <c r="J753">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K753">
+        <v>0.8</v>
+      </c>
+      <c r="L753">
+        <v>0.41</v>
+      </c>
+      <c r="M753">
+        <v>0.22</v>
+      </c>
+      <c r="N753">
+        <v>0.03</v>
+      </c>
+      <c r="O753">
+        <v>18</v>
+      </c>
+      <c r="P753">
+        <v>7.51</v>
+      </c>
+      <c r="Q753">
+        <v>31.7</v>
+      </c>
+      <c r="R753">
+        <v>5.22</v>
+      </c>
+      <c r="S753">
+        <v>34</v>
+      </c>
+      <c r="T753">
+        <v>9</v>
+      </c>
+      <c r="U753">
+        <v>25</v>
+      </c>
+      <c r="V753">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="754" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>691</v>
+      </c>
+      <c r="B754" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C754" t="s">
+        <v>20</v>
+      </c>
+      <c r="E754" t="s">
+        <v>54</v>
+      </c>
+      <c r="F754" t="s">
+        <v>28</v>
+      </c>
+      <c r="G754" t="s">
+        <v>685</v>
+      </c>
+      <c r="H754">
+        <v>9.86</v>
+      </c>
+      <c r="I754">
+        <v>2.13</v>
+      </c>
+      <c r="J754">
+        <v>7.71</v>
+      </c>
+      <c r="K754">
+        <v>1.32</v>
+      </c>
+      <c r="L754">
+        <v>0.61</v>
+      </c>
+      <c r="M754">
+        <v>0.2</v>
+      </c>
+      <c r="N754">
+        <v>0.03</v>
+      </c>
+      <c r="O754">
+        <v>18</v>
+      </c>
+      <c r="P754">
+        <v>6.38</v>
+      </c>
+      <c r="Q754">
+        <v>31.12</v>
+      </c>
+      <c r="R754">
+        <v>4.49</v>
+      </c>
+      <c r="S754">
+        <v>46</v>
+      </c>
+      <c r="T754">
+        <v>5</v>
+      </c>
+      <c r="U754">
+        <v>55</v>
+      </c>
+      <c r="V754">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="755" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>691</v>
+      </c>
+      <c r="B755" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C755" t="s">
+        <v>20</v>
+      </c>
+      <c r="E755" t="s">
+        <v>53</v>
+      </c>
+      <c r="F755" t="s">
+        <v>32</v>
+      </c>
+      <c r="G755" t="s">
+        <v>685</v>
+      </c>
+      <c r="H755">
+        <v>12.37</v>
+      </c>
+      <c r="I755">
+        <v>2.62</v>
+      </c>
+      <c r="J755">
+        <v>9.73</v>
+      </c>
+      <c r="K755">
+        <v>2.09</v>
+      </c>
+      <c r="L755">
+        <v>0.5</v>
+      </c>
+      <c r="M755">
+        <v>0.06</v>
+      </c>
+      <c r="N755">
+        <v>0</v>
+      </c>
+      <c r="O755">
+        <v>7</v>
+      </c>
+      <c r="P755">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="Q755">
+        <v>26.89</v>
+      </c>
+      <c r="R755">
+        <v>4.74</v>
+      </c>
+      <c r="S755">
+        <v>49</v>
+      </c>
+      <c r="T755">
+        <v>10</v>
+      </c>
+      <c r="U755">
+        <v>26</v>
+      </c>
+      <c r="V755">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>691</v>
+      </c>
+      <c r="B756" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C756" t="s">
+        <v>20</v>
+      </c>
+      <c r="E756" t="s">
+        <v>36</v>
+      </c>
+      <c r="F756" t="s">
+        <v>30</v>
+      </c>
+      <c r="G756" t="s">
+        <v>689</v>
+      </c>
+      <c r="H756">
+        <v>5.25</v>
+      </c>
+      <c r="I756">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J756">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K756">
+        <v>0.72</v>
+      </c>
+      <c r="L756">
+        <v>0.25</v>
+      </c>
+      <c r="M756">
+        <v>0.15</v>
+      </c>
+      <c r="N756">
+        <v>0</v>
+      </c>
+      <c r="O756">
+        <v>8</v>
+      </c>
+      <c r="P756">
+        <v>6.94</v>
+      </c>
+      <c r="Q756">
+        <v>29.44</v>
+      </c>
+      <c r="R756">
+        <v>4.5</v>
+      </c>
+      <c r="S756">
+        <v>25</v>
+      </c>
+      <c r="T756">
+        <v>2</v>
+      </c>
+      <c r="U756">
+        <v>22</v>
+      </c>
+      <c r="V756">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>691</v>
+      </c>
+      <c r="B757" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C757" t="s">
+        <v>20</v>
+      </c>
+      <c r="E757" t="s">
+        <v>16</v>
+      </c>
+      <c r="F757" t="s">
+        <v>30</v>
+      </c>
+      <c r="G757" t="s">
+        <v>690</v>
+      </c>
+      <c r="H757">
+        <v>7.73</v>
+      </c>
+      <c r="I757">
+        <v>1.56</v>
+      </c>
+      <c r="J757">
+        <v>6.15</v>
+      </c>
+      <c r="K757">
+        <v>0.86</v>
+      </c>
+      <c r="L757">
+        <v>0.46</v>
+      </c>
+      <c r="M757">
+        <v>0.22</v>
+      </c>
+      <c r="N757">
+        <v>0.04</v>
+      </c>
+      <c r="O757">
+        <v>12</v>
+      </c>
+      <c r="P757">
+        <v>7.02</v>
+      </c>
+      <c r="Q757">
+        <v>31.39</v>
+      </c>
+      <c r="R757">
+        <v>5.09</v>
+      </c>
+      <c r="S757">
+        <v>37</v>
+      </c>
+      <c r="T757">
+        <v>7</v>
+      </c>
+      <c r="U757">
+        <v>26</v>
+      </c>
+      <c r="V757">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EB759-6D25-1C4E-8135-3C0368EF5924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9B2DA-AFD9-0E4E-B649-2C029DC92FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="700">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2112,6 +2112,30 @@
   </si>
   <si>
     <t>CDF T6 VS Revermontoise (R3)</t>
+  </si>
+  <si>
+    <t>01:31:29</t>
+  </si>
+  <si>
+    <t>01:26:57</t>
+  </si>
+  <si>
+    <t>01:15:29</t>
+  </si>
+  <si>
+    <t>01:30:54</t>
+  </si>
+  <si>
+    <t>01:28:16</t>
+  </si>
+  <si>
+    <t>01:28:08</t>
+  </si>
+  <si>
+    <t>01:30:46</t>
+  </si>
+  <si>
+    <t>01:29:48</t>
   </si>
 </sst>
 </file>
@@ -2504,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V757"/>
+  <dimension ref="A1:V766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A718" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D746" sqref="D746"/>
+    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A758" sqref="A758:A766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52755,6 +52779,618 @@
         <v>15</v>
       </c>
     </row>
+    <row r="758" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>23</v>
+      </c>
+      <c r="B758" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C758" t="s">
+        <v>20</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E758" t="s">
+        <v>251</v>
+      </c>
+      <c r="F758" t="s">
+        <v>32</v>
+      </c>
+      <c r="G758" t="s">
+        <v>692</v>
+      </c>
+      <c r="H758">
+        <v>6.74</v>
+      </c>
+      <c r="I758">
+        <v>0.82</v>
+      </c>
+      <c r="J758">
+        <v>5.9</v>
+      </c>
+      <c r="K758">
+        <v>0.73</v>
+      </c>
+      <c r="L758">
+        <v>0.1</v>
+      </c>
+      <c r="M758">
+        <v>0</v>
+      </c>
+      <c r="N758">
+        <v>0</v>
+      </c>
+      <c r="O758">
+        <v>0</v>
+      </c>
+      <c r="P758">
+        <v>4.38</v>
+      </c>
+      <c r="Q758">
+        <v>22.94</v>
+      </c>
+      <c r="R758">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S758">
+        <v>43</v>
+      </c>
+      <c r="T758">
+        <v>1</v>
+      </c>
+      <c r="U758">
+        <v>36</v>
+      </c>
+      <c r="V758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>23</v>
+      </c>
+      <c r="B759" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C759" t="s">
+        <v>20</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E759" t="s">
+        <v>16</v>
+      </c>
+      <c r="F759" t="s">
+        <v>30</v>
+      </c>
+      <c r="G759" t="s">
+        <v>693</v>
+      </c>
+      <c r="H759">
+        <v>6.41</v>
+      </c>
+      <c r="I759">
+        <v>0.53</v>
+      </c>
+      <c r="J759">
+        <v>5.87</v>
+      </c>
+      <c r="K759">
+        <v>0.5</v>
+      </c>
+      <c r="L759">
+        <v>0.03</v>
+      </c>
+      <c r="M759">
+        <v>0</v>
+      </c>
+      <c r="N759">
+        <v>0</v>
+      </c>
+      <c r="O759">
+        <v>0</v>
+      </c>
+      <c r="P759">
+        <v>4.3</v>
+      </c>
+      <c r="Q759">
+        <v>24.46</v>
+      </c>
+      <c r="R759">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S759">
+        <v>60</v>
+      </c>
+      <c r="T759">
+        <v>2</v>
+      </c>
+      <c r="U759">
+        <v>36</v>
+      </c>
+      <c r="V759">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>23</v>
+      </c>
+      <c r="B760" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C760" t="s">
+        <v>20</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E760" t="s">
+        <v>54</v>
+      </c>
+      <c r="F760" t="s">
+        <v>28</v>
+      </c>
+      <c r="G760" t="s">
+        <v>694</v>
+      </c>
+      <c r="H760">
+        <v>5.93</v>
+      </c>
+      <c r="I760">
+        <v>0.6</v>
+      </c>
+      <c r="J760">
+        <v>5.32</v>
+      </c>
+      <c r="K760">
+        <v>0.5</v>
+      </c>
+      <c r="L760">
+        <v>0.1</v>
+      </c>
+      <c r="M760">
+        <v>0</v>
+      </c>
+      <c r="N760">
+        <v>0</v>
+      </c>
+      <c r="O760">
+        <v>1</v>
+      </c>
+      <c r="P760">
+        <v>4.28</v>
+      </c>
+      <c r="Q760">
+        <v>26.4</v>
+      </c>
+      <c r="R760">
+        <v>5.15</v>
+      </c>
+      <c r="S760">
+        <v>44</v>
+      </c>
+      <c r="T760">
+        <v>13</v>
+      </c>
+      <c r="U760">
+        <v>35</v>
+      </c>
+      <c r="V760">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="761" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>23</v>
+      </c>
+      <c r="B761" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C761" t="s">
+        <v>20</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E761" t="s">
+        <v>447</v>
+      </c>
+      <c r="F761" t="s">
+        <v>33</v>
+      </c>
+      <c r="G761" t="s">
+        <v>695</v>
+      </c>
+      <c r="H761">
+        <v>8.08</v>
+      </c>
+      <c r="I761">
+        <v>0.82</v>
+      </c>
+      <c r="J761">
+        <v>7.23</v>
+      </c>
+      <c r="K761">
+        <v>0.78</v>
+      </c>
+      <c r="L761">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M761">
+        <v>0</v>
+      </c>
+      <c r="N761">
+        <v>0</v>
+      </c>
+      <c r="O761">
+        <v>0</v>
+      </c>
+      <c r="P761">
+        <v>4.92</v>
+      </c>
+      <c r="Q761">
+        <v>22.68</v>
+      </c>
+      <c r="R761">
+        <v>4.7</v>
+      </c>
+      <c r="S761">
+        <v>53</v>
+      </c>
+      <c r="T761">
+        <v>14</v>
+      </c>
+      <c r="U761">
+        <v>50</v>
+      </c>
+      <c r="V761">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="762" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>23</v>
+      </c>
+      <c r="B762" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C762" t="s">
+        <v>20</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E762" t="s">
+        <v>52</v>
+      </c>
+      <c r="F762" t="s">
+        <v>33</v>
+      </c>
+      <c r="G762" t="s">
+        <v>314</v>
+      </c>
+      <c r="H762">
+        <v>7.33</v>
+      </c>
+      <c r="I762">
+        <v>0.69</v>
+      </c>
+      <c r="J762">
+        <v>6.63</v>
+      </c>
+      <c r="K762">
+        <v>0.66</v>
+      </c>
+      <c r="L762">
+        <v>0.04</v>
+      </c>
+      <c r="M762">
+        <v>0</v>
+      </c>
+      <c r="N762">
+        <v>0</v>
+      </c>
+      <c r="O762">
+        <v>0</v>
+      </c>
+      <c r="P762">
+        <v>4.74</v>
+      </c>
+      <c r="Q762">
+        <v>24.15</v>
+      </c>
+      <c r="R762">
+        <v>4.55</v>
+      </c>
+      <c r="S762">
+        <v>52</v>
+      </c>
+      <c r="T762">
+        <v>7</v>
+      </c>
+      <c r="U762">
+        <v>27</v>
+      </c>
+      <c r="V762">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>23</v>
+      </c>
+      <c r="B763" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C763" t="s">
+        <v>20</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E763" t="s">
+        <v>53</v>
+      </c>
+      <c r="F763" t="s">
+        <v>32</v>
+      </c>
+      <c r="G763" t="s">
+        <v>696</v>
+      </c>
+      <c r="H763">
+        <v>7.12</v>
+      </c>
+      <c r="I763">
+        <v>0.53</v>
+      </c>
+      <c r="J763">
+        <v>6.58</v>
+      </c>
+      <c r="K763">
+        <v>0.52</v>
+      </c>
+      <c r="L763">
+        <v>0.02</v>
+      </c>
+      <c r="M763">
+        <v>0</v>
+      </c>
+      <c r="N763">
+        <v>0</v>
+      </c>
+      <c r="O763">
+        <v>0</v>
+      </c>
+      <c r="P763">
+        <v>4.74</v>
+      </c>
+      <c r="Q763">
+        <v>21.02</v>
+      </c>
+      <c r="R763">
+        <v>4.34</v>
+      </c>
+      <c r="S763">
+        <v>30</v>
+      </c>
+      <c r="T763">
+        <v>3</v>
+      </c>
+      <c r="U763">
+        <v>16</v>
+      </c>
+      <c r="V763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>23</v>
+      </c>
+      <c r="B764" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C764" t="s">
+        <v>20</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E764" t="s">
+        <v>40</v>
+      </c>
+      <c r="F764" t="s">
+        <v>31</v>
+      </c>
+      <c r="G764" t="s">
+        <v>697</v>
+      </c>
+      <c r="H764">
+        <v>6.82</v>
+      </c>
+      <c r="I764">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J764">
+        <v>6.24</v>
+      </c>
+      <c r="K764">
+        <v>0.49</v>
+      </c>
+      <c r="L764">
+        <v>0.09</v>
+      </c>
+      <c r="M764">
+        <v>0</v>
+      </c>
+      <c r="N764">
+        <v>0</v>
+      </c>
+      <c r="O764">
+        <v>1</v>
+      </c>
+      <c r="P764">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q764">
+        <v>25.31</v>
+      </c>
+      <c r="R764">
+        <v>5.38</v>
+      </c>
+      <c r="S764">
+        <v>70</v>
+      </c>
+      <c r="T764">
+        <v>14</v>
+      </c>
+      <c r="U764">
+        <v>61</v>
+      </c>
+      <c r="V764">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="765" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>23</v>
+      </c>
+      <c r="B765" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C765" t="s">
+        <v>20</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E765" t="s">
+        <v>164</v>
+      </c>
+      <c r="F765" t="s">
+        <v>32</v>
+      </c>
+      <c r="G765" t="s">
+        <v>698</v>
+      </c>
+      <c r="H765">
+        <v>7.5</v>
+      </c>
+      <c r="I765">
+        <v>0.67</v>
+      </c>
+      <c r="J765">
+        <v>6.82</v>
+      </c>
+      <c r="K765">
+        <v>0.65</v>
+      </c>
+      <c r="L765">
+        <v>0.03</v>
+      </c>
+      <c r="M765">
+        <v>0</v>
+      </c>
+      <c r="N765">
+        <v>0</v>
+      </c>
+      <c r="O765">
+        <v>0</v>
+      </c>
+      <c r="P765">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Q765">
+        <v>22.32</v>
+      </c>
+      <c r="R765">
+        <v>4.51</v>
+      </c>
+      <c r="S765">
+        <v>29</v>
+      </c>
+      <c r="T765">
+        <v>3</v>
+      </c>
+      <c r="U765">
+        <v>25</v>
+      </c>
+      <c r="V765">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>23</v>
+      </c>
+      <c r="B766" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C766" t="s">
+        <v>20</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E766" t="s">
+        <v>25</v>
+      </c>
+      <c r="F766" t="s">
+        <v>29</v>
+      </c>
+      <c r="G766" t="s">
+        <v>699</v>
+      </c>
+      <c r="H766">
+        <v>6.98</v>
+      </c>
+      <c r="I766">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J766">
+        <v>6.42</v>
+      </c>
+      <c r="K766">
+        <v>0.49</v>
+      </c>
+      <c r="L766">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M766">
+        <v>0</v>
+      </c>
+      <c r="N766">
+        <v>0</v>
+      </c>
+      <c r="O766">
+        <v>0</v>
+      </c>
+      <c r="P766">
+        <v>4.62</v>
+      </c>
+      <c r="Q766">
+        <v>21.89</v>
+      </c>
+      <c r="R766">
+        <v>4.57</v>
+      </c>
+      <c r="S766">
+        <v>30</v>
+      </c>
+      <c r="T766">
+        <v>3</v>
+      </c>
+      <c r="U766">
+        <v>24</v>
+      </c>
+      <c r="V766">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9B2DA-AFD9-0E4E-B649-2C029DC92FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D0BC5-EFB1-E84C-A16C-94455E81FB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="709">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2136,6 +2136,33 @@
   </si>
   <si>
     <t>01:29:48</t>
+  </si>
+  <si>
+    <t>01:34:47</t>
+  </si>
+  <si>
+    <t>01:34:10</t>
+  </si>
+  <si>
+    <t>01:33:25</t>
+  </si>
+  <si>
+    <t>01:34:39</t>
+  </si>
+  <si>
+    <t>01:34:09</t>
+  </si>
+  <si>
+    <t>01:34:32</t>
+  </si>
+  <si>
+    <t>01:26:11</t>
+  </si>
+  <si>
+    <t>01:33:32</t>
+  </si>
+  <si>
+    <t>01:35:02</t>
   </si>
 </sst>
 </file>
@@ -2528,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V766"/>
+  <dimension ref="A1:V780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A758" sqref="A758:A766"/>
+    <sheetView tabSelected="1" topLeftCell="A761" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E787" sqref="E787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53391,6 +53418,958 @@
         <v>4</v>
       </c>
     </row>
+    <row r="767" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>23</v>
+      </c>
+      <c r="B767" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C767" t="s">
+        <v>20</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E767" t="s">
+        <v>251</v>
+      </c>
+      <c r="F767" t="s">
+        <v>32</v>
+      </c>
+      <c r="G767" t="s">
+        <v>700</v>
+      </c>
+      <c r="H767">
+        <v>8</v>
+      </c>
+      <c r="I767">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J767">
+        <v>7.42</v>
+      </c>
+      <c r="K767">
+        <v>0.52</v>
+      </c>
+      <c r="L767">
+        <v>0.06</v>
+      </c>
+      <c r="M767">
+        <v>0</v>
+      </c>
+      <c r="N767">
+        <v>0</v>
+      </c>
+      <c r="O767">
+        <v>0</v>
+      </c>
+      <c r="P767">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Q767">
+        <v>24.09</v>
+      </c>
+      <c r="R767">
+        <v>4.2</v>
+      </c>
+      <c r="S767">
+        <v>38</v>
+      </c>
+      <c r="T767">
+        <v>2</v>
+      </c>
+      <c r="U767">
+        <v>27</v>
+      </c>
+      <c r="V767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>23</v>
+      </c>
+      <c r="B768" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C768" t="s">
+        <v>20</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E768" t="s">
+        <v>43</v>
+      </c>
+      <c r="F768" t="s">
+        <v>34</v>
+      </c>
+      <c r="G768" t="s">
+        <v>701</v>
+      </c>
+      <c r="H768">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I768">
+        <v>0.67</v>
+      </c>
+      <c r="J768">
+        <v>7.52</v>
+      </c>
+      <c r="K768">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L768">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M768">
+        <v>0.01</v>
+      </c>
+      <c r="N768">
+        <v>0</v>
+      </c>
+      <c r="O768">
+        <v>1</v>
+      </c>
+      <c r="P768">
+        <v>4.59</v>
+      </c>
+      <c r="Q768">
+        <v>27.01</v>
+      </c>
+      <c r="R768">
+        <v>5.3</v>
+      </c>
+      <c r="S768">
+        <v>50</v>
+      </c>
+      <c r="T768">
+        <v>13</v>
+      </c>
+      <c r="U768">
+        <v>42</v>
+      </c>
+      <c r="V768">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>23</v>
+      </c>
+      <c r="B769" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C769" t="s">
+        <v>20</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E769" t="s">
+        <v>54</v>
+      </c>
+      <c r="F769" t="s">
+        <v>28</v>
+      </c>
+      <c r="G769" t="s">
+        <v>702</v>
+      </c>
+      <c r="H769">
+        <v>6.72</v>
+      </c>
+      <c r="I769">
+        <v>0.38</v>
+      </c>
+      <c r="J769">
+        <v>6.32</v>
+      </c>
+      <c r="K769">
+        <v>0.26</v>
+      </c>
+      <c r="L769">
+        <v>0.1</v>
+      </c>
+      <c r="M769">
+        <v>0.03</v>
+      </c>
+      <c r="N769">
+        <v>0</v>
+      </c>
+      <c r="O769">
+        <v>2</v>
+      </c>
+      <c r="P769">
+        <v>3.95</v>
+      </c>
+      <c r="Q769">
+        <v>30.52</v>
+      </c>
+      <c r="R769">
+        <v>5.53</v>
+      </c>
+      <c r="S769">
+        <v>63</v>
+      </c>
+      <c r="T769">
+        <v>12</v>
+      </c>
+      <c r="U769">
+        <v>63</v>
+      </c>
+      <c r="V769">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>23</v>
+      </c>
+      <c r="B770" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C770" t="s">
+        <v>20</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E770" t="s">
+        <v>35</v>
+      </c>
+      <c r="F770" t="s">
+        <v>34</v>
+      </c>
+      <c r="G770" t="s">
+        <v>703</v>
+      </c>
+      <c r="H770">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I770">
+        <v>0.93</v>
+      </c>
+      <c r="J770">
+        <v>7.26</v>
+      </c>
+      <c r="K770">
+        <v>0.68</v>
+      </c>
+      <c r="L770">
+        <v>0.21</v>
+      </c>
+      <c r="M770">
+        <v>0.06</v>
+      </c>
+      <c r="N770">
+        <v>0</v>
+      </c>
+      <c r="O770">
+        <v>5</v>
+      </c>
+      <c r="P770">
+        <v>5.16</v>
+      </c>
+      <c r="Q770">
+        <v>28.45</v>
+      </c>
+      <c r="R770">
+        <v>4.71</v>
+      </c>
+      <c r="S770">
+        <v>60</v>
+      </c>
+      <c r="T770">
+        <v>7</v>
+      </c>
+      <c r="U770">
+        <v>27</v>
+      </c>
+      <c r="V770">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>23</v>
+      </c>
+      <c r="B771" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C771" t="s">
+        <v>20</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E771" t="s">
+        <v>53</v>
+      </c>
+      <c r="F771" t="s">
+        <v>32</v>
+      </c>
+      <c r="G771" t="s">
+        <v>704</v>
+      </c>
+      <c r="H771">
+        <v>8.59</v>
+      </c>
+      <c r="I771">
+        <v>0.83</v>
+      </c>
+      <c r="J771">
+        <v>7.75</v>
+      </c>
+      <c r="K771">
+        <v>0.69</v>
+      </c>
+      <c r="L771">
+        <v>0.13</v>
+      </c>
+      <c r="M771">
+        <v>0.01</v>
+      </c>
+      <c r="N771">
+        <v>0</v>
+      </c>
+      <c r="O771">
+        <v>2</v>
+      </c>
+      <c r="P771">
+        <v>5.41</v>
+      </c>
+      <c r="Q771">
+        <v>25.81</v>
+      </c>
+      <c r="R771">
+        <v>5.22</v>
+      </c>
+      <c r="S771">
+        <v>53</v>
+      </c>
+      <c r="T771">
+        <v>12</v>
+      </c>
+      <c r="U771">
+        <v>24</v>
+      </c>
+      <c r="V771">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>23</v>
+      </c>
+      <c r="B772" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C772" t="s">
+        <v>20</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E772" t="s">
+        <v>17</v>
+      </c>
+      <c r="F772" t="s">
+        <v>34</v>
+      </c>
+      <c r="G772" t="s">
+        <v>705</v>
+      </c>
+      <c r="H772">
+        <v>8.57</v>
+      </c>
+      <c r="I772">
+        <v>0.81</v>
+      </c>
+      <c r="J772">
+        <v>7.73</v>
+      </c>
+      <c r="K772">
+        <v>0.6</v>
+      </c>
+      <c r="L772">
+        <v>0.18</v>
+      </c>
+      <c r="M772">
+        <v>0.05</v>
+      </c>
+      <c r="N772">
+        <v>0.01</v>
+      </c>
+      <c r="O772">
+        <v>5</v>
+      </c>
+      <c r="P772">
+        <v>5.21</v>
+      </c>
+      <c r="Q772">
+        <v>33.24</v>
+      </c>
+      <c r="R772">
+        <v>5.51</v>
+      </c>
+      <c r="S772">
+        <v>109</v>
+      </c>
+      <c r="T772">
+        <v>29</v>
+      </c>
+      <c r="U772">
+        <v>67</v>
+      </c>
+      <c r="V772">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>23</v>
+      </c>
+      <c r="B773" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C773" t="s">
+        <v>20</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E773" t="s">
+        <v>36</v>
+      </c>
+      <c r="F773" t="s">
+        <v>30</v>
+      </c>
+      <c r="G773" t="s">
+        <v>703</v>
+      </c>
+      <c r="H773">
+        <v>8.25</v>
+      </c>
+      <c r="I773">
+        <v>0.83</v>
+      </c>
+      <c r="J773">
+        <v>7.41</v>
+      </c>
+      <c r="K773">
+        <v>0.6</v>
+      </c>
+      <c r="L773">
+        <v>0.23</v>
+      </c>
+      <c r="M773">
+        <v>0.02</v>
+      </c>
+      <c r="N773">
+        <v>0</v>
+      </c>
+      <c r="O773">
+        <v>3</v>
+      </c>
+      <c r="P773">
+        <v>5.19</v>
+      </c>
+      <c r="Q773">
+        <v>27.25</v>
+      </c>
+      <c r="R773">
+        <v>4.42</v>
+      </c>
+      <c r="S773">
+        <v>37</v>
+      </c>
+      <c r="T773">
+        <v>5</v>
+      </c>
+      <c r="U773">
+        <v>18</v>
+      </c>
+      <c r="V773">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>23</v>
+      </c>
+      <c r="B774" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C774" t="s">
+        <v>20</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E774" t="s">
+        <v>447</v>
+      </c>
+      <c r="F774" t="s">
+        <v>33</v>
+      </c>
+      <c r="G774" t="s">
+        <v>450</v>
+      </c>
+      <c r="H774">
+        <v>6.57</v>
+      </c>
+      <c r="I774">
+        <v>0.49</v>
+      </c>
+      <c r="J774">
+        <v>6.07</v>
+      </c>
+      <c r="K774">
+        <v>0.37</v>
+      </c>
+      <c r="L774">
+        <v>0.13</v>
+      </c>
+      <c r="M774">
+        <v>0.01</v>
+      </c>
+      <c r="N774">
+        <v>0</v>
+      </c>
+      <c r="O774">
+        <v>2</v>
+      </c>
+      <c r="P774">
+        <v>3.65</v>
+      </c>
+      <c r="Q774">
+        <v>29.33</v>
+      </c>
+      <c r="R774">
+        <v>4.16</v>
+      </c>
+      <c r="S774">
+        <v>23</v>
+      </c>
+      <c r="T774">
+        <v>1</v>
+      </c>
+      <c r="U774">
+        <v>31</v>
+      </c>
+      <c r="V774">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>23</v>
+      </c>
+      <c r="B775" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C775" t="s">
+        <v>20</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E775" t="s">
+        <v>52</v>
+      </c>
+      <c r="F775" t="s">
+        <v>33</v>
+      </c>
+      <c r="G775" t="s">
+        <v>703</v>
+      </c>
+      <c r="H775">
+        <v>8.23</v>
+      </c>
+      <c r="I775">
+        <v>0.9</v>
+      </c>
+      <c r="J775">
+        <v>7.31</v>
+      </c>
+      <c r="K775">
+        <v>0.68</v>
+      </c>
+      <c r="L775">
+        <v>0.19</v>
+      </c>
+      <c r="M775">
+        <v>0.04</v>
+      </c>
+      <c r="N775">
+        <v>0</v>
+      </c>
+      <c r="O775">
+        <v>5</v>
+      </c>
+      <c r="P775">
+        <v>5.17</v>
+      </c>
+      <c r="Q775">
+        <v>29.3</v>
+      </c>
+      <c r="R775">
+        <v>4.33</v>
+      </c>
+      <c r="S775">
+        <v>46</v>
+      </c>
+      <c r="T775">
+        <v>5</v>
+      </c>
+      <c r="U775">
+        <v>30</v>
+      </c>
+      <c r="V775">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>23</v>
+      </c>
+      <c r="B776" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C776" t="s">
+        <v>20</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E776" t="s">
+        <v>40</v>
+      </c>
+      <c r="F776" t="s">
+        <v>31</v>
+      </c>
+      <c r="G776" t="s">
+        <v>706</v>
+      </c>
+      <c r="H776">
+        <v>7.4</v>
+      </c>
+      <c r="I776">
+        <v>0.79</v>
+      </c>
+      <c r="J776">
+        <v>6.58</v>
+      </c>
+      <c r="K776">
+        <v>0.5</v>
+      </c>
+      <c r="L776">
+        <v>0.24</v>
+      </c>
+      <c r="M776">
+        <v>0.08</v>
+      </c>
+      <c r="N776">
+        <v>0</v>
+      </c>
+      <c r="O776">
+        <v>15</v>
+      </c>
+      <c r="P776">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q776">
+        <v>28.77</v>
+      </c>
+      <c r="R776">
+        <v>5.42</v>
+      </c>
+      <c r="S776">
+        <v>93</v>
+      </c>
+      <c r="T776">
+        <v>29</v>
+      </c>
+      <c r="U776">
+        <v>41</v>
+      </c>
+      <c r="V776">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>23</v>
+      </c>
+      <c r="B777" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C777" t="s">
+        <v>20</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E777" t="s">
+        <v>16</v>
+      </c>
+      <c r="F777" t="s">
+        <v>30</v>
+      </c>
+      <c r="G777" t="s">
+        <v>700</v>
+      </c>
+      <c r="H777">
+        <v>7.03</v>
+      </c>
+      <c r="I777">
+        <v>0.67</v>
+      </c>
+      <c r="J777">
+        <v>6.35</v>
+      </c>
+      <c r="K777">
+        <v>0.47</v>
+      </c>
+      <c r="L777">
+        <v>0.2</v>
+      </c>
+      <c r="M777">
+        <v>0.02</v>
+      </c>
+      <c r="N777">
+        <v>0</v>
+      </c>
+      <c r="O777">
+        <v>5</v>
+      </c>
+      <c r="P777">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q777">
+        <v>27.38</v>
+      </c>
+      <c r="R777">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S777">
+        <v>40</v>
+      </c>
+      <c r="T777">
+        <v>7</v>
+      </c>
+      <c r="U777">
+        <v>19</v>
+      </c>
+      <c r="V777">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>23</v>
+      </c>
+      <c r="B778" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C778" t="s">
+        <v>20</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E778" t="s">
+        <v>25</v>
+      </c>
+      <c r="F778" t="s">
+        <v>29</v>
+      </c>
+      <c r="G778" t="s">
+        <v>707</v>
+      </c>
+      <c r="H778">
+        <v>7.23</v>
+      </c>
+      <c r="I778">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J778">
+        <v>6.66</v>
+      </c>
+      <c r="K778">
+        <v>0.37</v>
+      </c>
+      <c r="L778">
+        <v>0.15</v>
+      </c>
+      <c r="M778">
+        <v>0.05</v>
+      </c>
+      <c r="N778">
+        <v>0</v>
+      </c>
+      <c r="O778">
+        <v>4</v>
+      </c>
+      <c r="P778">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q778">
+        <v>27.78</v>
+      </c>
+      <c r="R778">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S778">
+        <v>12</v>
+      </c>
+      <c r="T778">
+        <v>4</v>
+      </c>
+      <c r="U778">
+        <v>23</v>
+      </c>
+      <c r="V778">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>23</v>
+      </c>
+      <c r="B779" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C779" t="s">
+        <v>20</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E779" t="s">
+        <v>93</v>
+      </c>
+      <c r="F779" t="s">
+        <v>31</v>
+      </c>
+      <c r="G779" t="s">
+        <v>708</v>
+      </c>
+      <c r="H779">
+        <v>7.31</v>
+      </c>
+      <c r="I779">
+        <v>0.88</v>
+      </c>
+      <c r="J779">
+        <v>6.41</v>
+      </c>
+      <c r="K779">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L779">
+        <v>0.22</v>
+      </c>
+      <c r="M779">
+        <v>0.09</v>
+      </c>
+      <c r="N779">
+        <v>0.02</v>
+      </c>
+      <c r="O779">
+        <v>8</v>
+      </c>
+      <c r="P779">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q779">
+        <v>31.12</v>
+      </c>
+      <c r="R779">
+        <v>6.12</v>
+      </c>
+      <c r="S779">
+        <v>55</v>
+      </c>
+      <c r="T779">
+        <v>24</v>
+      </c>
+      <c r="U779">
+        <v>51</v>
+      </c>
+      <c r="V779">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>23</v>
+      </c>
+      <c r="B780" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C780" t="s">
+        <v>20</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E780" t="s">
+        <v>164</v>
+      </c>
+      <c r="F780" t="s">
+        <v>32</v>
+      </c>
+      <c r="G780" t="s">
+        <v>700</v>
+      </c>
+      <c r="H780">
+        <v>8.52</v>
+      </c>
+      <c r="I780">
+        <v>0.78</v>
+      </c>
+      <c r="J780">
+        <v>7.72</v>
+      </c>
+      <c r="K780">
+        <v>0.65</v>
+      </c>
+      <c r="L780">
+        <v>0.15</v>
+      </c>
+      <c r="M780">
+        <v>0</v>
+      </c>
+      <c r="N780">
+        <v>0</v>
+      </c>
+      <c r="O780">
+        <v>0</v>
+      </c>
+      <c r="P780">
+        <v>5.33</v>
+      </c>
+      <c r="Q780">
+        <v>24.77</v>
+      </c>
+      <c r="R780">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S780">
+        <v>35</v>
+      </c>
+      <c r="T780">
+        <v>1</v>
+      </c>
+      <c r="U780">
+        <v>33</v>
+      </c>
+      <c r="V780">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D0BC5-EFB1-E84C-A16C-94455E81FB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29B7F9-1377-5F42-AC62-AD345B0DDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="724">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2163,6 +2163,51 @@
   </si>
   <si>
     <t>01:35:02</t>
+  </si>
+  <si>
+    <t>01:20:40</t>
+  </si>
+  <si>
+    <t>01:17:20</t>
+  </si>
+  <si>
+    <t>01:17:19</t>
+  </si>
+  <si>
+    <t>01:14:55</t>
+  </si>
+  <si>
+    <t>00:43:16</t>
+  </si>
+  <si>
+    <t>01:00:22</t>
+  </si>
+  <si>
+    <t>01:14:07</t>
+  </si>
+  <si>
+    <t>00:55:33</t>
+  </si>
+  <si>
+    <t>01:15:11</t>
+  </si>
+  <si>
+    <t>00:34:44</t>
+  </si>
+  <si>
+    <t>00:36:22</t>
+  </si>
+  <si>
+    <t>00:36:44</t>
+  </si>
+  <si>
+    <t>00:36:07</t>
+  </si>
+  <si>
+    <t>00:35:37</t>
+  </si>
+  <si>
+    <t>00:34:59</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V780"/>
+  <dimension ref="A1:V798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E787" sqref="E787"/>
+    <sheetView tabSelected="1" topLeftCell="A775" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D802" sqref="D802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54370,6 +54415,1230 @@
         <v>4</v>
       </c>
     </row>
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>23</v>
+      </c>
+      <c r="B781" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C781" t="s">
+        <v>20</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E781" t="s">
+        <v>36</v>
+      </c>
+      <c r="F781" t="s">
+        <v>30</v>
+      </c>
+      <c r="G781" t="s">
+        <v>709</v>
+      </c>
+      <c r="H781">
+        <v>4.25</v>
+      </c>
+      <c r="I781">
+        <v>0.36</v>
+      </c>
+      <c r="J781">
+        <v>3.89</v>
+      </c>
+      <c r="K781">
+        <v>0.2</v>
+      </c>
+      <c r="L781">
+        <v>0.1</v>
+      </c>
+      <c r="M781">
+        <v>0.06</v>
+      </c>
+      <c r="N781">
+        <v>0</v>
+      </c>
+      <c r="O781">
+        <v>4</v>
+      </c>
+      <c r="P781">
+        <v>2.95</v>
+      </c>
+      <c r="Q781">
+        <v>28.05</v>
+      </c>
+      <c r="R781">
+        <v>4.42</v>
+      </c>
+      <c r="S781">
+        <v>9</v>
+      </c>
+      <c r="T781">
+        <v>3</v>
+      </c>
+      <c r="U781">
+        <v>5</v>
+      </c>
+      <c r="V781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>23</v>
+      </c>
+      <c r="B782" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C782" t="s">
+        <v>20</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E782" t="s">
+        <v>53</v>
+      </c>
+      <c r="F782" t="s">
+        <v>32</v>
+      </c>
+      <c r="G782" t="s">
+        <v>710</v>
+      </c>
+      <c r="H782">
+        <v>4.68</v>
+      </c>
+      <c r="I782">
+        <v>0.51</v>
+      </c>
+      <c r="J782">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K782">
+        <v>0.34</v>
+      </c>
+      <c r="L782">
+        <v>0.13</v>
+      </c>
+      <c r="M782">
+        <v>0.06</v>
+      </c>
+      <c r="N782">
+        <v>0</v>
+      </c>
+      <c r="O782">
+        <v>4</v>
+      </c>
+      <c r="P782">
+        <v>3.49</v>
+      </c>
+      <c r="Q782">
+        <v>27.59</v>
+      </c>
+      <c r="R782">
+        <v>4.32</v>
+      </c>
+      <c r="S782">
+        <v>22</v>
+      </c>
+      <c r="T782">
+        <v>3</v>
+      </c>
+      <c r="U782">
+        <v>12</v>
+      </c>
+      <c r="V782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>23</v>
+      </c>
+      <c r="B783" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C783" t="s">
+        <v>20</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E783" t="s">
+        <v>52</v>
+      </c>
+      <c r="F783" t="s">
+        <v>33</v>
+      </c>
+      <c r="G783" t="s">
+        <v>711</v>
+      </c>
+      <c r="H783">
+        <v>4.12</v>
+      </c>
+      <c r="I783">
+        <v>0.39</v>
+      </c>
+      <c r="J783">
+        <v>3.73</v>
+      </c>
+      <c r="K783">
+        <v>0.13</v>
+      </c>
+      <c r="L783">
+        <v>0.18</v>
+      </c>
+      <c r="M783">
+        <v>0.08</v>
+      </c>
+      <c r="N783">
+        <v>0</v>
+      </c>
+      <c r="O783">
+        <v>5</v>
+      </c>
+      <c r="P783">
+        <v>3.04</v>
+      </c>
+      <c r="Q783">
+        <v>29.25</v>
+      </c>
+      <c r="R783">
+        <v>3.61</v>
+      </c>
+      <c r="S783">
+        <v>9</v>
+      </c>
+      <c r="T783">
+        <v>0</v>
+      </c>
+      <c r="U783">
+        <v>13</v>
+      </c>
+      <c r="V783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>23</v>
+      </c>
+      <c r="B784" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C784" t="s">
+        <v>20</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E784" t="s">
+        <v>447</v>
+      </c>
+      <c r="F784" t="s">
+        <v>33</v>
+      </c>
+      <c r="G784" t="s">
+        <v>629</v>
+      </c>
+      <c r="H784">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I784">
+        <v>0.31</v>
+      </c>
+      <c r="J784">
+        <v>4.04</v>
+      </c>
+      <c r="K784">
+        <v>0.12</v>
+      </c>
+      <c r="L784">
+        <v>0.12</v>
+      </c>
+      <c r="M784">
+        <v>0.06</v>
+      </c>
+      <c r="N784">
+        <v>0.01</v>
+      </c>
+      <c r="O784">
+        <v>6</v>
+      </c>
+      <c r="P784">
+        <v>2.82</v>
+      </c>
+      <c r="Q784">
+        <v>31.11</v>
+      </c>
+      <c r="R784">
+        <v>4.59</v>
+      </c>
+      <c r="S784">
+        <v>16</v>
+      </c>
+      <c r="T784">
+        <v>7</v>
+      </c>
+      <c r="U784">
+        <v>14</v>
+      </c>
+      <c r="V784">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>23</v>
+      </c>
+      <c r="B785" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C785" t="s">
+        <v>20</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E785" t="s">
+        <v>38</v>
+      </c>
+      <c r="F785" t="s">
+        <v>34</v>
+      </c>
+      <c r="G785" t="s">
+        <v>712</v>
+      </c>
+      <c r="H785">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I785">
+        <v>0.37</v>
+      </c>
+      <c r="J785">
+        <v>4.24</v>
+      </c>
+      <c r="K785">
+        <v>0.22</v>
+      </c>
+      <c r="L785">
+        <v>0.12</v>
+      </c>
+      <c r="M785">
+        <v>0.04</v>
+      </c>
+      <c r="N785">
+        <v>0</v>
+      </c>
+      <c r="O785">
+        <v>4</v>
+      </c>
+      <c r="P785">
+        <v>3.52</v>
+      </c>
+      <c r="Q785">
+        <v>26.65</v>
+      </c>
+      <c r="R785">
+        <v>4.26</v>
+      </c>
+      <c r="S785">
+        <v>23</v>
+      </c>
+      <c r="T785">
+        <v>5</v>
+      </c>
+      <c r="U785">
+        <v>16</v>
+      </c>
+      <c r="V785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>23</v>
+      </c>
+      <c r="B786" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C786" t="s">
+        <v>20</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E786" t="s">
+        <v>48</v>
+      </c>
+      <c r="F786" t="s">
+        <v>29</v>
+      </c>
+      <c r="G786" t="s">
+        <v>713</v>
+      </c>
+      <c r="H786">
+        <v>2.33</v>
+      </c>
+      <c r="I786">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J786">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K786">
+        <v>0.04</v>
+      </c>
+      <c r="L786">
+        <v>0.09</v>
+      </c>
+      <c r="M786">
+        <v>0.02</v>
+      </c>
+      <c r="N786">
+        <v>0</v>
+      </c>
+      <c r="O786">
+        <v>4</v>
+      </c>
+      <c r="P786">
+        <v>2.96</v>
+      </c>
+      <c r="Q786">
+        <v>26.08</v>
+      </c>
+      <c r="R786">
+        <v>3.25</v>
+      </c>
+      <c r="S786">
+        <v>2</v>
+      </c>
+      <c r="T786">
+        <v>0</v>
+      </c>
+      <c r="U786">
+        <v>0</v>
+      </c>
+      <c r="V786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>23</v>
+      </c>
+      <c r="B787" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C787" t="s">
+        <v>20</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E787" t="s">
+        <v>40</v>
+      </c>
+      <c r="F787" t="s">
+        <v>31</v>
+      </c>
+      <c r="G787" t="s">
+        <v>714</v>
+      </c>
+      <c r="H787">
+        <v>3.94</v>
+      </c>
+      <c r="I787">
+        <v>0.2</v>
+      </c>
+      <c r="J787">
+        <v>3.73</v>
+      </c>
+      <c r="K787">
+        <v>0.12</v>
+      </c>
+      <c r="L787">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M787">
+        <v>0.01</v>
+      </c>
+      <c r="N787">
+        <v>0</v>
+      </c>
+      <c r="O787">
+        <v>2</v>
+      </c>
+      <c r="P787">
+        <v>3.58</v>
+      </c>
+      <c r="Q787">
+        <v>29</v>
+      </c>
+      <c r="R787">
+        <v>5.03</v>
+      </c>
+      <c r="S787">
+        <v>43</v>
+      </c>
+      <c r="T787">
+        <v>8</v>
+      </c>
+      <c r="U787">
+        <v>41</v>
+      </c>
+      <c r="V787">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>23</v>
+      </c>
+      <c r="B788" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C788" t="s">
+        <v>20</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E788" t="s">
+        <v>164</v>
+      </c>
+      <c r="F788" t="s">
+        <v>32</v>
+      </c>
+      <c r="G788" t="s">
+        <v>570</v>
+      </c>
+      <c r="H788">
+        <v>3.96</v>
+      </c>
+      <c r="I788">
+        <v>0.16</v>
+      </c>
+      <c r="J788">
+        <v>3.79</v>
+      </c>
+      <c r="K788">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L788">
+        <v>0.03</v>
+      </c>
+      <c r="M788">
+        <v>0</v>
+      </c>
+      <c r="N788">
+        <v>0</v>
+      </c>
+      <c r="O788">
+        <v>0</v>
+      </c>
+      <c r="P788">
+        <v>2.78</v>
+      </c>
+      <c r="Q788">
+        <v>23.67</v>
+      </c>
+      <c r="R788">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S788">
+        <v>10</v>
+      </c>
+      <c r="T788">
+        <v>1</v>
+      </c>
+      <c r="U788">
+        <v>6</v>
+      </c>
+      <c r="V788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>23</v>
+      </c>
+      <c r="B789" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C789" t="s">
+        <v>20</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E789" t="s">
+        <v>16</v>
+      </c>
+      <c r="F789" t="s">
+        <v>30</v>
+      </c>
+      <c r="G789" t="s">
+        <v>715</v>
+      </c>
+      <c r="H789">
+        <v>3.37</v>
+      </c>
+      <c r="I789">
+        <v>0.34</v>
+      </c>
+      <c r="J789">
+        <v>3.02</v>
+      </c>
+      <c r="K789">
+        <v>0.21</v>
+      </c>
+      <c r="L789">
+        <v>0.06</v>
+      </c>
+      <c r="M789">
+        <v>0.06</v>
+      </c>
+      <c r="N789">
+        <v>0.02</v>
+      </c>
+      <c r="O789">
+        <v>4</v>
+      </c>
+      <c r="P789">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q789">
+        <v>31.21</v>
+      </c>
+      <c r="R789">
+        <v>4.96</v>
+      </c>
+      <c r="S789">
+        <v>13</v>
+      </c>
+      <c r="T789">
+        <v>5</v>
+      </c>
+      <c r="U789">
+        <v>13</v>
+      </c>
+      <c r="V789">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>23</v>
+      </c>
+      <c r="B790" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C790" t="s">
+        <v>20</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E790" t="s">
+        <v>58</v>
+      </c>
+      <c r="F790" t="s">
+        <v>29</v>
+      </c>
+      <c r="G790" t="s">
+        <v>716</v>
+      </c>
+      <c r="H790">
+        <v>4.78</v>
+      </c>
+      <c r="I790">
+        <v>1.41</v>
+      </c>
+      <c r="J790">
+        <v>3.36</v>
+      </c>
+      <c r="K790">
+        <v>0.8</v>
+      </c>
+      <c r="L790">
+        <v>0.59</v>
+      </c>
+      <c r="M790">
+        <v>0.04</v>
+      </c>
+      <c r="N790">
+        <v>0</v>
+      </c>
+      <c r="O790">
+        <v>4</v>
+      </c>
+      <c r="P790">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q790">
+        <v>29.06</v>
+      </c>
+      <c r="R790">
+        <v>5.04</v>
+      </c>
+      <c r="S790">
+        <v>26</v>
+      </c>
+      <c r="T790">
+        <v>9</v>
+      </c>
+      <c r="U790">
+        <v>16</v>
+      </c>
+      <c r="V790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>23</v>
+      </c>
+      <c r="B791" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C791" t="s">
+        <v>20</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E791" t="s">
+        <v>17</v>
+      </c>
+      <c r="F791" t="s">
+        <v>34</v>
+      </c>
+      <c r="G791" t="s">
+        <v>717</v>
+      </c>
+      <c r="H791">
+        <v>4.38</v>
+      </c>
+      <c r="I791">
+        <v>0.3</v>
+      </c>
+      <c r="J791">
+        <v>4.08</v>
+      </c>
+      <c r="K791">
+        <v>0.16</v>
+      </c>
+      <c r="L791">
+        <v>0.12</v>
+      </c>
+      <c r="M791">
+        <v>0.02</v>
+      </c>
+      <c r="N791">
+        <v>0</v>
+      </c>
+      <c r="O791">
+        <v>6</v>
+      </c>
+      <c r="P791">
+        <v>3.01</v>
+      </c>
+      <c r="Q791">
+        <v>26.38</v>
+      </c>
+      <c r="R791">
+        <v>5.19</v>
+      </c>
+      <c r="S791">
+        <v>18</v>
+      </c>
+      <c r="T791">
+        <v>11</v>
+      </c>
+      <c r="U791">
+        <v>19</v>
+      </c>
+      <c r="V791">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>23</v>
+      </c>
+      <c r="B792" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C792" t="s">
+        <v>20</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E792" t="s">
+        <v>40</v>
+      </c>
+      <c r="F792" t="s">
+        <v>31</v>
+      </c>
+      <c r="G792" t="s">
+        <v>718</v>
+      </c>
+      <c r="H792">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I792">
+        <v>0.22</v>
+      </c>
+      <c r="J792">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K792">
+        <v>0.15</v>
+      </c>
+      <c r="L792">
+        <v>0.06</v>
+      </c>
+      <c r="M792">
+        <v>0.01</v>
+      </c>
+      <c r="N792">
+        <v>0</v>
+      </c>
+      <c r="O792">
+        <v>3</v>
+      </c>
+      <c r="P792">
+        <v>3.92</v>
+      </c>
+      <c r="Q792">
+        <v>28.12</v>
+      </c>
+      <c r="R792">
+        <v>5.17</v>
+      </c>
+      <c r="S792">
+        <v>25</v>
+      </c>
+      <c r="T792">
+        <v>13</v>
+      </c>
+      <c r="U792">
+        <v>24</v>
+      </c>
+      <c r="V792">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>23</v>
+      </c>
+      <c r="B793" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C793" t="s">
+        <v>20</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E793" t="s">
+        <v>52</v>
+      </c>
+      <c r="F793" t="s">
+        <v>33</v>
+      </c>
+      <c r="G793" t="s">
+        <v>719</v>
+      </c>
+      <c r="H793">
+        <v>3.1</v>
+      </c>
+      <c r="I793">
+        <v>0.31</v>
+      </c>
+      <c r="J793">
+        <v>2.79</v>
+      </c>
+      <c r="K793">
+        <v>0.19</v>
+      </c>
+      <c r="L793">
+        <v>0.08</v>
+      </c>
+      <c r="M793">
+        <v>0.04</v>
+      </c>
+      <c r="N793">
+        <v>0</v>
+      </c>
+      <c r="O793">
+        <v>3</v>
+      </c>
+      <c r="P793">
+        <v>5.08</v>
+      </c>
+      <c r="Q793">
+        <v>29.31</v>
+      </c>
+      <c r="R793">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S793">
+        <v>24</v>
+      </c>
+      <c r="T793">
+        <v>4</v>
+      </c>
+      <c r="U793">
+        <v>20</v>
+      </c>
+      <c r="V793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>23</v>
+      </c>
+      <c r="B794" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C794" t="s">
+        <v>20</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E794" t="s">
+        <v>53</v>
+      </c>
+      <c r="F794" t="s">
+        <v>32</v>
+      </c>
+      <c r="G794" t="s">
+        <v>720</v>
+      </c>
+      <c r="H794">
+        <v>3.35</v>
+      </c>
+      <c r="I794">
+        <v>0.13</v>
+      </c>
+      <c r="J794">
+        <v>3.21</v>
+      </c>
+      <c r="K794">
+        <v>0.13</v>
+      </c>
+      <c r="L794">
+        <v>0.01</v>
+      </c>
+      <c r="M794">
+        <v>0</v>
+      </c>
+      <c r="N794">
+        <v>0</v>
+      </c>
+      <c r="O794">
+        <v>0</v>
+      </c>
+      <c r="P794">
+        <v>5.43</v>
+      </c>
+      <c r="Q794">
+        <v>21.35</v>
+      </c>
+      <c r="R794">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S794">
+        <v>12</v>
+      </c>
+      <c r="T794">
+        <v>1</v>
+      </c>
+      <c r="U794">
+        <v>8</v>
+      </c>
+      <c r="V794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>23</v>
+      </c>
+      <c r="B795" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C795" t="s">
+        <v>20</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E795" t="s">
+        <v>43</v>
+      </c>
+      <c r="F795" t="s">
+        <v>34</v>
+      </c>
+      <c r="G795" t="s">
+        <v>720</v>
+      </c>
+      <c r="H795">
+        <v>3.33</v>
+      </c>
+      <c r="I795">
+        <v>0.31</v>
+      </c>
+      <c r="J795">
+        <v>3.01</v>
+      </c>
+      <c r="K795">
+        <v>0.21</v>
+      </c>
+      <c r="L795">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M795">
+        <v>0.03</v>
+      </c>
+      <c r="N795">
+        <v>0</v>
+      </c>
+      <c r="O795">
+        <v>5</v>
+      </c>
+      <c r="P795">
+        <v>5.08</v>
+      </c>
+      <c r="Q795">
+        <v>30.14</v>
+      </c>
+      <c r="R795">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S795">
+        <v>24</v>
+      </c>
+      <c r="T795">
+        <v>4</v>
+      </c>
+      <c r="U795">
+        <v>26</v>
+      </c>
+      <c r="V795">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>23</v>
+      </c>
+      <c r="B796" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C796" t="s">
+        <v>20</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E796" t="s">
+        <v>16</v>
+      </c>
+      <c r="F796" t="s">
+        <v>30</v>
+      </c>
+      <c r="G796" t="s">
+        <v>721</v>
+      </c>
+      <c r="H796">
+        <v>2.5</v>
+      </c>
+      <c r="I796">
+        <v>0.23</v>
+      </c>
+      <c r="J796">
+        <v>2.27</v>
+      </c>
+      <c r="K796">
+        <v>0.16</v>
+      </c>
+      <c r="L796">
+        <v>0.05</v>
+      </c>
+      <c r="M796">
+        <v>0.03</v>
+      </c>
+      <c r="N796">
+        <v>0</v>
+      </c>
+      <c r="O796">
+        <v>3</v>
+      </c>
+      <c r="P796">
+        <v>4.08</v>
+      </c>
+      <c r="Q796">
+        <v>28.64</v>
+      </c>
+      <c r="R796">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S796">
+        <v>23</v>
+      </c>
+      <c r="T796">
+        <v>4</v>
+      </c>
+      <c r="U796">
+        <v>10</v>
+      </c>
+      <c r="V796">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>23</v>
+      </c>
+      <c r="B797" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C797" t="s">
+        <v>20</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E797" t="s">
+        <v>36</v>
+      </c>
+      <c r="F797" t="s">
+        <v>30</v>
+      </c>
+      <c r="G797" t="s">
+        <v>722</v>
+      </c>
+      <c r="H797">
+        <v>2.71</v>
+      </c>
+      <c r="I797">
+        <v>0.25</v>
+      </c>
+      <c r="J797">
+        <v>2.46</v>
+      </c>
+      <c r="K797">
+        <v>0.18</v>
+      </c>
+      <c r="L797">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M797">
+        <v>0.01</v>
+      </c>
+      <c r="N797">
+        <v>0</v>
+      </c>
+      <c r="O797">
+        <v>1</v>
+      </c>
+      <c r="P797">
+        <v>4.53</v>
+      </c>
+      <c r="Q797">
+        <v>26.64</v>
+      </c>
+      <c r="R797">
+        <v>4.63</v>
+      </c>
+      <c r="S797">
+        <v>21</v>
+      </c>
+      <c r="T797">
+        <v>5</v>
+      </c>
+      <c r="U797">
+        <v>10</v>
+      </c>
+      <c r="V797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>23</v>
+      </c>
+      <c r="B798" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C798" t="s">
+        <v>20</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E798" t="s">
+        <v>35</v>
+      </c>
+      <c r="F798" t="s">
+        <v>34</v>
+      </c>
+      <c r="G798" t="s">
+        <v>723</v>
+      </c>
+      <c r="H798">
+        <v>2.77</v>
+      </c>
+      <c r="I798">
+        <v>0.3</v>
+      </c>
+      <c r="J798">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K798">
+        <v>0.2</v>
+      </c>
+      <c r="L798">
+        <v>0.1</v>
+      </c>
+      <c r="M798">
+        <v>0.01</v>
+      </c>
+      <c r="N798">
+        <v>0</v>
+      </c>
+      <c r="O798">
+        <v>2</v>
+      </c>
+      <c r="P798">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="Q798">
+        <v>26.34</v>
+      </c>
+      <c r="R798">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S798">
+        <v>28</v>
+      </c>
+      <c r="T798">
+        <v>9</v>
+      </c>
+      <c r="U798">
+        <v>19</v>
+      </c>
+      <c r="V798">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29B7F9-1377-5F42-AC62-AD345B0DDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E9BC1-E9FE-A246-A590-3DB8CEAFE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="741">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2208,6 +2208,57 @@
   </si>
   <si>
     <t>00:34:59</t>
+  </si>
+  <si>
+    <t>01:46:15</t>
+  </si>
+  <si>
+    <t>01:25:57</t>
+  </si>
+  <si>
+    <t>01:45:26</t>
+  </si>
+  <si>
+    <t>00:19:06</t>
+  </si>
+  <si>
+    <t>01:44:56</t>
+  </si>
+  <si>
+    <t>01:08:41</t>
+  </si>
+  <si>
+    <t>01:02:17</t>
+  </si>
+  <si>
+    <t>00:36:23</t>
+  </si>
+  <si>
+    <t>01:27:17</t>
+  </si>
+  <si>
+    <t>N3 J7 VS Gallia Lucciana</t>
+  </si>
+  <si>
+    <t>01:31:27</t>
+  </si>
+  <si>
+    <t>01:32:10</t>
+  </si>
+  <si>
+    <t>01:31:36</t>
+  </si>
+  <si>
+    <t>01:30:52</t>
+  </si>
+  <si>
+    <t>01:30:09</t>
+  </si>
+  <si>
+    <t>01:31:44</t>
+  </si>
+  <si>
+    <t>01:28:59</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V798"/>
+  <dimension ref="A1:V820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D802" sqref="D802"/>
+    <sheetView tabSelected="1" topLeftCell="A785" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C824" sqref="C824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55639,6 +55690,1502 @@
         <v>5</v>
       </c>
     </row>
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>733</v>
+      </c>
+      <c r="B799" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C799" t="s">
+        <v>20</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E799" t="s">
+        <v>55</v>
+      </c>
+      <c r="F799" t="s">
+        <v>32</v>
+      </c>
+      <c r="G799" t="s">
+        <v>724</v>
+      </c>
+      <c r="H799">
+        <v>11.48</v>
+      </c>
+      <c r="I799">
+        <v>2.1</v>
+      </c>
+      <c r="J799">
+        <v>9.35</v>
+      </c>
+      <c r="K799">
+        <v>1.44</v>
+      </c>
+      <c r="L799">
+        <v>0.49</v>
+      </c>
+      <c r="M799">
+        <v>0.18</v>
+      </c>
+      <c r="N799">
+        <v>0.01</v>
+      </c>
+      <c r="O799">
+        <v>11</v>
+      </c>
+      <c r="P799">
+        <v>6.44</v>
+      </c>
+      <c r="Q799">
+        <v>30.77</v>
+      </c>
+      <c r="R799">
+        <v>4.71</v>
+      </c>
+      <c r="S799">
+        <v>43</v>
+      </c>
+      <c r="T799">
+        <v>7</v>
+      </c>
+      <c r="U799">
+        <v>36</v>
+      </c>
+      <c r="V799">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>733</v>
+      </c>
+      <c r="B800" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C800" t="s">
+        <v>20</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E800" t="s">
+        <v>38</v>
+      </c>
+      <c r="F800" t="s">
+        <v>34</v>
+      </c>
+      <c r="G800" t="s">
+        <v>725</v>
+      </c>
+      <c r="H800">
+        <v>8.85</v>
+      </c>
+      <c r="I800">
+        <v>1.82</v>
+      </c>
+      <c r="J800">
+        <v>7.01</v>
+      </c>
+      <c r="K800">
+        <v>1.06</v>
+      </c>
+      <c r="L800">
+        <v>0.52</v>
+      </c>
+      <c r="M800">
+        <v>0.24</v>
+      </c>
+      <c r="N800">
+        <v>0.02</v>
+      </c>
+      <c r="O800">
+        <v>16</v>
+      </c>
+      <c r="P800">
+        <v>6.14</v>
+      </c>
+      <c r="Q800">
+        <v>31.82</v>
+      </c>
+      <c r="R800">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S800">
+        <v>20</v>
+      </c>
+      <c r="T800">
+        <v>6</v>
+      </c>
+      <c r="U800">
+        <v>32</v>
+      </c>
+      <c r="V800">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>733</v>
+      </c>
+      <c r="B801" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C801" t="s">
+        <v>20</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E801" t="s">
+        <v>447</v>
+      </c>
+      <c r="F801" t="s">
+        <v>33</v>
+      </c>
+      <c r="G801" t="s">
+        <v>726</v>
+      </c>
+      <c r="H801">
+        <v>12.69</v>
+      </c>
+      <c r="I801">
+        <v>2.99</v>
+      </c>
+      <c r="J801">
+        <v>9.67</v>
+      </c>
+      <c r="K801">
+        <v>2.08</v>
+      </c>
+      <c r="L801">
+        <v>0.81</v>
+      </c>
+      <c r="M801">
+        <v>0.13</v>
+      </c>
+      <c r="N801">
+        <v>0</v>
+      </c>
+      <c r="O801">
+        <v>8</v>
+      </c>
+      <c r="P801">
+        <v>7.18</v>
+      </c>
+      <c r="Q801">
+        <v>28.49</v>
+      </c>
+      <c r="R801">
+        <v>4.49</v>
+      </c>
+      <c r="S801">
+        <v>43</v>
+      </c>
+      <c r="T801">
+        <v>5</v>
+      </c>
+      <c r="U801">
+        <v>29</v>
+      </c>
+      <c r="V801">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>733</v>
+      </c>
+      <c r="B802" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C802" t="s">
+        <v>20</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E802" t="s">
+        <v>17</v>
+      </c>
+      <c r="F802" t="s">
+        <v>34</v>
+      </c>
+      <c r="G802" t="s">
+        <v>727</v>
+      </c>
+      <c r="H802">
+        <v>2.36</v>
+      </c>
+      <c r="I802">
+        <v>0.69</v>
+      </c>
+      <c r="J802">
+        <v>1.66</v>
+      </c>
+      <c r="K802">
+        <v>0.39</v>
+      </c>
+      <c r="L802">
+        <v>0.23</v>
+      </c>
+      <c r="M802">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N802">
+        <v>0</v>
+      </c>
+      <c r="O802">
+        <v>5</v>
+      </c>
+      <c r="P802">
+        <v>7.39</v>
+      </c>
+      <c r="Q802">
+        <v>28.26</v>
+      </c>
+      <c r="R802">
+        <v>4.04</v>
+      </c>
+      <c r="S802">
+        <v>9</v>
+      </c>
+      <c r="T802">
+        <v>1</v>
+      </c>
+      <c r="U802">
+        <v>12</v>
+      </c>
+      <c r="V802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>733</v>
+      </c>
+      <c r="B803" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C803" t="s">
+        <v>20</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E803" t="s">
+        <v>448</v>
+      </c>
+      <c r="F803" t="s">
+        <v>32</v>
+      </c>
+      <c r="G803" t="s">
+        <v>728</v>
+      </c>
+      <c r="H803">
+        <v>13.27</v>
+      </c>
+      <c r="I803">
+        <v>3.12</v>
+      </c>
+      <c r="J803">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="K803">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L803">
+        <v>0.6</v>
+      </c>
+      <c r="M803">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N803">
+        <v>0</v>
+      </c>
+      <c r="O803">
+        <v>6</v>
+      </c>
+      <c r="P803">
+        <v>7.5</v>
+      </c>
+      <c r="Q803">
+        <v>27.87</v>
+      </c>
+      <c r="R803">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S803">
+        <v>29</v>
+      </c>
+      <c r="T803">
+        <v>1</v>
+      </c>
+      <c r="U803">
+        <v>39</v>
+      </c>
+      <c r="V803">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>733</v>
+      </c>
+      <c r="B804" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C804" t="s">
+        <v>20</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E804" t="s">
+        <v>43</v>
+      </c>
+      <c r="F804" t="s">
+        <v>34</v>
+      </c>
+      <c r="G804" t="s">
+        <v>729</v>
+      </c>
+      <c r="H804">
+        <v>8.27</v>
+      </c>
+      <c r="I804">
+        <v>2.31</v>
+      </c>
+      <c r="J804">
+        <v>5.93</v>
+      </c>
+      <c r="K804">
+        <v>1.34</v>
+      </c>
+      <c r="L804">
+        <v>0.65</v>
+      </c>
+      <c r="M804">
+        <v>0.32</v>
+      </c>
+      <c r="N804">
+        <v>0.02</v>
+      </c>
+      <c r="O804">
+        <v>22</v>
+      </c>
+      <c r="P804">
+        <v>7.2</v>
+      </c>
+      <c r="Q804">
+        <v>32</v>
+      </c>
+      <c r="R804">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S804">
+        <v>48</v>
+      </c>
+      <c r="T804">
+        <v>6</v>
+      </c>
+      <c r="U804">
+        <v>29</v>
+      </c>
+      <c r="V804">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>733</v>
+      </c>
+      <c r="B805" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C805" t="s">
+        <v>20</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E805" t="s">
+        <v>52</v>
+      </c>
+      <c r="F805" t="s">
+        <v>33</v>
+      </c>
+      <c r="G805" t="s">
+        <v>524</v>
+      </c>
+      <c r="H805">
+        <v>10.1</v>
+      </c>
+      <c r="I805">
+        <v>1.73</v>
+      </c>
+      <c r="J805">
+        <v>8.34</v>
+      </c>
+      <c r="K805">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L805">
+        <v>0.43</v>
+      </c>
+      <c r="M805">
+        <v>0.17</v>
+      </c>
+      <c r="N805">
+        <v>0.01</v>
+      </c>
+      <c r="O805">
+        <v>10</v>
+      </c>
+      <c r="P805">
+        <v>6.95</v>
+      </c>
+      <c r="Q805">
+        <v>31.11</v>
+      </c>
+      <c r="R805">
+        <v>4.37</v>
+      </c>
+      <c r="S805">
+        <v>34</v>
+      </c>
+      <c r="T805">
+        <v>8</v>
+      </c>
+      <c r="U805">
+        <v>40</v>
+      </c>
+      <c r="V805">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>733</v>
+      </c>
+      <c r="B806" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C806" t="s">
+        <v>20</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E806" t="s">
+        <v>25</v>
+      </c>
+      <c r="F806" t="s">
+        <v>29</v>
+      </c>
+      <c r="G806" t="s">
+        <v>730</v>
+      </c>
+      <c r="H806">
+        <v>6.88</v>
+      </c>
+      <c r="I806">
+        <v>1.2</v>
+      </c>
+      <c r="J806">
+        <v>5.67</v>
+      </c>
+      <c r="K806">
+        <v>0.91</v>
+      </c>
+      <c r="L806">
+        <v>0.23</v>
+      </c>
+      <c r="M806">
+        <v>0.08</v>
+      </c>
+      <c r="N806">
+        <v>0</v>
+      </c>
+      <c r="O806">
+        <v>4</v>
+      </c>
+      <c r="P806">
+        <v>6.43</v>
+      </c>
+      <c r="Q806">
+        <v>29.83</v>
+      </c>
+      <c r="R806">
+        <v>4.17</v>
+      </c>
+      <c r="S806">
+        <v>23</v>
+      </c>
+      <c r="T806">
+        <v>2</v>
+      </c>
+      <c r="U806">
+        <v>23</v>
+      </c>
+      <c r="V806">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>733</v>
+      </c>
+      <c r="B807" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C807" t="s">
+        <v>20</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E807" t="s">
+        <v>40</v>
+      </c>
+      <c r="F807" t="s">
+        <v>31</v>
+      </c>
+      <c r="G807" t="s">
+        <v>731</v>
+      </c>
+      <c r="H807">
+        <v>4.7</v>
+      </c>
+      <c r="I807">
+        <v>1.25</v>
+      </c>
+      <c r="J807">
+        <v>3.44</v>
+      </c>
+      <c r="K807">
+        <v>0.75</v>
+      </c>
+      <c r="L807">
+        <v>0.34</v>
+      </c>
+      <c r="M807">
+        <v>0.16</v>
+      </c>
+      <c r="N807">
+        <v>0</v>
+      </c>
+      <c r="O807">
+        <v>12</v>
+      </c>
+      <c r="P807">
+        <v>7.75</v>
+      </c>
+      <c r="Q807">
+        <v>29.1</v>
+      </c>
+      <c r="R807">
+        <v>4.41</v>
+      </c>
+      <c r="S807">
+        <v>22</v>
+      </c>
+      <c r="T807">
+        <v>5</v>
+      </c>
+      <c r="U807">
+        <v>19</v>
+      </c>
+      <c r="V807">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>733</v>
+      </c>
+      <c r="B808" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C808" t="s">
+        <v>20</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E808" t="s">
+        <v>93</v>
+      </c>
+      <c r="F808" t="s">
+        <v>31</v>
+      </c>
+      <c r="G808" t="s">
+        <v>732</v>
+      </c>
+      <c r="H808">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I808">
+        <v>1.79</v>
+      </c>
+      <c r="J808">
+        <v>6.49</v>
+      </c>
+      <c r="K808">
+        <v>0.86</v>
+      </c>
+      <c r="L808">
+        <v>0.51</v>
+      </c>
+      <c r="M808">
+        <v>0.34</v>
+      </c>
+      <c r="N808">
+        <v>0.1</v>
+      </c>
+      <c r="O808">
+        <v>20</v>
+      </c>
+      <c r="P808">
+        <v>5.65</v>
+      </c>
+      <c r="Q808">
+        <v>33.67</v>
+      </c>
+      <c r="R808">
+        <v>5.41</v>
+      </c>
+      <c r="S808">
+        <v>36</v>
+      </c>
+      <c r="T808">
+        <v>7</v>
+      </c>
+      <c r="U808">
+        <v>22</v>
+      </c>
+      <c r="V808">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>733</v>
+      </c>
+      <c r="B809" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C809" t="s">
+        <v>20</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E809" t="s">
+        <v>48</v>
+      </c>
+      <c r="F809" t="s">
+        <v>29</v>
+      </c>
+      <c r="G809" t="s">
+        <v>724</v>
+      </c>
+      <c r="H809">
+        <v>10.23</v>
+      </c>
+      <c r="I809">
+        <v>1.17</v>
+      </c>
+      <c r="J809">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K809">
+        <v>0.81</v>
+      </c>
+      <c r="L809">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M809">
+        <v>0.08</v>
+      </c>
+      <c r="N809">
+        <v>0</v>
+      </c>
+      <c r="O809">
+        <v>9</v>
+      </c>
+      <c r="P809">
+        <v>5.65</v>
+      </c>
+      <c r="Q809">
+        <v>28.84</v>
+      </c>
+      <c r="R809">
+        <v>4.99</v>
+      </c>
+      <c r="S809">
+        <v>16</v>
+      </c>
+      <c r="T809">
+        <v>5</v>
+      </c>
+      <c r="U809">
+        <v>24</v>
+      </c>
+      <c r="V809">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>23</v>
+      </c>
+      <c r="B810" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C810" t="s">
+        <v>20</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E810" t="s">
+        <v>38</v>
+      </c>
+      <c r="F810" t="s">
+        <v>34</v>
+      </c>
+      <c r="G810" t="s">
+        <v>734</v>
+      </c>
+      <c r="H810">
+        <v>4.99</v>
+      </c>
+      <c r="I810">
+        <v>0.08</v>
+      </c>
+      <c r="J810">
+        <v>4.91</v>
+      </c>
+      <c r="K810">
+        <v>0.06</v>
+      </c>
+      <c r="L810">
+        <v>0.02</v>
+      </c>
+      <c r="M810">
+        <v>0</v>
+      </c>
+      <c r="N810">
+        <v>0</v>
+      </c>
+      <c r="O810">
+        <v>0</v>
+      </c>
+      <c r="P810">
+        <v>2.37</v>
+      </c>
+      <c r="Q810">
+        <v>24.38</v>
+      </c>
+      <c r="R810">
+        <v>4.13</v>
+      </c>
+      <c r="S810">
+        <v>2</v>
+      </c>
+      <c r="T810">
+        <v>1</v>
+      </c>
+      <c r="U810">
+        <v>6</v>
+      </c>
+      <c r="V810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>23</v>
+      </c>
+      <c r="B811" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C811" t="s">
+        <v>20</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E811" t="s">
+        <v>52</v>
+      </c>
+      <c r="F811" t="s">
+        <v>33</v>
+      </c>
+      <c r="G811" t="s">
+        <v>735</v>
+      </c>
+      <c r="H811">
+        <v>6.63</v>
+      </c>
+      <c r="I811">
+        <v>0.65</v>
+      </c>
+      <c r="J811">
+        <v>5.98</v>
+      </c>
+      <c r="K811">
+        <v>0.36</v>
+      </c>
+      <c r="L811">
+        <v>0.24</v>
+      </c>
+      <c r="M811">
+        <v>0.05</v>
+      </c>
+      <c r="N811">
+        <v>0</v>
+      </c>
+      <c r="O811">
+        <v>4</v>
+      </c>
+      <c r="P811">
+        <v>4.29</v>
+      </c>
+      <c r="Q811">
+        <v>27.8</v>
+      </c>
+      <c r="R811">
+        <v>4.47</v>
+      </c>
+      <c r="S811">
+        <v>32</v>
+      </c>
+      <c r="T811">
+        <v>1</v>
+      </c>
+      <c r="U811">
+        <v>21</v>
+      </c>
+      <c r="V811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>23</v>
+      </c>
+      <c r="B812" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C812" t="s">
+        <v>20</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E812" t="s">
+        <v>35</v>
+      </c>
+      <c r="F812" t="s">
+        <v>34</v>
+      </c>
+      <c r="G812" t="s">
+        <v>736</v>
+      </c>
+      <c r="H812">
+        <v>6.38</v>
+      </c>
+      <c r="I812">
+        <v>0.54</v>
+      </c>
+      <c r="J812">
+        <v>5.83</v>
+      </c>
+      <c r="K812">
+        <v>0.41</v>
+      </c>
+      <c r="L812">
+        <v>0.13</v>
+      </c>
+      <c r="M812">
+        <v>0.01</v>
+      </c>
+      <c r="N812">
+        <v>0</v>
+      </c>
+      <c r="O812">
+        <v>2</v>
+      </c>
+      <c r="P812">
+        <v>4.12</v>
+      </c>
+      <c r="Q812">
+        <v>25.95</v>
+      </c>
+      <c r="R812">
+        <v>5.46</v>
+      </c>
+      <c r="S812">
+        <v>49</v>
+      </c>
+      <c r="T812">
+        <v>15</v>
+      </c>
+      <c r="U812">
+        <v>36</v>
+      </c>
+      <c r="V812">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>23</v>
+      </c>
+      <c r="B813" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C813" t="s">
+        <v>20</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E813" t="s">
+        <v>48</v>
+      </c>
+      <c r="F813" t="s">
+        <v>29</v>
+      </c>
+      <c r="G813" t="s">
+        <v>522</v>
+      </c>
+      <c r="H813">
+        <v>4.59</v>
+      </c>
+      <c r="I813">
+        <v>0.12</v>
+      </c>
+      <c r="J813">
+        <v>4.47</v>
+      </c>
+      <c r="K813">
+        <v>0.11</v>
+      </c>
+      <c r="L813">
+        <v>0.01</v>
+      </c>
+      <c r="M813">
+        <v>0</v>
+      </c>
+      <c r="N813">
+        <v>0</v>
+      </c>
+      <c r="O813">
+        <v>0</v>
+      </c>
+      <c r="P813">
+        <v>2.99</v>
+      </c>
+      <c r="Q813">
+        <v>24.18</v>
+      </c>
+      <c r="R813">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="S813">
+        <v>18</v>
+      </c>
+      <c r="T813">
+        <v>1</v>
+      </c>
+      <c r="U813">
+        <v>11</v>
+      </c>
+      <c r="V813">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>23</v>
+      </c>
+      <c r="B814" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C814" t="s">
+        <v>20</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E814" t="s">
+        <v>16</v>
+      </c>
+      <c r="F814" t="s">
+        <v>30</v>
+      </c>
+      <c r="G814" t="s">
+        <v>737</v>
+      </c>
+      <c r="H814">
+        <v>5.24</v>
+      </c>
+      <c r="I814">
+        <v>0.38</v>
+      </c>
+      <c r="J814">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K814">
+        <v>0.31</v>
+      </c>
+      <c r="L814">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M814">
+        <v>0</v>
+      </c>
+      <c r="N814">
+        <v>0</v>
+      </c>
+      <c r="O814">
+        <v>0</v>
+      </c>
+      <c r="P814">
+        <v>3.37</v>
+      </c>
+      <c r="Q814">
+        <v>24.49</v>
+      </c>
+      <c r="R814">
+        <v>4.74</v>
+      </c>
+      <c r="S814">
+        <v>31</v>
+      </c>
+      <c r="T814">
+        <v>6</v>
+      </c>
+      <c r="U814">
+        <v>28</v>
+      </c>
+      <c r="V814">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>23</v>
+      </c>
+      <c r="B815" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C815" t="s">
+        <v>20</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E815" t="s">
+        <v>53</v>
+      </c>
+      <c r="F815" t="s">
+        <v>32</v>
+      </c>
+      <c r="G815" t="s">
+        <v>737</v>
+      </c>
+      <c r="H815">
+        <v>7.59</v>
+      </c>
+      <c r="I815">
+        <v>0.84</v>
+      </c>
+      <c r="J815">
+        <v>6.74</v>
+      </c>
+      <c r="K815">
+        <v>0.49</v>
+      </c>
+      <c r="L815">
+        <v>0.34</v>
+      </c>
+      <c r="M815">
+        <v>0.03</v>
+      </c>
+      <c r="N815">
+        <v>0</v>
+      </c>
+      <c r="O815">
+        <v>3</v>
+      </c>
+      <c r="P815">
+        <v>4.95</v>
+      </c>
+      <c r="Q815">
+        <v>26.61</v>
+      </c>
+      <c r="R815">
+        <v>5.09</v>
+      </c>
+      <c r="S815">
+        <v>42</v>
+      </c>
+      <c r="T815">
+        <v>3</v>
+      </c>
+      <c r="U815">
+        <v>20</v>
+      </c>
+      <c r="V815">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>23</v>
+      </c>
+      <c r="B816" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C816" t="s">
+        <v>20</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E816" t="s">
+        <v>164</v>
+      </c>
+      <c r="F816" t="s">
+        <v>32</v>
+      </c>
+      <c r="G816" t="s">
+        <v>738</v>
+      </c>
+      <c r="H816">
+        <v>6.35</v>
+      </c>
+      <c r="I816">
+        <v>0.48</v>
+      </c>
+      <c r="J816">
+        <v>5.86</v>
+      </c>
+      <c r="K816">
+        <v>0.36</v>
+      </c>
+      <c r="L816">
+        <v>0.11</v>
+      </c>
+      <c r="M816">
+        <v>0.02</v>
+      </c>
+      <c r="N816">
+        <v>0</v>
+      </c>
+      <c r="O816">
+        <v>2</v>
+      </c>
+      <c r="P816">
+        <v>4.16</v>
+      </c>
+      <c r="Q816">
+        <v>26.69</v>
+      </c>
+      <c r="R816">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S816">
+        <v>29</v>
+      </c>
+      <c r="T816">
+        <v>4</v>
+      </c>
+      <c r="U816">
+        <v>28</v>
+      </c>
+      <c r="V816">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>23</v>
+      </c>
+      <c r="B817" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C817" t="s">
+        <v>20</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E817" t="s">
+        <v>448</v>
+      </c>
+      <c r="F817" t="s">
+        <v>32</v>
+      </c>
+      <c r="G817" t="s">
+        <v>179</v>
+      </c>
+      <c r="H817">
+        <v>5.71</v>
+      </c>
+      <c r="I817">
+        <v>0.15</v>
+      </c>
+      <c r="J817">
+        <v>5.55</v>
+      </c>
+      <c r="K817">
+        <v>0.13</v>
+      </c>
+      <c r="L817">
+        <v>0.03</v>
+      </c>
+      <c r="M817">
+        <v>0</v>
+      </c>
+      <c r="N817">
+        <v>0</v>
+      </c>
+      <c r="O817">
+        <v>0</v>
+      </c>
+      <c r="P817">
+        <v>3.69</v>
+      </c>
+      <c r="Q817">
+        <v>21.7</v>
+      </c>
+      <c r="R817">
+        <v>3.96</v>
+      </c>
+      <c r="S817">
+        <v>7</v>
+      </c>
+      <c r="T817">
+        <v>0</v>
+      </c>
+      <c r="U817">
+        <v>9</v>
+      </c>
+      <c r="V817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>23</v>
+      </c>
+      <c r="B818" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C818" t="s">
+        <v>20</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E818" t="s">
+        <v>447</v>
+      </c>
+      <c r="F818" t="s">
+        <v>33</v>
+      </c>
+      <c r="G818" t="s">
+        <v>739</v>
+      </c>
+      <c r="H818">
+        <v>6.77</v>
+      </c>
+      <c r="I818">
+        <v>0.59</v>
+      </c>
+      <c r="J818">
+        <v>6.16</v>
+      </c>
+      <c r="K818">
+        <v>0.33</v>
+      </c>
+      <c r="L818">
+        <v>0.18</v>
+      </c>
+      <c r="M818">
+        <v>0.09</v>
+      </c>
+      <c r="N818">
+        <v>0.01</v>
+      </c>
+      <c r="O818">
+        <v>5</v>
+      </c>
+      <c r="P818">
+        <v>3.87</v>
+      </c>
+      <c r="Q818">
+        <v>30.94</v>
+      </c>
+      <c r="R818">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S818">
+        <v>49</v>
+      </c>
+      <c r="T818">
+        <v>4</v>
+      </c>
+      <c r="U818">
+        <v>51</v>
+      </c>
+      <c r="V818">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>23</v>
+      </c>
+      <c r="B819" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C819" t="s">
+        <v>20</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E819" t="s">
+        <v>17</v>
+      </c>
+      <c r="F819" t="s">
+        <v>34</v>
+      </c>
+      <c r="G819" t="s">
+        <v>676</v>
+      </c>
+      <c r="H819">
+        <v>6.46</v>
+      </c>
+      <c r="I819">
+        <v>0.74</v>
+      </c>
+      <c r="J819">
+        <v>5.71</v>
+      </c>
+      <c r="K819">
+        <v>0.53</v>
+      </c>
+      <c r="L819">
+        <v>0.19</v>
+      </c>
+      <c r="M819">
+        <v>0.04</v>
+      </c>
+      <c r="N819">
+        <v>0</v>
+      </c>
+      <c r="O819">
+        <v>8</v>
+      </c>
+      <c r="P819">
+        <v>3.98</v>
+      </c>
+      <c r="Q819">
+        <v>28.08</v>
+      </c>
+      <c r="R819">
+        <v>6.79</v>
+      </c>
+      <c r="S819">
+        <v>82</v>
+      </c>
+      <c r="T819">
+        <v>31</v>
+      </c>
+      <c r="U819">
+        <v>56</v>
+      </c>
+      <c r="V819">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>23</v>
+      </c>
+      <c r="B820" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C820" t="s">
+        <v>20</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E820" t="s">
+        <v>54</v>
+      </c>
+      <c r="F820" t="s">
+        <v>28</v>
+      </c>
+      <c r="G820" t="s">
+        <v>740</v>
+      </c>
+      <c r="H820">
+        <v>5.32</v>
+      </c>
+      <c r="I820">
+        <v>0.31</v>
+      </c>
+      <c r="J820">
+        <v>5</v>
+      </c>
+      <c r="K820">
+        <v>0.23</v>
+      </c>
+      <c r="L820">
+        <v>0.09</v>
+      </c>
+      <c r="M820">
+        <v>0</v>
+      </c>
+      <c r="N820">
+        <v>0</v>
+      </c>
+      <c r="O820">
+        <v>0</v>
+      </c>
+      <c r="P820">
+        <v>3.15</v>
+      </c>
+      <c r="Q820">
+        <v>24.76</v>
+      </c>
+      <c r="R820">
+        <v>5.63</v>
+      </c>
+      <c r="S820">
+        <v>42</v>
+      </c>
+      <c r="T820">
+        <v>8</v>
+      </c>
+      <c r="U820">
+        <v>48</v>
+      </c>
+      <c r="V820">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E9BC1-E9FE-A246-A590-3DB8CEAFE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA3989-14DB-0B47-A149-4910DE837659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="742">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2259,6 +2259,9 @@
   </si>
   <si>
     <t>01:28:59</t>
+  </si>
+  <si>
+    <t>Ryad Kralladi</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2657,7 @@
   <dimension ref="A1:V820"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A785" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C824" sqref="C824"/>
+      <selection activeCell="F811" sqref="F811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56452,10 +56455,10 @@
         <v>396</v>
       </c>
       <c r="E810" t="s">
-        <v>38</v>
+        <v>741</v>
       </c>
       <c r="F810" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G810" t="s">
         <v>734</v>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA3989-14DB-0B47-A149-4910DE837659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD761A96-EFFB-5A4E-AAFB-B45A23F9CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="744">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2262,6 +2262,12 @@
   </si>
   <si>
     <t>Ryad Kralladi</t>
+  </si>
+  <si>
+    <t>00:52:03</t>
+  </si>
+  <si>
+    <t>00:51:59</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2338,6 +2344,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V820"/>
+  <dimension ref="A1:V823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A785" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F811" sqref="F811"/>
+    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H828" sqref="H828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57189,6 +57206,210 @@
         <v>11</v>
       </c>
     </row>
+    <row r="821" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B821" s="11">
+        <v>45966</v>
+      </c>
+      <c r="C821" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D821" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E821" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F821" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G821" s="13">
+        <v>6.7696759259259262E-2</v>
+      </c>
+      <c r="H821" s="14">
+        <v>6.21</v>
+      </c>
+      <c r="I821" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="J821" s="14">
+        <v>5.85</v>
+      </c>
+      <c r="K821" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L821" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="M821" s="14">
+        <v>0</v>
+      </c>
+      <c r="N821" s="14">
+        <v>0</v>
+      </c>
+      <c r="O821" s="14">
+        <v>1</v>
+      </c>
+      <c r="P821" s="14">
+        <v>3.79</v>
+      </c>
+      <c r="Q821" s="14">
+        <v>25.64</v>
+      </c>
+      <c r="R821" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="S821" s="14">
+        <v>20</v>
+      </c>
+      <c r="T821" s="14">
+        <v>2</v>
+      </c>
+      <c r="U821" s="14">
+        <v>23</v>
+      </c>
+      <c r="V821" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>23</v>
+      </c>
+      <c r="B822" s="1">
+        <v>45968</v>
+      </c>
+      <c r="C822" t="s">
+        <v>20</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E822" t="s">
+        <v>447</v>
+      </c>
+      <c r="F822" t="s">
+        <v>33</v>
+      </c>
+      <c r="G822" t="s">
+        <v>742</v>
+      </c>
+      <c r="H822">
+        <v>5.13</v>
+      </c>
+      <c r="I822">
+        <v>0.32</v>
+      </c>
+      <c r="J822">
+        <v>4.79</v>
+      </c>
+      <c r="K822">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L822">
+        <v>0.05</v>
+      </c>
+      <c r="M822">
+        <v>0</v>
+      </c>
+      <c r="N822">
+        <v>0</v>
+      </c>
+      <c r="O822">
+        <v>0</v>
+      </c>
+      <c r="P822">
+        <v>5.43</v>
+      </c>
+      <c r="Q822">
+        <v>23.03</v>
+      </c>
+      <c r="R822">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S822">
+        <v>28</v>
+      </c>
+      <c r="T822">
+        <v>7</v>
+      </c>
+      <c r="U822">
+        <v>28</v>
+      </c>
+      <c r="V822">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>23</v>
+      </c>
+      <c r="B823" s="1">
+        <v>45968</v>
+      </c>
+      <c r="C823" t="s">
+        <v>20</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E823" t="s">
+        <v>52</v>
+      </c>
+      <c r="F823" t="s">
+        <v>33</v>
+      </c>
+      <c r="G823" t="s">
+        <v>743</v>
+      </c>
+      <c r="H823">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I823">
+        <v>0.26</v>
+      </c>
+      <c r="J823">
+        <v>4.29</v>
+      </c>
+      <c r="K823">
+        <v>0.22</v>
+      </c>
+      <c r="L823">
+        <v>0.05</v>
+      </c>
+      <c r="M823">
+        <v>0</v>
+      </c>
+      <c r="N823">
+        <v>0</v>
+      </c>
+      <c r="O823">
+        <v>1</v>
+      </c>
+      <c r="P823">
+        <v>5.2</v>
+      </c>
+      <c r="Q823">
+        <v>25.02</v>
+      </c>
+      <c r="R823">
+        <v>4.46</v>
+      </c>
+      <c r="S823">
+        <v>28</v>
+      </c>
+      <c r="T823">
+        <v>4</v>
+      </c>
+      <c r="U823">
+        <v>18</v>
+      </c>
+      <c r="V823">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD761A96-EFFB-5A4E-AAFB-B45A23F9CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21312067-22B8-1B46-A2F9-78FB32911055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="753">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2268,6 +2268,33 @@
   </si>
   <si>
     <t>00:51:59</t>
+  </si>
+  <si>
+    <t>01:41:09</t>
+  </si>
+  <si>
+    <t>01:36:53</t>
+  </si>
+  <si>
+    <t>01:41:43</t>
+  </si>
+  <si>
+    <t>00:17:56</t>
+  </si>
+  <si>
+    <t>01:22:40</t>
+  </si>
+  <si>
+    <t>01:22:48</t>
+  </si>
+  <si>
+    <t>01:41:26</t>
+  </si>
+  <si>
+    <t>01:41:51</t>
+  </si>
+  <si>
+    <t>N3 J8 VS Cannet Rocheville</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2346,16 +2373,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2671,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V823"/>
+  <dimension ref="A1:V834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H828" sqref="H828"/>
+    <sheetView tabSelected="1" topLeftCell="A803" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C839" sqref="C839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57206,71 +57225,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="821" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A821" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B821" s="11">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>23</v>
+      </c>
+      <c r="B821" s="1">
         <v>45966</v>
       </c>
-      <c r="C821" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D821" s="12" t="s">
+      <c r="C821" t="s">
+        <v>20</v>
+      </c>
+      <c r="D821" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E821" s="10" t="s">
+      <c r="E821" t="s">
         <v>36</v>
       </c>
-      <c r="F821" s="10" t="s">
+      <c r="F821" t="s">
         <v>30</v>
       </c>
-      <c r="G821" s="13">
+      <c r="G821" s="10">
         <v>6.7696759259259262E-2</v>
       </c>
-      <c r="H821" s="14">
+      <c r="H821" s="9">
         <v>6.21</v>
       </c>
-      <c r="I821" s="14">
+      <c r="I821" s="9">
         <v>0.35</v>
       </c>
-      <c r="J821" s="14">
+      <c r="J821" s="9">
         <v>5.85</v>
       </c>
-      <c r="K821" s="14">
+      <c r="K821" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L821" s="14">
+      <c r="L821" s="9">
         <v>0.08</v>
       </c>
-      <c r="M821" s="14">
-        <v>0</v>
-      </c>
-      <c r="N821" s="14">
-        <v>0</v>
-      </c>
-      <c r="O821" s="14">
+      <c r="M821" s="9">
+        <v>0</v>
+      </c>
+      <c r="N821" s="9">
+        <v>0</v>
+      </c>
+      <c r="O821" s="9">
         <v>1</v>
       </c>
-      <c r="P821" s="14">
+      <c r="P821" s="9">
         <v>3.79</v>
       </c>
-      <c r="Q821" s="14">
+      <c r="Q821" s="9">
         <v>25.64</v>
       </c>
-      <c r="R821" s="14">
+      <c r="R821" s="9">
         <v>4.25</v>
       </c>
-      <c r="S821" s="14">
-        <v>20</v>
-      </c>
-      <c r="T821" s="14">
+      <c r="S821" s="9">
+        <v>20</v>
+      </c>
+      <c r="T821" s="9">
         <v>2</v>
       </c>
-      <c r="U821" s="14">
-        <v>23</v>
-      </c>
-      <c r="V821" s="14">
+      <c r="U821" s="9">
+        <v>23</v>
+      </c>
+      <c r="V821" s="9">
         <v>6</v>
       </c>
     </row>
@@ -57408,6 +57427,754 @@
       </c>
       <c r="V823">
         <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>752</v>
+      </c>
+      <c r="B824" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C824" t="s">
+        <v>20</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E824" t="s">
+        <v>55</v>
+      </c>
+      <c r="F824" t="s">
+        <v>32</v>
+      </c>
+      <c r="G824" t="s">
+        <v>744</v>
+      </c>
+      <c r="H824">
+        <v>10.75</v>
+      </c>
+      <c r="I824">
+        <v>1.99</v>
+      </c>
+      <c r="J824">
+        <v>8.74</v>
+      </c>
+      <c r="K824">
+        <v>1.42</v>
+      </c>
+      <c r="L824">
+        <v>0.49</v>
+      </c>
+      <c r="M824">
+        <v>0.1</v>
+      </c>
+      <c r="N824">
+        <v>0</v>
+      </c>
+      <c r="O824">
+        <v>8</v>
+      </c>
+      <c r="P824">
+        <v>6.37</v>
+      </c>
+      <c r="Q824">
+        <v>28.96</v>
+      </c>
+      <c r="R824">
+        <v>5.63</v>
+      </c>
+      <c r="S824">
+        <v>55</v>
+      </c>
+      <c r="T824">
+        <v>6</v>
+      </c>
+      <c r="U824">
+        <v>39</v>
+      </c>
+      <c r="V824">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>752</v>
+      </c>
+      <c r="B825" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C825" t="s">
+        <v>20</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E825" t="s">
+        <v>38</v>
+      </c>
+      <c r="F825" t="s">
+        <v>34</v>
+      </c>
+      <c r="G825" t="s">
+        <v>745</v>
+      </c>
+      <c r="H825">
+        <v>11.37</v>
+      </c>
+      <c r="I825">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J825">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K825">
+        <v>1.6</v>
+      </c>
+      <c r="L825">
+        <v>0.64</v>
+      </c>
+      <c r="M825">
+        <v>0.08</v>
+      </c>
+      <c r="N825">
+        <v>0</v>
+      </c>
+      <c r="O825">
+        <v>8</v>
+      </c>
+      <c r="P825">
+        <v>7.02</v>
+      </c>
+      <c r="Q825">
+        <v>30.01</v>
+      </c>
+      <c r="R825">
+        <v>4.13</v>
+      </c>
+      <c r="S825">
+        <v>21</v>
+      </c>
+      <c r="T825">
+        <v>2</v>
+      </c>
+      <c r="U825">
+        <v>36</v>
+      </c>
+      <c r="V825">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>752</v>
+      </c>
+      <c r="B826" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C826" t="s">
+        <v>20</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E826" t="s">
+        <v>52</v>
+      </c>
+      <c r="F826" t="s">
+        <v>33</v>
+      </c>
+      <c r="G826" t="s">
+        <v>746</v>
+      </c>
+      <c r="H826">
+        <v>11</v>
+      </c>
+      <c r="I826">
+        <v>2</v>
+      </c>
+      <c r="J826">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="K826">
+        <v>1.24</v>
+      </c>
+      <c r="L826">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M826">
+        <v>0.22</v>
+      </c>
+      <c r="N826">
+        <v>0</v>
+      </c>
+      <c r="O826">
+        <v>16</v>
+      </c>
+      <c r="P826">
+        <v>6.49</v>
+      </c>
+      <c r="Q826">
+        <v>29.87</v>
+      </c>
+      <c r="R826">
+        <v>5.04</v>
+      </c>
+      <c r="S826">
+        <v>32</v>
+      </c>
+      <c r="T826">
+        <v>5</v>
+      </c>
+      <c r="U826">
+        <v>32</v>
+      </c>
+      <c r="V826">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>752</v>
+      </c>
+      <c r="B827" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C827" t="s">
+        <v>20</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E827" t="s">
+        <v>16</v>
+      </c>
+      <c r="F827" t="s">
+        <v>30</v>
+      </c>
+      <c r="G827" t="s">
+        <v>747</v>
+      </c>
+      <c r="H827">
+        <v>1.89</v>
+      </c>
+      <c r="I827">
+        <v>0.43</v>
+      </c>
+      <c r="J827">
+        <v>1.45</v>
+      </c>
+      <c r="K827">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L827">
+        <v>0.09</v>
+      </c>
+      <c r="M827">
+        <v>0.05</v>
+      </c>
+      <c r="N827">
+        <v>0</v>
+      </c>
+      <c r="O827">
+        <v>3</v>
+      </c>
+      <c r="P827">
+        <v>6.27</v>
+      </c>
+      <c r="Q827">
+        <v>30.28</v>
+      </c>
+      <c r="R827">
+        <v>5.23</v>
+      </c>
+      <c r="S827">
+        <v>8</v>
+      </c>
+      <c r="T827">
+        <v>4</v>
+      </c>
+      <c r="U827">
+        <v>6</v>
+      </c>
+      <c r="V827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>752</v>
+      </c>
+      <c r="B828" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C828" t="s">
+        <v>20</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E828" t="s">
+        <v>448</v>
+      </c>
+      <c r="F828" t="s">
+        <v>32</v>
+      </c>
+      <c r="G828" t="s">
+        <v>504</v>
+      </c>
+      <c r="H828">
+        <v>12.37</v>
+      </c>
+      <c r="I828">
+        <v>2.8</v>
+      </c>
+      <c r="J828">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="K828">
+        <v>2.15</v>
+      </c>
+      <c r="L828">
+        <v>0.61</v>
+      </c>
+      <c r="M828">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N828">
+        <v>0</v>
+      </c>
+      <c r="O828">
+        <v>3</v>
+      </c>
+      <c r="P828">
+        <v>7.32</v>
+      </c>
+      <c r="Q828">
+        <v>29.55</v>
+      </c>
+      <c r="R828">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S828">
+        <v>18</v>
+      </c>
+      <c r="T828">
+        <v>3</v>
+      </c>
+      <c r="U828">
+        <v>34</v>
+      </c>
+      <c r="V828">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>752</v>
+      </c>
+      <c r="B829" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C829" t="s">
+        <v>20</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E829" t="s">
+        <v>35</v>
+      </c>
+      <c r="F829" t="s">
+        <v>34</v>
+      </c>
+      <c r="G829" t="s">
+        <v>748</v>
+      </c>
+      <c r="H829">
+        <v>10.79</v>
+      </c>
+      <c r="I829">
+        <v>2.88</v>
+      </c>
+      <c r="J829">
+        <v>7.88</v>
+      </c>
+      <c r="K829">
+        <v>1.88</v>
+      </c>
+      <c r="L829">
+        <v>0.83</v>
+      </c>
+      <c r="M829">
+        <v>0.18</v>
+      </c>
+      <c r="N829">
+        <v>0.02</v>
+      </c>
+      <c r="O829">
+        <v>14</v>
+      </c>
+      <c r="P829">
+        <v>7.84</v>
+      </c>
+      <c r="Q829">
+        <v>31.35</v>
+      </c>
+      <c r="R829">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S829">
+        <v>63</v>
+      </c>
+      <c r="T829">
+        <v>15</v>
+      </c>
+      <c r="U829">
+        <v>50</v>
+      </c>
+      <c r="V829">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>752</v>
+      </c>
+      <c r="B830" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C830" t="s">
+        <v>20</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E830" t="s">
+        <v>93</v>
+      </c>
+      <c r="F830" t="s">
+        <v>31</v>
+      </c>
+      <c r="G830" t="s">
+        <v>504</v>
+      </c>
+      <c r="H830">
+        <v>9.4</v>
+      </c>
+      <c r="I830">
+        <v>1.78</v>
+      </c>
+      <c r="J830">
+        <v>7.59</v>
+      </c>
+      <c r="K830">
+        <v>1.04</v>
+      </c>
+      <c r="L830">
+        <v>0.5</v>
+      </c>
+      <c r="M830">
+        <v>0.16</v>
+      </c>
+      <c r="N830">
+        <v>0.11</v>
+      </c>
+      <c r="O830">
+        <v>11</v>
+      </c>
+      <c r="P830">
+        <v>5.5</v>
+      </c>
+      <c r="Q830">
+        <v>34.67</v>
+      </c>
+      <c r="R830">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S830">
+        <v>43</v>
+      </c>
+      <c r="T830">
+        <v>21</v>
+      </c>
+      <c r="U830">
+        <v>31</v>
+      </c>
+      <c r="V830">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>752</v>
+      </c>
+      <c r="B831" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C831" t="s">
+        <v>20</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E831" t="s">
+        <v>48</v>
+      </c>
+      <c r="F831" t="s">
+        <v>29</v>
+      </c>
+      <c r="G831" t="s">
+        <v>746</v>
+      </c>
+      <c r="H831">
+        <v>9.48</v>
+      </c>
+      <c r="I831">
+        <v>1.34</v>
+      </c>
+      <c r="J831">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="K831">
+        <v>0.85</v>
+      </c>
+      <c r="L831">
+        <v>0.39</v>
+      </c>
+      <c r="M831">
+        <v>0.08</v>
+      </c>
+      <c r="N831">
+        <v>0.03</v>
+      </c>
+      <c r="O831">
+        <v>9</v>
+      </c>
+      <c r="P831">
+        <v>5.6</v>
+      </c>
+      <c r="Q831">
+        <v>31.93</v>
+      </c>
+      <c r="R831">
+        <v>4.41</v>
+      </c>
+      <c r="S831">
+        <v>16</v>
+      </c>
+      <c r="T831">
+        <v>3</v>
+      </c>
+      <c r="U831">
+        <v>23</v>
+      </c>
+      <c r="V831">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>752</v>
+      </c>
+      <c r="B832" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C832" t="s">
+        <v>20</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E832" t="s">
+        <v>40</v>
+      </c>
+      <c r="F832" t="s">
+        <v>31</v>
+      </c>
+      <c r="G832" t="s">
+        <v>749</v>
+      </c>
+      <c r="H832">
+        <v>10.69</v>
+      </c>
+      <c r="I832">
+        <v>2.62</v>
+      </c>
+      <c r="J832">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="K832">
+        <v>1.84</v>
+      </c>
+      <c r="L832">
+        <v>0.71</v>
+      </c>
+      <c r="M832">
+        <v>0.12</v>
+      </c>
+      <c r="N832">
+        <v>0</v>
+      </c>
+      <c r="O832">
+        <v>12</v>
+      </c>
+      <c r="P832">
+        <v>7.71</v>
+      </c>
+      <c r="Q832">
+        <v>28.29</v>
+      </c>
+      <c r="R832">
+        <v>5</v>
+      </c>
+      <c r="S832">
+        <v>66</v>
+      </c>
+      <c r="T832">
+        <v>16</v>
+      </c>
+      <c r="U832">
+        <v>50</v>
+      </c>
+      <c r="V832">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="833" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>752</v>
+      </c>
+      <c r="B833" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C833" t="s">
+        <v>20</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E833" t="s">
+        <v>58</v>
+      </c>
+      <c r="F833" t="s">
+        <v>29</v>
+      </c>
+      <c r="G833" t="s">
+        <v>750</v>
+      </c>
+      <c r="H833">
+        <v>10.89</v>
+      </c>
+      <c r="I833">
+        <v>1.83</v>
+      </c>
+      <c r="J833">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K833">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L833">
+        <v>0.45</v>
+      </c>
+      <c r="M833">
+        <v>0.23</v>
+      </c>
+      <c r="N833">
+        <v>0.04</v>
+      </c>
+      <c r="O833">
+        <v>13</v>
+      </c>
+      <c r="P833">
+        <v>6.42</v>
+      </c>
+      <c r="Q833">
+        <v>32.24</v>
+      </c>
+      <c r="R833">
+        <v>4.67</v>
+      </c>
+      <c r="S833">
+        <v>33</v>
+      </c>
+      <c r="T833">
+        <v>5</v>
+      </c>
+      <c r="U833">
+        <v>46</v>
+      </c>
+      <c r="V833">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="834" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>752</v>
+      </c>
+      <c r="B834" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C834" t="s">
+        <v>20</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E834" t="s">
+        <v>447</v>
+      </c>
+      <c r="F834" t="s">
+        <v>33</v>
+      </c>
+      <c r="G834" t="s">
+        <v>751</v>
+      </c>
+      <c r="H834">
+        <v>12.19</v>
+      </c>
+      <c r="I834">
+        <v>2.67</v>
+      </c>
+      <c r="J834">
+        <v>9.49</v>
+      </c>
+      <c r="K834">
+        <v>1.83</v>
+      </c>
+      <c r="L834">
+        <v>0.72</v>
+      </c>
+      <c r="M834">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N834">
+        <v>0</v>
+      </c>
+      <c r="O834">
+        <v>12</v>
+      </c>
+      <c r="P834">
+        <v>7.15</v>
+      </c>
+      <c r="Q834">
+        <v>29.96</v>
+      </c>
+      <c r="R834">
+        <v>4.37</v>
+      </c>
+      <c r="S834">
+        <v>30</v>
+      </c>
+      <c r="T834">
+        <v>5</v>
+      </c>
+      <c r="U834">
+        <v>35</v>
+      </c>
+      <c r="V834">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21312067-22B8-1B46-A2F9-78FB32911055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5640E-4A9B-8F4B-8EEA-2A38AA2FBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="759">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2295,6 +2295,24 @@
   </si>
   <si>
     <t>N3 J8 VS Cannet Rocheville</t>
+  </si>
+  <si>
+    <t>01:22:01</t>
+  </si>
+  <si>
+    <t>01:20:01</t>
+  </si>
+  <si>
+    <t>01:20:08</t>
+  </si>
+  <si>
+    <t>01:18:59</t>
+  </si>
+  <si>
+    <t>01:19:23</t>
+  </si>
+  <si>
+    <t>01:18:21</t>
   </si>
 </sst>
 </file>
@@ -2690,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V834"/>
+  <dimension ref="A1:V841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A803" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C839" sqref="C839"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E848" sqref="E848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58177,6 +58195,482 @@
         <v>12</v>
       </c>
     </row>
+    <row r="835" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>23</v>
+      </c>
+      <c r="B835" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C835" t="s">
+        <v>20</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E835" t="s">
+        <v>52</v>
+      </c>
+      <c r="F835" t="s">
+        <v>33</v>
+      </c>
+      <c r="G835" t="s">
+        <v>753</v>
+      </c>
+      <c r="H835">
+        <v>8.09</v>
+      </c>
+      <c r="I835">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J835">
+        <v>6.94</v>
+      </c>
+      <c r="K835">
+        <v>1.07</v>
+      </c>
+      <c r="L835">
+        <v>0.08</v>
+      </c>
+      <c r="M835">
+        <v>0</v>
+      </c>
+      <c r="N835">
+        <v>0</v>
+      </c>
+      <c r="O835">
+        <v>0</v>
+      </c>
+      <c r="P835">
+        <v>5.84</v>
+      </c>
+      <c r="Q835">
+        <v>23.6</v>
+      </c>
+      <c r="R835">
+        <v>4.43</v>
+      </c>
+      <c r="S835">
+        <v>37</v>
+      </c>
+      <c r="T835">
+        <v>3</v>
+      </c>
+      <c r="U835">
+        <v>20</v>
+      </c>
+      <c r="V835">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>23</v>
+      </c>
+      <c r="B836" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C836" t="s">
+        <v>20</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E836" t="s">
+        <v>164</v>
+      </c>
+      <c r="F836" t="s">
+        <v>32</v>
+      </c>
+      <c r="G836" t="s">
+        <v>98</v>
+      </c>
+      <c r="H836">
+        <v>8.07</v>
+      </c>
+      <c r="I836">
+        <v>1.2</v>
+      </c>
+      <c r="J836">
+        <v>6.86</v>
+      </c>
+      <c r="K836">
+        <v>1.08</v>
+      </c>
+      <c r="L836">
+        <v>0.13</v>
+      </c>
+      <c r="M836">
+        <v>0.01</v>
+      </c>
+      <c r="N836">
+        <v>0</v>
+      </c>
+      <c r="O836">
+        <v>1</v>
+      </c>
+      <c r="P836">
+        <v>6.07</v>
+      </c>
+      <c r="Q836">
+        <v>25.8</v>
+      </c>
+      <c r="R836">
+        <v>3.74</v>
+      </c>
+      <c r="S836">
+        <v>43</v>
+      </c>
+      <c r="T836">
+        <v>0</v>
+      </c>
+      <c r="U836">
+        <v>30</v>
+      </c>
+      <c r="V836">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>23</v>
+      </c>
+      <c r="B837" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C837" t="s">
+        <v>20</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E837" t="s">
+        <v>16</v>
+      </c>
+      <c r="F837" t="s">
+        <v>30</v>
+      </c>
+      <c r="G837" t="s">
+        <v>754</v>
+      </c>
+      <c r="H837">
+        <v>7.18</v>
+      </c>
+      <c r="I837">
+        <v>1</v>
+      </c>
+      <c r="J837">
+        <v>6.17</v>
+      </c>
+      <c r="K837">
+        <v>0.96</v>
+      </c>
+      <c r="L837">
+        <v>0.05</v>
+      </c>
+      <c r="M837">
+        <v>0</v>
+      </c>
+      <c r="N837">
+        <v>0</v>
+      </c>
+      <c r="O837">
+        <v>1</v>
+      </c>
+      <c r="P837">
+        <v>5.36</v>
+      </c>
+      <c r="Q837">
+        <v>25</v>
+      </c>
+      <c r="R837">
+        <v>5.04</v>
+      </c>
+      <c r="S837">
+        <v>38</v>
+      </c>
+      <c r="T837">
+        <v>5</v>
+      </c>
+      <c r="U837">
+        <v>20</v>
+      </c>
+      <c r="V837">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="838" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>23</v>
+      </c>
+      <c r="B838" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C838" t="s">
+        <v>20</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E838" t="s">
+        <v>447</v>
+      </c>
+      <c r="F838" t="s">
+        <v>33</v>
+      </c>
+      <c r="G838" t="s">
+        <v>755</v>
+      </c>
+      <c r="H838">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="I838">
+        <v>1.55</v>
+      </c>
+      <c r="J838">
+        <v>6.8</v>
+      </c>
+      <c r="K838">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L838">
+        <v>0.46</v>
+      </c>
+      <c r="M838">
+        <v>0</v>
+      </c>
+      <c r="N838">
+        <v>0</v>
+      </c>
+      <c r="O838">
+        <v>1</v>
+      </c>
+      <c r="P838">
+        <v>5.85</v>
+      </c>
+      <c r="Q838">
+        <v>25.35</v>
+      </c>
+      <c r="R838">
+        <v>5.28</v>
+      </c>
+      <c r="S838">
+        <v>70</v>
+      </c>
+      <c r="T838">
+        <v>23</v>
+      </c>
+      <c r="U838">
+        <v>55</v>
+      </c>
+      <c r="V838">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="839" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>23</v>
+      </c>
+      <c r="B839" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C839" t="s">
+        <v>20</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E839" t="s">
+        <v>54</v>
+      </c>
+      <c r="F839" t="s">
+        <v>28</v>
+      </c>
+      <c r="G839" t="s">
+        <v>756</v>
+      </c>
+      <c r="H839">
+        <v>7.61</v>
+      </c>
+      <c r="I839">
+        <v>1.18</v>
+      </c>
+      <c r="J839">
+        <v>6.41</v>
+      </c>
+      <c r="K839">
+        <v>0.99</v>
+      </c>
+      <c r="L839">
+        <v>0.21</v>
+      </c>
+      <c r="M839">
+        <v>0.01</v>
+      </c>
+      <c r="N839">
+        <v>0</v>
+      </c>
+      <c r="O839">
+        <v>2</v>
+      </c>
+      <c r="P839">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="Q839">
+        <v>26.06</v>
+      </c>
+      <c r="R839">
+        <v>6.27</v>
+      </c>
+      <c r="S839">
+        <v>52</v>
+      </c>
+      <c r="T839">
+        <v>16</v>
+      </c>
+      <c r="U839">
+        <v>38</v>
+      </c>
+      <c r="V839">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>23</v>
+      </c>
+      <c r="B840" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C840" t="s">
+        <v>20</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E840" t="s">
+        <v>43</v>
+      </c>
+      <c r="F840" t="s">
+        <v>34</v>
+      </c>
+      <c r="G840" t="s">
+        <v>757</v>
+      </c>
+      <c r="H840">
+        <v>7.78</v>
+      </c>
+      <c r="I840">
+        <v>0.95</v>
+      </c>
+      <c r="J840">
+        <v>6.81</v>
+      </c>
+      <c r="K840">
+        <v>0.88</v>
+      </c>
+      <c r="L840">
+        <v>0.09</v>
+      </c>
+      <c r="M840">
+        <v>0</v>
+      </c>
+      <c r="N840">
+        <v>0</v>
+      </c>
+      <c r="O840">
+        <v>0</v>
+      </c>
+      <c r="P840">
+        <v>5.32</v>
+      </c>
+      <c r="Q840">
+        <v>22.95</v>
+      </c>
+      <c r="R840">
+        <v>4.41</v>
+      </c>
+      <c r="S840">
+        <v>57</v>
+      </c>
+      <c r="T840">
+        <v>3</v>
+      </c>
+      <c r="U840">
+        <v>43</v>
+      </c>
+      <c r="V840">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>23</v>
+      </c>
+      <c r="B841" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C841" t="s">
+        <v>20</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E841" t="s">
+        <v>50</v>
+      </c>
+      <c r="F841" t="s">
+        <v>33</v>
+      </c>
+      <c r="G841" t="s">
+        <v>758</v>
+      </c>
+      <c r="H841">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I841">
+        <v>1.31</v>
+      </c>
+      <c r="J841">
+        <v>6.97</v>
+      </c>
+      <c r="K841">
+        <v>1.08</v>
+      </c>
+      <c r="L841">
+        <v>0.25</v>
+      </c>
+      <c r="M841">
+        <v>0</v>
+      </c>
+      <c r="N841">
+        <v>0</v>
+      </c>
+      <c r="O841">
+        <v>1</v>
+      </c>
+      <c r="P841">
+        <v>5.77</v>
+      </c>
+      <c r="Q841">
+        <v>25.22</v>
+      </c>
+      <c r="R841">
+        <v>4</v>
+      </c>
+      <c r="S841">
+        <v>41</v>
+      </c>
+      <c r="T841">
+        <v>0</v>
+      </c>
+      <c r="U841">
+        <v>39</v>
+      </c>
+      <c r="V841">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5640E-4A9B-8F4B-8EEA-2A38AA2FBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB7845-84D8-2442-BA2B-DFF577A3BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="768">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2313,6 +2313,33 @@
   </si>
   <si>
     <t>01:18:21</t>
+  </si>
+  <si>
+    <t>01:30:43</t>
+  </si>
+  <si>
+    <t>01:30:13</t>
+  </si>
+  <si>
+    <t>01:27:30</t>
+  </si>
+  <si>
+    <t>01:29:34</t>
+  </si>
+  <si>
+    <t>01:29:10</t>
+  </si>
+  <si>
+    <t>01:29:28</t>
+  </si>
+  <si>
+    <t>01:31:53</t>
+  </si>
+  <si>
+    <t>01:28:32</t>
+  </si>
+  <si>
+    <t>01:29:42</t>
   </si>
 </sst>
 </file>
@@ -2708,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V841"/>
+  <dimension ref="A1:V853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E848" sqref="E848"/>
+    <sheetView tabSelected="1" topLeftCell="A825" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D860" sqref="D860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58671,6 +58698,822 @@
         <v>8</v>
       </c>
     </row>
+    <row r="842" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>23</v>
+      </c>
+      <c r="B842" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C842" t="s">
+        <v>20</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E842" t="s">
+        <v>52</v>
+      </c>
+      <c r="F842" t="s">
+        <v>33</v>
+      </c>
+      <c r="G842" t="s">
+        <v>759</v>
+      </c>
+      <c r="H842">
+        <v>6.33</v>
+      </c>
+      <c r="I842">
+        <v>0.22</v>
+      </c>
+      <c r="J842">
+        <v>6.11</v>
+      </c>
+      <c r="K842">
+        <v>0.22</v>
+      </c>
+      <c r="L842">
+        <v>0.01</v>
+      </c>
+      <c r="M842">
+        <v>0</v>
+      </c>
+      <c r="N842">
+        <v>0</v>
+      </c>
+      <c r="O842">
+        <v>0</v>
+      </c>
+      <c r="P842">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q842">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="R842">
+        <v>4.62</v>
+      </c>
+      <c r="S842">
+        <v>35</v>
+      </c>
+      <c r="T842">
+        <v>4</v>
+      </c>
+      <c r="U842">
+        <v>31</v>
+      </c>
+      <c r="V842">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>23</v>
+      </c>
+      <c r="B843" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C843" t="s">
+        <v>20</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E843" t="s">
+        <v>58</v>
+      </c>
+      <c r="F843" t="s">
+        <v>29</v>
+      </c>
+      <c r="G843" t="s">
+        <v>760</v>
+      </c>
+      <c r="H843">
+        <v>5.4</v>
+      </c>
+      <c r="I843">
+        <v>0.04</v>
+      </c>
+      <c r="J843">
+        <v>5.36</v>
+      </c>
+      <c r="K843">
+        <v>0.04</v>
+      </c>
+      <c r="L843">
+        <v>0</v>
+      </c>
+      <c r="M843">
+        <v>0</v>
+      </c>
+      <c r="N843">
+        <v>0</v>
+      </c>
+      <c r="O843">
+        <v>0</v>
+      </c>
+      <c r="P843">
+        <v>2.83</v>
+      </c>
+      <c r="Q843">
+        <v>18.09</v>
+      </c>
+      <c r="R843">
+        <v>3.37</v>
+      </c>
+      <c r="S843">
+        <v>8</v>
+      </c>
+      <c r="T843">
+        <v>0</v>
+      </c>
+      <c r="U843">
+        <v>6</v>
+      </c>
+      <c r="V843">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>23</v>
+      </c>
+      <c r="B844" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C844" t="s">
+        <v>20</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E844" t="s">
+        <v>38</v>
+      </c>
+      <c r="F844" t="s">
+        <v>34</v>
+      </c>
+      <c r="G844" t="s">
+        <v>761</v>
+      </c>
+      <c r="H844">
+        <v>5.15</v>
+      </c>
+      <c r="I844">
+        <v>0.27</v>
+      </c>
+      <c r="J844">
+        <v>4.87</v>
+      </c>
+      <c r="K844">
+        <v>0.25</v>
+      </c>
+      <c r="L844">
+        <v>0.02</v>
+      </c>
+      <c r="M844">
+        <v>0</v>
+      </c>
+      <c r="N844">
+        <v>0</v>
+      </c>
+      <c r="O844">
+        <v>0</v>
+      </c>
+      <c r="P844">
+        <v>3.36</v>
+      </c>
+      <c r="Q844">
+        <v>23.84</v>
+      </c>
+      <c r="R844">
+        <v>4.01</v>
+      </c>
+      <c r="S844">
+        <v>15</v>
+      </c>
+      <c r="T844">
+        <v>1</v>
+      </c>
+      <c r="U844">
+        <v>12</v>
+      </c>
+      <c r="V844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>23</v>
+      </c>
+      <c r="B845" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C845" t="s">
+        <v>20</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E845" t="s">
+        <v>53</v>
+      </c>
+      <c r="F845" t="s">
+        <v>32</v>
+      </c>
+      <c r="G845" t="s">
+        <v>762</v>
+      </c>
+      <c r="H845">
+        <v>7.38</v>
+      </c>
+      <c r="I845">
+        <v>0.44</v>
+      </c>
+      <c r="J845">
+        <v>6.93</v>
+      </c>
+      <c r="K845">
+        <v>0.36</v>
+      </c>
+      <c r="L845">
+        <v>0.1</v>
+      </c>
+      <c r="M845">
+        <v>0</v>
+      </c>
+      <c r="N845">
+        <v>0</v>
+      </c>
+      <c r="O845">
+        <v>0</v>
+      </c>
+      <c r="P845">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Q845">
+        <v>24.36</v>
+      </c>
+      <c r="R845">
+        <v>4.3</v>
+      </c>
+      <c r="S845">
+        <v>31</v>
+      </c>
+      <c r="T845">
+        <v>5</v>
+      </c>
+      <c r="U845">
+        <v>18</v>
+      </c>
+      <c r="V845">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>23</v>
+      </c>
+      <c r="B846" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C846" t="s">
+        <v>20</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E846" t="s">
+        <v>43</v>
+      </c>
+      <c r="F846" t="s">
+        <v>34</v>
+      </c>
+      <c r="G846" t="s">
+        <v>763</v>
+      </c>
+      <c r="H846">
+        <v>8.15</v>
+      </c>
+      <c r="I846">
+        <v>0.27</v>
+      </c>
+      <c r="J846">
+        <v>7.87</v>
+      </c>
+      <c r="K846">
+        <v>0.22</v>
+      </c>
+      <c r="L846">
+        <v>0.06</v>
+      </c>
+      <c r="M846">
+        <v>0</v>
+      </c>
+      <c r="N846">
+        <v>0</v>
+      </c>
+      <c r="O846">
+        <v>2</v>
+      </c>
+      <c r="P846">
+        <v>4.24</v>
+      </c>
+      <c r="Q846">
+        <v>25.28</v>
+      </c>
+      <c r="R846">
+        <v>4.75</v>
+      </c>
+      <c r="S846">
+        <v>51</v>
+      </c>
+      <c r="T846">
+        <v>14</v>
+      </c>
+      <c r="U846">
+        <v>39</v>
+      </c>
+      <c r="V846">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>23</v>
+      </c>
+      <c r="B847" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C847" t="s">
+        <v>20</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E847" t="s">
+        <v>48</v>
+      </c>
+      <c r="F847" t="s">
+        <v>29</v>
+      </c>
+      <c r="G847" t="s">
+        <v>143</v>
+      </c>
+      <c r="H847">
+        <v>4.55</v>
+      </c>
+      <c r="I847">
+        <v>0.13</v>
+      </c>
+      <c r="J847">
+        <v>4.42</v>
+      </c>
+      <c r="K847">
+        <v>0.12</v>
+      </c>
+      <c r="L847">
+        <v>0.02</v>
+      </c>
+      <c r="M847">
+        <v>0</v>
+      </c>
+      <c r="N847">
+        <v>0</v>
+      </c>
+      <c r="O847">
+        <v>0</v>
+      </c>
+      <c r="P847">
+        <v>3.02</v>
+      </c>
+      <c r="Q847">
+        <v>22.52</v>
+      </c>
+      <c r="R847">
+        <v>4.18</v>
+      </c>
+      <c r="S847">
+        <v>17</v>
+      </c>
+      <c r="T847">
+        <v>2</v>
+      </c>
+      <c r="U847">
+        <v>4</v>
+      </c>
+      <c r="V847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>23</v>
+      </c>
+      <c r="B848" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C848" t="s">
+        <v>20</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E848" t="s">
+        <v>164</v>
+      </c>
+      <c r="F848" t="s">
+        <v>32</v>
+      </c>
+      <c r="G848" t="s">
+        <v>115</v>
+      </c>
+      <c r="H848">
+        <v>7.05</v>
+      </c>
+      <c r="I848">
+        <v>0.43</v>
+      </c>
+      <c r="J848">
+        <v>6.61</v>
+      </c>
+      <c r="K848">
+        <v>0.36</v>
+      </c>
+      <c r="L848">
+        <v>0.08</v>
+      </c>
+      <c r="M848">
+        <v>0</v>
+      </c>
+      <c r="N848">
+        <v>0</v>
+      </c>
+      <c r="O848">
+        <v>0</v>
+      </c>
+      <c r="P848">
+        <v>4.8</v>
+      </c>
+      <c r="Q848">
+        <v>24.68</v>
+      </c>
+      <c r="R848">
+        <v>4.32</v>
+      </c>
+      <c r="S848">
+        <v>32</v>
+      </c>
+      <c r="T848">
+        <v>4</v>
+      </c>
+      <c r="U848">
+        <v>27</v>
+      </c>
+      <c r="V848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>23</v>
+      </c>
+      <c r="B849" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C849" t="s">
+        <v>20</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E849" t="s">
+        <v>16</v>
+      </c>
+      <c r="F849" t="s">
+        <v>30</v>
+      </c>
+      <c r="G849" t="s">
+        <v>764</v>
+      </c>
+      <c r="H849">
+        <v>5.38</v>
+      </c>
+      <c r="I849">
+        <v>0.24</v>
+      </c>
+      <c r="J849">
+        <v>5.14</v>
+      </c>
+      <c r="K849">
+        <v>0.17</v>
+      </c>
+      <c r="L849">
+        <v>0.06</v>
+      </c>
+      <c r="M849">
+        <v>0.01</v>
+      </c>
+      <c r="N849">
+        <v>0</v>
+      </c>
+      <c r="O849">
+        <v>1</v>
+      </c>
+      <c r="P849">
+        <v>3.18</v>
+      </c>
+      <c r="Q849">
+        <v>26.61</v>
+      </c>
+      <c r="R849">
+        <v>6.32</v>
+      </c>
+      <c r="S849">
+        <v>37</v>
+      </c>
+      <c r="T849">
+        <v>10</v>
+      </c>
+      <c r="U849">
+        <v>25</v>
+      </c>
+      <c r="V849">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>23</v>
+      </c>
+      <c r="B850" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C850" t="s">
+        <v>20</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E850" t="s">
+        <v>35</v>
+      </c>
+      <c r="F850" t="s">
+        <v>34</v>
+      </c>
+      <c r="G850" t="s">
+        <v>70</v>
+      </c>
+      <c r="H850">
+        <v>6.05</v>
+      </c>
+      <c r="I850">
+        <v>0.38</v>
+      </c>
+      <c r="J850">
+        <v>5.66</v>
+      </c>
+      <c r="K850">
+        <v>0.33</v>
+      </c>
+      <c r="L850">
+        <v>0.06</v>
+      </c>
+      <c r="M850">
+        <v>0</v>
+      </c>
+      <c r="N850">
+        <v>0</v>
+      </c>
+      <c r="O850">
+        <v>0</v>
+      </c>
+      <c r="P850">
+        <v>4.17</v>
+      </c>
+      <c r="Q850">
+        <v>24.75</v>
+      </c>
+      <c r="R850">
+        <v>5.09</v>
+      </c>
+      <c r="S850">
+        <v>39</v>
+      </c>
+      <c r="T850">
+        <v>13</v>
+      </c>
+      <c r="U850">
+        <v>39</v>
+      </c>
+      <c r="V850">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="851" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>23</v>
+      </c>
+      <c r="B851" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C851" t="s">
+        <v>20</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E851" t="s">
+        <v>447</v>
+      </c>
+      <c r="F851" t="s">
+        <v>33</v>
+      </c>
+      <c r="G851" t="s">
+        <v>765</v>
+      </c>
+      <c r="H851">
+        <v>5.98</v>
+      </c>
+      <c r="I851">
+        <v>0.26</v>
+      </c>
+      <c r="J851">
+        <v>5.71</v>
+      </c>
+      <c r="K851">
+        <v>0.23</v>
+      </c>
+      <c r="L851">
+        <v>0.04</v>
+      </c>
+      <c r="M851">
+        <v>0</v>
+      </c>
+      <c r="N851">
+        <v>0</v>
+      </c>
+      <c r="O851">
+        <v>0</v>
+      </c>
+      <c r="P851">
+        <v>3.48</v>
+      </c>
+      <c r="Q851">
+        <v>23.56</v>
+      </c>
+      <c r="R851">
+        <v>4.88</v>
+      </c>
+      <c r="S851">
+        <v>56</v>
+      </c>
+      <c r="T851">
+        <v>10</v>
+      </c>
+      <c r="U851">
+        <v>40</v>
+      </c>
+      <c r="V851">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="852" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>23</v>
+      </c>
+      <c r="B852" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C852" t="s">
+        <v>20</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E852" t="s">
+        <v>54</v>
+      </c>
+      <c r="F852" t="s">
+        <v>28</v>
+      </c>
+      <c r="G852" t="s">
+        <v>766</v>
+      </c>
+      <c r="H852">
+        <v>5.78</v>
+      </c>
+      <c r="I852">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J852">
+        <v>5.63</v>
+      </c>
+      <c r="K852">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L852">
+        <v>0.01</v>
+      </c>
+      <c r="M852">
+        <v>0</v>
+      </c>
+      <c r="N852">
+        <v>0</v>
+      </c>
+      <c r="O852">
+        <v>1</v>
+      </c>
+      <c r="P852">
+        <v>3.29</v>
+      </c>
+      <c r="Q852">
+        <v>25.45</v>
+      </c>
+      <c r="R852">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S852">
+        <v>34</v>
+      </c>
+      <c r="T852">
+        <v>8</v>
+      </c>
+      <c r="U852">
+        <v>40</v>
+      </c>
+      <c r="V852">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="853" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>23</v>
+      </c>
+      <c r="B853" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C853" t="s">
+        <v>20</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E853" t="s">
+        <v>93</v>
+      </c>
+      <c r="F853" t="s">
+        <v>31</v>
+      </c>
+      <c r="G853" t="s">
+        <v>767</v>
+      </c>
+      <c r="H853">
+        <v>5.22</v>
+      </c>
+      <c r="I853">
+        <v>0.32</v>
+      </c>
+      <c r="J853">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K853">
+        <v>0.22</v>
+      </c>
+      <c r="L853">
+        <v>0.08</v>
+      </c>
+      <c r="M853">
+        <v>0.02</v>
+      </c>
+      <c r="N853">
+        <v>0</v>
+      </c>
+      <c r="O853">
+        <v>3</v>
+      </c>
+      <c r="P853">
+        <v>2.82</v>
+      </c>
+      <c r="Q853">
+        <v>30.36</v>
+      </c>
+      <c r="R853">
+        <v>5.85</v>
+      </c>
+      <c r="S853">
+        <v>43</v>
+      </c>
+      <c r="T853">
+        <v>13</v>
+      </c>
+      <c r="U853">
+        <v>23</v>
+      </c>
+      <c r="V853">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB7845-84D8-2442-BA2B-DFF577A3BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCC935-239C-6C4F-808D-760640DE498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="772">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2340,6 +2340,18 @@
   </si>
   <si>
     <t>01:29:42</t>
+  </si>
+  <si>
+    <t>01:16:33</t>
+  </si>
+  <si>
+    <t>01:15:42</t>
+  </si>
+  <si>
+    <t>01:15:08</t>
+  </si>
+  <si>
+    <t>01:13:46</t>
   </si>
 </sst>
 </file>
@@ -2735,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V853"/>
+  <dimension ref="A1:V857"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A825" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D860" sqref="D860"/>
+      <selection activeCell="C861" sqref="C861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59514,6 +59526,278 @@
         <v>12</v>
       </c>
     </row>
+    <row r="854" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>23</v>
+      </c>
+      <c r="B854" s="1">
+        <v>45976</v>
+      </c>
+      <c r="C854" t="s">
+        <v>20</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E854" t="s">
+        <v>43</v>
+      </c>
+      <c r="F854" t="s">
+        <v>34</v>
+      </c>
+      <c r="G854" t="s">
+        <v>768</v>
+      </c>
+      <c r="H854">
+        <v>5.41</v>
+      </c>
+      <c r="I854">
+        <v>0.45</v>
+      </c>
+      <c r="J854">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K854">
+        <v>0.32</v>
+      </c>
+      <c r="L854">
+        <v>0.12</v>
+      </c>
+      <c r="M854">
+        <v>0.03</v>
+      </c>
+      <c r="N854">
+        <v>0</v>
+      </c>
+      <c r="O854">
+        <v>3</v>
+      </c>
+      <c r="P854">
+        <v>3.91</v>
+      </c>
+      <c r="Q854">
+        <v>28.93</v>
+      </c>
+      <c r="R854">
+        <v>5.5</v>
+      </c>
+      <c r="S854">
+        <v>61</v>
+      </c>
+      <c r="T854">
+        <v>29</v>
+      </c>
+      <c r="U854">
+        <v>46</v>
+      </c>
+      <c r="V854">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="855" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>23</v>
+      </c>
+      <c r="B855" s="1">
+        <v>45976</v>
+      </c>
+      <c r="C855" t="s">
+        <v>20</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E855" t="s">
+        <v>53</v>
+      </c>
+      <c r="F855" t="s">
+        <v>32</v>
+      </c>
+      <c r="G855" t="s">
+        <v>769</v>
+      </c>
+      <c r="H855">
+        <v>5.63</v>
+      </c>
+      <c r="I855">
+        <v>0.22</v>
+      </c>
+      <c r="J855">
+        <v>5.41</v>
+      </c>
+      <c r="K855">
+        <v>0.2</v>
+      </c>
+      <c r="L855">
+        <v>0.02</v>
+      </c>
+      <c r="M855">
+        <v>0</v>
+      </c>
+      <c r="N855">
+        <v>0</v>
+      </c>
+      <c r="O855">
+        <v>0</v>
+      </c>
+      <c r="P855">
+        <v>4.38</v>
+      </c>
+      <c r="Q855">
+        <v>23.13</v>
+      </c>
+      <c r="R855">
+        <v>4.67</v>
+      </c>
+      <c r="S855">
+        <v>21</v>
+      </c>
+      <c r="T855">
+        <v>2</v>
+      </c>
+      <c r="U855">
+        <v>11</v>
+      </c>
+      <c r="V855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>23</v>
+      </c>
+      <c r="B856" s="1">
+        <v>45976</v>
+      </c>
+      <c r="C856" t="s">
+        <v>20</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E856" t="s">
+        <v>447</v>
+      </c>
+      <c r="F856" t="s">
+        <v>33</v>
+      </c>
+      <c r="G856" t="s">
+        <v>770</v>
+      </c>
+      <c r="H856">
+        <v>5.36</v>
+      </c>
+      <c r="I856">
+        <v>0.37</v>
+      </c>
+      <c r="J856">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K856">
+        <v>0.3</v>
+      </c>
+      <c r="L856">
+        <v>0.08</v>
+      </c>
+      <c r="M856">
+        <v>0</v>
+      </c>
+      <c r="N856">
+        <v>0</v>
+      </c>
+      <c r="O856">
+        <v>1</v>
+      </c>
+      <c r="P856">
+        <v>3.9</v>
+      </c>
+      <c r="Q856">
+        <v>27.11</v>
+      </c>
+      <c r="R856">
+        <v>4.5</v>
+      </c>
+      <c r="S856">
+        <v>48</v>
+      </c>
+      <c r="T856">
+        <v>5</v>
+      </c>
+      <c r="U856">
+        <v>39</v>
+      </c>
+      <c r="V856">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="857" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>23</v>
+      </c>
+      <c r="B857" s="1">
+        <v>45976</v>
+      </c>
+      <c r="C857" t="s">
+        <v>20</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E857" t="s">
+        <v>52</v>
+      </c>
+      <c r="F857" t="s">
+        <v>33</v>
+      </c>
+      <c r="G857" t="s">
+        <v>771</v>
+      </c>
+      <c r="H857">
+        <v>5.57</v>
+      </c>
+      <c r="I857">
+        <v>0.44</v>
+      </c>
+      <c r="J857">
+        <v>5.12</v>
+      </c>
+      <c r="K857">
+        <v>0.31</v>
+      </c>
+      <c r="L857">
+        <v>0.13</v>
+      </c>
+      <c r="M857">
+        <v>0.01</v>
+      </c>
+      <c r="N857">
+        <v>0</v>
+      </c>
+      <c r="O857">
+        <v>1</v>
+      </c>
+      <c r="P857">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q857">
+        <v>27.23</v>
+      </c>
+      <c r="R857">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S857">
+        <v>35</v>
+      </c>
+      <c r="T857">
+        <v>6</v>
+      </c>
+      <c r="U857">
+        <v>29</v>
+      </c>
+      <c r="V857">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCC935-239C-6C4F-808D-760640DE498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F745E-58B6-BB4E-95EA-354AC640950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="784">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2352,6 +2352,42 @@
   </si>
   <si>
     <t>01:13:46</t>
+  </si>
+  <si>
+    <t>01:40:47</t>
+  </si>
+  <si>
+    <t>00:48:08</t>
+  </si>
+  <si>
+    <t>01:14:20</t>
+  </si>
+  <si>
+    <t>01:00:45</t>
+  </si>
+  <si>
+    <t>00:24:57</t>
+  </si>
+  <si>
+    <t>01:41:04</t>
+  </si>
+  <si>
+    <t>01:40:48</t>
+  </si>
+  <si>
+    <t>01:14:28</t>
+  </si>
+  <si>
+    <t>01:40:56</t>
+  </si>
+  <si>
+    <t>00:13:26</t>
+  </si>
+  <si>
+    <t>00:15:30</t>
+  </si>
+  <si>
+    <t>CDF T7 VS Pierrelatte (R3)</t>
   </si>
 </sst>
 </file>
@@ -2747,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V857"/>
+  <dimension ref="A1:V870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A825" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C861" sqref="C861"/>
+    <sheetView tabSelected="1" topLeftCell="A840" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E875" sqref="E875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59798,6 +59834,851 @@
         <v>3</v>
       </c>
     </row>
+    <row r="858" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>783</v>
+      </c>
+      <c r="B858" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C858" t="s">
+        <v>20</v>
+      </c>
+      <c r="E858" t="s">
+        <v>55</v>
+      </c>
+      <c r="F858" t="s">
+        <v>32</v>
+      </c>
+      <c r="G858" t="s">
+        <v>772</v>
+      </c>
+      <c r="H858">
+        <v>10</v>
+      </c>
+      <c r="I858">
+        <v>1.61</v>
+      </c>
+      <c r="J858">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="K858">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L858">
+        <v>0.36</v>
+      </c>
+      <c r="M858">
+        <v>0.13</v>
+      </c>
+      <c r="N858">
+        <v>0</v>
+      </c>
+      <c r="O858">
+        <v>8</v>
+      </c>
+      <c r="P858">
+        <v>5.95</v>
+      </c>
+      <c r="Q858">
+        <v>29.73</v>
+      </c>
+      <c r="R858">
+        <v>4.5</v>
+      </c>
+      <c r="S858">
+        <v>47</v>
+      </c>
+      <c r="T858">
+        <v>5</v>
+      </c>
+      <c r="U858">
+        <v>39</v>
+      </c>
+      <c r="V858">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>783</v>
+      </c>
+      <c r="B859" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C859" t="s">
+        <v>20</v>
+      </c>
+      <c r="E859" t="s">
+        <v>36</v>
+      </c>
+      <c r="F859" t="s">
+        <v>30</v>
+      </c>
+      <c r="G859" t="s">
+        <v>773</v>
+      </c>
+      <c r="H859">
+        <v>4.96</v>
+      </c>
+      <c r="I859">
+        <v>0.73</v>
+      </c>
+      <c r="J859">
+        <v>4.22</v>
+      </c>
+      <c r="K859">
+        <v>0.49</v>
+      </c>
+      <c r="L859">
+        <v>0.23</v>
+      </c>
+      <c r="M859">
+        <v>0.01</v>
+      </c>
+      <c r="N859">
+        <v>0</v>
+      </c>
+      <c r="O859">
+        <v>2</v>
+      </c>
+      <c r="P859">
+        <v>6.18</v>
+      </c>
+      <c r="Q859">
+        <v>25.83</v>
+      </c>
+      <c r="R859">
+        <v>4.47</v>
+      </c>
+      <c r="S859">
+        <v>22</v>
+      </c>
+      <c r="T859">
+        <v>5</v>
+      </c>
+      <c r="U859">
+        <v>15</v>
+      </c>
+      <c r="V859">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>783</v>
+      </c>
+      <c r="B860" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C860" t="s">
+        <v>20</v>
+      </c>
+      <c r="E860" t="s">
+        <v>17</v>
+      </c>
+      <c r="F860" t="s">
+        <v>34</v>
+      </c>
+      <c r="G860" t="s">
+        <v>774</v>
+      </c>
+      <c r="H860">
+        <v>8.32</v>
+      </c>
+      <c r="I860">
+        <v>1.76</v>
+      </c>
+      <c r="J860">
+        <v>6.53</v>
+      </c>
+      <c r="K860">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L860">
+        <v>0.54</v>
+      </c>
+      <c r="M860">
+        <v>0.16</v>
+      </c>
+      <c r="N860">
+        <v>0</v>
+      </c>
+      <c r="O860">
+        <v>14</v>
+      </c>
+      <c r="P860">
+        <v>6.62</v>
+      </c>
+      <c r="Q860">
+        <v>29.84</v>
+      </c>
+      <c r="R860">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S860">
+        <v>50</v>
+      </c>
+      <c r="T860">
+        <v>11</v>
+      </c>
+      <c r="U860">
+        <v>37</v>
+      </c>
+      <c r="V860">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="861" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>783</v>
+      </c>
+      <c r="B861" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C861" t="s">
+        <v>20</v>
+      </c>
+      <c r="E861" t="s">
+        <v>16</v>
+      </c>
+      <c r="F861" t="s">
+        <v>30</v>
+      </c>
+      <c r="G861" t="s">
+        <v>775</v>
+      </c>
+      <c r="H861">
+        <v>6.67</v>
+      </c>
+      <c r="I861">
+        <v>1.25</v>
+      </c>
+      <c r="J861">
+        <v>5.4</v>
+      </c>
+      <c r="K861">
+        <v>0.82</v>
+      </c>
+      <c r="L861">
+        <v>0.38</v>
+      </c>
+      <c r="M861">
+        <v>0.06</v>
+      </c>
+      <c r="N861">
+        <v>0</v>
+      </c>
+      <c r="O861">
+        <v>7</v>
+      </c>
+      <c r="P861">
+        <v>6.58</v>
+      </c>
+      <c r="Q861">
+        <v>27.36</v>
+      </c>
+      <c r="R861">
+        <v>4.82</v>
+      </c>
+      <c r="S861">
+        <v>33</v>
+      </c>
+      <c r="T861">
+        <v>3</v>
+      </c>
+      <c r="U861">
+        <v>22</v>
+      </c>
+      <c r="V861">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="862" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>783</v>
+      </c>
+      <c r="B862" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C862" t="s">
+        <v>20</v>
+      </c>
+      <c r="E862" t="s">
+        <v>54</v>
+      </c>
+      <c r="F862" t="s">
+        <v>28</v>
+      </c>
+      <c r="G862" t="s">
+        <v>95</v>
+      </c>
+      <c r="H862">
+        <v>6.65</v>
+      </c>
+      <c r="I862">
+        <v>0.84</v>
+      </c>
+      <c r="J862">
+        <v>5.8</v>
+      </c>
+      <c r="K862">
+        <v>0.62</v>
+      </c>
+      <c r="L862">
+        <v>0.2</v>
+      </c>
+      <c r="M862">
+        <v>0.03</v>
+      </c>
+      <c r="N862">
+        <v>0</v>
+      </c>
+      <c r="O862">
+        <v>3</v>
+      </c>
+      <c r="P862">
+        <v>5.35</v>
+      </c>
+      <c r="Q862">
+        <v>27.68</v>
+      </c>
+      <c r="R862">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S862">
+        <v>29</v>
+      </c>
+      <c r="T862">
+        <v>3</v>
+      </c>
+      <c r="U862">
+        <v>25</v>
+      </c>
+      <c r="V862">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>783</v>
+      </c>
+      <c r="B863" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C863" t="s">
+        <v>20</v>
+      </c>
+      <c r="E863" t="s">
+        <v>38</v>
+      </c>
+      <c r="F863" t="s">
+        <v>34</v>
+      </c>
+      <c r="G863" t="s">
+        <v>776</v>
+      </c>
+      <c r="H863">
+        <v>2.4</v>
+      </c>
+      <c r="I863">
+        <v>0.4</v>
+      </c>
+      <c r="J863">
+        <v>1.99</v>
+      </c>
+      <c r="K863">
+        <v>0.31</v>
+      </c>
+      <c r="L863">
+        <v>0.06</v>
+      </c>
+      <c r="M863">
+        <v>0.03</v>
+      </c>
+      <c r="N863">
+        <v>0</v>
+      </c>
+      <c r="O863">
+        <v>2</v>
+      </c>
+      <c r="P863">
+        <v>5.82</v>
+      </c>
+      <c r="Q863">
+        <v>28.88</v>
+      </c>
+      <c r="R863">
+        <v>4.26</v>
+      </c>
+      <c r="S863">
+        <v>6</v>
+      </c>
+      <c r="T863">
+        <v>1</v>
+      </c>
+      <c r="U863">
+        <v>6</v>
+      </c>
+      <c r="V863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>783</v>
+      </c>
+      <c r="B864" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C864" t="s">
+        <v>20</v>
+      </c>
+      <c r="E864" t="s">
+        <v>48</v>
+      </c>
+      <c r="F864" t="s">
+        <v>29</v>
+      </c>
+      <c r="G864" t="s">
+        <v>777</v>
+      </c>
+      <c r="H864">
+        <v>8.59</v>
+      </c>
+      <c r="I864">
+        <v>0.85</v>
+      </c>
+      <c r="J864">
+        <v>7.73</v>
+      </c>
+      <c r="K864">
+        <v>0.71</v>
+      </c>
+      <c r="L864">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M864">
+        <v>0.01</v>
+      </c>
+      <c r="N864">
+        <v>0</v>
+      </c>
+      <c r="O864">
+        <v>1</v>
+      </c>
+      <c r="P864">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q864">
+        <v>26.24</v>
+      </c>
+      <c r="R864">
+        <v>4.42</v>
+      </c>
+      <c r="S864">
+        <v>21</v>
+      </c>
+      <c r="T864">
+        <v>1</v>
+      </c>
+      <c r="U864">
+        <v>18</v>
+      </c>
+      <c r="V864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>783</v>
+      </c>
+      <c r="B865" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C865" t="s">
+        <v>20</v>
+      </c>
+      <c r="E865" t="s">
+        <v>448</v>
+      </c>
+      <c r="F865" t="s">
+        <v>32</v>
+      </c>
+      <c r="G865" t="s">
+        <v>778</v>
+      </c>
+      <c r="H865">
+        <v>12.24</v>
+      </c>
+      <c r="I865">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J865">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K865">
+        <v>1.81</v>
+      </c>
+      <c r="L865">
+        <v>0.44</v>
+      </c>
+      <c r="M865">
+        <v>0.03</v>
+      </c>
+      <c r="N865">
+        <v>0</v>
+      </c>
+      <c r="O865">
+        <v>3</v>
+      </c>
+      <c r="P865">
+        <v>7.24</v>
+      </c>
+      <c r="Q865">
+        <v>26.47</v>
+      </c>
+      <c r="R865">
+        <v>4.37</v>
+      </c>
+      <c r="S865">
+        <v>30</v>
+      </c>
+      <c r="T865">
+        <v>2</v>
+      </c>
+      <c r="U865">
+        <v>17</v>
+      </c>
+      <c r="V865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>783</v>
+      </c>
+      <c r="B866" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C866" t="s">
+        <v>20</v>
+      </c>
+      <c r="E866" t="s">
+        <v>58</v>
+      </c>
+      <c r="F866" t="s">
+        <v>29</v>
+      </c>
+      <c r="G866" t="s">
+        <v>779</v>
+      </c>
+      <c r="H866">
+        <v>7.11</v>
+      </c>
+      <c r="I866">
+        <v>0.89</v>
+      </c>
+      <c r="J866">
+        <v>6.21</v>
+      </c>
+      <c r="K866">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L866">
+        <v>0.24</v>
+      </c>
+      <c r="M866">
+        <v>0.08</v>
+      </c>
+      <c r="N866">
+        <v>0</v>
+      </c>
+      <c r="O866">
+        <v>6</v>
+      </c>
+      <c r="P866">
+        <v>5.51</v>
+      </c>
+      <c r="Q866">
+        <v>27.36</v>
+      </c>
+      <c r="R866">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S866">
+        <v>19</v>
+      </c>
+      <c r="T866">
+        <v>3</v>
+      </c>
+      <c r="U866">
+        <v>10</v>
+      </c>
+      <c r="V866">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>783</v>
+      </c>
+      <c r="B867" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C867" t="s">
+        <v>20</v>
+      </c>
+      <c r="E867" t="s">
+        <v>52</v>
+      </c>
+      <c r="F867" t="s">
+        <v>33</v>
+      </c>
+      <c r="G867" t="s">
+        <v>780</v>
+      </c>
+      <c r="H867">
+        <v>11.11</v>
+      </c>
+      <c r="I867">
+        <v>1.99</v>
+      </c>
+      <c r="J867">
+        <v>9.11</v>
+      </c>
+      <c r="K867">
+        <v>1.33</v>
+      </c>
+      <c r="L867">
+        <v>0.5</v>
+      </c>
+      <c r="M867">
+        <v>0.18</v>
+      </c>
+      <c r="N867">
+        <v>0</v>
+      </c>
+      <c r="O867">
+        <v>14</v>
+      </c>
+      <c r="P867">
+        <v>6.56</v>
+      </c>
+      <c r="Q867">
+        <v>30.03</v>
+      </c>
+      <c r="R867">
+        <v>5.09</v>
+      </c>
+      <c r="S867">
+        <v>40</v>
+      </c>
+      <c r="T867">
+        <v>9</v>
+      </c>
+      <c r="U867">
+        <v>38</v>
+      </c>
+      <c r="V867">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="868" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>783</v>
+      </c>
+      <c r="B868" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C868" t="s">
+        <v>20</v>
+      </c>
+      <c r="E868" t="s">
+        <v>43</v>
+      </c>
+      <c r="F868" t="s">
+        <v>34</v>
+      </c>
+      <c r="G868" t="s">
+        <v>781</v>
+      </c>
+      <c r="H868">
+        <v>1.73</v>
+      </c>
+      <c r="I868">
+        <v>0.47</v>
+      </c>
+      <c r="J868">
+        <v>1.25</v>
+      </c>
+      <c r="K868">
+        <v>0.25</v>
+      </c>
+      <c r="L868">
+        <v>0.16</v>
+      </c>
+      <c r="M868">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N868">
+        <v>0</v>
+      </c>
+      <c r="O868">
+        <v>6</v>
+      </c>
+      <c r="P868">
+        <v>7.7</v>
+      </c>
+      <c r="Q868">
+        <v>28.25</v>
+      </c>
+      <c r="R868">
+        <v>4.08</v>
+      </c>
+      <c r="S868">
+        <v>12</v>
+      </c>
+      <c r="T868">
+        <v>2</v>
+      </c>
+      <c r="U868">
+        <v>9</v>
+      </c>
+      <c r="V868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>783</v>
+      </c>
+      <c r="B869" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C869" t="s">
+        <v>20</v>
+      </c>
+      <c r="E869" t="s">
+        <v>93</v>
+      </c>
+      <c r="F869" t="s">
+        <v>31</v>
+      </c>
+      <c r="G869" t="s">
+        <v>444</v>
+      </c>
+      <c r="H869">
+        <v>7.6</v>
+      </c>
+      <c r="I869">
+        <v>1.39</v>
+      </c>
+      <c r="J869">
+        <v>6.19</v>
+      </c>
+      <c r="K869">
+        <v>0.65</v>
+      </c>
+      <c r="L869">
+        <v>0.47</v>
+      </c>
+      <c r="M869">
+        <v>0.27</v>
+      </c>
+      <c r="N869">
+        <v>0.02</v>
+      </c>
+      <c r="O869">
+        <v>19</v>
+      </c>
+      <c r="P869">
+        <v>5.2</v>
+      </c>
+      <c r="Q869">
+        <v>31.98</v>
+      </c>
+      <c r="R869">
+        <v>5.65</v>
+      </c>
+      <c r="S869">
+        <v>42</v>
+      </c>
+      <c r="T869">
+        <v>11</v>
+      </c>
+      <c r="U869">
+        <v>23</v>
+      </c>
+      <c r="V869">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="870" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>783</v>
+      </c>
+      <c r="B870" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C870" t="s">
+        <v>20</v>
+      </c>
+      <c r="E870" t="s">
+        <v>35</v>
+      </c>
+      <c r="F870" t="s">
+        <v>34</v>
+      </c>
+      <c r="G870" t="s">
+        <v>782</v>
+      </c>
+      <c r="H870">
+        <v>1.74</v>
+      </c>
+      <c r="I870">
+        <v>0.49</v>
+      </c>
+      <c r="J870">
+        <v>1.24</v>
+      </c>
+      <c r="K870">
+        <v>0.34</v>
+      </c>
+      <c r="L870">
+        <v>0.08</v>
+      </c>
+      <c r="M870">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N870">
+        <v>0</v>
+      </c>
+      <c r="O870">
+        <v>5</v>
+      </c>
+      <c r="P870">
+        <v>6.63</v>
+      </c>
+      <c r="Q870">
+        <v>29.89</v>
+      </c>
+      <c r="R870">
+        <v>4.78</v>
+      </c>
+      <c r="S870">
+        <v>7</v>
+      </c>
+      <c r="T870">
+        <v>5</v>
+      </c>
+      <c r="U870">
+        <v>7</v>
+      </c>
+      <c r="V870">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F745E-58B6-BB4E-95EA-354AC640950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD39DD-AE02-8042-88BC-9F91DEF45959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="790">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2388,6 +2388,24 @@
   </si>
   <si>
     <t>CDF T7 VS Pierrelatte (R3)</t>
+  </si>
+  <si>
+    <t>01:09:34</t>
+  </si>
+  <si>
+    <t>01:10:17</t>
+  </si>
+  <si>
+    <t>01:09:26</t>
+  </si>
+  <si>
+    <t>01:09:49</t>
+  </si>
+  <si>
+    <t>01:08:23</t>
+  </si>
+  <si>
+    <t>00:56:50</t>
   </si>
 </sst>
 </file>
@@ -2783,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V870"/>
+  <dimension ref="A1:V876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E875" sqref="E875"/>
+    <sheetView tabSelected="1" topLeftCell="A846" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C880" sqref="C880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60679,6 +60697,414 @@
         <v>4</v>
       </c>
     </row>
+    <row r="871" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>23</v>
+      </c>
+      <c r="B871" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C871" t="s">
+        <v>20</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E871" t="s">
+        <v>52</v>
+      </c>
+      <c r="F871" t="s">
+        <v>33</v>
+      </c>
+      <c r="G871" t="s">
+        <v>784</v>
+      </c>
+      <c r="H871">
+        <v>5.8</v>
+      </c>
+      <c r="I871">
+        <v>0.21</v>
+      </c>
+      <c r="J871">
+        <v>5.59</v>
+      </c>
+      <c r="K871">
+        <v>0.18</v>
+      </c>
+      <c r="L871">
+        <v>0.03</v>
+      </c>
+      <c r="M871">
+        <v>0</v>
+      </c>
+      <c r="N871">
+        <v>0</v>
+      </c>
+      <c r="O871">
+        <v>0</v>
+      </c>
+      <c r="P871">
+        <v>4.93</v>
+      </c>
+      <c r="Q871">
+        <v>23.61</v>
+      </c>
+      <c r="R871">
+        <v>4.28</v>
+      </c>
+      <c r="S871">
+        <v>30</v>
+      </c>
+      <c r="T871">
+        <v>2</v>
+      </c>
+      <c r="U871">
+        <v>16</v>
+      </c>
+      <c r="V871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>23</v>
+      </c>
+      <c r="B872" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C872" t="s">
+        <v>20</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E872" t="s">
+        <v>447</v>
+      </c>
+      <c r="F872" t="s">
+        <v>33</v>
+      </c>
+      <c r="G872" t="s">
+        <v>785</v>
+      </c>
+      <c r="H872">
+        <v>4.99</v>
+      </c>
+      <c r="I872">
+        <v>0.02</v>
+      </c>
+      <c r="J872">
+        <v>4.97</v>
+      </c>
+      <c r="K872">
+        <v>0.02</v>
+      </c>
+      <c r="L872">
+        <v>0</v>
+      </c>
+      <c r="M872">
+        <v>0</v>
+      </c>
+      <c r="N872">
+        <v>0</v>
+      </c>
+      <c r="O872">
+        <v>0</v>
+      </c>
+      <c r="P872">
+        <v>3.87</v>
+      </c>
+      <c r="Q872">
+        <v>18.39</v>
+      </c>
+      <c r="R872">
+        <v>3.75</v>
+      </c>
+      <c r="S872">
+        <v>15</v>
+      </c>
+      <c r="T872">
+        <v>0</v>
+      </c>
+      <c r="U872">
+        <v>4</v>
+      </c>
+      <c r="V872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>23</v>
+      </c>
+      <c r="B873" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C873" t="s">
+        <v>20</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E873" t="s">
+        <v>43</v>
+      </c>
+      <c r="F873" t="s">
+        <v>34</v>
+      </c>
+      <c r="G873" t="s">
+        <v>786</v>
+      </c>
+      <c r="H873">
+        <v>6.1</v>
+      </c>
+      <c r="I873">
+        <v>0.15</v>
+      </c>
+      <c r="J873">
+        <v>5.94</v>
+      </c>
+      <c r="K873">
+        <v>0.13</v>
+      </c>
+      <c r="L873">
+        <v>0.03</v>
+      </c>
+      <c r="M873">
+        <v>0</v>
+      </c>
+      <c r="N873">
+        <v>0</v>
+      </c>
+      <c r="O873">
+        <v>0</v>
+      </c>
+      <c r="P873">
+        <v>4.45</v>
+      </c>
+      <c r="Q873">
+        <v>23.93</v>
+      </c>
+      <c r="R873">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S873">
+        <v>31</v>
+      </c>
+      <c r="T873">
+        <v>1</v>
+      </c>
+      <c r="U873">
+        <v>19</v>
+      </c>
+      <c r="V873">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="874" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>23</v>
+      </c>
+      <c r="B874" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C874" t="s">
+        <v>20</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E874" t="s">
+        <v>164</v>
+      </c>
+      <c r="F874" t="s">
+        <v>32</v>
+      </c>
+      <c r="G874" t="s">
+        <v>787</v>
+      </c>
+      <c r="H874">
+        <v>6.04</v>
+      </c>
+      <c r="I874">
+        <v>0.06</v>
+      </c>
+      <c r="J874">
+        <v>5.97</v>
+      </c>
+      <c r="K874">
+        <v>0.05</v>
+      </c>
+      <c r="L874">
+        <v>0.01</v>
+      </c>
+      <c r="M874">
+        <v>0</v>
+      </c>
+      <c r="N874">
+        <v>0</v>
+      </c>
+      <c r="O874">
+        <v>0</v>
+      </c>
+      <c r="P874">
+        <v>5.12</v>
+      </c>
+      <c r="Q874">
+        <v>22.58</v>
+      </c>
+      <c r="R874">
+        <v>3.75</v>
+      </c>
+      <c r="S874">
+        <v>15</v>
+      </c>
+      <c r="T874">
+        <v>0</v>
+      </c>
+      <c r="U874">
+        <v>12</v>
+      </c>
+      <c r="V874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>23</v>
+      </c>
+      <c r="B875" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C875" t="s">
+        <v>20</v>
+      </c>
+      <c r="D875" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E875" t="s">
+        <v>53</v>
+      </c>
+      <c r="F875" t="s">
+        <v>32</v>
+      </c>
+      <c r="G875" t="s">
+        <v>788</v>
+      </c>
+      <c r="H875">
+        <v>6.17</v>
+      </c>
+      <c r="I875">
+        <v>0.08</v>
+      </c>
+      <c r="J875">
+        <v>6.09</v>
+      </c>
+      <c r="K875">
+        <v>0.08</v>
+      </c>
+      <c r="L875">
+        <v>0</v>
+      </c>
+      <c r="M875">
+        <v>0</v>
+      </c>
+      <c r="N875">
+        <v>0</v>
+      </c>
+      <c r="O875">
+        <v>0</v>
+      </c>
+      <c r="P875">
+        <v>5.34</v>
+      </c>
+      <c r="Q875">
+        <v>20.86</v>
+      </c>
+      <c r="R875">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S875">
+        <v>15</v>
+      </c>
+      <c r="T875">
+        <v>2</v>
+      </c>
+      <c r="U875">
+        <v>5</v>
+      </c>
+      <c r="V875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>23</v>
+      </c>
+      <c r="B876" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C876" t="s">
+        <v>20</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E876" t="s">
+        <v>35</v>
+      </c>
+      <c r="F876" t="s">
+        <v>34</v>
+      </c>
+      <c r="G876" t="s">
+        <v>789</v>
+      </c>
+      <c r="H876">
+        <v>4.74</v>
+      </c>
+      <c r="I876">
+        <v>0.05</v>
+      </c>
+      <c r="J876">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K876">
+        <v>0.04</v>
+      </c>
+      <c r="L876">
+        <v>0</v>
+      </c>
+      <c r="M876">
+        <v>0</v>
+      </c>
+      <c r="N876">
+        <v>0</v>
+      </c>
+      <c r="O876">
+        <v>0</v>
+      </c>
+      <c r="P876">
+        <v>4.92</v>
+      </c>
+      <c r="Q876">
+        <v>21</v>
+      </c>
+      <c r="R876">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S876">
+        <v>27</v>
+      </c>
+      <c r="T876">
+        <v>2</v>
+      </c>
+      <c r="U876">
+        <v>14</v>
+      </c>
+      <c r="V876">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AD39DD-AE02-8042-88BC-9F91DEF45959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CDE58-4429-4542-9FD6-D8D46658DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="797">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2406,6 +2406,27 @@
   </si>
   <si>
     <t>00:56:50</t>
+  </si>
+  <si>
+    <t>01:23:41</t>
+  </si>
+  <si>
+    <t>01:22:12</t>
+  </si>
+  <si>
+    <t>01:23:12</t>
+  </si>
+  <si>
+    <t>01:23:56</t>
+  </si>
+  <si>
+    <t>01:22:56</t>
+  </si>
+  <si>
+    <t>01:22:42</t>
+  </si>
+  <si>
+    <t>01:22:49</t>
   </si>
 </sst>
 </file>
@@ -2801,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V876"/>
+  <dimension ref="A1:V884"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A846" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C880" sqref="C880"/>
+      <selection activeCell="D885" sqref="D885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61105,6 +61126,550 @@
         <v>2</v>
       </c>
     </row>
+    <row r="877" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>23</v>
+      </c>
+      <c r="B877" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C877" t="s">
+        <v>20</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E877" t="s">
+        <v>164</v>
+      </c>
+      <c r="F877" t="s">
+        <v>32</v>
+      </c>
+      <c r="G877" t="s">
+        <v>790</v>
+      </c>
+      <c r="H877">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I877">
+        <v>0.85</v>
+      </c>
+      <c r="J877">
+        <v>7.17</v>
+      </c>
+      <c r="K877">
+        <v>0.6</v>
+      </c>
+      <c r="L877">
+        <v>0.23</v>
+      </c>
+      <c r="M877">
+        <v>0.04</v>
+      </c>
+      <c r="N877">
+        <v>0</v>
+      </c>
+      <c r="O877">
+        <v>5</v>
+      </c>
+      <c r="P877">
+        <v>4.92</v>
+      </c>
+      <c r="Q877">
+        <v>28.12</v>
+      </c>
+      <c r="R877">
+        <v>4.53</v>
+      </c>
+      <c r="S877">
+        <v>35</v>
+      </c>
+      <c r="T877">
+        <v>3</v>
+      </c>
+      <c r="U877">
+        <v>36</v>
+      </c>
+      <c r="V877">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="878" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>23</v>
+      </c>
+      <c r="B878" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C878" t="s">
+        <v>20</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E878" t="s">
+        <v>251</v>
+      </c>
+      <c r="F878" t="s">
+        <v>32</v>
+      </c>
+      <c r="G878" t="s">
+        <v>791</v>
+      </c>
+      <c r="H878">
+        <v>7.47</v>
+      </c>
+      <c r="I878">
+        <v>0.72</v>
+      </c>
+      <c r="J878">
+        <v>6.74</v>
+      </c>
+      <c r="K878">
+        <v>0.59</v>
+      </c>
+      <c r="L878">
+        <v>0.13</v>
+      </c>
+      <c r="M878">
+        <v>0.01</v>
+      </c>
+      <c r="N878">
+        <v>0</v>
+      </c>
+      <c r="O878">
+        <v>1</v>
+      </c>
+      <c r="P878">
+        <v>5.38</v>
+      </c>
+      <c r="Q878">
+        <v>26.74</v>
+      </c>
+      <c r="R878">
+        <v>4.05</v>
+      </c>
+      <c r="S878">
+        <v>24</v>
+      </c>
+      <c r="T878">
+        <v>1</v>
+      </c>
+      <c r="U878">
+        <v>20</v>
+      </c>
+      <c r="V878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>23</v>
+      </c>
+      <c r="B879" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C879" t="s">
+        <v>20</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E879" t="s">
+        <v>58</v>
+      </c>
+      <c r="F879" t="s">
+        <v>29</v>
+      </c>
+      <c r="G879" t="s">
+        <v>792</v>
+      </c>
+      <c r="H879">
+        <v>6.62</v>
+      </c>
+      <c r="I879">
+        <v>0.62</v>
+      </c>
+      <c r="J879">
+        <v>5.98</v>
+      </c>
+      <c r="K879">
+        <v>0.36</v>
+      </c>
+      <c r="L879">
+        <v>0.23</v>
+      </c>
+      <c r="M879">
+        <v>0.05</v>
+      </c>
+      <c r="N879">
+        <v>0</v>
+      </c>
+      <c r="O879">
+        <v>5</v>
+      </c>
+      <c r="P879">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q879">
+        <v>29.51</v>
+      </c>
+      <c r="R879">
+        <v>5.33</v>
+      </c>
+      <c r="S879">
+        <v>48</v>
+      </c>
+      <c r="T879">
+        <v>8</v>
+      </c>
+      <c r="U879">
+        <v>36</v>
+      </c>
+      <c r="V879">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="880" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>23</v>
+      </c>
+      <c r="B880" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C880" t="s">
+        <v>20</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E880" t="s">
+        <v>447</v>
+      </c>
+      <c r="F880" t="s">
+        <v>33</v>
+      </c>
+      <c r="G880" t="s">
+        <v>614</v>
+      </c>
+      <c r="H880">
+        <v>7.63</v>
+      </c>
+      <c r="I880">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J880">
+        <v>6.45</v>
+      </c>
+      <c r="K880">
+        <v>0.75</v>
+      </c>
+      <c r="L880">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M880">
+        <v>0.13</v>
+      </c>
+      <c r="N880">
+        <v>0</v>
+      </c>
+      <c r="O880">
+        <v>11</v>
+      </c>
+      <c r="P880">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q880">
+        <v>29.07</v>
+      </c>
+      <c r="R880">
+        <v>4.59</v>
+      </c>
+      <c r="S880">
+        <v>54</v>
+      </c>
+      <c r="T880">
+        <v>6</v>
+      </c>
+      <c r="U880">
+        <v>42</v>
+      </c>
+      <c r="V880">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="881" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>23</v>
+      </c>
+      <c r="B881" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C881" t="s">
+        <v>20</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E881" t="s">
+        <v>54</v>
+      </c>
+      <c r="F881" t="s">
+        <v>28</v>
+      </c>
+      <c r="G881" t="s">
+        <v>793</v>
+      </c>
+      <c r="H881">
+        <v>6.6</v>
+      </c>
+      <c r="I881">
+        <v>0.4</v>
+      </c>
+      <c r="J881">
+        <v>6.19</v>
+      </c>
+      <c r="K881">
+        <v>0.25</v>
+      </c>
+      <c r="L881">
+        <v>0.15</v>
+      </c>
+      <c r="M881">
+        <v>0</v>
+      </c>
+      <c r="N881">
+        <v>0</v>
+      </c>
+      <c r="O881">
+        <v>1</v>
+      </c>
+      <c r="P881">
+        <v>3.87</v>
+      </c>
+      <c r="Q881">
+        <v>25.12</v>
+      </c>
+      <c r="R881">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S881">
+        <v>13</v>
+      </c>
+      <c r="T881">
+        <v>1</v>
+      </c>
+      <c r="U881">
+        <v>18</v>
+      </c>
+      <c r="V881">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="882" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>23</v>
+      </c>
+      <c r="B882" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C882" t="s">
+        <v>20</v>
+      </c>
+      <c r="D882" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E882" t="s">
+        <v>52</v>
+      </c>
+      <c r="F882" t="s">
+        <v>33</v>
+      </c>
+      <c r="G882" t="s">
+        <v>794</v>
+      </c>
+      <c r="H882">
+        <v>7.43</v>
+      </c>
+      <c r="I882">
+        <v>0.95</v>
+      </c>
+      <c r="J882">
+        <v>6.47</v>
+      </c>
+      <c r="K882">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L882">
+        <v>0.3</v>
+      </c>
+      <c r="M882">
+        <v>0.12</v>
+      </c>
+      <c r="N882">
+        <v>0</v>
+      </c>
+      <c r="O882">
+        <v>9</v>
+      </c>
+      <c r="P882">
+        <v>5.34</v>
+      </c>
+      <c r="Q882">
+        <v>29.78</v>
+      </c>
+      <c r="R882">
+        <v>4.25</v>
+      </c>
+      <c r="S882">
+        <v>47</v>
+      </c>
+      <c r="T882">
+        <v>3</v>
+      </c>
+      <c r="U882">
+        <v>21</v>
+      </c>
+      <c r="V882">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="883" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>23</v>
+      </c>
+      <c r="B883" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C883" t="s">
+        <v>20</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E883" t="s">
+        <v>36</v>
+      </c>
+      <c r="F883" t="s">
+        <v>30</v>
+      </c>
+      <c r="G883" t="s">
+        <v>795</v>
+      </c>
+      <c r="H883">
+        <v>6.22</v>
+      </c>
+      <c r="I883">
+        <v>0.49</v>
+      </c>
+      <c r="J883">
+        <v>5.72</v>
+      </c>
+      <c r="K883">
+        <v>0.42</v>
+      </c>
+      <c r="L883">
+        <v>0.06</v>
+      </c>
+      <c r="M883">
+        <v>0.01</v>
+      </c>
+      <c r="N883">
+        <v>0</v>
+      </c>
+      <c r="O883">
+        <v>1</v>
+      </c>
+      <c r="P883">
+        <v>4.49</v>
+      </c>
+      <c r="Q883">
+        <v>27.04</v>
+      </c>
+      <c r="R883">
+        <v>4.32</v>
+      </c>
+      <c r="S883">
+        <v>11</v>
+      </c>
+      <c r="T883">
+        <v>1</v>
+      </c>
+      <c r="U883">
+        <v>16</v>
+      </c>
+      <c r="V883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>23</v>
+      </c>
+      <c r="B884" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C884" t="s">
+        <v>20</v>
+      </c>
+      <c r="D884" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E884" t="s">
+        <v>17</v>
+      </c>
+      <c r="F884" t="s">
+        <v>34</v>
+      </c>
+      <c r="G884" t="s">
+        <v>796</v>
+      </c>
+      <c r="H884">
+        <v>6.82</v>
+      </c>
+      <c r="I884">
+        <v>0.44</v>
+      </c>
+      <c r="J884">
+        <v>6.37</v>
+      </c>
+      <c r="K884">
+        <v>0.33</v>
+      </c>
+      <c r="L884">
+        <v>0.1</v>
+      </c>
+      <c r="M884">
+        <v>0.02</v>
+      </c>
+      <c r="N884">
+        <v>0</v>
+      </c>
+      <c r="O884">
+        <v>1</v>
+      </c>
+      <c r="P884">
+        <v>4.22</v>
+      </c>
+      <c r="Q884">
+        <v>29.26</v>
+      </c>
+      <c r="R884">
+        <v>4.8</v>
+      </c>
+      <c r="S884">
+        <v>18</v>
+      </c>
+      <c r="T884">
+        <v>3</v>
+      </c>
+      <c r="U884">
+        <v>16</v>
+      </c>
+      <c r="V884">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CDE58-4429-4542-9FD6-D8D46658DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF2131-2FA4-1F4E-821E-16BCBB197CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="807">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2427,6 +2427,36 @@
   </si>
   <si>
     <t>01:22:49</t>
+  </si>
+  <si>
+    <t>01:01:21</t>
+  </si>
+  <si>
+    <t>01:01:52</t>
+  </si>
+  <si>
+    <t>01:01:46</t>
+  </si>
+  <si>
+    <t>00:35:54</t>
+  </si>
+  <si>
+    <t>00:52:13</t>
+  </si>
+  <si>
+    <t>01:00:14</t>
+  </si>
+  <si>
+    <t>01:01:15</t>
+  </si>
+  <si>
+    <t>01:01:45</t>
+  </si>
+  <si>
+    <t>00:59:57</t>
+  </si>
+  <si>
+    <t>00:36:12</t>
   </si>
 </sst>
 </file>
@@ -2822,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V884"/>
+  <dimension ref="A1:V896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A846" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D885" sqref="D885"/>
+    <sheetView tabSelected="1" topLeftCell="A880" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F895" sqref="F895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61670,6 +61700,822 @@
         <v>4</v>
       </c>
     </row>
+    <row r="885" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>23</v>
+      </c>
+      <c r="B885" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C885" t="s">
+        <v>20</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E885" t="s">
+        <v>447</v>
+      </c>
+      <c r="F885" t="s">
+        <v>33</v>
+      </c>
+      <c r="G885" t="s">
+        <v>797</v>
+      </c>
+      <c r="H885">
+        <v>3.69</v>
+      </c>
+      <c r="I885">
+        <v>0.52</v>
+      </c>
+      <c r="J885">
+        <v>3.17</v>
+      </c>
+      <c r="K885">
+        <v>0.18</v>
+      </c>
+      <c r="L885">
+        <v>0.11</v>
+      </c>
+      <c r="M885">
+        <v>0.15</v>
+      </c>
+      <c r="N885">
+        <v>0.08</v>
+      </c>
+      <c r="O885">
+        <v>7</v>
+      </c>
+      <c r="P885">
+        <v>2.96</v>
+      </c>
+      <c r="Q885">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="R885">
+        <v>5.39</v>
+      </c>
+      <c r="S885">
+        <v>13</v>
+      </c>
+      <c r="T885">
+        <v>7</v>
+      </c>
+      <c r="U885">
+        <v>16</v>
+      </c>
+      <c r="V885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>23</v>
+      </c>
+      <c r="B886" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C886" t="s">
+        <v>20</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E886" t="s">
+        <v>17</v>
+      </c>
+      <c r="F886" t="s">
+        <v>34</v>
+      </c>
+      <c r="G886" t="s">
+        <v>798</v>
+      </c>
+      <c r="H886">
+        <v>3.52</v>
+      </c>
+      <c r="I886">
+        <v>0.32</v>
+      </c>
+      <c r="J886">
+        <v>3.2</v>
+      </c>
+      <c r="K886">
+        <v>0.16</v>
+      </c>
+      <c r="L886">
+        <v>0.13</v>
+      </c>
+      <c r="M886">
+        <v>0.03</v>
+      </c>
+      <c r="N886">
+        <v>0</v>
+      </c>
+      <c r="O886">
+        <v>3</v>
+      </c>
+      <c r="P886">
+        <v>2.9</v>
+      </c>
+      <c r="Q886">
+        <v>27.46</v>
+      </c>
+      <c r="R886">
+        <v>3.83</v>
+      </c>
+      <c r="S886">
+        <v>11</v>
+      </c>
+      <c r="T886">
+        <v>0</v>
+      </c>
+      <c r="U886">
+        <v>4</v>
+      </c>
+      <c r="V886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>23</v>
+      </c>
+      <c r="B887" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C887" t="s">
+        <v>20</v>
+      </c>
+      <c r="D887" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E887" t="s">
+        <v>40</v>
+      </c>
+      <c r="F887" t="s">
+        <v>31</v>
+      </c>
+      <c r="G887" t="s">
+        <v>799</v>
+      </c>
+      <c r="H887">
+        <v>3.99</v>
+      </c>
+      <c r="I887">
+        <v>0.43</v>
+      </c>
+      <c r="J887">
+        <v>3.56</v>
+      </c>
+      <c r="K887">
+        <v>0.19</v>
+      </c>
+      <c r="L887">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M887">
+        <v>0.09</v>
+      </c>
+      <c r="N887">
+        <v>0.01</v>
+      </c>
+      <c r="O887">
+        <v>7</v>
+      </c>
+      <c r="P887">
+        <v>3.52</v>
+      </c>
+      <c r="Q887">
+        <v>30.95</v>
+      </c>
+      <c r="R887">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S887">
+        <v>29</v>
+      </c>
+      <c r="T887">
+        <v>5</v>
+      </c>
+      <c r="U887">
+        <v>24</v>
+      </c>
+      <c r="V887">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="888" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>23</v>
+      </c>
+      <c r="B888" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C888" t="s">
+        <v>20</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E888" t="s">
+        <v>50</v>
+      </c>
+      <c r="F888" t="s">
+        <v>33</v>
+      </c>
+      <c r="G888" t="s">
+        <v>800</v>
+      </c>
+      <c r="H888">
+        <v>2.6</v>
+      </c>
+      <c r="I888">
+        <v>0.48</v>
+      </c>
+      <c r="J888">
+        <v>2.11</v>
+      </c>
+      <c r="K888">
+        <v>0.17</v>
+      </c>
+      <c r="L888">
+        <v>0.1</v>
+      </c>
+      <c r="M888">
+        <v>0.11</v>
+      </c>
+      <c r="N888">
+        <v>0.11</v>
+      </c>
+      <c r="O888">
+        <v>7</v>
+      </c>
+      <c r="P888">
+        <v>3.74</v>
+      </c>
+      <c r="Q888">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="R888">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S888">
+        <v>16</v>
+      </c>
+      <c r="T888">
+        <v>3</v>
+      </c>
+      <c r="U888">
+        <v>8</v>
+      </c>
+      <c r="V888">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>23</v>
+      </c>
+      <c r="B889" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C889" t="s">
+        <v>20</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E889" t="s">
+        <v>43</v>
+      </c>
+      <c r="F889" t="s">
+        <v>34</v>
+      </c>
+      <c r="G889" t="s">
+        <v>801</v>
+      </c>
+      <c r="H889">
+        <v>3.12</v>
+      </c>
+      <c r="I889">
+        <v>0.11</v>
+      </c>
+      <c r="J889">
+        <v>3.01</v>
+      </c>
+      <c r="K889">
+        <v>0.11</v>
+      </c>
+      <c r="L889">
+        <v>0</v>
+      </c>
+      <c r="M889">
+        <v>0</v>
+      </c>
+      <c r="N889">
+        <v>0</v>
+      </c>
+      <c r="O889">
+        <v>0</v>
+      </c>
+      <c r="P889">
+        <v>2.7</v>
+      </c>
+      <c r="Q889">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="R889">
+        <v>4.04</v>
+      </c>
+      <c r="S889">
+        <v>11</v>
+      </c>
+      <c r="T889">
+        <v>1</v>
+      </c>
+      <c r="U889">
+        <v>7</v>
+      </c>
+      <c r="V889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>23</v>
+      </c>
+      <c r="B890" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C890" t="s">
+        <v>20</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E890" t="s">
+        <v>16</v>
+      </c>
+      <c r="F890" t="s">
+        <v>30</v>
+      </c>
+      <c r="G890" t="s">
+        <v>802</v>
+      </c>
+      <c r="H890">
+        <v>3.17</v>
+      </c>
+      <c r="I890">
+        <v>0.46</v>
+      </c>
+      <c r="J890">
+        <v>2.7</v>
+      </c>
+      <c r="K890">
+        <v>0.19</v>
+      </c>
+      <c r="L890">
+        <v>0.1</v>
+      </c>
+      <c r="M890">
+        <v>0.12</v>
+      </c>
+      <c r="N890">
+        <v>0.06</v>
+      </c>
+      <c r="O890">
+        <v>7</v>
+      </c>
+      <c r="P890">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q890">
+        <v>33.08</v>
+      </c>
+      <c r="R890">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S890">
+        <v>22</v>
+      </c>
+      <c r="T890">
+        <v>2</v>
+      </c>
+      <c r="U890">
+        <v>10</v>
+      </c>
+      <c r="V890">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>23</v>
+      </c>
+      <c r="B891" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C891" t="s">
+        <v>20</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E891" t="s">
+        <v>52</v>
+      </c>
+      <c r="F891" t="s">
+        <v>33</v>
+      </c>
+      <c r="G891" t="s">
+        <v>803</v>
+      </c>
+      <c r="H891">
+        <v>3.65</v>
+      </c>
+      <c r="I891">
+        <v>0.63</v>
+      </c>
+      <c r="J891">
+        <v>3.02</v>
+      </c>
+      <c r="K891">
+        <v>0.31</v>
+      </c>
+      <c r="L891">
+        <v>0.18</v>
+      </c>
+      <c r="M891">
+        <v>0.11</v>
+      </c>
+      <c r="N891">
+        <v>0.02</v>
+      </c>
+      <c r="O891">
+        <v>6</v>
+      </c>
+      <c r="P891">
+        <v>3.51</v>
+      </c>
+      <c r="Q891">
+        <v>31.07</v>
+      </c>
+      <c r="R891">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S891">
+        <v>12</v>
+      </c>
+      <c r="T891">
+        <v>3</v>
+      </c>
+      <c r="U891">
+        <v>9</v>
+      </c>
+      <c r="V891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>23</v>
+      </c>
+      <c r="B892" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C892" t="s">
+        <v>20</v>
+      </c>
+      <c r="D892" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E892" t="s">
+        <v>53</v>
+      </c>
+      <c r="F892" t="s">
+        <v>32</v>
+      </c>
+      <c r="G892" t="s">
+        <v>804</v>
+      </c>
+      <c r="H892">
+        <v>3.59</v>
+      </c>
+      <c r="I892">
+        <v>0.49</v>
+      </c>
+      <c r="J892">
+        <v>3.09</v>
+      </c>
+      <c r="K892">
+        <v>0.26</v>
+      </c>
+      <c r="L892">
+        <v>0.16</v>
+      </c>
+      <c r="M892">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N892">
+        <v>0</v>
+      </c>
+      <c r="O892">
+        <v>4</v>
+      </c>
+      <c r="P892">
+        <v>3.39</v>
+      </c>
+      <c r="Q892">
+        <v>27.58</v>
+      </c>
+      <c r="R892">
+        <v>4.17</v>
+      </c>
+      <c r="S892">
+        <v>14</v>
+      </c>
+      <c r="T892">
+        <v>2</v>
+      </c>
+      <c r="U892">
+        <v>2</v>
+      </c>
+      <c r="V892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>23</v>
+      </c>
+      <c r="B893" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C893" t="s">
+        <v>20</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E893" t="s">
+        <v>164</v>
+      </c>
+      <c r="F893" t="s">
+        <v>32</v>
+      </c>
+      <c r="G893" t="s">
+        <v>805</v>
+      </c>
+      <c r="H893">
+        <v>3.47</v>
+      </c>
+      <c r="I893">
+        <v>0.43</v>
+      </c>
+      <c r="J893">
+        <v>3.02</v>
+      </c>
+      <c r="K893">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L893">
+        <v>0.1</v>
+      </c>
+      <c r="M893">
+        <v>0.06</v>
+      </c>
+      <c r="N893">
+        <v>0</v>
+      </c>
+      <c r="O893">
+        <v>7</v>
+      </c>
+      <c r="P893">
+        <v>2.97</v>
+      </c>
+      <c r="Q893">
+        <v>30.07</v>
+      </c>
+      <c r="R893">
+        <v>4.67</v>
+      </c>
+      <c r="S893">
+        <v>22</v>
+      </c>
+      <c r="T893">
+        <v>7</v>
+      </c>
+      <c r="U893">
+        <v>9</v>
+      </c>
+      <c r="V893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>23</v>
+      </c>
+      <c r="B894" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C894" t="s">
+        <v>20</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E894" t="s">
+        <v>251</v>
+      </c>
+      <c r="F894" t="s">
+        <v>32</v>
+      </c>
+      <c r="G894" t="s">
+        <v>806</v>
+      </c>
+      <c r="H894">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I894">
+        <v>0.47</v>
+      </c>
+      <c r="J894">
+        <v>1.8</v>
+      </c>
+      <c r="K894">
+        <v>0.17</v>
+      </c>
+      <c r="L894">
+        <v>0.2</v>
+      </c>
+      <c r="M894">
+        <v>0.11</v>
+      </c>
+      <c r="N894">
+        <v>0</v>
+      </c>
+      <c r="O894">
+        <v>5</v>
+      </c>
+      <c r="P894">
+        <v>3.64</v>
+      </c>
+      <c r="Q894">
+        <v>29.54</v>
+      </c>
+      <c r="R894">
+        <v>3.75</v>
+      </c>
+      <c r="S894">
+        <v>5</v>
+      </c>
+      <c r="T894">
+        <v>0</v>
+      </c>
+      <c r="U894">
+        <v>2</v>
+      </c>
+      <c r="V894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>23</v>
+      </c>
+      <c r="B895" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C895" t="s">
+        <v>20</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E895" t="s">
+        <v>35</v>
+      </c>
+      <c r="F895" t="s">
+        <v>34</v>
+      </c>
+      <c r="G895" t="s">
+        <v>545</v>
+      </c>
+      <c r="H895">
+        <v>3.1</v>
+      </c>
+      <c r="I895">
+        <v>0.54</v>
+      </c>
+      <c r="J895">
+        <v>2.56</v>
+      </c>
+      <c r="K895">
+        <v>0.23</v>
+      </c>
+      <c r="L895">
+        <v>0.11</v>
+      </c>
+      <c r="M895">
+        <v>0.16</v>
+      </c>
+      <c r="N895">
+        <v>0.05</v>
+      </c>
+      <c r="O895">
+        <v>7</v>
+      </c>
+      <c r="P895">
+        <v>3.02</v>
+      </c>
+      <c r="Q895">
+        <v>31.96</v>
+      </c>
+      <c r="R895">
+        <v>4.32</v>
+      </c>
+      <c r="S895">
+        <v>18</v>
+      </c>
+      <c r="T895">
+        <v>2</v>
+      </c>
+      <c r="U895">
+        <v>2</v>
+      </c>
+      <c r="V895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>23</v>
+      </c>
+      <c r="B896" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C896" t="s">
+        <v>20</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E896" t="s">
+        <v>121</v>
+      </c>
+      <c r="F896" t="s">
+        <v>32</v>
+      </c>
+      <c r="G896" t="s">
+        <v>806</v>
+      </c>
+      <c r="H896">
+        <v>2.38</v>
+      </c>
+      <c r="I896">
+        <v>0.44</v>
+      </c>
+      <c r="J896">
+        <v>1.93</v>
+      </c>
+      <c r="K896">
+        <v>0.16</v>
+      </c>
+      <c r="L896">
+        <v>0.16</v>
+      </c>
+      <c r="M896">
+        <v>0.13</v>
+      </c>
+      <c r="N896">
+        <v>0</v>
+      </c>
+      <c r="O896">
+        <v>7</v>
+      </c>
+      <c r="P896">
+        <v>3.83</v>
+      </c>
+      <c r="Q896">
+        <v>28.33</v>
+      </c>
+      <c r="R896">
+        <v>4.24</v>
+      </c>
+      <c r="S896">
+        <v>10</v>
+      </c>
+      <c r="T896">
+        <v>1</v>
+      </c>
+      <c r="U896">
+        <v>3</v>
+      </c>
+      <c r="V896">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF2131-2FA4-1F4E-821E-16BCBB197CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C156A9-6DE4-304B-A3DB-F1636CA2381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="808">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2457,6 +2457,9 @@
   </si>
   <si>
     <t>00:36:12</t>
+  </si>
+  <si>
+    <t>01:00:23</t>
   </si>
 </sst>
 </file>
@@ -2852,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V896"/>
+  <dimension ref="A1:V897"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A880" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F895" sqref="F895"/>
+      <selection activeCell="E904" sqref="E904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62516,6 +62519,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>23</v>
+      </c>
+      <c r="B897" s="1">
+        <v>45982</v>
+      </c>
+      <c r="C897" t="s">
+        <v>20</v>
+      </c>
+      <c r="D897" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E897" t="s">
+        <v>43</v>
+      </c>
+      <c r="F897" t="s">
+        <v>34</v>
+      </c>
+      <c r="G897" t="s">
+        <v>807</v>
+      </c>
+      <c r="H897">
+        <v>5.05</v>
+      </c>
+      <c r="I897">
+        <v>0.37</v>
+      </c>
+      <c r="J897">
+        <v>4.67</v>
+      </c>
+      <c r="K897">
+        <v>0.26</v>
+      </c>
+      <c r="L897">
+        <v>0.11</v>
+      </c>
+      <c r="M897">
+        <v>0.01</v>
+      </c>
+      <c r="N897">
+        <v>0</v>
+      </c>
+      <c r="O897">
+        <v>2</v>
+      </c>
+      <c r="P897">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q897">
+        <v>26.87</v>
+      </c>
+      <c r="R897">
+        <v>4.57</v>
+      </c>
+      <c r="S897">
+        <v>28</v>
+      </c>
+      <c r="T897">
+        <v>6</v>
+      </c>
+      <c r="U897">
+        <v>29</v>
+      </c>
+      <c r="V897">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C156A9-6DE4-304B-A3DB-F1636CA2381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA3355-DC44-1F43-8DF8-F1FEF428C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="819">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2460,6 +2460,39 @@
   </si>
   <si>
     <t>01:00:23</t>
+  </si>
+  <si>
+    <t>00:09:48</t>
+  </si>
+  <si>
+    <t>01:35:45</t>
+  </si>
+  <si>
+    <t>01:07:40</t>
+  </si>
+  <si>
+    <t>01:35:38</t>
+  </si>
+  <si>
+    <t>00:16:20</t>
+  </si>
+  <si>
+    <t>00:27:34</t>
+  </si>
+  <si>
+    <t>01:18:54</t>
+  </si>
+  <si>
+    <t>01:36:09</t>
+  </si>
+  <si>
+    <t>01:36:01</t>
+  </si>
+  <si>
+    <t>01:19:57</t>
+  </si>
+  <si>
+    <t>N3 J9 VS Beaucaire</t>
   </si>
 </sst>
 </file>
@@ -2855,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V897"/>
+  <dimension ref="A1:V909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A880" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E904" sqref="E904"/>
+    <sheetView tabSelected="1" topLeftCell="A886" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D914" sqref="D914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62587,6 +62620,822 @@
         <v>10</v>
       </c>
     </row>
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>818</v>
+      </c>
+      <c r="B898" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C898" t="s">
+        <v>20</v>
+      </c>
+      <c r="D898" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E898" t="s">
+        <v>251</v>
+      </c>
+      <c r="F898" t="s">
+        <v>32</v>
+      </c>
+      <c r="G898" t="s">
+        <v>808</v>
+      </c>
+      <c r="H898">
+        <v>1.24</v>
+      </c>
+      <c r="I898">
+        <v>0.18</v>
+      </c>
+      <c r="J898">
+        <v>1.07</v>
+      </c>
+      <c r="K898">
+        <v>0.16</v>
+      </c>
+      <c r="L898">
+        <v>0.02</v>
+      </c>
+      <c r="M898">
+        <v>0</v>
+      </c>
+      <c r="N898">
+        <v>0</v>
+      </c>
+      <c r="O898">
+        <v>0</v>
+      </c>
+      <c r="P898">
+        <v>7.39</v>
+      </c>
+      <c r="Q898">
+        <v>22.77</v>
+      </c>
+      <c r="R898">
+        <v>3.74</v>
+      </c>
+      <c r="S898">
+        <v>6</v>
+      </c>
+      <c r="T898">
+        <v>0</v>
+      </c>
+      <c r="U898">
+        <v>5</v>
+      </c>
+      <c r="V898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>818</v>
+      </c>
+      <c r="B899" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C899" t="s">
+        <v>20</v>
+      </c>
+      <c r="D899" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E899" t="s">
+        <v>52</v>
+      </c>
+      <c r="F899" t="s">
+        <v>33</v>
+      </c>
+      <c r="G899" t="s">
+        <v>809</v>
+      </c>
+      <c r="H899">
+        <v>11.4</v>
+      </c>
+      <c r="I899">
+        <v>2.06</v>
+      </c>
+      <c r="J899">
+        <v>9.31</v>
+      </c>
+      <c r="K899">
+        <v>1.31</v>
+      </c>
+      <c r="L899">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M899">
+        <v>0.19</v>
+      </c>
+      <c r="N899">
+        <v>0.03</v>
+      </c>
+      <c r="O899">
+        <v>14</v>
+      </c>
+      <c r="P899">
+        <v>6.98</v>
+      </c>
+      <c r="Q899">
+        <v>31.82</v>
+      </c>
+      <c r="R899">
+        <v>5.03</v>
+      </c>
+      <c r="S899">
+        <v>36</v>
+      </c>
+      <c r="T899">
+        <v>6</v>
+      </c>
+      <c r="U899">
+        <v>38</v>
+      </c>
+      <c r="V899">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>818</v>
+      </c>
+      <c r="B900" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C900" t="s">
+        <v>20</v>
+      </c>
+      <c r="D900" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E900" t="s">
+        <v>43</v>
+      </c>
+      <c r="F900" t="s">
+        <v>34</v>
+      </c>
+      <c r="G900" t="s">
+        <v>810</v>
+      </c>
+      <c r="H900">
+        <v>8.4</v>
+      </c>
+      <c r="I900">
+        <v>2.36</v>
+      </c>
+      <c r="J900">
+        <v>6.01</v>
+      </c>
+      <c r="K900">
+        <v>1.45</v>
+      </c>
+      <c r="L900">
+        <v>0.75</v>
+      </c>
+      <c r="M900">
+        <v>0.18</v>
+      </c>
+      <c r="N900">
+        <v>0.01</v>
+      </c>
+      <c r="O900">
+        <v>18</v>
+      </c>
+      <c r="P900">
+        <v>7.4</v>
+      </c>
+      <c r="Q900">
+        <v>31.86</v>
+      </c>
+      <c r="R900">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S900">
+        <v>47</v>
+      </c>
+      <c r="T900">
+        <v>8</v>
+      </c>
+      <c r="U900">
+        <v>37</v>
+      </c>
+      <c r="V900">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>818</v>
+      </c>
+      <c r="B901" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C901" t="s">
+        <v>20</v>
+      </c>
+      <c r="D901" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E901" t="s">
+        <v>48</v>
+      </c>
+      <c r="F901" t="s">
+        <v>29</v>
+      </c>
+      <c r="G901" t="s">
+        <v>811</v>
+      </c>
+      <c r="H901">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I901">
+        <v>0.9</v>
+      </c>
+      <c r="J901">
+        <v>8.31</v>
+      </c>
+      <c r="K901">
+        <v>0.67</v>
+      </c>
+      <c r="L901">
+        <v>0.22</v>
+      </c>
+      <c r="M901">
+        <v>0.02</v>
+      </c>
+      <c r="N901">
+        <v>0</v>
+      </c>
+      <c r="O901">
+        <v>2</v>
+      </c>
+      <c r="P901">
+        <v>5.63</v>
+      </c>
+      <c r="Q901">
+        <v>26.67</v>
+      </c>
+      <c r="R901">
+        <v>3.96</v>
+      </c>
+      <c r="S901">
+        <v>19</v>
+      </c>
+      <c r="T901">
+        <v>0</v>
+      </c>
+      <c r="U901">
+        <v>23</v>
+      </c>
+      <c r="V901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>818</v>
+      </c>
+      <c r="B902" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C902" t="s">
+        <v>20</v>
+      </c>
+      <c r="D902" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E902" t="s">
+        <v>93</v>
+      </c>
+      <c r="F902" t="s">
+        <v>31</v>
+      </c>
+      <c r="G902" t="s">
+        <v>264</v>
+      </c>
+      <c r="H902">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I902">
+        <v>1.92</v>
+      </c>
+      <c r="J902">
+        <v>6.18</v>
+      </c>
+      <c r="K902">
+        <v>1.02</v>
+      </c>
+      <c r="L902">
+        <v>0.65</v>
+      </c>
+      <c r="M902">
+        <v>0.2</v>
+      </c>
+      <c r="N902">
+        <v>0.06</v>
+      </c>
+      <c r="O902">
+        <v>15</v>
+      </c>
+      <c r="P902">
+        <v>5.62</v>
+      </c>
+      <c r="Q902">
+        <v>33.54</v>
+      </c>
+      <c r="R902">
+        <v>5.32</v>
+      </c>
+      <c r="S902">
+        <v>40</v>
+      </c>
+      <c r="T902">
+        <v>17</v>
+      </c>
+      <c r="U902">
+        <v>24</v>
+      </c>
+      <c r="V902">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>818</v>
+      </c>
+      <c r="B903" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C903" t="s">
+        <v>20</v>
+      </c>
+      <c r="D903" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E903" t="s">
+        <v>58</v>
+      </c>
+      <c r="F903" t="s">
+        <v>29</v>
+      </c>
+      <c r="G903" t="s">
+        <v>454</v>
+      </c>
+      <c r="H903">
+        <v>9.86</v>
+      </c>
+      <c r="I903">
+        <v>1.29</v>
+      </c>
+      <c r="J903">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K903">
+        <v>0.9</v>
+      </c>
+      <c r="L903">
+        <v>0.32</v>
+      </c>
+      <c r="M903">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N903">
+        <v>0.01</v>
+      </c>
+      <c r="O903">
+        <v>5</v>
+      </c>
+      <c r="P903">
+        <v>5.96</v>
+      </c>
+      <c r="Q903">
+        <v>31.21</v>
+      </c>
+      <c r="R903">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S903">
+        <v>14</v>
+      </c>
+      <c r="T903">
+        <v>1</v>
+      </c>
+      <c r="U903">
+        <v>14</v>
+      </c>
+      <c r="V903">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>818</v>
+      </c>
+      <c r="B904" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C904" t="s">
+        <v>20</v>
+      </c>
+      <c r="D904" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E904" t="s">
+        <v>36</v>
+      </c>
+      <c r="F904" t="s">
+        <v>30</v>
+      </c>
+      <c r="G904" t="s">
+        <v>812</v>
+      </c>
+      <c r="H904">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I904">
+        <v>0.5</v>
+      </c>
+      <c r="J904">
+        <v>1.56</v>
+      </c>
+      <c r="K904">
+        <v>0.31</v>
+      </c>
+      <c r="L904">
+        <v>0.11</v>
+      </c>
+      <c r="M904">
+        <v>0.08</v>
+      </c>
+      <c r="N904">
+        <v>0</v>
+      </c>
+      <c r="O904">
+        <v>3</v>
+      </c>
+      <c r="P904">
+        <v>7.61</v>
+      </c>
+      <c r="Q904">
+        <v>29.38</v>
+      </c>
+      <c r="R904">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S904">
+        <v>8</v>
+      </c>
+      <c r="T904">
+        <v>1</v>
+      </c>
+      <c r="U904">
+        <v>4</v>
+      </c>
+      <c r="V904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>818</v>
+      </c>
+      <c r="B905" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C905" t="s">
+        <v>20</v>
+      </c>
+      <c r="D905" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E905" t="s">
+        <v>35</v>
+      </c>
+      <c r="F905" t="s">
+        <v>34</v>
+      </c>
+      <c r="G905" t="s">
+        <v>813</v>
+      </c>
+      <c r="H905">
+        <v>3.41</v>
+      </c>
+      <c r="I905">
+        <v>1.01</v>
+      </c>
+      <c r="J905">
+        <v>2.38</v>
+      </c>
+      <c r="K905">
+        <v>0.52</v>
+      </c>
+      <c r="L905">
+        <v>0.34</v>
+      </c>
+      <c r="M905">
+        <v>0.16</v>
+      </c>
+      <c r="N905">
+        <v>0</v>
+      </c>
+      <c r="O905">
+        <v>10</v>
+      </c>
+      <c r="P905">
+        <v>7.44</v>
+      </c>
+      <c r="Q905">
+        <v>30.13</v>
+      </c>
+      <c r="R905">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S905">
+        <v>14</v>
+      </c>
+      <c r="T905">
+        <v>2</v>
+      </c>
+      <c r="U905">
+        <v>17</v>
+      </c>
+      <c r="V905">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>818</v>
+      </c>
+      <c r="B906" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C906" t="s">
+        <v>20</v>
+      </c>
+      <c r="D906" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E906" t="s">
+        <v>447</v>
+      </c>
+      <c r="F906" t="s">
+        <v>33</v>
+      </c>
+      <c r="G906" t="s">
+        <v>814</v>
+      </c>
+      <c r="H906">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I906">
+        <v>1.92</v>
+      </c>
+      <c r="J906">
+        <v>7.6</v>
+      </c>
+      <c r="K906">
+        <v>1.27</v>
+      </c>
+      <c r="L906">
+        <v>0.52</v>
+      </c>
+      <c r="M906">
+        <v>0.15</v>
+      </c>
+      <c r="N906">
+        <v>0</v>
+      </c>
+      <c r="O906">
+        <v>8</v>
+      </c>
+      <c r="P906">
+        <v>7.17</v>
+      </c>
+      <c r="Q906">
+        <v>29.61</v>
+      </c>
+      <c r="R906">
+        <v>4.5</v>
+      </c>
+      <c r="S906">
+        <v>33</v>
+      </c>
+      <c r="T906">
+        <v>6</v>
+      </c>
+      <c r="U906">
+        <v>36</v>
+      </c>
+      <c r="V906">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>818</v>
+      </c>
+      <c r="B907" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C907" t="s">
+        <v>20</v>
+      </c>
+      <c r="D907" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E907" t="s">
+        <v>448</v>
+      </c>
+      <c r="F907" t="s">
+        <v>32</v>
+      </c>
+      <c r="G907" t="s">
+        <v>815</v>
+      </c>
+      <c r="H907">
+        <v>12.03</v>
+      </c>
+      <c r="I907">
+        <v>2.77</v>
+      </c>
+      <c r="J907">
+        <v>9.23</v>
+      </c>
+      <c r="K907">
+        <v>2.27</v>
+      </c>
+      <c r="L907">
+        <v>0.45</v>
+      </c>
+      <c r="M907">
+        <v>0.08</v>
+      </c>
+      <c r="N907">
+        <v>0</v>
+      </c>
+      <c r="O907">
+        <v>6</v>
+      </c>
+      <c r="P907">
+        <v>7.36</v>
+      </c>
+      <c r="Q907">
+        <v>27.96</v>
+      </c>
+      <c r="R907">
+        <v>5.79</v>
+      </c>
+      <c r="S907">
+        <v>25</v>
+      </c>
+      <c r="T907">
+        <v>6</v>
+      </c>
+      <c r="U907">
+        <v>29</v>
+      </c>
+      <c r="V907">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>818</v>
+      </c>
+      <c r="B908" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C908" t="s">
+        <v>20</v>
+      </c>
+      <c r="D908" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E908" t="s">
+        <v>55</v>
+      </c>
+      <c r="F908" t="s">
+        <v>32</v>
+      </c>
+      <c r="G908" t="s">
+        <v>816</v>
+      </c>
+      <c r="H908">
+        <v>10.51</v>
+      </c>
+      <c r="I908">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J908">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="K908">
+        <v>1.56</v>
+      </c>
+      <c r="L908">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M908">
+        <v>0.11</v>
+      </c>
+      <c r="N908">
+        <v>0</v>
+      </c>
+      <c r="O908">
+        <v>8</v>
+      </c>
+      <c r="P908">
+        <v>6.51</v>
+      </c>
+      <c r="Q908">
+        <v>29.58</v>
+      </c>
+      <c r="R908">
+        <v>5.03</v>
+      </c>
+      <c r="S908">
+        <v>61</v>
+      </c>
+      <c r="T908">
+        <v>6</v>
+      </c>
+      <c r="U908">
+        <v>40</v>
+      </c>
+      <c r="V908">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>818</v>
+      </c>
+      <c r="B909" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C909" t="s">
+        <v>20</v>
+      </c>
+      <c r="D909" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E909" t="s">
+        <v>38</v>
+      </c>
+      <c r="F909" t="s">
+        <v>34</v>
+      </c>
+      <c r="G909" t="s">
+        <v>817</v>
+      </c>
+      <c r="H909">
+        <v>7.81</v>
+      </c>
+      <c r="I909">
+        <v>1.63</v>
+      </c>
+      <c r="J909">
+        <v>6.15</v>
+      </c>
+      <c r="K909">
+        <v>0.97</v>
+      </c>
+      <c r="L909">
+        <v>0.45</v>
+      </c>
+      <c r="M909">
+        <v>0.23</v>
+      </c>
+      <c r="N909">
+        <v>0.01</v>
+      </c>
+      <c r="O909">
+        <v>14</v>
+      </c>
+      <c r="P909">
+        <v>5.77</v>
+      </c>
+      <c r="Q909">
+        <v>30.63</v>
+      </c>
+      <c r="R909">
+        <v>4.63</v>
+      </c>
+      <c r="S909">
+        <v>18</v>
+      </c>
+      <c r="T909">
+        <v>2</v>
+      </c>
+      <c r="U909">
+        <v>39</v>
+      </c>
+      <c r="V909">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA3355-DC44-1F43-8DF8-F1FEF428C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD0D252-EE68-B648-9CEA-15824EBC07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="821">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2493,6 +2493,12 @@
   </si>
   <si>
     <t>N3 J9 VS Beaucaire</t>
+  </si>
+  <si>
+    <t>01:33:04</t>
+  </si>
+  <si>
+    <t>01:34:12</t>
   </si>
 </sst>
 </file>
@@ -2888,10 +2894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V909"/>
+  <dimension ref="A1:V914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A886" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D914" sqref="D914"/>
+      <selection activeCell="C918" sqref="C918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63436,6 +63442,346 @@
         <v>9</v>
       </c>
     </row>
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>23</v>
+      </c>
+      <c r="B910" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C910" t="s">
+        <v>20</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E910" t="s">
+        <v>447</v>
+      </c>
+      <c r="F910" t="s">
+        <v>33</v>
+      </c>
+      <c r="G910" t="s">
+        <v>816</v>
+      </c>
+      <c r="H910">
+        <v>7.86</v>
+      </c>
+      <c r="I910">
+        <v>0.35</v>
+      </c>
+      <c r="J910">
+        <v>7.5</v>
+      </c>
+      <c r="K910">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L910">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M910">
+        <v>0</v>
+      </c>
+      <c r="N910">
+        <v>0</v>
+      </c>
+      <c r="O910">
+        <v>1</v>
+      </c>
+      <c r="P910">
+        <v>4.41</v>
+      </c>
+      <c r="Q910">
+        <v>25</v>
+      </c>
+      <c r="R910">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S910">
+        <v>57</v>
+      </c>
+      <c r="T910">
+        <v>7</v>
+      </c>
+      <c r="U910">
+        <v>46</v>
+      </c>
+      <c r="V910">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>23</v>
+      </c>
+      <c r="B911" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C911" t="s">
+        <v>20</v>
+      </c>
+      <c r="D911" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E911" t="s">
+        <v>52</v>
+      </c>
+      <c r="F911" t="s">
+        <v>33</v>
+      </c>
+      <c r="G911" t="s">
+        <v>485</v>
+      </c>
+      <c r="H911">
+        <v>7.92</v>
+      </c>
+      <c r="I911">
+        <v>0.39</v>
+      </c>
+      <c r="J911">
+        <v>7.52</v>
+      </c>
+      <c r="K911">
+        <v>0.35</v>
+      </c>
+      <c r="L911">
+        <v>0.05</v>
+      </c>
+      <c r="M911">
+        <v>0</v>
+      </c>
+      <c r="N911">
+        <v>0</v>
+      </c>
+      <c r="O911">
+        <v>0</v>
+      </c>
+      <c r="P911">
+        <v>4.93</v>
+      </c>
+      <c r="Q911">
+        <v>22.48</v>
+      </c>
+      <c r="R911">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S911">
+        <v>37</v>
+      </c>
+      <c r="T911">
+        <v>4</v>
+      </c>
+      <c r="U911">
+        <v>34</v>
+      </c>
+      <c r="V911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>23</v>
+      </c>
+      <c r="B912" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C912" t="s">
+        <v>20</v>
+      </c>
+      <c r="D912" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E912" t="s">
+        <v>53</v>
+      </c>
+      <c r="F912" t="s">
+        <v>32</v>
+      </c>
+      <c r="G912" t="s">
+        <v>485</v>
+      </c>
+      <c r="H912">
+        <v>7.67</v>
+      </c>
+      <c r="I912">
+        <v>0.09</v>
+      </c>
+      <c r="J912">
+        <v>7.57</v>
+      </c>
+      <c r="K912">
+        <v>0.09</v>
+      </c>
+      <c r="L912">
+        <v>0.01</v>
+      </c>
+      <c r="M912">
+        <v>0</v>
+      </c>
+      <c r="N912">
+        <v>0</v>
+      </c>
+      <c r="O912">
+        <v>0</v>
+      </c>
+      <c r="P912">
+        <v>4.74</v>
+      </c>
+      <c r="Q912">
+        <v>22.02</v>
+      </c>
+      <c r="R912">
+        <v>3.72</v>
+      </c>
+      <c r="S912">
+        <v>22</v>
+      </c>
+      <c r="T912">
+        <v>0</v>
+      </c>
+      <c r="U912">
+        <v>8</v>
+      </c>
+      <c r="V912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>23</v>
+      </c>
+      <c r="B913" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C913" t="s">
+        <v>20</v>
+      </c>
+      <c r="D913" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E913" t="s">
+        <v>36</v>
+      </c>
+      <c r="F913" t="s">
+        <v>30</v>
+      </c>
+      <c r="G913" t="s">
+        <v>819</v>
+      </c>
+      <c r="H913">
+        <v>6.67</v>
+      </c>
+      <c r="I913">
+        <v>0.16</v>
+      </c>
+      <c r="J913">
+        <v>6.51</v>
+      </c>
+      <c r="K913">
+        <v>0.17</v>
+      </c>
+      <c r="L913">
+        <v>0</v>
+      </c>
+      <c r="M913">
+        <v>0</v>
+      </c>
+      <c r="N913">
+        <v>0</v>
+      </c>
+      <c r="O913">
+        <v>0</v>
+      </c>
+      <c r="P913">
+        <v>4.28</v>
+      </c>
+      <c r="Q913">
+        <v>20.58</v>
+      </c>
+      <c r="R913">
+        <v>3.92</v>
+      </c>
+      <c r="S913">
+        <v>22</v>
+      </c>
+      <c r="T913">
+        <v>0</v>
+      </c>
+      <c r="U913">
+        <v>28</v>
+      </c>
+      <c r="V913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>23</v>
+      </c>
+      <c r="B914" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C914" t="s">
+        <v>20</v>
+      </c>
+      <c r="D914" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E914" t="s">
+        <v>164</v>
+      </c>
+      <c r="F914" t="s">
+        <v>32</v>
+      </c>
+      <c r="G914" t="s">
+        <v>820</v>
+      </c>
+      <c r="H914">
+        <v>7.47</v>
+      </c>
+      <c r="I914">
+        <v>0.09</v>
+      </c>
+      <c r="J914">
+        <v>7.38</v>
+      </c>
+      <c r="K914">
+        <v>0.09</v>
+      </c>
+      <c r="L914">
+        <v>0</v>
+      </c>
+      <c r="M914">
+        <v>0</v>
+      </c>
+      <c r="N914">
+        <v>0</v>
+      </c>
+      <c r="O914">
+        <v>0</v>
+      </c>
+      <c r="P914">
+        <v>3.98</v>
+      </c>
+      <c r="Q914">
+        <v>18.54</v>
+      </c>
+      <c r="R914">
+        <v>4.97</v>
+      </c>
+      <c r="S914">
+        <v>33</v>
+      </c>
+      <c r="T914">
+        <v>5</v>
+      </c>
+      <c r="U914">
+        <v>31</v>
+      </c>
+      <c r="V914">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD0D252-EE68-B648-9CEA-15824EBC07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA535-B778-4C41-8D91-0E0C54626854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5127" uniqueCount="829">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2499,6 +2499,30 @@
   </si>
   <si>
     <t>01:34:12</t>
+  </si>
+  <si>
+    <t>01:26:09</t>
+  </si>
+  <si>
+    <t>01:32:34</t>
+  </si>
+  <si>
+    <t>01:37:33</t>
+  </si>
+  <si>
+    <t>01:28:24</t>
+  </si>
+  <si>
+    <t>01:36:49</t>
+  </si>
+  <si>
+    <t>01:23:02</t>
+  </si>
+  <si>
+    <t>01:38:04</t>
+  </si>
+  <si>
+    <t>01:27:33</t>
   </si>
 </sst>
 </file>
@@ -2894,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V914"/>
+  <dimension ref="A1:V923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A886" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C918" sqref="C918"/>
+    <sheetView tabSelected="1" topLeftCell="A902" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914:A923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63782,6 +63806,618 @@
         <v>4</v>
       </c>
     </row>
+    <row r="915" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>23</v>
+      </c>
+      <c r="B915" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C915" t="s">
+        <v>20</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E915" t="s">
+        <v>447</v>
+      </c>
+      <c r="F915" t="s">
+        <v>33</v>
+      </c>
+      <c r="G915" t="s">
+        <v>821</v>
+      </c>
+      <c r="H915">
+        <v>5.96</v>
+      </c>
+      <c r="I915">
+        <v>0.44</v>
+      </c>
+      <c r="J915">
+        <v>5.51</v>
+      </c>
+      <c r="K915">
+        <v>0.32</v>
+      </c>
+      <c r="L915">
+        <v>0.12</v>
+      </c>
+      <c r="M915">
+        <v>0.01</v>
+      </c>
+      <c r="N915">
+        <v>0</v>
+      </c>
+      <c r="O915">
+        <v>3</v>
+      </c>
+      <c r="P915">
+        <v>3.75</v>
+      </c>
+      <c r="Q915">
+        <v>26.69</v>
+      </c>
+      <c r="R915">
+        <v>4.41</v>
+      </c>
+      <c r="S915">
+        <v>48</v>
+      </c>
+      <c r="T915">
+        <v>5</v>
+      </c>
+      <c r="U915">
+        <v>40</v>
+      </c>
+      <c r="V915">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="916" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>23</v>
+      </c>
+      <c r="B916" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C916" t="s">
+        <v>20</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E916" t="s">
+        <v>52</v>
+      </c>
+      <c r="F916" t="s">
+        <v>33</v>
+      </c>
+      <c r="G916" t="s">
+        <v>822</v>
+      </c>
+      <c r="H916">
+        <v>6.26</v>
+      </c>
+      <c r="I916">
+        <v>0.54</v>
+      </c>
+      <c r="J916">
+        <v>5.71</v>
+      </c>
+      <c r="K916">
+        <v>0.38</v>
+      </c>
+      <c r="L916">
+        <v>0.08</v>
+      </c>
+      <c r="M916">
+        <v>0.08</v>
+      </c>
+      <c r="N916">
+        <v>0</v>
+      </c>
+      <c r="O916">
+        <v>3</v>
+      </c>
+      <c r="P916">
+        <v>4.01</v>
+      </c>
+      <c r="Q916">
+        <v>29.85</v>
+      </c>
+      <c r="R916">
+        <v>4.57</v>
+      </c>
+      <c r="S916">
+        <v>34</v>
+      </c>
+      <c r="T916">
+        <v>3</v>
+      </c>
+      <c r="U916">
+        <v>19</v>
+      </c>
+      <c r="V916">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>23</v>
+      </c>
+      <c r="B917" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C917" t="s">
+        <v>20</v>
+      </c>
+      <c r="D917" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E917" t="s">
+        <v>251</v>
+      </c>
+      <c r="F917" t="s">
+        <v>32</v>
+      </c>
+      <c r="G917" t="s">
+        <v>823</v>
+      </c>
+      <c r="H917">
+        <v>6.98</v>
+      </c>
+      <c r="I917">
+        <v>0.47</v>
+      </c>
+      <c r="J917">
+        <v>6.5</v>
+      </c>
+      <c r="K917">
+        <v>0.32</v>
+      </c>
+      <c r="L917">
+        <v>0.09</v>
+      </c>
+      <c r="M917">
+        <v>0.08</v>
+      </c>
+      <c r="N917">
+        <v>0</v>
+      </c>
+      <c r="O917">
+        <v>4</v>
+      </c>
+      <c r="P917">
+        <v>4.26</v>
+      </c>
+      <c r="Q917">
+        <v>27.73</v>
+      </c>
+      <c r="R917">
+        <v>4.55</v>
+      </c>
+      <c r="S917">
+        <v>29</v>
+      </c>
+      <c r="T917">
+        <v>5</v>
+      </c>
+      <c r="U917">
+        <v>22</v>
+      </c>
+      <c r="V917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>23</v>
+      </c>
+      <c r="B918" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C918" t="s">
+        <v>20</v>
+      </c>
+      <c r="D918" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E918" t="s">
+        <v>40</v>
+      </c>
+      <c r="F918" t="s">
+        <v>31</v>
+      </c>
+      <c r="G918" t="s">
+        <v>392</v>
+      </c>
+      <c r="H918">
+        <v>6.24</v>
+      </c>
+      <c r="I918">
+        <v>0.51</v>
+      </c>
+      <c r="J918">
+        <v>5.71</v>
+      </c>
+      <c r="K918">
+        <v>0.33</v>
+      </c>
+      <c r="L918">
+        <v>0.16</v>
+      </c>
+      <c r="M918">
+        <v>0.04</v>
+      </c>
+      <c r="N918">
+        <v>0</v>
+      </c>
+      <c r="O918">
+        <v>7</v>
+      </c>
+      <c r="P918">
+        <v>3.83</v>
+      </c>
+      <c r="Q918">
+        <v>28.38</v>
+      </c>
+      <c r="R918">
+        <v>5.51</v>
+      </c>
+      <c r="S918">
+        <v>63</v>
+      </c>
+      <c r="T918">
+        <v>18</v>
+      </c>
+      <c r="U918">
+        <v>52</v>
+      </c>
+      <c r="V918">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="919" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>23</v>
+      </c>
+      <c r="B919" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C919" t="s">
+        <v>20</v>
+      </c>
+      <c r="D919" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E919" t="s">
+        <v>16</v>
+      </c>
+      <c r="F919" t="s">
+        <v>30</v>
+      </c>
+      <c r="G919" t="s">
+        <v>824</v>
+      </c>
+      <c r="H919">
+        <v>6.06</v>
+      </c>
+      <c r="I919">
+        <v>0.49</v>
+      </c>
+      <c r="J919">
+        <v>5.55</v>
+      </c>
+      <c r="K919">
+        <v>0.31</v>
+      </c>
+      <c r="L919">
+        <v>0.13</v>
+      </c>
+      <c r="M919">
+        <v>0.06</v>
+      </c>
+      <c r="N919">
+        <v>0.01</v>
+      </c>
+      <c r="O919">
+        <v>8</v>
+      </c>
+      <c r="P919">
+        <v>3.54</v>
+      </c>
+      <c r="Q919">
+        <v>32.08</v>
+      </c>
+      <c r="R919">
+        <v>5.26</v>
+      </c>
+      <c r="S919">
+        <v>59</v>
+      </c>
+      <c r="T919">
+        <v>12</v>
+      </c>
+      <c r="U919">
+        <v>43</v>
+      </c>
+      <c r="V919">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="920" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>23</v>
+      </c>
+      <c r="B920" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C920" t="s">
+        <v>20</v>
+      </c>
+      <c r="D920" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E920" t="s">
+        <v>164</v>
+      </c>
+      <c r="F920" t="s">
+        <v>32</v>
+      </c>
+      <c r="G920" t="s">
+        <v>825</v>
+      </c>
+      <c r="H920">
+        <v>7.4</v>
+      </c>
+      <c r="I920">
+        <v>0.65</v>
+      </c>
+      <c r="J920">
+        <v>6.73</v>
+      </c>
+      <c r="K920">
+        <v>0.42</v>
+      </c>
+      <c r="L920">
+        <v>0.19</v>
+      </c>
+      <c r="M920">
+        <v>0.05</v>
+      </c>
+      <c r="N920">
+        <v>0</v>
+      </c>
+      <c r="O920">
+        <v>8</v>
+      </c>
+      <c r="P920">
+        <v>3.9</v>
+      </c>
+      <c r="Q920">
+        <v>28.22</v>
+      </c>
+      <c r="R920">
+        <v>5.46</v>
+      </c>
+      <c r="S920">
+        <v>70</v>
+      </c>
+      <c r="T920">
+        <v>19</v>
+      </c>
+      <c r="U920">
+        <v>51</v>
+      </c>
+      <c r="V920">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="921" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>23</v>
+      </c>
+      <c r="B921" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C921" t="s">
+        <v>20</v>
+      </c>
+      <c r="D921" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E921" t="s">
+        <v>35</v>
+      </c>
+      <c r="F921" t="s">
+        <v>34</v>
+      </c>
+      <c r="G921" t="s">
+        <v>826</v>
+      </c>
+      <c r="H921">
+        <v>5.46</v>
+      </c>
+      <c r="I921">
+        <v>0.78</v>
+      </c>
+      <c r="J921">
+        <v>4.67</v>
+      </c>
+      <c r="K921">
+        <v>0.42</v>
+      </c>
+      <c r="L921">
+        <v>0.22</v>
+      </c>
+      <c r="M921">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N921">
+        <v>0.01</v>
+      </c>
+      <c r="O921">
+        <v>10</v>
+      </c>
+      <c r="P921">
+        <v>3.87</v>
+      </c>
+      <c r="Q921">
+        <v>30.99</v>
+      </c>
+      <c r="R921">
+        <v>4.97</v>
+      </c>
+      <c r="S921">
+        <v>42</v>
+      </c>
+      <c r="T921">
+        <v>10</v>
+      </c>
+      <c r="U921">
+        <v>23</v>
+      </c>
+      <c r="V921">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="922" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>23</v>
+      </c>
+      <c r="B922" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C922" t="s">
+        <v>20</v>
+      </c>
+      <c r="D922" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E922" t="s">
+        <v>53</v>
+      </c>
+      <c r="F922" t="s">
+        <v>32</v>
+      </c>
+      <c r="G922" t="s">
+        <v>827</v>
+      </c>
+      <c r="H922">
+        <v>7.31</v>
+      </c>
+      <c r="I922">
+        <v>0.53</v>
+      </c>
+      <c r="J922">
+        <v>6.77</v>
+      </c>
+      <c r="K922">
+        <v>0.35</v>
+      </c>
+      <c r="L922">
+        <v>0.11</v>
+      </c>
+      <c r="M922">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N922">
+        <v>0.01</v>
+      </c>
+      <c r="O922">
+        <v>3</v>
+      </c>
+      <c r="P922">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q922">
+        <v>30.29</v>
+      </c>
+      <c r="R922">
+        <v>4.43</v>
+      </c>
+      <c r="S922">
+        <v>33</v>
+      </c>
+      <c r="T922">
+        <v>4</v>
+      </c>
+      <c r="U922">
+        <v>18</v>
+      </c>
+      <c r="V922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>23</v>
+      </c>
+      <c r="B923" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C923" t="s">
+        <v>20</v>
+      </c>
+      <c r="D923" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E923" t="s">
+        <v>48</v>
+      </c>
+      <c r="F923" t="s">
+        <v>29</v>
+      </c>
+      <c r="G923" t="s">
+        <v>828</v>
+      </c>
+      <c r="H923">
+        <v>4.43</v>
+      </c>
+      <c r="I923">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J923">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K923">
+        <v>0.05</v>
+      </c>
+      <c r="L923">
+        <v>0.02</v>
+      </c>
+      <c r="M923">
+        <v>0</v>
+      </c>
+      <c r="N923">
+        <v>0</v>
+      </c>
+      <c r="O923">
+        <v>0</v>
+      </c>
+      <c r="P923">
+        <v>2.89</v>
+      </c>
+      <c r="Q923">
+        <v>23.41</v>
+      </c>
+      <c r="R923">
+        <v>3.79</v>
+      </c>
+      <c r="S923">
+        <v>22</v>
+      </c>
+      <c r="T923">
+        <v>0</v>
+      </c>
+      <c r="U923">
+        <v>11</v>
+      </c>
+      <c r="V923">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA535-B778-4C41-8D91-0E0C54626854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6136E2-29C9-534C-B446-2FFC35EB2121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5127" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="847">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2523,6 +2523,60 @@
   </si>
   <si>
     <t>01:27:33</t>
+  </si>
+  <si>
+    <t>01:10:45</t>
+  </si>
+  <si>
+    <t>01:10:24</t>
+  </si>
+  <si>
+    <t>01:11:27</t>
+  </si>
+  <si>
+    <t>01:40:26</t>
+  </si>
+  <si>
+    <t>00:29:02</t>
+  </si>
+  <si>
+    <t>01:00:52</t>
+  </si>
+  <si>
+    <t>00:28:53</t>
+  </si>
+  <si>
+    <t>01:41:58</t>
+  </si>
+  <si>
+    <t>00:12:29</t>
+  </si>
+  <si>
+    <t>01:37:46</t>
+  </si>
+  <si>
+    <t>01:37:37</t>
+  </si>
+  <si>
+    <t>01:27:31</t>
+  </si>
+  <si>
+    <t>01:40:50</t>
+  </si>
+  <si>
+    <t>01:40:43</t>
+  </si>
+  <si>
+    <t>CDF T8 VS Carnoux (N3)</t>
+  </si>
+  <si>
+    <t>00:34:17</t>
+  </si>
+  <si>
+    <t>00:34:01</t>
+  </si>
+  <si>
+    <t>00:34:09</t>
   </si>
 </sst>
 </file>
@@ -2918,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V923"/>
+  <dimension ref="A1:V950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A902" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A914" sqref="A914:A923"/>
+    <sheetView tabSelected="1" topLeftCell="A918" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D955" sqref="D955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63476,9 +63530,6 @@
       <c r="C910" t="s">
         <v>20</v>
       </c>
-      <c r="D910" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E910" t="s">
         <v>447</v>
       </c>
@@ -63544,9 +63595,6 @@
       <c r="C911" t="s">
         <v>20</v>
       </c>
-      <c r="D911" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E911" t="s">
         <v>52</v>
       </c>
@@ -63612,9 +63660,6 @@
       <c r="C912" t="s">
         <v>20</v>
       </c>
-      <c r="D912" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E912" t="s">
         <v>53</v>
       </c>
@@ -63680,9 +63725,6 @@
       <c r="C913" t="s">
         <v>20</v>
       </c>
-      <c r="D913" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E913" t="s">
         <v>36</v>
       </c>
@@ -63748,9 +63790,6 @@
       <c r="C914" t="s">
         <v>20</v>
       </c>
-      <c r="D914" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E914" t="s">
         <v>164</v>
       </c>
@@ -63816,9 +63855,6 @@
       <c r="C915" t="s">
         <v>20</v>
       </c>
-      <c r="D915" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E915" t="s">
         <v>447</v>
       </c>
@@ -63884,9 +63920,6 @@
       <c r="C916" t="s">
         <v>20</v>
       </c>
-      <c r="D916" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E916" t="s">
         <v>52</v>
       </c>
@@ -63952,9 +63985,6 @@
       <c r="C917" t="s">
         <v>20</v>
       </c>
-      <c r="D917" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E917" t="s">
         <v>251</v>
       </c>
@@ -64020,9 +64050,6 @@
       <c r="C918" t="s">
         <v>20</v>
       </c>
-      <c r="D918" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E918" t="s">
         <v>40</v>
       </c>
@@ -64088,9 +64115,6 @@
       <c r="C919" t="s">
         <v>20</v>
       </c>
-      <c r="D919" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E919" t="s">
         <v>16</v>
       </c>
@@ -64156,9 +64180,6 @@
       <c r="C920" t="s">
         <v>20</v>
       </c>
-      <c r="D920" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E920" t="s">
         <v>164</v>
       </c>
@@ -64224,9 +64245,6 @@
       <c r="C921" t="s">
         <v>20</v>
       </c>
-      <c r="D921" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E921" t="s">
         <v>35</v>
       </c>
@@ -64292,9 +64310,6 @@
       <c r="C922" t="s">
         <v>20</v>
       </c>
-      <c r="D922" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E922" t="s">
         <v>53</v>
       </c>
@@ -64360,9 +64375,6 @@
       <c r="C923" t="s">
         <v>20</v>
       </c>
-      <c r="D923" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E923" t="s">
         <v>48</v>
       </c>
@@ -64416,6 +64428,1824 @@
       </c>
       <c r="V923">
         <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>23</v>
+      </c>
+      <c r="B924" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C924" t="s">
+        <v>20</v>
+      </c>
+      <c r="E924" t="s">
+        <v>52</v>
+      </c>
+      <c r="F924" t="s">
+        <v>33</v>
+      </c>
+      <c r="G924" t="s">
+        <v>59</v>
+      </c>
+      <c r="H924">
+        <v>5.4</v>
+      </c>
+      <c r="I924">
+        <v>0.36</v>
+      </c>
+      <c r="J924">
+        <v>5.03</v>
+      </c>
+      <c r="K924">
+        <v>0.27</v>
+      </c>
+      <c r="L924">
+        <v>0.1</v>
+      </c>
+      <c r="M924">
+        <v>0</v>
+      </c>
+      <c r="N924">
+        <v>0</v>
+      </c>
+      <c r="O924">
+        <v>0</v>
+      </c>
+      <c r="P924">
+        <v>4.51</v>
+      </c>
+      <c r="Q924">
+        <v>24.7</v>
+      </c>
+      <c r="R924">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S924">
+        <v>23</v>
+      </c>
+      <c r="T924">
+        <v>5</v>
+      </c>
+      <c r="U924">
+        <v>14</v>
+      </c>
+      <c r="V924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>23</v>
+      </c>
+      <c r="B925" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C925" t="s">
+        <v>20</v>
+      </c>
+      <c r="E925" t="s">
+        <v>251</v>
+      </c>
+      <c r="F925" t="s">
+        <v>32</v>
+      </c>
+      <c r="G925" t="s">
+        <v>829</v>
+      </c>
+      <c r="H925">
+        <v>5.05</v>
+      </c>
+      <c r="I925">
+        <v>0.27</v>
+      </c>
+      <c r="J925">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K925">
+        <v>0.19</v>
+      </c>
+      <c r="L925">
+        <v>0.08</v>
+      </c>
+      <c r="M925">
+        <v>0.01</v>
+      </c>
+      <c r="N925">
+        <v>0</v>
+      </c>
+      <c r="O925">
+        <v>1</v>
+      </c>
+      <c r="P925">
+        <v>4.22</v>
+      </c>
+      <c r="Q925">
+        <v>25.99</v>
+      </c>
+      <c r="R925">
+        <v>4.66</v>
+      </c>
+      <c r="S925">
+        <v>15</v>
+      </c>
+      <c r="T925">
+        <v>6</v>
+      </c>
+      <c r="U925">
+        <v>15</v>
+      </c>
+      <c r="V925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>23</v>
+      </c>
+      <c r="B926" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C926" t="s">
+        <v>20</v>
+      </c>
+      <c r="E926" t="s">
+        <v>43</v>
+      </c>
+      <c r="F926" t="s">
+        <v>34</v>
+      </c>
+      <c r="G926" t="s">
+        <v>830</v>
+      </c>
+      <c r="H926">
+        <v>5.19</v>
+      </c>
+      <c r="I926">
+        <v>0.26</v>
+      </c>
+      <c r="J926">
+        <v>4.92</v>
+      </c>
+      <c r="K926">
+        <v>0.19</v>
+      </c>
+      <c r="L926">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M926">
+        <v>0.01</v>
+      </c>
+      <c r="N926">
+        <v>0</v>
+      </c>
+      <c r="O926">
+        <v>1</v>
+      </c>
+      <c r="P926">
+        <v>4.05</v>
+      </c>
+      <c r="Q926">
+        <v>28.99</v>
+      </c>
+      <c r="R926">
+        <v>6.53</v>
+      </c>
+      <c r="S926">
+        <v>48</v>
+      </c>
+      <c r="T926">
+        <v>14</v>
+      </c>
+      <c r="U926">
+        <v>41</v>
+      </c>
+      <c r="V926">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="927" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>23</v>
+      </c>
+      <c r="B927" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C927" t="s">
+        <v>20</v>
+      </c>
+      <c r="E927" t="s">
+        <v>53</v>
+      </c>
+      <c r="F927" t="s">
+        <v>32</v>
+      </c>
+      <c r="G927" t="s">
+        <v>829</v>
+      </c>
+      <c r="H927">
+        <v>5.76</v>
+      </c>
+      <c r="I927">
+        <v>0.27</v>
+      </c>
+      <c r="J927">
+        <v>5.48</v>
+      </c>
+      <c r="K927">
+        <v>0.21</v>
+      </c>
+      <c r="L927">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M927">
+        <v>0</v>
+      </c>
+      <c r="N927">
+        <v>0</v>
+      </c>
+      <c r="O927">
+        <v>0</v>
+      </c>
+      <c r="P927">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q927">
+        <v>23.91</v>
+      </c>
+      <c r="R927">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S927">
+        <v>37</v>
+      </c>
+      <c r="T927">
+        <v>8</v>
+      </c>
+      <c r="U927">
+        <v>17</v>
+      </c>
+      <c r="V927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>23</v>
+      </c>
+      <c r="B928" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C928" t="s">
+        <v>20</v>
+      </c>
+      <c r="E928" t="s">
+        <v>16</v>
+      </c>
+      <c r="F928" t="s">
+        <v>30</v>
+      </c>
+      <c r="G928" t="s">
+        <v>59</v>
+      </c>
+      <c r="H928">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I928">
+        <v>0.36</v>
+      </c>
+      <c r="J928">
+        <v>4.28</v>
+      </c>
+      <c r="K928">
+        <v>0.26</v>
+      </c>
+      <c r="L928">
+        <v>0.09</v>
+      </c>
+      <c r="M928">
+        <v>0.02</v>
+      </c>
+      <c r="N928">
+        <v>0</v>
+      </c>
+      <c r="O928">
+        <v>3</v>
+      </c>
+      <c r="P928">
+        <v>3.83</v>
+      </c>
+      <c r="Q928">
+        <v>26.07</v>
+      </c>
+      <c r="R928">
+        <v>4.99</v>
+      </c>
+      <c r="S928">
+        <v>32</v>
+      </c>
+      <c r="T928">
+        <v>12</v>
+      </c>
+      <c r="U928">
+        <v>27</v>
+      </c>
+      <c r="V928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>23</v>
+      </c>
+      <c r="B929" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C929" t="s">
+        <v>20</v>
+      </c>
+      <c r="E929" t="s">
+        <v>447</v>
+      </c>
+      <c r="F929" t="s">
+        <v>33</v>
+      </c>
+      <c r="G929" t="s">
+        <v>831</v>
+      </c>
+      <c r="H929">
+        <v>5.67</v>
+      </c>
+      <c r="I929">
+        <v>0.36</v>
+      </c>
+      <c r="J929">
+        <v>5.3</v>
+      </c>
+      <c r="K929">
+        <v>0.26</v>
+      </c>
+      <c r="L929">
+        <v>0.09</v>
+      </c>
+      <c r="M929">
+        <v>0.03</v>
+      </c>
+      <c r="N929">
+        <v>0</v>
+      </c>
+      <c r="O929">
+        <v>5</v>
+      </c>
+      <c r="P929">
+        <v>4.3</v>
+      </c>
+      <c r="Q929">
+        <v>26.64</v>
+      </c>
+      <c r="R929">
+        <v>5.33</v>
+      </c>
+      <c r="S929">
+        <v>35</v>
+      </c>
+      <c r="T929">
+        <v>6</v>
+      </c>
+      <c r="U929">
+        <v>29</v>
+      </c>
+      <c r="V929">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>843</v>
+      </c>
+      <c r="B930" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C930" t="s">
+        <v>20</v>
+      </c>
+      <c r="D930" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E930" t="s">
+        <v>48</v>
+      </c>
+      <c r="F930" t="s">
+        <v>29</v>
+      </c>
+      <c r="G930" t="s">
+        <v>832</v>
+      </c>
+      <c r="H930">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="I930">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J930">
+        <v>8.57</v>
+      </c>
+      <c r="K930">
+        <v>0.87</v>
+      </c>
+      <c r="L930">
+        <v>0.22</v>
+      </c>
+      <c r="M930">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N930">
+        <v>0</v>
+      </c>
+      <c r="O930">
+        <v>4</v>
+      </c>
+      <c r="P930">
+        <v>5.67</v>
+      </c>
+      <c r="Q930">
+        <v>30.03</v>
+      </c>
+      <c r="R930">
+        <v>3.8</v>
+      </c>
+      <c r="S930">
+        <v>18</v>
+      </c>
+      <c r="T930">
+        <v>0</v>
+      </c>
+      <c r="U930">
+        <v>12</v>
+      </c>
+      <c r="V930">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>843</v>
+      </c>
+      <c r="B931" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C931" t="s">
+        <v>20</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E931" t="s">
+        <v>40</v>
+      </c>
+      <c r="F931" t="s">
+        <v>31</v>
+      </c>
+      <c r="G931" t="s">
+        <v>833</v>
+      </c>
+      <c r="H931">
+        <v>3.36</v>
+      </c>
+      <c r="I931">
+        <v>0.87</v>
+      </c>
+      <c r="J931">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K931">
+        <v>0.51</v>
+      </c>
+      <c r="L931">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M931">
+        <v>0.09</v>
+      </c>
+      <c r="N931">
+        <v>0</v>
+      </c>
+      <c r="O931">
+        <v>7</v>
+      </c>
+      <c r="P931">
+        <v>6.89</v>
+      </c>
+      <c r="Q931">
+        <v>30.02</v>
+      </c>
+      <c r="R931">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S931">
+        <v>22</v>
+      </c>
+      <c r="T931">
+        <v>7</v>
+      </c>
+      <c r="U931">
+        <v>14</v>
+      </c>
+      <c r="V931">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>843</v>
+      </c>
+      <c r="B932" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C932" t="s">
+        <v>20</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E932" t="s">
+        <v>35</v>
+      </c>
+      <c r="F932" t="s">
+        <v>34</v>
+      </c>
+      <c r="G932" t="s">
+        <v>834</v>
+      </c>
+      <c r="H932">
+        <v>7.44</v>
+      </c>
+      <c r="I932">
+        <v>1.74</v>
+      </c>
+      <c r="J932">
+        <v>5.67</v>
+      </c>
+      <c r="K932">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L932">
+        <v>0.45</v>
+      </c>
+      <c r="M932">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N932">
+        <v>0.01</v>
+      </c>
+      <c r="O932">
+        <v>10</v>
+      </c>
+      <c r="P932">
+        <v>7.12</v>
+      </c>
+      <c r="Q932">
+        <v>30.47</v>
+      </c>
+      <c r="R932">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S932">
+        <v>46</v>
+      </c>
+      <c r="T932">
+        <v>9</v>
+      </c>
+      <c r="U932">
+        <v>47</v>
+      </c>
+      <c r="V932">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>843</v>
+      </c>
+      <c r="B933" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C933" t="s">
+        <v>20</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E933" t="s">
+        <v>43</v>
+      </c>
+      <c r="F933" t="s">
+        <v>34</v>
+      </c>
+      <c r="G933" t="s">
+        <v>835</v>
+      </c>
+      <c r="H933">
+        <v>3.38</v>
+      </c>
+      <c r="I933">
+        <v>0.87</v>
+      </c>
+      <c r="J933">
+        <v>2.5</v>
+      </c>
+      <c r="K933">
+        <v>0.51</v>
+      </c>
+      <c r="L933">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M933">
+        <v>0.08</v>
+      </c>
+      <c r="N933">
+        <v>0.01</v>
+      </c>
+      <c r="O933">
+        <v>6</v>
+      </c>
+      <c r="P933">
+        <v>6.99</v>
+      </c>
+      <c r="Q933">
+        <v>30.99</v>
+      </c>
+      <c r="R933">
+        <v>4.87</v>
+      </c>
+      <c r="S933">
+        <v>16</v>
+      </c>
+      <c r="T933">
+        <v>3</v>
+      </c>
+      <c r="U933">
+        <v>15</v>
+      </c>
+      <c r="V933">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>843</v>
+      </c>
+      <c r="B934" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C934" t="s">
+        <v>20</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E934" t="s">
+        <v>55</v>
+      </c>
+      <c r="F934" t="s">
+        <v>32</v>
+      </c>
+      <c r="G934" t="s">
+        <v>836</v>
+      </c>
+      <c r="H934">
+        <v>11.26</v>
+      </c>
+      <c r="I934">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J934">
+        <v>9.19</v>
+      </c>
+      <c r="K934">
+        <v>1.62</v>
+      </c>
+      <c r="L934">
+        <v>0.42</v>
+      </c>
+      <c r="M934">
+        <v>0.04</v>
+      </c>
+      <c r="N934">
+        <v>0</v>
+      </c>
+      <c r="O934">
+        <v>2</v>
+      </c>
+      <c r="P934">
+        <v>6.52</v>
+      </c>
+      <c r="Q934">
+        <v>27.74</v>
+      </c>
+      <c r="R934">
+        <v>4.5</v>
+      </c>
+      <c r="S934">
+        <v>37</v>
+      </c>
+      <c r="T934">
+        <v>3</v>
+      </c>
+      <c r="U934">
+        <v>41</v>
+      </c>
+      <c r="V934">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>843</v>
+      </c>
+      <c r="B935" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C935" t="s">
+        <v>20</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E935" t="s">
+        <v>38</v>
+      </c>
+      <c r="F935" t="s">
+        <v>34</v>
+      </c>
+      <c r="G935" t="s">
+        <v>51</v>
+      </c>
+      <c r="H935">
+        <v>7.95</v>
+      </c>
+      <c r="I935">
+        <v>1.74</v>
+      </c>
+      <c r="J935">
+        <v>6.18</v>
+      </c>
+      <c r="K935">
+        <v>1.18</v>
+      </c>
+      <c r="L935">
+        <v>0.48</v>
+      </c>
+      <c r="M935">
+        <v>0.09</v>
+      </c>
+      <c r="N935">
+        <v>0.01</v>
+      </c>
+      <c r="O935">
+        <v>7</v>
+      </c>
+      <c r="P935">
+        <v>6.49</v>
+      </c>
+      <c r="Q935">
+        <v>30.51</v>
+      </c>
+      <c r="R935">
+        <v>4.33</v>
+      </c>
+      <c r="S935">
+        <v>20</v>
+      </c>
+      <c r="T935">
+        <v>3</v>
+      </c>
+      <c r="U935">
+        <v>26</v>
+      </c>
+      <c r="V935">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>843</v>
+      </c>
+      <c r="B936" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C936" t="s">
+        <v>20</v>
+      </c>
+      <c r="D936" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E936" t="s">
+        <v>251</v>
+      </c>
+      <c r="F936" t="s">
+        <v>32</v>
+      </c>
+      <c r="G936" t="s">
+        <v>837</v>
+      </c>
+      <c r="H936">
+        <v>1.24</v>
+      </c>
+      <c r="I936">
+        <v>0.26</v>
+      </c>
+      <c r="J936">
+        <v>0.98</v>
+      </c>
+      <c r="K936">
+        <v>0.16</v>
+      </c>
+      <c r="L936">
+        <v>0.08</v>
+      </c>
+      <c r="M936">
+        <v>0.01</v>
+      </c>
+      <c r="N936">
+        <v>0</v>
+      </c>
+      <c r="O936">
+        <v>3</v>
+      </c>
+      <c r="P936">
+        <v>5.89</v>
+      </c>
+      <c r="Q936">
+        <v>27.42</v>
+      </c>
+      <c r="R936">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S936">
+        <v>4</v>
+      </c>
+      <c r="T936">
+        <v>3</v>
+      </c>
+      <c r="U936">
+        <v>5</v>
+      </c>
+      <c r="V936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>843</v>
+      </c>
+      <c r="B937" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C937" t="s">
+        <v>20</v>
+      </c>
+      <c r="D937" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E937" t="s">
+        <v>58</v>
+      </c>
+      <c r="F937" t="s">
+        <v>29</v>
+      </c>
+      <c r="G937" t="s">
+        <v>623</v>
+      </c>
+      <c r="H937">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I937">
+        <v>1.28</v>
+      </c>
+      <c r="J937">
+        <v>8.83</v>
+      </c>
+      <c r="K937">
+        <v>0.98</v>
+      </c>
+      <c r="L937">
+        <v>0.31</v>
+      </c>
+      <c r="M937">
+        <v>0.02</v>
+      </c>
+      <c r="N937">
+        <v>0</v>
+      </c>
+      <c r="O937">
+        <v>2</v>
+      </c>
+      <c r="P937">
+        <v>6.09</v>
+      </c>
+      <c r="Q937">
+        <v>26.49</v>
+      </c>
+      <c r="R937">
+        <v>4.17</v>
+      </c>
+      <c r="S937">
+        <v>31</v>
+      </c>
+      <c r="T937">
+        <v>3</v>
+      </c>
+      <c r="U937">
+        <v>19</v>
+      </c>
+      <c r="V937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>843</v>
+      </c>
+      <c r="B938" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C938" t="s">
+        <v>20</v>
+      </c>
+      <c r="D938" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E938" t="s">
+        <v>447</v>
+      </c>
+      <c r="F938" t="s">
+        <v>33</v>
+      </c>
+      <c r="G938" t="s">
+        <v>838</v>
+      </c>
+      <c r="H938">
+        <v>12.08</v>
+      </c>
+      <c r="I938">
+        <v>2.46</v>
+      </c>
+      <c r="J938">
+        <v>9.6</v>
+      </c>
+      <c r="K938">
+        <v>1.62</v>
+      </c>
+      <c r="L938">
+        <v>0.68</v>
+      </c>
+      <c r="M938">
+        <v>0.18</v>
+      </c>
+      <c r="N938">
+        <v>0</v>
+      </c>
+      <c r="O938">
+        <v>14</v>
+      </c>
+      <c r="P938">
+        <v>7.33</v>
+      </c>
+      <c r="Q938">
+        <v>29.93</v>
+      </c>
+      <c r="R938">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S938">
+        <v>33</v>
+      </c>
+      <c r="T938">
+        <v>3</v>
+      </c>
+      <c r="U938">
+        <v>42</v>
+      </c>
+      <c r="V938">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>843</v>
+      </c>
+      <c r="B939" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C939" t="s">
+        <v>20</v>
+      </c>
+      <c r="D939" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E939" t="s">
+        <v>93</v>
+      </c>
+      <c r="F939" t="s">
+        <v>31</v>
+      </c>
+      <c r="G939" t="s">
+        <v>839</v>
+      </c>
+      <c r="H939">
+        <v>8.82</v>
+      </c>
+      <c r="I939">
+        <v>1.55</v>
+      </c>
+      <c r="J939">
+        <v>7.25</v>
+      </c>
+      <c r="K939">
+        <v>0.87</v>
+      </c>
+      <c r="L939">
+        <v>0.46</v>
+      </c>
+      <c r="M939">
+        <v>0.19</v>
+      </c>
+      <c r="N939">
+        <v>0.06</v>
+      </c>
+      <c r="O939">
+        <v>14</v>
+      </c>
+      <c r="P939">
+        <v>5.33</v>
+      </c>
+      <c r="Q939">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="R939">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S939">
+        <v>37</v>
+      </c>
+      <c r="T939">
+        <v>11</v>
+      </c>
+      <c r="U939">
+        <v>33</v>
+      </c>
+      <c r="V939">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>843</v>
+      </c>
+      <c r="B940" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C940" t="s">
+        <v>20</v>
+      </c>
+      <c r="D940" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E940" t="s">
+        <v>53</v>
+      </c>
+      <c r="F940" t="s">
+        <v>32</v>
+      </c>
+      <c r="G940" t="s">
+        <v>840</v>
+      </c>
+      <c r="H940">
+        <v>11.2</v>
+      </c>
+      <c r="I940">
+        <v>2.46</v>
+      </c>
+      <c r="J940">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K940">
+        <v>1.83</v>
+      </c>
+      <c r="L940">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M940">
+        <v>0.09</v>
+      </c>
+      <c r="N940">
+        <v>0</v>
+      </c>
+      <c r="O940">
+        <v>7</v>
+      </c>
+      <c r="P940">
+        <v>7.63</v>
+      </c>
+      <c r="Q940">
+        <v>28.65</v>
+      </c>
+      <c r="R940">
+        <v>4.8</v>
+      </c>
+      <c r="S940">
+        <v>29</v>
+      </c>
+      <c r="T940">
+        <v>10</v>
+      </c>
+      <c r="U940">
+        <v>19</v>
+      </c>
+      <c r="V940">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>843</v>
+      </c>
+      <c r="B941" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C941" t="s">
+        <v>20</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E941" t="s">
+        <v>448</v>
+      </c>
+      <c r="F941" t="s">
+        <v>32</v>
+      </c>
+      <c r="G941" t="s">
+        <v>841</v>
+      </c>
+      <c r="H941">
+        <v>12.93</v>
+      </c>
+      <c r="I941">
+        <v>3.3</v>
+      </c>
+      <c r="J941">
+        <v>9.6</v>
+      </c>
+      <c r="K941">
+        <v>2.73</v>
+      </c>
+      <c r="L941">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M941">
+        <v>0.03</v>
+      </c>
+      <c r="N941">
+        <v>0.02</v>
+      </c>
+      <c r="O941">
+        <v>2</v>
+      </c>
+      <c r="P941">
+        <v>7.65</v>
+      </c>
+      <c r="Q941">
+        <v>31.3</v>
+      </c>
+      <c r="R941">
+        <v>4.32</v>
+      </c>
+      <c r="S941">
+        <v>26</v>
+      </c>
+      <c r="T941">
+        <v>3</v>
+      </c>
+      <c r="U941">
+        <v>31</v>
+      </c>
+      <c r="V941">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>843</v>
+      </c>
+      <c r="B942" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C942" t="s">
+        <v>20</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E942" t="s">
+        <v>52</v>
+      </c>
+      <c r="F942" t="s">
+        <v>33</v>
+      </c>
+      <c r="G942" t="s">
+        <v>842</v>
+      </c>
+      <c r="H942">
+        <v>12.13</v>
+      </c>
+      <c r="I942">
+        <v>2.4</v>
+      </c>
+      <c r="J942">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="K942">
+        <v>1.62</v>
+      </c>
+      <c r="L942">
+        <v>0.46</v>
+      </c>
+      <c r="M942">
+        <v>0.31</v>
+      </c>
+      <c r="N942">
+        <v>0.03</v>
+      </c>
+      <c r="O942">
+        <v>16</v>
+      </c>
+      <c r="P942">
+        <v>7.19</v>
+      </c>
+      <c r="Q942">
+        <v>31.96</v>
+      </c>
+      <c r="R942">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S942">
+        <v>39</v>
+      </c>
+      <c r="T942">
+        <v>6</v>
+      </c>
+      <c r="U942">
+        <v>40</v>
+      </c>
+      <c r="V942">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>23</v>
+      </c>
+      <c r="B943" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C943" t="s">
+        <v>20</v>
+      </c>
+      <c r="D943" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E943" t="s">
+        <v>52</v>
+      </c>
+      <c r="F943" t="s">
+        <v>33</v>
+      </c>
+      <c r="G943" t="s">
+        <v>844</v>
+      </c>
+      <c r="H943">
+        <v>2.86</v>
+      </c>
+      <c r="I943">
+        <v>0.17</v>
+      </c>
+      <c r="J943">
+        <v>2.68</v>
+      </c>
+      <c r="K943">
+        <v>0.15</v>
+      </c>
+      <c r="L943">
+        <v>0.02</v>
+      </c>
+      <c r="M943">
+        <v>0</v>
+      </c>
+      <c r="N943">
+        <v>0</v>
+      </c>
+      <c r="O943">
+        <v>0</v>
+      </c>
+      <c r="P943">
+        <v>4.95</v>
+      </c>
+      <c r="Q943">
+        <v>21.99</v>
+      </c>
+      <c r="R943">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S943">
+        <v>17</v>
+      </c>
+      <c r="T943">
+        <v>2</v>
+      </c>
+      <c r="U943">
+        <v>10</v>
+      </c>
+      <c r="V943">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>23</v>
+      </c>
+      <c r="B944" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C944" t="s">
+        <v>20</v>
+      </c>
+      <c r="D944" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E944" t="s">
+        <v>16</v>
+      </c>
+      <c r="F944" t="s">
+        <v>30</v>
+      </c>
+      <c r="G944" t="s">
+        <v>845</v>
+      </c>
+      <c r="H944">
+        <v>3.1</v>
+      </c>
+      <c r="I944">
+        <v>0.24</v>
+      </c>
+      <c r="J944">
+        <v>2.85</v>
+      </c>
+      <c r="K944">
+        <v>0.24</v>
+      </c>
+      <c r="L944">
+        <v>0.01</v>
+      </c>
+      <c r="M944">
+        <v>0</v>
+      </c>
+      <c r="N944">
+        <v>0</v>
+      </c>
+      <c r="O944">
+        <v>0</v>
+      </c>
+      <c r="P944">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="Q944">
+        <v>21.92</v>
+      </c>
+      <c r="R944">
+        <v>5.14</v>
+      </c>
+      <c r="S944">
+        <v>25</v>
+      </c>
+      <c r="T944">
+        <v>15</v>
+      </c>
+      <c r="U944">
+        <v>33</v>
+      </c>
+      <c r="V944">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="945" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>23</v>
+      </c>
+      <c r="B945" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C945" t="s">
+        <v>20</v>
+      </c>
+      <c r="D945" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E945" t="s">
+        <v>43</v>
+      </c>
+      <c r="F945" t="s">
+        <v>34</v>
+      </c>
+      <c r="G945" t="s">
+        <v>464</v>
+      </c>
+      <c r="H945">
+        <v>3.2</v>
+      </c>
+      <c r="I945">
+        <v>0.53</v>
+      </c>
+      <c r="J945">
+        <v>2.66</v>
+      </c>
+      <c r="K945">
+        <v>0.49</v>
+      </c>
+      <c r="L945">
+        <v>0.04</v>
+      </c>
+      <c r="M945">
+        <v>0.01</v>
+      </c>
+      <c r="N945">
+        <v>0</v>
+      </c>
+      <c r="O945">
+        <v>1</v>
+      </c>
+      <c r="P945">
+        <v>5.15</v>
+      </c>
+      <c r="Q945">
+        <v>27.06</v>
+      </c>
+      <c r="R945">
+        <v>5.24</v>
+      </c>
+      <c r="S945">
+        <v>27</v>
+      </c>
+      <c r="T945">
+        <v>6</v>
+      </c>
+      <c r="U945">
+        <v>20</v>
+      </c>
+      <c r="V945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>23</v>
+      </c>
+      <c r="B946" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C946" t="s">
+        <v>20</v>
+      </c>
+      <c r="D946" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E946" t="s">
+        <v>38</v>
+      </c>
+      <c r="F946" t="s">
+        <v>34</v>
+      </c>
+      <c r="G946" t="s">
+        <v>846</v>
+      </c>
+      <c r="H946">
+        <v>2.79</v>
+      </c>
+      <c r="I946">
+        <v>0.48</v>
+      </c>
+      <c r="J946">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K946">
+        <v>0.47</v>
+      </c>
+      <c r="L946">
+        <v>0.01</v>
+      </c>
+      <c r="M946">
+        <v>0</v>
+      </c>
+      <c r="N946">
+        <v>0</v>
+      </c>
+      <c r="O946">
+        <v>0</v>
+      </c>
+      <c r="P946">
+        <v>4.82</v>
+      </c>
+      <c r="Q946">
+        <v>21.58</v>
+      </c>
+      <c r="R946">
+        <v>3.92</v>
+      </c>
+      <c r="S946">
+        <v>24</v>
+      </c>
+      <c r="T946">
+        <v>0</v>
+      </c>
+      <c r="U946">
+        <v>16</v>
+      </c>
+      <c r="V946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>23</v>
+      </c>
+      <c r="B947" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C947" t="s">
+        <v>20</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E947" t="s">
+        <v>251</v>
+      </c>
+      <c r="F947" t="s">
+        <v>32</v>
+      </c>
+      <c r="G947" t="s">
+        <v>845</v>
+      </c>
+      <c r="H947">
+        <v>2.85</v>
+      </c>
+      <c r="I947">
+        <v>0.42</v>
+      </c>
+      <c r="J947">
+        <v>2.42</v>
+      </c>
+      <c r="K947">
+        <v>0.41</v>
+      </c>
+      <c r="L947">
+        <v>0.02</v>
+      </c>
+      <c r="M947">
+        <v>0</v>
+      </c>
+      <c r="N947">
+        <v>0</v>
+      </c>
+      <c r="O947">
+        <v>0</v>
+      </c>
+      <c r="P947">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Q947">
+        <v>21</v>
+      </c>
+      <c r="R947">
+        <v>4.04</v>
+      </c>
+      <c r="S947">
+        <v>21</v>
+      </c>
+      <c r="T947">
+        <v>1</v>
+      </c>
+      <c r="U947">
+        <v>20</v>
+      </c>
+      <c r="V947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>23</v>
+      </c>
+      <c r="B948" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C948" t="s">
+        <v>20</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E948" t="s">
+        <v>447</v>
+      </c>
+      <c r="F948" t="s">
+        <v>33</v>
+      </c>
+      <c r="G948" t="s">
+        <v>844</v>
+      </c>
+      <c r="H948">
+        <v>3.69</v>
+      </c>
+      <c r="I948">
+        <v>0.7</v>
+      </c>
+      <c r="J948">
+        <v>2.99</v>
+      </c>
+      <c r="K948">
+        <v>0.2</v>
+      </c>
+      <c r="L948">
+        <v>0.33</v>
+      </c>
+      <c r="M948">
+        <v>0.18</v>
+      </c>
+      <c r="N948">
+        <v>0</v>
+      </c>
+      <c r="O948">
+        <v>11</v>
+      </c>
+      <c r="P948">
+        <v>6.03</v>
+      </c>
+      <c r="Q948">
+        <v>29.73</v>
+      </c>
+      <c r="R948">
+        <v>5.33</v>
+      </c>
+      <c r="S948">
+        <v>25</v>
+      </c>
+      <c r="T948">
+        <v>13</v>
+      </c>
+      <c r="U948">
+        <v>28</v>
+      </c>
+      <c r="V948">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="949" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>23</v>
+      </c>
+      <c r="B949" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C949" t="s">
+        <v>20</v>
+      </c>
+      <c r="D949" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E949" t="s">
+        <v>40</v>
+      </c>
+      <c r="F949" t="s">
+        <v>31</v>
+      </c>
+      <c r="G949" t="s">
+        <v>846</v>
+      </c>
+      <c r="H949">
+        <v>3.14</v>
+      </c>
+      <c r="I949">
+        <v>0.36</v>
+      </c>
+      <c r="J949">
+        <v>2.76</v>
+      </c>
+      <c r="K949">
+        <v>0.36</v>
+      </c>
+      <c r="L949">
+        <v>0.01</v>
+      </c>
+      <c r="M949">
+        <v>0</v>
+      </c>
+      <c r="N949">
+        <v>0</v>
+      </c>
+      <c r="O949">
+        <v>1</v>
+      </c>
+      <c r="P949">
+        <v>5.13</v>
+      </c>
+      <c r="Q949">
+        <v>25.54</v>
+      </c>
+      <c r="R949">
+        <v>5.57</v>
+      </c>
+      <c r="S949">
+        <v>51</v>
+      </c>
+      <c r="T949">
+        <v>15</v>
+      </c>
+      <c r="U949">
+        <v>35</v>
+      </c>
+      <c r="V949">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="950" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>23</v>
+      </c>
+      <c r="B950" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C950" t="s">
+        <v>20</v>
+      </c>
+      <c r="D950" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E950" t="s">
+        <v>53</v>
+      </c>
+      <c r="F950" t="s">
+        <v>32</v>
+      </c>
+      <c r="G950" t="s">
+        <v>846</v>
+      </c>
+      <c r="H950">
+        <v>3.26</v>
+      </c>
+      <c r="I950">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J950">
+        <v>2.68</v>
+      </c>
+      <c r="K950">
+        <v>0.54</v>
+      </c>
+      <c r="L950">
+        <v>0.03</v>
+      </c>
+      <c r="M950">
+        <v>0</v>
+      </c>
+      <c r="N950">
+        <v>0</v>
+      </c>
+      <c r="O950">
+        <v>0</v>
+      </c>
+      <c r="P950">
+        <v>5.66</v>
+      </c>
+      <c r="Q950">
+        <v>23.23</v>
+      </c>
+      <c r="R950">
+        <v>4.26</v>
+      </c>
+      <c r="S950">
+        <v>30</v>
+      </c>
+      <c r="T950">
+        <v>3</v>
+      </c>
+      <c r="U950">
+        <v>17</v>
+      </c>
+      <c r="V950">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6136E2-29C9-534C-B446-2FFC35EB2121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27FB98-9BC8-624C-AD8C-6995AAD15575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5335" uniqueCount="855">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2577,6 +2577,30 @@
   </si>
   <si>
     <t>00:34:09</t>
+  </si>
+  <si>
+    <t>01:43:27</t>
+  </si>
+  <si>
+    <t>01:43:50</t>
+  </si>
+  <si>
+    <t>01:42:56</t>
+  </si>
+  <si>
+    <t>01:43:35</t>
+  </si>
+  <si>
+    <t>01:43:42</t>
+  </si>
+  <si>
+    <t>01:42:35</t>
+  </si>
+  <si>
+    <t>01:41:57</t>
+  </si>
+  <si>
+    <t>01:19:52</t>
   </si>
 </sst>
 </file>
@@ -2972,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V950"/>
+  <dimension ref="A1:V961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D955" sqref="D955"/>
+    <sheetView tabSelected="1" topLeftCell="A931" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D965" sqref="D965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66248,6 +66272,754 @@
         <v>3</v>
       </c>
     </row>
+    <row r="951" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>23</v>
+      </c>
+      <c r="B951" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C951" t="s">
+        <v>20</v>
+      </c>
+      <c r="D951" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E951" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F951" t="s">
+        <v>32</v>
+      </c>
+      <c r="G951" t="s">
+        <v>847</v>
+      </c>
+      <c r="H951">
+        <v>6.35</v>
+      </c>
+      <c r="I951">
+        <v>0.67</v>
+      </c>
+      <c r="J951">
+        <v>5.67</v>
+      </c>
+      <c r="K951">
+        <v>0.46</v>
+      </c>
+      <c r="L951">
+        <v>0.18</v>
+      </c>
+      <c r="M951">
+        <v>0.04</v>
+      </c>
+      <c r="N951">
+        <v>0</v>
+      </c>
+      <c r="O951">
+        <v>2</v>
+      </c>
+      <c r="P951">
+        <v>3.52</v>
+      </c>
+      <c r="Q951">
+        <v>29.59</v>
+      </c>
+      <c r="R951">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S951">
+        <v>22</v>
+      </c>
+      <c r="T951">
+        <v>1</v>
+      </c>
+      <c r="U951">
+        <v>13</v>
+      </c>
+      <c r="V951">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>23</v>
+      </c>
+      <c r="B952" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C952" t="s">
+        <v>20</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E952" t="s">
+        <v>93</v>
+      </c>
+      <c r="F952" t="s">
+        <v>31</v>
+      </c>
+      <c r="G952" t="s">
+        <v>848</v>
+      </c>
+      <c r="H952">
+        <v>7.04</v>
+      </c>
+      <c r="I952">
+        <v>0.92</v>
+      </c>
+      <c r="J952">
+        <v>6.1</v>
+      </c>
+      <c r="K952">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L952">
+        <v>0.2</v>
+      </c>
+      <c r="M952">
+        <v>0.1</v>
+      </c>
+      <c r="N952">
+        <v>0.06</v>
+      </c>
+      <c r="O952">
+        <v>11</v>
+      </c>
+      <c r="P952">
+        <v>3.73</v>
+      </c>
+      <c r="Q952">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="R952">
+        <v>6.37</v>
+      </c>
+      <c r="S952">
+        <v>64</v>
+      </c>
+      <c r="T952">
+        <v>27</v>
+      </c>
+      <c r="U952">
+        <v>52</v>
+      </c>
+      <c r="V952">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="953" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>23</v>
+      </c>
+      <c r="B953" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C953" t="s">
+        <v>20</v>
+      </c>
+      <c r="D953" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E953" t="s">
+        <v>251</v>
+      </c>
+      <c r="F953" t="s">
+        <v>32</v>
+      </c>
+      <c r="G953" t="s">
+        <v>849</v>
+      </c>
+      <c r="H953">
+        <v>7.17</v>
+      </c>
+      <c r="I953">
+        <v>0.92</v>
+      </c>
+      <c r="J953">
+        <v>6.24</v>
+      </c>
+      <c r="K953">
+        <v>0.69</v>
+      </c>
+      <c r="L953">
+        <v>0.15</v>
+      </c>
+      <c r="M953">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N953">
+        <v>0.02</v>
+      </c>
+      <c r="O953">
+        <v>7</v>
+      </c>
+      <c r="P953">
+        <v>4.13</v>
+      </c>
+      <c r="Q953">
+        <v>31.13</v>
+      </c>
+      <c r="R953">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S953">
+        <v>24</v>
+      </c>
+      <c r="T953">
+        <v>4</v>
+      </c>
+      <c r="U953">
+        <v>17</v>
+      </c>
+      <c r="V953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>23</v>
+      </c>
+      <c r="B954" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C954" t="s">
+        <v>20</v>
+      </c>
+      <c r="D954" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E954" t="s">
+        <v>58</v>
+      </c>
+      <c r="F954" t="s">
+        <v>29</v>
+      </c>
+      <c r="G954" t="s">
+        <v>850</v>
+      </c>
+      <c r="H954">
+        <v>7.28</v>
+      </c>
+      <c r="I954">
+        <v>0.51</v>
+      </c>
+      <c r="J954">
+        <v>6.76</v>
+      </c>
+      <c r="K954">
+        <v>0.48</v>
+      </c>
+      <c r="L954">
+        <v>0.04</v>
+      </c>
+      <c r="M954">
+        <v>0</v>
+      </c>
+      <c r="N954">
+        <v>0</v>
+      </c>
+      <c r="O954">
+        <v>0</v>
+      </c>
+      <c r="P954">
+        <v>3.8</v>
+      </c>
+      <c r="Q954">
+        <v>24.96</v>
+      </c>
+      <c r="R954">
+        <v>5.19</v>
+      </c>
+      <c r="S954">
+        <v>50</v>
+      </c>
+      <c r="T954">
+        <v>12</v>
+      </c>
+      <c r="U954">
+        <v>46</v>
+      </c>
+      <c r="V954">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="955" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>23</v>
+      </c>
+      <c r="B955" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C955" t="s">
+        <v>20</v>
+      </c>
+      <c r="D955" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E955" t="s">
+        <v>447</v>
+      </c>
+      <c r="F955" t="s">
+        <v>33</v>
+      </c>
+      <c r="G955" t="s">
+        <v>851</v>
+      </c>
+      <c r="H955">
+        <v>7.98</v>
+      </c>
+      <c r="I955">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J955">
+        <v>6.84</v>
+      </c>
+      <c r="K955">
+        <v>0.52</v>
+      </c>
+      <c r="L955">
+        <v>0.38</v>
+      </c>
+      <c r="M955">
+        <v>0.18</v>
+      </c>
+      <c r="N955">
+        <v>0.06</v>
+      </c>
+      <c r="O955">
+        <v>13</v>
+      </c>
+      <c r="P955">
+        <v>4.2</v>
+      </c>
+      <c r="Q955">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="R955">
+        <v>5.17</v>
+      </c>
+      <c r="S955">
+        <v>66</v>
+      </c>
+      <c r="T955">
+        <v>8</v>
+      </c>
+      <c r="U955">
+        <v>55</v>
+      </c>
+      <c r="V955">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="956" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>23</v>
+      </c>
+      <c r="B956" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C956" t="s">
+        <v>20</v>
+      </c>
+      <c r="D956" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E956" t="s">
+        <v>52</v>
+      </c>
+      <c r="F956" t="s">
+        <v>33</v>
+      </c>
+      <c r="G956" t="s">
+        <v>848</v>
+      </c>
+      <c r="H956">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I956">
+        <v>1.06</v>
+      </c>
+      <c r="J956">
+        <v>6.97</v>
+      </c>
+      <c r="K956">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L956">
+        <v>0.31</v>
+      </c>
+      <c r="M956">
+        <v>0.19</v>
+      </c>
+      <c r="N956">
+        <v>0.03</v>
+      </c>
+      <c r="O956">
+        <v>10</v>
+      </c>
+      <c r="P956">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q956">
+        <v>30.85</v>
+      </c>
+      <c r="R956">
+        <v>4.45</v>
+      </c>
+      <c r="S956">
+        <v>32</v>
+      </c>
+      <c r="T956">
+        <v>3</v>
+      </c>
+      <c r="U956">
+        <v>33</v>
+      </c>
+      <c r="V956">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="957" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>23</v>
+      </c>
+      <c r="B957" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C957" t="s">
+        <v>20</v>
+      </c>
+      <c r="D957" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E957" t="s">
+        <v>43</v>
+      </c>
+      <c r="F957" t="s">
+        <v>34</v>
+      </c>
+      <c r="G957" t="s">
+        <v>852</v>
+      </c>
+      <c r="H957">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I957">
+        <v>1.35</v>
+      </c>
+      <c r="J957">
+        <v>6.67</v>
+      </c>
+      <c r="K957">
+        <v>0.79</v>
+      </c>
+      <c r="L957">
+        <v>0.4</v>
+      </c>
+      <c r="M957">
+        <v>0.17</v>
+      </c>
+      <c r="N957">
+        <v>0.02</v>
+      </c>
+      <c r="O957">
+        <v>15</v>
+      </c>
+      <c r="P957">
+        <v>4.18</v>
+      </c>
+      <c r="Q957">
+        <v>31.28</v>
+      </c>
+      <c r="R957">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S957">
+        <v>51</v>
+      </c>
+      <c r="T957">
+        <v>9</v>
+      </c>
+      <c r="U957">
+        <v>46</v>
+      </c>
+      <c r="V957">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>23</v>
+      </c>
+      <c r="B958" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C958" t="s">
+        <v>20</v>
+      </c>
+      <c r="D958" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E958" t="s">
+        <v>48</v>
+      </c>
+      <c r="F958" t="s">
+        <v>29</v>
+      </c>
+      <c r="G958" t="s">
+        <v>853</v>
+      </c>
+      <c r="H958">
+        <v>6.14</v>
+      </c>
+      <c r="I958">
+        <v>0.41</v>
+      </c>
+      <c r="J958">
+        <v>5.73</v>
+      </c>
+      <c r="K958">
+        <v>0.34</v>
+      </c>
+      <c r="L958">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M958">
+        <v>0</v>
+      </c>
+      <c r="N958">
+        <v>0</v>
+      </c>
+      <c r="O958">
+        <v>0</v>
+      </c>
+      <c r="P958">
+        <v>3.5</v>
+      </c>
+      <c r="Q958">
+        <v>22.49</v>
+      </c>
+      <c r="R958">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S958">
+        <v>27</v>
+      </c>
+      <c r="T958">
+        <v>5</v>
+      </c>
+      <c r="U958">
+        <v>13</v>
+      </c>
+      <c r="V958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>23</v>
+      </c>
+      <c r="B959" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C959" t="s">
+        <v>20</v>
+      </c>
+      <c r="D959" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E959" t="s">
+        <v>35</v>
+      </c>
+      <c r="F959" t="s">
+        <v>34</v>
+      </c>
+      <c r="G959" t="s">
+        <v>854</v>
+      </c>
+      <c r="H959">
+        <v>6.14</v>
+      </c>
+      <c r="I959">
+        <v>0.6</v>
+      </c>
+      <c r="J959">
+        <v>5.53</v>
+      </c>
+      <c r="K959">
+        <v>0.49</v>
+      </c>
+      <c r="L959">
+        <v>0.12</v>
+      </c>
+      <c r="M959">
+        <v>0</v>
+      </c>
+      <c r="N959">
+        <v>0</v>
+      </c>
+      <c r="O959">
+        <v>0</v>
+      </c>
+      <c r="P959">
+        <v>4.55</v>
+      </c>
+      <c r="Q959">
+        <v>24.65</v>
+      </c>
+      <c r="R959">
+        <v>4.82</v>
+      </c>
+      <c r="S959">
+        <v>29</v>
+      </c>
+      <c r="T959">
+        <v>5</v>
+      </c>
+      <c r="U959">
+        <v>15</v>
+      </c>
+      <c r="V959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>23</v>
+      </c>
+      <c r="B960" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C960" t="s">
+        <v>20</v>
+      </c>
+      <c r="D960" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E960" t="s">
+        <v>38</v>
+      </c>
+      <c r="F960" t="s">
+        <v>34</v>
+      </c>
+      <c r="G960" t="s">
+        <v>631</v>
+      </c>
+      <c r="H960">
+        <v>7.12</v>
+      </c>
+      <c r="I960">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J960">
+        <v>6.01</v>
+      </c>
+      <c r="K960">
+        <v>0.67</v>
+      </c>
+      <c r="L960">
+        <v>0.35</v>
+      </c>
+      <c r="M960">
+        <v>0.08</v>
+      </c>
+      <c r="N960">
+        <v>0.01</v>
+      </c>
+      <c r="O960">
+        <v>8</v>
+      </c>
+      <c r="P960">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q960">
+        <v>30.63</v>
+      </c>
+      <c r="R960">
+        <v>4.29</v>
+      </c>
+      <c r="S960">
+        <v>22</v>
+      </c>
+      <c r="T960">
+        <v>1</v>
+      </c>
+      <c r="U960">
+        <v>17</v>
+      </c>
+      <c r="V960">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="961" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>23</v>
+      </c>
+      <c r="B961" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C961" t="s">
+        <v>20</v>
+      </c>
+      <c r="D961" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E961" t="s">
+        <v>17</v>
+      </c>
+      <c r="F961" t="s">
+        <v>34</v>
+      </c>
+      <c r="G961" t="s">
+        <v>847</v>
+      </c>
+      <c r="H961">
+        <v>7.06</v>
+      </c>
+      <c r="I961">
+        <v>0.74</v>
+      </c>
+      <c r="J961">
+        <v>6.31</v>
+      </c>
+      <c r="K961">
+        <v>0.49</v>
+      </c>
+      <c r="L961">
+        <v>0.19</v>
+      </c>
+      <c r="M961">
+        <v>0.08</v>
+      </c>
+      <c r="N961">
+        <v>0</v>
+      </c>
+      <c r="O961">
+        <v>6</v>
+      </c>
+      <c r="P961">
+        <v>3.53</v>
+      </c>
+      <c r="Q961">
+        <v>29.4</v>
+      </c>
+      <c r="R961">
+        <v>4.75</v>
+      </c>
+      <c r="S961">
+        <v>35</v>
+      </c>
+      <c r="T961">
+        <v>3</v>
+      </c>
+      <c r="U961">
+        <v>20</v>
+      </c>
+      <c r="V961">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27FB98-9BC8-624C-AD8C-6995AAD15575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167CA5A-8B09-F942-9F50-5CD877FA6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5335" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5413" uniqueCount="866">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2601,6 +2601,39 @@
   </si>
   <si>
     <t>01:19:52</t>
+  </si>
+  <si>
+    <t>01:15:48</t>
+  </si>
+  <si>
+    <t>01:18:24</t>
+  </si>
+  <si>
+    <t>00:30:42</t>
+  </si>
+  <si>
+    <t>00:26:28</t>
+  </si>
+  <si>
+    <t>01:44:33</t>
+  </si>
+  <si>
+    <t>01:41:44</t>
+  </si>
+  <si>
+    <t>01:43:39</t>
+  </si>
+  <si>
+    <t>00:04:52</t>
+  </si>
+  <si>
+    <t>01:43:38</t>
+  </si>
+  <si>
+    <t>01:19:47</t>
+  </si>
+  <si>
+    <t>N3 J10 VS Carnoux</t>
   </si>
 </sst>
 </file>
@@ -2996,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V961"/>
+  <dimension ref="A1:V974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A931" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D965" sqref="D965"/>
+    <sheetView tabSelected="1" topLeftCell="A943" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E978" sqref="E978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67020,6 +67053,890 @@
         <v>8</v>
       </c>
     </row>
+    <row r="962" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>23</v>
+      </c>
+      <c r="B962" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C962" t="s">
+        <v>20</v>
+      </c>
+      <c r="D962" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E962" t="s">
+        <v>447</v>
+      </c>
+      <c r="F962" t="s">
+        <v>33</v>
+      </c>
+      <c r="G962" t="s">
+        <v>855</v>
+      </c>
+      <c r="H962">
+        <v>5.09</v>
+      </c>
+      <c r="I962">
+        <v>0.36</v>
+      </c>
+      <c r="J962">
+        <v>4.72</v>
+      </c>
+      <c r="K962">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L962">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M962">
+        <v>0.01</v>
+      </c>
+      <c r="N962">
+        <v>0</v>
+      </c>
+      <c r="O962">
+        <v>2</v>
+      </c>
+      <c r="P962">
+        <v>3.53</v>
+      </c>
+      <c r="Q962">
+        <v>25.89</v>
+      </c>
+      <c r="R962">
+        <v>4.32</v>
+      </c>
+      <c r="S962">
+        <v>39</v>
+      </c>
+      <c r="T962">
+        <v>4</v>
+      </c>
+      <c r="U962">
+        <v>29</v>
+      </c>
+      <c r="V962">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="963" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>23</v>
+      </c>
+      <c r="B963" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C963" t="s">
+        <v>20</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E963" t="s">
+        <v>53</v>
+      </c>
+      <c r="F963" t="s">
+        <v>32</v>
+      </c>
+      <c r="G963" t="s">
+        <v>856</v>
+      </c>
+      <c r="H963">
+        <v>5.27</v>
+      </c>
+      <c r="I963">
+        <v>0.23</v>
+      </c>
+      <c r="J963">
+        <v>5.03</v>
+      </c>
+      <c r="K963">
+        <v>0.2</v>
+      </c>
+      <c r="L963">
+        <v>0.03</v>
+      </c>
+      <c r="M963">
+        <v>0</v>
+      </c>
+      <c r="N963">
+        <v>0</v>
+      </c>
+      <c r="O963">
+        <v>0</v>
+      </c>
+      <c r="P963">
+        <v>3.94</v>
+      </c>
+      <c r="Q963">
+        <v>23.2</v>
+      </c>
+      <c r="R963">
+        <v>5.24</v>
+      </c>
+      <c r="S963">
+        <v>17</v>
+      </c>
+      <c r="T963">
+        <v>9</v>
+      </c>
+      <c r="U963">
+        <v>17</v>
+      </c>
+      <c r="V963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>865</v>
+      </c>
+      <c r="B964" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C964" t="s">
+        <v>20</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E964" t="s">
+        <v>43</v>
+      </c>
+      <c r="F964" t="s">
+        <v>34</v>
+      </c>
+      <c r="G964" t="s">
+        <v>857</v>
+      </c>
+      <c r="H964">
+        <v>3.96</v>
+      </c>
+      <c r="I964">
+        <v>1.04</v>
+      </c>
+      <c r="J964">
+        <v>2.9</v>
+      </c>
+      <c r="K964">
+        <v>0.59</v>
+      </c>
+      <c r="L964">
+        <v>0.3</v>
+      </c>
+      <c r="M964">
+        <v>0.15</v>
+      </c>
+      <c r="N964">
+        <v>0.02</v>
+      </c>
+      <c r="O964">
+        <v>6</v>
+      </c>
+      <c r="P964">
+        <v>7.7</v>
+      </c>
+      <c r="Q964">
+        <v>30.53</v>
+      </c>
+      <c r="R964">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S964">
+        <v>23</v>
+      </c>
+      <c r="T964">
+        <v>3</v>
+      </c>
+      <c r="U964">
+        <v>23</v>
+      </c>
+      <c r="V964">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="965" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>865</v>
+      </c>
+      <c r="B965" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C965" t="s">
+        <v>20</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E965" t="s">
+        <v>53</v>
+      </c>
+      <c r="F965" t="s">
+        <v>32</v>
+      </c>
+      <c r="G965" t="s">
+        <v>117</v>
+      </c>
+      <c r="H965">
+        <v>12.25</v>
+      </c>
+      <c r="I965">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J965">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="K965">
+        <v>1.73</v>
+      </c>
+      <c r="L965">
+        <v>0.4</v>
+      </c>
+      <c r="M965">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N965">
+        <v>0</v>
+      </c>
+      <c r="O965">
+        <v>5</v>
+      </c>
+      <c r="P965">
+        <v>6.82</v>
+      </c>
+      <c r="Q965">
+        <v>29.91</v>
+      </c>
+      <c r="R965">
+        <v>5.35</v>
+      </c>
+      <c r="S965">
+        <v>44</v>
+      </c>
+      <c r="T965">
+        <v>11</v>
+      </c>
+      <c r="U965">
+        <v>26</v>
+      </c>
+      <c r="V965">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="966" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>865</v>
+      </c>
+      <c r="B966" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C966" t="s">
+        <v>20</v>
+      </c>
+      <c r="D966" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E966" t="s">
+        <v>35</v>
+      </c>
+      <c r="F966" t="s">
+        <v>34</v>
+      </c>
+      <c r="G966" t="s">
+        <v>858</v>
+      </c>
+      <c r="H966">
+        <v>2.5</v>
+      </c>
+      <c r="I966">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J966">
+        <v>1.92</v>
+      </c>
+      <c r="K966">
+        <v>0.39</v>
+      </c>
+      <c r="L966">
+        <v>0.12</v>
+      </c>
+      <c r="M966">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N966">
+        <v>0</v>
+      </c>
+      <c r="O966">
+        <v>4</v>
+      </c>
+      <c r="P966">
+        <v>5.58</v>
+      </c>
+      <c r="Q966">
+        <v>29.12</v>
+      </c>
+      <c r="R966">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S966">
+        <v>12</v>
+      </c>
+      <c r="T966">
+        <v>4</v>
+      </c>
+      <c r="U966">
+        <v>14</v>
+      </c>
+      <c r="V966">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="967" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>865</v>
+      </c>
+      <c r="B967" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C967" t="s">
+        <v>20</v>
+      </c>
+      <c r="D967" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E967" t="s">
+        <v>55</v>
+      </c>
+      <c r="F967" t="s">
+        <v>32</v>
+      </c>
+      <c r="G967" t="s">
+        <v>726</v>
+      </c>
+      <c r="H967">
+        <v>10.77</v>
+      </c>
+      <c r="I967">
+        <v>1.81</v>
+      </c>
+      <c r="J967">
+        <v>8.94</v>
+      </c>
+      <c r="K967">
+        <v>1.47</v>
+      </c>
+      <c r="L967">
+        <v>0.32</v>
+      </c>
+      <c r="M967">
+        <v>0.05</v>
+      </c>
+      <c r="N967">
+        <v>0</v>
+      </c>
+      <c r="O967">
+        <v>5</v>
+      </c>
+      <c r="P967">
+        <v>5.99</v>
+      </c>
+      <c r="Q967">
+        <v>28.58</v>
+      </c>
+      <c r="R967">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S967">
+        <v>56</v>
+      </c>
+      <c r="T967">
+        <v>5</v>
+      </c>
+      <c r="U967">
+        <v>42</v>
+      </c>
+      <c r="V967">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="968" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>865</v>
+      </c>
+      <c r="B968" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C968" t="s">
+        <v>20</v>
+      </c>
+      <c r="D968" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E968" t="s">
+        <v>447</v>
+      </c>
+      <c r="F968" t="s">
+        <v>33</v>
+      </c>
+      <c r="G968" t="s">
+        <v>346</v>
+      </c>
+      <c r="H968">
+        <v>12.05</v>
+      </c>
+      <c r="I968">
+        <v>2.52</v>
+      </c>
+      <c r="J968">
+        <v>9.51</v>
+      </c>
+      <c r="K968">
+        <v>1.71</v>
+      </c>
+      <c r="L968">
+        <v>0.68</v>
+      </c>
+      <c r="M968">
+        <v>0.15</v>
+      </c>
+      <c r="N968">
+        <v>0</v>
+      </c>
+      <c r="O968">
+        <v>13</v>
+      </c>
+      <c r="P968">
+        <v>6.57</v>
+      </c>
+      <c r="Q968">
+        <v>30.09</v>
+      </c>
+      <c r="R968">
+        <v>4.29</v>
+      </c>
+      <c r="S968">
+        <v>39</v>
+      </c>
+      <c r="T968">
+        <v>4</v>
+      </c>
+      <c r="U968">
+        <v>41</v>
+      </c>
+      <c r="V968">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="969" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>865</v>
+      </c>
+      <c r="B969" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C969" t="s">
+        <v>20</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E969" t="s">
+        <v>48</v>
+      </c>
+      <c r="F969" t="s">
+        <v>29</v>
+      </c>
+      <c r="G969" t="s">
+        <v>859</v>
+      </c>
+      <c r="H969">
+        <v>9.14</v>
+      </c>
+      <c r="I969">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J969">
+        <v>7.97</v>
+      </c>
+      <c r="K969">
+        <v>0.76</v>
+      </c>
+      <c r="L969">
+        <v>0.32</v>
+      </c>
+      <c r="M969">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N969">
+        <v>0</v>
+      </c>
+      <c r="O969">
+        <v>5</v>
+      </c>
+      <c r="P969">
+        <v>5.07</v>
+      </c>
+      <c r="Q969">
+        <v>30.17</v>
+      </c>
+      <c r="R969">
+        <v>4.57</v>
+      </c>
+      <c r="S969">
+        <v>27</v>
+      </c>
+      <c r="T969">
+        <v>2</v>
+      </c>
+      <c r="U969">
+        <v>19</v>
+      </c>
+      <c r="V969">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="970" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>865</v>
+      </c>
+      <c r="B970" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C970" t="s">
+        <v>20</v>
+      </c>
+      <c r="D970" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E970" t="s">
+        <v>93</v>
+      </c>
+      <c r="F970" t="s">
+        <v>31</v>
+      </c>
+      <c r="G970" t="s">
+        <v>860</v>
+      </c>
+      <c r="H970">
+        <v>9.64</v>
+      </c>
+      <c r="I970">
+        <v>1.58</v>
+      </c>
+      <c r="J970">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="K970">
+        <v>0.93</v>
+      </c>
+      <c r="L970">
+        <v>0.49</v>
+      </c>
+      <c r="M970">
+        <v>0.16</v>
+      </c>
+      <c r="N970">
+        <v>0.02</v>
+      </c>
+      <c r="O970">
+        <v>17</v>
+      </c>
+      <c r="P970">
+        <v>5.6</v>
+      </c>
+      <c r="Q970">
+        <v>34</v>
+      </c>
+      <c r="R970">
+        <v>5.14</v>
+      </c>
+      <c r="S970">
+        <v>37</v>
+      </c>
+      <c r="T970">
+        <v>14</v>
+      </c>
+      <c r="U970">
+        <v>33</v>
+      </c>
+      <c r="V970">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="971" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>865</v>
+      </c>
+      <c r="B971" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C971" t="s">
+        <v>20</v>
+      </c>
+      <c r="D971" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E971" t="s">
+        <v>448</v>
+      </c>
+      <c r="F971" t="s">
+        <v>32</v>
+      </c>
+      <c r="G971" t="s">
+        <v>861</v>
+      </c>
+      <c r="H971">
+        <v>11.86</v>
+      </c>
+      <c r="I971">
+        <v>2.52</v>
+      </c>
+      <c r="J971">
+        <v>9.32</v>
+      </c>
+      <c r="K971">
+        <v>1.9</v>
+      </c>
+      <c r="L971">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M971">
+        <v>0.08</v>
+      </c>
+      <c r="N971">
+        <v>0</v>
+      </c>
+      <c r="O971">
+        <v>7</v>
+      </c>
+      <c r="P971">
+        <v>6.82</v>
+      </c>
+      <c r="Q971">
+        <v>28.27</v>
+      </c>
+      <c r="R971">
+        <v>4.59</v>
+      </c>
+      <c r="S971">
+        <v>39</v>
+      </c>
+      <c r="T971">
+        <v>1</v>
+      </c>
+      <c r="U971">
+        <v>37</v>
+      </c>
+      <c r="V971">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="972" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>865</v>
+      </c>
+      <c r="B972" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C972" t="s">
+        <v>20</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E972" t="s">
+        <v>251</v>
+      </c>
+      <c r="F972" t="s">
+        <v>32</v>
+      </c>
+      <c r="G972" t="s">
+        <v>862</v>
+      </c>
+      <c r="H972">
+        <v>0.41</v>
+      </c>
+      <c r="I972">
+        <v>0.04</v>
+      </c>
+      <c r="J972">
+        <v>0.37</v>
+      </c>
+      <c r="K972">
+        <v>0.04</v>
+      </c>
+      <c r="L972">
+        <v>0</v>
+      </c>
+      <c r="M972">
+        <v>0</v>
+      </c>
+      <c r="N972">
+        <v>0</v>
+      </c>
+      <c r="O972">
+        <v>0</v>
+      </c>
+      <c r="P972">
+        <v>3.97</v>
+      </c>
+      <c r="Q972">
+        <v>20.13</v>
+      </c>
+      <c r="R972">
+        <v>3.55</v>
+      </c>
+      <c r="S972">
+        <v>4</v>
+      </c>
+      <c r="T972">
+        <v>0</v>
+      </c>
+      <c r="U972">
+        <v>1</v>
+      </c>
+      <c r="V972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>865</v>
+      </c>
+      <c r="B973" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C973" t="s">
+        <v>20</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E973" t="s">
+        <v>58</v>
+      </c>
+      <c r="F973" t="s">
+        <v>29</v>
+      </c>
+      <c r="G973" t="s">
+        <v>863</v>
+      </c>
+      <c r="H973">
+        <v>10.31</v>
+      </c>
+      <c r="I973">
+        <v>1.38</v>
+      </c>
+      <c r="J973">
+        <v>8.91</v>
+      </c>
+      <c r="K973">
+        <v>0.93</v>
+      </c>
+      <c r="L973">
+        <v>0.38</v>
+      </c>
+      <c r="M973">
+        <v>0.09</v>
+      </c>
+      <c r="N973">
+        <v>0</v>
+      </c>
+      <c r="O973">
+        <v>7</v>
+      </c>
+      <c r="P973">
+        <v>5.92</v>
+      </c>
+      <c r="Q973">
+        <v>29.68</v>
+      </c>
+      <c r="R973">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S973">
+        <v>40</v>
+      </c>
+      <c r="T973">
+        <v>3</v>
+      </c>
+      <c r="U973">
+        <v>34</v>
+      </c>
+      <c r="V973">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>865</v>
+      </c>
+      <c r="B974" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C974" t="s">
+        <v>20</v>
+      </c>
+      <c r="D974" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E974" t="s">
+        <v>38</v>
+      </c>
+      <c r="F974" t="s">
+        <v>34</v>
+      </c>
+      <c r="G974" t="s">
+        <v>864</v>
+      </c>
+      <c r="H974">
+        <v>8.15</v>
+      </c>
+      <c r="I974">
+        <v>1.2</v>
+      </c>
+      <c r="J974">
+        <v>6.93</v>
+      </c>
+      <c r="K974">
+        <v>0.9</v>
+      </c>
+      <c r="L974">
+        <v>0.25</v>
+      </c>
+      <c r="M974">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N974">
+        <v>0</v>
+      </c>
+      <c r="O974">
+        <v>6</v>
+      </c>
+      <c r="P974">
+        <v>6.02</v>
+      </c>
+      <c r="Q974">
+        <v>27.95</v>
+      </c>
+      <c r="R974">
+        <v>4.53</v>
+      </c>
+      <c r="S974">
+        <v>28</v>
+      </c>
+      <c r="T974">
+        <v>4</v>
+      </c>
+      <c r="U974">
+        <v>27</v>
+      </c>
+      <c r="V974">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167CA5A-8B09-F942-9F50-5CD877FA6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF67D22D-DEF3-5647-9443-241BB1E9B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5413" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="871">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2634,6 +2634,21 @@
   </si>
   <si>
     <t>N3 J10 VS Carnoux</t>
+  </si>
+  <si>
+    <t>01:40:44</t>
+  </si>
+  <si>
+    <t>01:18:41</t>
+  </si>
+  <si>
+    <t>01:40:37</t>
+  </si>
+  <si>
+    <t>01:40:01</t>
+  </si>
+  <si>
+    <t>01:41:13</t>
   </si>
 </sst>
 </file>
@@ -3029,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V974"/>
+  <dimension ref="A1:V982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A943" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E978" sqref="E978"/>
+    <sheetView tabSelected="1" topLeftCell="A954" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E988" sqref="E988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67937,6 +67952,550 @@
         <v>4</v>
       </c>
     </row>
+    <row r="975" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>23</v>
+      </c>
+      <c r="B975" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C975" t="s">
+        <v>20</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E975" t="s">
+        <v>25</v>
+      </c>
+      <c r="F975" t="s">
+        <v>29</v>
+      </c>
+      <c r="G975" t="s">
+        <v>866</v>
+      </c>
+      <c r="H975">
+        <v>7.61</v>
+      </c>
+      <c r="I975">
+        <v>0.3</v>
+      </c>
+      <c r="J975">
+        <v>7.31</v>
+      </c>
+      <c r="K975">
+        <v>0.3</v>
+      </c>
+      <c r="L975">
+        <v>0.01</v>
+      </c>
+      <c r="M975">
+        <v>0</v>
+      </c>
+      <c r="N975">
+        <v>0</v>
+      </c>
+      <c r="O975">
+        <v>0</v>
+      </c>
+      <c r="P975">
+        <v>4.47</v>
+      </c>
+      <c r="Q975">
+        <v>21.06</v>
+      </c>
+      <c r="R975">
+        <v>4.38</v>
+      </c>
+      <c r="S975">
+        <v>37</v>
+      </c>
+      <c r="T975">
+        <v>4</v>
+      </c>
+      <c r="U975">
+        <v>30</v>
+      </c>
+      <c r="V975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>23</v>
+      </c>
+      <c r="B976" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C976" t="s">
+        <v>20</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E976" t="s">
+        <v>35</v>
+      </c>
+      <c r="F976" t="s">
+        <v>34</v>
+      </c>
+      <c r="G976" t="s">
+        <v>867</v>
+      </c>
+      <c r="H976">
+        <v>6.21</v>
+      </c>
+      <c r="I976">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J976">
+        <v>5.92</v>
+      </c>
+      <c r="K976">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L976">
+        <v>0.01</v>
+      </c>
+      <c r="M976">
+        <v>0</v>
+      </c>
+      <c r="N976">
+        <v>0</v>
+      </c>
+      <c r="O976">
+        <v>0</v>
+      </c>
+      <c r="P976">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q976">
+        <v>21.9</v>
+      </c>
+      <c r="R976">
+        <v>4.54</v>
+      </c>
+      <c r="S976">
+        <v>33</v>
+      </c>
+      <c r="T976">
+        <v>4</v>
+      </c>
+      <c r="U976">
+        <v>26</v>
+      </c>
+      <c r="V976">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="977" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>23</v>
+      </c>
+      <c r="B977" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C977" t="s">
+        <v>20</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E977" t="s">
+        <v>447</v>
+      </c>
+      <c r="F977" t="s">
+        <v>33</v>
+      </c>
+      <c r="G977" t="s">
+        <v>868</v>
+      </c>
+      <c r="H977">
+        <v>7.88</v>
+      </c>
+      <c r="I977">
+        <v>0.4</v>
+      </c>
+      <c r="J977">
+        <v>7.47</v>
+      </c>
+      <c r="K977">
+        <v>0.34</v>
+      </c>
+      <c r="L977">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M977">
+        <v>0</v>
+      </c>
+      <c r="N977">
+        <v>0</v>
+      </c>
+      <c r="O977">
+        <v>0</v>
+      </c>
+      <c r="P977">
+        <v>4.17</v>
+      </c>
+      <c r="Q977">
+        <v>23.95</v>
+      </c>
+      <c r="R977">
+        <v>5.5</v>
+      </c>
+      <c r="S977">
+        <v>46</v>
+      </c>
+      <c r="T977">
+        <v>7</v>
+      </c>
+      <c r="U977">
+        <v>50</v>
+      </c>
+      <c r="V977">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="978" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>23</v>
+      </c>
+      <c r="B978" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C978" t="s">
+        <v>20</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E978" t="s">
+        <v>43</v>
+      </c>
+      <c r="F978" t="s">
+        <v>34</v>
+      </c>
+      <c r="G978" t="s">
+        <v>866</v>
+      </c>
+      <c r="H978">
+        <v>7.42</v>
+      </c>
+      <c r="I978">
+        <v>0.17</v>
+      </c>
+      <c r="J978">
+        <v>7.24</v>
+      </c>
+      <c r="K978">
+        <v>0.18</v>
+      </c>
+      <c r="L978">
+        <v>0.01</v>
+      </c>
+      <c r="M978">
+        <v>0</v>
+      </c>
+      <c r="N978">
+        <v>0</v>
+      </c>
+      <c r="O978">
+        <v>0</v>
+      </c>
+      <c r="P978">
+        <v>3.8</v>
+      </c>
+      <c r="Q978">
+        <v>22.69</v>
+      </c>
+      <c r="R978">
+        <v>4.54</v>
+      </c>
+      <c r="S978">
+        <v>32</v>
+      </c>
+      <c r="T978">
+        <v>4</v>
+      </c>
+      <c r="U978">
+        <v>30</v>
+      </c>
+      <c r="V978">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="979" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>23</v>
+      </c>
+      <c r="B979" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C979" t="s">
+        <v>20</v>
+      </c>
+      <c r="D979" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E979" t="s">
+        <v>53</v>
+      </c>
+      <c r="F979" t="s">
+        <v>32</v>
+      </c>
+      <c r="G979" t="s">
+        <v>842</v>
+      </c>
+      <c r="H979">
+        <v>7.75</v>
+      </c>
+      <c r="I979">
+        <v>0.11</v>
+      </c>
+      <c r="J979">
+        <v>7.64</v>
+      </c>
+      <c r="K979">
+        <v>0.1</v>
+      </c>
+      <c r="L979">
+        <v>0.01</v>
+      </c>
+      <c r="M979">
+        <v>0</v>
+      </c>
+      <c r="N979">
+        <v>0</v>
+      </c>
+      <c r="O979">
+        <v>0</v>
+      </c>
+      <c r="P979">
+        <v>4.54</v>
+      </c>
+      <c r="Q979">
+        <v>22.83</v>
+      </c>
+      <c r="R979">
+        <v>4.33</v>
+      </c>
+      <c r="S979">
+        <v>33</v>
+      </c>
+      <c r="T979">
+        <v>1</v>
+      </c>
+      <c r="U979">
+        <v>12</v>
+      </c>
+      <c r="V979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>23</v>
+      </c>
+      <c r="B980" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C980" t="s">
+        <v>20</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E980" t="s">
+        <v>16</v>
+      </c>
+      <c r="F980" t="s">
+        <v>30</v>
+      </c>
+      <c r="G980" t="s">
+        <v>869</v>
+      </c>
+      <c r="H980">
+        <v>7.39</v>
+      </c>
+      <c r="I980">
+        <v>0.17</v>
+      </c>
+      <c r="J980">
+        <v>7.21</v>
+      </c>
+      <c r="K980">
+        <v>0.17</v>
+      </c>
+      <c r="L980">
+        <v>0.01</v>
+      </c>
+      <c r="M980">
+        <v>0</v>
+      </c>
+      <c r="N980">
+        <v>0</v>
+      </c>
+      <c r="O980">
+        <v>0</v>
+      </c>
+      <c r="P980">
+        <v>3.77</v>
+      </c>
+      <c r="Q980">
+        <v>22.08</v>
+      </c>
+      <c r="R980">
+        <v>4.78</v>
+      </c>
+      <c r="S980">
+        <v>35</v>
+      </c>
+      <c r="T980">
+        <v>7</v>
+      </c>
+      <c r="U980">
+        <v>40</v>
+      </c>
+      <c r="V980">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>23</v>
+      </c>
+      <c r="B981" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C981" t="s">
+        <v>20</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E981" t="s">
+        <v>164</v>
+      </c>
+      <c r="F981" t="s">
+        <v>32</v>
+      </c>
+      <c r="G981" t="s">
+        <v>870</v>
+      </c>
+      <c r="H981">
+        <v>8.23</v>
+      </c>
+      <c r="I981">
+        <v>0.27</v>
+      </c>
+      <c r="J981">
+        <v>7.95</v>
+      </c>
+      <c r="K981">
+        <v>0.24</v>
+      </c>
+      <c r="L981">
+        <v>0.04</v>
+      </c>
+      <c r="M981">
+        <v>0</v>
+      </c>
+      <c r="N981">
+        <v>0</v>
+      </c>
+      <c r="O981">
+        <v>1</v>
+      </c>
+      <c r="P981">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q981">
+        <v>25.09</v>
+      </c>
+      <c r="R981">
+        <v>5.2</v>
+      </c>
+      <c r="S981">
+        <v>59</v>
+      </c>
+      <c r="T981">
+        <v>9</v>
+      </c>
+      <c r="U981">
+        <v>44</v>
+      </c>
+      <c r="V981">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="982" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>23</v>
+      </c>
+      <c r="B982" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C982" t="s">
+        <v>20</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E982" t="s">
+        <v>52</v>
+      </c>
+      <c r="F982" t="s">
+        <v>33</v>
+      </c>
+      <c r="G982" t="s">
+        <v>558</v>
+      </c>
+      <c r="H982">
+        <v>7.31</v>
+      </c>
+      <c r="I982">
+        <v>0.3</v>
+      </c>
+      <c r="J982">
+        <v>7</v>
+      </c>
+      <c r="K982">
+        <v>0.27</v>
+      </c>
+      <c r="L982">
+        <v>0.03</v>
+      </c>
+      <c r="M982">
+        <v>0</v>
+      </c>
+      <c r="N982">
+        <v>0</v>
+      </c>
+      <c r="O982">
+        <v>0</v>
+      </c>
+      <c r="P982">
+        <v>4.38</v>
+      </c>
+      <c r="Q982">
+        <v>22.47</v>
+      </c>
+      <c r="R982">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S982">
+        <v>35</v>
+      </c>
+      <c r="T982">
+        <v>4</v>
+      </c>
+      <c r="U982">
+        <v>27</v>
+      </c>
+      <c r="V982">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF67D22D-DEF3-5647-9443-241BB1E9B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9CB0CC-CB68-9B41-8718-9A605368BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="881">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2649,6 +2649,36 @@
   </si>
   <si>
     <t>01:41:13</t>
+  </si>
+  <si>
+    <t>01:14:30</t>
+  </si>
+  <si>
+    <t>01:12:25</t>
+  </si>
+  <si>
+    <t>01:11:39</t>
+  </si>
+  <si>
+    <t>01:14:48</t>
+  </si>
+  <si>
+    <t>01:14:38</t>
+  </si>
+  <si>
+    <t>01:13:52</t>
+  </si>
+  <si>
+    <t>00:51:15</t>
+  </si>
+  <si>
+    <t>01:17:23</t>
+  </si>
+  <si>
+    <t>01:14:39</t>
+  </si>
+  <si>
+    <t>01:23:00</t>
   </si>
 </sst>
 </file>
@@ -3044,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V982"/>
+  <dimension ref="A1:V999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A954" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E988" sqref="E988"/>
+    <sheetView tabSelected="1" topLeftCell="A964" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1002" sqref="D1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68496,6 +68526,1162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="983" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>23</v>
+      </c>
+      <c r="B983" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C983" t="s">
+        <v>20</v>
+      </c>
+      <c r="D983" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E983" t="s">
+        <v>52</v>
+      </c>
+      <c r="F983" t="s">
+        <v>33</v>
+      </c>
+      <c r="G983" t="s">
+        <v>871</v>
+      </c>
+      <c r="H983">
+        <v>5.91</v>
+      </c>
+      <c r="I983">
+        <v>0.61</v>
+      </c>
+      <c r="J983">
+        <v>5.29</v>
+      </c>
+      <c r="K983">
+        <v>0.36</v>
+      </c>
+      <c r="L983">
+        <v>0.16</v>
+      </c>
+      <c r="M983">
+        <v>0.1</v>
+      </c>
+      <c r="N983">
+        <v>0</v>
+      </c>
+      <c r="O983">
+        <v>6</v>
+      </c>
+      <c r="P983">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q983">
+        <v>30.18</v>
+      </c>
+      <c r="R983">
+        <v>4.99</v>
+      </c>
+      <c r="S983">
+        <v>37</v>
+      </c>
+      <c r="T983">
+        <v>3</v>
+      </c>
+      <c r="U983">
+        <v>19</v>
+      </c>
+      <c r="V983">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>23</v>
+      </c>
+      <c r="B984" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C984" t="s">
+        <v>20</v>
+      </c>
+      <c r="D984" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E984" t="s">
+        <v>48</v>
+      </c>
+      <c r="F984" t="s">
+        <v>29</v>
+      </c>
+      <c r="G984" t="s">
+        <v>872</v>
+      </c>
+      <c r="H984">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I984">
+        <v>0.22</v>
+      </c>
+      <c r="J984">
+        <v>4.01</v>
+      </c>
+      <c r="K984">
+        <v>0.15</v>
+      </c>
+      <c r="L984">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M984">
+        <v>0</v>
+      </c>
+      <c r="N984">
+        <v>0</v>
+      </c>
+      <c r="O984">
+        <v>0</v>
+      </c>
+      <c r="P984">
+        <v>3.38</v>
+      </c>
+      <c r="Q984">
+        <v>24.85</v>
+      </c>
+      <c r="R984">
+        <v>4.29</v>
+      </c>
+      <c r="S984">
+        <v>8</v>
+      </c>
+      <c r="T984">
+        <v>2</v>
+      </c>
+      <c r="U984">
+        <v>9</v>
+      </c>
+      <c r="V984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>23</v>
+      </c>
+      <c r="B985" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C985" t="s">
+        <v>20</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E985" t="s">
+        <v>17</v>
+      </c>
+      <c r="F985" t="s">
+        <v>34</v>
+      </c>
+      <c r="G985" t="s">
+        <v>576</v>
+      </c>
+      <c r="H985">
+        <v>5.83</v>
+      </c>
+      <c r="I985">
+        <v>0.51</v>
+      </c>
+      <c r="J985">
+        <v>5.3</v>
+      </c>
+      <c r="K985">
+        <v>0.26</v>
+      </c>
+      <c r="L985">
+        <v>0.19</v>
+      </c>
+      <c r="M985">
+        <v>0.06</v>
+      </c>
+      <c r="N985">
+        <v>0.01</v>
+      </c>
+      <c r="O985">
+        <v>10</v>
+      </c>
+      <c r="P985">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q985">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="R985">
+        <v>5.08</v>
+      </c>
+      <c r="S985">
+        <v>48</v>
+      </c>
+      <c r="T985">
+        <v>20</v>
+      </c>
+      <c r="U985">
+        <v>40</v>
+      </c>
+      <c r="V985">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="986" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>23</v>
+      </c>
+      <c r="B986" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C986" t="s">
+        <v>20</v>
+      </c>
+      <c r="D986" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E986" t="s">
+        <v>40</v>
+      </c>
+      <c r="F986" t="s">
+        <v>31</v>
+      </c>
+      <c r="G986" t="s">
+        <v>873</v>
+      </c>
+      <c r="H986">
+        <v>5</v>
+      </c>
+      <c r="I986">
+        <v>0.38</v>
+      </c>
+      <c r="J986">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K986">
+        <v>0.18</v>
+      </c>
+      <c r="L986">
+        <v>0.13</v>
+      </c>
+      <c r="M986">
+        <v>0.08</v>
+      </c>
+      <c r="N986">
+        <v>0</v>
+      </c>
+      <c r="O986">
+        <v>6</v>
+      </c>
+      <c r="P986">
+        <v>3.88</v>
+      </c>
+      <c r="Q986">
+        <v>29.65</v>
+      </c>
+      <c r="R986">
+        <v>5.37</v>
+      </c>
+      <c r="S986">
+        <v>50</v>
+      </c>
+      <c r="T986">
+        <v>17</v>
+      </c>
+      <c r="U986">
+        <v>31</v>
+      </c>
+      <c r="V986">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="987" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>23</v>
+      </c>
+      <c r="B987" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C987" t="s">
+        <v>20</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E987" t="s">
+        <v>53</v>
+      </c>
+      <c r="F987" t="s">
+        <v>32</v>
+      </c>
+      <c r="G987" t="s">
+        <v>646</v>
+      </c>
+      <c r="H987">
+        <v>6.24</v>
+      </c>
+      <c r="I987">
+        <v>0.75</v>
+      </c>
+      <c r="J987">
+        <v>5.48</v>
+      </c>
+      <c r="K987">
+        <v>0.45</v>
+      </c>
+      <c r="L987">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M987">
+        <v>0.02</v>
+      </c>
+      <c r="N987">
+        <v>0</v>
+      </c>
+      <c r="O987">
+        <v>3</v>
+      </c>
+      <c r="P987">
+        <v>5.05</v>
+      </c>
+      <c r="Q987">
+        <v>26.66</v>
+      </c>
+      <c r="R987">
+        <v>4.33</v>
+      </c>
+      <c r="S987">
+        <v>44</v>
+      </c>
+      <c r="T987">
+        <v>2</v>
+      </c>
+      <c r="U987">
+        <v>11</v>
+      </c>
+      <c r="V987">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>23</v>
+      </c>
+      <c r="B988" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C988" t="s">
+        <v>20</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E988" t="s">
+        <v>38</v>
+      </c>
+      <c r="F988" t="s">
+        <v>34</v>
+      </c>
+      <c r="G988" t="s">
+        <v>874</v>
+      </c>
+      <c r="H988">
+        <v>4.47</v>
+      </c>
+      <c r="I988">
+        <v>0.32</v>
+      </c>
+      <c r="J988">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K988">
+        <v>0.18</v>
+      </c>
+      <c r="L988">
+        <v>0.12</v>
+      </c>
+      <c r="M988">
+        <v>0.03</v>
+      </c>
+      <c r="N988">
+        <v>0</v>
+      </c>
+      <c r="O988">
+        <v>2</v>
+      </c>
+      <c r="P988">
+        <v>3.43</v>
+      </c>
+      <c r="Q988">
+        <v>27.62</v>
+      </c>
+      <c r="R988">
+        <v>3.72</v>
+      </c>
+      <c r="S988">
+        <v>10</v>
+      </c>
+      <c r="T988">
+        <v>0</v>
+      </c>
+      <c r="U988">
+        <v>10</v>
+      </c>
+      <c r="V988">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>23</v>
+      </c>
+      <c r="B989" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C989" t="s">
+        <v>20</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E989" t="s">
+        <v>164</v>
+      </c>
+      <c r="F989" t="s">
+        <v>32</v>
+      </c>
+      <c r="G989" t="s">
+        <v>875</v>
+      </c>
+      <c r="H989">
+        <v>6.01</v>
+      </c>
+      <c r="I989">
+        <v>0.4</v>
+      </c>
+      <c r="J989">
+        <v>5.6</v>
+      </c>
+      <c r="K989">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L989">
+        <v>0.09</v>
+      </c>
+      <c r="M989">
+        <v>0.03</v>
+      </c>
+      <c r="N989">
+        <v>0</v>
+      </c>
+      <c r="O989">
+        <v>2</v>
+      </c>
+      <c r="P989">
+        <v>4.22</v>
+      </c>
+      <c r="Q989">
+        <v>30.17</v>
+      </c>
+      <c r="R989">
+        <v>4.78</v>
+      </c>
+      <c r="S989">
+        <v>35</v>
+      </c>
+      <c r="T989">
+        <v>11</v>
+      </c>
+      <c r="U989">
+        <v>29</v>
+      </c>
+      <c r="V989">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="990" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>23</v>
+      </c>
+      <c r="B990" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C990" t="s">
+        <v>20</v>
+      </c>
+      <c r="D990" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E990" t="s">
+        <v>58</v>
+      </c>
+      <c r="F990" t="s">
+        <v>29</v>
+      </c>
+      <c r="G990" t="s">
+        <v>876</v>
+      </c>
+      <c r="H990">
+        <v>5.35</v>
+      </c>
+      <c r="I990">
+        <v>0.23</v>
+      </c>
+      <c r="J990">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K990">
+        <v>0.18</v>
+      </c>
+      <c r="L990">
+        <v>0.06</v>
+      </c>
+      <c r="M990">
+        <v>0</v>
+      </c>
+      <c r="N990">
+        <v>0</v>
+      </c>
+      <c r="O990">
+        <v>0</v>
+      </c>
+      <c r="P990">
+        <v>3.48</v>
+      </c>
+      <c r="Q990">
+        <v>23.43</v>
+      </c>
+      <c r="R990">
+        <v>4.78</v>
+      </c>
+      <c r="S990">
+        <v>14</v>
+      </c>
+      <c r="T990">
+        <v>4</v>
+      </c>
+      <c r="U990">
+        <v>10</v>
+      </c>
+      <c r="V990">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>23</v>
+      </c>
+      <c r="B991" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C991" t="s">
+        <v>20</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E991" t="s">
+        <v>35</v>
+      </c>
+      <c r="F991" t="s">
+        <v>34</v>
+      </c>
+      <c r="G991" t="s">
+        <v>877</v>
+      </c>
+      <c r="H991">
+        <v>3.48</v>
+      </c>
+      <c r="I991">
+        <v>0.46</v>
+      </c>
+      <c r="J991">
+        <v>3.02</v>
+      </c>
+      <c r="K991">
+        <v>0.18</v>
+      </c>
+      <c r="L991">
+        <v>0.17</v>
+      </c>
+      <c r="M991">
+        <v>0.12</v>
+      </c>
+      <c r="N991">
+        <v>0</v>
+      </c>
+      <c r="O991">
+        <v>8</v>
+      </c>
+      <c r="P991">
+        <v>3.96</v>
+      </c>
+      <c r="Q991">
+        <v>29.49</v>
+      </c>
+      <c r="R991">
+        <v>5.62</v>
+      </c>
+      <c r="S991">
+        <v>22</v>
+      </c>
+      <c r="T991">
+        <v>5</v>
+      </c>
+      <c r="U991">
+        <v>6</v>
+      </c>
+      <c r="V991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>23</v>
+      </c>
+      <c r="B992" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C992" t="s">
+        <v>20</v>
+      </c>
+      <c r="D992" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E992" t="s">
+        <v>39</v>
+      </c>
+      <c r="F992" t="s">
+        <v>29</v>
+      </c>
+      <c r="G992" t="s">
+        <v>63</v>
+      </c>
+      <c r="H992">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I992">
+        <v>0.39</v>
+      </c>
+      <c r="J992">
+        <v>4.21</v>
+      </c>
+      <c r="K992">
+        <v>0.2</v>
+      </c>
+      <c r="L992">
+        <v>0.17</v>
+      </c>
+      <c r="M992">
+        <v>0.03</v>
+      </c>
+      <c r="N992">
+        <v>0</v>
+      </c>
+      <c r="O992">
+        <v>2</v>
+      </c>
+      <c r="P992">
+        <v>3.71</v>
+      </c>
+      <c r="Q992">
+        <v>26.98</v>
+      </c>
+      <c r="R992">
+        <v>4.67</v>
+      </c>
+      <c r="S992">
+        <v>16</v>
+      </c>
+      <c r="T992">
+        <v>5</v>
+      </c>
+      <c r="U992">
+        <v>6</v>
+      </c>
+      <c r="V992">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>23</v>
+      </c>
+      <c r="B993" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C993" t="s">
+        <v>20</v>
+      </c>
+      <c r="D993" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E993" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F993" t="s">
+        <v>30</v>
+      </c>
+      <c r="G993" t="s">
+        <v>878</v>
+      </c>
+      <c r="H993">
+        <v>6.36</v>
+      </c>
+      <c r="I993">
+        <v>0.45</v>
+      </c>
+      <c r="J993">
+        <v>5.9</v>
+      </c>
+      <c r="K993">
+        <v>0.19</v>
+      </c>
+      <c r="L993">
+        <v>0.16</v>
+      </c>
+      <c r="M993">
+        <v>0.1</v>
+      </c>
+      <c r="N993">
+        <v>0.01</v>
+      </c>
+      <c r="O993">
+        <v>7</v>
+      </c>
+      <c r="P993">
+        <v>3.77</v>
+      </c>
+      <c r="Q993">
+        <v>30.86</v>
+      </c>
+      <c r="R993">
+        <v>4.63</v>
+      </c>
+      <c r="S993">
+        <v>51</v>
+      </c>
+      <c r="T993">
+        <v>10</v>
+      </c>
+      <c r="U993">
+        <v>21</v>
+      </c>
+      <c r="V993">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>23</v>
+      </c>
+      <c r="B994" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C994" t="s">
+        <v>20</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E994" t="s">
+        <v>25</v>
+      </c>
+      <c r="F994" t="s">
+        <v>29</v>
+      </c>
+      <c r="G994" t="s">
+        <v>879</v>
+      </c>
+      <c r="H994">
+        <v>5.73</v>
+      </c>
+      <c r="I994">
+        <v>0.45</v>
+      </c>
+      <c r="J994">
+        <v>5.27</v>
+      </c>
+      <c r="K994">
+        <v>0.23</v>
+      </c>
+      <c r="L994">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M994">
+        <v>0.09</v>
+      </c>
+      <c r="N994">
+        <v>0</v>
+      </c>
+      <c r="O994">
+        <v>7</v>
+      </c>
+      <c r="P994">
+        <v>4.53</v>
+      </c>
+      <c r="Q994">
+        <v>27.83</v>
+      </c>
+      <c r="R994">
+        <v>4.16</v>
+      </c>
+      <c r="S994">
+        <v>35</v>
+      </c>
+      <c r="T994">
+        <v>1</v>
+      </c>
+      <c r="U994">
+        <v>18</v>
+      </c>
+      <c r="V994">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>23</v>
+      </c>
+      <c r="B995" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C995" t="s">
+        <v>20</v>
+      </c>
+      <c r="D995" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E995" t="s">
+        <v>16</v>
+      </c>
+      <c r="F995" t="s">
+        <v>30</v>
+      </c>
+      <c r="G995" t="s">
+        <v>92</v>
+      </c>
+      <c r="H995">
+        <v>5.33</v>
+      </c>
+      <c r="I995">
+        <v>0.5</v>
+      </c>
+      <c r="J995">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K995">
+        <v>0.33</v>
+      </c>
+      <c r="L995">
+        <v>0.11</v>
+      </c>
+      <c r="M995">
+        <v>0.08</v>
+      </c>
+      <c r="N995">
+        <v>0</v>
+      </c>
+      <c r="O995">
+        <v>5</v>
+      </c>
+      <c r="P995">
+        <v>3.93</v>
+      </c>
+      <c r="Q995">
+        <v>30.01</v>
+      </c>
+      <c r="R995">
+        <v>5.51</v>
+      </c>
+      <c r="S995">
+        <v>51</v>
+      </c>
+      <c r="T995">
+        <v>25</v>
+      </c>
+      <c r="U995">
+        <v>35</v>
+      </c>
+      <c r="V995">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="996" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>23</v>
+      </c>
+      <c r="B996" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C996" t="s">
+        <v>20</v>
+      </c>
+      <c r="D996" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E996" t="s">
+        <v>43</v>
+      </c>
+      <c r="F996" t="s">
+        <v>34</v>
+      </c>
+      <c r="G996" t="s">
+        <v>64</v>
+      </c>
+      <c r="H996">
+        <v>5.85</v>
+      </c>
+      <c r="I996">
+        <v>0.51</v>
+      </c>
+      <c r="J996">
+        <v>5.32</v>
+      </c>
+      <c r="K996">
+        <v>0.3</v>
+      </c>
+      <c r="L996">
+        <v>0.12</v>
+      </c>
+      <c r="M996">
+        <v>0.09</v>
+      </c>
+      <c r="N996">
+        <v>0.01</v>
+      </c>
+      <c r="O996">
+        <v>8</v>
+      </c>
+      <c r="P996">
+        <v>4.28</v>
+      </c>
+      <c r="Q996">
+        <v>32.22</v>
+      </c>
+      <c r="R996">
+        <v>5.31</v>
+      </c>
+      <c r="S996">
+        <v>52</v>
+      </c>
+      <c r="T996">
+        <v>16</v>
+      </c>
+      <c r="U996">
+        <v>43</v>
+      </c>
+      <c r="V996">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="997" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>23</v>
+      </c>
+      <c r="B997" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C997" t="s">
+        <v>20</v>
+      </c>
+      <c r="D997" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E997" t="s">
+        <v>447</v>
+      </c>
+      <c r="F997" t="s">
+        <v>33</v>
+      </c>
+      <c r="G997" t="s">
+        <v>880</v>
+      </c>
+      <c r="H997">
+        <v>4.66</v>
+      </c>
+      <c r="I997">
+        <v>0.11</v>
+      </c>
+      <c r="J997">
+        <v>4.55</v>
+      </c>
+      <c r="K997">
+        <v>0.11</v>
+      </c>
+      <c r="L997">
+        <v>0.01</v>
+      </c>
+      <c r="M997">
+        <v>0</v>
+      </c>
+      <c r="N997">
+        <v>0</v>
+      </c>
+      <c r="O997">
+        <v>0</v>
+      </c>
+      <c r="P997">
+        <v>2.85</v>
+      </c>
+      <c r="Q997">
+        <v>21.49</v>
+      </c>
+      <c r="R997">
+        <v>4.8</v>
+      </c>
+      <c r="S997">
+        <v>12</v>
+      </c>
+      <c r="T997">
+        <v>1</v>
+      </c>
+      <c r="U997">
+        <v>7</v>
+      </c>
+      <c r="V997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>23</v>
+      </c>
+      <c r="B998" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C998" t="s">
+        <v>20</v>
+      </c>
+      <c r="D998" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E998" t="s">
+        <v>52</v>
+      </c>
+      <c r="F998" t="s">
+        <v>33</v>
+      </c>
+      <c r="G998" t="s">
+        <v>116</v>
+      </c>
+      <c r="H998">
+        <v>6</v>
+      </c>
+      <c r="I998">
+        <v>0.36</v>
+      </c>
+      <c r="J998">
+        <v>5.63</v>
+      </c>
+      <c r="K998">
+        <v>0.26</v>
+      </c>
+      <c r="L998">
+        <v>0.1</v>
+      </c>
+      <c r="M998">
+        <v>0.01</v>
+      </c>
+      <c r="N998">
+        <v>0</v>
+      </c>
+      <c r="O998">
+        <v>2</v>
+      </c>
+      <c r="P998">
+        <v>4.08</v>
+      </c>
+      <c r="Q998">
+        <v>26</v>
+      </c>
+      <c r="R998">
+        <v>4.78</v>
+      </c>
+      <c r="S998">
+        <v>31</v>
+      </c>
+      <c r="T998">
+        <v>9</v>
+      </c>
+      <c r="U998">
+        <v>21</v>
+      </c>
+      <c r="V998">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>23</v>
+      </c>
+      <c r="B999" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C999" t="s">
+        <v>20</v>
+      </c>
+      <c r="D999" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E999" t="s">
+        <v>53</v>
+      </c>
+      <c r="F999" t="s">
+        <v>32</v>
+      </c>
+      <c r="G999" t="s">
+        <v>519</v>
+      </c>
+      <c r="H999">
+        <v>6.13</v>
+      </c>
+      <c r="I999">
+        <v>0.26</v>
+      </c>
+      <c r="J999">
+        <v>5.87</v>
+      </c>
+      <c r="K999">
+        <v>0.21</v>
+      </c>
+      <c r="L999">
+        <v>0.06</v>
+      </c>
+      <c r="M999">
+        <v>0</v>
+      </c>
+      <c r="N999">
+        <v>0</v>
+      </c>
+      <c r="O999">
+        <v>0</v>
+      </c>
+      <c r="P999">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Q999">
+        <v>23.72</v>
+      </c>
+      <c r="R999">
+        <v>5.13</v>
+      </c>
+      <c r="S999">
+        <v>29</v>
+      </c>
+      <c r="T999">
+        <v>5</v>
+      </c>
+      <c r="U999">
+        <v>13</v>
+      </c>
+      <c r="V999">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9CB0CC-CB68-9B41-8718-9A605368BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D791A-7364-7D4E-B1D2-6140719084A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5633" uniqueCount="892">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2679,6 +2679,39 @@
   </si>
   <si>
     <t>01:23:00</t>
+  </si>
+  <si>
+    <t>00:08:04</t>
+  </si>
+  <si>
+    <t>01:27:09</t>
+  </si>
+  <si>
+    <t>01:06:18</t>
+  </si>
+  <si>
+    <t>00:20:17</t>
+  </si>
+  <si>
+    <t>01:05:33</t>
+  </si>
+  <si>
+    <t>00:24:36</t>
+  </si>
+  <si>
+    <t>00:18:47</t>
+  </si>
+  <si>
+    <t>00:06:46</t>
+  </si>
+  <si>
+    <t>01:17:57</t>
+  </si>
+  <si>
+    <t>01:26:58</t>
+  </si>
+  <si>
+    <t>N3 J11 VS ASPTT Dijon (Match arrêté 83ème)</t>
   </si>
 </sst>
 </file>
@@ -3074,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V999"/>
+  <dimension ref="A1:V1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1002" sqref="D1002"/>
+    <sheetView tabSelected="1" topLeftCell="A977" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1000" sqref="D1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69682,6 +69715,916 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1000" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1000">
+        <v>0.87</v>
+      </c>
+      <c r="I1000">
+        <v>0.21</v>
+      </c>
+      <c r="J1000">
+        <v>0.65</v>
+      </c>
+      <c r="K1000">
+        <v>0.15</v>
+      </c>
+      <c r="L1000">
+        <v>0.04</v>
+      </c>
+      <c r="M1000">
+        <v>0.03</v>
+      </c>
+      <c r="N1000">
+        <v>0</v>
+      </c>
+      <c r="O1000">
+        <v>2</v>
+      </c>
+      <c r="P1000">
+        <v>6.37</v>
+      </c>
+      <c r="Q1000">
+        <v>26.47</v>
+      </c>
+      <c r="R1000">
+        <v>3.42</v>
+      </c>
+      <c r="S1000">
+        <v>3</v>
+      </c>
+      <c r="T1000">
+        <v>0</v>
+      </c>
+      <c r="U1000">
+        <v>2</v>
+      </c>
+      <c r="V1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>882</v>
+      </c>
+      <c r="H1001">
+        <v>9.43</v>
+      </c>
+      <c r="I1001">
+        <v>1.61</v>
+      </c>
+      <c r="J1001">
+        <v>7.8</v>
+      </c>
+      <c r="K1001">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L1001">
+        <v>0.41</v>
+      </c>
+      <c r="M1001">
+        <v>0.06</v>
+      </c>
+      <c r="N1001">
+        <v>0</v>
+      </c>
+      <c r="O1001">
+        <v>4</v>
+      </c>
+      <c r="P1001">
+        <v>6.44</v>
+      </c>
+      <c r="Q1001">
+        <v>28.59</v>
+      </c>
+      <c r="R1001">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S1001">
+        <v>29</v>
+      </c>
+      <c r="T1001">
+        <v>2</v>
+      </c>
+      <c r="U1001">
+        <v>27</v>
+      </c>
+      <c r="V1001">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>883</v>
+      </c>
+      <c r="H1002">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I1002">
+        <v>1.51</v>
+      </c>
+      <c r="J1002">
+        <v>6.6</v>
+      </c>
+      <c r="K1002">
+        <v>0.97</v>
+      </c>
+      <c r="L1002">
+        <v>0.44</v>
+      </c>
+      <c r="M1002">
+        <v>0.1</v>
+      </c>
+      <c r="N1002">
+        <v>0.02</v>
+      </c>
+      <c r="O1002">
+        <v>7</v>
+      </c>
+      <c r="P1002">
+        <v>7.19</v>
+      </c>
+      <c r="Q1002">
+        <v>31.58</v>
+      </c>
+      <c r="R1002">
+        <v>4.57</v>
+      </c>
+      <c r="S1002">
+        <v>27</v>
+      </c>
+      <c r="T1002">
+        <v>4</v>
+      </c>
+      <c r="U1002">
+        <v>21</v>
+      </c>
+      <c r="V1002">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1003">
+        <v>2.33</v>
+      </c>
+      <c r="I1003">
+        <v>0.66</v>
+      </c>
+      <c r="J1003">
+        <v>1.67</v>
+      </c>
+      <c r="K1003">
+        <v>0.43</v>
+      </c>
+      <c r="L1003">
+        <v>0.16</v>
+      </c>
+      <c r="M1003">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1003">
+        <v>0</v>
+      </c>
+      <c r="O1003">
+        <v>4</v>
+      </c>
+      <c r="P1003">
+        <v>6.86</v>
+      </c>
+      <c r="Q1003">
+        <v>29.98</v>
+      </c>
+      <c r="R1003">
+        <v>4.46</v>
+      </c>
+      <c r="S1003">
+        <v>11</v>
+      </c>
+      <c r="T1003">
+        <v>2</v>
+      </c>
+      <c r="U1003">
+        <v>11</v>
+      </c>
+      <c r="V1003">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>840</v>
+      </c>
+      <c r="H1004">
+        <v>10.97</v>
+      </c>
+      <c r="I1004">
+        <v>2.41</v>
+      </c>
+      <c r="J1004">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="K1004">
+        <v>1.88</v>
+      </c>
+      <c r="L1004">
+        <v>0.5</v>
+      </c>
+      <c r="M1004">
+        <v>0.05</v>
+      </c>
+      <c r="N1004">
+        <v>0</v>
+      </c>
+      <c r="O1004">
+        <v>2</v>
+      </c>
+      <c r="P1004">
+        <v>7.44</v>
+      </c>
+      <c r="Q1004">
+        <v>29.43</v>
+      </c>
+      <c r="R1004">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S1004">
+        <v>34</v>
+      </c>
+      <c r="T1004">
+        <v>3</v>
+      </c>
+      <c r="U1004">
+        <v>25</v>
+      </c>
+      <c r="V1004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1005">
+        <v>6.69</v>
+      </c>
+      <c r="I1005">
+        <v>1.43</v>
+      </c>
+      <c r="J1005">
+        <v>5.24</v>
+      </c>
+      <c r="K1005">
+        <v>0.79</v>
+      </c>
+      <c r="L1005">
+        <v>0.42</v>
+      </c>
+      <c r="M1005">
+        <v>0.19</v>
+      </c>
+      <c r="N1005">
+        <v>0.04</v>
+      </c>
+      <c r="O1005">
+        <v>14</v>
+      </c>
+      <c r="P1005">
+        <v>6.04</v>
+      </c>
+      <c r="Q1005">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="R1005">
+        <v>4.7</v>
+      </c>
+      <c r="S1005">
+        <v>33</v>
+      </c>
+      <c r="T1005">
+        <v>4</v>
+      </c>
+      <c r="U1005">
+        <v>19</v>
+      </c>
+      <c r="V1005">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1006">
+        <v>10.07</v>
+      </c>
+      <c r="I1006">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J1006">
+        <v>7.81</v>
+      </c>
+      <c r="K1006">
+        <v>1.56</v>
+      </c>
+      <c r="L1006">
+        <v>0.63</v>
+      </c>
+      <c r="M1006">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1006">
+        <v>0</v>
+      </c>
+      <c r="O1006">
+        <v>5</v>
+      </c>
+      <c r="P1006">
+        <v>7.49</v>
+      </c>
+      <c r="Q1006">
+        <v>28.71</v>
+      </c>
+      <c r="R1006">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S1006">
+        <v>43</v>
+      </c>
+      <c r="T1006">
+        <v>4</v>
+      </c>
+      <c r="U1006">
+        <v>22</v>
+      </c>
+      <c r="V1006">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>886</v>
+      </c>
+      <c r="H1007">
+        <v>3.34</v>
+      </c>
+      <c r="I1007">
+        <v>0.74</v>
+      </c>
+      <c r="J1007">
+        <v>2.58</v>
+      </c>
+      <c r="K1007">
+        <v>0.5</v>
+      </c>
+      <c r="L1007">
+        <v>0.19</v>
+      </c>
+      <c r="M1007">
+        <v>0.06</v>
+      </c>
+      <c r="N1007">
+        <v>0</v>
+      </c>
+      <c r="O1007">
+        <v>3</v>
+      </c>
+      <c r="P1007">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="Q1007">
+        <v>30.04</v>
+      </c>
+      <c r="R1007">
+        <v>4.29</v>
+      </c>
+      <c r="S1007">
+        <v>15</v>
+      </c>
+      <c r="T1007">
+        <v>3</v>
+      </c>
+      <c r="U1007">
+        <v>11</v>
+      </c>
+      <c r="V1007">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1008">
+        <v>2.14</v>
+      </c>
+      <c r="I1008">
+        <v>0.62</v>
+      </c>
+      <c r="J1008">
+        <v>1.51</v>
+      </c>
+      <c r="K1008">
+        <v>0.31</v>
+      </c>
+      <c r="L1008">
+        <v>0.21</v>
+      </c>
+      <c r="M1008">
+        <v>0.11</v>
+      </c>
+      <c r="N1008">
+        <v>0</v>
+      </c>
+      <c r="O1008">
+        <v>5</v>
+      </c>
+      <c r="P1008">
+        <v>6.73</v>
+      </c>
+      <c r="Q1008">
+        <v>28.48</v>
+      </c>
+      <c r="R1008">
+        <v>4.28</v>
+      </c>
+      <c r="S1008">
+        <v>8</v>
+      </c>
+      <c r="T1008">
+        <v>1</v>
+      </c>
+      <c r="U1008">
+        <v>6</v>
+      </c>
+      <c r="V1008">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>882</v>
+      </c>
+      <c r="H1009">
+        <v>9.32</v>
+      </c>
+      <c r="I1009">
+        <v>2.14</v>
+      </c>
+      <c r="J1009">
+        <v>7.15</v>
+      </c>
+      <c r="K1009">
+        <v>1.37</v>
+      </c>
+      <c r="L1009">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M1009">
+        <v>0.21</v>
+      </c>
+      <c r="N1009">
+        <v>0.02</v>
+      </c>
+      <c r="O1009">
+        <v>16</v>
+      </c>
+      <c r="P1009">
+        <v>6.3</v>
+      </c>
+      <c r="Q1009">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="R1009">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S1009">
+        <v>30</v>
+      </c>
+      <c r="T1009">
+        <v>1</v>
+      </c>
+      <c r="U1009">
+        <v>36</v>
+      </c>
+      <c r="V1009">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>888</v>
+      </c>
+      <c r="H1010">
+        <v>0.7</v>
+      </c>
+      <c r="I1010">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1010">
+        <v>0.63</v>
+      </c>
+      <c r="K1010">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L1010">
+        <v>0</v>
+      </c>
+      <c r="M1010">
+        <v>0</v>
+      </c>
+      <c r="N1010">
+        <v>0</v>
+      </c>
+      <c r="O1010">
+        <v>0</v>
+      </c>
+      <c r="P1010">
+        <v>6.16</v>
+      </c>
+      <c r="Q1010">
+        <v>20.21</v>
+      </c>
+      <c r="R1010">
+        <v>3.28</v>
+      </c>
+      <c r="S1010">
+        <v>1</v>
+      </c>
+      <c r="T1010">
+        <v>0</v>
+      </c>
+      <c r="U1010">
+        <v>1</v>
+      </c>
+      <c r="V1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1011">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I1011">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J1011">
+        <v>7.2</v>
+      </c>
+      <c r="K1011">
+        <v>1.33</v>
+      </c>
+      <c r="L1011">
+        <v>0.71</v>
+      </c>
+      <c r="M1011">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N1011">
+        <v>0.01</v>
+      </c>
+      <c r="O1011">
+        <v>24</v>
+      </c>
+      <c r="P1011">
+        <v>7.26</v>
+      </c>
+      <c r="Q1011">
+        <v>30.6</v>
+      </c>
+      <c r="R1011">
+        <v>4.57</v>
+      </c>
+      <c r="S1011">
+        <v>42</v>
+      </c>
+      <c r="T1011">
+        <v>8</v>
+      </c>
+      <c r="U1011">
+        <v>29</v>
+      </c>
+      <c r="V1011">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>890</v>
+      </c>
+      <c r="H1012">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I1012">
+        <v>1.46</v>
+      </c>
+      <c r="J1012">
+        <v>7.66</v>
+      </c>
+      <c r="K1012">
+        <v>0.84</v>
+      </c>
+      <c r="L1012">
+        <v>0.52</v>
+      </c>
+      <c r="M1012">
+        <v>0.11</v>
+      </c>
+      <c r="N1012">
+        <v>0</v>
+      </c>
+      <c r="O1012">
+        <v>10</v>
+      </c>
+      <c r="P1012">
+        <v>6.19</v>
+      </c>
+      <c r="Q1012">
+        <v>29.76</v>
+      </c>
+      <c r="R1012">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S1012">
+        <v>36</v>
+      </c>
+      <c r="T1012">
+        <v>5</v>
+      </c>
+      <c r="U1012">
+        <v>16</v>
+      </c>
+      <c r="V1012">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1013">
+        <v>7.75</v>
+      </c>
+      <c r="I1013">
+        <v>0.74</v>
+      </c>
+      <c r="J1013">
+        <v>7</v>
+      </c>
+      <c r="K1013">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L1013">
+        <v>0.18</v>
+      </c>
+      <c r="M1013">
+        <v>0.02</v>
+      </c>
+      <c r="N1013">
+        <v>0</v>
+      </c>
+      <c r="O1013">
+        <v>4</v>
+      </c>
+      <c r="P1013">
+        <v>5.75</v>
+      </c>
+      <c r="Q1013">
+        <v>28.15</v>
+      </c>
+      <c r="R1013">
+        <v>4.59</v>
+      </c>
+      <c r="S1013">
+        <v>13</v>
+      </c>
+      <c r="T1013">
+        <v>4</v>
+      </c>
+      <c r="U1013">
+        <v>8</v>
+      </c>
+      <c r="V1013">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D791A-7364-7D4E-B1D2-6140719084A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F55A5B-CA26-414C-8588-19B28E6452A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5633" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="895">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2712,6 +2712,15 @@
   </si>
   <si>
     <t>N3 J11 VS ASPTT Dijon (Match arrêté 83ème)</t>
+  </si>
+  <si>
+    <t>01:37:47</t>
+  </si>
+  <si>
+    <t>01:40:58</t>
+  </si>
+  <si>
+    <t>01:43:51</t>
   </si>
 </sst>
 </file>
@@ -3107,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1013"/>
+  <dimension ref="A1:V1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A977" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1000" sqref="D1000"/>
+    <sheetView tabSelected="1" topLeftCell="A992" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1023" sqref="C1023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70625,6 +70634,414 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1014" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1014" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1014">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I1014">
+        <v>1.42</v>
+      </c>
+      <c r="J1014">
+        <v>7.35</v>
+      </c>
+      <c r="K1014">
+        <v>0.6</v>
+      </c>
+      <c r="L1014">
+        <v>0.75</v>
+      </c>
+      <c r="M1014">
+        <v>0.08</v>
+      </c>
+      <c r="N1014">
+        <v>0</v>
+      </c>
+      <c r="O1014">
+        <v>12</v>
+      </c>
+      <c r="P1014">
+        <v>4.51</v>
+      </c>
+      <c r="Q1014">
+        <v>28.86</v>
+      </c>
+      <c r="R1014">
+        <v>4.91</v>
+      </c>
+      <c r="S1014">
+        <v>41</v>
+      </c>
+      <c r="T1014">
+        <v>15</v>
+      </c>
+      <c r="U1014">
+        <v>35</v>
+      </c>
+      <c r="V1014">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1015" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>892</v>
+      </c>
+      <c r="H1015">
+        <v>8.67</v>
+      </c>
+      <c r="I1015">
+        <v>1.33</v>
+      </c>
+      <c r="J1015">
+        <v>7.33</v>
+      </c>
+      <c r="K1015">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L1015">
+        <v>0.18</v>
+      </c>
+      <c r="M1015">
+        <v>0</v>
+      </c>
+      <c r="N1015">
+        <v>0</v>
+      </c>
+      <c r="O1015">
+        <v>0</v>
+      </c>
+      <c r="P1015">
+        <v>4.83</v>
+      </c>
+      <c r="Q1015">
+        <v>23.8</v>
+      </c>
+      <c r="R1015">
+        <v>5.17</v>
+      </c>
+      <c r="S1015">
+        <v>62</v>
+      </c>
+      <c r="T1015">
+        <v>16</v>
+      </c>
+      <c r="U1015">
+        <v>55</v>
+      </c>
+      <c r="V1015">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1016" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>893</v>
+      </c>
+      <c r="H1016">
+        <v>9.24</v>
+      </c>
+      <c r="I1016">
+        <v>1.2</v>
+      </c>
+      <c r="J1016">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="K1016">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L1016">
+        <v>0.09</v>
+      </c>
+      <c r="M1016">
+        <v>0</v>
+      </c>
+      <c r="N1016">
+        <v>0</v>
+      </c>
+      <c r="O1016">
+        <v>0</v>
+      </c>
+      <c r="P1016">
+        <v>4.63</v>
+      </c>
+      <c r="Q1016">
+        <v>23.08</v>
+      </c>
+      <c r="R1016">
+        <v>4.75</v>
+      </c>
+      <c r="S1016">
+        <v>46</v>
+      </c>
+      <c r="T1016">
+        <v>13</v>
+      </c>
+      <c r="U1016">
+        <v>35</v>
+      </c>
+      <c r="V1016">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1017" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1017">
+        <v>8.75</v>
+      </c>
+      <c r="I1017">
+        <v>1.22</v>
+      </c>
+      <c r="J1017">
+        <v>7.52</v>
+      </c>
+      <c r="K1017">
+        <v>1.19</v>
+      </c>
+      <c r="L1017">
+        <v>0.04</v>
+      </c>
+      <c r="M1017">
+        <v>0</v>
+      </c>
+      <c r="N1017">
+        <v>0</v>
+      </c>
+      <c r="O1017">
+        <v>0</v>
+      </c>
+      <c r="P1017">
+        <v>4.99</v>
+      </c>
+      <c r="Q1017">
+        <v>22.81</v>
+      </c>
+      <c r="R1017">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S1017">
+        <v>40</v>
+      </c>
+      <c r="T1017">
+        <v>6</v>
+      </c>
+      <c r="U1017">
+        <v>24</v>
+      </c>
+      <c r="V1017">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1018" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>860</v>
+      </c>
+      <c r="H1018">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I1018">
+        <v>1.47</v>
+      </c>
+      <c r="J1018">
+        <v>7.23</v>
+      </c>
+      <c r="K1018">
+        <v>0.77</v>
+      </c>
+      <c r="L1018">
+        <v>0.71</v>
+      </c>
+      <c r="M1018">
+        <v>0</v>
+      </c>
+      <c r="N1018">
+        <v>0</v>
+      </c>
+      <c r="O1018">
+        <v>0</v>
+      </c>
+      <c r="P1018">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q1018">
+        <v>23.9</v>
+      </c>
+      <c r="R1018">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S1018">
+        <v>37</v>
+      </c>
+      <c r="T1018">
+        <v>7</v>
+      </c>
+      <c r="U1018">
+        <v>28</v>
+      </c>
+      <c r="V1018">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1019" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1019">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="I1019">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J1019">
+        <v>7.3</v>
+      </c>
+      <c r="K1019">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L1019">
+        <v>0.05</v>
+      </c>
+      <c r="M1019">
+        <v>0</v>
+      </c>
+      <c r="N1019">
+        <v>0</v>
+      </c>
+      <c r="O1019">
+        <v>0</v>
+      </c>
+      <c r="P1019">
+        <v>4.79</v>
+      </c>
+      <c r="Q1019">
+        <v>20.87</v>
+      </c>
+      <c r="R1019">
+        <v>4.55</v>
+      </c>
+      <c r="S1019">
+        <v>39</v>
+      </c>
+      <c r="T1019">
+        <v>4</v>
+      </c>
+      <c r="U1019">
+        <v>16</v>
+      </c>
+      <c r="V1019">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F55A5B-CA26-414C-8588-19B28E6452A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8569357-FAD1-FF46-BBEA-A0DFA4DC256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="901">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2721,6 +2721,24 @@
   </si>
   <si>
     <t>01:43:51</t>
+  </si>
+  <si>
+    <t>01:16:21</t>
+  </si>
+  <si>
+    <t>01:15:16</t>
+  </si>
+  <si>
+    <t>01:15:17</t>
+  </si>
+  <si>
+    <t>01:13:58</t>
+  </si>
+  <si>
+    <t>01:13:18</t>
+  </si>
+  <si>
+    <t>01:16:48</t>
   </si>
 </sst>
 </file>
@@ -3116,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1019"/>
+  <dimension ref="A1:V1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1023" sqref="C1023"/>
+    <sheetView tabSelected="1" topLeftCell="A996" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1036" sqref="C1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70639,7 +70657,7 @@
         <v>23</v>
       </c>
       <c r="B1014" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1014" t="s">
         <v>20</v>
@@ -70707,7 +70725,7 @@
         <v>23</v>
       </c>
       <c r="B1015" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1015" t="s">
         <v>20</v>
@@ -70775,7 +70793,7 @@
         <v>23</v>
       </c>
       <c r="B1016" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1016" t="s">
         <v>20</v>
@@ -70843,7 +70861,7 @@
         <v>23</v>
       </c>
       <c r="B1017" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1017" t="s">
         <v>20</v>
@@ -70911,7 +70929,7 @@
         <v>23</v>
       </c>
       <c r="B1018" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1018" t="s">
         <v>20</v>
@@ -70979,7 +70997,7 @@
         <v>23</v>
       </c>
       <c r="B1019" s="1">
-        <v>46005</v>
+        <v>46007</v>
       </c>
       <c r="C1019" t="s">
         <v>20</v>
@@ -71040,6 +71058,890 @@
       </c>
       <c r="V1019">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1020" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1020">
+        <v>5.56</v>
+      </c>
+      <c r="I1020">
+        <v>0.69</v>
+      </c>
+      <c r="J1020">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K1020">
+        <v>0.47</v>
+      </c>
+      <c r="L1020">
+        <v>0.19</v>
+      </c>
+      <c r="M1020">
+        <v>0.04</v>
+      </c>
+      <c r="N1020">
+        <v>0</v>
+      </c>
+      <c r="O1020">
+        <v>4</v>
+      </c>
+      <c r="P1020">
+        <v>4.25</v>
+      </c>
+      <c r="Q1020">
+        <v>27.93</v>
+      </c>
+      <c r="R1020">
+        <v>4.12</v>
+      </c>
+      <c r="S1020">
+        <v>19</v>
+      </c>
+      <c r="T1020">
+        <v>1</v>
+      </c>
+      <c r="U1020">
+        <v>17</v>
+      </c>
+      <c r="V1020">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1021" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>895</v>
+      </c>
+      <c r="H1021">
+        <v>6.34</v>
+      </c>
+      <c r="I1021">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J1021">
+        <v>5.16</v>
+      </c>
+      <c r="K1021">
+        <v>0.65</v>
+      </c>
+      <c r="L1021">
+        <v>0.37</v>
+      </c>
+      <c r="M1021">
+        <v>0.15</v>
+      </c>
+      <c r="N1021">
+        <v>0</v>
+      </c>
+      <c r="O1021">
+        <v>14</v>
+      </c>
+      <c r="P1021">
+        <v>4.46</v>
+      </c>
+      <c r="Q1021">
+        <v>29.23</v>
+      </c>
+      <c r="R1021">
+        <v>4.78</v>
+      </c>
+      <c r="S1021">
+        <v>38</v>
+      </c>
+      <c r="T1021">
+        <v>19</v>
+      </c>
+      <c r="U1021">
+        <v>30</v>
+      </c>
+      <c r="V1021">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1022" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1022">
+        <v>4.59</v>
+      </c>
+      <c r="I1022">
+        <v>0.33</v>
+      </c>
+      <c r="J1022">
+        <v>4.26</v>
+      </c>
+      <c r="K1022">
+        <v>0.24</v>
+      </c>
+      <c r="L1022">
+        <v>0.09</v>
+      </c>
+      <c r="M1022">
+        <v>0.01</v>
+      </c>
+      <c r="N1022">
+        <v>0</v>
+      </c>
+      <c r="O1022">
+        <v>1</v>
+      </c>
+      <c r="P1022">
+        <v>3.19</v>
+      </c>
+      <c r="Q1022">
+        <v>26.53</v>
+      </c>
+      <c r="R1022">
+        <v>4.38</v>
+      </c>
+      <c r="S1022">
+        <v>20</v>
+      </c>
+      <c r="T1022">
+        <v>7</v>
+      </c>
+      <c r="U1022">
+        <v>22</v>
+      </c>
+      <c r="V1022">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1023" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1023">
+        <v>5.57</v>
+      </c>
+      <c r="I1023">
+        <v>0.67</v>
+      </c>
+      <c r="J1023">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K1023">
+        <v>0.51</v>
+      </c>
+      <c r="L1023">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1023">
+        <v>0.02</v>
+      </c>
+      <c r="N1023">
+        <v>0</v>
+      </c>
+      <c r="O1023">
+        <v>1</v>
+      </c>
+      <c r="P1023">
+        <v>4.38</v>
+      </c>
+      <c r="Q1023">
+        <v>26.27</v>
+      </c>
+      <c r="R1023">
+        <v>4.47</v>
+      </c>
+      <c r="S1023">
+        <v>25</v>
+      </c>
+      <c r="T1023">
+        <v>3</v>
+      </c>
+      <c r="U1023">
+        <v>5</v>
+      </c>
+      <c r="V1023">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1024" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>897</v>
+      </c>
+      <c r="H1024">
+        <v>3.94</v>
+      </c>
+      <c r="I1024">
+        <v>0.39</v>
+      </c>
+      <c r="J1024">
+        <v>3.54</v>
+      </c>
+      <c r="K1024">
+        <v>0.3</v>
+      </c>
+      <c r="L1024">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1024">
+        <v>0.03</v>
+      </c>
+      <c r="N1024">
+        <v>0</v>
+      </c>
+      <c r="O1024">
+        <v>2</v>
+      </c>
+      <c r="P1024">
+        <v>3.05</v>
+      </c>
+      <c r="Q1024">
+        <v>28.34</v>
+      </c>
+      <c r="R1024">
+        <v>4.66</v>
+      </c>
+      <c r="S1024">
+        <v>11</v>
+      </c>
+      <c r="T1024">
+        <v>5</v>
+      </c>
+      <c r="U1024">
+        <v>6</v>
+      </c>
+      <c r="V1024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1025" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1025">
+        <v>5.51</v>
+      </c>
+      <c r="I1025">
+        <v>0.62</v>
+      </c>
+      <c r="J1025">
+        <v>4.88</v>
+      </c>
+      <c r="K1025">
+        <v>0.51</v>
+      </c>
+      <c r="L1025">
+        <v>0.09</v>
+      </c>
+      <c r="M1025">
+        <v>0.03</v>
+      </c>
+      <c r="N1025">
+        <v>0</v>
+      </c>
+      <c r="O1025">
+        <v>3</v>
+      </c>
+      <c r="P1025">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q1025">
+        <v>26.7</v>
+      </c>
+      <c r="R1025">
+        <v>4.13</v>
+      </c>
+      <c r="S1025">
+        <v>25</v>
+      </c>
+      <c r="T1025">
+        <v>3</v>
+      </c>
+      <c r="U1025">
+        <v>17</v>
+      </c>
+      <c r="V1025">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1026" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1026">
+        <v>4.54</v>
+      </c>
+      <c r="I1026">
+        <v>0.35</v>
+      </c>
+      <c r="J1026">
+        <v>4.18</v>
+      </c>
+      <c r="K1026">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L1026">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1026">
+        <v>0</v>
+      </c>
+      <c r="N1026">
+        <v>0</v>
+      </c>
+      <c r="O1026">
+        <v>0</v>
+      </c>
+      <c r="P1026">
+        <v>3.56</v>
+      </c>
+      <c r="Q1026">
+        <v>23.61</v>
+      </c>
+      <c r="R1026">
+        <v>3.94</v>
+      </c>
+      <c r="S1026">
+        <v>16</v>
+      </c>
+      <c r="T1026">
+        <v>0</v>
+      </c>
+      <c r="U1026">
+        <v>8</v>
+      </c>
+      <c r="V1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1027" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>898</v>
+      </c>
+      <c r="H1027">
+        <v>4.82</v>
+      </c>
+      <c r="I1027">
+        <v>0.48</v>
+      </c>
+      <c r="J1027">
+        <v>4.33</v>
+      </c>
+      <c r="K1027">
+        <v>0.37</v>
+      </c>
+      <c r="L1027">
+        <v>0.09</v>
+      </c>
+      <c r="M1027">
+        <v>0.03</v>
+      </c>
+      <c r="N1027">
+        <v>0</v>
+      </c>
+      <c r="O1027">
+        <v>3</v>
+      </c>
+      <c r="P1027">
+        <v>3.69</v>
+      </c>
+      <c r="Q1027">
+        <v>29.74</v>
+      </c>
+      <c r="R1027">
+        <v>5.01</v>
+      </c>
+      <c r="S1027">
+        <v>31</v>
+      </c>
+      <c r="T1027">
+        <v>13</v>
+      </c>
+      <c r="U1027">
+        <v>29</v>
+      </c>
+      <c r="V1027">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1028" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1028">
+        <v>5.51</v>
+      </c>
+      <c r="I1028">
+        <v>0.73</v>
+      </c>
+      <c r="J1028">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K1028">
+        <v>0.37</v>
+      </c>
+      <c r="L1028">
+        <v>0.27</v>
+      </c>
+      <c r="M1028">
+        <v>0.1</v>
+      </c>
+      <c r="N1028">
+        <v>0</v>
+      </c>
+      <c r="O1028">
+        <v>10</v>
+      </c>
+      <c r="P1028">
+        <v>3.94</v>
+      </c>
+      <c r="Q1028">
+        <v>29.86</v>
+      </c>
+      <c r="R1028">
+        <v>5.39</v>
+      </c>
+      <c r="S1028">
+        <v>42</v>
+      </c>
+      <c r="T1028">
+        <v>18</v>
+      </c>
+      <c r="U1028">
+        <v>36</v>
+      </c>
+      <c r="V1028">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1029" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1029">
+        <v>6.18</v>
+      </c>
+      <c r="I1029">
+        <v>1.33</v>
+      </c>
+      <c r="J1029">
+        <v>4.83</v>
+      </c>
+      <c r="K1029">
+        <v>0.75</v>
+      </c>
+      <c r="L1029">
+        <v>0.44</v>
+      </c>
+      <c r="M1029">
+        <v>0.15</v>
+      </c>
+      <c r="N1029">
+        <v>0</v>
+      </c>
+      <c r="O1029">
+        <v>10</v>
+      </c>
+      <c r="P1029">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Q1029">
+        <v>30.13</v>
+      </c>
+      <c r="R1029">
+        <v>5.28</v>
+      </c>
+      <c r="S1029">
+        <v>39</v>
+      </c>
+      <c r="T1029">
+        <v>15</v>
+      </c>
+      <c r="U1029">
+        <v>33</v>
+      </c>
+      <c r="V1029">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1030" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>899</v>
+      </c>
+      <c r="H1030">
+        <v>4.88</v>
+      </c>
+      <c r="I1030">
+        <v>0.34</v>
+      </c>
+      <c r="J1030">
+        <v>4.53</v>
+      </c>
+      <c r="K1030">
+        <v>0.24</v>
+      </c>
+      <c r="L1030">
+        <v>0.09</v>
+      </c>
+      <c r="M1030">
+        <v>0.02</v>
+      </c>
+      <c r="N1030">
+        <v>0</v>
+      </c>
+      <c r="O1030">
+        <v>1</v>
+      </c>
+      <c r="P1030">
+        <v>3.95</v>
+      </c>
+      <c r="Q1030">
+        <v>26.51</v>
+      </c>
+      <c r="R1030">
+        <v>4.29</v>
+      </c>
+      <c r="S1030">
+        <v>16</v>
+      </c>
+      <c r="T1030">
+        <v>4</v>
+      </c>
+      <c r="U1030">
+        <v>8</v>
+      </c>
+      <c r="V1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1031" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1031">
+        <v>4.76</v>
+      </c>
+      <c r="I1031">
+        <v>0.5</v>
+      </c>
+      <c r="J1031">
+        <v>4.25</v>
+      </c>
+      <c r="K1031">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L1031">
+        <v>0.18</v>
+      </c>
+      <c r="M1031">
+        <v>0.04</v>
+      </c>
+      <c r="N1031">
+        <v>0</v>
+      </c>
+      <c r="O1031">
+        <v>4</v>
+      </c>
+      <c r="P1031">
+        <v>3.4</v>
+      </c>
+      <c r="Q1031">
+        <v>27.28</v>
+      </c>
+      <c r="R1031">
+        <v>3.71</v>
+      </c>
+      <c r="S1031">
+        <v>30</v>
+      </c>
+      <c r="T1031">
+        <v>0</v>
+      </c>
+      <c r="U1031">
+        <v>18</v>
+      </c>
+      <c r="V1031">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1032" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1032">
+        <v>6</v>
+      </c>
+      <c r="I1032">
+        <v>0.77</v>
+      </c>
+      <c r="J1032">
+        <v>5.21</v>
+      </c>
+      <c r="K1032">
+        <v>0.52</v>
+      </c>
+      <c r="L1032">
+        <v>0.21</v>
+      </c>
+      <c r="M1032">
+        <v>0.05</v>
+      </c>
+      <c r="N1032">
+        <v>0</v>
+      </c>
+      <c r="O1032">
+        <v>3</v>
+      </c>
+      <c r="P1032">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q1032">
+        <v>28.4</v>
+      </c>
+      <c r="R1032">
+        <v>4.12</v>
+      </c>
+      <c r="S1032">
+        <v>20</v>
+      </c>
+      <c r="T1032">
+        <v>2</v>
+      </c>
+      <c r="U1032">
+        <v>17</v>
+      </c>
+      <c r="V1032">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8569357-FAD1-FF46-BBEA-A0DFA4DC256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D78479-A276-E140-AF04-66802C386BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5774" uniqueCount="905">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2739,6 +2739,18 @@
   </si>
   <si>
     <t>01:16:48</t>
+  </si>
+  <si>
+    <t>00:46:35</t>
+  </si>
+  <si>
+    <t>00:47:48</t>
+  </si>
+  <si>
+    <t>00:50:17</t>
+  </si>
+  <si>
+    <t>01:17:28</t>
   </si>
 </sst>
 </file>
@@ -3134,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1032"/>
+  <dimension ref="A1:V1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A996" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1036" sqref="C1036"/>
+    <sheetView tabSelected="1" topLeftCell="A1011" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1041" sqref="C1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71944,6 +71956,337 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1033" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1033">
+        <v>2.59</v>
+      </c>
+      <c r="I1033">
+        <v>0.02</v>
+      </c>
+      <c r="J1033">
+        <v>2.57</v>
+      </c>
+      <c r="K1033">
+        <v>0.03</v>
+      </c>
+      <c r="L1033">
+        <v>0</v>
+      </c>
+      <c r="M1033">
+        <v>0</v>
+      </c>
+      <c r="N1033">
+        <v>0</v>
+      </c>
+      <c r="O1033">
+        <v>0</v>
+      </c>
+      <c r="P1033">
+        <v>3.22</v>
+      </c>
+      <c r="Q1033">
+        <v>19.43</v>
+      </c>
+      <c r="R1033">
+        <v>4.25</v>
+      </c>
+      <c r="S1033">
+        <v>9</v>
+      </c>
+      <c r="T1033">
+        <v>1</v>
+      </c>
+      <c r="U1033">
+        <v>3</v>
+      </c>
+      <c r="V1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>902</v>
+      </c>
+      <c r="H1034">
+        <v>2.78</v>
+      </c>
+      <c r="I1034">
+        <v>0.16</v>
+      </c>
+      <c r="J1034">
+        <v>2.61</v>
+      </c>
+      <c r="K1034">
+        <v>0.12</v>
+      </c>
+      <c r="L1034">
+        <v>0.05</v>
+      </c>
+      <c r="M1034">
+        <v>0</v>
+      </c>
+      <c r="N1034">
+        <v>0</v>
+      </c>
+      <c r="O1034">
+        <v>0</v>
+      </c>
+      <c r="P1034">
+        <v>2.9</v>
+      </c>
+      <c r="Q1034">
+        <v>23.11</v>
+      </c>
+      <c r="R1034">
+        <v>4.91</v>
+      </c>
+      <c r="S1034">
+        <v>8</v>
+      </c>
+      <c r="T1034">
+        <v>5</v>
+      </c>
+      <c r="U1034">
+        <v>14</v>
+      </c>
+      <c r="V1034">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>903</v>
+      </c>
+      <c r="H1035">
+        <v>3.13</v>
+      </c>
+      <c r="I1035">
+        <v>0.12</v>
+      </c>
+      <c r="J1035">
+        <v>3.02</v>
+      </c>
+      <c r="K1035">
+        <v>0.09</v>
+      </c>
+      <c r="L1035">
+        <v>0.03</v>
+      </c>
+      <c r="M1035">
+        <v>0</v>
+      </c>
+      <c r="N1035">
+        <v>0</v>
+      </c>
+      <c r="O1035">
+        <v>0</v>
+      </c>
+      <c r="P1035">
+        <v>3.64</v>
+      </c>
+      <c r="Q1035">
+        <v>22.89</v>
+      </c>
+      <c r="R1035">
+        <v>4.59</v>
+      </c>
+      <c r="S1035">
+        <v>16</v>
+      </c>
+      <c r="T1035">
+        <v>1</v>
+      </c>
+      <c r="U1035">
+        <v>6</v>
+      </c>
+      <c r="V1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1036">
+        <v>5.31</v>
+      </c>
+      <c r="I1036">
+        <v>0.18</v>
+      </c>
+      <c r="J1036">
+        <v>5.13</v>
+      </c>
+      <c r="K1036">
+        <v>0.16</v>
+      </c>
+      <c r="L1036">
+        <v>0.02</v>
+      </c>
+      <c r="M1036">
+        <v>0</v>
+      </c>
+      <c r="N1036">
+        <v>0</v>
+      </c>
+      <c r="O1036">
+        <v>0</v>
+      </c>
+      <c r="P1036">
+        <v>4.13</v>
+      </c>
+      <c r="Q1036">
+        <v>22.35</v>
+      </c>
+      <c r="R1036">
+        <v>5.03</v>
+      </c>
+      <c r="S1036">
+        <v>18</v>
+      </c>
+      <c r="T1036">
+        <v>6</v>
+      </c>
+      <c r="U1036">
+        <v>11</v>
+      </c>
+      <c r="V1036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>904</v>
+      </c>
+      <c r="H1037">
+        <v>4.63</v>
+      </c>
+      <c r="I1037">
+        <v>0.15</v>
+      </c>
+      <c r="J1037">
+        <v>4.47</v>
+      </c>
+      <c r="K1037">
+        <v>0.13</v>
+      </c>
+      <c r="L1037">
+        <v>0.02</v>
+      </c>
+      <c r="M1037">
+        <v>0</v>
+      </c>
+      <c r="N1037">
+        <v>0</v>
+      </c>
+      <c r="O1037">
+        <v>1</v>
+      </c>
+      <c r="P1037">
+        <v>3.19</v>
+      </c>
+      <c r="Q1037">
+        <v>25.33</v>
+      </c>
+      <c r="R1037">
+        <v>4.62</v>
+      </c>
+      <c r="S1037">
+        <v>27</v>
+      </c>
+      <c r="T1037">
+        <v>5</v>
+      </c>
+      <c r="U1037">
+        <v>17</v>
+      </c>
+      <c r="V1037">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D78479-A276-E140-AF04-66802C386BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BDF831-F727-BC4D-9E3C-9A1C66B99983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5774" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="913">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2751,6 +2751,30 @@
   </si>
   <si>
     <t>01:17:28</t>
+  </si>
+  <si>
+    <t>01:38:41</t>
+  </si>
+  <si>
+    <t>01:27:54</t>
+  </si>
+  <si>
+    <t>01:39:23</t>
+  </si>
+  <si>
+    <t>01:25:14</t>
+  </si>
+  <si>
+    <t>01:26:21</t>
+  </si>
+  <si>
+    <t>01:37:42</t>
+  </si>
+  <si>
+    <t>00:13:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDF 32ème VS Toulouse FC (L1) </t>
   </si>
 </sst>
 </file>
@@ -3146,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1037"/>
+  <dimension ref="A1:V1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1011" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1041" sqref="C1041"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1052" sqref="E1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72287,6 +72311,754 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1038" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>905</v>
+      </c>
+      <c r="H1038">
+        <v>10.82</v>
+      </c>
+      <c r="I1038">
+        <v>1.45</v>
+      </c>
+      <c r="J1038">
+        <v>9.35</v>
+      </c>
+      <c r="K1038">
+        <v>0.95</v>
+      </c>
+      <c r="L1038">
+        <v>0.32</v>
+      </c>
+      <c r="M1038">
+        <v>0.18</v>
+      </c>
+      <c r="N1038">
+        <v>0.01</v>
+      </c>
+      <c r="O1038">
+        <v>11</v>
+      </c>
+      <c r="P1038">
+        <v>6.43</v>
+      </c>
+      <c r="Q1038">
+        <v>31.05</v>
+      </c>
+      <c r="R1038">
+        <v>4.79</v>
+      </c>
+      <c r="S1038">
+        <v>39</v>
+      </c>
+      <c r="T1038">
+        <v>9</v>
+      </c>
+      <c r="U1038">
+        <v>35</v>
+      </c>
+      <c r="V1038">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1039">
+        <v>11.78</v>
+      </c>
+      <c r="I1039">
+        <v>1.64</v>
+      </c>
+      <c r="J1039">
+        <v>10.11</v>
+      </c>
+      <c r="K1039">
+        <v>1.25</v>
+      </c>
+      <c r="L1039">
+        <v>0.38</v>
+      </c>
+      <c r="M1039">
+        <v>0.03</v>
+      </c>
+      <c r="N1039">
+        <v>0</v>
+      </c>
+      <c r="O1039">
+        <v>4</v>
+      </c>
+      <c r="P1039">
+        <v>6.87</v>
+      </c>
+      <c r="Q1039">
+        <v>26.59</v>
+      </c>
+      <c r="R1039">
+        <v>4.79</v>
+      </c>
+      <c r="S1039">
+        <v>46</v>
+      </c>
+      <c r="T1039">
+        <v>12</v>
+      </c>
+      <c r="U1039">
+        <v>46</v>
+      </c>
+      <c r="V1039">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1040">
+        <v>10.84</v>
+      </c>
+      <c r="I1040">
+        <v>2.44</v>
+      </c>
+      <c r="J1040">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="K1040">
+        <v>1.46</v>
+      </c>
+      <c r="L1040">
+        <v>0.74</v>
+      </c>
+      <c r="M1040">
+        <v>0.24</v>
+      </c>
+      <c r="N1040">
+        <v>0.02</v>
+      </c>
+      <c r="O1040">
+        <v>16</v>
+      </c>
+      <c r="P1040">
+        <v>7.21</v>
+      </c>
+      <c r="Q1040">
+        <v>30.89</v>
+      </c>
+      <c r="R1040">
+        <v>4.91</v>
+      </c>
+      <c r="S1040">
+        <v>58</v>
+      </c>
+      <c r="T1040">
+        <v>11</v>
+      </c>
+      <c r="U1040">
+        <v>39</v>
+      </c>
+      <c r="V1040">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1041">
+        <v>9.65</v>
+      </c>
+      <c r="I1041">
+        <v>1.38</v>
+      </c>
+      <c r="J1041">
+        <v>8.25</v>
+      </c>
+      <c r="K1041">
+        <v>1</v>
+      </c>
+      <c r="L1041">
+        <v>0.22</v>
+      </c>
+      <c r="M1041">
+        <v>0.09</v>
+      </c>
+      <c r="N1041">
+        <v>0.08</v>
+      </c>
+      <c r="O1041">
+        <v>7</v>
+      </c>
+      <c r="P1041">
+        <v>6.04</v>
+      </c>
+      <c r="Q1041">
+        <v>32.33</v>
+      </c>
+      <c r="R1041">
+        <v>4.97</v>
+      </c>
+      <c r="S1041">
+        <v>40</v>
+      </c>
+      <c r="T1041">
+        <v>9</v>
+      </c>
+      <c r="U1041">
+        <v>27</v>
+      </c>
+      <c r="V1041">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>907</v>
+      </c>
+      <c r="H1042">
+        <v>10.28</v>
+      </c>
+      <c r="I1042">
+        <v>1.35</v>
+      </c>
+      <c r="J1042">
+        <v>8.91</v>
+      </c>
+      <c r="K1042">
+        <v>0.92</v>
+      </c>
+      <c r="L1042">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M1042">
+        <v>0.13</v>
+      </c>
+      <c r="N1042">
+        <v>0.05</v>
+      </c>
+      <c r="O1042">
+        <v>11</v>
+      </c>
+      <c r="P1042">
+        <v>6.07</v>
+      </c>
+      <c r="Q1042">
+        <v>31.44</v>
+      </c>
+      <c r="R1042">
+        <v>4.47</v>
+      </c>
+      <c r="S1042">
+        <v>41</v>
+      </c>
+      <c r="T1042">
+        <v>5</v>
+      </c>
+      <c r="U1042">
+        <v>30</v>
+      </c>
+      <c r="V1042">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>907</v>
+      </c>
+      <c r="H1043">
+        <v>11.25</v>
+      </c>
+      <c r="I1043">
+        <v>1.96</v>
+      </c>
+      <c r="J1043">
+        <v>9.27</v>
+      </c>
+      <c r="K1043">
+        <v>1.42</v>
+      </c>
+      <c r="L1043">
+        <v>0.48</v>
+      </c>
+      <c r="M1043">
+        <v>0.06</v>
+      </c>
+      <c r="N1043">
+        <v>0.03</v>
+      </c>
+      <c r="O1043">
+        <v>5</v>
+      </c>
+      <c r="P1043">
+        <v>6.76</v>
+      </c>
+      <c r="Q1043">
+        <v>31.59</v>
+      </c>
+      <c r="R1043">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S1043">
+        <v>33</v>
+      </c>
+      <c r="T1043">
+        <v>5</v>
+      </c>
+      <c r="U1043">
+        <v>37</v>
+      </c>
+      <c r="V1043">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>908</v>
+      </c>
+      <c r="H1044">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I1044">
+        <v>1.54</v>
+      </c>
+      <c r="J1044">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="K1044">
+        <v>1.07</v>
+      </c>
+      <c r="L1044">
+        <v>0.39</v>
+      </c>
+      <c r="M1044">
+        <v>0.11</v>
+      </c>
+      <c r="N1044">
+        <v>0</v>
+      </c>
+      <c r="O1044">
+        <v>8</v>
+      </c>
+      <c r="P1044">
+        <v>6.81</v>
+      </c>
+      <c r="Q1044">
+        <v>29.85</v>
+      </c>
+      <c r="R1044">
+        <v>4.57</v>
+      </c>
+      <c r="S1044">
+        <v>26</v>
+      </c>
+      <c r="T1044">
+        <v>4</v>
+      </c>
+      <c r="U1044">
+        <v>16</v>
+      </c>
+      <c r="V1044">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>905</v>
+      </c>
+      <c r="H1045">
+        <v>10.64</v>
+      </c>
+      <c r="I1045">
+        <v>1.63</v>
+      </c>
+      <c r="J1045">
+        <v>8.99</v>
+      </c>
+      <c r="K1045">
+        <v>1.24</v>
+      </c>
+      <c r="L1045">
+        <v>0.3</v>
+      </c>
+      <c r="M1045">
+        <v>0.1</v>
+      </c>
+      <c r="N1045">
+        <v>0</v>
+      </c>
+      <c r="O1045">
+        <v>7</v>
+      </c>
+      <c r="P1045">
+        <v>6.34</v>
+      </c>
+      <c r="Q1045">
+        <v>28.9</v>
+      </c>
+      <c r="R1045">
+        <v>4.5</v>
+      </c>
+      <c r="S1045">
+        <v>35</v>
+      </c>
+      <c r="T1045">
+        <v>4</v>
+      </c>
+      <c r="U1045">
+        <v>42</v>
+      </c>
+      <c r="V1045">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>909</v>
+      </c>
+      <c r="H1046">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I1046">
+        <v>0.83</v>
+      </c>
+      <c r="J1046">
+        <v>7.86</v>
+      </c>
+      <c r="K1046">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L1046">
+        <v>0.16</v>
+      </c>
+      <c r="M1046">
+        <v>0.12</v>
+      </c>
+      <c r="N1046">
+        <v>0.01</v>
+      </c>
+      <c r="O1046">
+        <v>7</v>
+      </c>
+      <c r="P1046">
+        <v>5.75</v>
+      </c>
+      <c r="Q1046">
+        <v>31.36</v>
+      </c>
+      <c r="R1046">
+        <v>4.34</v>
+      </c>
+      <c r="S1046">
+        <v>22</v>
+      </c>
+      <c r="T1046">
+        <v>1</v>
+      </c>
+      <c r="U1046">
+        <v>17</v>
+      </c>
+      <c r="V1046">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>910</v>
+      </c>
+      <c r="H1047">
+        <v>12.13</v>
+      </c>
+      <c r="I1047">
+        <v>2.64</v>
+      </c>
+      <c r="J1047">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="K1047">
+        <v>2.02</v>
+      </c>
+      <c r="L1047">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M1047">
+        <v>0.11</v>
+      </c>
+      <c r="N1047">
+        <v>0</v>
+      </c>
+      <c r="O1047">
+        <v>6</v>
+      </c>
+      <c r="P1047">
+        <v>7.42</v>
+      </c>
+      <c r="Q1047">
+        <v>28.28</v>
+      </c>
+      <c r="R1047">
+        <v>4.24</v>
+      </c>
+      <c r="S1047">
+        <v>19</v>
+      </c>
+      <c r="T1047">
+        <v>1</v>
+      </c>
+      <c r="U1047">
+        <v>38</v>
+      </c>
+      <c r="V1047">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>911</v>
+      </c>
+      <c r="H1048">
+        <v>1.82</v>
+      </c>
+      <c r="I1048">
+        <v>0.53</v>
+      </c>
+      <c r="J1048">
+        <v>1.29</v>
+      </c>
+      <c r="K1048">
+        <v>0.39</v>
+      </c>
+      <c r="L1048">
+        <v>0.12</v>
+      </c>
+      <c r="M1048">
+        <v>0.02</v>
+      </c>
+      <c r="N1048">
+        <v>0</v>
+      </c>
+      <c r="O1048">
+        <v>1</v>
+      </c>
+      <c r="P1048">
+        <v>7.82</v>
+      </c>
+      <c r="Q1048">
+        <v>30.31</v>
+      </c>
+      <c r="R1048">
+        <v>4.08</v>
+      </c>
+      <c r="S1048">
+        <v>10</v>
+      </c>
+      <c r="T1048">
+        <v>1</v>
+      </c>
+      <c r="U1048">
+        <v>1</v>
+      </c>
+      <c r="V1048">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BDF831-F727-BC4D-9E3C-9A1C66B99983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6EC7F-4E5E-0448-8F39-3B1BD78704D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="933">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2775,6 +2775,66 @@
   </si>
   <si>
     <t xml:space="preserve">CDF 32ème VS Toulouse FC (L1) </t>
+  </si>
+  <si>
+    <t>01:03:28</t>
+  </si>
+  <si>
+    <t>Theo Owono</t>
+  </si>
+  <si>
+    <t>00:57:43</t>
+  </si>
+  <si>
+    <t>01:01:01</t>
+  </si>
+  <si>
+    <t>00:58:58</t>
+  </si>
+  <si>
+    <t>00:45:38</t>
+  </si>
+  <si>
+    <t>00:30:43</t>
+  </si>
+  <si>
+    <t>00:46:09</t>
+  </si>
+  <si>
+    <t>00:44:59</t>
+  </si>
+  <si>
+    <t>01:33:19</t>
+  </si>
+  <si>
+    <t>00:46:55</t>
+  </si>
+  <si>
+    <t>00:45:45</t>
+  </si>
+  <si>
+    <t>00:47:33</t>
+  </si>
+  <si>
+    <t>00:46:47</t>
+  </si>
+  <si>
+    <t>Karahali Souare</t>
+  </si>
+  <si>
+    <t>00:47:26</t>
+  </si>
+  <si>
+    <t>01:33:35</t>
+  </si>
+  <si>
+    <t>01:15:19</t>
+  </si>
+  <si>
+    <t>01:03:53</t>
+  </si>
+  <si>
+    <t>Match Amical VS GOAL FC</t>
   </si>
 </sst>
 </file>
@@ -3170,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1048"/>
+  <dimension ref="A1:V1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1017" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1052" sqref="E1052"/>
+    <sheetView tabSelected="1" topLeftCell="A1051" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1078" sqref="C1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73059,6 +73119,1631 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1049" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1049">
+        <v>6.07</v>
+      </c>
+      <c r="I1049">
+        <v>0.95</v>
+      </c>
+      <c r="J1049">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K1049">
+        <v>0.92</v>
+      </c>
+      <c r="L1049">
+        <v>0.04</v>
+      </c>
+      <c r="M1049">
+        <v>0</v>
+      </c>
+      <c r="N1049">
+        <v>0</v>
+      </c>
+      <c r="O1049">
+        <v>0</v>
+      </c>
+      <c r="P1049">
+        <v>5.54</v>
+      </c>
+      <c r="Q1049">
+        <v>22.96</v>
+      </c>
+      <c r="R1049">
+        <v>5.29</v>
+      </c>
+      <c r="S1049">
+        <v>46</v>
+      </c>
+      <c r="T1049">
+        <v>6</v>
+      </c>
+      <c r="U1049">
+        <v>35</v>
+      </c>
+      <c r="V1049">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>913</v>
+      </c>
+      <c r="H1050">
+        <v>6.86</v>
+      </c>
+      <c r="I1050">
+        <v>1.52</v>
+      </c>
+      <c r="J1050">
+        <v>5.33</v>
+      </c>
+      <c r="K1050">
+        <v>1.37</v>
+      </c>
+      <c r="L1050">
+        <v>0.16</v>
+      </c>
+      <c r="M1050">
+        <v>0</v>
+      </c>
+      <c r="N1050">
+        <v>0</v>
+      </c>
+      <c r="O1050">
+        <v>0</v>
+      </c>
+      <c r="P1050">
+        <v>6.39</v>
+      </c>
+      <c r="Q1050">
+        <v>21.95</v>
+      </c>
+      <c r="R1050">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S1050">
+        <v>50</v>
+      </c>
+      <c r="T1050">
+        <v>6</v>
+      </c>
+      <c r="U1050">
+        <v>44</v>
+      </c>
+      <c r="V1050">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1051">
+        <v>6.73</v>
+      </c>
+      <c r="I1051">
+        <v>1.57</v>
+      </c>
+      <c r="J1051">
+        <v>5.15</v>
+      </c>
+      <c r="K1051">
+        <v>1.39</v>
+      </c>
+      <c r="L1051">
+        <v>0.19</v>
+      </c>
+      <c r="M1051">
+        <v>0</v>
+      </c>
+      <c r="N1051">
+        <v>0</v>
+      </c>
+      <c r="O1051">
+        <v>0</v>
+      </c>
+      <c r="P1051">
+        <v>6.37</v>
+      </c>
+      <c r="Q1051">
+        <v>22.65</v>
+      </c>
+      <c r="R1051">
+        <v>4.78</v>
+      </c>
+      <c r="S1051">
+        <v>45</v>
+      </c>
+      <c r="T1051">
+        <v>9</v>
+      </c>
+      <c r="U1051">
+        <v>42</v>
+      </c>
+      <c r="V1051">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>805</v>
+      </c>
+      <c r="H1052">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I1052">
+        <v>0.01</v>
+      </c>
+      <c r="J1052">
+        <v>5.09</v>
+      </c>
+      <c r="K1052">
+        <v>0.01</v>
+      </c>
+      <c r="L1052">
+        <v>0</v>
+      </c>
+      <c r="M1052">
+        <v>0</v>
+      </c>
+      <c r="N1052">
+        <v>0</v>
+      </c>
+      <c r="O1052">
+        <v>0</v>
+      </c>
+      <c r="P1052">
+        <v>4.01</v>
+      </c>
+      <c r="Q1052">
+        <v>15.59</v>
+      </c>
+      <c r="R1052">
+        <v>3.27</v>
+      </c>
+      <c r="S1052">
+        <v>2</v>
+      </c>
+      <c r="T1052">
+        <v>0</v>
+      </c>
+      <c r="U1052">
+        <v>1</v>
+      </c>
+      <c r="V1052">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1053">
+        <v>5.77</v>
+      </c>
+      <c r="I1053">
+        <v>0.88</v>
+      </c>
+      <c r="J1053">
+        <v>4.88</v>
+      </c>
+      <c r="K1053">
+        <v>0.87</v>
+      </c>
+      <c r="L1053">
+        <v>0.01</v>
+      </c>
+      <c r="M1053">
+        <v>0</v>
+      </c>
+      <c r="N1053">
+        <v>0</v>
+      </c>
+      <c r="O1053">
+        <v>0</v>
+      </c>
+      <c r="P1053">
+        <v>5.59</v>
+      </c>
+      <c r="Q1053">
+        <v>23.33</v>
+      </c>
+      <c r="R1053">
+        <v>4.09</v>
+      </c>
+      <c r="S1053">
+        <v>24</v>
+      </c>
+      <c r="T1053">
+        <v>1</v>
+      </c>
+      <c r="U1053">
+        <v>14</v>
+      </c>
+      <c r="V1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1054" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1054" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1054">
+        <v>6.45</v>
+      </c>
+      <c r="I1054">
+        <v>1.18</v>
+      </c>
+      <c r="J1054">
+        <v>5.26</v>
+      </c>
+      <c r="K1054">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L1054">
+        <v>0.04</v>
+      </c>
+      <c r="M1054">
+        <v>0</v>
+      </c>
+      <c r="N1054">
+        <v>0</v>
+      </c>
+      <c r="O1054">
+        <v>0</v>
+      </c>
+      <c r="P1054">
+        <v>6.14</v>
+      </c>
+      <c r="Q1054">
+        <v>20.95</v>
+      </c>
+      <c r="R1054">
+        <v>4.01</v>
+      </c>
+      <c r="S1054">
+        <v>40</v>
+      </c>
+      <c r="T1054">
+        <v>1</v>
+      </c>
+      <c r="U1054">
+        <v>35</v>
+      </c>
+      <c r="V1054">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1055">
+        <v>5.97</v>
+      </c>
+      <c r="I1055">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J1055">
+        <v>4.79</v>
+      </c>
+      <c r="K1055">
+        <v>1.02</v>
+      </c>
+      <c r="L1055">
+        <v>0.16</v>
+      </c>
+      <c r="M1055">
+        <v>0</v>
+      </c>
+      <c r="N1055">
+        <v>0</v>
+      </c>
+      <c r="O1055">
+        <v>0</v>
+      </c>
+      <c r="P1055">
+        <v>5.75</v>
+      </c>
+      <c r="Q1055">
+        <v>23.6</v>
+      </c>
+      <c r="R1055">
+        <v>5.13</v>
+      </c>
+      <c r="S1055">
+        <v>41</v>
+      </c>
+      <c r="T1055">
+        <v>23</v>
+      </c>
+      <c r="U1055">
+        <v>31</v>
+      </c>
+      <c r="V1055">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1056">
+        <v>6.47</v>
+      </c>
+      <c r="I1056">
+        <v>1.48</v>
+      </c>
+      <c r="J1056">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K1056">
+        <v>1.39</v>
+      </c>
+      <c r="L1056">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1056">
+        <v>0</v>
+      </c>
+      <c r="N1056">
+        <v>0</v>
+      </c>
+      <c r="O1056">
+        <v>0</v>
+      </c>
+      <c r="P1056">
+        <v>5.98</v>
+      </c>
+      <c r="Q1056">
+        <v>22.72</v>
+      </c>
+      <c r="R1056">
+        <v>5.54</v>
+      </c>
+      <c r="S1056">
+        <v>98</v>
+      </c>
+      <c r="T1056">
+        <v>19</v>
+      </c>
+      <c r="U1056">
+        <v>46</v>
+      </c>
+      <c r="V1056">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>917</v>
+      </c>
+      <c r="H1057">
+        <v>6.36</v>
+      </c>
+      <c r="I1057">
+        <v>1.18</v>
+      </c>
+      <c r="J1057">
+        <v>5.17</v>
+      </c>
+      <c r="K1057">
+        <v>1.18</v>
+      </c>
+      <c r="L1057">
+        <v>0.01</v>
+      </c>
+      <c r="M1057">
+        <v>0</v>
+      </c>
+      <c r="N1057">
+        <v>0</v>
+      </c>
+      <c r="O1057">
+        <v>0</v>
+      </c>
+      <c r="P1057">
+        <v>6.38</v>
+      </c>
+      <c r="Q1057">
+        <v>22</v>
+      </c>
+      <c r="R1057">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S1057">
+        <v>48</v>
+      </c>
+      <c r="T1057">
+        <v>12</v>
+      </c>
+      <c r="U1057">
+        <v>35</v>
+      </c>
+      <c r="V1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1058">
+        <v>4.21</v>
+      </c>
+      <c r="I1058">
+        <v>0.52</v>
+      </c>
+      <c r="J1058">
+        <v>3.68</v>
+      </c>
+      <c r="K1058">
+        <v>0.35</v>
+      </c>
+      <c r="L1058">
+        <v>0.15</v>
+      </c>
+      <c r="M1058">
+        <v>0.02</v>
+      </c>
+      <c r="N1058">
+        <v>0</v>
+      </c>
+      <c r="O1058">
+        <v>2</v>
+      </c>
+      <c r="P1058">
+        <v>5.57</v>
+      </c>
+      <c r="Q1058">
+        <v>27.88</v>
+      </c>
+      <c r="R1058">
+        <v>3.92</v>
+      </c>
+      <c r="S1058">
+        <v>9</v>
+      </c>
+      <c r="T1058">
+        <v>0</v>
+      </c>
+      <c r="U1058">
+        <v>11</v>
+      </c>
+      <c r="V1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1059">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I1059">
+        <v>1</v>
+      </c>
+      <c r="J1059">
+        <v>3.26</v>
+      </c>
+      <c r="K1059">
+        <v>0.64</v>
+      </c>
+      <c r="L1059">
+        <v>0.26</v>
+      </c>
+      <c r="M1059">
+        <v>0.11</v>
+      </c>
+      <c r="N1059">
+        <v>0</v>
+      </c>
+      <c r="O1059">
+        <v>6</v>
+      </c>
+      <c r="P1059">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="Q1059">
+        <v>29.26</v>
+      </c>
+      <c r="R1059">
+        <v>4.42</v>
+      </c>
+      <c r="S1059">
+        <v>25</v>
+      </c>
+      <c r="T1059">
+        <v>7</v>
+      </c>
+      <c r="U1059">
+        <v>12</v>
+      </c>
+      <c r="V1059">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1060">
+        <v>5.16</v>
+      </c>
+      <c r="I1060">
+        <v>0.47</v>
+      </c>
+      <c r="J1060">
+        <v>4.67</v>
+      </c>
+      <c r="K1060">
+        <v>0.42</v>
+      </c>
+      <c r="L1060">
+        <v>0.06</v>
+      </c>
+      <c r="M1060">
+        <v>0</v>
+      </c>
+      <c r="N1060">
+        <v>0</v>
+      </c>
+      <c r="O1060">
+        <v>0</v>
+      </c>
+      <c r="P1060">
+        <v>6.8</v>
+      </c>
+      <c r="Q1060">
+        <v>23.09</v>
+      </c>
+      <c r="R1060">
+        <v>3.82</v>
+      </c>
+      <c r="S1060">
+        <v>17</v>
+      </c>
+      <c r="T1060">
+        <v>0</v>
+      </c>
+      <c r="U1060">
+        <v>12</v>
+      </c>
+      <c r="V1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>921</v>
+      </c>
+      <c r="H1061">
+        <v>5.01</v>
+      </c>
+      <c r="I1061">
+        <v>0.81</v>
+      </c>
+      <c r="J1061">
+        <v>4.18</v>
+      </c>
+      <c r="K1061">
+        <v>0.5</v>
+      </c>
+      <c r="L1061">
+        <v>0.25</v>
+      </c>
+      <c r="M1061">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1061">
+        <v>0</v>
+      </c>
+      <c r="O1061">
+        <v>6</v>
+      </c>
+      <c r="P1061">
+        <v>6.67</v>
+      </c>
+      <c r="Q1061">
+        <v>27.91</v>
+      </c>
+      <c r="R1061">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S1061">
+        <v>23</v>
+      </c>
+      <c r="T1061">
+        <v>4</v>
+      </c>
+      <c r="U1061">
+        <v>18</v>
+      </c>
+      <c r="V1061">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1062">
+        <v>5.7</v>
+      </c>
+      <c r="I1062">
+        <v>1.26</v>
+      </c>
+      <c r="J1062">
+        <v>4.42</v>
+      </c>
+      <c r="K1062">
+        <v>0.74</v>
+      </c>
+      <c r="L1062">
+        <v>0.38</v>
+      </c>
+      <c r="M1062">
+        <v>0.13</v>
+      </c>
+      <c r="N1062">
+        <v>0.02</v>
+      </c>
+      <c r="O1062">
+        <v>9</v>
+      </c>
+      <c r="P1062">
+        <v>7.37</v>
+      </c>
+      <c r="Q1062">
+        <v>31.02</v>
+      </c>
+      <c r="R1062">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S1062">
+        <v>21</v>
+      </c>
+      <c r="T1062">
+        <v>7</v>
+      </c>
+      <c r="U1062">
+        <v>26</v>
+      </c>
+      <c r="V1062">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1063">
+        <v>6.3</v>
+      </c>
+      <c r="I1063">
+        <v>1.08</v>
+      </c>
+      <c r="J1063">
+        <v>5.22</v>
+      </c>
+      <c r="K1063">
+        <v>0.99</v>
+      </c>
+      <c r="L1063">
+        <v>0.09</v>
+      </c>
+      <c r="M1063">
+        <v>0</v>
+      </c>
+      <c r="N1063">
+        <v>0</v>
+      </c>
+      <c r="O1063">
+        <v>0</v>
+      </c>
+      <c r="P1063">
+        <v>8.26</v>
+      </c>
+      <c r="Q1063">
+        <v>23.18</v>
+      </c>
+      <c r="R1063">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S1063">
+        <v>11</v>
+      </c>
+      <c r="T1063">
+        <v>2</v>
+      </c>
+      <c r="U1063">
+        <v>18</v>
+      </c>
+      <c r="V1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1064">
+        <v>11.33</v>
+      </c>
+      <c r="I1064">
+        <v>1.52</v>
+      </c>
+      <c r="J1064">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="K1064">
+        <v>1.3</v>
+      </c>
+      <c r="L1064">
+        <v>0.21</v>
+      </c>
+      <c r="M1064">
+        <v>0.03</v>
+      </c>
+      <c r="N1064">
+        <v>0</v>
+      </c>
+      <c r="O1064">
+        <v>2</v>
+      </c>
+      <c r="P1064">
+        <v>7.14</v>
+      </c>
+      <c r="Q1064">
+        <v>27.92</v>
+      </c>
+      <c r="R1064">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S1064">
+        <v>31</v>
+      </c>
+      <c r="T1064">
+        <v>4</v>
+      </c>
+      <c r="U1064">
+        <v>17</v>
+      </c>
+      <c r="V1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>923</v>
+      </c>
+      <c r="H1065">
+        <v>6.24</v>
+      </c>
+      <c r="I1065">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J1065">
+        <v>5.08</v>
+      </c>
+      <c r="K1065">
+        <v>0.83</v>
+      </c>
+      <c r="L1065">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M1065">
+        <v>0.04</v>
+      </c>
+      <c r="N1065">
+        <v>0</v>
+      </c>
+      <c r="O1065">
+        <v>4</v>
+      </c>
+      <c r="P1065">
+        <v>7.57</v>
+      </c>
+      <c r="Q1065">
+        <v>26.8</v>
+      </c>
+      <c r="R1065">
+        <v>3.99</v>
+      </c>
+      <c r="S1065">
+        <v>33</v>
+      </c>
+      <c r="T1065">
+        <v>0</v>
+      </c>
+      <c r="U1065">
+        <v>29</v>
+      </c>
+      <c r="V1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1066" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1066">
+        <v>7.22</v>
+      </c>
+      <c r="I1066">
+        <v>0.81</v>
+      </c>
+      <c r="J1066">
+        <v>6.4</v>
+      </c>
+      <c r="K1066">
+        <v>0.65</v>
+      </c>
+      <c r="L1066">
+        <v>0.13</v>
+      </c>
+      <c r="M1066">
+        <v>0.04</v>
+      </c>
+      <c r="N1066">
+        <v>0</v>
+      </c>
+      <c r="O1066">
+        <v>3</v>
+      </c>
+      <c r="P1066">
+        <v>6.25</v>
+      </c>
+      <c r="Q1066">
+        <v>28.88</v>
+      </c>
+      <c r="R1066">
+        <v>4.47</v>
+      </c>
+      <c r="S1066">
+        <v>27</v>
+      </c>
+      <c r="T1066">
+        <v>4</v>
+      </c>
+      <c r="U1066">
+        <v>25</v>
+      </c>
+      <c r="V1066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1067" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>925</v>
+      </c>
+      <c r="H1067">
+        <v>5.14</v>
+      </c>
+      <c r="I1067">
+        <v>0.93</v>
+      </c>
+      <c r="J1067">
+        <v>4.2</v>
+      </c>
+      <c r="K1067">
+        <v>0.6</v>
+      </c>
+      <c r="L1067">
+        <v>0.23</v>
+      </c>
+      <c r="M1067">
+        <v>0.11</v>
+      </c>
+      <c r="N1067">
+        <v>0</v>
+      </c>
+      <c r="O1067">
+        <v>5</v>
+      </c>
+      <c r="P1067">
+        <v>6.49</v>
+      </c>
+      <c r="Q1067">
+        <v>30</v>
+      </c>
+      <c r="R1067">
+        <v>4.38</v>
+      </c>
+      <c r="S1067">
+        <v>16</v>
+      </c>
+      <c r="T1067">
+        <v>3</v>
+      </c>
+      <c r="U1067">
+        <v>18</v>
+      </c>
+      <c r="V1067">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>925</v>
+      </c>
+      <c r="H1068">
+        <v>5.68</v>
+      </c>
+      <c r="I1068">
+        <v>1.22</v>
+      </c>
+      <c r="J1068">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K1068">
+        <v>0.81</v>
+      </c>
+      <c r="L1068">
+        <v>0.35</v>
+      </c>
+      <c r="M1068">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1068">
+        <v>0</v>
+      </c>
+      <c r="O1068">
+        <v>7</v>
+      </c>
+      <c r="P1068">
+        <v>7.14</v>
+      </c>
+      <c r="Q1068">
+        <v>28.25</v>
+      </c>
+      <c r="R1068">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S1068">
+        <v>29</v>
+      </c>
+      <c r="T1068">
+        <v>1</v>
+      </c>
+      <c r="U1068">
+        <v>24</v>
+      </c>
+      <c r="V1068">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>926</v>
+      </c>
+      <c r="H1069">
+        <v>4.93</v>
+      </c>
+      <c r="I1069">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J1069">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K1069">
+        <v>0.43</v>
+      </c>
+      <c r="L1069">
+        <v>0.12</v>
+      </c>
+      <c r="M1069">
+        <v>0.04</v>
+      </c>
+      <c r="N1069">
+        <v>0</v>
+      </c>
+      <c r="O1069">
+        <v>3</v>
+      </c>
+      <c r="P1069">
+        <v>6.36</v>
+      </c>
+      <c r="Q1069">
+        <v>26.83</v>
+      </c>
+      <c r="R1069">
+        <v>4.25</v>
+      </c>
+      <c r="S1069">
+        <v>18</v>
+      </c>
+      <c r="T1069">
+        <v>1</v>
+      </c>
+      <c r="U1069">
+        <v>20</v>
+      </c>
+      <c r="V1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1070" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>928</v>
+      </c>
+      <c r="H1070">
+        <v>5.27</v>
+      </c>
+      <c r="I1070">
+        <v>0.93</v>
+      </c>
+      <c r="J1070">
+        <v>4.34</v>
+      </c>
+      <c r="K1070">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L1070">
+        <v>0.24</v>
+      </c>
+      <c r="M1070">
+        <v>0.12</v>
+      </c>
+      <c r="N1070">
+        <v>0.01</v>
+      </c>
+      <c r="O1070">
+        <v>9</v>
+      </c>
+      <c r="P1070">
+        <v>6.68</v>
+      </c>
+      <c r="Q1070">
+        <v>30.39</v>
+      </c>
+      <c r="R1070">
+        <v>4.59</v>
+      </c>
+      <c r="S1070">
+        <v>32</v>
+      </c>
+      <c r="T1070">
+        <v>3</v>
+      </c>
+      <c r="U1070">
+        <v>28</v>
+      </c>
+      <c r="V1070">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>929</v>
+      </c>
+      <c r="H1071">
+        <v>10.76</v>
+      </c>
+      <c r="I1071">
+        <v>1.99</v>
+      </c>
+      <c r="J1071">
+        <v>8.75</v>
+      </c>
+      <c r="K1071">
+        <v>1.29</v>
+      </c>
+      <c r="L1071">
+        <v>0.64</v>
+      </c>
+      <c r="M1071">
+        <v>0.08</v>
+      </c>
+      <c r="N1071">
+        <v>0</v>
+      </c>
+      <c r="O1071">
+        <v>5</v>
+      </c>
+      <c r="P1071">
+        <v>6.58</v>
+      </c>
+      <c r="Q1071">
+        <v>30.15</v>
+      </c>
+      <c r="R1071">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1071">
+        <v>55</v>
+      </c>
+      <c r="T1071">
+        <v>8</v>
+      </c>
+      <c r="U1071">
+        <v>58</v>
+      </c>
+      <c r="V1071">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>930</v>
+      </c>
+      <c r="H1072">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="I1072">
+        <v>1.02</v>
+      </c>
+      <c r="J1072">
+        <v>7.5</v>
+      </c>
+      <c r="K1072">
+        <v>0.77</v>
+      </c>
+      <c r="L1072">
+        <v>0.2</v>
+      </c>
+      <c r="M1072">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1072">
+        <v>0</v>
+      </c>
+      <c r="O1072">
+        <v>3</v>
+      </c>
+      <c r="P1072">
+        <v>6.13</v>
+      </c>
+      <c r="Q1072">
+        <v>29.38</v>
+      </c>
+      <c r="R1072">
+        <v>4.2</v>
+      </c>
+      <c r="S1072">
+        <v>19</v>
+      </c>
+      <c r="T1072">
+        <v>2</v>
+      </c>
+      <c r="U1072">
+        <v>16</v>
+      </c>
+      <c r="V1072">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>46025</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1073">
+        <v>6.31</v>
+      </c>
+      <c r="I1073">
+        <v>0.76</v>
+      </c>
+      <c r="J1073">
+        <v>5.54</v>
+      </c>
+      <c r="K1073">
+        <v>0.65</v>
+      </c>
+      <c r="L1073">
+        <v>0.11</v>
+      </c>
+      <c r="M1073">
+        <v>0.01</v>
+      </c>
+      <c r="N1073">
+        <v>0</v>
+      </c>
+      <c r="O1073">
+        <v>1</v>
+      </c>
+      <c r="P1073">
+        <v>5.95</v>
+      </c>
+      <c r="Q1073">
+        <v>25.79</v>
+      </c>
+      <c r="R1073">
+        <v>5.13</v>
+      </c>
+      <c r="S1073">
+        <v>19</v>
+      </c>
+      <c r="T1073">
+        <v>5</v>
+      </c>
+      <c r="U1073">
+        <v>11</v>
+      </c>
+      <c r="V1073">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6EC7F-4E5E-0448-8F39-3B1BD78704D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113958C0-1D30-F54F-9B78-12843538BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="956">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2835,6 +2835,75 @@
   </si>
   <si>
     <t>Match Amical VS GOAL FC</t>
+  </si>
+  <si>
+    <t>01:14:21</t>
+  </si>
+  <si>
+    <t>01:16:10</t>
+  </si>
+  <si>
+    <t>01:13:16</t>
+  </si>
+  <si>
+    <t>01:13:44</t>
+  </si>
+  <si>
+    <t>01:15:41</t>
+  </si>
+  <si>
+    <t>00:50:49</t>
+  </si>
+  <si>
+    <t>01:14:44</t>
+  </si>
+  <si>
+    <t>01:31:23</t>
+  </si>
+  <si>
+    <t>01:31:54</t>
+  </si>
+  <si>
+    <t>01:31:39</t>
+  </si>
+  <si>
+    <t>01:32:25</t>
+  </si>
+  <si>
+    <t>01:30:01</t>
+  </si>
+  <si>
+    <t>01:26:01</t>
+  </si>
+  <si>
+    <t>01:13:43</t>
+  </si>
+  <si>
+    <t>00:44:17</t>
+  </si>
+  <si>
+    <t>01:16:23</t>
+  </si>
+  <si>
+    <t>00:42:30</t>
+  </si>
+  <si>
+    <t>01:15:22</t>
+  </si>
+  <si>
+    <t>01:13:05</t>
+  </si>
+  <si>
+    <t>01:13:14</t>
+  </si>
+  <si>
+    <t>00:44:25</t>
+  </si>
+  <si>
+    <t>00:33:00</t>
+  </si>
+  <si>
+    <t>00:43:08</t>
   </si>
 </sst>
 </file>
@@ -3230,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1073"/>
+  <dimension ref="A1:V1103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1051" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1078" sqref="C1078"/>
+    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1090" sqref="E1090:V1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74744,6 +74813,2046 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1074" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1074" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1074">
+        <v>7.47</v>
+      </c>
+      <c r="I1074">
+        <v>2.21</v>
+      </c>
+      <c r="J1074">
+        <v>5.24</v>
+      </c>
+      <c r="K1074">
+        <v>1.05</v>
+      </c>
+      <c r="L1074">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M1074">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1074">
+        <v>0</v>
+      </c>
+      <c r="O1074">
+        <v>5</v>
+      </c>
+      <c r="P1074">
+        <v>6.02</v>
+      </c>
+      <c r="Q1074">
+        <v>27.34</v>
+      </c>
+      <c r="R1074">
+        <v>4.58</v>
+      </c>
+      <c r="S1074">
+        <v>33</v>
+      </c>
+      <c r="T1074">
+        <v>7</v>
+      </c>
+      <c r="U1074">
+        <v>26</v>
+      </c>
+      <c r="V1074">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1075" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>934</v>
+      </c>
+      <c r="H1075">
+        <v>7.68</v>
+      </c>
+      <c r="I1075">
+        <v>2.36</v>
+      </c>
+      <c r="J1075">
+        <v>5.3</v>
+      </c>
+      <c r="K1075">
+        <v>0.91</v>
+      </c>
+      <c r="L1075">
+        <v>1.26</v>
+      </c>
+      <c r="M1075">
+        <v>0.2</v>
+      </c>
+      <c r="N1075">
+        <v>0</v>
+      </c>
+      <c r="O1075">
+        <v>8</v>
+      </c>
+      <c r="P1075">
+        <v>5.73</v>
+      </c>
+      <c r="Q1075">
+        <v>29.99</v>
+      </c>
+      <c r="R1075">
+        <v>5.19</v>
+      </c>
+      <c r="S1075">
+        <v>47</v>
+      </c>
+      <c r="T1075">
+        <v>24</v>
+      </c>
+      <c r="U1075">
+        <v>40</v>
+      </c>
+      <c r="V1075">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1076" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>935</v>
+      </c>
+      <c r="H1076">
+        <v>6.97</v>
+      </c>
+      <c r="I1076">
+        <v>2.12</v>
+      </c>
+      <c r="J1076">
+        <v>4.84</v>
+      </c>
+      <c r="K1076">
+        <v>1.26</v>
+      </c>
+      <c r="L1076">
+        <v>0.88</v>
+      </c>
+      <c r="M1076">
+        <v>0</v>
+      </c>
+      <c r="N1076">
+        <v>0</v>
+      </c>
+      <c r="O1076">
+        <v>0</v>
+      </c>
+      <c r="P1076">
+        <v>5.38</v>
+      </c>
+      <c r="Q1076">
+        <v>24.76</v>
+      </c>
+      <c r="R1076">
+        <v>4.76</v>
+      </c>
+      <c r="S1076">
+        <v>45</v>
+      </c>
+      <c r="T1076">
+        <v>5</v>
+      </c>
+      <c r="U1076">
+        <v>19</v>
+      </c>
+      <c r="V1076">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1077" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1077">
+        <v>7.15</v>
+      </c>
+      <c r="I1077">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J1077">
+        <v>4.91</v>
+      </c>
+      <c r="K1077">
+        <v>1.41</v>
+      </c>
+      <c r="L1077">
+        <v>0.83</v>
+      </c>
+      <c r="M1077">
+        <v>0</v>
+      </c>
+      <c r="N1077">
+        <v>0</v>
+      </c>
+      <c r="O1077">
+        <v>0</v>
+      </c>
+      <c r="P1077">
+        <v>5.54</v>
+      </c>
+      <c r="Q1077">
+        <v>24.84</v>
+      </c>
+      <c r="R1077">
+        <v>5.93</v>
+      </c>
+      <c r="S1077">
+        <v>84</v>
+      </c>
+      <c r="T1077">
+        <v>45</v>
+      </c>
+      <c r="U1077">
+        <v>61</v>
+      </c>
+      <c r="V1077">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>934</v>
+      </c>
+      <c r="H1078">
+        <v>7.29</v>
+      </c>
+      <c r="I1078">
+        <v>2.06</v>
+      </c>
+      <c r="J1078">
+        <v>5.22</v>
+      </c>
+      <c r="K1078">
+        <v>1.45</v>
+      </c>
+      <c r="L1078">
+        <v>0.62</v>
+      </c>
+      <c r="M1078">
+        <v>0</v>
+      </c>
+      <c r="N1078">
+        <v>0</v>
+      </c>
+      <c r="O1078">
+        <v>0</v>
+      </c>
+      <c r="P1078">
+        <v>5.66</v>
+      </c>
+      <c r="Q1078">
+        <v>22.9</v>
+      </c>
+      <c r="R1078">
+        <v>4.43</v>
+      </c>
+      <c r="S1078">
+        <v>31</v>
+      </c>
+      <c r="T1078">
+        <v>4</v>
+      </c>
+      <c r="U1078">
+        <v>6</v>
+      </c>
+      <c r="V1078">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>936</v>
+      </c>
+      <c r="H1079">
+        <v>7.03</v>
+      </c>
+      <c r="I1079">
+        <v>1.97</v>
+      </c>
+      <c r="J1079">
+        <v>5.04</v>
+      </c>
+      <c r="K1079">
+        <v>1.32</v>
+      </c>
+      <c r="L1079">
+        <v>0.66</v>
+      </c>
+      <c r="M1079">
+        <v>0.01</v>
+      </c>
+      <c r="N1079">
+        <v>0</v>
+      </c>
+      <c r="O1079">
+        <v>4</v>
+      </c>
+      <c r="P1079">
+        <v>5.21</v>
+      </c>
+      <c r="Q1079">
+        <v>25.51</v>
+      </c>
+      <c r="R1079">
+        <v>5.3</v>
+      </c>
+      <c r="S1079">
+        <v>42</v>
+      </c>
+      <c r="T1079">
+        <v>15</v>
+      </c>
+      <c r="U1079">
+        <v>23</v>
+      </c>
+      <c r="V1079">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1080" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>937</v>
+      </c>
+      <c r="H1080">
+        <v>7.32</v>
+      </c>
+      <c r="I1080">
+        <v>2.11</v>
+      </c>
+      <c r="J1080">
+        <v>5.21</v>
+      </c>
+      <c r="K1080">
+        <v>1.23</v>
+      </c>
+      <c r="L1080">
+        <v>0.88</v>
+      </c>
+      <c r="M1080">
+        <v>0</v>
+      </c>
+      <c r="N1080">
+        <v>0</v>
+      </c>
+      <c r="O1080">
+        <v>0</v>
+      </c>
+      <c r="P1080">
+        <v>5.7</v>
+      </c>
+      <c r="Q1080">
+        <v>23.1</v>
+      </c>
+      <c r="R1080">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="S1080">
+        <v>30</v>
+      </c>
+      <c r="T1080">
+        <v>8</v>
+      </c>
+      <c r="U1080">
+        <v>11</v>
+      </c>
+      <c r="V1080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>938</v>
+      </c>
+      <c r="H1081">
+        <v>5.29</v>
+      </c>
+      <c r="I1081">
+        <v>2.12</v>
+      </c>
+      <c r="J1081">
+        <v>3.16</v>
+      </c>
+      <c r="K1081">
+        <v>1.37</v>
+      </c>
+      <c r="L1081">
+        <v>0.76</v>
+      </c>
+      <c r="M1081">
+        <v>0</v>
+      </c>
+      <c r="N1081">
+        <v>0</v>
+      </c>
+      <c r="O1081">
+        <v>0</v>
+      </c>
+      <c r="P1081">
+        <v>6.21</v>
+      </c>
+      <c r="Q1081">
+        <v>22.55</v>
+      </c>
+      <c r="R1081">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S1081">
+        <v>27</v>
+      </c>
+      <c r="T1081">
+        <v>2</v>
+      </c>
+      <c r="U1081">
+        <v>13</v>
+      </c>
+      <c r="V1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>939</v>
+      </c>
+      <c r="H1082">
+        <v>6.6</v>
+      </c>
+      <c r="I1082">
+        <v>1.83</v>
+      </c>
+      <c r="J1082">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K1082">
+        <v>1.25</v>
+      </c>
+      <c r="L1082">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M1082">
+        <v>0</v>
+      </c>
+      <c r="N1082">
+        <v>0</v>
+      </c>
+      <c r="O1082">
+        <v>0</v>
+      </c>
+      <c r="P1082">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q1082">
+        <v>24.03</v>
+      </c>
+      <c r="R1082">
+        <v>4.3</v>
+      </c>
+      <c r="S1082">
+        <v>15</v>
+      </c>
+      <c r="T1082">
+        <v>4</v>
+      </c>
+      <c r="U1082">
+        <v>11</v>
+      </c>
+      <c r="V1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1083">
+        <v>7.78</v>
+      </c>
+      <c r="I1083">
+        <v>0.81</v>
+      </c>
+      <c r="J1083">
+        <v>6.95</v>
+      </c>
+      <c r="K1083">
+        <v>0.64</v>
+      </c>
+      <c r="L1083">
+        <v>0.16</v>
+      </c>
+      <c r="M1083">
+        <v>0.04</v>
+      </c>
+      <c r="N1083">
+        <v>0</v>
+      </c>
+      <c r="O1083">
+        <v>3</v>
+      </c>
+      <c r="P1083">
+        <v>4.72</v>
+      </c>
+      <c r="Q1083">
+        <v>28.76</v>
+      </c>
+      <c r="R1083">
+        <v>5.05</v>
+      </c>
+      <c r="S1083">
+        <v>60</v>
+      </c>
+      <c r="T1083">
+        <v>11</v>
+      </c>
+      <c r="U1083">
+        <v>42</v>
+      </c>
+      <c r="V1083">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1084">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I1084">
+        <v>0.81</v>
+      </c>
+      <c r="J1084">
+        <v>7.41</v>
+      </c>
+      <c r="K1084">
+        <v>0.71</v>
+      </c>
+      <c r="L1084">
+        <v>0.09</v>
+      </c>
+      <c r="M1084">
+        <v>0.01</v>
+      </c>
+      <c r="N1084">
+        <v>0</v>
+      </c>
+      <c r="O1084">
+        <v>1</v>
+      </c>
+      <c r="P1084">
+        <v>5.32</v>
+      </c>
+      <c r="Q1084">
+        <v>25.81</v>
+      </c>
+      <c r="R1084">
+        <v>4.41</v>
+      </c>
+      <c r="S1084">
+        <v>32</v>
+      </c>
+      <c r="T1084">
+        <v>4</v>
+      </c>
+      <c r="U1084">
+        <v>21</v>
+      </c>
+      <c r="V1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>941</v>
+      </c>
+      <c r="H1085">
+        <v>7.26</v>
+      </c>
+      <c r="I1085">
+        <v>0.7</v>
+      </c>
+      <c r="J1085">
+        <v>6.55</v>
+      </c>
+      <c r="K1085">
+        <v>0.59</v>
+      </c>
+      <c r="L1085">
+        <v>0.12</v>
+      </c>
+      <c r="M1085">
+        <v>0</v>
+      </c>
+      <c r="N1085">
+        <v>0</v>
+      </c>
+      <c r="O1085">
+        <v>0</v>
+      </c>
+      <c r="P1085">
+        <v>4.7</v>
+      </c>
+      <c r="Q1085">
+        <v>24.8</v>
+      </c>
+      <c r="R1085">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S1085">
+        <v>21</v>
+      </c>
+      <c r="T1085">
+        <v>1</v>
+      </c>
+      <c r="U1085">
+        <v>21</v>
+      </c>
+      <c r="V1085">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>942</v>
+      </c>
+      <c r="H1086">
+        <v>6.99</v>
+      </c>
+      <c r="I1086">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J1086">
+        <v>6.42</v>
+      </c>
+      <c r="K1086">
+        <v>0.4</v>
+      </c>
+      <c r="L1086">
+        <v>0.15</v>
+      </c>
+      <c r="M1086">
+        <v>0.02</v>
+      </c>
+      <c r="N1086">
+        <v>0</v>
+      </c>
+      <c r="O1086">
+        <v>3</v>
+      </c>
+      <c r="P1086">
+        <v>4.05</v>
+      </c>
+      <c r="Q1086">
+        <v>27.47</v>
+      </c>
+      <c r="R1086">
+        <v>4.59</v>
+      </c>
+      <c r="S1086">
+        <v>23</v>
+      </c>
+      <c r="T1086">
+        <v>6</v>
+      </c>
+      <c r="U1086">
+        <v>28</v>
+      </c>
+      <c r="V1086">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1087" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>943</v>
+      </c>
+      <c r="H1087">
+        <v>8.06</v>
+      </c>
+      <c r="I1087">
+        <v>1.2</v>
+      </c>
+      <c r="J1087">
+        <v>6.85</v>
+      </c>
+      <c r="K1087">
+        <v>0.91</v>
+      </c>
+      <c r="L1087">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M1087">
+        <v>0.02</v>
+      </c>
+      <c r="N1087">
+        <v>0</v>
+      </c>
+      <c r="O1087">
+        <v>4</v>
+      </c>
+      <c r="P1087">
+        <v>5.16</v>
+      </c>
+      <c r="Q1087">
+        <v>26.83</v>
+      </c>
+      <c r="R1087">
+        <v>4.57</v>
+      </c>
+      <c r="S1087">
+        <v>42</v>
+      </c>
+      <c r="T1087">
+        <v>7</v>
+      </c>
+      <c r="U1087">
+        <v>21</v>
+      </c>
+      <c r="V1087">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1088" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>944</v>
+      </c>
+      <c r="H1088">
+        <v>7.07</v>
+      </c>
+      <c r="I1088">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J1088">
+        <v>6.49</v>
+      </c>
+      <c r="K1088">
+        <v>0.5</v>
+      </c>
+      <c r="L1088">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1088">
+        <v>0.01</v>
+      </c>
+      <c r="N1088">
+        <v>0</v>
+      </c>
+      <c r="O1088">
+        <v>2</v>
+      </c>
+      <c r="P1088">
+        <v>4.18</v>
+      </c>
+      <c r="Q1088">
+        <v>27.9</v>
+      </c>
+      <c r="R1088">
+        <v>5.14</v>
+      </c>
+      <c r="S1088">
+        <v>50</v>
+      </c>
+      <c r="T1088">
+        <v>13</v>
+      </c>
+      <c r="U1088">
+        <v>32</v>
+      </c>
+      <c r="V1088">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1089" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>945</v>
+      </c>
+      <c r="H1089">
+        <v>7.32</v>
+      </c>
+      <c r="I1089">
+        <v>0.77</v>
+      </c>
+      <c r="J1089">
+        <v>6.52</v>
+      </c>
+      <c r="K1089">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L1089">
+        <v>0.16</v>
+      </c>
+      <c r="M1089">
+        <v>0.06</v>
+      </c>
+      <c r="N1089">
+        <v>0</v>
+      </c>
+      <c r="O1089">
+        <v>6</v>
+      </c>
+      <c r="P1089">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q1089">
+        <v>28.37</v>
+      </c>
+      <c r="R1089">
+        <v>5</v>
+      </c>
+      <c r="S1089">
+        <v>45</v>
+      </c>
+      <c r="T1089">
+        <v>4</v>
+      </c>
+      <c r="U1089">
+        <v>38</v>
+      </c>
+      <c r="V1089">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1090" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>946</v>
+      </c>
+      <c r="H1090">
+        <v>3.86</v>
+      </c>
+      <c r="I1090">
+        <v>0.26</v>
+      </c>
+      <c r="J1090">
+        <v>3.59</v>
+      </c>
+      <c r="K1090">
+        <v>0.16</v>
+      </c>
+      <c r="L1090">
+        <v>0.08</v>
+      </c>
+      <c r="M1090">
+        <v>0.02</v>
+      </c>
+      <c r="N1090">
+        <v>0.01</v>
+      </c>
+      <c r="O1090">
+        <v>1</v>
+      </c>
+      <c r="P1090">
+        <v>2.27</v>
+      </c>
+      <c r="Q1090">
+        <v>30.94</v>
+      </c>
+      <c r="R1090">
+        <v>4.59</v>
+      </c>
+      <c r="S1090">
+        <v>14</v>
+      </c>
+      <c r="T1090">
+        <v>4</v>
+      </c>
+      <c r="U1090">
+        <v>9</v>
+      </c>
+      <c r="V1090">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>947</v>
+      </c>
+      <c r="H1091">
+        <v>2.63</v>
+      </c>
+      <c r="I1091">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J1091">
+        <v>2.34</v>
+      </c>
+      <c r="K1091">
+        <v>0.15</v>
+      </c>
+      <c r="L1091">
+        <v>0.12</v>
+      </c>
+      <c r="M1091">
+        <v>0.02</v>
+      </c>
+      <c r="N1091">
+        <v>0</v>
+      </c>
+      <c r="O1091">
+        <v>1</v>
+      </c>
+      <c r="P1091">
+        <v>3.47</v>
+      </c>
+      <c r="Q1091">
+        <v>25.81</v>
+      </c>
+      <c r="R1091">
+        <v>3.83</v>
+      </c>
+      <c r="S1091">
+        <v>9</v>
+      </c>
+      <c r="T1091">
+        <v>0</v>
+      </c>
+      <c r="U1091">
+        <v>5</v>
+      </c>
+      <c r="V1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1092" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>948</v>
+      </c>
+      <c r="H1092">
+        <v>3.57</v>
+      </c>
+      <c r="I1092">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J1092">
+        <v>3.28</v>
+      </c>
+      <c r="K1092">
+        <v>0.17</v>
+      </c>
+      <c r="L1092">
+        <v>0.12</v>
+      </c>
+      <c r="M1092">
+        <v>0</v>
+      </c>
+      <c r="N1092">
+        <v>0</v>
+      </c>
+      <c r="O1092">
+        <v>0</v>
+      </c>
+      <c r="P1092">
+        <v>2.63</v>
+      </c>
+      <c r="Q1092">
+        <v>24.89</v>
+      </c>
+      <c r="R1092">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1092">
+        <v>17</v>
+      </c>
+      <c r="T1092">
+        <v>2</v>
+      </c>
+      <c r="U1092">
+        <v>6</v>
+      </c>
+      <c r="V1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1093" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>949</v>
+      </c>
+      <c r="H1093">
+        <v>2.25</v>
+      </c>
+      <c r="I1093">
+        <v>0.12</v>
+      </c>
+      <c r="J1093">
+        <v>2.13</v>
+      </c>
+      <c r="K1093">
+        <v>0.11</v>
+      </c>
+      <c r="L1093">
+        <v>0.01</v>
+      </c>
+      <c r="M1093">
+        <v>0</v>
+      </c>
+      <c r="N1093">
+        <v>0</v>
+      </c>
+      <c r="O1093">
+        <v>0</v>
+      </c>
+      <c r="P1093">
+        <v>2.71</v>
+      </c>
+      <c r="Q1093">
+        <v>23.76</v>
+      </c>
+      <c r="R1093">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S1093">
+        <v>13</v>
+      </c>
+      <c r="T1093">
+        <v>2</v>
+      </c>
+      <c r="U1093">
+        <v>7</v>
+      </c>
+      <c r="V1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1094" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1094">
+        <v>3.5</v>
+      </c>
+      <c r="I1094">
+        <v>0.39</v>
+      </c>
+      <c r="J1094">
+        <v>3.11</v>
+      </c>
+      <c r="K1094">
+        <v>0.11</v>
+      </c>
+      <c r="L1094">
+        <v>0.11</v>
+      </c>
+      <c r="M1094">
+        <v>0.11</v>
+      </c>
+      <c r="N1094">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O1094">
+        <v>10</v>
+      </c>
+      <c r="P1094">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q1094">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="R1094">
+        <v>4.8</v>
+      </c>
+      <c r="S1094">
+        <v>16</v>
+      </c>
+      <c r="T1094">
+        <v>7</v>
+      </c>
+      <c r="U1094">
+        <v>36</v>
+      </c>
+      <c r="V1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1095" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>949</v>
+      </c>
+      <c r="H1095">
+        <v>2.14</v>
+      </c>
+      <c r="I1095">
+        <v>0.11</v>
+      </c>
+      <c r="J1095">
+        <v>2.02</v>
+      </c>
+      <c r="K1095">
+        <v>0.09</v>
+      </c>
+      <c r="L1095">
+        <v>0.03</v>
+      </c>
+      <c r="M1095">
+        <v>0</v>
+      </c>
+      <c r="N1095">
+        <v>0</v>
+      </c>
+      <c r="O1095">
+        <v>0</v>
+      </c>
+      <c r="P1095">
+        <v>2.38</v>
+      </c>
+      <c r="Q1095">
+        <v>23.46</v>
+      </c>
+      <c r="R1095">
+        <v>4.55</v>
+      </c>
+      <c r="S1095">
+        <v>15</v>
+      </c>
+      <c r="T1095">
+        <v>1</v>
+      </c>
+      <c r="U1095">
+        <v>10</v>
+      </c>
+      <c r="V1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1096" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>950</v>
+      </c>
+      <c r="H1096">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I1096">
+        <v>0.48</v>
+      </c>
+      <c r="J1096">
+        <v>3.87</v>
+      </c>
+      <c r="K1096">
+        <v>0.16</v>
+      </c>
+      <c r="L1096">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1096">
+        <v>0.17</v>
+      </c>
+      <c r="N1096">
+        <v>0.02</v>
+      </c>
+      <c r="O1096">
+        <v>10</v>
+      </c>
+      <c r="P1096">
+        <v>2.9</v>
+      </c>
+      <c r="Q1096">
+        <v>31.36</v>
+      </c>
+      <c r="R1096">
+        <v>3.97</v>
+      </c>
+      <c r="S1096">
+        <v>19</v>
+      </c>
+      <c r="T1096">
+        <v>0</v>
+      </c>
+      <c r="U1096">
+        <v>15</v>
+      </c>
+      <c r="V1096">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>946</v>
+      </c>
+      <c r="H1097">
+        <v>3.63</v>
+      </c>
+      <c r="I1097">
+        <v>0.35</v>
+      </c>
+      <c r="J1097">
+        <v>3.27</v>
+      </c>
+      <c r="K1097">
+        <v>0.17</v>
+      </c>
+      <c r="L1097">
+        <v>0.17</v>
+      </c>
+      <c r="M1097">
+        <v>0.03</v>
+      </c>
+      <c r="N1097">
+        <v>0</v>
+      </c>
+      <c r="O1097">
+        <v>8</v>
+      </c>
+      <c r="P1097">
+        <v>2.59</v>
+      </c>
+      <c r="Q1097">
+        <v>26.4</v>
+      </c>
+      <c r="R1097">
+        <v>5.34</v>
+      </c>
+      <c r="S1097">
+        <v>33</v>
+      </c>
+      <c r="T1097">
+        <v>12</v>
+      </c>
+      <c r="U1097">
+        <v>20</v>
+      </c>
+      <c r="V1097">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1098" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>951</v>
+      </c>
+      <c r="H1098">
+        <v>3.55</v>
+      </c>
+      <c r="I1098">
+        <v>0.31</v>
+      </c>
+      <c r="J1098">
+        <v>3.23</v>
+      </c>
+      <c r="K1098">
+        <v>0.12</v>
+      </c>
+      <c r="L1098">
+        <v>0.09</v>
+      </c>
+      <c r="M1098">
+        <v>0.09</v>
+      </c>
+      <c r="N1098">
+        <v>0.01</v>
+      </c>
+      <c r="O1098">
+        <v>6</v>
+      </c>
+      <c r="P1098">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q1098">
+        <v>30.84</v>
+      </c>
+      <c r="R1098">
+        <v>4.59</v>
+      </c>
+      <c r="S1098">
+        <v>12</v>
+      </c>
+      <c r="T1098">
+        <v>3</v>
+      </c>
+      <c r="U1098">
+        <v>7</v>
+      </c>
+      <c r="V1098">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1099" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1099">
+        <v>2.99</v>
+      </c>
+      <c r="I1099">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J1099">
+        <v>2.7</v>
+      </c>
+      <c r="K1099">
+        <v>0.21</v>
+      </c>
+      <c r="L1099">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1099">
+        <v>0</v>
+      </c>
+      <c r="N1099">
+        <v>0</v>
+      </c>
+      <c r="O1099">
+        <v>0</v>
+      </c>
+      <c r="P1099">
+        <v>2.4</v>
+      </c>
+      <c r="Q1099">
+        <v>24.65</v>
+      </c>
+      <c r="R1099">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S1099">
+        <v>6</v>
+      </c>
+      <c r="T1099">
+        <v>2</v>
+      </c>
+      <c r="U1099">
+        <v>6</v>
+      </c>
+      <c r="V1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>952</v>
+      </c>
+      <c r="H1100">
+        <v>3.91</v>
+      </c>
+      <c r="I1100">
+        <v>0.23</v>
+      </c>
+      <c r="J1100">
+        <v>3.68</v>
+      </c>
+      <c r="K1100">
+        <v>0.12</v>
+      </c>
+      <c r="L1100">
+        <v>0.1</v>
+      </c>
+      <c r="M1100">
+        <v>0.01</v>
+      </c>
+      <c r="N1100">
+        <v>0</v>
+      </c>
+      <c r="O1100">
+        <v>2</v>
+      </c>
+      <c r="P1100">
+        <v>2.02</v>
+      </c>
+      <c r="Q1100">
+        <v>25.48</v>
+      </c>
+      <c r="R1100">
+        <v>4.32</v>
+      </c>
+      <c r="S1100">
+        <v>3</v>
+      </c>
+      <c r="T1100">
+        <v>1</v>
+      </c>
+      <c r="U1100">
+        <v>4</v>
+      </c>
+      <c r="V1100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1101" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>953</v>
+      </c>
+      <c r="H1101">
+        <v>2.74</v>
+      </c>
+      <c r="I1101">
+        <v>0.49</v>
+      </c>
+      <c r="J1101">
+        <v>2.25</v>
+      </c>
+      <c r="K1101">
+        <v>0.21</v>
+      </c>
+      <c r="L1101">
+        <v>0.17</v>
+      </c>
+      <c r="M1101">
+        <v>0.11</v>
+      </c>
+      <c r="N1101">
+        <v>0</v>
+      </c>
+      <c r="O1101">
+        <v>6</v>
+      </c>
+      <c r="P1101">
+        <v>3.59</v>
+      </c>
+      <c r="Q1101">
+        <v>28.08</v>
+      </c>
+      <c r="R1101">
+        <v>3.93</v>
+      </c>
+      <c r="S1101">
+        <v>15</v>
+      </c>
+      <c r="T1101">
+        <v>0</v>
+      </c>
+      <c r="U1101">
+        <v>1</v>
+      </c>
+      <c r="V1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1102" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1102" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1102">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I1102">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J1102">
+        <v>1.71</v>
+      </c>
+      <c r="K1102">
+        <v>0.08</v>
+      </c>
+      <c r="L1102">
+        <v>0.1</v>
+      </c>
+      <c r="M1102">
+        <v>0.09</v>
+      </c>
+      <c r="N1102">
+        <v>0.02</v>
+      </c>
+      <c r="O1102">
+        <v>6</v>
+      </c>
+      <c r="P1102">
+        <v>3.02</v>
+      </c>
+      <c r="Q1102">
+        <v>31.91</v>
+      </c>
+      <c r="R1102">
+        <v>5.16</v>
+      </c>
+      <c r="S1102">
+        <v>9</v>
+      </c>
+      <c r="T1102">
+        <v>3</v>
+      </c>
+      <c r="U1102">
+        <v>6</v>
+      </c>
+      <c r="V1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1103" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>955</v>
+      </c>
+      <c r="H1103">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I1103">
+        <v>0.24</v>
+      </c>
+      <c r="J1103">
+        <v>2.27</v>
+      </c>
+      <c r="K1103">
+        <v>0.12</v>
+      </c>
+      <c r="L1103">
+        <v>0.09</v>
+      </c>
+      <c r="M1103">
+        <v>0.03</v>
+      </c>
+      <c r="N1103">
+        <v>0</v>
+      </c>
+      <c r="O1103">
+        <v>2</v>
+      </c>
+      <c r="P1103">
+        <v>3.32</v>
+      </c>
+      <c r="Q1103">
+        <v>27.08</v>
+      </c>
+      <c r="R1103">
+        <v>4.43</v>
+      </c>
+      <c r="S1103">
+        <v>8</v>
+      </c>
+      <c r="T1103">
+        <v>2</v>
+      </c>
+      <c r="U1103">
+        <v>0</v>
+      </c>
+      <c r="V1103">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113958C0-1D30-F54F-9B78-12843538BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01EC179-D99F-B949-9427-34B64CCE7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="967">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2904,6 +2904,39 @@
   </si>
   <si>
     <t>00:43:08</t>
+  </si>
+  <si>
+    <t>01:24:21</t>
+  </si>
+  <si>
+    <t>01:39:26</t>
+  </si>
+  <si>
+    <t>00:14:04</t>
+  </si>
+  <si>
+    <t>01:37:48</t>
+  </si>
+  <si>
+    <t>00:05:05</t>
+  </si>
+  <si>
+    <t>00:37:33</t>
+  </si>
+  <si>
+    <t>01:00:53</t>
+  </si>
+  <si>
+    <t>01:32:36</t>
+  </si>
+  <si>
+    <t>00:12:56</t>
+  </si>
+  <si>
+    <t>00:44:24</t>
+  </si>
+  <si>
+    <t>N3 J12 ES Fos</t>
   </si>
 </sst>
 </file>
@@ -3299,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1103"/>
+  <dimension ref="A1:V1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1090" sqref="E1090:V1103"/>
+    <sheetView tabSelected="1" topLeftCell="A1085" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1120" sqref="F1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76853,6 +76886,958 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1104" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1104">
+        <v>8.26</v>
+      </c>
+      <c r="I1104">
+        <v>1.4</v>
+      </c>
+      <c r="J1104">
+        <v>6.84</v>
+      </c>
+      <c r="K1104">
+        <v>0.91</v>
+      </c>
+      <c r="L1104">
+        <v>0.41</v>
+      </c>
+      <c r="M1104">
+        <v>0.1</v>
+      </c>
+      <c r="N1104">
+        <v>0</v>
+      </c>
+      <c r="O1104">
+        <v>8</v>
+      </c>
+      <c r="P1104">
+        <v>5.86</v>
+      </c>
+      <c r="Q1104">
+        <v>28.64</v>
+      </c>
+      <c r="R1104">
+        <v>4.67</v>
+      </c>
+      <c r="S1104">
+        <v>32</v>
+      </c>
+      <c r="T1104">
+        <v>6</v>
+      </c>
+      <c r="U1104">
+        <v>29</v>
+      </c>
+      <c r="V1104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1105" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1105">
+        <v>9.32</v>
+      </c>
+      <c r="I1105">
+        <v>1.23</v>
+      </c>
+      <c r="J1105">
+        <v>8.08</v>
+      </c>
+      <c r="K1105">
+        <v>0.81</v>
+      </c>
+      <c r="L1105">
+        <v>0.33</v>
+      </c>
+      <c r="M1105">
+        <v>0.1</v>
+      </c>
+      <c r="N1105">
+        <v>0.01</v>
+      </c>
+      <c r="O1105">
+        <v>8</v>
+      </c>
+      <c r="P1105">
+        <v>5.51</v>
+      </c>
+      <c r="Q1105">
+        <v>30.41</v>
+      </c>
+      <c r="R1105">
+        <v>4.47</v>
+      </c>
+      <c r="S1105">
+        <v>26</v>
+      </c>
+      <c r="T1105">
+        <v>7</v>
+      </c>
+      <c r="U1105">
+        <v>19</v>
+      </c>
+      <c r="V1105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1106" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>958</v>
+      </c>
+      <c r="H1106">
+        <v>1.84</v>
+      </c>
+      <c r="I1106">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J1106">
+        <v>1.28</v>
+      </c>
+      <c r="K1106">
+        <v>0.35</v>
+      </c>
+      <c r="L1106">
+        <v>0.18</v>
+      </c>
+      <c r="M1106">
+        <v>0.03</v>
+      </c>
+      <c r="N1106">
+        <v>0</v>
+      </c>
+      <c r="O1106">
+        <v>2</v>
+      </c>
+      <c r="P1106">
+        <v>7.75</v>
+      </c>
+      <c r="Q1106">
+        <v>28.29</v>
+      </c>
+      <c r="R1106">
+        <v>3.99</v>
+      </c>
+      <c r="S1106">
+        <v>12</v>
+      </c>
+      <c r="T1106">
+        <v>0</v>
+      </c>
+      <c r="U1106">
+        <v>8</v>
+      </c>
+      <c r="V1106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1107">
+        <v>11.3</v>
+      </c>
+      <c r="I1107">
+        <v>2.16</v>
+      </c>
+      <c r="J1107">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="K1107">
+        <v>1.39</v>
+      </c>
+      <c r="L1107">
+        <v>0.63</v>
+      </c>
+      <c r="M1107">
+        <v>0.16</v>
+      </c>
+      <c r="N1107">
+        <v>0</v>
+      </c>
+      <c r="O1107">
+        <v>11</v>
+      </c>
+      <c r="P1107">
+        <v>6.63</v>
+      </c>
+      <c r="Q1107">
+        <v>30.28</v>
+      </c>
+      <c r="R1107">
+        <v>4.25</v>
+      </c>
+      <c r="S1107">
+        <v>55</v>
+      </c>
+      <c r="T1107">
+        <v>7</v>
+      </c>
+      <c r="U1107">
+        <v>51</v>
+      </c>
+      <c r="V1107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1108" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1108">
+        <v>11.24</v>
+      </c>
+      <c r="I1108">
+        <v>1.76</v>
+      </c>
+      <c r="J1108">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="K1108">
+        <v>1.31</v>
+      </c>
+      <c r="L1108">
+        <v>0.39</v>
+      </c>
+      <c r="M1108">
+        <v>0.09</v>
+      </c>
+      <c r="N1108">
+        <v>0</v>
+      </c>
+      <c r="O1108">
+        <v>7</v>
+      </c>
+      <c r="P1108">
+        <v>6.82</v>
+      </c>
+      <c r="Q1108">
+        <v>28.1</v>
+      </c>
+      <c r="R1108">
+        <v>4.47</v>
+      </c>
+      <c r="S1108">
+        <v>36</v>
+      </c>
+      <c r="T1108">
+        <v>3</v>
+      </c>
+      <c r="U1108">
+        <v>32</v>
+      </c>
+      <c r="V1108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1109" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1109">
+        <v>9.56</v>
+      </c>
+      <c r="I1109">
+        <v>2.09</v>
+      </c>
+      <c r="J1109">
+        <v>7.44</v>
+      </c>
+      <c r="K1109">
+        <v>1.31</v>
+      </c>
+      <c r="L1109">
+        <v>0.65</v>
+      </c>
+      <c r="M1109">
+        <v>0.16</v>
+      </c>
+      <c r="N1109">
+        <v>0</v>
+      </c>
+      <c r="O1109">
+        <v>16</v>
+      </c>
+      <c r="P1109">
+        <v>6.72</v>
+      </c>
+      <c r="Q1109">
+        <v>29.65</v>
+      </c>
+      <c r="R1109">
+        <v>4.95</v>
+      </c>
+      <c r="S1109">
+        <v>50</v>
+      </c>
+      <c r="T1109">
+        <v>12</v>
+      </c>
+      <c r="U1109">
+        <v>41</v>
+      </c>
+      <c r="V1109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1110" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>960</v>
+      </c>
+      <c r="H1110">
+        <v>0.62</v>
+      </c>
+      <c r="I1110">
+        <v>0.16</v>
+      </c>
+      <c r="J1110">
+        <v>0.45</v>
+      </c>
+      <c r="K1110">
+        <v>0.1</v>
+      </c>
+      <c r="L1110">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1110">
+        <v>0</v>
+      </c>
+      <c r="N1110">
+        <v>0</v>
+      </c>
+      <c r="O1110">
+        <v>1</v>
+      </c>
+      <c r="P1110">
+        <v>6.85</v>
+      </c>
+      <c r="Q1110">
+        <v>25.17</v>
+      </c>
+      <c r="R1110">
+        <v>4.47</v>
+      </c>
+      <c r="S1110">
+        <v>2</v>
+      </c>
+      <c r="T1110">
+        <v>2</v>
+      </c>
+      <c r="U1110">
+        <v>2</v>
+      </c>
+      <c r="V1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1111">
+        <v>10.43</v>
+      </c>
+      <c r="I1111">
+        <v>1.59</v>
+      </c>
+      <c r="J1111">
+        <v>8.82</v>
+      </c>
+      <c r="K1111">
+        <v>1.22</v>
+      </c>
+      <c r="L1111">
+        <v>0.34</v>
+      </c>
+      <c r="M1111">
+        <v>0.04</v>
+      </c>
+      <c r="N1111">
+        <v>0.01</v>
+      </c>
+      <c r="O1111">
+        <v>3</v>
+      </c>
+      <c r="P1111">
+        <v>6.23</v>
+      </c>
+      <c r="Q1111">
+        <v>31.17</v>
+      </c>
+      <c r="R1111">
+        <v>4.42</v>
+      </c>
+      <c r="S1111">
+        <v>60</v>
+      </c>
+      <c r="T1111">
+        <v>4</v>
+      </c>
+      <c r="U1111">
+        <v>37</v>
+      </c>
+      <c r="V1111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1112">
+        <v>10.53</v>
+      </c>
+      <c r="I1112">
+        <v>1.27</v>
+      </c>
+      <c r="J1112">
+        <v>9.24</v>
+      </c>
+      <c r="K1112">
+        <v>0.87</v>
+      </c>
+      <c r="L1112">
+        <v>0.27</v>
+      </c>
+      <c r="M1112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N1112">
+        <v>0.01</v>
+      </c>
+      <c r="O1112">
+        <v>7</v>
+      </c>
+      <c r="P1112">
+        <v>6.29</v>
+      </c>
+      <c r="Q1112">
+        <v>30.4</v>
+      </c>
+      <c r="R1112">
+        <v>4.46</v>
+      </c>
+      <c r="S1112">
+        <v>30</v>
+      </c>
+      <c r="T1112">
+        <v>5</v>
+      </c>
+      <c r="U1112">
+        <v>28</v>
+      </c>
+      <c r="V1112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>961</v>
+      </c>
+      <c r="H1113">
+        <v>3.41</v>
+      </c>
+      <c r="I1113">
+        <v>0.62</v>
+      </c>
+      <c r="J1113">
+        <v>2.78</v>
+      </c>
+      <c r="K1113">
+        <v>0.31</v>
+      </c>
+      <c r="L1113">
+        <v>0.24</v>
+      </c>
+      <c r="M1113">
+        <v>0.08</v>
+      </c>
+      <c r="N1113">
+        <v>0</v>
+      </c>
+      <c r="O1113">
+        <v>6</v>
+      </c>
+      <c r="P1113">
+        <v>5.29</v>
+      </c>
+      <c r="Q1113">
+        <v>30.17</v>
+      </c>
+      <c r="R1113">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S1113">
+        <v>19</v>
+      </c>
+      <c r="T1113">
+        <v>4</v>
+      </c>
+      <c r="U1113">
+        <v>14</v>
+      </c>
+      <c r="V1113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>962</v>
+      </c>
+      <c r="H1114">
+        <v>7.1</v>
+      </c>
+      <c r="I1114">
+        <v>1.37</v>
+      </c>
+      <c r="J1114">
+        <v>5.71</v>
+      </c>
+      <c r="K1114">
+        <v>1.06</v>
+      </c>
+      <c r="L1114">
+        <v>0.31</v>
+      </c>
+      <c r="M1114">
+        <v>0.02</v>
+      </c>
+      <c r="N1114">
+        <v>0</v>
+      </c>
+      <c r="O1114">
+        <v>3</v>
+      </c>
+      <c r="P1114">
+        <v>6.83</v>
+      </c>
+      <c r="Q1114">
+        <v>26.9</v>
+      </c>
+      <c r="R1114">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S1114">
+        <v>26</v>
+      </c>
+      <c r="T1114">
+        <v>10</v>
+      </c>
+      <c r="U1114">
+        <v>29</v>
+      </c>
+      <c r="V1114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1115" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>963</v>
+      </c>
+      <c r="H1115">
+        <v>11.1</v>
+      </c>
+      <c r="I1115">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J1115">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K1115">
+        <v>1.79</v>
+      </c>
+      <c r="L1115">
+        <v>0.39</v>
+      </c>
+      <c r="M1115">
+        <v>0.04</v>
+      </c>
+      <c r="N1115">
+        <v>0</v>
+      </c>
+      <c r="O1115">
+        <v>4</v>
+      </c>
+      <c r="P1115">
+        <v>7.17</v>
+      </c>
+      <c r="Q1115">
+        <v>28.84</v>
+      </c>
+      <c r="R1115">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S1115">
+        <v>30</v>
+      </c>
+      <c r="T1115">
+        <v>6</v>
+      </c>
+      <c r="U1115">
+        <v>24</v>
+      </c>
+      <c r="V1115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1116" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>964</v>
+      </c>
+      <c r="H1116">
+        <v>1.75</v>
+      </c>
+      <c r="I1116">
+        <v>0.5</v>
+      </c>
+      <c r="J1116">
+        <v>1.24</v>
+      </c>
+      <c r="K1116">
+        <v>0.36</v>
+      </c>
+      <c r="L1116">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1116">
+        <v>0.01</v>
+      </c>
+      <c r="N1116">
+        <v>0</v>
+      </c>
+      <c r="O1116">
+        <v>2</v>
+      </c>
+      <c r="P1116">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q1116">
+        <v>25.52</v>
+      </c>
+      <c r="R1116">
+        <v>4.03</v>
+      </c>
+      <c r="S1116">
+        <v>10</v>
+      </c>
+      <c r="T1116">
+        <v>1</v>
+      </c>
+      <c r="U1116">
+        <v>7</v>
+      </c>
+      <c r="V1116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1117" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>965</v>
+      </c>
+      <c r="H1117">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I1117">
+        <v>0.69</v>
+      </c>
+      <c r="J1117">
+        <v>3.95</v>
+      </c>
+      <c r="K1117">
+        <v>0.42</v>
+      </c>
+      <c r="L1117">
+        <v>0.21</v>
+      </c>
+      <c r="M1117">
+        <v>0.06</v>
+      </c>
+      <c r="N1117">
+        <v>0.01</v>
+      </c>
+      <c r="O1117">
+        <v>5</v>
+      </c>
+      <c r="P1117">
+        <v>6.16</v>
+      </c>
+      <c r="Q1117">
+        <v>30.6</v>
+      </c>
+      <c r="R1117">
+        <v>4.43</v>
+      </c>
+      <c r="S1117">
+        <v>17</v>
+      </c>
+      <c r="T1117">
+        <v>3</v>
+      </c>
+      <c r="U1117">
+        <v>17</v>
+      </c>
+      <c r="V1117">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01EC179-D99F-B949-9427-34B64CCE7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824854F-8F9D-1A41-8E66-2431F971FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6337" uniqueCount="980">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2937,6 +2937,45 @@
   </si>
   <si>
     <t>N3 J12 ES Fos</t>
+  </si>
+  <si>
+    <t>01:04:28</t>
+  </si>
+  <si>
+    <t>01:05:02</t>
+  </si>
+  <si>
+    <t>01:05:30</t>
+  </si>
+  <si>
+    <t>01:05:31</t>
+  </si>
+  <si>
+    <t>01:22:37</t>
+  </si>
+  <si>
+    <t>01:21:58</t>
+  </si>
+  <si>
+    <t>01:21:04</t>
+  </si>
+  <si>
+    <t>01:22:06</t>
+  </si>
+  <si>
+    <t>Yamine Maouchi</t>
+  </si>
+  <si>
+    <t>01:19:15</t>
+  </si>
+  <si>
+    <t>01:22:07</t>
+  </si>
+  <si>
+    <t>01:21:27</t>
+  </si>
+  <si>
+    <t>01:19:07</t>
   </si>
 </sst>
 </file>
@@ -3332,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1117"/>
+  <dimension ref="A1:V1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1085" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1120" sqref="F1120"/>
+    <sheetView tabSelected="1" topLeftCell="A1112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1130" sqref="E1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77838,6 +77877,1230 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1118">
+        <v>5.3</v>
+      </c>
+      <c r="I1118">
+        <v>0.03</v>
+      </c>
+      <c r="J1118">
+        <v>5.26</v>
+      </c>
+      <c r="K1118">
+        <v>0.04</v>
+      </c>
+      <c r="L1118">
+        <v>0</v>
+      </c>
+      <c r="M1118">
+        <v>0</v>
+      </c>
+      <c r="N1118">
+        <v>0</v>
+      </c>
+      <c r="O1118">
+        <v>0</v>
+      </c>
+      <c r="P1118">
+        <v>4.2</v>
+      </c>
+      <c r="Q1118">
+        <v>17.39</v>
+      </c>
+      <c r="R1118">
+        <v>5.08</v>
+      </c>
+      <c r="S1118">
+        <v>29</v>
+      </c>
+      <c r="T1118">
+        <v>3</v>
+      </c>
+      <c r="U1118">
+        <v>13</v>
+      </c>
+      <c r="V1118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1119">
+        <v>6.23</v>
+      </c>
+      <c r="I1119">
+        <v>0.02</v>
+      </c>
+      <c r="J1119">
+        <v>6.21</v>
+      </c>
+      <c r="K1119">
+        <v>0.02</v>
+      </c>
+      <c r="L1119">
+        <v>0</v>
+      </c>
+      <c r="M1119">
+        <v>0</v>
+      </c>
+      <c r="N1119">
+        <v>0</v>
+      </c>
+      <c r="O1119">
+        <v>0</v>
+      </c>
+      <c r="P1119">
+        <v>5.39</v>
+      </c>
+      <c r="Q1119">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="R1119">
+        <v>4.97</v>
+      </c>
+      <c r="S1119">
+        <v>32</v>
+      </c>
+      <c r="T1119">
+        <v>4</v>
+      </c>
+      <c r="U1119">
+        <v>26</v>
+      </c>
+      <c r="V1119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1120">
+        <v>5.34</v>
+      </c>
+      <c r="I1120">
+        <v>0.13</v>
+      </c>
+      <c r="J1120">
+        <v>5.2</v>
+      </c>
+      <c r="K1120">
+        <v>0.11</v>
+      </c>
+      <c r="L1120">
+        <v>0.02</v>
+      </c>
+      <c r="M1120">
+        <v>0</v>
+      </c>
+      <c r="N1120">
+        <v>0</v>
+      </c>
+      <c r="O1120">
+        <v>0</v>
+      </c>
+      <c r="P1120">
+        <v>4.97</v>
+      </c>
+      <c r="Q1120">
+        <v>22.51</v>
+      </c>
+      <c r="R1120">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S1120">
+        <v>33</v>
+      </c>
+      <c r="T1120">
+        <v>3</v>
+      </c>
+      <c r="U1120">
+        <v>14</v>
+      </c>
+      <c r="V1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>969</v>
+      </c>
+      <c r="H1121">
+        <v>5.88</v>
+      </c>
+      <c r="I1121">
+        <v>0.13</v>
+      </c>
+      <c r="J1121">
+        <v>5.75</v>
+      </c>
+      <c r="K1121">
+        <v>0.12</v>
+      </c>
+      <c r="L1121">
+        <v>0.01</v>
+      </c>
+      <c r="M1121">
+        <v>0</v>
+      </c>
+      <c r="N1121">
+        <v>0</v>
+      </c>
+      <c r="O1121">
+        <v>0</v>
+      </c>
+      <c r="P1121">
+        <v>5.31</v>
+      </c>
+      <c r="Q1121">
+        <v>21.25</v>
+      </c>
+      <c r="R1121">
+        <v>3.72</v>
+      </c>
+      <c r="S1121">
+        <v>20</v>
+      </c>
+      <c r="T1121">
+        <v>0</v>
+      </c>
+      <c r="U1121">
+        <v>8</v>
+      </c>
+      <c r="V1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>970</v>
+      </c>
+      <c r="H1122">
+        <v>5.15</v>
+      </c>
+      <c r="I1122">
+        <v>0.03</v>
+      </c>
+      <c r="J1122">
+        <v>5.12</v>
+      </c>
+      <c r="K1122">
+        <v>0.03</v>
+      </c>
+      <c r="L1122">
+        <v>0</v>
+      </c>
+      <c r="M1122">
+        <v>0</v>
+      </c>
+      <c r="N1122">
+        <v>0</v>
+      </c>
+      <c r="O1122">
+        <v>0</v>
+      </c>
+      <c r="P1122">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q1122">
+        <v>17.7</v>
+      </c>
+      <c r="R1122">
+        <v>3.95</v>
+      </c>
+      <c r="S1122">
+        <v>22</v>
+      </c>
+      <c r="T1122">
+        <v>0</v>
+      </c>
+      <c r="U1122">
+        <v>16</v>
+      </c>
+      <c r="V1122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1123">
+        <v>5.83</v>
+      </c>
+      <c r="I1123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1123">
+        <v>5.68</v>
+      </c>
+      <c r="K1123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1123">
+        <v>0.01</v>
+      </c>
+      <c r="M1123">
+        <v>0</v>
+      </c>
+      <c r="N1123">
+        <v>0</v>
+      </c>
+      <c r="O1123">
+        <v>0</v>
+      </c>
+      <c r="P1123">
+        <v>4.93</v>
+      </c>
+      <c r="Q1123">
+        <v>23.29</v>
+      </c>
+      <c r="R1123">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S1123">
+        <v>57</v>
+      </c>
+      <c r="T1123">
+        <v>14</v>
+      </c>
+      <c r="U1123">
+        <v>41</v>
+      </c>
+      <c r="V1123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>797</v>
+      </c>
+      <c r="H1124">
+        <v>4.82</v>
+      </c>
+      <c r="I1124">
+        <v>0.16</v>
+      </c>
+      <c r="J1124">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K1124">
+        <v>0.17</v>
+      </c>
+      <c r="L1124">
+        <v>0</v>
+      </c>
+      <c r="M1124">
+        <v>0</v>
+      </c>
+      <c r="N1124">
+        <v>0</v>
+      </c>
+      <c r="O1124">
+        <v>0</v>
+      </c>
+      <c r="P1124">
+        <v>3.9</v>
+      </c>
+      <c r="Q1124">
+        <v>20.78</v>
+      </c>
+      <c r="R1124">
+        <v>5.13</v>
+      </c>
+      <c r="S1124">
+        <v>51</v>
+      </c>
+      <c r="T1124">
+        <v>6</v>
+      </c>
+      <c r="U1124">
+        <v>28</v>
+      </c>
+      <c r="V1124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>971</v>
+      </c>
+      <c r="H1125">
+        <v>6</v>
+      </c>
+      <c r="I1125">
+        <v>0.1</v>
+      </c>
+      <c r="J1125">
+        <v>5.9</v>
+      </c>
+      <c r="K1125">
+        <v>0.09</v>
+      </c>
+      <c r="L1125">
+        <v>0.01</v>
+      </c>
+      <c r="M1125">
+        <v>0</v>
+      </c>
+      <c r="N1125">
+        <v>0</v>
+      </c>
+      <c r="O1125">
+        <v>0</v>
+      </c>
+      <c r="P1125">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q1125">
+        <v>21.98</v>
+      </c>
+      <c r="R1125">
+        <v>5.18</v>
+      </c>
+      <c r="S1125">
+        <v>19</v>
+      </c>
+      <c r="T1125">
+        <v>2</v>
+      </c>
+      <c r="U1125">
+        <v>8</v>
+      </c>
+      <c r="V1125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>532</v>
+      </c>
+      <c r="H1126">
+        <v>5.25</v>
+      </c>
+      <c r="I1126">
+        <v>0.17</v>
+      </c>
+      <c r="J1126">
+        <v>5.08</v>
+      </c>
+      <c r="K1126">
+        <v>0.17</v>
+      </c>
+      <c r="L1126">
+        <v>0.01</v>
+      </c>
+      <c r="M1126">
+        <v>0</v>
+      </c>
+      <c r="N1126">
+        <v>0</v>
+      </c>
+      <c r="O1126">
+        <v>0</v>
+      </c>
+      <c r="P1126">
+        <v>3.61</v>
+      </c>
+      <c r="Q1126">
+        <v>20.77</v>
+      </c>
+      <c r="R1126">
+        <v>3.69</v>
+      </c>
+      <c r="S1126">
+        <v>14</v>
+      </c>
+      <c r="T1126">
+        <v>0</v>
+      </c>
+      <c r="U1126">
+        <v>18</v>
+      </c>
+      <c r="V1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1127">
+        <v>5.82</v>
+      </c>
+      <c r="I1127">
+        <v>0.27</v>
+      </c>
+      <c r="J1127">
+        <v>5.54</v>
+      </c>
+      <c r="K1127">
+        <v>0.23</v>
+      </c>
+      <c r="L1127">
+        <v>0.05</v>
+      </c>
+      <c r="M1127">
+        <v>0</v>
+      </c>
+      <c r="N1127">
+        <v>0</v>
+      </c>
+      <c r="O1127">
+        <v>0</v>
+      </c>
+      <c r="P1127">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q1127">
+        <v>23.65</v>
+      </c>
+      <c r="R1127">
+        <v>4.88</v>
+      </c>
+      <c r="S1127">
+        <v>30</v>
+      </c>
+      <c r="T1127">
+        <v>5</v>
+      </c>
+      <c r="U1127">
+        <v>23</v>
+      </c>
+      <c r="V1127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>973</v>
+      </c>
+      <c r="H1128">
+        <v>5.97</v>
+      </c>
+      <c r="I1128">
+        <v>0.18</v>
+      </c>
+      <c r="J1128">
+        <v>5.79</v>
+      </c>
+      <c r="K1128">
+        <v>0.19</v>
+      </c>
+      <c r="L1128">
+        <v>0</v>
+      </c>
+      <c r="M1128">
+        <v>0</v>
+      </c>
+      <c r="N1128">
+        <v>0</v>
+      </c>
+      <c r="O1128">
+        <v>0</v>
+      </c>
+      <c r="P1128">
+        <v>3.94</v>
+      </c>
+      <c r="Q1128">
+        <v>19.78</v>
+      </c>
+      <c r="R1128">
+        <v>3.65</v>
+      </c>
+      <c r="S1128">
+        <v>16</v>
+      </c>
+      <c r="T1128">
+        <v>0</v>
+      </c>
+      <c r="U1128">
+        <v>35</v>
+      </c>
+      <c r="V1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>974</v>
+      </c>
+      <c r="H1129">
+        <v>5.64</v>
+      </c>
+      <c r="I1129">
+        <v>0.19</v>
+      </c>
+      <c r="J1129">
+        <v>5.44</v>
+      </c>
+      <c r="K1129">
+        <v>0.18</v>
+      </c>
+      <c r="L1129">
+        <v>0.03</v>
+      </c>
+      <c r="M1129">
+        <v>0</v>
+      </c>
+      <c r="N1129">
+        <v>0</v>
+      </c>
+      <c r="O1129">
+        <v>0</v>
+      </c>
+      <c r="P1129">
+        <v>3.78</v>
+      </c>
+      <c r="Q1129">
+        <v>23.27</v>
+      </c>
+      <c r="R1129">
+        <v>5.5</v>
+      </c>
+      <c r="S1129">
+        <v>75</v>
+      </c>
+      <c r="T1129">
+        <v>22</v>
+      </c>
+      <c r="U1129">
+        <v>60</v>
+      </c>
+      <c r="V1129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1130" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1130">
+        <v>5.49</v>
+      </c>
+      <c r="I1130">
+        <v>0.13</v>
+      </c>
+      <c r="J1130">
+        <v>5.35</v>
+      </c>
+      <c r="K1130">
+        <v>0.13</v>
+      </c>
+      <c r="L1130">
+        <v>0</v>
+      </c>
+      <c r="M1130">
+        <v>0</v>
+      </c>
+      <c r="N1130">
+        <v>0</v>
+      </c>
+      <c r="O1130">
+        <v>0</v>
+      </c>
+      <c r="P1130">
+        <v>4.03</v>
+      </c>
+      <c r="Q1130">
+        <v>20.56</v>
+      </c>
+      <c r="R1130">
+        <v>4.22</v>
+      </c>
+      <c r="S1130">
+        <v>35</v>
+      </c>
+      <c r="T1130">
+        <v>1</v>
+      </c>
+      <c r="U1130">
+        <v>30</v>
+      </c>
+      <c r="V1130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>976</v>
+      </c>
+      <c r="H1131">
+        <v>5.52</v>
+      </c>
+      <c r="I1131">
+        <v>0.26</v>
+      </c>
+      <c r="J1131">
+        <v>5.26</v>
+      </c>
+      <c r="K1131">
+        <v>0.24</v>
+      </c>
+      <c r="L1131">
+        <v>0.03</v>
+      </c>
+      <c r="M1131">
+        <v>0</v>
+      </c>
+      <c r="N1131">
+        <v>0</v>
+      </c>
+      <c r="O1131">
+        <v>0</v>
+      </c>
+      <c r="P1131">
+        <v>4.13</v>
+      </c>
+      <c r="Q1131">
+        <v>22.82</v>
+      </c>
+      <c r="R1131">
+        <v>4.38</v>
+      </c>
+      <c r="S1131">
+        <v>20</v>
+      </c>
+      <c r="T1131">
+        <v>1</v>
+      </c>
+      <c r="U1131">
+        <v>23</v>
+      </c>
+      <c r="V1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>977</v>
+      </c>
+      <c r="H1132">
+        <v>5.21</v>
+      </c>
+      <c r="I1132">
+        <v>0.16</v>
+      </c>
+      <c r="J1132">
+        <v>5.04</v>
+      </c>
+      <c r="K1132">
+        <v>0.16</v>
+      </c>
+      <c r="L1132">
+        <v>0</v>
+      </c>
+      <c r="M1132">
+        <v>0</v>
+      </c>
+      <c r="N1132">
+        <v>0</v>
+      </c>
+      <c r="O1132">
+        <v>0</v>
+      </c>
+      <c r="P1132">
+        <v>3.71</v>
+      </c>
+      <c r="Q1132">
+        <v>20.39</v>
+      </c>
+      <c r="R1132">
+        <v>4.78</v>
+      </c>
+      <c r="S1132">
+        <v>24</v>
+      </c>
+      <c r="T1132">
+        <v>9</v>
+      </c>
+      <c r="U1132">
+        <v>26</v>
+      </c>
+      <c r="V1132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1133">
+        <v>5.08</v>
+      </c>
+      <c r="I1133">
+        <v>0.1</v>
+      </c>
+      <c r="J1133">
+        <v>4.97</v>
+      </c>
+      <c r="K1133">
+        <v>0.09</v>
+      </c>
+      <c r="L1133">
+        <v>0.01</v>
+      </c>
+      <c r="M1133">
+        <v>0</v>
+      </c>
+      <c r="N1133">
+        <v>0</v>
+      </c>
+      <c r="O1133">
+        <v>0</v>
+      </c>
+      <c r="P1133">
+        <v>3.81</v>
+      </c>
+      <c r="Q1133">
+        <v>23.63</v>
+      </c>
+      <c r="R1133">
+        <v>4.29</v>
+      </c>
+      <c r="S1133">
+        <v>25</v>
+      </c>
+      <c r="T1133">
+        <v>1</v>
+      </c>
+      <c r="U1133">
+        <v>29</v>
+      </c>
+      <c r="V1133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1134">
+        <v>5.92</v>
+      </c>
+      <c r="I1134">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1134">
+        <v>5.77</v>
+      </c>
+      <c r="K1134">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1134">
+        <v>0</v>
+      </c>
+      <c r="M1134">
+        <v>0</v>
+      </c>
+      <c r="N1134">
+        <v>0</v>
+      </c>
+      <c r="O1134">
+        <v>0</v>
+      </c>
+      <c r="P1134">
+        <v>3.76</v>
+      </c>
+      <c r="Q1134">
+        <v>21.99</v>
+      </c>
+      <c r="R1134">
+        <v>5</v>
+      </c>
+      <c r="S1134">
+        <v>23</v>
+      </c>
+      <c r="T1134">
+        <v>3</v>
+      </c>
+      <c r="U1134">
+        <v>28</v>
+      </c>
+      <c r="V1134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>979</v>
+      </c>
+      <c r="H1135">
+        <v>4.95</v>
+      </c>
+      <c r="I1135">
+        <v>0.09</v>
+      </c>
+      <c r="J1135">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K1135">
+        <v>0.09</v>
+      </c>
+      <c r="L1135">
+        <v>0</v>
+      </c>
+      <c r="M1135">
+        <v>0</v>
+      </c>
+      <c r="N1135">
+        <v>0</v>
+      </c>
+      <c r="O1135">
+        <v>0</v>
+      </c>
+      <c r="P1135">
+        <v>3.59</v>
+      </c>
+      <c r="Q1135">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="R1135">
+        <v>3.54</v>
+      </c>
+      <c r="S1135">
+        <v>15</v>
+      </c>
+      <c r="T1135">
+        <v>0</v>
+      </c>
+      <c r="U1135">
+        <v>9</v>
+      </c>
+      <c r="V1135">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824854F-8F9D-1A41-8E66-2431F971FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87927843-4BC6-7B4C-BD6C-CD5B5C3316B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6337" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="998">
   <si>
     <t>Temps joué</t>
   </si>
@@ -2936,9 +2936,6 @@
     <t>00:44:24</t>
   </si>
   <si>
-    <t>N3 J12 ES Fos</t>
-  </si>
-  <si>
     <t>01:04:28</t>
   </si>
   <si>
@@ -2963,9 +2960,6 @@
     <t>01:22:06</t>
   </si>
   <si>
-    <t>Yamine Maouchi</t>
-  </si>
-  <si>
     <t>01:19:15</t>
   </si>
   <si>
@@ -2976,13 +2970,73 @@
   </si>
   <si>
     <t>01:19:07</t>
+  </si>
+  <si>
+    <t>01:09:41</t>
+  </si>
+  <si>
+    <t>00:21:55</t>
+  </si>
+  <si>
+    <t>01:27:07</t>
+  </si>
+  <si>
+    <t>01:26:42</t>
+  </si>
+  <si>
+    <t>Yamin Maouchi</t>
+  </si>
+  <si>
+    <t>01:26:25</t>
+  </si>
+  <si>
+    <t>01:26:17</t>
+  </si>
+  <si>
+    <t>01:22:26</t>
+  </si>
+  <si>
+    <t>01:21:12</t>
+  </si>
+  <si>
+    <t>01:43:55</t>
+  </si>
+  <si>
+    <t>01:43:17</t>
+  </si>
+  <si>
+    <t>01:44:26</t>
+  </si>
+  <si>
+    <t>00:51:42</t>
+  </si>
+  <si>
+    <t>00:36:34</t>
+  </si>
+  <si>
+    <t>01:03:38</t>
+  </si>
+  <si>
+    <t>00:52:29</t>
+  </si>
+  <si>
+    <t>00:30:24</t>
+  </si>
+  <si>
+    <t>01:42:45</t>
+  </si>
+  <si>
+    <t>N3 J13 VS OL (B)</t>
+  </si>
+  <si>
+    <t>N3 J12 VS ES Fos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3012,6 +3066,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3033,7 +3094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3057,6 +3118,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3371,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1135"/>
+  <dimension ref="A1:V1168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1130" sqref="E1130"/>
+    <sheetView tabSelected="1" topLeftCell="A1147" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1188" sqref="C1188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76927,7 +76989,7 @@
     </row>
     <row r="1104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1104" s="1">
         <v>46031</v>
@@ -76995,7 +77057,7 @@
     </row>
     <row r="1105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1105" s="1">
         <v>46031</v>
@@ -77063,7 +77125,7 @@
     </row>
     <row r="1106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1106" s="1">
         <v>46031</v>
@@ -77131,7 +77193,7 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1107" s="1">
         <v>46031</v>
@@ -77199,7 +77261,7 @@
     </row>
     <row r="1108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1108" s="1">
         <v>46031</v>
@@ -77267,7 +77329,7 @@
     </row>
     <row r="1109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1109" s="1">
         <v>46031</v>
@@ -77335,7 +77397,7 @@
     </row>
     <row r="1110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1110" s="1">
         <v>46031</v>
@@ -77403,7 +77465,7 @@
     </row>
     <row r="1111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1111" s="1">
         <v>46031</v>
@@ -77471,7 +77533,7 @@
     </row>
     <row r="1112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1112" s="1">
         <v>46031</v>
@@ -77539,7 +77601,7 @@
     </row>
     <row r="1113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1113" s="1">
         <v>46031</v>
@@ -77607,7 +77669,7 @@
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1114" s="1">
         <v>46031</v>
@@ -77675,7 +77737,7 @@
     </row>
     <row r="1115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1115" s="1">
         <v>46031</v>
@@ -77743,7 +77805,7 @@
     </row>
     <row r="1116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1116" s="1">
         <v>46031</v>
@@ -77811,7 +77873,7 @@
     </row>
     <row r="1117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="B1117" s="1">
         <v>46031</v>
@@ -77897,7 +77959,7 @@
         <v>33</v>
       </c>
       <c r="G1118" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1118">
         <v>5.3</v>
@@ -77965,7 +78027,7 @@
         <v>32</v>
       </c>
       <c r="G1119" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1119">
         <v>6.23</v>
@@ -78101,7 +78163,7 @@
         <v>32</v>
       </c>
       <c r="G1121" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1121">
         <v>5.88</v>
@@ -78169,7 +78231,7 @@
         <v>32</v>
       </c>
       <c r="G1122" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1122">
         <v>5.15</v>
@@ -78373,7 +78435,7 @@
         <v>32</v>
       </c>
       <c r="G1125" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1125">
         <v>6</v>
@@ -78509,7 +78571,7 @@
         <v>33</v>
       </c>
       <c r="G1127" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1127">
         <v>5.82</v>
@@ -78577,7 +78639,7 @@
         <v>34</v>
       </c>
       <c r="G1128" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1128">
         <v>5.97</v>
@@ -78645,7 +78707,7 @@
         <v>31</v>
       </c>
       <c r="G1129" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1129">
         <v>5.64</v>
@@ -78706,8 +78768,8 @@
       <c r="D1130" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E1130" s="6" t="s">
-        <v>975</v>
+      <c r="E1130" s="11" t="s">
+        <v>982</v>
       </c>
       <c r="F1130" t="s">
         <v>32</v>
@@ -78781,7 +78843,7 @@
         <v>29</v>
       </c>
       <c r="G1131" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H1131">
         <v>5.52</v>
@@ -78849,7 +78911,7 @@
         <v>30</v>
       </c>
       <c r="G1132" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H1132">
         <v>5.21</v>
@@ -78985,7 +79047,7 @@
         <v>33</v>
       </c>
       <c r="G1134" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H1134">
         <v>5.92</v>
@@ -79053,7 +79115,7 @@
         <v>33</v>
       </c>
       <c r="G1135" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H1135">
         <v>4.95</v>
@@ -79099,6 +79161,2250 @@
       </c>
       <c r="V1135">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1136">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I1136">
+        <v>0.47</v>
+      </c>
+      <c r="J1136">
+        <v>4.05</v>
+      </c>
+      <c r="K1136">
+        <v>0.31</v>
+      </c>
+      <c r="L1136">
+        <v>0.12</v>
+      </c>
+      <c r="M1136">
+        <v>0.03</v>
+      </c>
+      <c r="N1136">
+        <v>0</v>
+      </c>
+      <c r="O1136">
+        <v>2</v>
+      </c>
+      <c r="P1136">
+        <v>3.76</v>
+      </c>
+      <c r="Q1136">
+        <v>28.03</v>
+      </c>
+      <c r="R1136">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S1136">
+        <v>18</v>
+      </c>
+      <c r="T1136">
+        <v>3</v>
+      </c>
+      <c r="U1136">
+        <v>7</v>
+      </c>
+      <c r="V1136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>979</v>
+      </c>
+      <c r="H1137">
+        <v>1.18</v>
+      </c>
+      <c r="I1137">
+        <v>0.19</v>
+      </c>
+      <c r="J1137">
+        <v>0.99</v>
+      </c>
+      <c r="K1137">
+        <v>0.15</v>
+      </c>
+      <c r="L1137">
+        <v>0.04</v>
+      </c>
+      <c r="M1137">
+        <v>0.01</v>
+      </c>
+      <c r="N1137">
+        <v>0</v>
+      </c>
+      <c r="O1137">
+        <v>1</v>
+      </c>
+      <c r="P1137">
+        <v>3.01</v>
+      </c>
+      <c r="Q1137">
+        <v>25.76</v>
+      </c>
+      <c r="R1137">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S1137">
+        <v>4</v>
+      </c>
+      <c r="T1137">
+        <v>1</v>
+      </c>
+      <c r="U1137">
+        <v>9</v>
+      </c>
+      <c r="V1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>980</v>
+      </c>
+      <c r="H1138">
+        <v>5.61</v>
+      </c>
+      <c r="I1138">
+        <v>0.31</v>
+      </c>
+      <c r="J1138">
+        <v>5.3</v>
+      </c>
+      <c r="K1138">
+        <v>0.24</v>
+      </c>
+      <c r="L1138">
+        <v>0.06</v>
+      </c>
+      <c r="M1138">
+        <v>0.02</v>
+      </c>
+      <c r="N1138">
+        <v>0</v>
+      </c>
+      <c r="O1138">
+        <v>1</v>
+      </c>
+      <c r="P1138">
+        <v>3.84</v>
+      </c>
+      <c r="Q1138">
+        <v>26.88</v>
+      </c>
+      <c r="R1138">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S1138">
+        <v>23</v>
+      </c>
+      <c r="T1138">
+        <v>1</v>
+      </c>
+      <c r="U1138">
+        <v>15</v>
+      </c>
+      <c r="V1138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1139">
+        <v>6.49</v>
+      </c>
+      <c r="I1139">
+        <v>0.83</v>
+      </c>
+      <c r="J1139">
+        <v>5.64</v>
+      </c>
+      <c r="K1139">
+        <v>0.45</v>
+      </c>
+      <c r="L1139">
+        <v>0.26</v>
+      </c>
+      <c r="M1139">
+        <v>0.13</v>
+      </c>
+      <c r="N1139">
+        <v>0</v>
+      </c>
+      <c r="O1139">
+        <v>11</v>
+      </c>
+      <c r="P1139">
+        <v>4.13</v>
+      </c>
+      <c r="Q1139">
+        <v>30.15</v>
+      </c>
+      <c r="R1139">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S1139">
+        <v>23</v>
+      </c>
+      <c r="T1139">
+        <v>6</v>
+      </c>
+      <c r="U1139">
+        <v>27</v>
+      </c>
+      <c r="V1139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>980</v>
+      </c>
+      <c r="H1140">
+        <v>6.33</v>
+      </c>
+      <c r="I1140">
+        <v>0.76</v>
+      </c>
+      <c r="J1140">
+        <v>5.56</v>
+      </c>
+      <c r="K1140">
+        <v>0.51</v>
+      </c>
+      <c r="L1140">
+        <v>0.23</v>
+      </c>
+      <c r="M1140">
+        <v>0.03</v>
+      </c>
+      <c r="N1140">
+        <v>0</v>
+      </c>
+      <c r="O1140">
+        <v>2</v>
+      </c>
+      <c r="P1140">
+        <v>4.25</v>
+      </c>
+      <c r="Q1140">
+        <v>27.96</v>
+      </c>
+      <c r="R1140">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S1140">
+        <v>24</v>
+      </c>
+      <c r="T1140">
+        <v>4</v>
+      </c>
+      <c r="U1140">
+        <v>7</v>
+      </c>
+      <c r="V1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1141">
+        <v>3.69</v>
+      </c>
+      <c r="I1141">
+        <v>0.53</v>
+      </c>
+      <c r="J1141">
+        <v>3.16</v>
+      </c>
+      <c r="K1141">
+        <v>0.25</v>
+      </c>
+      <c r="L1141">
+        <v>0.27</v>
+      </c>
+      <c r="M1141">
+        <v>0.02</v>
+      </c>
+      <c r="N1141">
+        <v>0</v>
+      </c>
+      <c r="O1141">
+        <v>3</v>
+      </c>
+      <c r="P1141">
+        <v>3.56</v>
+      </c>
+      <c r="Q1141">
+        <v>26.99</v>
+      </c>
+      <c r="R1141">
+        <v>4.74</v>
+      </c>
+      <c r="S1141">
+        <v>14</v>
+      </c>
+      <c r="T1141">
+        <v>6</v>
+      </c>
+      <c r="U1141">
+        <v>14</v>
+      </c>
+      <c r="V1141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1142">
+        <v>6.04</v>
+      </c>
+      <c r="I1142">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J1142">
+        <v>5.45</v>
+      </c>
+      <c r="K1142">
+        <v>0.39</v>
+      </c>
+      <c r="L1142">
+        <v>0.15</v>
+      </c>
+      <c r="M1142">
+        <v>0.04</v>
+      </c>
+      <c r="N1142">
+        <v>0</v>
+      </c>
+      <c r="O1142">
+        <v>7</v>
+      </c>
+      <c r="P1142">
+        <v>3.89</v>
+      </c>
+      <c r="Q1142">
+        <v>29.59</v>
+      </c>
+      <c r="R1142">
+        <v>6.21</v>
+      </c>
+      <c r="S1142">
+        <v>63</v>
+      </c>
+      <c r="T1142">
+        <v>12</v>
+      </c>
+      <c r="U1142">
+        <v>38</v>
+      </c>
+      <c r="V1142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1143" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1143" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1143">
+        <v>5.96</v>
+      </c>
+      <c r="I1143">
+        <v>0.72</v>
+      </c>
+      <c r="J1143">
+        <v>5.23</v>
+      </c>
+      <c r="K1143">
+        <v>0.38</v>
+      </c>
+      <c r="L1143">
+        <v>0.25</v>
+      </c>
+      <c r="M1143">
+        <v>0.1</v>
+      </c>
+      <c r="N1143">
+        <v>0</v>
+      </c>
+      <c r="O1143">
+        <v>8</v>
+      </c>
+      <c r="P1143">
+        <v>4.08</v>
+      </c>
+      <c r="Q1143">
+        <v>29.03</v>
+      </c>
+      <c r="R1143">
+        <v>4.33</v>
+      </c>
+      <c r="S1143">
+        <v>21</v>
+      </c>
+      <c r="T1143">
+        <v>3</v>
+      </c>
+      <c r="U1143">
+        <v>23</v>
+      </c>
+      <c r="V1143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1144" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>980</v>
+      </c>
+      <c r="H1144">
+        <v>5.79</v>
+      </c>
+      <c r="I1144">
+        <v>0.64</v>
+      </c>
+      <c r="J1144">
+        <v>5.14</v>
+      </c>
+      <c r="K1144">
+        <v>0.39</v>
+      </c>
+      <c r="L1144">
+        <v>0.22</v>
+      </c>
+      <c r="M1144">
+        <v>0.05</v>
+      </c>
+      <c r="N1144">
+        <v>0</v>
+      </c>
+      <c r="O1144">
+        <v>6</v>
+      </c>
+      <c r="P1144">
+        <v>3.54</v>
+      </c>
+      <c r="Q1144">
+        <v>27.46</v>
+      </c>
+      <c r="R1144">
+        <v>5.44</v>
+      </c>
+      <c r="S1144">
+        <v>32</v>
+      </c>
+      <c r="T1144">
+        <v>11</v>
+      </c>
+      <c r="U1144">
+        <v>34</v>
+      </c>
+      <c r="V1144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1145" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1145">
+        <v>5.25</v>
+      </c>
+      <c r="I1145">
+        <v>0.26</v>
+      </c>
+      <c r="J1145">
+        <v>4.99</v>
+      </c>
+      <c r="K1145">
+        <v>0.23</v>
+      </c>
+      <c r="L1145">
+        <v>0.04</v>
+      </c>
+      <c r="M1145">
+        <v>0</v>
+      </c>
+      <c r="N1145">
+        <v>0</v>
+      </c>
+      <c r="O1145">
+        <v>0</v>
+      </c>
+      <c r="P1145">
+        <v>3.51</v>
+      </c>
+      <c r="Q1145">
+        <v>24.28</v>
+      </c>
+      <c r="R1145">
+        <v>4.5</v>
+      </c>
+      <c r="S1145">
+        <v>9</v>
+      </c>
+      <c r="T1145">
+        <v>2</v>
+      </c>
+      <c r="U1145">
+        <v>9</v>
+      </c>
+      <c r="V1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1146" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1146">
+        <v>5.61</v>
+      </c>
+      <c r="I1146">
+        <v>0.43</v>
+      </c>
+      <c r="J1146">
+        <v>5.18</v>
+      </c>
+      <c r="K1146">
+        <v>0.33</v>
+      </c>
+      <c r="L1146">
+        <v>0.1</v>
+      </c>
+      <c r="M1146">
+        <v>0</v>
+      </c>
+      <c r="N1146">
+        <v>0</v>
+      </c>
+      <c r="O1146">
+        <v>0</v>
+      </c>
+      <c r="P1146">
+        <v>3.36</v>
+      </c>
+      <c r="Q1146">
+        <v>23.45</v>
+      </c>
+      <c r="R1146">
+        <v>4.96</v>
+      </c>
+      <c r="S1146">
+        <v>34</v>
+      </c>
+      <c r="T1146">
+        <v>3</v>
+      </c>
+      <c r="U1146">
+        <v>23</v>
+      </c>
+      <c r="V1146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1147" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1147">
+        <v>6.24</v>
+      </c>
+      <c r="I1147">
+        <v>0.8</v>
+      </c>
+      <c r="J1147">
+        <v>5.43</v>
+      </c>
+      <c r="K1147">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L1147">
+        <v>0.19</v>
+      </c>
+      <c r="M1147">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1147">
+        <v>0</v>
+      </c>
+      <c r="O1147">
+        <v>3</v>
+      </c>
+      <c r="P1147">
+        <v>4.24</v>
+      </c>
+      <c r="Q1147">
+        <v>28.68</v>
+      </c>
+      <c r="R1147">
+        <v>4.45</v>
+      </c>
+      <c r="S1147">
+        <v>28</v>
+      </c>
+      <c r="T1147">
+        <v>2</v>
+      </c>
+      <c r="U1147">
+        <v>27</v>
+      </c>
+      <c r="V1147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1148" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1148">
+        <v>6.7</v>
+      </c>
+      <c r="I1148">
+        <v>0.88</v>
+      </c>
+      <c r="J1148">
+        <v>5.8</v>
+      </c>
+      <c r="K1148">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L1148">
+        <v>0.3</v>
+      </c>
+      <c r="M1148">
+        <v>0.05</v>
+      </c>
+      <c r="N1148">
+        <v>0</v>
+      </c>
+      <c r="O1148">
+        <v>10</v>
+      </c>
+      <c r="P1148">
+        <v>4.18</v>
+      </c>
+      <c r="Q1148">
+        <v>28.37</v>
+      </c>
+      <c r="R1148">
+        <v>5.24</v>
+      </c>
+      <c r="S1148">
+        <v>50</v>
+      </c>
+      <c r="T1148">
+        <v>8</v>
+      </c>
+      <c r="U1148">
+        <v>45</v>
+      </c>
+      <c r="V1148">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1149">
+        <v>5.65</v>
+      </c>
+      <c r="I1149">
+        <v>0.75</v>
+      </c>
+      <c r="J1149">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K1149">
+        <v>0.42</v>
+      </c>
+      <c r="L1149">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M1149">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1149">
+        <v>0</v>
+      </c>
+      <c r="O1149">
+        <v>7</v>
+      </c>
+      <c r="P1149">
+        <v>3.65</v>
+      </c>
+      <c r="Q1149">
+        <v>28.4</v>
+      </c>
+      <c r="R1149">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S1149">
+        <v>16</v>
+      </c>
+      <c r="T1149">
+        <v>1</v>
+      </c>
+      <c r="U1149">
+        <v>17</v>
+      </c>
+      <c r="V1149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1150" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1150">
+        <v>6.2</v>
+      </c>
+      <c r="I1150">
+        <v>0.48</v>
+      </c>
+      <c r="J1150">
+        <v>5.72</v>
+      </c>
+      <c r="K1150">
+        <v>0.32</v>
+      </c>
+      <c r="L1150">
+        <v>0.11</v>
+      </c>
+      <c r="M1150">
+        <v>0.05</v>
+      </c>
+      <c r="N1150">
+        <v>0</v>
+      </c>
+      <c r="O1150">
+        <v>3</v>
+      </c>
+      <c r="P1150">
+        <v>4.21</v>
+      </c>
+      <c r="Q1150">
+        <v>27.82</v>
+      </c>
+      <c r="R1150">
+        <v>4.21</v>
+      </c>
+      <c r="S1150">
+        <v>26</v>
+      </c>
+      <c r="T1150">
+        <v>2</v>
+      </c>
+      <c r="U1150">
+        <v>22</v>
+      </c>
+      <c r="V1150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1151" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>984</v>
+      </c>
+      <c r="H1151">
+        <v>6.6</v>
+      </c>
+      <c r="I1151">
+        <v>0.95</v>
+      </c>
+      <c r="J1151">
+        <v>5.64</v>
+      </c>
+      <c r="K1151">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L1151">
+        <v>0.34</v>
+      </c>
+      <c r="M1151">
+        <v>0.05</v>
+      </c>
+      <c r="N1151">
+        <v>0</v>
+      </c>
+      <c r="O1151">
+        <v>6</v>
+      </c>
+      <c r="P1151">
+        <v>4.5</v>
+      </c>
+      <c r="Q1151">
+        <v>26.79</v>
+      </c>
+      <c r="R1151">
+        <v>5.31</v>
+      </c>
+      <c r="S1151">
+        <v>31</v>
+      </c>
+      <c r="T1151">
+        <v>7</v>
+      </c>
+      <c r="U1151">
+        <v>13</v>
+      </c>
+      <c r="V1151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1152" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>985</v>
+      </c>
+      <c r="H1152">
+        <v>4.75</v>
+      </c>
+      <c r="I1152">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J1152">
+        <v>4.46</v>
+      </c>
+      <c r="K1152">
+        <v>0.22</v>
+      </c>
+      <c r="L1152">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1152">
+        <v>0</v>
+      </c>
+      <c r="N1152">
+        <v>0</v>
+      </c>
+      <c r="O1152">
+        <v>0</v>
+      </c>
+      <c r="P1152">
+        <v>3.35</v>
+      </c>
+      <c r="Q1152">
+        <v>24.64</v>
+      </c>
+      <c r="R1152">
+        <v>4.96</v>
+      </c>
+      <c r="S1152">
+        <v>29</v>
+      </c>
+      <c r="T1152">
+        <v>5</v>
+      </c>
+      <c r="U1152">
+        <v>19</v>
+      </c>
+      <c r="V1152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1153">
+        <v>5.45</v>
+      </c>
+      <c r="I1153">
+        <v>0.37</v>
+      </c>
+      <c r="J1153">
+        <v>5.07</v>
+      </c>
+      <c r="K1153">
+        <v>0.23</v>
+      </c>
+      <c r="L1153">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1153">
+        <v>0.01</v>
+      </c>
+      <c r="N1153">
+        <v>0</v>
+      </c>
+      <c r="O1153">
+        <v>2</v>
+      </c>
+      <c r="P1153">
+        <v>3.86</v>
+      </c>
+      <c r="Q1153">
+        <v>26.66</v>
+      </c>
+      <c r="R1153">
+        <v>5.4</v>
+      </c>
+      <c r="S1153">
+        <v>18</v>
+      </c>
+      <c r="T1153">
+        <v>13</v>
+      </c>
+      <c r="U1153">
+        <v>20</v>
+      </c>
+      <c r="V1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>795</v>
+      </c>
+      <c r="H1154">
+        <v>5.67</v>
+      </c>
+      <c r="I1154">
+        <v>0.38</v>
+      </c>
+      <c r="J1154">
+        <v>5.27</v>
+      </c>
+      <c r="K1154">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1154">
+        <v>0.09</v>
+      </c>
+      <c r="M1154">
+        <v>0.03</v>
+      </c>
+      <c r="N1154">
+        <v>0</v>
+      </c>
+      <c r="O1154">
+        <v>5</v>
+      </c>
+      <c r="P1154">
+        <v>3.84</v>
+      </c>
+      <c r="Q1154">
+        <v>30.45</v>
+      </c>
+      <c r="R1154">
+        <v>4.74</v>
+      </c>
+      <c r="S1154">
+        <v>45</v>
+      </c>
+      <c r="T1154">
+        <v>12</v>
+      </c>
+      <c r="U1154">
+        <v>36</v>
+      </c>
+      <c r="V1154">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1155">
+        <v>5.61</v>
+      </c>
+      <c r="I1155">
+        <v>0.34</v>
+      </c>
+      <c r="J1155">
+        <v>5.26</v>
+      </c>
+      <c r="K1155">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L1155">
+        <v>0.05</v>
+      </c>
+      <c r="M1155">
+        <v>0.01</v>
+      </c>
+      <c r="N1155">
+        <v>0</v>
+      </c>
+      <c r="O1155">
+        <v>1</v>
+      </c>
+      <c r="P1155">
+        <v>4.08</v>
+      </c>
+      <c r="Q1155">
+        <v>25.92</v>
+      </c>
+      <c r="R1155">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S1155">
+        <v>26</v>
+      </c>
+      <c r="T1155">
+        <v>3</v>
+      </c>
+      <c r="U1155">
+        <v>10</v>
+      </c>
+      <c r="V1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>987</v>
+      </c>
+      <c r="H1156">
+        <v>11.32</v>
+      </c>
+      <c r="I1156">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J1156">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K1156">
+        <v>1.65</v>
+      </c>
+      <c r="L1156">
+        <v>0.41</v>
+      </c>
+      <c r="M1156">
+        <v>0.04</v>
+      </c>
+      <c r="N1156">
+        <v>0</v>
+      </c>
+      <c r="O1156">
+        <v>4</v>
+      </c>
+      <c r="P1156">
+        <v>6.47</v>
+      </c>
+      <c r="Q1156">
+        <v>27.23</v>
+      </c>
+      <c r="R1156">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S1156">
+        <v>51</v>
+      </c>
+      <c r="T1156">
+        <v>8</v>
+      </c>
+      <c r="U1156">
+        <v>37</v>
+      </c>
+      <c r="V1156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1157" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>987</v>
+      </c>
+      <c r="H1157">
+        <v>11.14</v>
+      </c>
+      <c r="I1157">
+        <v>2.44</v>
+      </c>
+      <c r="J1157">
+        <v>8.67</v>
+      </c>
+      <c r="K1157">
+        <v>1.61</v>
+      </c>
+      <c r="L1157">
+        <v>0.68</v>
+      </c>
+      <c r="M1157">
+        <v>0.18</v>
+      </c>
+      <c r="N1157">
+        <v>0</v>
+      </c>
+      <c r="O1157">
+        <v>14</v>
+      </c>
+      <c r="P1157">
+        <v>6.36</v>
+      </c>
+      <c r="Q1157">
+        <v>29.73</v>
+      </c>
+      <c r="R1157">
+        <v>4.83</v>
+      </c>
+      <c r="S1157">
+        <v>31</v>
+      </c>
+      <c r="T1157">
+        <v>5</v>
+      </c>
+      <c r="U1157">
+        <v>24</v>
+      </c>
+      <c r="V1157">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1158" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>988</v>
+      </c>
+      <c r="H1158">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="I1158">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J1158">
+        <v>7.51</v>
+      </c>
+      <c r="K1158">
+        <v>1.38</v>
+      </c>
+      <c r="L1158">
+        <v>0.62</v>
+      </c>
+      <c r="M1158">
+        <v>0.25</v>
+      </c>
+      <c r="N1158">
+        <v>0.03</v>
+      </c>
+      <c r="O1158">
+        <v>16</v>
+      </c>
+      <c r="P1158">
+        <v>5.61</v>
+      </c>
+      <c r="Q1158">
+        <v>32.69</v>
+      </c>
+      <c r="R1158">
+        <v>5.39</v>
+      </c>
+      <c r="S1158">
+        <v>45</v>
+      </c>
+      <c r="T1158">
+        <v>16</v>
+      </c>
+      <c r="U1158">
+        <v>29</v>
+      </c>
+      <c r="V1158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1159" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>989</v>
+      </c>
+      <c r="H1159">
+        <v>12.1</v>
+      </c>
+      <c r="I1159">
+        <v>1.93</v>
+      </c>
+      <c r="J1159">
+        <v>10.15</v>
+      </c>
+      <c r="K1159">
+        <v>1.33</v>
+      </c>
+      <c r="L1159">
+        <v>0.44</v>
+      </c>
+      <c r="M1159">
+        <v>0.18</v>
+      </c>
+      <c r="N1159">
+        <v>0.01</v>
+      </c>
+      <c r="O1159">
+        <v>10</v>
+      </c>
+      <c r="P1159">
+        <v>6.89</v>
+      </c>
+      <c r="Q1159">
+        <v>30.74</v>
+      </c>
+      <c r="R1159">
+        <v>4.2</v>
+      </c>
+      <c r="S1159">
+        <v>45</v>
+      </c>
+      <c r="T1159">
+        <v>3</v>
+      </c>
+      <c r="U1159">
+        <v>40</v>
+      </c>
+      <c r="V1159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1160" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1160">
+        <v>6.48</v>
+      </c>
+      <c r="I1160">
+        <v>1.46</v>
+      </c>
+      <c r="J1160">
+        <v>5</v>
+      </c>
+      <c r="K1160">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L1160">
+        <v>0.26</v>
+      </c>
+      <c r="M1160">
+        <v>0.06</v>
+      </c>
+      <c r="N1160">
+        <v>0</v>
+      </c>
+      <c r="O1160">
+        <v>3</v>
+      </c>
+      <c r="P1160">
+        <v>7.44</v>
+      </c>
+      <c r="Q1160">
+        <v>28.17</v>
+      </c>
+      <c r="R1160">
+        <v>5.05</v>
+      </c>
+      <c r="S1160">
+        <v>17</v>
+      </c>
+      <c r="T1160">
+        <v>3</v>
+      </c>
+      <c r="U1160">
+        <v>18</v>
+      </c>
+      <c r="V1160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1161" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>991</v>
+      </c>
+      <c r="H1161">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I1161">
+        <v>1.01</v>
+      </c>
+      <c r="J1161">
+        <v>3.21</v>
+      </c>
+      <c r="K1161">
+        <v>0.73</v>
+      </c>
+      <c r="L1161">
+        <v>0.27</v>
+      </c>
+      <c r="M1161">
+        <v>0.03</v>
+      </c>
+      <c r="N1161">
+        <v>0</v>
+      </c>
+      <c r="O1161">
+        <v>3</v>
+      </c>
+      <c r="P1161">
+        <v>6.91</v>
+      </c>
+      <c r="Q1161">
+        <v>27.17</v>
+      </c>
+      <c r="R1161">
+        <v>4.57</v>
+      </c>
+      <c r="S1161">
+        <v>12</v>
+      </c>
+      <c r="T1161">
+        <v>4</v>
+      </c>
+      <c r="U1161">
+        <v>17</v>
+      </c>
+      <c r="V1161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1162" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1162">
+        <v>9.34</v>
+      </c>
+      <c r="I1162">
+        <v>1.41</v>
+      </c>
+      <c r="J1162">
+        <v>7.91</v>
+      </c>
+      <c r="K1162">
+        <v>0.99</v>
+      </c>
+      <c r="L1162">
+        <v>0.31</v>
+      </c>
+      <c r="M1162">
+        <v>0.09</v>
+      </c>
+      <c r="N1162">
+        <v>0.04</v>
+      </c>
+      <c r="O1162">
+        <v>6</v>
+      </c>
+      <c r="P1162">
+        <v>6.1</v>
+      </c>
+      <c r="Q1162">
+        <v>32.14</v>
+      </c>
+      <c r="R1162">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S1162">
+        <v>31</v>
+      </c>
+      <c r="T1162">
+        <v>4</v>
+      </c>
+      <c r="U1162">
+        <v>37</v>
+      </c>
+      <c r="V1162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>992</v>
+      </c>
+      <c r="H1163">
+        <v>7.9</v>
+      </c>
+      <c r="I1163">
+        <v>1.85</v>
+      </c>
+      <c r="J1163">
+        <v>6.02</v>
+      </c>
+      <c r="K1163">
+        <v>1.24</v>
+      </c>
+      <c r="L1163">
+        <v>0.51</v>
+      </c>
+      <c r="M1163">
+        <v>0.11</v>
+      </c>
+      <c r="N1163">
+        <v>0.02</v>
+      </c>
+      <c r="O1163">
+        <v>8</v>
+      </c>
+      <c r="P1163">
+        <v>7.41</v>
+      </c>
+      <c r="Q1163">
+        <v>30.83</v>
+      </c>
+      <c r="R1163">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S1163">
+        <v>30</v>
+      </c>
+      <c r="T1163">
+        <v>7</v>
+      </c>
+      <c r="U1163">
+        <v>18</v>
+      </c>
+      <c r="V1163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1164" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>993</v>
+      </c>
+      <c r="H1164">
+        <v>5.95</v>
+      </c>
+      <c r="I1164">
+        <v>1.5</v>
+      </c>
+      <c r="J1164">
+        <v>4.43</v>
+      </c>
+      <c r="K1164">
+        <v>1</v>
+      </c>
+      <c r="L1164">
+        <v>0.39</v>
+      </c>
+      <c r="M1164">
+        <v>0.13</v>
+      </c>
+      <c r="N1164">
+        <v>0</v>
+      </c>
+      <c r="O1164">
+        <v>11</v>
+      </c>
+      <c r="P1164">
+        <v>6.81</v>
+      </c>
+      <c r="Q1164">
+        <v>29.65</v>
+      </c>
+      <c r="R1164">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1164">
+        <v>33</v>
+      </c>
+      <c r="T1164">
+        <v>7</v>
+      </c>
+      <c r="U1164">
+        <v>32</v>
+      </c>
+      <c r="V1164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1165" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>994</v>
+      </c>
+      <c r="H1165">
+        <v>3.85</v>
+      </c>
+      <c r="I1165">
+        <v>1.19</v>
+      </c>
+      <c r="J1165">
+        <v>2.65</v>
+      </c>
+      <c r="K1165">
+        <v>0.9</v>
+      </c>
+      <c r="L1165">
+        <v>0.24</v>
+      </c>
+      <c r="M1165">
+        <v>0.05</v>
+      </c>
+      <c r="N1165">
+        <v>0</v>
+      </c>
+      <c r="O1165">
+        <v>6</v>
+      </c>
+      <c r="P1165">
+        <v>7.55</v>
+      </c>
+      <c r="Q1165">
+        <v>29.05</v>
+      </c>
+      <c r="R1165">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1165">
+        <v>19</v>
+      </c>
+      <c r="T1165">
+        <v>1</v>
+      </c>
+      <c r="U1165">
+        <v>19</v>
+      </c>
+      <c r="V1165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1166" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>987</v>
+      </c>
+      <c r="H1166">
+        <v>10.29</v>
+      </c>
+      <c r="I1166">
+        <v>1.4</v>
+      </c>
+      <c r="J1166">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="K1166">
+        <v>1.01</v>
+      </c>
+      <c r="L1166">
+        <v>0.26</v>
+      </c>
+      <c r="M1166">
+        <v>0.13</v>
+      </c>
+      <c r="N1166">
+        <v>0.01</v>
+      </c>
+      <c r="O1166">
+        <v>6</v>
+      </c>
+      <c r="P1166">
+        <v>5.82</v>
+      </c>
+      <c r="Q1166">
+        <v>30.97</v>
+      </c>
+      <c r="R1166">
+        <v>4.49</v>
+      </c>
+      <c r="S1166">
+        <v>39</v>
+      </c>
+      <c r="T1166">
+        <v>3</v>
+      </c>
+      <c r="U1166">
+        <v>20</v>
+      </c>
+      <c r="V1166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1167" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1167">
+        <v>9.27</v>
+      </c>
+      <c r="I1167">
+        <v>1.85</v>
+      </c>
+      <c r="J1167">
+        <v>7.4</v>
+      </c>
+      <c r="K1167">
+        <v>1.3</v>
+      </c>
+      <c r="L1167">
+        <v>0.51</v>
+      </c>
+      <c r="M1167">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1167">
+        <v>0</v>
+      </c>
+      <c r="O1167">
+        <v>7</v>
+      </c>
+      <c r="P1167">
+        <v>7.34</v>
+      </c>
+      <c r="Q1167">
+        <v>29.14</v>
+      </c>
+      <c r="R1167">
+        <v>4.32</v>
+      </c>
+      <c r="S1167">
+        <v>44</v>
+      </c>
+      <c r="T1167">
+        <v>5</v>
+      </c>
+      <c r="U1167">
+        <v>33</v>
+      </c>
+      <c r="V1167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1168" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>995</v>
+      </c>
+      <c r="H1168">
+        <v>13.68</v>
+      </c>
+      <c r="I1168">
+        <v>3.24</v>
+      </c>
+      <c r="J1168">
+        <v>10.41</v>
+      </c>
+      <c r="K1168">
+        <v>2.61</v>
+      </c>
+      <c r="L1168">
+        <v>0.6</v>
+      </c>
+      <c r="M1168">
+        <v>0.06</v>
+      </c>
+      <c r="N1168">
+        <v>0</v>
+      </c>
+      <c r="O1168">
+        <v>6</v>
+      </c>
+      <c r="P1168">
+        <v>7.9</v>
+      </c>
+      <c r="Q1168">
+        <v>26.43</v>
+      </c>
+      <c r="R1168">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S1168">
+        <v>23</v>
+      </c>
+      <c r="T1168">
+        <v>2</v>
+      </c>
+      <c r="U1168">
+        <v>26</v>
+      </c>
+      <c r="V1168">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87927843-4BC6-7B4C-BD6C-CD5B5C3316B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C1CBE-2E8F-014B-9665-68366E03DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="1009">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3030,6 +3030,39 @@
   </si>
   <si>
     <t>N3 J12 VS ES Fos</t>
+  </si>
+  <si>
+    <t>01:12:31</t>
+  </si>
+  <si>
+    <t>01:11:20</t>
+  </si>
+  <si>
+    <t>01:45:57</t>
+  </si>
+  <si>
+    <t>01:44:44</t>
+  </si>
+  <si>
+    <t>01:46:43</t>
+  </si>
+  <si>
+    <t>01:46:25</t>
+  </si>
+  <si>
+    <t>01:43:40</t>
+  </si>
+  <si>
+    <t>01:46:32</t>
+  </si>
+  <si>
+    <t>01:45:58</t>
+  </si>
+  <si>
+    <t>01:43:58</t>
+  </si>
+  <si>
+    <t>01:44:35</t>
   </si>
 </sst>
 </file>
@@ -3433,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1168"/>
+  <dimension ref="A1:V1181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1147" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1188" sqref="C1188"/>
+      <selection activeCell="C1184" sqref="C1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81407,6 +81440,890 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1169" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1169" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>998</v>
+      </c>
+      <c r="H1169">
+        <v>5.67</v>
+      </c>
+      <c r="I1169">
+        <v>0.12</v>
+      </c>
+      <c r="J1169">
+        <v>5.54</v>
+      </c>
+      <c r="K1169">
+        <v>0.1</v>
+      </c>
+      <c r="L1169">
+        <v>0.02</v>
+      </c>
+      <c r="M1169">
+        <v>0</v>
+      </c>
+      <c r="N1169">
+        <v>0</v>
+      </c>
+      <c r="O1169">
+        <v>0</v>
+      </c>
+      <c r="P1169">
+        <v>4.59</v>
+      </c>
+      <c r="Q1169">
+        <v>22.91</v>
+      </c>
+      <c r="R1169">
+        <v>5.12</v>
+      </c>
+      <c r="S1169">
+        <v>15</v>
+      </c>
+      <c r="T1169">
+        <v>5</v>
+      </c>
+      <c r="U1169">
+        <v>11</v>
+      </c>
+      <c r="V1169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>46041</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1170" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>999</v>
+      </c>
+      <c r="H1170">
+        <v>6.18</v>
+      </c>
+      <c r="I1170">
+        <v>0.1</v>
+      </c>
+      <c r="J1170">
+        <v>6.07</v>
+      </c>
+      <c r="K1170">
+        <v>0.1</v>
+      </c>
+      <c r="L1170">
+        <v>0</v>
+      </c>
+      <c r="M1170">
+        <v>0</v>
+      </c>
+      <c r="N1170">
+        <v>0</v>
+      </c>
+      <c r="O1170">
+        <v>0</v>
+      </c>
+      <c r="P1170">
+        <v>5.09</v>
+      </c>
+      <c r="Q1170">
+        <v>19.98</v>
+      </c>
+      <c r="R1170">
+        <v>3.63</v>
+      </c>
+      <c r="S1170">
+        <v>13</v>
+      </c>
+      <c r="T1170">
+        <v>0</v>
+      </c>
+      <c r="U1170">
+        <v>7</v>
+      </c>
+      <c r="V1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1171" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1171">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I1171">
+        <v>1.44</v>
+      </c>
+      <c r="J1171">
+        <v>6.76</v>
+      </c>
+      <c r="K1171">
+        <v>0.78</v>
+      </c>
+      <c r="L1171">
+        <v>0.67</v>
+      </c>
+      <c r="M1171">
+        <v>0</v>
+      </c>
+      <c r="N1171">
+        <v>0</v>
+      </c>
+      <c r="O1171">
+        <v>0</v>
+      </c>
+      <c r="P1171">
+        <v>4.62</v>
+      </c>
+      <c r="Q1171">
+        <v>22.75</v>
+      </c>
+      <c r="R1171">
+        <v>4.58</v>
+      </c>
+      <c r="S1171">
+        <v>49</v>
+      </c>
+      <c r="T1171">
+        <v>12</v>
+      </c>
+      <c r="U1171">
+        <v>31</v>
+      </c>
+      <c r="V1171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1172" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H1172">
+        <v>10.49</v>
+      </c>
+      <c r="I1172">
+        <v>1.31</v>
+      </c>
+      <c r="J1172">
+        <v>9.17</v>
+      </c>
+      <c r="K1172">
+        <v>1.18</v>
+      </c>
+      <c r="L1172">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1172">
+        <v>0</v>
+      </c>
+      <c r="N1172">
+        <v>0</v>
+      </c>
+      <c r="O1172">
+        <v>0</v>
+      </c>
+      <c r="P1172">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q1172">
+        <v>24.21</v>
+      </c>
+      <c r="R1172">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S1172">
+        <v>39</v>
+      </c>
+      <c r="T1172">
+        <v>7</v>
+      </c>
+      <c r="U1172">
+        <v>25</v>
+      </c>
+      <c r="V1172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1173" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1173">
+        <v>8.09</v>
+      </c>
+      <c r="I1173">
+        <v>1.34</v>
+      </c>
+      <c r="J1173">
+        <v>6.73</v>
+      </c>
+      <c r="K1173">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L1173">
+        <v>0.24</v>
+      </c>
+      <c r="M1173">
+        <v>0</v>
+      </c>
+      <c r="N1173">
+        <v>0</v>
+      </c>
+      <c r="O1173">
+        <v>0</v>
+      </c>
+      <c r="P1173">
+        <v>4.28</v>
+      </c>
+      <c r="Q1173">
+        <v>24.61</v>
+      </c>
+      <c r="R1173">
+        <v>5.76</v>
+      </c>
+      <c r="S1173">
+        <v>108</v>
+      </c>
+      <c r="T1173">
+        <v>33</v>
+      </c>
+      <c r="U1173">
+        <v>67</v>
+      </c>
+      <c r="V1173">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1174" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1174">
+        <v>8.6</v>
+      </c>
+      <c r="I1174">
+        <v>0.16</v>
+      </c>
+      <c r="J1174">
+        <v>8.44</v>
+      </c>
+      <c r="K1174">
+        <v>0.15</v>
+      </c>
+      <c r="L1174">
+        <v>0.01</v>
+      </c>
+      <c r="M1174">
+        <v>0</v>
+      </c>
+      <c r="N1174">
+        <v>0</v>
+      </c>
+      <c r="O1174">
+        <v>0</v>
+      </c>
+      <c r="P1174">
+        <v>4.2</v>
+      </c>
+      <c r="Q1174">
+        <v>21.95</v>
+      </c>
+      <c r="R1174">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S1174">
+        <v>49</v>
+      </c>
+      <c r="T1174">
+        <v>2</v>
+      </c>
+      <c r="U1174">
+        <v>33</v>
+      </c>
+      <c r="V1174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H1175">
+        <v>7.48</v>
+      </c>
+      <c r="I1175">
+        <v>0.93</v>
+      </c>
+      <c r="J1175">
+        <v>6.55</v>
+      </c>
+      <c r="K1175">
+        <v>0.92</v>
+      </c>
+      <c r="L1175">
+        <v>0.01</v>
+      </c>
+      <c r="M1175">
+        <v>0</v>
+      </c>
+      <c r="N1175">
+        <v>0</v>
+      </c>
+      <c r="O1175">
+        <v>0</v>
+      </c>
+      <c r="P1175">
+        <v>4.17</v>
+      </c>
+      <c r="Q1175">
+        <v>20.5</v>
+      </c>
+      <c r="R1175">
+        <v>4.09</v>
+      </c>
+      <c r="S1175">
+        <v>44</v>
+      </c>
+      <c r="T1175">
+        <v>2</v>
+      </c>
+      <c r="U1175">
+        <v>24</v>
+      </c>
+      <c r="V1175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1176" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1176">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I1176">
+        <v>1.26</v>
+      </c>
+      <c r="J1176">
+        <v>6.77</v>
+      </c>
+      <c r="K1176">
+        <v>0.79</v>
+      </c>
+      <c r="L1176">
+        <v>0.47</v>
+      </c>
+      <c r="M1176">
+        <v>0</v>
+      </c>
+      <c r="N1176">
+        <v>0</v>
+      </c>
+      <c r="O1176">
+        <v>0</v>
+      </c>
+      <c r="P1176">
+        <v>4.07</v>
+      </c>
+      <c r="Q1176">
+        <v>24.74</v>
+      </c>
+      <c r="R1176">
+        <v>5.32</v>
+      </c>
+      <c r="S1176">
+        <v>32</v>
+      </c>
+      <c r="T1176">
+        <v>11</v>
+      </c>
+      <c r="U1176">
+        <v>32</v>
+      </c>
+      <c r="V1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H1177">
+        <v>8.59</v>
+      </c>
+      <c r="I1177">
+        <v>1.3</v>
+      </c>
+      <c r="J1177">
+        <v>7.27</v>
+      </c>
+      <c r="K1177">
+        <v>0.85</v>
+      </c>
+      <c r="L1177">
+        <v>0.46</v>
+      </c>
+      <c r="M1177">
+        <v>0</v>
+      </c>
+      <c r="N1177">
+        <v>0</v>
+      </c>
+      <c r="O1177">
+        <v>1</v>
+      </c>
+      <c r="P1177">
+        <v>4.09</v>
+      </c>
+      <c r="Q1177">
+        <v>25.22</v>
+      </c>
+      <c r="R1177">
+        <v>5.14</v>
+      </c>
+      <c r="S1177">
+        <v>55</v>
+      </c>
+      <c r="T1177">
+        <v>4</v>
+      </c>
+      <c r="U1177">
+        <v>31</v>
+      </c>
+      <c r="V1177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1178" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H1178">
+        <v>7.83</v>
+      </c>
+      <c r="I1178">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J1178">
+        <v>6.69</v>
+      </c>
+      <c r="K1178">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L1178">
+        <v>0.02</v>
+      </c>
+      <c r="M1178">
+        <v>0</v>
+      </c>
+      <c r="N1178">
+        <v>0</v>
+      </c>
+      <c r="O1178">
+        <v>0</v>
+      </c>
+      <c r="P1178">
+        <v>3.53</v>
+      </c>
+      <c r="Q1178">
+        <v>22.09</v>
+      </c>
+      <c r="R1178">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S1178">
+        <v>26</v>
+      </c>
+      <c r="T1178">
+        <v>6</v>
+      </c>
+      <c r="U1178">
+        <v>20</v>
+      </c>
+      <c r="V1178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1179" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H1179">
+        <v>8.25</v>
+      </c>
+      <c r="I1179">
+        <v>1.21</v>
+      </c>
+      <c r="J1179">
+        <v>7.03</v>
+      </c>
+      <c r="K1179">
+        <v>1.07</v>
+      </c>
+      <c r="L1179">
+        <v>0.15</v>
+      </c>
+      <c r="M1179">
+        <v>0</v>
+      </c>
+      <c r="N1179">
+        <v>0</v>
+      </c>
+      <c r="O1179">
+        <v>0</v>
+      </c>
+      <c r="P1179">
+        <v>4.57</v>
+      </c>
+      <c r="Q1179">
+        <v>22.41</v>
+      </c>
+      <c r="R1179">
+        <v>4.51</v>
+      </c>
+      <c r="S1179">
+        <v>41</v>
+      </c>
+      <c r="T1179">
+        <v>5</v>
+      </c>
+      <c r="U1179">
+        <v>22</v>
+      </c>
+      <c r="V1179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1180" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H1180">
+        <v>9.43</v>
+      </c>
+      <c r="I1180">
+        <v>2.44</v>
+      </c>
+      <c r="J1180">
+        <v>6.96</v>
+      </c>
+      <c r="K1180">
+        <v>1.95</v>
+      </c>
+      <c r="L1180">
+        <v>0.52</v>
+      </c>
+      <c r="M1180">
+        <v>0</v>
+      </c>
+      <c r="N1180">
+        <v>0</v>
+      </c>
+      <c r="O1180">
+        <v>0</v>
+      </c>
+      <c r="P1180">
+        <v>4.92</v>
+      </c>
+      <c r="Q1180">
+        <v>24.46</v>
+      </c>
+      <c r="R1180">
+        <v>5.22</v>
+      </c>
+      <c r="S1180">
+        <v>81</v>
+      </c>
+      <c r="T1180">
+        <v>21</v>
+      </c>
+      <c r="U1180">
+        <v>43</v>
+      </c>
+      <c r="V1180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>46042</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1181" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H1181">
+        <v>8.36</v>
+      </c>
+      <c r="I1181">
+        <v>1.29</v>
+      </c>
+      <c r="J1181">
+        <v>7.07</v>
+      </c>
+      <c r="K1181">
+        <v>1.28</v>
+      </c>
+      <c r="L1181">
+        <v>0.01</v>
+      </c>
+      <c r="M1181">
+        <v>0</v>
+      </c>
+      <c r="N1181">
+        <v>0</v>
+      </c>
+      <c r="O1181">
+        <v>0</v>
+      </c>
+      <c r="P1181">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="Q1181">
+        <v>20.81</v>
+      </c>
+      <c r="R1181">
+        <v>4.45</v>
+      </c>
+      <c r="S1181">
+        <v>39</v>
+      </c>
+      <c r="T1181">
+        <v>4</v>
+      </c>
+      <c r="U1181">
+        <v>16</v>
+      </c>
+      <c r="V1181">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C1CBE-2E8F-014B-9665-68366E03DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6150B-120C-8B4A-B553-9FFE710EF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1016">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3063,6 +3063,27 @@
   </si>
   <si>
     <t>01:44:35</t>
+  </si>
+  <si>
+    <t>00:57:40</t>
+  </si>
+  <si>
+    <t>01:18:01</t>
+  </si>
+  <si>
+    <t>00:56:38</t>
+  </si>
+  <si>
+    <t>01:18:08</t>
+  </si>
+  <si>
+    <t>01:20:04</t>
+  </si>
+  <si>
+    <t>01:18:42</t>
+  </si>
+  <si>
+    <t>01:21:20</t>
   </si>
 </sst>
 </file>
@@ -3466,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1181"/>
+  <dimension ref="A1:V1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1147" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1184" sqref="C1184"/>
+    <sheetView tabSelected="1" topLeftCell="A1167" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1197" sqref="E1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82324,6 +82345,754 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1182" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1182" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H1182">
+        <v>3.21</v>
+      </c>
+      <c r="I1182">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J1182">
+        <v>2.91</v>
+      </c>
+      <c r="K1182">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1182">
+        <v>0.13</v>
+      </c>
+      <c r="M1182">
+        <v>0.03</v>
+      </c>
+      <c r="N1182">
+        <v>0</v>
+      </c>
+      <c r="O1182">
+        <v>4</v>
+      </c>
+      <c r="P1182">
+        <v>3.23</v>
+      </c>
+      <c r="Q1182">
+        <v>27.01</v>
+      </c>
+      <c r="R1182">
+        <v>4.96</v>
+      </c>
+      <c r="S1182">
+        <v>14</v>
+      </c>
+      <c r="T1182">
+        <v>4</v>
+      </c>
+      <c r="U1182">
+        <v>12</v>
+      </c>
+      <c r="V1182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1183" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1183">
+        <v>4.37</v>
+      </c>
+      <c r="I1183">
+        <v>0.3</v>
+      </c>
+      <c r="J1183">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K1183">
+        <v>0.2</v>
+      </c>
+      <c r="L1183">
+        <v>0.09</v>
+      </c>
+      <c r="M1183">
+        <v>0.01</v>
+      </c>
+      <c r="N1183">
+        <v>0</v>
+      </c>
+      <c r="O1183">
+        <v>4</v>
+      </c>
+      <c r="P1183">
+        <v>2.9</v>
+      </c>
+      <c r="Q1183">
+        <v>25.87</v>
+      </c>
+      <c r="R1183">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S1183">
+        <v>28</v>
+      </c>
+      <c r="T1183">
+        <v>6</v>
+      </c>
+      <c r="U1183">
+        <v>24</v>
+      </c>
+      <c r="V1183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1184" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1184">
+        <v>3.43</v>
+      </c>
+      <c r="I1184">
+        <v>0.2</v>
+      </c>
+      <c r="J1184">
+        <v>3.23</v>
+      </c>
+      <c r="K1184">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1184">
+        <v>0.04</v>
+      </c>
+      <c r="M1184">
+        <v>0</v>
+      </c>
+      <c r="N1184">
+        <v>0.01</v>
+      </c>
+      <c r="O1184">
+        <v>1</v>
+      </c>
+      <c r="P1184">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q1184">
+        <v>48.7</v>
+      </c>
+      <c r="R1184">
+        <v>12.91</v>
+      </c>
+      <c r="S1184">
+        <v>19</v>
+      </c>
+      <c r="T1184">
+        <v>2</v>
+      </c>
+      <c r="U1184">
+        <v>9</v>
+      </c>
+      <c r="V1184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1185" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H1185">
+        <v>4.72</v>
+      </c>
+      <c r="I1185">
+        <v>0.53</v>
+      </c>
+      <c r="J1185">
+        <v>4.17</v>
+      </c>
+      <c r="K1185">
+        <v>0.32</v>
+      </c>
+      <c r="L1185">
+        <v>0.16</v>
+      </c>
+      <c r="M1185">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1185">
+        <v>0</v>
+      </c>
+      <c r="O1185">
+        <v>11</v>
+      </c>
+      <c r="P1185">
+        <v>3.03</v>
+      </c>
+      <c r="Q1185">
+        <v>29.83</v>
+      </c>
+      <c r="R1185">
+        <v>4.87</v>
+      </c>
+      <c r="S1185">
+        <v>37</v>
+      </c>
+      <c r="T1185">
+        <v>10</v>
+      </c>
+      <c r="U1185">
+        <v>31</v>
+      </c>
+      <c r="V1185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1186" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H1186">
+        <v>2.66</v>
+      </c>
+      <c r="I1186">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1186">
+        <v>2.52</v>
+      </c>
+      <c r="K1186">
+        <v>0.09</v>
+      </c>
+      <c r="L1186">
+        <v>0.04</v>
+      </c>
+      <c r="M1186">
+        <v>0.01</v>
+      </c>
+      <c r="N1186">
+        <v>0</v>
+      </c>
+      <c r="O1186">
+        <v>2</v>
+      </c>
+      <c r="P1186">
+        <v>2.23</v>
+      </c>
+      <c r="Q1186">
+        <v>26.99</v>
+      </c>
+      <c r="R1186">
+        <v>5.32</v>
+      </c>
+      <c r="S1186">
+        <v>9</v>
+      </c>
+      <c r="T1186">
+        <v>2</v>
+      </c>
+      <c r="U1186">
+        <v>2</v>
+      </c>
+      <c r="V1186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1187" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H1187">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I1187">
+        <v>0.15</v>
+      </c>
+      <c r="J1187">
+        <v>3.87</v>
+      </c>
+      <c r="K1187">
+        <v>0.12</v>
+      </c>
+      <c r="L1187">
+        <v>0.03</v>
+      </c>
+      <c r="M1187">
+        <v>0</v>
+      </c>
+      <c r="N1187">
+        <v>0</v>
+      </c>
+      <c r="O1187">
+        <v>1</v>
+      </c>
+      <c r="P1187">
+        <v>2.9</v>
+      </c>
+      <c r="Q1187">
+        <v>25.24</v>
+      </c>
+      <c r="R1187">
+        <v>4.03</v>
+      </c>
+      <c r="S1187">
+        <v>8</v>
+      </c>
+      <c r="T1187">
+        <v>1</v>
+      </c>
+      <c r="U1187">
+        <v>4</v>
+      </c>
+      <c r="V1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1188" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H1188">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I1188">
+        <v>0.33</v>
+      </c>
+      <c r="J1188">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K1188">
+        <v>0.18</v>
+      </c>
+      <c r="L1188">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1188">
+        <v>0.02</v>
+      </c>
+      <c r="N1188">
+        <v>0</v>
+      </c>
+      <c r="O1188">
+        <v>4</v>
+      </c>
+      <c r="P1188">
+        <v>3.31</v>
+      </c>
+      <c r="Q1188">
+        <v>26.28</v>
+      </c>
+      <c r="R1188">
+        <v>4.96</v>
+      </c>
+      <c r="S1188">
+        <v>37</v>
+      </c>
+      <c r="T1188">
+        <v>7</v>
+      </c>
+      <c r="U1188">
+        <v>24</v>
+      </c>
+      <c r="V1188">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1189" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1189">
+        <v>5.82</v>
+      </c>
+      <c r="I1189">
+        <v>0.54</v>
+      </c>
+      <c r="J1189">
+        <v>5.27</v>
+      </c>
+      <c r="K1189">
+        <v>0.35</v>
+      </c>
+      <c r="L1189">
+        <v>0.16</v>
+      </c>
+      <c r="M1189">
+        <v>0.05</v>
+      </c>
+      <c r="N1189">
+        <v>0</v>
+      </c>
+      <c r="O1189">
+        <v>3</v>
+      </c>
+      <c r="P1189">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q1189">
+        <v>28.67</v>
+      </c>
+      <c r="R1189">
+        <v>5.25</v>
+      </c>
+      <c r="S1189">
+        <v>33</v>
+      </c>
+      <c r="T1189">
+        <v>10</v>
+      </c>
+      <c r="U1189">
+        <v>16</v>
+      </c>
+      <c r="V1189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1190" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1190">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I1190">
+        <v>0.51</v>
+      </c>
+      <c r="J1190">
+        <v>4.57</v>
+      </c>
+      <c r="K1190">
+        <v>0.36</v>
+      </c>
+      <c r="L1190">
+        <v>0.13</v>
+      </c>
+      <c r="M1190">
+        <v>0.04</v>
+      </c>
+      <c r="N1190">
+        <v>0</v>
+      </c>
+      <c r="O1190">
+        <v>6</v>
+      </c>
+      <c r="P1190">
+        <v>3.54</v>
+      </c>
+      <c r="Q1190">
+        <v>30.66</v>
+      </c>
+      <c r="R1190">
+        <v>4.78</v>
+      </c>
+      <c r="S1190">
+        <v>67</v>
+      </c>
+      <c r="T1190">
+        <v>12</v>
+      </c>
+      <c r="U1190">
+        <v>27</v>
+      </c>
+      <c r="V1190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1191" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H1191">
+        <v>5.54</v>
+      </c>
+      <c r="I1191">
+        <v>0.5</v>
+      </c>
+      <c r="J1191">
+        <v>5.04</v>
+      </c>
+      <c r="K1191">
+        <v>0.35</v>
+      </c>
+      <c r="L1191">
+        <v>0.12</v>
+      </c>
+      <c r="M1191">
+        <v>0.03</v>
+      </c>
+      <c r="N1191">
+        <v>0</v>
+      </c>
+      <c r="O1191">
+        <v>3</v>
+      </c>
+      <c r="P1191">
+        <v>4.13</v>
+      </c>
+      <c r="Q1191">
+        <v>28.22</v>
+      </c>
+      <c r="R1191">
+        <v>3.79</v>
+      </c>
+      <c r="S1191">
+        <v>24</v>
+      </c>
+      <c r="T1191">
+        <v>0</v>
+      </c>
+      <c r="U1191">
+        <v>13</v>
+      </c>
+      <c r="V1191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1192" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H1192">
+        <v>5.22</v>
+      </c>
+      <c r="I1192">
+        <v>0.65</v>
+      </c>
+      <c r="J1192">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K1192">
+        <v>0.41</v>
+      </c>
+      <c r="L1192">
+        <v>0.2</v>
+      </c>
+      <c r="M1192">
+        <v>0.05</v>
+      </c>
+      <c r="N1192">
+        <v>0</v>
+      </c>
+      <c r="O1192">
+        <v>5</v>
+      </c>
+      <c r="P1192">
+        <v>3.59</v>
+      </c>
+      <c r="Q1192">
+        <v>29.55</v>
+      </c>
+      <c r="R1192">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S1192">
+        <v>50</v>
+      </c>
+      <c r="T1192">
+        <v>27</v>
+      </c>
+      <c r="U1192">
+        <v>38</v>
+      </c>
+      <c r="V1192">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6150B-120C-8B4A-B553-9FFE710EF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918FB28-E01D-0542-AC37-F0CA01296C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6813" uniqueCount="1032">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3084,6 +3084,54 @@
   </si>
   <si>
     <t>01:21:20</t>
+  </si>
+  <si>
+    <t>01:12:44</t>
+  </si>
+  <si>
+    <t>01:11:35</t>
+  </si>
+  <si>
+    <t>01:06:49</t>
+  </si>
+  <si>
+    <t>01:06:57</t>
+  </si>
+  <si>
+    <t>01:07:10</t>
+  </si>
+  <si>
+    <t>01:21:34</t>
+  </si>
+  <si>
+    <t>01:22:05</t>
+  </si>
+  <si>
+    <t>01:22:51</t>
+  </si>
+  <si>
+    <t>01:21:42</t>
+  </si>
+  <si>
+    <t>01:21:33</t>
+  </si>
+  <si>
+    <t>01:21:57</t>
+  </si>
+  <si>
+    <t>00:52:58</t>
+  </si>
+  <si>
+    <t>01:20:32</t>
+  </si>
+  <si>
+    <t>Mehdi Boussaid</t>
+  </si>
+  <si>
+    <t>01:38:11</t>
+  </si>
+  <si>
+    <t>01:23:22</t>
   </si>
 </sst>
 </file>
@@ -3487,10 +3535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1192"/>
+  <dimension ref="A1:V1215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1167" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1197" sqref="E1197"/>
+    <sheetView tabSelected="1" topLeftCell="A1191" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1217" sqref="C1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -83093,6 +83141,1558 @@
         <v>22</v>
       </c>
     </row>
+    <row r="1193" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H1193">
+        <v>5.78</v>
+      </c>
+      <c r="I1193">
+        <v>0.15</v>
+      </c>
+      <c r="J1193">
+        <v>5.62</v>
+      </c>
+      <c r="K1193">
+        <v>0.13</v>
+      </c>
+      <c r="L1193">
+        <v>0.02</v>
+      </c>
+      <c r="M1193">
+        <v>0</v>
+      </c>
+      <c r="N1193">
+        <v>0</v>
+      </c>
+      <c r="O1193">
+        <v>0</v>
+      </c>
+      <c r="P1193">
+        <v>4.25</v>
+      </c>
+      <c r="Q1193">
+        <v>22.54</v>
+      </c>
+      <c r="R1193">
+        <v>4.92</v>
+      </c>
+      <c r="S1193">
+        <v>39</v>
+      </c>
+      <c r="T1193">
+        <v>5</v>
+      </c>
+      <c r="U1193">
+        <v>27</v>
+      </c>
+      <c r="V1193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1194">
+        <v>7.66</v>
+      </c>
+      <c r="I1194">
+        <v>1.81</v>
+      </c>
+      <c r="J1194">
+        <v>5.84</v>
+      </c>
+      <c r="K1194">
+        <v>1.68</v>
+      </c>
+      <c r="L1194">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1194">
+        <v>0</v>
+      </c>
+      <c r="N1194">
+        <v>0</v>
+      </c>
+      <c r="O1194">
+        <v>0</v>
+      </c>
+      <c r="P1194">
+        <v>5.26</v>
+      </c>
+      <c r="Q1194">
+        <v>21.83</v>
+      </c>
+      <c r="R1194">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S1194">
+        <v>52</v>
+      </c>
+      <c r="T1194">
+        <v>3</v>
+      </c>
+      <c r="U1194">
+        <v>26</v>
+      </c>
+      <c r="V1194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H1195">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I1195">
+        <v>0.27</v>
+      </c>
+      <c r="J1195">
+        <v>4.49</v>
+      </c>
+      <c r="K1195">
+        <v>0.24</v>
+      </c>
+      <c r="L1195">
+        <v>0.03</v>
+      </c>
+      <c r="M1195">
+        <v>0</v>
+      </c>
+      <c r="N1195">
+        <v>0</v>
+      </c>
+      <c r="O1195">
+        <v>0</v>
+      </c>
+      <c r="P1195">
+        <v>3.98</v>
+      </c>
+      <c r="Q1195">
+        <v>22.64</v>
+      </c>
+      <c r="R1195">
+        <v>4.72</v>
+      </c>
+      <c r="S1195">
+        <v>35</v>
+      </c>
+      <c r="T1195">
+        <v>4</v>
+      </c>
+      <c r="U1195">
+        <v>26</v>
+      </c>
+      <c r="V1195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>46045</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1196">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I1196">
+        <v>1.87</v>
+      </c>
+      <c r="J1196">
+        <v>6.15</v>
+      </c>
+      <c r="K1196">
+        <v>1.46</v>
+      </c>
+      <c r="L1196">
+        <v>0.43</v>
+      </c>
+      <c r="M1196">
+        <v>0</v>
+      </c>
+      <c r="N1196">
+        <v>0</v>
+      </c>
+      <c r="O1196">
+        <v>0</v>
+      </c>
+      <c r="P1196">
+        <v>5.48</v>
+      </c>
+      <c r="Q1196">
+        <v>23.87</v>
+      </c>
+      <c r="R1196">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1196">
+        <v>51</v>
+      </c>
+      <c r="T1196">
+        <v>11</v>
+      </c>
+      <c r="U1196">
+        <v>18</v>
+      </c>
+      <c r="V1196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1197" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H1197">
+        <v>5.04</v>
+      </c>
+      <c r="I1197">
+        <v>0.15</v>
+      </c>
+      <c r="J1197">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K1197">
+        <v>0.15</v>
+      </c>
+      <c r="L1197">
+        <v>0</v>
+      </c>
+      <c r="M1197">
+        <v>0</v>
+      </c>
+      <c r="N1197">
+        <v>0</v>
+      </c>
+      <c r="O1197">
+        <v>0</v>
+      </c>
+      <c r="P1197">
+        <v>4.42</v>
+      </c>
+      <c r="Q1197">
+        <v>18.11</v>
+      </c>
+      <c r="R1197">
+        <v>3.66</v>
+      </c>
+      <c r="S1197">
+        <v>7</v>
+      </c>
+      <c r="T1197">
+        <v>0</v>
+      </c>
+      <c r="U1197">
+        <v>9</v>
+      </c>
+      <c r="V1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1198" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H1198">
+        <v>5.4</v>
+      </c>
+      <c r="I1198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1198">
+        <v>5.32</v>
+      </c>
+      <c r="K1198">
+        <v>0.08</v>
+      </c>
+      <c r="L1198">
+        <v>0</v>
+      </c>
+      <c r="M1198">
+        <v>0</v>
+      </c>
+      <c r="N1198">
+        <v>0</v>
+      </c>
+      <c r="O1198">
+        <v>0</v>
+      </c>
+      <c r="P1198">
+        <v>4.38</v>
+      </c>
+      <c r="Q1198">
+        <v>18.2</v>
+      </c>
+      <c r="R1198">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S1198">
+        <v>15</v>
+      </c>
+      <c r="T1198">
+        <v>4</v>
+      </c>
+      <c r="U1198">
+        <v>14</v>
+      </c>
+      <c r="V1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1199" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1199">
+        <v>5.64</v>
+      </c>
+      <c r="I1199">
+        <v>0.17</v>
+      </c>
+      <c r="J1199">
+        <v>5.46</v>
+      </c>
+      <c r="K1199">
+        <v>0.16</v>
+      </c>
+      <c r="L1199">
+        <v>0.02</v>
+      </c>
+      <c r="M1199">
+        <v>0</v>
+      </c>
+      <c r="N1199">
+        <v>0</v>
+      </c>
+      <c r="O1199">
+        <v>0</v>
+      </c>
+      <c r="P1199">
+        <v>4.99</v>
+      </c>
+      <c r="Q1199">
+        <v>24.25</v>
+      </c>
+      <c r="R1199">
+        <v>4.59</v>
+      </c>
+      <c r="S1199">
+        <v>21</v>
+      </c>
+      <c r="T1199">
+        <v>3</v>
+      </c>
+      <c r="U1199">
+        <v>11</v>
+      </c>
+      <c r="V1199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1200" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1200">
+        <v>6.4</v>
+      </c>
+      <c r="I1200">
+        <v>0.41</v>
+      </c>
+      <c r="J1200">
+        <v>5.99</v>
+      </c>
+      <c r="K1200">
+        <v>0.41</v>
+      </c>
+      <c r="L1200">
+        <v>0</v>
+      </c>
+      <c r="M1200">
+        <v>0</v>
+      </c>
+      <c r="N1200">
+        <v>0</v>
+      </c>
+      <c r="O1200">
+        <v>0</v>
+      </c>
+      <c r="P1200">
+        <v>5.64</v>
+      </c>
+      <c r="Q1200">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="R1200">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S1200">
+        <v>11</v>
+      </c>
+      <c r="T1200">
+        <v>1</v>
+      </c>
+      <c r="U1200">
+        <v>8</v>
+      </c>
+      <c r="V1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1201" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H1201">
+        <v>5.35</v>
+      </c>
+      <c r="I1201">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1201">
+        <v>5.21</v>
+      </c>
+      <c r="K1201">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1201">
+        <v>0.01</v>
+      </c>
+      <c r="M1201">
+        <v>0</v>
+      </c>
+      <c r="N1201">
+        <v>0</v>
+      </c>
+      <c r="O1201">
+        <v>0</v>
+      </c>
+      <c r="P1201">
+        <v>3.88</v>
+      </c>
+      <c r="Q1201">
+        <v>22.42</v>
+      </c>
+      <c r="R1201">
+        <v>4.12</v>
+      </c>
+      <c r="S1201">
+        <v>42</v>
+      </c>
+      <c r="T1201">
+        <v>4</v>
+      </c>
+      <c r="U1201">
+        <v>30</v>
+      </c>
+      <c r="V1201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1202" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1202">
+        <v>6.06</v>
+      </c>
+      <c r="I1202">
+        <v>0.18</v>
+      </c>
+      <c r="J1202">
+        <v>5.87</v>
+      </c>
+      <c r="K1202">
+        <v>0.18</v>
+      </c>
+      <c r="L1202">
+        <v>0.01</v>
+      </c>
+      <c r="M1202">
+        <v>0</v>
+      </c>
+      <c r="N1202">
+        <v>0</v>
+      </c>
+      <c r="O1202">
+        <v>0</v>
+      </c>
+      <c r="P1202">
+        <v>4.07</v>
+      </c>
+      <c r="Q1202">
+        <v>21.56</v>
+      </c>
+      <c r="R1202">
+        <v>5.8</v>
+      </c>
+      <c r="S1202">
+        <v>48</v>
+      </c>
+      <c r="T1202">
+        <v>10</v>
+      </c>
+      <c r="U1202">
+        <v>46</v>
+      </c>
+      <c r="V1202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1203" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H1203">
+        <v>4.72</v>
+      </c>
+      <c r="I1203">
+        <v>0.11</v>
+      </c>
+      <c r="J1203">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K1203">
+        <v>0.12</v>
+      </c>
+      <c r="L1203">
+        <v>0</v>
+      </c>
+      <c r="M1203">
+        <v>0</v>
+      </c>
+      <c r="N1203">
+        <v>0</v>
+      </c>
+      <c r="O1203">
+        <v>0</v>
+      </c>
+      <c r="P1203">
+        <v>3.26</v>
+      </c>
+      <c r="Q1203">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="R1203">
+        <v>4.18</v>
+      </c>
+      <c r="S1203">
+        <v>18</v>
+      </c>
+      <c r="T1203">
+        <v>1</v>
+      </c>
+      <c r="U1203">
+        <v>12</v>
+      </c>
+      <c r="V1203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1204" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H1204">
+        <v>6.18</v>
+      </c>
+      <c r="I1204">
+        <v>0.3</v>
+      </c>
+      <c r="J1204">
+        <v>5.87</v>
+      </c>
+      <c r="K1204">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1204">
+        <v>0.04</v>
+      </c>
+      <c r="M1204">
+        <v>0</v>
+      </c>
+      <c r="N1204">
+        <v>0</v>
+      </c>
+      <c r="O1204">
+        <v>0</v>
+      </c>
+      <c r="P1204">
+        <v>4.41</v>
+      </c>
+      <c r="Q1204">
+        <v>23.38</v>
+      </c>
+      <c r="R1204">
+        <v>4.74</v>
+      </c>
+      <c r="S1204">
+        <v>41</v>
+      </c>
+      <c r="T1204">
+        <v>5</v>
+      </c>
+      <c r="U1204">
+        <v>26</v>
+      </c>
+      <c r="V1204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1205" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1205">
+        <v>5.94</v>
+      </c>
+      <c r="I1205">
+        <v>0.34</v>
+      </c>
+      <c r="J1205">
+        <v>5.59</v>
+      </c>
+      <c r="K1205">
+        <v>0.3</v>
+      </c>
+      <c r="L1205">
+        <v>0.05</v>
+      </c>
+      <c r="M1205">
+        <v>0</v>
+      </c>
+      <c r="N1205">
+        <v>0</v>
+      </c>
+      <c r="O1205">
+        <v>0</v>
+      </c>
+      <c r="P1205">
+        <v>4.18</v>
+      </c>
+      <c r="Q1205">
+        <v>23.91</v>
+      </c>
+      <c r="R1205">
+        <v>5.17</v>
+      </c>
+      <c r="S1205">
+        <v>57</v>
+      </c>
+      <c r="T1205">
+        <v>23</v>
+      </c>
+      <c r="U1205">
+        <v>50</v>
+      </c>
+      <c r="V1205">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1206" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H1206">
+        <v>5.76</v>
+      </c>
+      <c r="I1206">
+        <v>0.3</v>
+      </c>
+      <c r="J1206">
+        <v>5.46</v>
+      </c>
+      <c r="K1206">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L1206">
+        <v>0.02</v>
+      </c>
+      <c r="M1206">
+        <v>0</v>
+      </c>
+      <c r="N1206">
+        <v>0</v>
+      </c>
+      <c r="O1206">
+        <v>0</v>
+      </c>
+      <c r="P1206">
+        <v>4.21</v>
+      </c>
+      <c r="Q1206">
+        <v>21.33</v>
+      </c>
+      <c r="R1206">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S1206">
+        <v>34</v>
+      </c>
+      <c r="T1206">
+        <v>2</v>
+      </c>
+      <c r="U1206">
+        <v>23</v>
+      </c>
+      <c r="V1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1207" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H1207">
+        <v>5.82</v>
+      </c>
+      <c r="I1207">
+        <v>0.2</v>
+      </c>
+      <c r="J1207">
+        <v>5.61</v>
+      </c>
+      <c r="K1207">
+        <v>0.21</v>
+      </c>
+      <c r="L1207">
+        <v>0</v>
+      </c>
+      <c r="M1207">
+        <v>0</v>
+      </c>
+      <c r="N1207">
+        <v>0</v>
+      </c>
+      <c r="O1207">
+        <v>0</v>
+      </c>
+      <c r="P1207">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q1207">
+        <v>20.66</v>
+      </c>
+      <c r="R1207">
+        <v>4.17</v>
+      </c>
+      <c r="S1207">
+        <v>25</v>
+      </c>
+      <c r="T1207">
+        <v>4</v>
+      </c>
+      <c r="U1207">
+        <v>33</v>
+      </c>
+      <c r="V1207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1208" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H1208">
+        <v>6.18</v>
+      </c>
+      <c r="I1208">
+        <v>0.26</v>
+      </c>
+      <c r="J1208">
+        <v>5.92</v>
+      </c>
+      <c r="K1208">
+        <v>0.25</v>
+      </c>
+      <c r="L1208">
+        <v>0.01</v>
+      </c>
+      <c r="M1208">
+        <v>0</v>
+      </c>
+      <c r="N1208">
+        <v>0</v>
+      </c>
+      <c r="O1208">
+        <v>0</v>
+      </c>
+      <c r="P1208">
+        <v>4.45</v>
+      </c>
+      <c r="Q1208">
+        <v>20.97</v>
+      </c>
+      <c r="R1208">
+        <v>4.71</v>
+      </c>
+      <c r="S1208">
+        <v>43</v>
+      </c>
+      <c r="T1208">
+        <v>4</v>
+      </c>
+      <c r="U1208">
+        <v>31</v>
+      </c>
+      <c r="V1208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1209" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1209">
+        <v>6.22</v>
+      </c>
+      <c r="I1209">
+        <v>0.44</v>
+      </c>
+      <c r="J1209">
+        <v>5.76</v>
+      </c>
+      <c r="K1209">
+        <v>0.39</v>
+      </c>
+      <c r="L1209">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1209">
+        <v>0</v>
+      </c>
+      <c r="N1209">
+        <v>0</v>
+      </c>
+      <c r="O1209">
+        <v>0</v>
+      </c>
+      <c r="P1209">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q1209">
+        <v>24.63</v>
+      </c>
+      <c r="R1209">
+        <v>5.41</v>
+      </c>
+      <c r="S1209">
+        <v>93</v>
+      </c>
+      <c r="T1209">
+        <v>38</v>
+      </c>
+      <c r="U1209">
+        <v>72</v>
+      </c>
+      <c r="V1209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1210" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>791</v>
+      </c>
+      <c r="H1210">
+        <v>6.03</v>
+      </c>
+      <c r="I1210">
+        <v>0.19</v>
+      </c>
+      <c r="J1210">
+        <v>5.83</v>
+      </c>
+      <c r="K1210">
+        <v>0.19</v>
+      </c>
+      <c r="L1210">
+        <v>0.01</v>
+      </c>
+      <c r="M1210">
+        <v>0</v>
+      </c>
+      <c r="N1210">
+        <v>0</v>
+      </c>
+      <c r="O1210">
+        <v>0</v>
+      </c>
+      <c r="P1210">
+        <v>4.33</v>
+      </c>
+      <c r="Q1210">
+        <v>23.59</v>
+      </c>
+      <c r="R1210">
+        <v>4.66</v>
+      </c>
+      <c r="S1210">
+        <v>28</v>
+      </c>
+      <c r="T1210">
+        <v>7</v>
+      </c>
+      <c r="U1210">
+        <v>18</v>
+      </c>
+      <c r="V1210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1211" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H1211">
+        <v>4.03</v>
+      </c>
+      <c r="I1211">
+        <v>0.16</v>
+      </c>
+      <c r="J1211">
+        <v>3.87</v>
+      </c>
+      <c r="K1211">
+        <v>0.15</v>
+      </c>
+      <c r="L1211">
+        <v>0.01</v>
+      </c>
+      <c r="M1211">
+        <v>0</v>
+      </c>
+      <c r="N1211">
+        <v>0</v>
+      </c>
+      <c r="O1211">
+        <v>0</v>
+      </c>
+      <c r="P1211">
+        <v>4.49</v>
+      </c>
+      <c r="Q1211">
+        <v>22.21</v>
+      </c>
+      <c r="R1211">
+        <v>5.04</v>
+      </c>
+      <c r="S1211">
+        <v>34</v>
+      </c>
+      <c r="T1211">
+        <v>4</v>
+      </c>
+      <c r="U1211">
+        <v>19</v>
+      </c>
+      <c r="V1211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1212" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H1212">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I1212">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1212">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K1212">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L1212">
+        <v>0.01</v>
+      </c>
+      <c r="M1212">
+        <v>0</v>
+      </c>
+      <c r="N1212">
+        <v>0</v>
+      </c>
+      <c r="O1212">
+        <v>0</v>
+      </c>
+      <c r="P1212">
+        <v>3.26</v>
+      </c>
+      <c r="Q1212">
+        <v>21.08</v>
+      </c>
+      <c r="R1212">
+        <v>4.74</v>
+      </c>
+      <c r="S1212">
+        <v>25</v>
+      </c>
+      <c r="T1212">
+        <v>1</v>
+      </c>
+      <c r="U1212">
+        <v>14</v>
+      </c>
+      <c r="V1212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1213" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1213">
+        <v>7.79</v>
+      </c>
+      <c r="I1213">
+        <v>1.72</v>
+      </c>
+      <c r="J1213">
+        <v>6.05</v>
+      </c>
+      <c r="K1213">
+        <v>1.56</v>
+      </c>
+      <c r="L1213">
+        <v>0.17</v>
+      </c>
+      <c r="M1213">
+        <v>0</v>
+      </c>
+      <c r="N1213">
+        <v>0</v>
+      </c>
+      <c r="O1213">
+        <v>0</v>
+      </c>
+      <c r="P1213">
+        <v>4.47</v>
+      </c>
+      <c r="Q1213">
+        <v>22.11</v>
+      </c>
+      <c r="R1213">
+        <v>4.25</v>
+      </c>
+      <c r="S1213">
+        <v>28</v>
+      </c>
+      <c r="T1213">
+        <v>4</v>
+      </c>
+      <c r="U1213">
+        <v>14</v>
+      </c>
+      <c r="V1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1214" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H1214">
+        <v>5.78</v>
+      </c>
+      <c r="I1214">
+        <v>0.16</v>
+      </c>
+      <c r="J1214">
+        <v>5.61</v>
+      </c>
+      <c r="K1214">
+        <v>0.16</v>
+      </c>
+      <c r="L1214">
+        <v>0.01</v>
+      </c>
+      <c r="M1214">
+        <v>0</v>
+      </c>
+      <c r="N1214">
+        <v>0</v>
+      </c>
+      <c r="O1214">
+        <v>0</v>
+      </c>
+      <c r="P1214">
+        <v>3.73</v>
+      </c>
+      <c r="Q1214">
+        <v>21.93</v>
+      </c>
+      <c r="R1214">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1214">
+        <v>51</v>
+      </c>
+      <c r="T1214">
+        <v>7</v>
+      </c>
+      <c r="U1214">
+        <v>46</v>
+      </c>
+      <c r="V1214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1215" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H1215">
+        <v>6.53</v>
+      </c>
+      <c r="I1215">
+        <v>0.42</v>
+      </c>
+      <c r="J1215">
+        <v>6.09</v>
+      </c>
+      <c r="K1215">
+        <v>0.37</v>
+      </c>
+      <c r="L1215">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1215">
+        <v>0</v>
+      </c>
+      <c r="N1215">
+        <v>0</v>
+      </c>
+      <c r="O1215">
+        <v>0</v>
+      </c>
+      <c r="P1215">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q1215">
+        <v>24.24</v>
+      </c>
+      <c r="R1215">
+        <v>5.49</v>
+      </c>
+      <c r="S1215">
+        <v>55</v>
+      </c>
+      <c r="T1215">
+        <v>16</v>
+      </c>
+      <c r="U1215">
+        <v>44</v>
+      </c>
+      <c r="V1215">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918FB28-E01D-0542-AC37-F0CA01296C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147CB307-E9EE-C241-BCE4-49893780DBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6813" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6897" uniqueCount="1040">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3132,6 +3132,30 @@
   </si>
   <si>
     <t>01:23:22</t>
+  </si>
+  <si>
+    <t>Nathanael Beta</t>
+  </si>
+  <si>
+    <t>01:29:49</t>
+  </si>
+  <si>
+    <t>01:38:51</t>
+  </si>
+  <si>
+    <t>01:41:05</t>
+  </si>
+  <si>
+    <t>01:37:24</t>
+  </si>
+  <si>
+    <t>01:38:43</t>
+  </si>
+  <si>
+    <t>01:39:10</t>
+  </si>
+  <si>
+    <t>00:49:35</t>
   </si>
 </sst>
 </file>
@@ -3535,10 +3559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1215"/>
+  <dimension ref="A1:V1229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1191" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1217" sqref="C1217"/>
+    <sheetView tabSelected="1" topLeftCell="A1197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1232" sqref="E1232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84693,6 +84717,958 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1216" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1216" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1216" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H1216">
+        <v>6.46</v>
+      </c>
+      <c r="I1216">
+        <v>0.89</v>
+      </c>
+      <c r="J1216">
+        <v>5.56</v>
+      </c>
+      <c r="K1216">
+        <v>0.51</v>
+      </c>
+      <c r="L1216">
+        <v>0.34</v>
+      </c>
+      <c r="M1216">
+        <v>0.05</v>
+      </c>
+      <c r="N1216">
+        <v>0</v>
+      </c>
+      <c r="O1216">
+        <v>5</v>
+      </c>
+      <c r="P1216">
+        <v>4.25</v>
+      </c>
+      <c r="Q1216">
+        <v>28.45</v>
+      </c>
+      <c r="R1216">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S1216">
+        <v>42</v>
+      </c>
+      <c r="T1216">
+        <v>3</v>
+      </c>
+      <c r="U1216">
+        <v>13</v>
+      </c>
+      <c r="V1216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1217" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1217">
+        <v>6.36</v>
+      </c>
+      <c r="I1217">
+        <v>0.4</v>
+      </c>
+      <c r="J1217">
+        <v>5.95</v>
+      </c>
+      <c r="K1217">
+        <v>0.37</v>
+      </c>
+      <c r="L1217">
+        <v>0.03</v>
+      </c>
+      <c r="M1217">
+        <v>0.01</v>
+      </c>
+      <c r="N1217">
+        <v>0</v>
+      </c>
+      <c r="O1217">
+        <v>1</v>
+      </c>
+      <c r="P1217">
+        <v>3.79</v>
+      </c>
+      <c r="Q1217">
+        <v>27.46</v>
+      </c>
+      <c r="R1217">
+        <v>3.92</v>
+      </c>
+      <c r="S1217">
+        <v>19</v>
+      </c>
+      <c r="T1217">
+        <v>0</v>
+      </c>
+      <c r="U1217">
+        <v>6</v>
+      </c>
+      <c r="V1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1218" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1218">
+        <v>8.4</v>
+      </c>
+      <c r="I1218">
+        <v>1.37</v>
+      </c>
+      <c r="J1218">
+        <v>6.99</v>
+      </c>
+      <c r="K1218">
+        <v>0.77</v>
+      </c>
+      <c r="L1218">
+        <v>0.49</v>
+      </c>
+      <c r="M1218">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N1218">
+        <v>0</v>
+      </c>
+      <c r="O1218">
+        <v>15</v>
+      </c>
+      <c r="P1218">
+        <v>4.84</v>
+      </c>
+      <c r="Q1218">
+        <v>30.04</v>
+      </c>
+      <c r="R1218">
+        <v>5.25</v>
+      </c>
+      <c r="S1218">
+        <v>97</v>
+      </c>
+      <c r="T1218">
+        <v>37</v>
+      </c>
+      <c r="U1218">
+        <v>78</v>
+      </c>
+      <c r="V1218">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1219">
+        <v>7.84</v>
+      </c>
+      <c r="I1219">
+        <v>0.8</v>
+      </c>
+      <c r="J1219">
+        <v>7.03</v>
+      </c>
+      <c r="K1219">
+        <v>0.59</v>
+      </c>
+      <c r="L1219">
+        <v>0.2</v>
+      </c>
+      <c r="M1219">
+        <v>0.03</v>
+      </c>
+      <c r="N1219">
+        <v>0</v>
+      </c>
+      <c r="O1219">
+        <v>3</v>
+      </c>
+      <c r="P1219">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q1219">
+        <v>27.77</v>
+      </c>
+      <c r="R1219">
+        <v>4.54</v>
+      </c>
+      <c r="S1219">
+        <v>35</v>
+      </c>
+      <c r="T1219">
+        <v>3</v>
+      </c>
+      <c r="U1219">
+        <v>14</v>
+      </c>
+      <c r="V1219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1220">
+        <v>7.23</v>
+      </c>
+      <c r="I1220">
+        <v>0.51</v>
+      </c>
+      <c r="J1220">
+        <v>6.71</v>
+      </c>
+      <c r="K1220">
+        <v>0.37</v>
+      </c>
+      <c r="L1220">
+        <v>0.11</v>
+      </c>
+      <c r="M1220">
+        <v>0.04</v>
+      </c>
+      <c r="N1220">
+        <v>0</v>
+      </c>
+      <c r="O1220">
+        <v>5</v>
+      </c>
+      <c r="P1220">
+        <v>3.89</v>
+      </c>
+      <c r="Q1220">
+        <v>27.94</v>
+      </c>
+      <c r="R1220">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S1220">
+        <v>15</v>
+      </c>
+      <c r="T1220">
+        <v>3</v>
+      </c>
+      <c r="U1220">
+        <v>26</v>
+      </c>
+      <c r="V1220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1221">
+        <v>5.42</v>
+      </c>
+      <c r="I1221">
+        <v>0.38</v>
+      </c>
+      <c r="J1221">
+        <v>5.03</v>
+      </c>
+      <c r="K1221">
+        <v>0.24</v>
+      </c>
+      <c r="L1221">
+        <v>0.12</v>
+      </c>
+      <c r="M1221">
+        <v>0.02</v>
+      </c>
+      <c r="N1221">
+        <v>0</v>
+      </c>
+      <c r="O1221">
+        <v>2</v>
+      </c>
+      <c r="P1221">
+        <v>3.16</v>
+      </c>
+      <c r="Q1221">
+        <v>29.19</v>
+      </c>
+      <c r="R1221">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S1221">
+        <v>22</v>
+      </c>
+      <c r="T1221">
+        <v>2</v>
+      </c>
+      <c r="U1221">
+        <v>11</v>
+      </c>
+      <c r="V1221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H1222">
+        <v>7.38</v>
+      </c>
+      <c r="I1222">
+        <v>0.83</v>
+      </c>
+      <c r="J1222">
+        <v>6.55</v>
+      </c>
+      <c r="K1222">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L1222">
+        <v>0.18</v>
+      </c>
+      <c r="M1222">
+        <v>0.1</v>
+      </c>
+      <c r="N1222">
+        <v>0.01</v>
+      </c>
+      <c r="O1222">
+        <v>7</v>
+      </c>
+      <c r="P1222">
+        <v>4.32</v>
+      </c>
+      <c r="Q1222">
+        <v>30.88</v>
+      </c>
+      <c r="R1222">
+        <v>4.22</v>
+      </c>
+      <c r="S1222">
+        <v>20</v>
+      </c>
+      <c r="T1222">
+        <v>5</v>
+      </c>
+      <c r="U1222">
+        <v>16</v>
+      </c>
+      <c r="V1222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1223">
+        <v>7.67</v>
+      </c>
+      <c r="I1223">
+        <v>1.08</v>
+      </c>
+      <c r="J1223">
+        <v>6.57</v>
+      </c>
+      <c r="K1223">
+        <v>0.8</v>
+      </c>
+      <c r="L1223">
+        <v>0.25</v>
+      </c>
+      <c r="M1223">
+        <v>0.05</v>
+      </c>
+      <c r="N1223">
+        <v>0</v>
+      </c>
+      <c r="O1223">
+        <v>5</v>
+      </c>
+      <c r="P1223">
+        <v>4.43</v>
+      </c>
+      <c r="Q1223">
+        <v>28.5</v>
+      </c>
+      <c r="R1223">
+        <v>4.24</v>
+      </c>
+      <c r="S1223">
+        <v>36</v>
+      </c>
+      <c r="T1223">
+        <v>2</v>
+      </c>
+      <c r="U1223">
+        <v>20</v>
+      </c>
+      <c r="V1223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1224" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1224">
+        <v>8.6</v>
+      </c>
+      <c r="I1224">
+        <v>1.49</v>
+      </c>
+      <c r="J1224">
+        <v>7.09</v>
+      </c>
+      <c r="K1224">
+        <v>0.96</v>
+      </c>
+      <c r="L1224">
+        <v>0.37</v>
+      </c>
+      <c r="M1224">
+        <v>0.18</v>
+      </c>
+      <c r="N1224">
+        <v>0</v>
+      </c>
+      <c r="O1224">
+        <v>13</v>
+      </c>
+      <c r="P1224">
+        <v>5.21</v>
+      </c>
+      <c r="Q1224">
+        <v>29.78</v>
+      </c>
+      <c r="R1224">
+        <v>4.88</v>
+      </c>
+      <c r="S1224">
+        <v>47</v>
+      </c>
+      <c r="T1224">
+        <v>4</v>
+      </c>
+      <c r="U1224">
+        <v>36</v>
+      </c>
+      <c r="V1224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H1225">
+        <v>7.14</v>
+      </c>
+      <c r="I1225">
+        <v>0.94</v>
+      </c>
+      <c r="J1225">
+        <v>6.18</v>
+      </c>
+      <c r="K1225">
+        <v>0.48</v>
+      </c>
+      <c r="L1225">
+        <v>0.22</v>
+      </c>
+      <c r="M1225">
+        <v>0.2</v>
+      </c>
+      <c r="N1225">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O1225">
+        <v>16</v>
+      </c>
+      <c r="P1225">
+        <v>4.09</v>
+      </c>
+      <c r="Q1225">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="R1225">
+        <v>5.74</v>
+      </c>
+      <c r="S1225">
+        <v>40</v>
+      </c>
+      <c r="T1225">
+        <v>25</v>
+      </c>
+      <c r="U1225">
+        <v>42</v>
+      </c>
+      <c r="V1225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1226">
+        <v>7.45</v>
+      </c>
+      <c r="I1226">
+        <v>0.66</v>
+      </c>
+      <c r="J1226">
+        <v>6.75</v>
+      </c>
+      <c r="K1226">
+        <v>0.49</v>
+      </c>
+      <c r="L1226">
+        <v>0.16</v>
+      </c>
+      <c r="M1226">
+        <v>0.05</v>
+      </c>
+      <c r="N1226">
+        <v>0</v>
+      </c>
+      <c r="O1226">
+        <v>11</v>
+      </c>
+      <c r="P1226">
+        <v>4.05</v>
+      </c>
+      <c r="Q1226">
+        <v>29.32</v>
+      </c>
+      <c r="R1226">
+        <v>6.51</v>
+      </c>
+      <c r="S1226">
+        <v>226</v>
+      </c>
+      <c r="T1226">
+        <v>141</v>
+      </c>
+      <c r="U1226">
+        <v>175</v>
+      </c>
+      <c r="V1226">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1227" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1227">
+        <v>7.09</v>
+      </c>
+      <c r="I1227">
+        <v>0.88</v>
+      </c>
+      <c r="J1227">
+        <v>6.2</v>
+      </c>
+      <c r="K1227">
+        <v>0.65</v>
+      </c>
+      <c r="L1227">
+        <v>0.23</v>
+      </c>
+      <c r="M1227">
+        <v>0.02</v>
+      </c>
+      <c r="N1227">
+        <v>0</v>
+      </c>
+      <c r="O1227">
+        <v>2</v>
+      </c>
+      <c r="P1227">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q1227">
+        <v>26.67</v>
+      </c>
+      <c r="R1227">
+        <v>4.13</v>
+      </c>
+      <c r="S1227">
+        <v>33</v>
+      </c>
+      <c r="T1227">
+        <v>1</v>
+      </c>
+      <c r="U1227">
+        <v>27</v>
+      </c>
+      <c r="V1227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1228" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H1228">
+        <v>7.75</v>
+      </c>
+      <c r="I1228">
+        <v>0.95</v>
+      </c>
+      <c r="J1228">
+        <v>6.78</v>
+      </c>
+      <c r="K1228">
+        <v>0.53</v>
+      </c>
+      <c r="L1228">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M1228">
+        <v>0.12</v>
+      </c>
+      <c r="N1228">
+        <v>0.03</v>
+      </c>
+      <c r="O1228">
+        <v>12</v>
+      </c>
+      <c r="P1228">
+        <v>4.28</v>
+      </c>
+      <c r="Q1228">
+        <v>32.81</v>
+      </c>
+      <c r="R1228">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S1228">
+        <v>62</v>
+      </c>
+      <c r="T1228">
+        <v>6</v>
+      </c>
+      <c r="U1228">
+        <v>43</v>
+      </c>
+      <c r="V1228">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H1229">
+        <v>2.88</v>
+      </c>
+      <c r="I1229">
+        <v>0.37</v>
+      </c>
+      <c r="J1229">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K1229">
+        <v>0.11</v>
+      </c>
+      <c r="L1229">
+        <v>0.12</v>
+      </c>
+      <c r="M1229">
+        <v>0.13</v>
+      </c>
+      <c r="N1229">
+        <v>0.01</v>
+      </c>
+      <c r="O1229">
+        <v>8</v>
+      </c>
+      <c r="P1229">
+        <v>3.4</v>
+      </c>
+      <c r="Q1229">
+        <v>30.81</v>
+      </c>
+      <c r="R1229">
+        <v>4.99</v>
+      </c>
+      <c r="S1229">
+        <v>13</v>
+      </c>
+      <c r="T1229">
+        <v>7</v>
+      </c>
+      <c r="U1229">
+        <v>9</v>
+      </c>
+      <c r="V1229">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147CB307-E9EE-C241-BCE4-49893780DBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741C9D8-7731-4047-8E4C-ABAEA90A0C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6897" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="1046">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3156,6 +3156,24 @@
   </si>
   <si>
     <t>00:49:35</t>
+  </si>
+  <si>
+    <t>00:21:26</t>
+  </si>
+  <si>
+    <t>01:45:37</t>
+  </si>
+  <si>
+    <t>01:45:30</t>
+  </si>
+  <si>
+    <t>01:46:02</t>
+  </si>
+  <si>
+    <t>01:45:46</t>
+  </si>
+  <si>
+    <t>N3 J11 VS ASPTT Dijon</t>
   </si>
 </sst>
 </file>
@@ -3559,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1229"/>
+  <dimension ref="A1:V1238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1232" sqref="E1232"/>
+    <sheetView tabSelected="1" topLeftCell="A1223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1241" sqref="D1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85669,6 +85687,618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1230" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1230" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H1230">
+        <v>2.66</v>
+      </c>
+      <c r="I1230">
+        <v>0.61</v>
+      </c>
+      <c r="J1230">
+        <v>2.04</v>
+      </c>
+      <c r="K1230">
+        <v>0.41</v>
+      </c>
+      <c r="L1230">
+        <v>0.18</v>
+      </c>
+      <c r="M1230">
+        <v>0.03</v>
+      </c>
+      <c r="N1230">
+        <v>0</v>
+      </c>
+      <c r="O1230">
+        <v>5</v>
+      </c>
+      <c r="P1230">
+        <v>7.23</v>
+      </c>
+      <c r="Q1230">
+        <v>27.94</v>
+      </c>
+      <c r="R1230">
+        <v>3.82</v>
+      </c>
+      <c r="S1230">
+        <v>10</v>
+      </c>
+      <c r="T1230">
+        <v>0</v>
+      </c>
+      <c r="U1230">
+        <v>12</v>
+      </c>
+      <c r="V1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1231" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1231">
+        <v>10.46</v>
+      </c>
+      <c r="I1231">
+        <v>1.93</v>
+      </c>
+      <c r="J1231">
+        <v>8.51</v>
+      </c>
+      <c r="K1231">
+        <v>1.25</v>
+      </c>
+      <c r="L1231">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M1231">
+        <v>0.15</v>
+      </c>
+      <c r="N1231">
+        <v>0</v>
+      </c>
+      <c r="O1231">
+        <v>10</v>
+      </c>
+      <c r="P1231">
+        <v>5.78</v>
+      </c>
+      <c r="Q1231">
+        <v>29.54</v>
+      </c>
+      <c r="R1231">
+        <v>4.51</v>
+      </c>
+      <c r="S1231">
+        <v>20</v>
+      </c>
+      <c r="T1231">
+        <v>6</v>
+      </c>
+      <c r="U1231">
+        <v>33</v>
+      </c>
+      <c r="V1231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1232" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1232" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1232">
+        <v>8.64</v>
+      </c>
+      <c r="I1232">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J1232">
+        <v>6.6</v>
+      </c>
+      <c r="K1232">
+        <v>1.32</v>
+      </c>
+      <c r="L1232">
+        <v>0.54</v>
+      </c>
+      <c r="M1232">
+        <v>0.19</v>
+      </c>
+      <c r="N1232">
+        <v>0</v>
+      </c>
+      <c r="O1232">
+        <v>13</v>
+      </c>
+      <c r="P1232">
+        <v>7.15</v>
+      </c>
+      <c r="Q1232">
+        <v>28.38</v>
+      </c>
+      <c r="R1232">
+        <v>4.55</v>
+      </c>
+      <c r="S1232">
+        <v>41</v>
+      </c>
+      <c r="T1232">
+        <v>5</v>
+      </c>
+      <c r="U1232">
+        <v>27</v>
+      </c>
+      <c r="V1232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1233" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1233" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H1233">
+        <v>12.94</v>
+      </c>
+      <c r="I1233">
+        <v>2.79</v>
+      </c>
+      <c r="J1233">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="K1233">
+        <v>2.37</v>
+      </c>
+      <c r="L1233">
+        <v>0.43</v>
+      </c>
+      <c r="M1233">
+        <v>0.02</v>
+      </c>
+      <c r="N1233">
+        <v>0</v>
+      </c>
+      <c r="O1233">
+        <v>1</v>
+      </c>
+      <c r="P1233">
+        <v>7.26</v>
+      </c>
+      <c r="Q1233">
+        <v>28.06</v>
+      </c>
+      <c r="R1233">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S1233">
+        <v>38</v>
+      </c>
+      <c r="T1233">
+        <v>5</v>
+      </c>
+      <c r="U1233">
+        <v>36</v>
+      </c>
+      <c r="V1233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1234" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1234">
+        <v>10.26</v>
+      </c>
+      <c r="I1234">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J1234">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K1234">
+        <v>1.43</v>
+      </c>
+      <c r="L1234">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M1234">
+        <v>0.06</v>
+      </c>
+      <c r="N1234">
+        <v>0</v>
+      </c>
+      <c r="O1234">
+        <v>5</v>
+      </c>
+      <c r="P1234">
+        <v>7.17</v>
+      </c>
+      <c r="Q1234">
+        <v>28.88</v>
+      </c>
+      <c r="R1234">
+        <v>4.7</v>
+      </c>
+      <c r="S1234">
+        <v>43</v>
+      </c>
+      <c r="T1234">
+        <v>7</v>
+      </c>
+      <c r="U1234">
+        <v>36</v>
+      </c>
+      <c r="V1234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1235" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1235" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H1235">
+        <v>10.35</v>
+      </c>
+      <c r="I1235">
+        <v>2.61</v>
+      </c>
+      <c r="J1235">
+        <v>7.7</v>
+      </c>
+      <c r="K1235">
+        <v>1.53</v>
+      </c>
+      <c r="L1235">
+        <v>0.88</v>
+      </c>
+      <c r="M1235">
+        <v>0.23</v>
+      </c>
+      <c r="N1235">
+        <v>0.01</v>
+      </c>
+      <c r="O1235">
+        <v>19</v>
+      </c>
+      <c r="P1235">
+        <v>6.83</v>
+      </c>
+      <c r="Q1235">
+        <v>30.64</v>
+      </c>
+      <c r="R1235">
+        <v>5.26</v>
+      </c>
+      <c r="S1235">
+        <v>58</v>
+      </c>
+      <c r="T1235">
+        <v>18</v>
+      </c>
+      <c r="U1235">
+        <v>52</v>
+      </c>
+      <c r="V1235">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1236" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1236" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H1236">
+        <v>11.84</v>
+      </c>
+      <c r="I1236">
+        <v>2.34</v>
+      </c>
+      <c r="J1236">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="K1236">
+        <v>1.44</v>
+      </c>
+      <c r="L1236">
+        <v>0.68</v>
+      </c>
+      <c r="M1236">
+        <v>0.25</v>
+      </c>
+      <c r="N1236">
+        <v>0</v>
+      </c>
+      <c r="O1236">
+        <v>17</v>
+      </c>
+      <c r="P1236">
+        <v>6.61</v>
+      </c>
+      <c r="Q1236">
+        <v>30.23</v>
+      </c>
+      <c r="R1236">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1236">
+        <v>47</v>
+      </c>
+      <c r="T1236">
+        <v>12</v>
+      </c>
+      <c r="U1236">
+        <v>47</v>
+      </c>
+      <c r="V1236">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1237" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H1237">
+        <v>10.83</v>
+      </c>
+      <c r="I1237">
+        <v>1.75</v>
+      </c>
+      <c r="J1237">
+        <v>9.06</v>
+      </c>
+      <c r="K1237">
+        <v>1.35</v>
+      </c>
+      <c r="L1237">
+        <v>0.37</v>
+      </c>
+      <c r="M1237">
+        <v>0.05</v>
+      </c>
+      <c r="N1237">
+        <v>0</v>
+      </c>
+      <c r="O1237">
+        <v>4</v>
+      </c>
+      <c r="P1237">
+        <v>6.01</v>
+      </c>
+      <c r="Q1237">
+        <v>29.4</v>
+      </c>
+      <c r="R1237">
+        <v>4.41</v>
+      </c>
+      <c r="S1237">
+        <v>36</v>
+      </c>
+      <c r="T1237">
+        <v>3</v>
+      </c>
+      <c r="U1237">
+        <v>23</v>
+      </c>
+      <c r="V1237">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1238" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H1238">
+        <v>10.36</v>
+      </c>
+      <c r="I1238">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J1238">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="K1238">
+        <v>0.89</v>
+      </c>
+      <c r="L1238">
+        <v>0.2</v>
+      </c>
+      <c r="M1238">
+        <v>0.06</v>
+      </c>
+      <c r="N1238">
+        <v>0</v>
+      </c>
+      <c r="O1238">
+        <v>5</v>
+      </c>
+      <c r="P1238">
+        <v>5.75</v>
+      </c>
+      <c r="Q1238">
+        <v>29.94</v>
+      </c>
+      <c r="R1238">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S1238">
+        <v>23</v>
+      </c>
+      <c r="T1238">
+        <v>9</v>
+      </c>
+      <c r="U1238">
+        <v>20</v>
+      </c>
+      <c r="V1238">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741C9D8-7731-4047-8E4C-ABAEA90A0C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6FE2E8-5B30-0D40-814B-22C46A38BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A1:V1238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1241" sqref="D1241"/>
+      <selection activeCell="E1233" sqref="E1233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85837,7 +85837,7 @@
         <v>434</v>
       </c>
       <c r="E1232" s="6" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="F1232" t="s">
         <v>34</v>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6FE2E8-5B30-0D40-814B-22C46A38BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA9F48-2D8F-3D4B-B77B-049A893CE138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6993" uniqueCount="1052">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3174,6 +3174,24 @@
   </si>
   <si>
     <t>N3 J11 VS ASPTT Dijon</t>
+  </si>
+  <si>
+    <t>01:48:10</t>
+  </si>
+  <si>
+    <t>01:48:27</t>
+  </si>
+  <si>
+    <t>01:45:24</t>
+  </si>
+  <si>
+    <t>01:49:29</t>
+  </si>
+  <si>
+    <t>01:45:06</t>
+  </si>
+  <si>
+    <t>01:50:14</t>
   </si>
 </sst>
 </file>
@@ -3577,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1238"/>
+  <dimension ref="A1:V1245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1233" sqref="E1233"/>
+      <selection activeCell="C1248" sqref="C1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86299,6 +86317,482 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1239" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1239">
+        <v>6.2</v>
+      </c>
+      <c r="I1239">
+        <v>0.37</v>
+      </c>
+      <c r="J1239">
+        <v>5.82</v>
+      </c>
+      <c r="K1239">
+        <v>0.36</v>
+      </c>
+      <c r="L1239">
+        <v>0.02</v>
+      </c>
+      <c r="M1239">
+        <v>0</v>
+      </c>
+      <c r="N1239">
+        <v>0</v>
+      </c>
+      <c r="O1239">
+        <v>0</v>
+      </c>
+      <c r="P1239">
+        <v>4.46</v>
+      </c>
+      <c r="Q1239">
+        <v>24.07</v>
+      </c>
+      <c r="R1239">
+        <v>4.67</v>
+      </c>
+      <c r="S1239">
+        <v>29</v>
+      </c>
+      <c r="T1239">
+        <v>5</v>
+      </c>
+      <c r="U1239">
+        <v>25</v>
+      </c>
+      <c r="V1239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H1240">
+        <v>8.39</v>
+      </c>
+      <c r="I1240">
+        <v>0.39</v>
+      </c>
+      <c r="J1240">
+        <v>7.99</v>
+      </c>
+      <c r="K1240">
+        <v>0.4</v>
+      </c>
+      <c r="L1240">
+        <v>0</v>
+      </c>
+      <c r="M1240">
+        <v>0</v>
+      </c>
+      <c r="N1240">
+        <v>0</v>
+      </c>
+      <c r="O1240">
+        <v>0</v>
+      </c>
+      <c r="P1240">
+        <v>4.58</v>
+      </c>
+      <c r="Q1240">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="R1240">
+        <v>4.45</v>
+      </c>
+      <c r="S1240">
+        <v>42</v>
+      </c>
+      <c r="T1240">
+        <v>4</v>
+      </c>
+      <c r="U1240">
+        <v>27</v>
+      </c>
+      <c r="V1240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1241" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H1241">
+        <v>7.81</v>
+      </c>
+      <c r="I1241">
+        <v>0.25</v>
+      </c>
+      <c r="J1241">
+        <v>7.55</v>
+      </c>
+      <c r="K1241">
+        <v>0.22</v>
+      </c>
+      <c r="L1241">
+        <v>0.04</v>
+      </c>
+      <c r="M1241">
+        <v>0</v>
+      </c>
+      <c r="N1241">
+        <v>0</v>
+      </c>
+      <c r="O1241">
+        <v>1</v>
+      </c>
+      <c r="P1241">
+        <v>3.94</v>
+      </c>
+      <c r="Q1241">
+        <v>26.27</v>
+      </c>
+      <c r="R1241">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S1241">
+        <v>87</v>
+      </c>
+      <c r="T1241">
+        <v>19</v>
+      </c>
+      <c r="U1241">
+        <v>59</v>
+      </c>
+      <c r="V1241">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1242" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H1242">
+        <v>9.41</v>
+      </c>
+      <c r="I1242">
+        <v>0.63</v>
+      </c>
+      <c r="J1242">
+        <v>8.76</v>
+      </c>
+      <c r="K1242">
+        <v>0.6</v>
+      </c>
+      <c r="L1242">
+        <v>0.05</v>
+      </c>
+      <c r="M1242">
+        <v>0</v>
+      </c>
+      <c r="N1242">
+        <v>0</v>
+      </c>
+      <c r="O1242">
+        <v>0</v>
+      </c>
+      <c r="P1242">
+        <v>4.92</v>
+      </c>
+      <c r="Q1242">
+        <v>22.87</v>
+      </c>
+      <c r="R1242">
+        <v>5.4</v>
+      </c>
+      <c r="S1242">
+        <v>65</v>
+      </c>
+      <c r="T1242">
+        <v>16</v>
+      </c>
+      <c r="U1242">
+        <v>70</v>
+      </c>
+      <c r="V1242">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1243">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="I1243">
+        <v>0.3</v>
+      </c>
+      <c r="J1243">
+        <v>8.32</v>
+      </c>
+      <c r="K1243">
+        <v>0.3</v>
+      </c>
+      <c r="L1243">
+        <v>0</v>
+      </c>
+      <c r="M1243">
+        <v>0</v>
+      </c>
+      <c r="N1243">
+        <v>0</v>
+      </c>
+      <c r="O1243">
+        <v>0</v>
+      </c>
+      <c r="P1243">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q1243">
+        <v>20.28</v>
+      </c>
+      <c r="R1243">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S1243">
+        <v>48</v>
+      </c>
+      <c r="T1243">
+        <v>5</v>
+      </c>
+      <c r="U1243">
+        <v>20</v>
+      </c>
+      <c r="V1243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1244" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H1244">
+        <v>9.16</v>
+      </c>
+      <c r="I1244">
+        <v>0.59</v>
+      </c>
+      <c r="J1244">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K1244">
+        <v>0.42</v>
+      </c>
+      <c r="L1244">
+        <v>0.19</v>
+      </c>
+      <c r="M1244">
+        <v>0</v>
+      </c>
+      <c r="N1244">
+        <v>0</v>
+      </c>
+      <c r="O1244">
+        <v>1</v>
+      </c>
+      <c r="P1244">
+        <v>4.82</v>
+      </c>
+      <c r="Q1244">
+        <v>25.41</v>
+      </c>
+      <c r="R1244">
+        <v>5.16</v>
+      </c>
+      <c r="S1244">
+        <v>90</v>
+      </c>
+      <c r="T1244">
+        <v>22</v>
+      </c>
+      <c r="U1244">
+        <v>74</v>
+      </c>
+      <c r="V1244">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1245" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1245">
+        <v>9.27</v>
+      </c>
+      <c r="I1245">
+        <v>0.43</v>
+      </c>
+      <c r="J1245">
+        <v>8.83</v>
+      </c>
+      <c r="K1245">
+        <v>0.41</v>
+      </c>
+      <c r="L1245">
+        <v>0.02</v>
+      </c>
+      <c r="M1245">
+        <v>0</v>
+      </c>
+      <c r="N1245">
+        <v>0</v>
+      </c>
+      <c r="O1245">
+        <v>0</v>
+      </c>
+      <c r="P1245">
+        <v>4.45</v>
+      </c>
+      <c r="Q1245">
+        <v>21.43</v>
+      </c>
+      <c r="R1245">
+        <v>4.67</v>
+      </c>
+      <c r="S1245">
+        <v>49</v>
+      </c>
+      <c r="T1245">
+        <v>12</v>
+      </c>
+      <c r="U1245">
+        <v>39</v>
+      </c>
+      <c r="V1245">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA9F48-2D8F-3D4B-B77B-049A893CE138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE7A82-150F-EB48-B452-E8FF0EB70022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6993" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7059" uniqueCount="1058">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3192,6 +3192,24 @@
   </si>
   <si>
     <t>01:50:14</t>
+  </si>
+  <si>
+    <t>01:45:40</t>
+  </si>
+  <si>
+    <t>01:45:31</t>
+  </si>
+  <si>
+    <t>01:43:32</t>
+  </si>
+  <si>
+    <t>01:44:08</t>
+  </si>
+  <si>
+    <t>01:43:04</t>
+  </si>
+  <si>
+    <t>01:45:03</t>
   </si>
 </sst>
 </file>
@@ -3595,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1245"/>
+  <dimension ref="A1:V1256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1248" sqref="C1248"/>
+      <selection activeCell="E1260" sqref="E1260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86793,6 +86811,754 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1246" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1246" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1246">
+        <v>6.67</v>
+      </c>
+      <c r="I1246">
+        <v>0.92</v>
+      </c>
+      <c r="J1246">
+        <v>5.74</v>
+      </c>
+      <c r="K1246">
+        <v>0.59</v>
+      </c>
+      <c r="L1246">
+        <v>0.25</v>
+      </c>
+      <c r="M1246">
+        <v>0.09</v>
+      </c>
+      <c r="N1246">
+        <v>0</v>
+      </c>
+      <c r="O1246">
+        <v>9</v>
+      </c>
+      <c r="P1246">
+        <v>3.68</v>
+      </c>
+      <c r="Q1246">
+        <v>28.91</v>
+      </c>
+      <c r="R1246">
+        <v>4.34</v>
+      </c>
+      <c r="S1246">
+        <v>24</v>
+      </c>
+      <c r="T1246">
+        <v>5</v>
+      </c>
+      <c r="U1246">
+        <v>21</v>
+      </c>
+      <c r="V1246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1247">
+        <v>7.31</v>
+      </c>
+      <c r="I1247">
+        <v>0.75</v>
+      </c>
+      <c r="J1247">
+        <v>6.53</v>
+      </c>
+      <c r="K1247">
+        <v>0.45</v>
+      </c>
+      <c r="L1247">
+        <v>0.24</v>
+      </c>
+      <c r="M1247">
+        <v>0.08</v>
+      </c>
+      <c r="N1247">
+        <v>0</v>
+      </c>
+      <c r="O1247">
+        <v>10</v>
+      </c>
+      <c r="P1247">
+        <v>3.92</v>
+      </c>
+      <c r="Q1247">
+        <v>30.1</v>
+      </c>
+      <c r="R1247">
+        <v>5.54</v>
+      </c>
+      <c r="S1247">
+        <v>65</v>
+      </c>
+      <c r="T1247">
+        <v>19</v>
+      </c>
+      <c r="U1247">
+        <v>47</v>
+      </c>
+      <c r="V1247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H1248">
+        <v>6.62</v>
+      </c>
+      <c r="I1248">
+        <v>0.74</v>
+      </c>
+      <c r="J1248">
+        <v>5.87</v>
+      </c>
+      <c r="K1248">
+        <v>0.44</v>
+      </c>
+      <c r="L1248">
+        <v>0.25</v>
+      </c>
+      <c r="M1248">
+        <v>0.05</v>
+      </c>
+      <c r="N1248">
+        <v>0</v>
+      </c>
+      <c r="O1248">
+        <v>2</v>
+      </c>
+      <c r="P1248">
+        <v>3.68</v>
+      </c>
+      <c r="Q1248">
+        <v>30.02</v>
+      </c>
+      <c r="R1248">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S1248">
+        <v>22</v>
+      </c>
+      <c r="T1248">
+        <v>8</v>
+      </c>
+      <c r="U1248">
+        <v>10</v>
+      </c>
+      <c r="V1248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H1249">
+        <v>6.36</v>
+      </c>
+      <c r="I1249">
+        <v>0.47</v>
+      </c>
+      <c r="J1249">
+        <v>5.88</v>
+      </c>
+      <c r="K1249">
+        <v>0.34</v>
+      </c>
+      <c r="L1249">
+        <v>0.11</v>
+      </c>
+      <c r="M1249">
+        <v>0.03</v>
+      </c>
+      <c r="N1249">
+        <v>0</v>
+      </c>
+      <c r="O1249">
+        <v>5</v>
+      </c>
+      <c r="P1249">
+        <v>3.27</v>
+      </c>
+      <c r="Q1249">
+        <v>30.09</v>
+      </c>
+      <c r="R1249">
+        <v>5.04</v>
+      </c>
+      <c r="S1249">
+        <v>36</v>
+      </c>
+      <c r="T1249">
+        <v>9</v>
+      </c>
+      <c r="U1249">
+        <v>39</v>
+      </c>
+      <c r="V1249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1250" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1250">
+        <v>6.48</v>
+      </c>
+      <c r="I1250">
+        <v>0.89</v>
+      </c>
+      <c r="J1250">
+        <v>5.58</v>
+      </c>
+      <c r="K1250">
+        <v>0.64</v>
+      </c>
+      <c r="L1250">
+        <v>0.24</v>
+      </c>
+      <c r="M1250">
+        <v>0.03</v>
+      </c>
+      <c r="N1250">
+        <v>0</v>
+      </c>
+      <c r="O1250">
+        <v>5</v>
+      </c>
+      <c r="P1250">
+        <v>3.61</v>
+      </c>
+      <c r="Q1250">
+        <v>26.71</v>
+      </c>
+      <c r="R1250">
+        <v>4.74</v>
+      </c>
+      <c r="S1250">
+        <v>30</v>
+      </c>
+      <c r="T1250">
+        <v>11</v>
+      </c>
+      <c r="U1250">
+        <v>31</v>
+      </c>
+      <c r="V1250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1251" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H1251">
+        <v>6.47</v>
+      </c>
+      <c r="I1251">
+        <v>0.69</v>
+      </c>
+      <c r="J1251">
+        <v>5.76</v>
+      </c>
+      <c r="K1251">
+        <v>0.48</v>
+      </c>
+      <c r="L1251">
+        <v>0.19</v>
+      </c>
+      <c r="M1251">
+        <v>0.04</v>
+      </c>
+      <c r="N1251">
+        <v>0</v>
+      </c>
+      <c r="O1251">
+        <v>6</v>
+      </c>
+      <c r="P1251">
+        <v>3.33</v>
+      </c>
+      <c r="Q1251">
+        <v>27.74</v>
+      </c>
+      <c r="R1251">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S1251">
+        <v>45</v>
+      </c>
+      <c r="T1251">
+        <v>13</v>
+      </c>
+      <c r="U1251">
+        <v>34</v>
+      </c>
+      <c r="V1251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H1252">
+        <v>7.74</v>
+      </c>
+      <c r="I1252">
+        <v>1.22</v>
+      </c>
+      <c r="J1252">
+        <v>6.5</v>
+      </c>
+      <c r="K1252">
+        <v>0.84</v>
+      </c>
+      <c r="L1252">
+        <v>0.26</v>
+      </c>
+      <c r="M1252">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N1252">
+        <v>0</v>
+      </c>
+      <c r="O1252">
+        <v>13</v>
+      </c>
+      <c r="P1252">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Q1252">
+        <v>29.25</v>
+      </c>
+      <c r="R1252">
+        <v>5.44</v>
+      </c>
+      <c r="S1252">
+        <v>54</v>
+      </c>
+      <c r="T1252">
+        <v>22</v>
+      </c>
+      <c r="U1252">
+        <v>50</v>
+      </c>
+      <c r="V1252">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1253" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1253">
+        <v>6.14</v>
+      </c>
+      <c r="I1253">
+        <v>0.15</v>
+      </c>
+      <c r="J1253">
+        <v>5.99</v>
+      </c>
+      <c r="K1253">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1253">
+        <v>0.01</v>
+      </c>
+      <c r="M1253">
+        <v>0</v>
+      </c>
+      <c r="N1253">
+        <v>0</v>
+      </c>
+      <c r="O1253">
+        <v>0</v>
+      </c>
+      <c r="P1253">
+        <v>3.42</v>
+      </c>
+      <c r="Q1253">
+        <v>23.36</v>
+      </c>
+      <c r="R1253">
+        <v>4.12</v>
+      </c>
+      <c r="S1253">
+        <v>17</v>
+      </c>
+      <c r="T1253">
+        <v>2</v>
+      </c>
+      <c r="U1253">
+        <v>13</v>
+      </c>
+      <c r="V1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H1254">
+        <v>7.57</v>
+      </c>
+      <c r="I1254">
+        <v>0.89</v>
+      </c>
+      <c r="J1254">
+        <v>6.67</v>
+      </c>
+      <c r="K1254">
+        <v>0.61</v>
+      </c>
+      <c r="L1254">
+        <v>0.23</v>
+      </c>
+      <c r="M1254">
+        <v>0.06</v>
+      </c>
+      <c r="N1254">
+        <v>0</v>
+      </c>
+      <c r="O1254">
+        <v>6</v>
+      </c>
+      <c r="P1254">
+        <v>4.26</v>
+      </c>
+      <c r="Q1254">
+        <v>28.67</v>
+      </c>
+      <c r="R1254">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1254">
+        <v>22</v>
+      </c>
+      <c r="T1254">
+        <v>7</v>
+      </c>
+      <c r="U1254">
+        <v>27</v>
+      </c>
+      <c r="V1254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1255">
+        <v>7.47</v>
+      </c>
+      <c r="I1255">
+        <v>0.81</v>
+      </c>
+      <c r="J1255">
+        <v>6.65</v>
+      </c>
+      <c r="K1255">
+        <v>0.54</v>
+      </c>
+      <c r="L1255">
+        <v>0.19</v>
+      </c>
+      <c r="M1255">
+        <v>0.09</v>
+      </c>
+      <c r="N1255">
+        <v>0</v>
+      </c>
+      <c r="O1255">
+        <v>8</v>
+      </c>
+      <c r="P1255">
+        <v>4.24</v>
+      </c>
+      <c r="Q1255">
+        <v>28.18</v>
+      </c>
+      <c r="R1255">
+        <v>4.53</v>
+      </c>
+      <c r="S1255">
+        <v>32</v>
+      </c>
+      <c r="T1255">
+        <v>8</v>
+      </c>
+      <c r="U1255">
+        <v>25</v>
+      </c>
+      <c r="V1255">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1256" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1256">
+        <v>6.49</v>
+      </c>
+      <c r="I1256">
+        <v>0.44</v>
+      </c>
+      <c r="J1256">
+        <v>6.04</v>
+      </c>
+      <c r="K1256">
+        <v>0.32</v>
+      </c>
+      <c r="L1256">
+        <v>0.11</v>
+      </c>
+      <c r="M1256">
+        <v>0.03</v>
+      </c>
+      <c r="N1256">
+        <v>0</v>
+      </c>
+      <c r="O1256">
+        <v>2</v>
+      </c>
+      <c r="P1256">
+        <v>3.17</v>
+      </c>
+      <c r="Q1256">
+        <v>30.42</v>
+      </c>
+      <c r="R1256">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S1256">
+        <v>45</v>
+      </c>
+      <c r="T1256">
+        <v>6</v>
+      </c>
+      <c r="U1256">
+        <v>32</v>
+      </c>
+      <c r="V1256">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE7A82-150F-EB48-B452-E8FF0EB70022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6031980-5215-604B-B51A-BCBF5461F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7059" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7161" uniqueCount="1070">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3210,6 +3210,42 @@
   </si>
   <si>
     <t>01:45:03</t>
+  </si>
+  <si>
+    <t>01:11:34</t>
+  </si>
+  <si>
+    <t>01:12:45</t>
+  </si>
+  <si>
+    <t>01:14:19</t>
+  </si>
+  <si>
+    <t>00:12:38</t>
+  </si>
+  <si>
+    <t>01:27:00</t>
+  </si>
+  <si>
+    <t>00:26:53</t>
+  </si>
+  <si>
+    <t>01:40:23</t>
+  </si>
+  <si>
+    <t>00:26:15</t>
+  </si>
+  <si>
+    <t>00:48:59</t>
+  </si>
+  <si>
+    <t>01:13:29</t>
+  </si>
+  <si>
+    <t>00:44:11</t>
+  </si>
+  <si>
+    <t>N3 J15 VS OM (B)</t>
   </si>
 </sst>
 </file>
@@ -3613,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1256"/>
+  <dimension ref="A1:V1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1260" sqref="E1260"/>
+    <sheetView tabSelected="1" topLeftCell="A1245" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1278" sqref="E1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87559,6 +87595,1162 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1257" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1257" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H1257">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I1257">
+        <v>0.18</v>
+      </c>
+      <c r="J1257">
+        <v>4.47</v>
+      </c>
+      <c r="K1257">
+        <v>0.13</v>
+      </c>
+      <c r="L1257">
+        <v>0.04</v>
+      </c>
+      <c r="M1257">
+        <v>0.03</v>
+      </c>
+      <c r="N1257">
+        <v>0</v>
+      </c>
+      <c r="O1257">
+        <v>4</v>
+      </c>
+      <c r="P1257">
+        <v>3.61</v>
+      </c>
+      <c r="Q1257">
+        <v>27.77</v>
+      </c>
+      <c r="R1257">
+        <v>4.63</v>
+      </c>
+      <c r="S1257">
+        <v>33</v>
+      </c>
+      <c r="T1257">
+        <v>5</v>
+      </c>
+      <c r="U1257">
+        <v>22</v>
+      </c>
+      <c r="V1257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1258" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H1258">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I1258">
+        <v>0.15</v>
+      </c>
+      <c r="J1258">
+        <v>4.57</v>
+      </c>
+      <c r="K1258">
+        <v>0.13</v>
+      </c>
+      <c r="L1258">
+        <v>0.03</v>
+      </c>
+      <c r="M1258">
+        <v>0</v>
+      </c>
+      <c r="N1258">
+        <v>0</v>
+      </c>
+      <c r="O1258">
+        <v>0</v>
+      </c>
+      <c r="P1258">
+        <v>3.86</v>
+      </c>
+      <c r="Q1258">
+        <v>24.94</v>
+      </c>
+      <c r="R1258">
+        <v>4.76</v>
+      </c>
+      <c r="S1258">
+        <v>15</v>
+      </c>
+      <c r="T1258">
+        <v>3</v>
+      </c>
+      <c r="U1258">
+        <v>8</v>
+      </c>
+      <c r="V1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1259" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H1259">
+        <v>5.15</v>
+      </c>
+      <c r="I1259">
+        <v>0.08</v>
+      </c>
+      <c r="J1259">
+        <v>5.07</v>
+      </c>
+      <c r="K1259">
+        <v>0.08</v>
+      </c>
+      <c r="L1259">
+        <v>0</v>
+      </c>
+      <c r="M1259">
+        <v>0</v>
+      </c>
+      <c r="N1259">
+        <v>0</v>
+      </c>
+      <c r="O1259">
+        <v>0</v>
+      </c>
+      <c r="P1259">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q1259">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="R1259">
+        <v>4.53</v>
+      </c>
+      <c r="S1259">
+        <v>13</v>
+      </c>
+      <c r="T1259">
+        <v>1</v>
+      </c>
+      <c r="U1259">
+        <v>9</v>
+      </c>
+      <c r="V1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1260" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H1260">
+        <v>1.67</v>
+      </c>
+      <c r="I1260">
+        <v>0.49</v>
+      </c>
+      <c r="J1260">
+        <v>1.17</v>
+      </c>
+      <c r="K1260">
+        <v>0.36</v>
+      </c>
+      <c r="L1260">
+        <v>0.12</v>
+      </c>
+      <c r="M1260">
+        <v>0.03</v>
+      </c>
+      <c r="N1260">
+        <v>0</v>
+      </c>
+      <c r="O1260">
+        <v>3</v>
+      </c>
+      <c r="P1260">
+        <v>7.88</v>
+      </c>
+      <c r="Q1260">
+        <v>26.83</v>
+      </c>
+      <c r="R1260">
+        <v>4.84</v>
+      </c>
+      <c r="S1260">
+        <v>4</v>
+      </c>
+      <c r="T1260">
+        <v>1</v>
+      </c>
+      <c r="U1260">
+        <v>3</v>
+      </c>
+      <c r="V1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H1261">
+        <v>10.84</v>
+      </c>
+      <c r="I1261">
+        <v>2.7</v>
+      </c>
+      <c r="J1261">
+        <v>8.11</v>
+      </c>
+      <c r="K1261">
+        <v>1.94</v>
+      </c>
+      <c r="L1261">
+        <v>0.68</v>
+      </c>
+      <c r="M1261">
+        <v>0.11</v>
+      </c>
+      <c r="N1261">
+        <v>0</v>
+      </c>
+      <c r="O1261">
+        <v>7</v>
+      </c>
+      <c r="P1261">
+        <v>7.44</v>
+      </c>
+      <c r="Q1261">
+        <v>28.36</v>
+      </c>
+      <c r="R1261">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1261">
+        <v>16</v>
+      </c>
+      <c r="T1261">
+        <v>2</v>
+      </c>
+      <c r="U1261">
+        <v>27</v>
+      </c>
+      <c r="V1261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1262" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1262">
+        <v>10.19</v>
+      </c>
+      <c r="I1262">
+        <v>1.7</v>
+      </c>
+      <c r="J1262">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="K1262">
+        <v>1.34</v>
+      </c>
+      <c r="L1262">
+        <v>0.32</v>
+      </c>
+      <c r="M1262">
+        <v>0.06</v>
+      </c>
+      <c r="N1262">
+        <v>0</v>
+      </c>
+      <c r="O1262">
+        <v>4</v>
+      </c>
+      <c r="P1262">
+        <v>6.08</v>
+      </c>
+      <c r="Q1262">
+        <v>28.03</v>
+      </c>
+      <c r="R1262">
+        <v>4.63</v>
+      </c>
+      <c r="S1262">
+        <v>42</v>
+      </c>
+      <c r="T1262">
+        <v>5</v>
+      </c>
+      <c r="U1262">
+        <v>45</v>
+      </c>
+      <c r="V1262">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1263" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H1263">
+        <v>3.36</v>
+      </c>
+      <c r="I1263">
+        <v>0.92</v>
+      </c>
+      <c r="J1263">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K1263">
+        <v>0.75</v>
+      </c>
+      <c r="L1263">
+        <v>0.17</v>
+      </c>
+      <c r="M1263">
+        <v>0.01</v>
+      </c>
+      <c r="N1263">
+        <v>0</v>
+      </c>
+      <c r="O1263">
+        <v>2</v>
+      </c>
+      <c r="P1263">
+        <v>7.43</v>
+      </c>
+      <c r="Q1263">
+        <v>25.85</v>
+      </c>
+      <c r="R1263">
+        <v>5.09</v>
+      </c>
+      <c r="S1263">
+        <v>9</v>
+      </c>
+      <c r="T1263">
+        <v>4</v>
+      </c>
+      <c r="U1263">
+        <v>11</v>
+      </c>
+      <c r="V1263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1264" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H1264">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I1264">
+        <v>1.78</v>
+      </c>
+      <c r="J1264">
+        <v>8.4</v>
+      </c>
+      <c r="K1264">
+        <v>1.02</v>
+      </c>
+      <c r="L1264">
+        <v>0.6</v>
+      </c>
+      <c r="M1264">
+        <v>0.17</v>
+      </c>
+      <c r="N1264">
+        <v>0</v>
+      </c>
+      <c r="O1264">
+        <v>11</v>
+      </c>
+      <c r="P1264">
+        <v>6.05</v>
+      </c>
+      <c r="Q1264">
+        <v>29.69</v>
+      </c>
+      <c r="R1264">
+        <v>4.16</v>
+      </c>
+      <c r="S1264">
+        <v>31</v>
+      </c>
+      <c r="T1264">
+        <v>4</v>
+      </c>
+      <c r="U1264">
+        <v>25</v>
+      </c>
+      <c r="V1264">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1265" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H1265">
+        <v>3.06</v>
+      </c>
+      <c r="I1265">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J1265">
+        <v>2.48</v>
+      </c>
+      <c r="K1265">
+        <v>0.38</v>
+      </c>
+      <c r="L1265">
+        <v>0.16</v>
+      </c>
+      <c r="M1265">
+        <v>0.05</v>
+      </c>
+      <c r="N1265">
+        <v>0</v>
+      </c>
+      <c r="O1265">
+        <v>6</v>
+      </c>
+      <c r="P1265">
+        <v>6.93</v>
+      </c>
+      <c r="Q1265">
+        <v>27.65</v>
+      </c>
+      <c r="R1265">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S1265">
+        <v>15</v>
+      </c>
+      <c r="T1265">
+        <v>4</v>
+      </c>
+      <c r="U1265">
+        <v>14</v>
+      </c>
+      <c r="V1265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1266" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H1266">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I1266">
+        <v>0.68</v>
+      </c>
+      <c r="J1266">
+        <v>4.2</v>
+      </c>
+      <c r="K1266">
+        <v>0.49</v>
+      </c>
+      <c r="L1266">
+        <v>0.11</v>
+      </c>
+      <c r="M1266">
+        <v>0.08</v>
+      </c>
+      <c r="N1266">
+        <v>0.01</v>
+      </c>
+      <c r="O1266">
+        <v>5</v>
+      </c>
+      <c r="P1266">
+        <v>5.88</v>
+      </c>
+      <c r="Q1266">
+        <v>31.31</v>
+      </c>
+      <c r="R1266">
+        <v>3.79</v>
+      </c>
+      <c r="S1266">
+        <v>9</v>
+      </c>
+      <c r="T1266">
+        <v>0</v>
+      </c>
+      <c r="U1266">
+        <v>12</v>
+      </c>
+      <c r="V1266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H1267">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I1267">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J1267">
+        <v>6.58</v>
+      </c>
+      <c r="K1267">
+        <v>1.59</v>
+      </c>
+      <c r="L1267">
+        <v>0.66</v>
+      </c>
+      <c r="M1267">
+        <v>0.2</v>
+      </c>
+      <c r="N1267">
+        <v>0</v>
+      </c>
+      <c r="O1267">
+        <v>14</v>
+      </c>
+      <c r="P1267">
+        <v>7.31</v>
+      </c>
+      <c r="Q1267">
+        <v>28.75</v>
+      </c>
+      <c r="R1267">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S1267">
+        <v>33</v>
+      </c>
+      <c r="T1267">
+        <v>2</v>
+      </c>
+      <c r="U1267">
+        <v>34</v>
+      </c>
+      <c r="V1267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H1268">
+        <v>5.79</v>
+      </c>
+      <c r="I1268">
+        <v>1.32</v>
+      </c>
+      <c r="J1268">
+        <v>4.45</v>
+      </c>
+      <c r="K1268">
+        <v>0.85</v>
+      </c>
+      <c r="L1268">
+        <v>0.41</v>
+      </c>
+      <c r="M1268">
+        <v>0.08</v>
+      </c>
+      <c r="N1268">
+        <v>0</v>
+      </c>
+      <c r="O1268">
+        <v>7</v>
+      </c>
+      <c r="P1268">
+        <v>7.04</v>
+      </c>
+      <c r="Q1268">
+        <v>28.34</v>
+      </c>
+      <c r="R1268">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="S1268">
+        <v>26</v>
+      </c>
+      <c r="T1268">
+        <v>7</v>
+      </c>
+      <c r="U1268">
+        <v>25</v>
+      </c>
+      <c r="V1268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1269">
+        <v>12.28</v>
+      </c>
+      <c r="I1269">
+        <v>2.48</v>
+      </c>
+      <c r="J1269">
+        <v>9.77</v>
+      </c>
+      <c r="K1269">
+        <v>1.62</v>
+      </c>
+      <c r="L1269">
+        <v>0.76</v>
+      </c>
+      <c r="M1269">
+        <v>0.13</v>
+      </c>
+      <c r="N1269">
+        <v>0</v>
+      </c>
+      <c r="O1269">
+        <v>10</v>
+      </c>
+      <c r="P1269">
+        <v>7.26</v>
+      </c>
+      <c r="Q1269">
+        <v>28.69</v>
+      </c>
+      <c r="R1269">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S1269">
+        <v>47</v>
+      </c>
+      <c r="T1269">
+        <v>4</v>
+      </c>
+      <c r="U1269">
+        <v>45</v>
+      </c>
+      <c r="V1269">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1270" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1270">
+        <v>10.25</v>
+      </c>
+      <c r="I1270">
+        <v>1.97</v>
+      </c>
+      <c r="J1270">
+        <v>8.25</v>
+      </c>
+      <c r="K1270">
+        <v>1.38</v>
+      </c>
+      <c r="L1270">
+        <v>0.52</v>
+      </c>
+      <c r="M1270">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1270">
+        <v>0.03</v>
+      </c>
+      <c r="O1270">
+        <v>8</v>
+      </c>
+      <c r="P1270">
+        <v>6.11</v>
+      </c>
+      <c r="Q1270">
+        <v>32.25</v>
+      </c>
+      <c r="R1270">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1270">
+        <v>34</v>
+      </c>
+      <c r="T1270">
+        <v>4</v>
+      </c>
+      <c r="U1270">
+        <v>29</v>
+      </c>
+      <c r="V1270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H1271">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I1271">
+        <v>1.23</v>
+      </c>
+      <c r="J1271">
+        <v>3.86</v>
+      </c>
+      <c r="K1271">
+        <v>0.76</v>
+      </c>
+      <c r="L1271">
+        <v>0.38</v>
+      </c>
+      <c r="M1271">
+        <v>0.11</v>
+      </c>
+      <c r="N1271">
+        <v>0.01</v>
+      </c>
+      <c r="O1271">
+        <v>12</v>
+      </c>
+      <c r="P1271">
+        <v>6.86</v>
+      </c>
+      <c r="Q1271">
+        <v>30.39</v>
+      </c>
+      <c r="R1271">
+        <v>4.95</v>
+      </c>
+      <c r="S1271">
+        <v>23</v>
+      </c>
+      <c r="T1271">
+        <v>6</v>
+      </c>
+      <c r="U1271">
+        <v>20</v>
+      </c>
+      <c r="V1271">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1272">
+        <v>11.29</v>
+      </c>
+      <c r="I1272">
+        <v>2.1</v>
+      </c>
+      <c r="J1272">
+        <v>9.17</v>
+      </c>
+      <c r="K1272">
+        <v>1.43</v>
+      </c>
+      <c r="L1272">
+        <v>0.49</v>
+      </c>
+      <c r="M1272">
+        <v>0.19</v>
+      </c>
+      <c r="N1272">
+        <v>0.01</v>
+      </c>
+      <c r="O1272">
+        <v>18</v>
+      </c>
+      <c r="P1272">
+        <v>6.7</v>
+      </c>
+      <c r="Q1272">
+        <v>30.41</v>
+      </c>
+      <c r="R1272">
+        <v>5.15</v>
+      </c>
+      <c r="S1272">
+        <v>50</v>
+      </c>
+      <c r="T1272">
+        <v>8</v>
+      </c>
+      <c r="U1272">
+        <v>37</v>
+      </c>
+      <c r="V1272">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1273" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1273">
+        <v>8.48</v>
+      </c>
+      <c r="I1273">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J1273">
+        <v>6.2</v>
+      </c>
+      <c r="K1273">
+        <v>1.47</v>
+      </c>
+      <c r="L1273">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M1273">
+        <v>0.24</v>
+      </c>
+      <c r="N1273">
+        <v>0.01</v>
+      </c>
+      <c r="O1273">
+        <v>11</v>
+      </c>
+      <c r="P1273">
+        <v>6.93</v>
+      </c>
+      <c r="Q1273">
+        <v>30.64</v>
+      </c>
+      <c r="R1273">
+        <v>5.41</v>
+      </c>
+      <c r="S1273">
+        <v>54</v>
+      </c>
+      <c r="T1273">
+        <v>17</v>
+      </c>
+      <c r="U1273">
+        <v>36</v>
+      </c>
+      <c r="V1273">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6031980-5215-604B-B51A-BCBF5461F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E14AE-FBB0-354D-981E-BDE4B456B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7161" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="1077">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3246,6 +3246,27 @@
   </si>
   <si>
     <t>N3 J15 VS OM (B)</t>
+  </si>
+  <si>
+    <t>01:27:24</t>
+  </si>
+  <si>
+    <t>01:24:01</t>
+  </si>
+  <si>
+    <t>01:24:10</t>
+  </si>
+  <si>
+    <t>01:32:45</t>
+  </si>
+  <si>
+    <t>01:22:03</t>
+  </si>
+  <si>
+    <t>01:24:52</t>
+  </si>
+  <si>
+    <t>01:21:05</t>
   </si>
 </sst>
 </file>
@@ -3649,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1273"/>
+  <dimension ref="A1:V1281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1245" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1278" sqref="E1278"/>
+      <selection activeCell="C1282" sqref="C1282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -88751,6 +88772,550 @@
         <v>33</v>
       </c>
     </row>
+    <row r="1274" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1274" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H1274">
+        <v>7.72</v>
+      </c>
+      <c r="I1274">
+        <v>1.7</v>
+      </c>
+      <c r="J1274">
+        <v>6.01</v>
+      </c>
+      <c r="K1274">
+        <v>0.87</v>
+      </c>
+      <c r="L1274">
+        <v>0.83</v>
+      </c>
+      <c r="M1274">
+        <v>0.02</v>
+      </c>
+      <c r="N1274">
+        <v>0</v>
+      </c>
+      <c r="O1274">
+        <v>1</v>
+      </c>
+      <c r="P1274">
+        <v>5.19</v>
+      </c>
+      <c r="Q1274">
+        <v>25.54</v>
+      </c>
+      <c r="R1274">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S1274">
+        <v>34</v>
+      </c>
+      <c r="T1274">
+        <v>13</v>
+      </c>
+      <c r="U1274">
+        <v>31</v>
+      </c>
+      <c r="V1274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1275" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H1275">
+        <v>8.09</v>
+      </c>
+      <c r="I1275">
+        <v>1.7</v>
+      </c>
+      <c r="J1275">
+        <v>6.37</v>
+      </c>
+      <c r="K1275">
+        <v>0.8</v>
+      </c>
+      <c r="L1275">
+        <v>0.9</v>
+      </c>
+      <c r="M1275">
+        <v>0.03</v>
+      </c>
+      <c r="N1275">
+        <v>0</v>
+      </c>
+      <c r="O1275">
+        <v>5</v>
+      </c>
+      <c r="P1275">
+        <v>5.37</v>
+      </c>
+      <c r="Q1275">
+        <v>26.43</v>
+      </c>
+      <c r="R1275">
+        <v>5.33</v>
+      </c>
+      <c r="S1275">
+        <v>79</v>
+      </c>
+      <c r="T1275">
+        <v>20</v>
+      </c>
+      <c r="U1275">
+        <v>68</v>
+      </c>
+      <c r="V1275">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1276" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H1276">
+        <v>7.48</v>
+      </c>
+      <c r="I1276">
+        <v>1.36</v>
+      </c>
+      <c r="J1276">
+        <v>6.11</v>
+      </c>
+      <c r="K1276">
+        <v>1.07</v>
+      </c>
+      <c r="L1276">
+        <v>0.3</v>
+      </c>
+      <c r="M1276">
+        <v>0</v>
+      </c>
+      <c r="N1276">
+        <v>0</v>
+      </c>
+      <c r="O1276">
+        <v>0</v>
+      </c>
+      <c r="P1276">
+        <v>5.27</v>
+      </c>
+      <c r="Q1276">
+        <v>22.99</v>
+      </c>
+      <c r="R1276">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S1276">
+        <v>48</v>
+      </c>
+      <c r="T1276">
+        <v>7</v>
+      </c>
+      <c r="U1276">
+        <v>26</v>
+      </c>
+      <c r="V1276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1277" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H1277">
+        <v>6.66</v>
+      </c>
+      <c r="I1277">
+        <v>1.29</v>
+      </c>
+      <c r="J1277">
+        <v>5.36</v>
+      </c>
+      <c r="K1277">
+        <v>0.82</v>
+      </c>
+      <c r="L1277">
+        <v>0.48</v>
+      </c>
+      <c r="M1277">
+        <v>0</v>
+      </c>
+      <c r="N1277">
+        <v>0</v>
+      </c>
+      <c r="O1277">
+        <v>0</v>
+      </c>
+      <c r="P1277">
+        <v>4.57</v>
+      </c>
+      <c r="Q1277">
+        <v>23.71</v>
+      </c>
+      <c r="R1277">
+        <v>4.22</v>
+      </c>
+      <c r="S1277">
+        <v>37</v>
+      </c>
+      <c r="T1277">
+        <v>3</v>
+      </c>
+      <c r="U1277">
+        <v>22</v>
+      </c>
+      <c r="V1277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1278" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H1278">
+        <v>8.44</v>
+      </c>
+      <c r="I1278">
+        <v>1.61</v>
+      </c>
+      <c r="J1278">
+        <v>6.8</v>
+      </c>
+      <c r="K1278">
+        <v>0.94</v>
+      </c>
+      <c r="L1278">
+        <v>0.68</v>
+      </c>
+      <c r="M1278">
+        <v>0.01</v>
+      </c>
+      <c r="N1278">
+        <v>0</v>
+      </c>
+      <c r="O1278">
+        <v>5</v>
+      </c>
+      <c r="P1278">
+        <v>5.05</v>
+      </c>
+      <c r="Q1278">
+        <v>25.9</v>
+      </c>
+      <c r="R1278">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S1278">
+        <v>63</v>
+      </c>
+      <c r="T1278">
+        <v>13</v>
+      </c>
+      <c r="U1278">
+        <v>48</v>
+      </c>
+      <c r="V1278">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H1279">
+        <v>6.83</v>
+      </c>
+      <c r="I1279">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J1279">
+        <v>5.67</v>
+      </c>
+      <c r="K1279">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L1279">
+        <v>0.03</v>
+      </c>
+      <c r="M1279">
+        <v>0</v>
+      </c>
+      <c r="N1279">
+        <v>0</v>
+      </c>
+      <c r="O1279">
+        <v>0</v>
+      </c>
+      <c r="P1279">
+        <v>4.83</v>
+      </c>
+      <c r="Q1279">
+        <v>21.44</v>
+      </c>
+      <c r="R1279">
+        <v>4.38</v>
+      </c>
+      <c r="S1279">
+        <v>17</v>
+      </c>
+      <c r="T1279">
+        <v>1</v>
+      </c>
+      <c r="U1279">
+        <v>13</v>
+      </c>
+      <c r="V1279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1280" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H1280">
+        <v>7.72</v>
+      </c>
+      <c r="I1280">
+        <v>1.36</v>
+      </c>
+      <c r="J1280">
+        <v>6.35</v>
+      </c>
+      <c r="K1280">
+        <v>1.33</v>
+      </c>
+      <c r="L1280">
+        <v>0.05</v>
+      </c>
+      <c r="M1280">
+        <v>0</v>
+      </c>
+      <c r="N1280">
+        <v>0</v>
+      </c>
+      <c r="O1280">
+        <v>0</v>
+      </c>
+      <c r="P1280">
+        <v>5.43</v>
+      </c>
+      <c r="Q1280">
+        <v>22.08</v>
+      </c>
+      <c r="R1280">
+        <v>4.32</v>
+      </c>
+      <c r="S1280">
+        <v>42</v>
+      </c>
+      <c r="T1280">
+        <v>2</v>
+      </c>
+      <c r="U1280">
+        <v>21</v>
+      </c>
+      <c r="V1280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>46063</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1281" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1281">
+        <v>7.39</v>
+      </c>
+      <c r="I1281">
+        <v>1.51</v>
+      </c>
+      <c r="J1281">
+        <v>5.87</v>
+      </c>
+      <c r="K1281">
+        <v>1.25</v>
+      </c>
+      <c r="L1281">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M1281">
+        <v>0</v>
+      </c>
+      <c r="N1281">
+        <v>0</v>
+      </c>
+      <c r="O1281">
+        <v>0</v>
+      </c>
+      <c r="P1281">
+        <v>5.4</v>
+      </c>
+      <c r="Q1281">
+        <v>22.7</v>
+      </c>
+      <c r="R1281">
+        <v>4.51</v>
+      </c>
+      <c r="S1281">
+        <v>41</v>
+      </c>
+      <c r="T1281">
+        <v>7</v>
+      </c>
+      <c r="U1281">
+        <v>41</v>
+      </c>
+      <c r="V1281">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E14AE-FBB0-354D-981E-BDE4B456B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFCCF9-AEB4-8B4D-BE57-66F0B2EB3752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="1089">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3267,6 +3267,42 @@
   </si>
   <si>
     <t>01:21:05</t>
+  </si>
+  <si>
+    <t>01:42:03</t>
+  </si>
+  <si>
+    <t>01:40:18</t>
+  </si>
+  <si>
+    <t>01:41:54</t>
+  </si>
+  <si>
+    <t>01:05:15</t>
+  </si>
+  <si>
+    <t>00:37:52</t>
+  </si>
+  <si>
+    <t>01:03:29</t>
+  </si>
+  <si>
+    <t>01:00:46</t>
+  </si>
+  <si>
+    <t>00:35:09</t>
+  </si>
+  <si>
+    <t>01:05:00</t>
+  </si>
+  <si>
+    <t>01:04:46</t>
+  </si>
+  <si>
+    <t>00:28:54</t>
+  </si>
+  <si>
+    <t>01:05:08</t>
   </si>
 </sst>
 </file>
@@ -3670,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1281"/>
+  <dimension ref="A1:V1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1245" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1282" sqref="C1282"/>
+    <sheetView tabSelected="1" topLeftCell="A1268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1297" sqref="D1297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -89316,6 +89352,1434 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1282" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1282" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1282">
+        <v>7.56</v>
+      </c>
+      <c r="I1282">
+        <v>0.42</v>
+      </c>
+      <c r="J1282">
+        <v>7.12</v>
+      </c>
+      <c r="K1282">
+        <v>0.41</v>
+      </c>
+      <c r="L1282">
+        <v>0.02</v>
+      </c>
+      <c r="M1282">
+        <v>0</v>
+      </c>
+      <c r="N1282">
+        <v>0</v>
+      </c>
+      <c r="O1282">
+        <v>0</v>
+      </c>
+      <c r="P1282">
+        <v>3.98</v>
+      </c>
+      <c r="Q1282">
+        <v>24.09</v>
+      </c>
+      <c r="R1282">
+        <v>4.74</v>
+      </c>
+      <c r="S1282">
+        <v>63</v>
+      </c>
+      <c r="T1282">
+        <v>10</v>
+      </c>
+      <c r="U1282">
+        <v>69</v>
+      </c>
+      <c r="V1282">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1283" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1283">
+        <v>6.26</v>
+      </c>
+      <c r="I1283">
+        <v>0.16</v>
+      </c>
+      <c r="J1283">
+        <v>6.09</v>
+      </c>
+      <c r="K1283">
+        <v>0.13</v>
+      </c>
+      <c r="L1283">
+        <v>0.03</v>
+      </c>
+      <c r="M1283">
+        <v>0</v>
+      </c>
+      <c r="N1283">
+        <v>0</v>
+      </c>
+      <c r="O1283">
+        <v>1</v>
+      </c>
+      <c r="P1283">
+        <v>3.67</v>
+      </c>
+      <c r="Q1283">
+        <v>25.19</v>
+      </c>
+      <c r="R1283">
+        <v>3.71</v>
+      </c>
+      <c r="S1283">
+        <v>16</v>
+      </c>
+      <c r="T1283">
+        <v>0</v>
+      </c>
+      <c r="U1283">
+        <v>13</v>
+      </c>
+      <c r="V1283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1284" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H1284">
+        <v>7.31</v>
+      </c>
+      <c r="I1284">
+        <v>0.44</v>
+      </c>
+      <c r="J1284">
+        <v>6.86</v>
+      </c>
+      <c r="K1284">
+        <v>0.39</v>
+      </c>
+      <c r="L1284">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1284">
+        <v>0</v>
+      </c>
+      <c r="N1284">
+        <v>0</v>
+      </c>
+      <c r="O1284">
+        <v>0</v>
+      </c>
+      <c r="P1284">
+        <v>3.83</v>
+      </c>
+      <c r="Q1284">
+        <v>24.77</v>
+      </c>
+      <c r="R1284">
+        <v>5.59</v>
+      </c>
+      <c r="S1284">
+        <v>88</v>
+      </c>
+      <c r="T1284">
+        <v>16</v>
+      </c>
+      <c r="U1284">
+        <v>49</v>
+      </c>
+      <c r="V1284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1285">
+        <v>7.01</v>
+      </c>
+      <c r="I1285">
+        <v>0.32</v>
+      </c>
+      <c r="J1285">
+        <v>6.68</v>
+      </c>
+      <c r="K1285">
+        <v>0.27</v>
+      </c>
+      <c r="L1285">
+        <v>0.06</v>
+      </c>
+      <c r="M1285">
+        <v>0</v>
+      </c>
+      <c r="N1285">
+        <v>0</v>
+      </c>
+      <c r="O1285">
+        <v>0</v>
+      </c>
+      <c r="P1285">
+        <v>4.01</v>
+      </c>
+      <c r="Q1285">
+        <v>24.54</v>
+      </c>
+      <c r="R1285">
+        <v>4.59</v>
+      </c>
+      <c r="S1285">
+        <v>30</v>
+      </c>
+      <c r="T1285">
+        <v>6</v>
+      </c>
+      <c r="U1285">
+        <v>26</v>
+      </c>
+      <c r="V1285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>869</v>
+      </c>
+      <c r="H1286">
+        <v>6.81</v>
+      </c>
+      <c r="I1286">
+        <v>0.32</v>
+      </c>
+      <c r="J1286">
+        <v>6.49</v>
+      </c>
+      <c r="K1286">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1286">
+        <v>0.04</v>
+      </c>
+      <c r="M1286">
+        <v>0.01</v>
+      </c>
+      <c r="N1286">
+        <v>0</v>
+      </c>
+      <c r="O1286">
+        <v>1</v>
+      </c>
+      <c r="P1286">
+        <v>4.03</v>
+      </c>
+      <c r="Q1286">
+        <v>25.62</v>
+      </c>
+      <c r="R1286">
+        <v>4.83</v>
+      </c>
+      <c r="S1286">
+        <v>46</v>
+      </c>
+      <c r="T1286">
+        <v>5</v>
+      </c>
+      <c r="U1286">
+        <v>15</v>
+      </c>
+      <c r="V1286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1287" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H1287">
+        <v>6.07</v>
+      </c>
+      <c r="I1287">
+        <v>0.37</v>
+      </c>
+      <c r="J1287">
+        <v>5.69</v>
+      </c>
+      <c r="K1287">
+        <v>0.25</v>
+      </c>
+      <c r="L1287">
+        <v>0.11</v>
+      </c>
+      <c r="M1287">
+        <v>0.03</v>
+      </c>
+      <c r="N1287">
+        <v>0</v>
+      </c>
+      <c r="O1287">
+        <v>2</v>
+      </c>
+      <c r="P1287">
+        <v>3.57</v>
+      </c>
+      <c r="Q1287">
+        <v>28.08</v>
+      </c>
+      <c r="R1287">
+        <v>5</v>
+      </c>
+      <c r="S1287">
+        <v>33</v>
+      </c>
+      <c r="T1287">
+        <v>12</v>
+      </c>
+      <c r="U1287">
+        <v>35</v>
+      </c>
+      <c r="V1287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>46064</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1288" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H1288">
+        <v>7.33</v>
+      </c>
+      <c r="I1288">
+        <v>0.6</v>
+      </c>
+      <c r="J1288">
+        <v>6.72</v>
+      </c>
+      <c r="K1288">
+        <v>0.5</v>
+      </c>
+      <c r="L1288">
+        <v>0.11</v>
+      </c>
+      <c r="M1288">
+        <v>0</v>
+      </c>
+      <c r="N1288">
+        <v>0</v>
+      </c>
+      <c r="O1288">
+        <v>0</v>
+      </c>
+      <c r="P1288">
+        <v>4.24</v>
+      </c>
+      <c r="Q1288">
+        <v>24.62</v>
+      </c>
+      <c r="R1288">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1288">
+        <v>48</v>
+      </c>
+      <c r="T1288">
+        <v>3</v>
+      </c>
+      <c r="U1288">
+        <v>37</v>
+      </c>
+      <c r="V1288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1289" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H1289">
+        <v>2.91</v>
+      </c>
+      <c r="I1289">
+        <v>0.34</v>
+      </c>
+      <c r="J1289">
+        <v>2.56</v>
+      </c>
+      <c r="K1289">
+        <v>0.17</v>
+      </c>
+      <c r="L1289">
+        <v>0.12</v>
+      </c>
+      <c r="M1289">
+        <v>0.06</v>
+      </c>
+      <c r="N1289">
+        <v>0</v>
+      </c>
+      <c r="O1289">
+        <v>4</v>
+      </c>
+      <c r="P1289">
+        <v>2.57</v>
+      </c>
+      <c r="Q1289">
+        <v>28.84</v>
+      </c>
+      <c r="R1289">
+        <v>4.33</v>
+      </c>
+      <c r="S1289">
+        <v>13</v>
+      </c>
+      <c r="T1289">
+        <v>8</v>
+      </c>
+      <c r="U1289">
+        <v>8</v>
+      </c>
+      <c r="V1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1290" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1290">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I1290">
+        <v>0.32</v>
+      </c>
+      <c r="J1290">
+        <v>2.21</v>
+      </c>
+      <c r="K1290">
+        <v>0.23</v>
+      </c>
+      <c r="L1290">
+        <v>0.09</v>
+      </c>
+      <c r="M1290">
+        <v>0</v>
+      </c>
+      <c r="N1290">
+        <v>0</v>
+      </c>
+      <c r="O1290">
+        <v>1</v>
+      </c>
+      <c r="P1290">
+        <v>3.53</v>
+      </c>
+      <c r="Q1290">
+        <v>25.16</v>
+      </c>
+      <c r="R1290">
+        <v>4.49</v>
+      </c>
+      <c r="S1290">
+        <v>6</v>
+      </c>
+      <c r="T1290">
+        <v>1</v>
+      </c>
+      <c r="U1290">
+        <v>3</v>
+      </c>
+      <c r="V1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1291" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1291">
+        <v>2.36</v>
+      </c>
+      <c r="I1291">
+        <v>0.46</v>
+      </c>
+      <c r="J1291">
+        <v>1.89</v>
+      </c>
+      <c r="K1291">
+        <v>0.21</v>
+      </c>
+      <c r="L1291">
+        <v>0.23</v>
+      </c>
+      <c r="M1291">
+        <v>0.03</v>
+      </c>
+      <c r="N1291">
+        <v>0</v>
+      </c>
+      <c r="O1291">
+        <v>4</v>
+      </c>
+      <c r="P1291">
+        <v>3.62</v>
+      </c>
+      <c r="Q1291">
+        <v>26.4</v>
+      </c>
+      <c r="R1291">
+        <v>4.68</v>
+      </c>
+      <c r="S1291">
+        <v>7</v>
+      </c>
+      <c r="T1291">
+        <v>4</v>
+      </c>
+      <c r="U1291">
+        <v>5</v>
+      </c>
+      <c r="V1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1292" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1292">
+        <v>3.54</v>
+      </c>
+      <c r="I1292">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J1292">
+        <v>2.96</v>
+      </c>
+      <c r="K1292">
+        <v>0.27</v>
+      </c>
+      <c r="L1292">
+        <v>0.23</v>
+      </c>
+      <c r="M1292">
+        <v>0.08</v>
+      </c>
+      <c r="N1292">
+        <v>0</v>
+      </c>
+      <c r="O1292">
+        <v>4</v>
+      </c>
+      <c r="P1292">
+        <v>3.22</v>
+      </c>
+      <c r="Q1292">
+        <v>28.09</v>
+      </c>
+      <c r="R1292">
+        <v>4.43</v>
+      </c>
+      <c r="S1292">
+        <v>18</v>
+      </c>
+      <c r="T1292">
+        <v>4</v>
+      </c>
+      <c r="U1292">
+        <v>12</v>
+      </c>
+      <c r="V1292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1293" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H1293">
+        <v>3.4</v>
+      </c>
+      <c r="I1293">
+        <v>0.38</v>
+      </c>
+      <c r="J1293">
+        <v>3</v>
+      </c>
+      <c r="K1293">
+        <v>0.26</v>
+      </c>
+      <c r="L1293">
+        <v>0.13</v>
+      </c>
+      <c r="M1293">
+        <v>0</v>
+      </c>
+      <c r="N1293">
+        <v>0</v>
+      </c>
+      <c r="O1293">
+        <v>1</v>
+      </c>
+      <c r="P1293">
+        <v>2.76</v>
+      </c>
+      <c r="Q1293">
+        <v>25.32</v>
+      </c>
+      <c r="R1293">
+        <v>4.68</v>
+      </c>
+      <c r="S1293">
+        <v>11</v>
+      </c>
+      <c r="T1293">
+        <v>1</v>
+      </c>
+      <c r="U1293">
+        <v>13</v>
+      </c>
+      <c r="V1293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1294" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1294">
+        <v>3.7</v>
+      </c>
+      <c r="I1294">
+        <v>0.42</v>
+      </c>
+      <c r="J1294">
+        <v>3.27</v>
+      </c>
+      <c r="K1294">
+        <v>0.19</v>
+      </c>
+      <c r="L1294">
+        <v>0.12</v>
+      </c>
+      <c r="M1294">
+        <v>0.11</v>
+      </c>
+      <c r="N1294">
+        <v>0.01</v>
+      </c>
+      <c r="O1294">
+        <v>6</v>
+      </c>
+      <c r="P1294">
+        <v>3.57</v>
+      </c>
+      <c r="Q1294">
+        <v>30.81</v>
+      </c>
+      <c r="R1294">
+        <v>4.38</v>
+      </c>
+      <c r="S1294">
+        <v>12</v>
+      </c>
+      <c r="T1294">
+        <v>2</v>
+      </c>
+      <c r="U1294">
+        <v>6</v>
+      </c>
+      <c r="V1294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1295" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H1295">
+        <v>2.34</v>
+      </c>
+      <c r="I1295">
+        <v>0.54</v>
+      </c>
+      <c r="J1295">
+        <v>1.79</v>
+      </c>
+      <c r="K1295">
+        <v>0.2</v>
+      </c>
+      <c r="L1295">
+        <v>0.18</v>
+      </c>
+      <c r="M1295">
+        <v>0.15</v>
+      </c>
+      <c r="N1295">
+        <v>0.03</v>
+      </c>
+      <c r="O1295">
+        <v>11</v>
+      </c>
+      <c r="P1295">
+        <v>3.46</v>
+      </c>
+      <c r="Q1295">
+        <v>31.85</v>
+      </c>
+      <c r="R1295">
+        <v>5.17</v>
+      </c>
+      <c r="S1295">
+        <v>15</v>
+      </c>
+      <c r="T1295">
+        <v>8</v>
+      </c>
+      <c r="U1295">
+        <v>13</v>
+      </c>
+      <c r="V1295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1296" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H1296">
+        <v>4.18</v>
+      </c>
+      <c r="I1296">
+        <v>0.7</v>
+      </c>
+      <c r="J1296">
+        <v>3.47</v>
+      </c>
+      <c r="K1296">
+        <v>0.34</v>
+      </c>
+      <c r="L1296">
+        <v>0.26</v>
+      </c>
+      <c r="M1296">
+        <v>0.1</v>
+      </c>
+      <c r="N1296">
+        <v>0</v>
+      </c>
+      <c r="O1296">
+        <v>10</v>
+      </c>
+      <c r="P1296">
+        <v>3.45</v>
+      </c>
+      <c r="Q1296">
+        <v>29.37</v>
+      </c>
+      <c r="R1296">
+        <v>4.99</v>
+      </c>
+      <c r="S1296">
+        <v>32</v>
+      </c>
+      <c r="T1296">
+        <v>14</v>
+      </c>
+      <c r="U1296">
+        <v>21</v>
+      </c>
+      <c r="V1296">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H1297">
+        <v>3.64</v>
+      </c>
+      <c r="I1297">
+        <v>0.61</v>
+      </c>
+      <c r="J1297">
+        <v>3.01</v>
+      </c>
+      <c r="K1297">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1297">
+        <v>0.21</v>
+      </c>
+      <c r="M1297">
+        <v>0.12</v>
+      </c>
+      <c r="N1297">
+        <v>0.01</v>
+      </c>
+      <c r="O1297">
+        <v>8</v>
+      </c>
+      <c r="P1297">
+        <v>3.12</v>
+      </c>
+      <c r="Q1297">
+        <v>31.76</v>
+      </c>
+      <c r="R1297">
+        <v>5.53</v>
+      </c>
+      <c r="S1297">
+        <v>43</v>
+      </c>
+      <c r="T1297">
+        <v>12</v>
+      </c>
+      <c r="U1297">
+        <v>32</v>
+      </c>
+      <c r="V1297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1298" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H1298">
+        <v>3.35</v>
+      </c>
+      <c r="I1298">
+        <v>0.39</v>
+      </c>
+      <c r="J1298">
+        <v>2.96</v>
+      </c>
+      <c r="K1298">
+        <v>0.26</v>
+      </c>
+      <c r="L1298">
+        <v>0.13</v>
+      </c>
+      <c r="M1298">
+        <v>0.01</v>
+      </c>
+      <c r="N1298">
+        <v>0</v>
+      </c>
+      <c r="O1298">
+        <v>1</v>
+      </c>
+      <c r="P1298">
+        <v>2.94</v>
+      </c>
+      <c r="Q1298">
+        <v>25.43</v>
+      </c>
+      <c r="R1298">
+        <v>3.64</v>
+      </c>
+      <c r="S1298">
+        <v>15</v>
+      </c>
+      <c r="T1298">
+        <v>0</v>
+      </c>
+      <c r="U1298">
+        <v>8</v>
+      </c>
+      <c r="V1298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H1299">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I1299">
+        <v>0.3</v>
+      </c>
+      <c r="J1299">
+        <v>1.96</v>
+      </c>
+      <c r="K1299">
+        <v>0.16</v>
+      </c>
+      <c r="L1299">
+        <v>0.09</v>
+      </c>
+      <c r="M1299">
+        <v>0.05</v>
+      </c>
+      <c r="N1299">
+        <v>0</v>
+      </c>
+      <c r="O1299">
+        <v>3</v>
+      </c>
+      <c r="P1299">
+        <v>4.25</v>
+      </c>
+      <c r="Q1299">
+        <v>28.39</v>
+      </c>
+      <c r="R1299">
+        <v>4.82</v>
+      </c>
+      <c r="S1299">
+        <v>14</v>
+      </c>
+      <c r="T1299">
+        <v>3</v>
+      </c>
+      <c r="U1299">
+        <v>6</v>
+      </c>
+      <c r="V1299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1300" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1300">
+        <v>3.5</v>
+      </c>
+      <c r="I1300">
+        <v>0.34</v>
+      </c>
+      <c r="J1300">
+        <v>3.15</v>
+      </c>
+      <c r="K1300">
+        <v>0.15</v>
+      </c>
+      <c r="L1300">
+        <v>0.12</v>
+      </c>
+      <c r="M1300">
+        <v>0.08</v>
+      </c>
+      <c r="N1300">
+        <v>0</v>
+      </c>
+      <c r="O1300">
+        <v>8</v>
+      </c>
+      <c r="P1300">
+        <v>2.93</v>
+      </c>
+      <c r="Q1300">
+        <v>30.72</v>
+      </c>
+      <c r="R1300">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="S1300">
+        <v>28</v>
+      </c>
+      <c r="T1300">
+        <v>6</v>
+      </c>
+      <c r="U1300">
+        <v>19</v>
+      </c>
+      <c r="V1300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1301" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H1301">
+        <v>3.91</v>
+      </c>
+      <c r="I1301">
+        <v>0.51</v>
+      </c>
+      <c r="J1301">
+        <v>3.4</v>
+      </c>
+      <c r="K1301">
+        <v>0.3</v>
+      </c>
+      <c r="L1301">
+        <v>0.18</v>
+      </c>
+      <c r="M1301">
+        <v>0.03</v>
+      </c>
+      <c r="N1301">
+        <v>0</v>
+      </c>
+      <c r="O1301">
+        <v>4</v>
+      </c>
+      <c r="P1301">
+        <v>3.52</v>
+      </c>
+      <c r="Q1301">
+        <v>27.19</v>
+      </c>
+      <c r="R1301">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S1301">
+        <v>19</v>
+      </c>
+      <c r="T1301">
+        <v>8</v>
+      </c>
+      <c r="U1301">
+        <v>5</v>
+      </c>
+      <c r="V1301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>46065</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1302" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H1302">
+        <v>3.53</v>
+      </c>
+      <c r="I1302">
+        <v>0.46</v>
+      </c>
+      <c r="J1302">
+        <v>3.07</v>
+      </c>
+      <c r="K1302">
+        <v>0.25</v>
+      </c>
+      <c r="L1302">
+        <v>0.13</v>
+      </c>
+      <c r="M1302">
+        <v>0.08</v>
+      </c>
+      <c r="N1302">
+        <v>0</v>
+      </c>
+      <c r="O1302">
+        <v>5</v>
+      </c>
+      <c r="P1302">
+        <v>3.18</v>
+      </c>
+      <c r="Q1302">
+        <v>28.03</v>
+      </c>
+      <c r="R1302">
+        <v>4.53</v>
+      </c>
+      <c r="S1302">
+        <v>17</v>
+      </c>
+      <c r="T1302">
+        <v>4</v>
+      </c>
+      <c r="U1302">
+        <v>4</v>
+      </c>
+      <c r="V1302">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFCCF9-AEB4-8B4D-BE57-66F0B2EB3752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E656E-D536-BF40-AF3A-72811D68E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="1116">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3303,6 +3303,87 @@
   </si>
   <si>
     <t>01:05:08</t>
+  </si>
+  <si>
+    <t>01:27:06</t>
+  </si>
+  <si>
+    <t>01:26:47</t>
+  </si>
+  <si>
+    <t>01:26:53</t>
+  </si>
+  <si>
+    <t>01:38:02</t>
+  </si>
+  <si>
+    <t>01:39:28</t>
+  </si>
+  <si>
+    <t>00:24:28</t>
+  </si>
+  <si>
+    <t>01:39:37</t>
+  </si>
+  <si>
+    <t>01:24:46</t>
+  </si>
+  <si>
+    <t>00:14:43</t>
+  </si>
+  <si>
+    <t>01:32:43</t>
+  </si>
+  <si>
+    <t>01:39:05</t>
+  </si>
+  <si>
+    <t>01:39:52</t>
+  </si>
+  <si>
+    <t>01:08:46</t>
+  </si>
+  <si>
+    <t>right foward</t>
+  </si>
+  <si>
+    <t>01:24:23</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2026</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2027</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2028</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2029</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2030</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2031</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2032</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2033</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2034</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2035</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2036</t>
+  </si>
+  <si>
+    <t>N3 J16 Bourgoin 14/02/2037</t>
   </si>
 </sst>
 </file>
@@ -3706,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1302"/>
+  <dimension ref="A1:V1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1297" sqref="D1297"/>
+    <sheetView tabSelected="1" topLeftCell="A1280" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1306" sqref="A1306:A1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -90780,6 +90861,1026 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1303" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H1303">
+        <v>6.26</v>
+      </c>
+      <c r="I1303">
+        <v>0.51</v>
+      </c>
+      <c r="J1303">
+        <v>5.74</v>
+      </c>
+      <c r="K1303">
+        <v>0.36</v>
+      </c>
+      <c r="L1303">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1303">
+        <v>0.03</v>
+      </c>
+      <c r="N1303">
+        <v>0</v>
+      </c>
+      <c r="O1303">
+        <v>3</v>
+      </c>
+      <c r="P1303">
+        <v>4.21</v>
+      </c>
+      <c r="Q1303">
+        <v>26.91</v>
+      </c>
+      <c r="R1303">
+        <v>4.72</v>
+      </c>
+      <c r="S1303">
+        <v>37</v>
+      </c>
+      <c r="T1303">
+        <v>9</v>
+      </c>
+      <c r="U1303">
+        <v>18</v>
+      </c>
+      <c r="V1303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H1304">
+        <v>5.18</v>
+      </c>
+      <c r="I1304">
+        <v>0.13</v>
+      </c>
+      <c r="J1304">
+        <v>5.04</v>
+      </c>
+      <c r="K1304">
+        <v>0.12</v>
+      </c>
+      <c r="L1304">
+        <v>0.02</v>
+      </c>
+      <c r="M1304">
+        <v>0</v>
+      </c>
+      <c r="N1304">
+        <v>0</v>
+      </c>
+      <c r="O1304">
+        <v>0</v>
+      </c>
+      <c r="P1304">
+        <v>3.3</v>
+      </c>
+      <c r="Q1304">
+        <v>24.31</v>
+      </c>
+      <c r="R1304">
+        <v>5.8</v>
+      </c>
+      <c r="S1304">
+        <v>42</v>
+      </c>
+      <c r="T1304">
+        <v>18</v>
+      </c>
+      <c r="U1304">
+        <v>33</v>
+      </c>
+      <c r="V1304">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>46066</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H1305">
+        <v>5.81</v>
+      </c>
+      <c r="I1305">
+        <v>0.21</v>
+      </c>
+      <c r="J1305">
+        <v>5.59</v>
+      </c>
+      <c r="K1305">
+        <v>0.18</v>
+      </c>
+      <c r="L1305">
+        <v>0.03</v>
+      </c>
+      <c r="M1305">
+        <v>0</v>
+      </c>
+      <c r="N1305">
+        <v>0</v>
+      </c>
+      <c r="O1305">
+        <v>0</v>
+      </c>
+      <c r="P1305">
+        <v>3.94</v>
+      </c>
+      <c r="Q1305">
+        <v>21.95</v>
+      </c>
+      <c r="R1305">
+        <v>5.45</v>
+      </c>
+      <c r="S1305">
+        <v>26</v>
+      </c>
+      <c r="T1305">
+        <v>11</v>
+      </c>
+      <c r="U1305">
+        <v>6</v>
+      </c>
+      <c r="V1305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H1306">
+        <v>11.31</v>
+      </c>
+      <c r="I1306">
+        <v>2.09</v>
+      </c>
+      <c r="J1306">
+        <v>9.19</v>
+      </c>
+      <c r="K1306">
+        <v>1.3</v>
+      </c>
+      <c r="L1306">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M1306">
+        <v>0.24</v>
+      </c>
+      <c r="N1306">
+        <v>0.01</v>
+      </c>
+      <c r="O1306">
+        <v>18</v>
+      </c>
+      <c r="P1306">
+        <v>6.87</v>
+      </c>
+      <c r="Q1306">
+        <v>30.78</v>
+      </c>
+      <c r="R1306">
+        <v>4.74</v>
+      </c>
+      <c r="S1306">
+        <v>41</v>
+      </c>
+      <c r="T1306">
+        <v>13</v>
+      </c>
+      <c r="U1306">
+        <v>41</v>
+      </c>
+      <c r="V1306">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1307" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H1307">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I1307">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J1307">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K1307">
+        <v>0.81</v>
+      </c>
+      <c r="L1307">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M1307">
+        <v>0.06</v>
+      </c>
+      <c r="N1307">
+        <v>0</v>
+      </c>
+      <c r="O1307">
+        <v>8</v>
+      </c>
+      <c r="P1307">
+        <v>5.72</v>
+      </c>
+      <c r="Q1307">
+        <v>28.7</v>
+      </c>
+      <c r="R1307">
+        <v>4.49</v>
+      </c>
+      <c r="S1307">
+        <v>27</v>
+      </c>
+      <c r="T1307">
+        <v>6</v>
+      </c>
+      <c r="U1307">
+        <v>21</v>
+      </c>
+      <c r="V1307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1308" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H1308">
+        <v>3.06</v>
+      </c>
+      <c r="I1308">
+        <v>0.82</v>
+      </c>
+      <c r="J1308">
+        <v>2.23</v>
+      </c>
+      <c r="K1308">
+        <v>0.53</v>
+      </c>
+      <c r="L1308">
+        <v>0.24</v>
+      </c>
+      <c r="M1308">
+        <v>0.06</v>
+      </c>
+      <c r="N1308">
+        <v>0</v>
+      </c>
+      <c r="O1308">
+        <v>5</v>
+      </c>
+      <c r="P1308">
+        <v>7.46</v>
+      </c>
+      <c r="Q1308">
+        <v>28</v>
+      </c>
+      <c r="R1308">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="S1308">
+        <v>10</v>
+      </c>
+      <c r="T1308">
+        <v>3</v>
+      </c>
+      <c r="U1308">
+        <v>10</v>
+      </c>
+      <c r="V1308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H1309">
+        <v>12.63</v>
+      </c>
+      <c r="I1309">
+        <v>3.26</v>
+      </c>
+      <c r="J1309">
+        <v>9.34</v>
+      </c>
+      <c r="K1309">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L1309">
+        <v>0.77</v>
+      </c>
+      <c r="M1309">
+        <v>0.19</v>
+      </c>
+      <c r="N1309">
+        <v>0.02</v>
+      </c>
+      <c r="O1309">
+        <v>13</v>
+      </c>
+      <c r="P1309">
+        <v>7.53</v>
+      </c>
+      <c r="Q1309">
+        <v>30.88</v>
+      </c>
+      <c r="R1309">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1309">
+        <v>55</v>
+      </c>
+      <c r="T1309">
+        <v>6</v>
+      </c>
+      <c r="U1309">
+        <v>60</v>
+      </c>
+      <c r="V1309">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1310" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H1310">
+        <v>9.26</v>
+      </c>
+      <c r="I1310">
+        <v>1.81</v>
+      </c>
+      <c r="J1310">
+        <v>7.42</v>
+      </c>
+      <c r="K1310">
+        <v>1.06</v>
+      </c>
+      <c r="L1310">
+        <v>0.63</v>
+      </c>
+      <c r="M1310">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N1310">
+        <v>0</v>
+      </c>
+      <c r="O1310">
+        <v>14</v>
+      </c>
+      <c r="P1310">
+        <v>6.53</v>
+      </c>
+      <c r="Q1310">
+        <v>30.22</v>
+      </c>
+      <c r="R1310">
+        <v>4.72</v>
+      </c>
+      <c r="S1310">
+        <v>34</v>
+      </c>
+      <c r="T1310">
+        <v>6</v>
+      </c>
+      <c r="U1310">
+        <v>33</v>
+      </c>
+      <c r="V1310">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1311" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H1311">
+        <v>1.76</v>
+      </c>
+      <c r="I1311">
+        <v>0.44</v>
+      </c>
+      <c r="J1311">
+        <v>1.31</v>
+      </c>
+      <c r="K1311">
+        <v>0.23</v>
+      </c>
+      <c r="L1311">
+        <v>0.11</v>
+      </c>
+      <c r="M1311">
+        <v>0.08</v>
+      </c>
+      <c r="N1311">
+        <v>0.03</v>
+      </c>
+      <c r="O1311">
+        <v>5</v>
+      </c>
+      <c r="P1311">
+        <v>7.11</v>
+      </c>
+      <c r="Q1311">
+        <v>32.11</v>
+      </c>
+      <c r="R1311">
+        <v>5.09</v>
+      </c>
+      <c r="S1311">
+        <v>8</v>
+      </c>
+      <c r="T1311">
+        <v>4</v>
+      </c>
+      <c r="U1311">
+        <v>6</v>
+      </c>
+      <c r="V1311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1312" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1312">
+        <v>10.27</v>
+      </c>
+      <c r="I1312">
+        <v>1.53</v>
+      </c>
+      <c r="J1312">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K1312">
+        <v>1.21</v>
+      </c>
+      <c r="L1312">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M1312">
+        <v>0.06</v>
+      </c>
+      <c r="N1312">
+        <v>0</v>
+      </c>
+      <c r="O1312">
+        <v>6</v>
+      </c>
+      <c r="P1312">
+        <v>6.17</v>
+      </c>
+      <c r="Q1312">
+        <v>28.31</v>
+      </c>
+      <c r="R1312">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S1312">
+        <v>33</v>
+      </c>
+      <c r="T1312">
+        <v>2</v>
+      </c>
+      <c r="U1312">
+        <v>23</v>
+      </c>
+      <c r="V1312">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1313" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H1313">
+        <v>9.74</v>
+      </c>
+      <c r="I1313">
+        <v>1.85</v>
+      </c>
+      <c r="J1313">
+        <v>7.87</v>
+      </c>
+      <c r="K1313">
+        <v>1.25</v>
+      </c>
+      <c r="L1313">
+        <v>0.47</v>
+      </c>
+      <c r="M1313">
+        <v>0.16</v>
+      </c>
+      <c r="N1313">
+        <v>0</v>
+      </c>
+      <c r="O1313">
+        <v>8</v>
+      </c>
+      <c r="P1313">
+        <v>6.27</v>
+      </c>
+      <c r="Q1313">
+        <v>29.33</v>
+      </c>
+      <c r="R1313">
+        <v>4.43</v>
+      </c>
+      <c r="S1313">
+        <v>46</v>
+      </c>
+      <c r="T1313">
+        <v>8</v>
+      </c>
+      <c r="U1313">
+        <v>49</v>
+      </c>
+      <c r="V1313">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1314" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H1314">
+        <v>12.7</v>
+      </c>
+      <c r="I1314">
+        <v>3.28</v>
+      </c>
+      <c r="J1314">
+        <v>9.39</v>
+      </c>
+      <c r="K1314">
+        <v>2.54</v>
+      </c>
+      <c r="L1314">
+        <v>0.71</v>
+      </c>
+      <c r="M1314">
+        <v>0.06</v>
+      </c>
+      <c r="N1314">
+        <v>0</v>
+      </c>
+      <c r="O1314">
+        <v>5</v>
+      </c>
+      <c r="P1314">
+        <v>7.61</v>
+      </c>
+      <c r="Q1314">
+        <v>27.87</v>
+      </c>
+      <c r="R1314">
+        <v>4.46</v>
+      </c>
+      <c r="S1314">
+        <v>44</v>
+      </c>
+      <c r="T1314">
+        <v>1</v>
+      </c>
+      <c r="U1314">
+        <v>49</v>
+      </c>
+      <c r="V1314">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1315">
+        <v>11.75</v>
+      </c>
+      <c r="I1315">
+        <v>1.95</v>
+      </c>
+      <c r="J1315">
+        <v>9.77</v>
+      </c>
+      <c r="K1315">
+        <v>1.4</v>
+      </c>
+      <c r="L1315">
+        <v>0.49</v>
+      </c>
+      <c r="M1315">
+        <v>0.08</v>
+      </c>
+      <c r="N1315">
+        <v>0</v>
+      </c>
+      <c r="O1315">
+        <v>6</v>
+      </c>
+      <c r="P1315">
+        <v>7</v>
+      </c>
+      <c r="Q1315">
+        <v>27.42</v>
+      </c>
+      <c r="R1315">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="S1315">
+        <v>49</v>
+      </c>
+      <c r="T1315">
+        <v>5</v>
+      </c>
+      <c r="U1315">
+        <v>41</v>
+      </c>
+      <c r="V1315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1316" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H1316">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I1316">
+        <v>1.72</v>
+      </c>
+      <c r="J1316">
+        <v>6.29</v>
+      </c>
+      <c r="K1316">
+        <v>1.24</v>
+      </c>
+      <c r="L1316">
+        <v>0.37</v>
+      </c>
+      <c r="M1316">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N1316">
+        <v>0</v>
+      </c>
+      <c r="O1316">
+        <v>6</v>
+      </c>
+      <c r="P1316">
+        <v>6.95</v>
+      </c>
+      <c r="Q1316">
+        <v>29.06</v>
+      </c>
+      <c r="R1316">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1316">
+        <v>43</v>
+      </c>
+      <c r="T1316">
+        <v>9</v>
+      </c>
+      <c r="U1316">
+        <v>39</v>
+      </c>
+      <c r="V1316">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>46067</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1317" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1317" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H1317">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="I1317">
+        <v>2.04</v>
+      </c>
+      <c r="J1317">
+        <v>7.46</v>
+      </c>
+      <c r="K1317">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L1317">
+        <v>0.7</v>
+      </c>
+      <c r="M1317">
+        <v>0.26</v>
+      </c>
+      <c r="N1317">
+        <v>0</v>
+      </c>
+      <c r="O1317">
+        <v>20</v>
+      </c>
+      <c r="P1317">
+        <v>6.66</v>
+      </c>
+      <c r="Q1317">
+        <v>29.88</v>
+      </c>
+      <c r="R1317">
+        <v>4.32</v>
+      </c>
+      <c r="S1317">
+        <v>37</v>
+      </c>
+      <c r="T1317">
+        <v>7</v>
+      </c>
+      <c r="U1317">
+        <v>23</v>
+      </c>
+      <c r="V1317">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E656E-D536-BF40-AF3A-72811D68E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C11A68-261E-0347-A582-4572EA48A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="1119">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3384,6 +3384,15 @@
   </si>
   <si>
     <t>N3 J16 Bourgoin 14/02/2037</t>
+  </si>
+  <si>
+    <t>01:44:59</t>
+  </si>
+  <si>
+    <t>01:44:07</t>
+  </si>
+  <si>
+    <t>01:43:23</t>
   </si>
 </sst>
 </file>
@@ -3787,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1317"/>
+  <dimension ref="A1:V1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1280" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1306" sqref="A1306:A1317"/>
+    <sheetView tabSelected="1" topLeftCell="A1303" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1330" sqref="C1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -91881,6 +91890,550 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1318" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1318" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H1318">
+        <v>8.74</v>
+      </c>
+      <c r="I1318">
+        <v>0.51</v>
+      </c>
+      <c r="J1318">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="K1318">
+        <v>0.45</v>
+      </c>
+      <c r="L1318">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1318">
+        <v>0</v>
+      </c>
+      <c r="N1318">
+        <v>0</v>
+      </c>
+      <c r="O1318">
+        <v>1</v>
+      </c>
+      <c r="P1318">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q1318">
+        <v>25.61</v>
+      </c>
+      <c r="R1318">
+        <v>5.03</v>
+      </c>
+      <c r="S1318">
+        <v>53</v>
+      </c>
+      <c r="T1318">
+        <v>9</v>
+      </c>
+      <c r="U1318">
+        <v>45</v>
+      </c>
+      <c r="V1318">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1319" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>859</v>
+      </c>
+      <c r="H1319">
+        <v>8.16</v>
+      </c>
+      <c r="I1319">
+        <v>0.37</v>
+      </c>
+      <c r="J1319">
+        <v>7.77</v>
+      </c>
+      <c r="K1319">
+        <v>0.35</v>
+      </c>
+      <c r="L1319">
+        <v>0.03</v>
+      </c>
+      <c r="M1319">
+        <v>0</v>
+      </c>
+      <c r="N1319">
+        <v>0</v>
+      </c>
+      <c r="O1319">
+        <v>0</v>
+      </c>
+      <c r="P1319">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q1319">
+        <v>23.29</v>
+      </c>
+      <c r="R1319">
+        <v>4.47</v>
+      </c>
+      <c r="S1319">
+        <v>41</v>
+      </c>
+      <c r="T1319">
+        <v>4</v>
+      </c>
+      <c r="U1319">
+        <v>27</v>
+      </c>
+      <c r="V1319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1320" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H1320">
+        <v>8.82</v>
+      </c>
+      <c r="I1320">
+        <v>0.59</v>
+      </c>
+      <c r="J1320">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K1320">
+        <v>0.47</v>
+      </c>
+      <c r="L1320">
+        <v>0.12</v>
+      </c>
+      <c r="M1320">
+        <v>0.02</v>
+      </c>
+      <c r="N1320">
+        <v>0</v>
+      </c>
+      <c r="O1320">
+        <v>2</v>
+      </c>
+      <c r="P1320">
+        <v>5.03</v>
+      </c>
+      <c r="Q1320">
+        <v>26.06</v>
+      </c>
+      <c r="R1320">
+        <v>4.75</v>
+      </c>
+      <c r="S1320">
+        <v>39</v>
+      </c>
+      <c r="T1320">
+        <v>6</v>
+      </c>
+      <c r="U1320">
+        <v>23</v>
+      </c>
+      <c r="V1320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1321" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H1321">
+        <v>6.97</v>
+      </c>
+      <c r="I1321">
+        <v>0.12</v>
+      </c>
+      <c r="J1321">
+        <v>6.84</v>
+      </c>
+      <c r="K1321">
+        <v>0.12</v>
+      </c>
+      <c r="L1321">
+        <v>0.01</v>
+      </c>
+      <c r="M1321">
+        <v>0</v>
+      </c>
+      <c r="N1321">
+        <v>0</v>
+      </c>
+      <c r="O1321">
+        <v>0</v>
+      </c>
+      <c r="P1321">
+        <v>3.35</v>
+      </c>
+      <c r="Q1321">
+        <v>21.06</v>
+      </c>
+      <c r="R1321">
+        <v>5.36</v>
+      </c>
+      <c r="S1321">
+        <v>19</v>
+      </c>
+      <c r="T1321">
+        <v>6</v>
+      </c>
+      <c r="U1321">
+        <v>18</v>
+      </c>
+      <c r="V1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1322" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H1322">
+        <v>6.61</v>
+      </c>
+      <c r="I1322">
+        <v>0.22</v>
+      </c>
+      <c r="J1322">
+        <v>6.39</v>
+      </c>
+      <c r="K1322">
+        <v>0.21</v>
+      </c>
+      <c r="L1322">
+        <v>0.01</v>
+      </c>
+      <c r="M1322">
+        <v>0</v>
+      </c>
+      <c r="N1322">
+        <v>0</v>
+      </c>
+      <c r="O1322">
+        <v>0</v>
+      </c>
+      <c r="P1322">
+        <v>3.71</v>
+      </c>
+      <c r="Q1322">
+        <v>21.3</v>
+      </c>
+      <c r="R1322">
+        <v>3.8</v>
+      </c>
+      <c r="S1322">
+        <v>12</v>
+      </c>
+      <c r="T1322">
+        <v>0</v>
+      </c>
+      <c r="U1322">
+        <v>16</v>
+      </c>
+      <c r="V1322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1323" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1323">
+        <v>6.09</v>
+      </c>
+      <c r="I1323">
+        <v>0.13</v>
+      </c>
+      <c r="J1323">
+        <v>5.96</v>
+      </c>
+      <c r="K1323">
+        <v>0.12</v>
+      </c>
+      <c r="L1323">
+        <v>0.01</v>
+      </c>
+      <c r="M1323">
+        <v>0</v>
+      </c>
+      <c r="N1323">
+        <v>0</v>
+      </c>
+      <c r="O1323">
+        <v>0</v>
+      </c>
+      <c r="P1323">
+        <v>3.36</v>
+      </c>
+      <c r="Q1323">
+        <v>21.17</v>
+      </c>
+      <c r="R1323">
+        <v>3.98</v>
+      </c>
+      <c r="S1323">
+        <v>23</v>
+      </c>
+      <c r="T1323">
+        <v>0</v>
+      </c>
+      <c r="U1323">
+        <v>10</v>
+      </c>
+      <c r="V1323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1324" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H1324">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I1324">
+        <v>0.31</v>
+      </c>
+      <c r="J1324">
+        <v>7.81</v>
+      </c>
+      <c r="K1324">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1324">
+        <v>0.05</v>
+      </c>
+      <c r="M1324">
+        <v>0</v>
+      </c>
+      <c r="N1324">
+        <v>0</v>
+      </c>
+      <c r="O1324">
+        <v>0</v>
+      </c>
+      <c r="P1324">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q1324">
+        <v>24.07</v>
+      </c>
+      <c r="R1324">
+        <v>4.46</v>
+      </c>
+      <c r="S1324">
+        <v>39</v>
+      </c>
+      <c r="T1324">
+        <v>1</v>
+      </c>
+      <c r="U1324">
+        <v>23</v>
+      </c>
+      <c r="V1324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>46070</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1325" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H1325">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I1325">
+        <v>0.38</v>
+      </c>
+      <c r="J1325">
+        <v>7.64</v>
+      </c>
+      <c r="K1325">
+        <v>0.34</v>
+      </c>
+      <c r="L1325">
+        <v>0.06</v>
+      </c>
+      <c r="M1325">
+        <v>0</v>
+      </c>
+      <c r="N1325">
+        <v>0</v>
+      </c>
+      <c r="O1325">
+        <v>0</v>
+      </c>
+      <c r="P1325">
+        <v>4.24</v>
+      </c>
+      <c r="Q1325">
+        <v>23.62</v>
+      </c>
+      <c r="R1325">
+        <v>5.53</v>
+      </c>
+      <c r="S1325">
+        <v>48</v>
+      </c>
+      <c r="T1325">
+        <v>23</v>
+      </c>
+      <c r="U1325">
+        <v>71</v>
+      </c>
+      <c r="V1325">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C11A68-261E-0347-A582-4572EA48A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CCF4DF-6D5B-364F-A7A9-1FD4DC62DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="1125">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3393,6 +3393,24 @@
   </si>
   <si>
     <t>01:43:23</t>
+  </si>
+  <si>
+    <t>01:26:28</t>
+  </si>
+  <si>
+    <t>01:26:14</t>
+  </si>
+  <si>
+    <t>01:24:55</t>
+  </si>
+  <si>
+    <t>01:26:00</t>
+  </si>
+  <si>
+    <t>01:25:44</t>
+  </si>
+  <si>
+    <t>01:24:41</t>
   </si>
 </sst>
 </file>
@@ -3796,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1325"/>
+  <dimension ref="A1:V1336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1303" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1330" sqref="C1330"/>
+      <selection activeCell="C1339" sqref="C1339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92434,6 +92452,754 @@
         <v>17</v>
       </c>
     </row>
+    <row r="1326" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1326">
+        <v>6.91</v>
+      </c>
+      <c r="I1326">
+        <v>0.98</v>
+      </c>
+      <c r="J1326">
+        <v>5.92</v>
+      </c>
+      <c r="K1326">
+        <v>0.6</v>
+      </c>
+      <c r="L1326">
+        <v>0.26</v>
+      </c>
+      <c r="M1326">
+        <v>0.12</v>
+      </c>
+      <c r="N1326">
+        <v>0</v>
+      </c>
+      <c r="O1326">
+        <v>8</v>
+      </c>
+      <c r="P1326">
+        <v>4.74</v>
+      </c>
+      <c r="Q1326">
+        <v>29.48</v>
+      </c>
+      <c r="R1326">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S1326">
+        <v>26</v>
+      </c>
+      <c r="T1326">
+        <v>4</v>
+      </c>
+      <c r="U1326">
+        <v>16</v>
+      </c>
+      <c r="V1326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1327" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1327">
+        <v>6.24</v>
+      </c>
+      <c r="I1327">
+        <v>0.78</v>
+      </c>
+      <c r="J1327">
+        <v>5.45</v>
+      </c>
+      <c r="K1327">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L1327">
+        <v>0.19</v>
+      </c>
+      <c r="M1327">
+        <v>0.02</v>
+      </c>
+      <c r="N1327">
+        <v>0</v>
+      </c>
+      <c r="O1327">
+        <v>3</v>
+      </c>
+      <c r="P1327">
+        <v>4.24</v>
+      </c>
+      <c r="Q1327">
+        <v>27.14</v>
+      </c>
+      <c r="R1327">
+        <v>4.22</v>
+      </c>
+      <c r="S1327">
+        <v>22</v>
+      </c>
+      <c r="T1327">
+        <v>2</v>
+      </c>
+      <c r="U1327">
+        <v>24</v>
+      </c>
+      <c r="V1327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1328" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H1328">
+        <v>6.06</v>
+      </c>
+      <c r="I1328">
+        <v>0.43</v>
+      </c>
+      <c r="J1328">
+        <v>5.62</v>
+      </c>
+      <c r="K1328">
+        <v>0.33</v>
+      </c>
+      <c r="L1328">
+        <v>0.1</v>
+      </c>
+      <c r="M1328">
+        <v>0</v>
+      </c>
+      <c r="N1328">
+        <v>0</v>
+      </c>
+      <c r="O1328">
+        <v>0</v>
+      </c>
+      <c r="P1328">
+        <v>4.18</v>
+      </c>
+      <c r="Q1328">
+        <v>24.17</v>
+      </c>
+      <c r="R1328">
+        <v>4.07</v>
+      </c>
+      <c r="S1328">
+        <v>24</v>
+      </c>
+      <c r="T1328">
+        <v>2</v>
+      </c>
+      <c r="U1328">
+        <v>17</v>
+      </c>
+      <c r="V1328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H1329">
+        <v>6.18</v>
+      </c>
+      <c r="I1329">
+        <v>0.42</v>
+      </c>
+      <c r="J1329">
+        <v>5.75</v>
+      </c>
+      <c r="K1329">
+        <v>0.34</v>
+      </c>
+      <c r="L1329">
+        <v>0.08</v>
+      </c>
+      <c r="M1329">
+        <v>0.01</v>
+      </c>
+      <c r="N1329">
+        <v>0</v>
+      </c>
+      <c r="O1329">
+        <v>1</v>
+      </c>
+      <c r="P1329">
+        <v>4.2</v>
+      </c>
+      <c r="Q1329">
+        <v>27.28</v>
+      </c>
+      <c r="R1329">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S1329">
+        <v>13</v>
+      </c>
+      <c r="T1329">
+        <v>1</v>
+      </c>
+      <c r="U1329">
+        <v>14</v>
+      </c>
+      <c r="V1329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1330" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1330">
+        <v>6.16</v>
+      </c>
+      <c r="I1330">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J1330">
+        <v>5.57</v>
+      </c>
+      <c r="K1330">
+        <v>0.49</v>
+      </c>
+      <c r="L1330">
+        <v>0.1</v>
+      </c>
+      <c r="M1330">
+        <v>0</v>
+      </c>
+      <c r="N1330">
+        <v>0</v>
+      </c>
+      <c r="O1330">
+        <v>1</v>
+      </c>
+      <c r="P1330">
+        <v>3.7</v>
+      </c>
+      <c r="Q1330">
+        <v>25.4</v>
+      </c>
+      <c r="R1330">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="S1330">
+        <v>31</v>
+      </c>
+      <c r="T1330">
+        <v>6</v>
+      </c>
+      <c r="U1330">
+        <v>31</v>
+      </c>
+      <c r="V1330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1331" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>524</v>
+      </c>
+      <c r="H1331">
+        <v>8.17</v>
+      </c>
+      <c r="I1331">
+        <v>1.21</v>
+      </c>
+      <c r="J1331">
+        <v>6.94</v>
+      </c>
+      <c r="K1331">
+        <v>0.81</v>
+      </c>
+      <c r="L1331">
+        <v>0.35</v>
+      </c>
+      <c r="M1331">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1331">
+        <v>0</v>
+      </c>
+      <c r="O1331">
+        <v>8</v>
+      </c>
+      <c r="P1331">
+        <v>5.07</v>
+      </c>
+      <c r="Q1331">
+        <v>29.09</v>
+      </c>
+      <c r="R1331">
+        <v>4.16</v>
+      </c>
+      <c r="S1331">
+        <v>37</v>
+      </c>
+      <c r="T1331">
+        <v>3</v>
+      </c>
+      <c r="U1331">
+        <v>29</v>
+      </c>
+      <c r="V1331">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1332" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H1332">
+        <v>6.59</v>
+      </c>
+      <c r="I1332">
+        <v>1</v>
+      </c>
+      <c r="J1332">
+        <v>5.57</v>
+      </c>
+      <c r="K1332">
+        <v>0.64</v>
+      </c>
+      <c r="L1332">
+        <v>0.33</v>
+      </c>
+      <c r="M1332">
+        <v>0.06</v>
+      </c>
+      <c r="N1332">
+        <v>0</v>
+      </c>
+      <c r="O1332">
+        <v>4</v>
+      </c>
+      <c r="P1332">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q1332">
+        <v>28.97</v>
+      </c>
+      <c r="R1332">
+        <v>5.59</v>
+      </c>
+      <c r="S1332">
+        <v>48</v>
+      </c>
+      <c r="T1332">
+        <v>9</v>
+      </c>
+      <c r="U1332">
+        <v>38</v>
+      </c>
+      <c r="V1332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1333" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1333">
+        <v>7.49</v>
+      </c>
+      <c r="I1333">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J1333">
+        <v>6.36</v>
+      </c>
+      <c r="K1333">
+        <v>0.84</v>
+      </c>
+      <c r="L1333">
+        <v>0.27</v>
+      </c>
+      <c r="M1333">
+        <v>0.02</v>
+      </c>
+      <c r="N1333">
+        <v>0</v>
+      </c>
+      <c r="O1333">
+        <v>2</v>
+      </c>
+      <c r="P1333">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q1333">
+        <v>26.02</v>
+      </c>
+      <c r="R1333">
+        <v>4.26</v>
+      </c>
+      <c r="S1333">
+        <v>22</v>
+      </c>
+      <c r="T1333">
+        <v>4</v>
+      </c>
+      <c r="U1333">
+        <v>13</v>
+      </c>
+      <c r="V1333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1334" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H1334">
+        <v>6.46</v>
+      </c>
+      <c r="I1334">
+        <v>0.73</v>
+      </c>
+      <c r="J1334">
+        <v>5.71</v>
+      </c>
+      <c r="K1334">
+        <v>0.5</v>
+      </c>
+      <c r="L1334">
+        <v>0.2</v>
+      </c>
+      <c r="M1334">
+        <v>0.04</v>
+      </c>
+      <c r="N1334">
+        <v>0</v>
+      </c>
+      <c r="O1334">
+        <v>6</v>
+      </c>
+      <c r="P1334">
+        <v>4.05</v>
+      </c>
+      <c r="Q1334">
+        <v>27.94</v>
+      </c>
+      <c r="R1334">
+        <v>6.5</v>
+      </c>
+      <c r="S1334">
+        <v>49</v>
+      </c>
+      <c r="T1334">
+        <v>11</v>
+      </c>
+      <c r="U1334">
+        <v>51</v>
+      </c>
+      <c r="V1334">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1335" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1335">
+        <v>5.9</v>
+      </c>
+      <c r="I1335">
+        <v>0.26</v>
+      </c>
+      <c r="J1335">
+        <v>5.63</v>
+      </c>
+      <c r="K1335">
+        <v>0.2</v>
+      </c>
+      <c r="L1335">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M1335">
+        <v>0.01</v>
+      </c>
+      <c r="N1335">
+        <v>0</v>
+      </c>
+      <c r="O1335">
+        <v>1</v>
+      </c>
+      <c r="P1335">
+        <v>3.52</v>
+      </c>
+      <c r="Q1335">
+        <v>26.6</v>
+      </c>
+      <c r="R1335">
+        <v>5.26</v>
+      </c>
+      <c r="S1335">
+        <v>20</v>
+      </c>
+      <c r="T1335">
+        <v>6</v>
+      </c>
+      <c r="U1335">
+        <v>23</v>
+      </c>
+      <c r="V1335">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>46071</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1336" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H1336">
+        <v>7.39</v>
+      </c>
+      <c r="I1336">
+        <v>0.85</v>
+      </c>
+      <c r="J1336">
+        <v>6.53</v>
+      </c>
+      <c r="K1336">
+        <v>0.76</v>
+      </c>
+      <c r="L1336">
+        <v>0.1</v>
+      </c>
+      <c r="M1336">
+        <v>0</v>
+      </c>
+      <c r="N1336">
+        <v>0</v>
+      </c>
+      <c r="O1336">
+        <v>0</v>
+      </c>
+      <c r="P1336">
+        <v>5.22</v>
+      </c>
+      <c r="Q1336">
+        <v>24.11</v>
+      </c>
+      <c r="R1336">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S1336">
+        <v>27</v>
+      </c>
+      <c r="T1336">
+        <v>3</v>
+      </c>
+      <c r="U1336">
+        <v>16</v>
+      </c>
+      <c r="V1336">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CCF4DF-6D5B-364F-A7A9-1FD4DC62DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF981901-FAF6-7347-8DC7-42230AA2B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="1134">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3411,6 +3411,33 @@
   </si>
   <si>
     <t>01:24:41</t>
+  </si>
+  <si>
+    <t>00:53:47</t>
+  </si>
+  <si>
+    <t>01:17:59</t>
+  </si>
+  <si>
+    <t>01:15:55</t>
+  </si>
+  <si>
+    <t>00:27:06</t>
+  </si>
+  <si>
+    <t>00:41:18</t>
+  </si>
+  <si>
+    <t>00:41:49</t>
+  </si>
+  <si>
+    <t>00:42:14</t>
+  </si>
+  <si>
+    <t>00:27:30</t>
+  </si>
+  <si>
+    <t>00:59:02</t>
   </si>
 </sst>
 </file>
@@ -3814,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1336"/>
+  <dimension ref="A1:V1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1303" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1339" sqref="C1339"/>
+    <sheetView tabSelected="1" topLeftCell="A1314" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1348" sqref="D1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -93200,6 +93227,686 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1337" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1337" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H1337">
+        <v>2.89</v>
+      </c>
+      <c r="I1337">
+        <v>0.2</v>
+      </c>
+      <c r="J1337">
+        <v>2.68</v>
+      </c>
+      <c r="K1337">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1337">
+        <v>0.04</v>
+      </c>
+      <c r="M1337">
+        <v>0.02</v>
+      </c>
+      <c r="N1337">
+        <v>0</v>
+      </c>
+      <c r="O1337">
+        <v>2</v>
+      </c>
+      <c r="P1337">
+        <v>2.71</v>
+      </c>
+      <c r="Q1337">
+        <v>29.51</v>
+      </c>
+      <c r="R1337">
+        <v>4.57</v>
+      </c>
+      <c r="S1337">
+        <v>11</v>
+      </c>
+      <c r="T1337">
+        <v>6</v>
+      </c>
+      <c r="U1337">
+        <v>11</v>
+      </c>
+      <c r="V1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1338" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1338">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I1338">
+        <v>0.61</v>
+      </c>
+      <c r="J1338">
+        <v>3.44</v>
+      </c>
+      <c r="K1338">
+        <v>0.32</v>
+      </c>
+      <c r="L1338">
+        <v>0.17</v>
+      </c>
+      <c r="M1338">
+        <v>0.13</v>
+      </c>
+      <c r="N1338">
+        <v>0</v>
+      </c>
+      <c r="O1338">
+        <v>7</v>
+      </c>
+      <c r="P1338">
+        <v>3.03</v>
+      </c>
+      <c r="Q1338">
+        <v>29.45</v>
+      </c>
+      <c r="R1338">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S1338">
+        <v>26</v>
+      </c>
+      <c r="T1338">
+        <v>3</v>
+      </c>
+      <c r="U1338">
+        <v>13</v>
+      </c>
+      <c r="V1338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1339" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H1339">
+        <v>3.76</v>
+      </c>
+      <c r="I1339">
+        <v>0.42</v>
+      </c>
+      <c r="J1339">
+        <v>3.34</v>
+      </c>
+      <c r="K1339">
+        <v>0.24</v>
+      </c>
+      <c r="L1339">
+        <v>0.12</v>
+      </c>
+      <c r="M1339">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1339">
+        <v>0</v>
+      </c>
+      <c r="O1339">
+        <v>4</v>
+      </c>
+      <c r="P1339">
+        <v>2.8</v>
+      </c>
+      <c r="Q1339">
+        <v>29.07</v>
+      </c>
+      <c r="R1339">
+        <v>5.04</v>
+      </c>
+      <c r="S1339">
+        <v>29</v>
+      </c>
+      <c r="T1339">
+        <v>7</v>
+      </c>
+      <c r="U1339">
+        <v>5</v>
+      </c>
+      <c r="V1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1340" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H1340">
+        <v>3.68</v>
+      </c>
+      <c r="I1340">
+        <v>0.33</v>
+      </c>
+      <c r="J1340">
+        <v>3.34</v>
+      </c>
+      <c r="K1340">
+        <v>0.23</v>
+      </c>
+      <c r="L1340">
+        <v>0.09</v>
+      </c>
+      <c r="M1340">
+        <v>0.02</v>
+      </c>
+      <c r="N1340">
+        <v>0</v>
+      </c>
+      <c r="O1340">
+        <v>4</v>
+      </c>
+      <c r="P1340">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q1340">
+        <v>26.97</v>
+      </c>
+      <c r="R1340">
+        <v>5.01</v>
+      </c>
+      <c r="S1340">
+        <v>36</v>
+      </c>
+      <c r="T1340">
+        <v>12</v>
+      </c>
+      <c r="U1340">
+        <v>31</v>
+      </c>
+      <c r="V1340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1341" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H1341">
+        <v>1.52</v>
+      </c>
+      <c r="I1341">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1341">
+        <v>1.45</v>
+      </c>
+      <c r="K1341">
+        <v>0.06</v>
+      </c>
+      <c r="L1341">
+        <v>0.01</v>
+      </c>
+      <c r="M1341">
+        <v>0</v>
+      </c>
+      <c r="N1341">
+        <v>0</v>
+      </c>
+      <c r="O1341">
+        <v>0</v>
+      </c>
+      <c r="P1341">
+        <v>3.36</v>
+      </c>
+      <c r="Q1341">
+        <v>20.56</v>
+      </c>
+      <c r="R1341">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S1341">
+        <v>4</v>
+      </c>
+      <c r="T1341">
+        <v>2</v>
+      </c>
+      <c r="U1341">
+        <v>1</v>
+      </c>
+      <c r="V1341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1342" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H1342">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I1342">
+        <v>0.43</v>
+      </c>
+      <c r="J1342">
+        <v>2.02</v>
+      </c>
+      <c r="K1342">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1342">
+        <v>0.13</v>
+      </c>
+      <c r="M1342">
+        <v>0.02</v>
+      </c>
+      <c r="N1342">
+        <v>0</v>
+      </c>
+      <c r="O1342">
+        <v>2</v>
+      </c>
+      <c r="P1342">
+        <v>3.56</v>
+      </c>
+      <c r="Q1342">
+        <v>26.44</v>
+      </c>
+      <c r="R1342">
+        <v>4.08</v>
+      </c>
+      <c r="S1342">
+        <v>13</v>
+      </c>
+      <c r="T1342">
+        <v>2</v>
+      </c>
+      <c r="U1342">
+        <v>10</v>
+      </c>
+      <c r="V1342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1343" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H1343">
+        <v>2.76</v>
+      </c>
+      <c r="I1343">
+        <v>0.33</v>
+      </c>
+      <c r="J1343">
+        <v>2.42</v>
+      </c>
+      <c r="K1343">
+        <v>0.18</v>
+      </c>
+      <c r="L1343">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1343">
+        <v>0.02</v>
+      </c>
+      <c r="N1343">
+        <v>0</v>
+      </c>
+      <c r="O1343">
+        <v>4</v>
+      </c>
+      <c r="P1343">
+        <v>3.9</v>
+      </c>
+      <c r="Q1343">
+        <v>26.12</v>
+      </c>
+      <c r="R1343">
+        <v>3.9</v>
+      </c>
+      <c r="S1343">
+        <v>8</v>
+      </c>
+      <c r="T1343">
+        <v>0</v>
+      </c>
+      <c r="U1343">
+        <v>2</v>
+      </c>
+      <c r="V1343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1344" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H1344">
+        <v>2.99</v>
+      </c>
+      <c r="I1344">
+        <v>0.48</v>
+      </c>
+      <c r="J1344">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K1344">
+        <v>0.23</v>
+      </c>
+      <c r="L1344">
+        <v>0.18</v>
+      </c>
+      <c r="M1344">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1344">
+        <v>0</v>
+      </c>
+      <c r="O1344">
+        <v>7</v>
+      </c>
+      <c r="P1344">
+        <v>3.72</v>
+      </c>
+      <c r="Q1344">
+        <v>29.49</v>
+      </c>
+      <c r="R1344">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="S1344">
+        <v>13</v>
+      </c>
+      <c r="T1344">
+        <v>5</v>
+      </c>
+      <c r="U1344">
+        <v>16</v>
+      </c>
+      <c r="V1344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1345" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H1345">
+        <v>1.91</v>
+      </c>
+      <c r="I1345">
+        <v>0.25</v>
+      </c>
+      <c r="J1345">
+        <v>1.66</v>
+      </c>
+      <c r="K1345">
+        <v>0.09</v>
+      </c>
+      <c r="L1345">
+        <v>0.08</v>
+      </c>
+      <c r="M1345">
+        <v>0.08</v>
+      </c>
+      <c r="N1345">
+        <v>0.01</v>
+      </c>
+      <c r="O1345">
+        <v>4</v>
+      </c>
+      <c r="P1345">
+        <v>3.78</v>
+      </c>
+      <c r="Q1345">
+        <v>31.08</v>
+      </c>
+      <c r="R1345">
+        <v>3.59</v>
+      </c>
+      <c r="S1345">
+        <v>11</v>
+      </c>
+      <c r="T1345">
+        <v>0</v>
+      </c>
+      <c r="U1345">
+        <v>6</v>
+      </c>
+      <c r="V1345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>46072</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1346" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H1346">
+        <v>3.91</v>
+      </c>
+      <c r="I1346">
+        <v>0.61</v>
+      </c>
+      <c r="J1346">
+        <v>3.29</v>
+      </c>
+      <c r="K1346">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L1346">
+        <v>0.27</v>
+      </c>
+      <c r="M1346">
+        <v>0.06</v>
+      </c>
+      <c r="N1346">
+        <v>0</v>
+      </c>
+      <c r="O1346">
+        <v>3</v>
+      </c>
+      <c r="P1346">
+        <v>3.91</v>
+      </c>
+      <c r="Q1346">
+        <v>29.61</v>
+      </c>
+      <c r="R1346">
+        <v>4.47</v>
+      </c>
+      <c r="S1346">
+        <v>15</v>
+      </c>
+      <c r="T1346">
+        <v>5</v>
+      </c>
+      <c r="U1346">
+        <v>3</v>
+      </c>
+      <c r="V1346">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF981901-FAF6-7347-8DC7-42230AA2B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D89D1-D47F-BE4E-AE55-C5E28AF3D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="1138">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3438,6 +3438,18 @@
   </si>
   <si>
     <t>00:59:02</t>
+  </si>
+  <si>
+    <t>01:17:53</t>
+  </si>
+  <si>
+    <t>01:17:14</t>
+  </si>
+  <si>
+    <t>01:10:08</t>
+  </si>
+  <si>
+    <t>01:18:07</t>
   </si>
 </sst>
 </file>
@@ -3841,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1346"/>
+  <dimension ref="A1:V1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1314" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1348" sqref="D1348"/>
+    <sheetView tabSelected="1" topLeftCell="A1324" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1356" sqref="D1356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -93907,6 +93919,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1347" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1347" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1347">
+        <v>4.24</v>
+      </c>
+      <c r="I1347">
+        <v>0.18</v>
+      </c>
+      <c r="J1347">
+        <v>4.05</v>
+      </c>
+      <c r="K1347">
+        <v>0.15</v>
+      </c>
+      <c r="L1347">
+        <v>0.05</v>
+      </c>
+      <c r="M1347">
+        <v>0</v>
+      </c>
+      <c r="N1347">
+        <v>0</v>
+      </c>
+      <c r="O1347">
+        <v>0</v>
+      </c>
+      <c r="P1347">
+        <v>3.34</v>
+      </c>
+      <c r="Q1347">
+        <v>24.99</v>
+      </c>
+      <c r="R1347">
+        <v>5</v>
+      </c>
+      <c r="S1347">
+        <v>42</v>
+      </c>
+      <c r="T1347">
+        <v>10</v>
+      </c>
+      <c r="U1347">
+        <v>21</v>
+      </c>
+      <c r="V1347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1348" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H1348">
+        <v>4.62</v>
+      </c>
+      <c r="I1348">
+        <v>0.13</v>
+      </c>
+      <c r="J1348">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K1348">
+        <v>0.11</v>
+      </c>
+      <c r="L1348">
+        <v>0.03</v>
+      </c>
+      <c r="M1348">
+        <v>0</v>
+      </c>
+      <c r="N1348">
+        <v>0</v>
+      </c>
+      <c r="O1348">
+        <v>0</v>
+      </c>
+      <c r="P1348">
+        <v>3.1</v>
+      </c>
+      <c r="Q1348">
+        <v>24.44</v>
+      </c>
+      <c r="R1348">
+        <v>5.12</v>
+      </c>
+      <c r="S1348">
+        <v>52</v>
+      </c>
+      <c r="T1348">
+        <v>13</v>
+      </c>
+      <c r="U1348">
+        <v>39</v>
+      </c>
+      <c r="V1348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1349" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1349">
+        <v>5.19</v>
+      </c>
+      <c r="I1349">
+        <v>0.25</v>
+      </c>
+      <c r="J1349">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K1349">
+        <v>0.22</v>
+      </c>
+      <c r="L1349">
+        <v>0.04</v>
+      </c>
+      <c r="M1349">
+        <v>0</v>
+      </c>
+      <c r="N1349">
+        <v>0</v>
+      </c>
+      <c r="O1349">
+        <v>0</v>
+      </c>
+      <c r="P1349">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q1349">
+        <v>24.12</v>
+      </c>
+      <c r="R1349">
+        <v>4.71</v>
+      </c>
+      <c r="S1349">
+        <v>40</v>
+      </c>
+      <c r="T1349">
+        <v>1</v>
+      </c>
+      <c r="U1349">
+        <v>17</v>
+      </c>
+      <c r="V1349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1350" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H1350">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I1350">
+        <v>0.25</v>
+      </c>
+      <c r="J1350">
+        <v>4.55</v>
+      </c>
+      <c r="K1350">
+        <v>0.22</v>
+      </c>
+      <c r="L1350">
+        <v>0.05</v>
+      </c>
+      <c r="M1350">
+        <v>0</v>
+      </c>
+      <c r="N1350">
+        <v>0</v>
+      </c>
+      <c r="O1350">
+        <v>0</v>
+      </c>
+      <c r="P1350">
+        <v>3.42</v>
+      </c>
+      <c r="Q1350">
+        <v>23.8</v>
+      </c>
+      <c r="R1350">
+        <v>5.99</v>
+      </c>
+      <c r="S1350">
+        <v>42</v>
+      </c>
+      <c r="T1350">
+        <v>11</v>
+      </c>
+      <c r="U1350">
+        <v>36</v>
+      </c>
+      <c r="V1350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1351" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H1351">
+        <v>5.14</v>
+      </c>
+      <c r="I1351">
+        <v>0.13</v>
+      </c>
+      <c r="J1351">
+        <v>5.01</v>
+      </c>
+      <c r="K1351">
+        <v>0.12</v>
+      </c>
+      <c r="L1351">
+        <v>0.01</v>
+      </c>
+      <c r="M1351">
+        <v>0</v>
+      </c>
+      <c r="N1351">
+        <v>0</v>
+      </c>
+      <c r="O1351">
+        <v>0</v>
+      </c>
+      <c r="P1351">
+        <v>4.3</v>
+      </c>
+      <c r="Q1351">
+        <v>21.01</v>
+      </c>
+      <c r="R1351">
+        <v>3.92</v>
+      </c>
+      <c r="S1351">
+        <v>21</v>
+      </c>
+      <c r="T1351">
+        <v>0</v>
+      </c>
+      <c r="U1351">
+        <v>13</v>
+      </c>
+      <c r="V1351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>46073</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1352" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H1352">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I1352">
+        <v>0.13</v>
+      </c>
+      <c r="J1352">
+        <v>4.84</v>
+      </c>
+      <c r="K1352">
+        <v>0.12</v>
+      </c>
+      <c r="L1352">
+        <v>0.02</v>
+      </c>
+      <c r="M1352">
+        <v>0</v>
+      </c>
+      <c r="N1352">
+        <v>0</v>
+      </c>
+      <c r="O1352">
+        <v>0</v>
+      </c>
+      <c r="P1352">
+        <v>3.73</v>
+      </c>
+      <c r="Q1352">
+        <v>21.44</v>
+      </c>
+      <c r="R1352">
+        <v>4.3</v>
+      </c>
+      <c r="S1352">
+        <v>30</v>
+      </c>
+      <c r="T1352">
+        <v>2</v>
+      </c>
+      <c r="U1352">
+        <v>21</v>
+      </c>
+      <c r="V1352">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D89D1-D47F-BE4E-AE55-C5E28AF3D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48D9E4-D549-9345-9067-AD114B93277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="1140">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3450,6 +3450,12 @@
   </si>
   <si>
     <t>01:18:07</t>
+  </si>
+  <si>
+    <t>00:16:32</t>
+  </si>
+  <si>
+    <t>00:17:49</t>
   </si>
 </sst>
 </file>
@@ -3853,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1352"/>
+  <dimension ref="A1:V1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1324" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1356" sqref="D1356"/>
+    <sheetView tabSelected="1" topLeftCell="A1340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1364" sqref="E1364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94327,6 +94333,461 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1353" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1353">
+        <v>2.86</v>
+      </c>
+      <c r="I1353">
+        <v>0.59</v>
+      </c>
+      <c r="J1353">
+        <v>2.27</v>
+      </c>
+      <c r="K1353">
+        <v>0.59</v>
+      </c>
+      <c r="L1353">
+        <v>0</v>
+      </c>
+      <c r="M1353">
+        <v>0</v>
+      </c>
+      <c r="N1353">
+        <v>0</v>
+      </c>
+      <c r="O1353">
+        <v>0</v>
+      </c>
+      <c r="P1353">
+        <v>9.56</v>
+      </c>
+      <c r="Q1353">
+        <v>18.38</v>
+      </c>
+      <c r="R1353">
+        <v>3.03</v>
+      </c>
+      <c r="S1353">
+        <v>1</v>
+      </c>
+      <c r="T1353">
+        <v>0</v>
+      </c>
+      <c r="U1353">
+        <v>0</v>
+      </c>
+      <c r="V1353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H1354">
+        <v>2.67</v>
+      </c>
+      <c r="I1354">
+        <v>0.67</v>
+      </c>
+      <c r="J1354">
+        <v>2</v>
+      </c>
+      <c r="K1354">
+        <v>0.46</v>
+      </c>
+      <c r="L1354">
+        <v>0.21</v>
+      </c>
+      <c r="M1354">
+        <v>0</v>
+      </c>
+      <c r="N1354">
+        <v>0</v>
+      </c>
+      <c r="O1354">
+        <v>0</v>
+      </c>
+      <c r="P1354">
+        <v>9.32</v>
+      </c>
+      <c r="Q1354">
+        <v>22.95</v>
+      </c>
+      <c r="R1354">
+        <v>3.38</v>
+      </c>
+      <c r="S1354">
+        <v>1</v>
+      </c>
+      <c r="T1354">
+        <v>0</v>
+      </c>
+      <c r="U1354">
+        <v>0</v>
+      </c>
+      <c r="V1354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1355">
+        <v>3.12</v>
+      </c>
+      <c r="I1355">
+        <v>0.88</v>
+      </c>
+      <c r="J1355">
+        <v>2.23</v>
+      </c>
+      <c r="K1355">
+        <v>0.46</v>
+      </c>
+      <c r="L1355">
+        <v>0.42</v>
+      </c>
+      <c r="M1355">
+        <v>0</v>
+      </c>
+      <c r="N1355">
+        <v>0</v>
+      </c>
+      <c r="O1355">
+        <v>0</v>
+      </c>
+      <c r="P1355">
+        <v>10.44</v>
+      </c>
+      <c r="Q1355">
+        <v>24.2</v>
+      </c>
+      <c r="R1355">
+        <v>0</v>
+      </c>
+      <c r="S1355">
+        <v>0</v>
+      </c>
+      <c r="T1355">
+        <v>0</v>
+      </c>
+      <c r="U1355">
+        <v>0</v>
+      </c>
+      <c r="V1355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H1356">
+        <v>2.87</v>
+      </c>
+      <c r="I1356">
+        <v>0.44</v>
+      </c>
+      <c r="J1356">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K1356">
+        <v>0.44</v>
+      </c>
+      <c r="L1356">
+        <v>0</v>
+      </c>
+      <c r="M1356">
+        <v>0</v>
+      </c>
+      <c r="N1356">
+        <v>0</v>
+      </c>
+      <c r="O1356">
+        <v>0</v>
+      </c>
+      <c r="P1356">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="Q1356">
+        <v>17.71</v>
+      </c>
+      <c r="R1356">
+        <v>0</v>
+      </c>
+      <c r="S1356">
+        <v>0</v>
+      </c>
+      <c r="T1356">
+        <v>0</v>
+      </c>
+      <c r="U1356">
+        <v>0</v>
+      </c>
+      <c r="V1356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H1357">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I1357">
+        <v>0.37</v>
+      </c>
+      <c r="J1357">
+        <v>2.1</v>
+      </c>
+      <c r="K1357">
+        <v>0.37</v>
+      </c>
+      <c r="L1357">
+        <v>0</v>
+      </c>
+      <c r="M1357">
+        <v>0</v>
+      </c>
+      <c r="N1357">
+        <v>0</v>
+      </c>
+      <c r="O1357">
+        <v>0</v>
+      </c>
+      <c r="P1357">
+        <v>8.24</v>
+      </c>
+      <c r="Q1357">
+        <v>18.07</v>
+      </c>
+      <c r="R1357">
+        <v>3.14</v>
+      </c>
+      <c r="S1357">
+        <v>1</v>
+      </c>
+      <c r="T1357">
+        <v>0</v>
+      </c>
+      <c r="U1357">
+        <v>0</v>
+      </c>
+      <c r="V1357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H1358">
+        <v>3.14</v>
+      </c>
+      <c r="I1358">
+        <v>0.82</v>
+      </c>
+      <c r="J1358">
+        <v>2.31</v>
+      </c>
+      <c r="K1358">
+        <v>0.53</v>
+      </c>
+      <c r="L1358">
+        <v>0.3</v>
+      </c>
+      <c r="M1358">
+        <v>0</v>
+      </c>
+      <c r="N1358">
+        <v>0</v>
+      </c>
+      <c r="O1358">
+        <v>0</v>
+      </c>
+      <c r="P1358">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="Q1358">
+        <v>24.59</v>
+      </c>
+      <c r="R1358">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S1358">
+        <v>1</v>
+      </c>
+      <c r="T1358">
+        <v>2</v>
+      </c>
+      <c r="U1358">
+        <v>0</v>
+      </c>
+      <c r="V1358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>46076</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1359">
+        <v>2.97</v>
+      </c>
+      <c r="I1359">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J1359">
+        <v>2.41</v>
+      </c>
+      <c r="K1359">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L1359">
+        <v>0</v>
+      </c>
+      <c r="M1359">
+        <v>0</v>
+      </c>
+      <c r="N1359">
+        <v>0</v>
+      </c>
+      <c r="O1359">
+        <v>0</v>
+      </c>
+      <c r="P1359">
+        <v>9.94</v>
+      </c>
+      <c r="Q1359">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="R1359">
+        <v>0</v>
+      </c>
+      <c r="S1359">
+        <v>0</v>
+      </c>
+      <c r="T1359">
+        <v>0</v>
+      </c>
+      <c r="U1359">
+        <v>0</v>
+      </c>
+      <c r="V1359">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DonneesGPSPropres.xlsx
+++ b/data/DonneesGPSPropres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48D9E4-D549-9345-9067-AD114B93277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA24B3-80AF-4643-801F-835E19C39310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D839DFFF-AA38-2145-9D48-3C82EEA1EE91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="1159">
   <si>
     <t>Temps joué</t>
   </si>
@@ -3456,6 +3456,63 @@
   </si>
   <si>
     <t>00:17:49</t>
+  </si>
+  <si>
+    <t>Fares Snoussi</t>
+  </si>
+  <si>
+    <t>01:02:59</t>
+  </si>
+  <si>
+    <t>01:34:49</t>
+  </si>
+  <si>
+    <t>01:28:05</t>
+  </si>
+  <si>
+    <t>01:34:02</t>
+  </si>
+  <si>
+    <t>01:35:21</t>
+  </si>
+  <si>
+    <t>01:37:28</t>
+  </si>
+  <si>
+    <t>01:22:41</t>
+  </si>
+  <si>
+    <t>01:34:58</t>
+  </si>
+  <si>
+    <t>01:34:57</t>
+  </si>
+  <si>
+    <t>01:34:18</t>
+  </si>
+  <si>
+    <t>01:33:15</t>
+  </si>
+  <si>
+    <t>01:32:51</t>
+  </si>
+  <si>
+    <t>01:32:39</t>
+  </si>
+  <si>
+    <t>01:32:24</t>
+  </si>
+  <si>
+    <t>01:31:10</t>
+  </si>
+  <si>
+    <t>01:11:24</t>
+  </si>
+  <si>
+    <t>01:32:17</t>
+  </si>
+  <si>
+    <t>01:32:09</t>
   </si>
 </sst>
 </file>
@@ -3859,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE8228-0F81-ED4B-A4A4-4C340123FE2A}">
-  <dimension ref="A1:V1359"/>
+  <dimension ref="A1:V1387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1364" sqref="E1364"/>
+    <sheetView tabSelected="1" topLeftCell="A1351" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1373" sqref="F1373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94788,6 +94845,1910 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1360" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1360" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1360" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1360">
+        <v>4.32</v>
+      </c>
+      <c r="I1360">
+        <v>0.46</v>
+      </c>
+      <c r="J1360">
+        <v>3.85</v>
+      </c>
+      <c r="K1360">
+        <v>0.45</v>
+      </c>
+      <c r="L1360">
+        <v>0.02</v>
+      </c>
+      <c r="M1360">
+        <v>0</v>
+      </c>
+      <c r="N1360">
+        <v>0</v>
+      </c>
+      <c r="O1360">
+        <v>0</v>
+      </c>
+      <c r="P1360">
+        <v>3.85</v>
+      </c>
+      <c r="Q1360">
+        <v>21.95</v>
+      </c>
+      <c r="R1360">
+        <v>3.81</v>
+      </c>
+      <c r="S1360">
+        <v>25</v>
+      </c>
+      <c r="T1360">
+        <v>0</v>
+      </c>
+      <c r="U1360">
+        <v>11</v>
+      </c>
+      <c r="V1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1361" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H1361">
+        <v>6.32</v>
+      </c>
+      <c r="I1361">
+        <v>0.59</v>
+      </c>
+      <c r="J1361">
+        <v>5.73</v>
+      </c>
+      <c r="K1361">
+        <v>0.59</v>
+      </c>
+      <c r="L1361">
+        <v>0</v>
+      </c>
+      <c r="M1361">
+        <v>0</v>
+      </c>
+      <c r="N1361">
+        <v>0</v>
+      </c>
+      <c r="O1361">
+        <v>0</v>
+      </c>
+      <c r="P1361">
+        <v>3.84</v>
+      </c>
+      <c r="Q1361">
+        <v>20.53</v>
+      </c>
+      <c r="R1361">
+        <v>4.16</v>
+      </c>
+      <c r="S1361">
+        <v>24</v>
+      </c>
+      <c r="T1361">
+        <v>1</v>
+      </c>
+      <c r="U1361">
+        <v>26</v>
+      </c>
+      <c r="V1361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1362" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H1362">
+        <v>7.27</v>
+      </c>
+      <c r="I1362">
+        <v>0.68</v>
+      </c>
+      <c r="J1362">
+        <v>6.57</v>
+      </c>
+      <c r="K1362">
+        <v>0.64</v>
+      </c>
+      <c r="L1362">
+        <v>0.05</v>
+      </c>
+      <c r="M1362">
+        <v>0.01</v>
+      </c>
+      <c r="N1362">
+        <v>0</v>
+      </c>
+      <c r="O1362">
+        <v>1</v>
+      </c>
+      <c r="P1362">
+        <v>4.29</v>
+      </c>
+      <c r="Q1362">
+        <v>30.26</v>
+      </c>
+      <c r="R1362">
+        <v>5.66</v>
+      </c>
+      <c r="S1362">
+        <v>67</v>
+      </c>
+      <c r="T1362">
+        <v>34</v>
+      </c>
+      <c r="U1362">
+        <v>61</v>
+      </c>
+      <c r="V1362">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1363" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H1363">
+        <v>6.31</v>
+      </c>
+      <c r="I1363">
+        <v>0.59</v>
+      </c>
+      <c r="J1363">
+        <v>5.72</v>
+      </c>
+      <c r="K1363">
+        <v>0.59</v>
+      </c>
+      <c r="L1363">
+        <v>0</v>
+      </c>
+      <c r="M1363">
+        <v>0</v>
+      </c>
+      <c r="N1363">
+        <v>0</v>
+      </c>
+      <c r="O1363">
+        <v>0</v>
+      </c>
+      <c r="P1363">
+        <v>3.97</v>
+      </c>
+      <c r="Q1363">
+        <v>20.18</v>
+      </c>
+      <c r="R1363">
+        <v>3.99</v>
+      </c>
+      <c r="S1363">
+        <v>35</v>
+      </c>
+      <c r="T1363">
+        <v>0</v>
+      </c>
+      <c r="U1363">
+        <v>21</v>
+      </c>
+      <c r="V1363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1364" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H1364">
+        <v>7.77</v>
+      </c>
+      <c r="I1364">
+        <v>0.93</v>
+      </c>
+      <c r="J1364">
+        <v>6.82</v>
+      </c>
+      <c r="K1364">
+        <v>0.92</v>
+      </c>
+      <c r="L1364">
+        <v>0.03</v>
+      </c>
+      <c r="M1364">
+        <v>0</v>
+      </c>
+      <c r="N1364">
+        <v>0</v>
+      </c>
+      <c r="O1364">
+        <v>0</v>
+      </c>
+      <c r="P1364">
+        <v>4.82</v>
+      </c>
+      <c r="Q1364">
+        <v>23.63</v>
+      </c>
+      <c r="R1364">
+        <v>4.26</v>
+      </c>
+      <c r="S1364">
+        <v>62</v>
+      </c>
+      <c r="T1364">
+        <v>6</v>
+      </c>
+      <c r="U1364">
+        <v>34</v>
+      </c>
+      <c r="V1364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1365" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H1365">
+        <v>7.98</v>
+      </c>
+      <c r="I1365">
+        <v>1.18</v>
+      </c>
+      <c r="J1365">
+        <v>6.78</v>
+      </c>
+      <c r="K1365">
+        <v>0.96</v>
+      </c>
+      <c r="L1365">
+        <v>0.24</v>
+      </c>
+      <c r="M1365">
+        <v>0</v>
+      </c>
+      <c r="N1365">
+        <v>0</v>
+      </c>
+      <c r="O1365">
+        <v>0</v>
+      </c>
+      <c r="P1365">
+        <v>4.51</v>
+      </c>
+      <c r="Q1365">
+        <v>24.73</v>
+      </c>
+      <c r="R1365">
+        <v>4.74</v>
+      </c>
+      <c r="S1365">
+        <v>65</v>
+      </c>
+      <c r="T1365">
+        <v>21</v>
+      </c>
+      <c r="U1365">
+        <v>53</v>
+      </c>
+      <c r="V1365">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1366" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H1366">
+        <v>6.69</v>
+      </c>
+      <c r="I1366">
+        <v>0.73</v>
+      </c>
+      <c r="J1366">
+        <v>5.95</v>
+      </c>
+      <c r="K1366">
+        <v>0.74</v>
+      </c>
+      <c r="L1366">
+        <v>0.01</v>
+      </c>
+      <c r="M1366">
+        <v>0</v>
+      </c>
+      <c r="N1366">
+        <v>0</v>
+      </c>
+      <c r="O1366">
+        <v>0</v>
+      </c>
+      <c r="P1366">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q1366">
+        <v>21.41</v>
+      </c>
+      <c r="R1366">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S1366">
+        <v>47</v>
+      </c>
+      <c r="T1366">
+        <v>15</v>
+      </c>
+      <c r="U1366">
+        <v>37</v>
+      </c>
+      <c r="V1366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1367" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1367">
+        <v>6.84</v>
+      </c>
+      <c r="I1367">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J1367">
+        <v>5.69</v>
+      </c>
+      <c r="K1367">
+        <v>0.69</v>
+      </c>
+      <c r="L1367">
+        <v>0.47</v>
+      </c>
+      <c r="M1367">
+        <v>0</v>
+      </c>
+      <c r="N1367">
+        <v>0</v>
+      </c>
+      <c r="O1367">
+        <v>0</v>
+      </c>
+      <c r="P1367">
+        <v>4.12</v>
+      </c>
+      <c r="Q1367">
+        <v>24.53</v>
+      </c>
+      <c r="R1367">
+        <v>5.49</v>
+      </c>
+      <c r="S1367">
+        <v>62</v>
+      </c>
+      <c r="T1367">
+        <v>15</v>
+      </c>
+      <c r="U1367">
+        <v>50</v>
+      </c>
+      <c r="V1367">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1368" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H1368">
+        <v>7.24</v>
+      </c>
+      <c r="I1368">
+        <v>0.97</v>
+      </c>
+      <c r="J1368">
+        <v>6.26</v>
+      </c>
+      <c r="K1368">
+        <v>0.97</v>
+      </c>
+      <c r="L1368">
+        <v>0.01</v>
+      </c>
+      <c r="M1368">
+        <v>0</v>
+      </c>
+      <c r="N1368">
+        <v>0</v>
+      </c>
+      <c r="O1368">
+        <v>0</v>
+      </c>
+      <c r="P1368">
+        <v>4.46</v>
+      </c>
+      <c r="Q1368">
+        <v>21.13</v>
+      </c>
+      <c r="R1368">
+        <v>4.29</v>
+      </c>
+      <c r="S1368">
+        <v>53</v>
+      </c>
+      <c r="T1368">
+        <v>9</v>
+      </c>
+      <c r="U1368">
+        <v>34</v>
+      </c>
+      <c r="V1368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1369" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H1369">
+        <v>7.26</v>
+      </c>
+      <c r="I1369">
+        <v>0.74</v>
+      </c>
+      <c r="J1369">
+        <v>6.5</v>
+      </c>
+      <c r="K1369">
+        <v>0.74</v>
+      </c>
+      <c r="L1369">
+        <v>0.02</v>
+      </c>
+      <c r="M1369">
+        <v>0</v>
+      </c>
+      <c r="N1369">
+        <v>0</v>
+      </c>
+      <c r="O1369">
+        <v>0</v>
+      </c>
+      <c r="P1369">
+        <v>4.07</v>
+      </c>
+      <c r="Q1369">
+        <v>22.55</v>
+      </c>
+      <c r="R1369">
+        <v>5.23</v>
+      </c>
+      <c r="S1369">
+        <v>75</v>
+      </c>
+      <c r="T1369">
+        <v>23</v>
+      </c>
+      <c r="U1369">
+        <v>54</v>
+      </c>
+      <c r="V1369">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1370" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H1370">
+        <v>7.48</v>
+      </c>
+      <c r="I1370">
+        <v>1</v>
+      </c>
+      <c r="J1370">
+        <v>6.47</v>
+      </c>
+      <c r="K1370">
+        <v>0.98</v>
+      </c>
+      <c r="L1370">
+        <v>0.03</v>
+      </c>
+      <c r="M1370">
+        <v>0</v>
+      </c>
+      <c r="N1370">
+        <v>0</v>
+      </c>
+      <c r="O1370">
+        <v>0</v>
+      </c>
+      <c r="P1370">
+        <v>4.67</v>
+      </c>
+      <c r="Q1370">
+        <v>24.71</v>
+      </c>
+      <c r="R1370">
+        <v>4.49</v>
+      </c>
+      <c r="S1370">
+        <v>61</v>
+      </c>
+      <c r="T1370">
+        <v>5</v>
+      </c>
+      <c r="U1370">
+        <v>39</v>
+      </c>
+      <c r="V1370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1371" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>809</v>
+      </c>
+      <c r="H1371">
+        <v>7.07</v>
+      </c>
+      <c r="I1371">
+        <v>0.9</v>
+      </c>
+      <c r="J1371">
+        <v>6.16</v>
+      </c>
+      <c r="K1371">
+        <v>0.87</v>
+      </c>
+      <c r="L1371">
+        <v>0.04</v>
+      </c>
+      <c r="M1371">
+        <v>0</v>
+      </c>
+      <c r="N1371">
+        <v>0</v>
+      </c>
+      <c r="O1371">
+        <v>0</v>
+      </c>
+      <c r="P1371">
+        <v>4.43</v>
+      </c>
+      <c r="Q1371">
+        <v>22.2</v>
+      </c>
+      <c r="R1371">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S1371">
+        <v>61</v>
+      </c>
+      <c r="T1371">
+        <v>7</v>
+      </c>
+      <c r="U1371">
+        <v>25</v>
+      </c>
+      <c r="V1371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1372" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1372" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H1372">
+        <v>6.48</v>
+      </c>
+      <c r="I1372">
+        <v>0.94</v>
+      </c>
+      <c r="J1372">
+        <v>5.54</v>
+      </c>
+      <c r="K1372">
+        <v>0.92</v>
+      </c>
+      <c r="L1372">
+        <v>0.02</v>
+      </c>
+      <c r="M1372">
+        <v>0</v>
+      </c>
+      <c r="N1372">
+        <v>0</v>
+      </c>
+      <c r="O1372">
+        <v>0</v>
+      </c>
+      <c r="P1372">
+        <v>4.08</v>
+      </c>
+      <c r="Q1372">
+        <v>21.62</v>
+      </c>
+      <c r="R1372">
+        <v>4.3</v>
+      </c>
+      <c r="S1372">
+        <v>54</v>
+      </c>
+      <c r="T1372">
+        <v>2</v>
+      </c>
+      <c r="U1372">
+        <v>34</v>
+      </c>
+      <c r="V1372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1373" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H1373">
+        <v>6.99</v>
+      </c>
+      <c r="I1373">
+        <v>0.97</v>
+      </c>
+      <c r="J1373">
+        <v>6.01</v>
+      </c>
+      <c r="K1373">
+        <v>0.89</v>
+      </c>
+      <c r="L1373">
+        <v>0.09</v>
+      </c>
+      <c r="M1373">
+        <v>0.01</v>
+      </c>
+      <c r="N1373">
+        <v>0</v>
+      </c>
+      <c r="O1373">
+        <v>1</v>
+      </c>
+      <c r="P1373">
+        <v>4.13</v>
+      </c>
+      <c r="Q1373">
+        <v>25.61</v>
+      </c>
+      <c r="R1373">
+        <v>5.03</v>
+      </c>
+      <c r="S1373">
+        <v>67</v>
+      </c>
+      <c r="T1373">
+        <v>19</v>
+      </c>
+      <c r="U1373">
+        <v>55</v>
+      </c>
+      <c r="V1373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1374" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H1374">
+        <v>6.9</v>
+      </c>
+      <c r="I1374">
+        <v>0.76</v>
+      </c>
+      <c r="J1374">
+        <v>6.12</v>
+      </c>
+      <c r="K1374">
+        <v>0.74</v>
+      </c>
+      <c r="L1374">
+        <v>0.04</v>
+      </c>
+      <c r="M1374">
+        <v>0</v>
+      </c>
+      <c r="N1374">
+        <v>0</v>
+      </c>
+      <c r="O1374">
+        <v>0</v>
+      </c>
+      <c r="P1374">
+        <v>3.81</v>
+      </c>
+      <c r="Q1374">
+        <v>23.65</v>
+      </c>
+      <c r="R1374">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S1374">
+        <v>55</v>
+      </c>
+      <c r="T1374">
+        <v>12</v>
+      </c>
+      <c r="U1374">
+        <v>35</v>
+      </c>
+      <c r="V1374">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1375" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1375">
+        <v>6.95</v>
+      </c>
+      <c r="I1375">
+        <v>0.81</v>
+      </c>
+      <c r="J1375">
+        <v>6.12</v>
+      </c>
+      <c r="K1375">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L1375">
+        <v>0.23</v>
+      </c>
+      <c r="M1375">
+        <v>0.04</v>
+      </c>
+      <c r="N1375">
+        <v>0</v>
+      </c>
+      <c r="O1375">
+        <v>6</v>
+      </c>
+      <c r="P1375">
+        <v>3.85</v>
+      </c>
+      <c r="Q1375">
+        <v>30.25</v>
+      </c>
+      <c r="R1375">
+        <v>4.93</v>
+      </c>
+      <c r="S1375">
+        <v>58</v>
+      </c>
+      <c r="T1375">
+        <v>21</v>
+      </c>
+      <c r="U1375">
+        <v>39</v>
+      </c>
+      <c r="V1375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1376" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1376">
+        <v>7.41</v>
+      </c>
+      <c r="I1376">
+        <v>0.97</v>
+      </c>
+      <c r="J1376">
+        <v>6.42</v>
+      </c>
+      <c r="K1376">
+        <v>0.71</v>
+      </c>
+      <c r="L1376">
+        <v>0.23</v>
+      </c>
+      <c r="M1376">
+        <v>0.04</v>
+      </c>
+      <c r="N1376">
+        <v>0</v>
+      </c>
+      <c r="O1376">
+        <v>3</v>
+      </c>
+      <c r="P1376">
+        <v>5.16</v>
+      </c>
+      <c r="Q1376">
+        <v>29.26</v>
+      </c>
+      <c r="R1376">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S1376">
+        <v>43</v>
+      </c>
+      <c r="T1376">
+        <v>3</v>
+      </c>
+      <c r="U1376">
+        <v>21</v>
+      </c>
+      <c r="V1376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1377" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1377">
+        <v>7.41</v>
+      </c>
+      <c r="I1377">
+        <v>0.83</v>
+      </c>
+      <c r="J1377">
+        <v>6.57</v>
+      </c>
+      <c r="K1377">
+        <v>0.67</v>
+      </c>
+      <c r="L1377">
+        <v>0.16</v>
+      </c>
+      <c r="M1377">
+        <v>0</v>
+      </c>
+      <c r="N1377">
+        <v>0</v>
+      </c>
+      <c r="O1377">
+        <v>2</v>
+      </c>
+      <c r="P1377">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q1377">
+        <v>25.14</v>
+      </c>
+      <c r="R1377">
+        <v>4.49</v>
+      </c>
+      <c r="S1377">
+        <v>22</v>
+      </c>
+      <c r="T1377">
+        <v>3</v>
+      </c>
+      <c r="U1377">
+        <v>21</v>
+      </c>
+      <c r="V1377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1378" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H1378">
+        <v>7.83</v>
+      </c>
+      <c r="I1378">
+        <v>1.28</v>
+      </c>
+      <c r="J1378">
+        <v>6.54</v>
+      </c>
+      <c r="K1378">
+        <v>0.71</v>
+      </c>
+      <c r="L1378">
+        <v>0.46</v>
+      </c>
+      <c r="M1378">
+        <v>0.12</v>
+      </c>
+      <c r="N1378">
+        <v>0</v>
+      </c>
+      <c r="O1378">
+        <v>11</v>
+      </c>
+      <c r="P1378">
+        <v>5.05</v>
+      </c>
+      <c r="Q1378">
+        <v>28.83</v>
+      </c>
+      <c r="R1378">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S1378">
+        <v>30</v>
+      </c>
+      <c r="T1378">
+        <v>3</v>
+      </c>
+      <c r="U1378">
+        <v>21</v>
+      </c>
+      <c r="V1378">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1379" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H1379">
+        <v>7.02</v>
+      </c>
+      <c r="I1379">
+        <v>0.75</v>
+      </c>
+      <c r="J1379">
+        <v>6.26</v>
+      </c>
+      <c r="K1379">
+        <v>0.49</v>
+      </c>
+      <c r="L1379">
+        <v>0.23</v>
+      </c>
+      <c r="M1379">
+        <v>0.04</v>
+      </c>
+      <c r="N1379">
+        <v>0</v>
+      </c>
+      <c r="O1379">
+        <v>7</v>
+      </c>
+      <c r="P1379">
+        <v>4.12</v>
+      </c>
+      <c r="Q1379">
+        <v>29.22</v>
+      </c>
+      <c r="R1379">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S1379">
+        <v>46</v>
+      </c>
+      <c r="T1379">
+        <v>7</v>
+      </c>
+      <c r="U1379">
+        <v>28</v>
+      </c>
+      <c r="V1379">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1380" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1380" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H1380">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I1380">
+        <v>0.51</v>
+      </c>
+      <c r="J1380">
+        <v>4.37</v>
+      </c>
+      <c r="K1380">
+        <v>0.33</v>
+      </c>
+      <c r="L1380">
+        <v>0.16</v>
+      </c>
+      <c r="M1380">
+        <v>0.02</v>
+      </c>
+      <c r="N1380">
+        <v>0</v>
+      </c>
+      <c r="O1380">
+        <v>4</v>
+      </c>
+      <c r="P1380">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="Q1380">
+        <v>26.38</v>
+      </c>
+      <c r="R1380">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S1380">
+        <v>20</v>
+      </c>
+      <c r="T1380">
+        <v>1</v>
+      </c>
+      <c r="U1380">
+        <v>8</v>
+      </c>
+      <c r="V1380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1381" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1381">
+        <v>7.19</v>
+      </c>
+      <c r="I1381">
+        <v>1.01</v>
+      </c>
+      <c r="J1381">
+        <v>6.16</v>
+      </c>
+      <c r="K1381">
+        <v>0.74</v>
+      </c>
+      <c r="L1381">
+        <v>0.26</v>
+      </c>
+      <c r="M1381">
+        <v>0.03</v>
+      </c>
+      <c r="N1381">
+        <v>0</v>
+      </c>
+      <c r="O1381">
+        <v>4</v>
+      </c>
+      <c r="P1381">
+        <v>4.62</v>
+      </c>
+      <c r="Q1381">
+        <v>26.28</v>
+      </c>
+      <c r="R1381">
+        <v>4.57</v>
+      </c>
+      <c r="S1381">
+        <v>33</v>
+      </c>
+      <c r="T1381">
+        <v>4</v>
+      </c>
+      <c r="U1381">
+        <v>37</v>
+      </c>
+      <c r="V1381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1382" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>735</v>
+      </c>
+      <c r="H1382">
+        <v>7.22</v>
+      </c>
+      <c r="I1382">
+        <v>0.99</v>
+      </c>
+      <c r="J1382">
+        <v>6.21</v>
+      </c>
+      <c r="K1382">
+        <v>0.59</v>
+      </c>
+      <c r="L1382">
+        <v>0.31</v>
+      </c>
+      <c r="M1382">
+        <v>0.11</v>
+      </c>
+      <c r="N1382">
+        <v>0.01</v>
+      </c>
+      <c r="O1382">
+        <v>10</v>
+      </c>
+      <c r="P1382">
+        <v>4.16</v>
+      </c>
+      <c r="Q1382">
+        <v>32.47</v>
+      </c>
+      <c r="R1382">
+        <v>5.2</v>
+      </c>
+      <c r="S1382">
+        <v>45</v>
+      </c>
+      <c r="T1382">
+        <v>7</v>
+      </c>
+      <c r="U1382">
+        <v>40</v>
+      </c>
+      <c r="V1382">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1383" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H1383">
+        <v>7.02</v>
+      </c>
+      <c r="I1383">
+        <v>0.67</v>
+      </c>
+      <c r="J1383">
+        <v>6.33</v>
+      </c>
+      <c r="K1383">
+        <v>0.48</v>
+      </c>
+      <c r="L1383">
+        <v>0.16</v>
+      </c>
+      <c r="M1383">
+        <v>0.06</v>
+      </c>
+      <c r="N1383">
+        <v>0</v>
+      </c>
+      <c r="O1383">
+        <v>6</v>
+      </c>
+      <c r="P1383">
+        <v>4.16</v>
+      </c>
+      <c r="Q1383">
+        <v>27.4</v>
+      </c>
+      <c r="R1383">
+        <v>4.99</v>
+      </c>
+      <c r="S1383">
+        <v>58</v>
+      </c>
+      <c r="T1383">
+        <v>10</v>
+      </c>
+      <c r="U1383">
+        <v>49</v>
+      </c>
+      <c r="V1383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1384" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>942</v>
+      </c>
+      <c r="H1384">
+        <v>5.95</v>
+      </c>
+      <c r="I1384">
+        <v>0.5</v>
+      </c>
+      <c r="J1384">
+        <v>5.43</v>
+      </c>
+      <c r="K1384">
+        <v>0.36</v>
+      </c>
+      <c r="L1384">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M1384">
+        <v>0.01</v>
+      </c>
+      <c r="N1384">
+        <v>0</v>
+      </c>
+      <c r="O1384">
+        <v>1</v>
+      </c>
+      <c r="P1384">
+        <v>3.81</v>
+      </c>
+      <c r="Q1384">
+        <v>26.36</v>
+      </c>
+      <c r="R1384">
+        <v>4.46</v>
+      </c>
+      <c r="S1384">
+        <v>17</v>
+      </c>
+      <c r="T1384">
+        <v>3</v>
+      </c>
+      <c r="U1384">
+        <v>9</v>
+      </c>
+      <c r="V1384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1385" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H1385">
+        <v>6.81</v>
+      </c>
+      <c r="I1385">
+        <v>0.8</v>
+      </c>
+      <c r="J1385">
+        <v>5.99</v>
+      </c>
+      <c r="K1385">
+        <v>0.59</v>
+      </c>
+      <c r="L1385">
+        <v>0.19</v>
+      </c>
+      <c r="M1385">
+        <v>0.03</v>
+      </c>
+      <c r="N1385">
+        <v>0</v>
+      </c>
+      <c r="O1385">
+        <v>7</v>
+      </c>
+      <c r="P1385">
+        <v>4.17</v>
+      </c>
+      <c r="Q1385">
+        <v>28.16</v>
+      </c>
+      <c r="R1385">
+        <v>5.01</v>
+      </c>
+      <c r="S1385">
+        <v>66</v>
+      </c>
+      <c r="T1385">
+        <v>23</v>
+      </c>
+      <c r="U1385">
+        <v>41</v>
+      </c>
+      <c r="V1385">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1386" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H1386">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I1386">
+        <v>1.3</v>
+      </c>
+      <c r="J1386">
+        <v>6.9</v>
+      </c>
+      <c r="K1386">
+        <v>0.94</v>
+      </c>
+      <c r="L1386">
+        <v>0.3</v>
+      </c>
+      <c r="M1386">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N1386">
+        <v>0</v>
+      </c>
+      <c r="O1386">
+        <v>5</v>
+      </c>
+      <c r="P1386">
+        <v>5.28</v>
+      </c>
+      <c r="Q1386">
+        <v>28.91</v>
+      </c>
+      <c r="R1386">
+        <v>4.55</v>
+      </c>
+      <c r="S1386">
+        <v>53</v>
+      </c>
+      <c r="T1386">
+        <v>4</v>
+      </c>
+      <c r="U1386">
+        <v>32</v>
+      </c>
+      <c r="V1386">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>46078</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1387" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>735</v>
+      </c>
+      <c r="H1387">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I1387">
+        <v>0.71</v>
+      </c>
+      <c r="J1387">
+        <v>7.31</v>
+      </c>
+      <c r="K1387">
+        <v>0.6</v>
+      </c>
+      <c r="L1387">
+        <v>0.12</v>
+      </c>
+      <c r="M1387">
+        <v>0</v>
+      </c>
+      <c r="N1387">
+        <v>0</v>
+      </c>
+      <c r="O1387">
+        <v>0</v>
+      </c>
+      <c r="P1387">
+        <v>5.19</v>
+      </c>
+      <c r="Q1387">
+        <v>23.73</v>
+      </c>
+      <c r="R1387">
+        <v>4.04</v>
+      </c>
+      <c r="S1387">
+        <v>23</v>
+      </c>
+      <c r="T1387">
+        <v>2</v>
+      </c>
+      <c r="U1387">
+        <v>13</v>
+      </c>
+      <c r="V1387">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
